--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="F" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="X" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Z" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Xp" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Xg" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Xv" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="E" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="M" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Q" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="D" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="pf" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="py" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="pz" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="pq" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="pe" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="pm" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="pd" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="epsilon" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Sp" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Sg" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Td" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Tz" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Tm" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Y" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="X" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Z" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Xp" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Xg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Xv" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="E" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="D" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pf" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="py" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pz" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pq" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pe" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pm" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pd" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="epsilon" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sp" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sg" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Td" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tz" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tm" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,10 +488,10 @@
         <v>1716192.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1683392.971131552</v>
+        <v>1715326.292843203</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.911179865459377</v>
+        <v>-0.05047241129487474</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         <v>154636.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>149150.6730189581</v>
+        <v>155235.1958943164</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.547555701432391</v>
+        <v>0.3871707858175755</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3242974.18102503</v>
       </c>
       <c r="C4" t="n">
-        <v>3190716.593784751</v>
+        <v>3239601.070366731</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.611409290460702</v>
+        <v>-0.1040128742940701</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>519331.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>512155.806969867</v>
+        <v>518188.6481518393</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.381660666806139</v>
+        <v>-0.2200048372120517</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         <v>1321086.417788376</v>
       </c>
       <c r="C6" t="n">
-        <v>1305319.915632427</v>
+        <v>1319674.239573156</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.193449720143515</v>
+        <v>-0.1068952186779897</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>2762815.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>2727671.345030043</v>
+        <v>2755225.730075389</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.272041296141948</v>
+        <v>-0.2747113964735569</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>666749.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>657005.9417681647</v>
+        <v>665143.8356192902</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.461295734180651</v>
+        <v>-0.2407626087349644</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>352280.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>344406.7158569819</v>
+        <v>351117.9980057724</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.235022266091684</v>
+        <v>-0.3299248343826354</v>
       </c>
     </row>
     <row r="10">
@@ -616,10 +616,10 @@
         <v>472989.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>465846.5518148938</v>
+        <v>471427.3352470004</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.510241714241865</v>
+        <v>-0.3303467270793468</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1344792.707611407</v>
       </c>
       <c r="C11" t="n">
-        <v>1332066.150918796</v>
+        <v>1339335.683335572</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9463582469312594</v>
+        <v>-0.4057892524958234</v>
       </c>
     </row>
     <row r="12">
@@ -648,10 +648,10 @@
         <v>1086830.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1073544.005916211</v>
+        <v>1083222.633818372</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.222512469543596</v>
+        <v>-0.331975573385577</v>
       </c>
     </row>
     <row r="13">
@@ -664,10 +664,10 @@
         <v>1143812.989778033</v>
       </c>
       <c r="C13" t="n">
-        <v>1138946.099733948</v>
+        <v>1134439.613624843</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4254970076034206</v>
+        <v>-0.8194850239468495</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>712160.1110237867</v>
       </c>
       <c r="C14" t="n">
-        <v>705488.5345562909</v>
+        <v>709176.0968986651</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9368085019399416</v>
+        <v>-0.4190088828243811</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v>722157.2634633619</v>
       </c>
       <c r="C15" t="n">
-        <v>709616.5376453184</v>
+        <v>720806.7650485734</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.736564381821758</v>
+        <v>-0.1870089083244439</v>
       </c>
     </row>
     <row r="16">
@@ -712,10 +712,10 @@
         <v>298161.0429722404</v>
       </c>
       <c r="C16" t="n">
-        <v>294408.9190902163</v>
+        <v>297254.3108869907</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.258421906705436</v>
+        <v>-0.3041081679252433</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         <v>363863.9942526534</v>
       </c>
       <c r="C17" t="n">
-        <v>359455.1372531408</v>
+        <v>362563.2501822018</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.211677184099519</v>
+        <v>-0.3574808420171419</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +785,10 @@
         <v>3450957.802370132</v>
       </c>
       <c r="C2" t="n">
-        <v>3388301.93097065</v>
+        <v>3448618.174390638</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.815608158304615</v>
+        <v>-0.06779648183141601</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         <v>482919.8310003763</v>
       </c>
       <c r="C3" t="n">
-        <v>474941.083943975</v>
+        <v>482506.8054535361</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.652188736973831</v>
+        <v>-0.08552673142136828</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>13829988.52652916</v>
       </c>
       <c r="C4" t="n">
-        <v>13641459.50257013</v>
+        <v>13806412.34367666</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.363190024325638</v>
+        <v>-0.1704714563376275</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>897254.4002150299</v>
       </c>
       <c r="C5" t="n">
-        <v>884857.3895152216</v>
+        <v>895280.3969278719</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.38166061897689</v>
+        <v>-0.2200048600135051</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         <v>3009042.214440523</v>
       </c>
       <c r="C6" t="n">
-        <v>2973198.142421439</v>
+        <v>3005820.618981088</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.191212002512531</v>
+        <v>-0.1070638173161887</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4383731.161583323</v>
       </c>
       <c r="C7" t="n">
-        <v>4327072.730767685</v>
+        <v>4372186.565164287</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.292470471550862</v>
+        <v>-0.2633509217035721</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         <v>1665526.087146317</v>
       </c>
       <c r="C8" t="n">
-        <v>1642687.075464507</v>
+        <v>1661541.950348968</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.371279132645829</v>
+        <v>-0.2392119119655972</v>
       </c>
     </row>
     <row r="9">
@@ -897,10 +897,10 @@
         <v>1247668.798003208</v>
       </c>
       <c r="C9" t="n">
-        <v>1229022.520963901</v>
+        <v>1244345.423452823</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.49448932834972</v>
+        <v>-0.2663667277488432</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>819039.8384011268</v>
       </c>
       <c r="C10" t="n">
-        <v>807887.6110571298</v>
+        <v>816685.487613919</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.361622087366055</v>
+        <v>-0.2874525361066484</v>
       </c>
     </row>
     <row r="11">
@@ -929,10 +929,10 @@
         <v>2819310.646765826</v>
       </c>
       <c r="C11" t="n">
-        <v>2791089.331493293</v>
+        <v>2808614.914061159</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.001000556817196</v>
+        <v>-0.3793740401376672</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +945,10 @@
         <v>1650491.778729892</v>
       </c>
       <c r="C12" t="n">
-        <v>1630309.672833291</v>
+        <v>1645172.318164272</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.222793482323904</v>
+        <v>-0.3222954899971169</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>1285246.074292473</v>
       </c>
       <c r="C13" t="n">
-        <v>1271735.647863237</v>
+        <v>1279681.606509506</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.051193751879234</v>
+        <v>-0.4329496035247772</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
         <v>1283357.657219289</v>
       </c>
       <c r="C14" t="n">
-        <v>1271099.803206316</v>
+        <v>1278117.714174407</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9551393521532082</v>
+        <v>-0.4082995114733744</v>
       </c>
     </row>
     <row r="15">
@@ -993,10 +993,10 @@
         <v>806616.9594252668</v>
       </c>
       <c r="C15" t="n">
-        <v>793369.7590149656</v>
+        <v>805005.0709641833</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.642316127315269</v>
+        <v>-0.1998331974363682</v>
       </c>
     </row>
     <row r="16">
@@ -1009,10 +1009,10 @@
         <v>457402.8571253931</v>
       </c>
       <c r="C16" t="n">
-        <v>451657.5637025688</v>
+        <v>456030.5110402575</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.256068547304533</v>
+        <v>-0.300030064035965</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>594553.9771915111</v>
       </c>
       <c r="C17" t="n">
-        <v>587330.7991884659</v>
+        <v>592588.233674783</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.214890200073205</v>
+        <v>-0.3306249040690322</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1082,10 @@
         <v>3372602.435199078</v>
       </c>
       <c r="C2" t="n">
-        <v>3309835.851325445</v>
+        <v>3370590.402507502</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.861072719943295</v>
+        <v>-0.05965816399160864</v>
       </c>
     </row>
     <row r="3">
@@ -1098,10 +1098,10 @@
         <v>165130.445609969</v>
       </c>
       <c r="C3" t="n">
-        <v>160295.364165374</v>
+        <v>165510.0511846088</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.928037544339482</v>
+        <v>0.2298822444507829</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>8017599.612171117</v>
       </c>
       <c r="C4" t="n">
-        <v>7896117.290582961</v>
+        <v>8007188.821721615</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.515195662848262</v>
+        <v>-0.1298492186326921</v>
       </c>
     </row>
     <row r="5">
@@ -1130,10 +1130,10 @@
         <v>897254.3977899103</v>
       </c>
       <c r="C5" t="n">
-        <v>884857.3871227134</v>
+        <v>895280.3945085136</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.381660619076694</v>
+        <v>-0.2200048599660255</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>3005294.609814465</v>
       </c>
       <c r="C6" t="n">
-        <v>2969457.772231306</v>
+        <v>3002079.831558432</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.1924567217512</v>
+        <v>-0.1069704862057284</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +1162,10 @@
         <v>4365278.370174446</v>
       </c>
       <c r="C7" t="n">
-        <v>4308912.707356147</v>
+        <v>4353752.059681415</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.291227226272999</v>
+        <v>-0.2640452570398368</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1178,10 @@
         <v>1397390.239860752</v>
       </c>
       <c r="C8" t="n">
-        <v>1377659.514743072</v>
+        <v>1394037.734120624</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.411969581213464</v>
+        <v>-0.2399119189827626</v>
       </c>
     </row>
     <row r="9">
@@ -1194,10 +1194,10 @@
         <v>607104.7726796871</v>
       </c>
       <c r="C9" t="n">
-        <v>595588.6414348284</v>
+        <v>605278.6817657778</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.89689354508414</v>
+        <v>-0.3007867827902631</v>
       </c>
     </row>
     <row r="10">
@@ -1210,10 +1210,10 @@
         <v>747302.7328467588</v>
       </c>
       <c r="C10" t="n">
-        <v>736868.2748722535</v>
+        <v>745079.9907355518</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.39628259283309</v>
+        <v>-0.2974352981073307</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         <v>2698896.038135583</v>
       </c>
       <c r="C11" t="n">
-        <v>2672945.023694261</v>
+        <v>2688140.320049947</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9615418332026484</v>
+        <v>-0.3985228750443476</v>
       </c>
     </row>
     <row r="12">
@@ -1242,10 +1242,10 @@
         <v>1524391.011590432</v>
       </c>
       <c r="C12" t="n">
-        <v>1505754.925580819</v>
+        <v>1519337.830843851</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.222526626562126</v>
+        <v>-0.3314884900370044</v>
       </c>
     </row>
     <row r="13">
@@ -1258,10 +1258,10 @@
         <v>1169087.550664374</v>
       </c>
       <c r="C13" t="n">
-        <v>1158086.402690918</v>
+        <v>1163218.041432565</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9410029186611339</v>
+        <v>-0.502058997076248</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         <v>1254896.669123307</v>
       </c>
       <c r="C14" t="n">
-        <v>1243079.16080544</v>
+        <v>1249674.232590744</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9417116650826276</v>
+        <v>-0.4161646660686055</v>
       </c>
     </row>
     <row r="15">
@@ -1290,10 +1290,10 @@
         <v>794852.5872857772</v>
       </c>
       <c r="C15" t="n">
-        <v>781672.8966895631</v>
+        <v>793281.1377164879</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.658130174957283</v>
+        <v>-0.1977032715783749</v>
       </c>
     </row>
     <row r="16">
@@ -1306,10 +1306,10 @@
         <v>451160.8912917899</v>
       </c>
       <c r="C16" t="n">
-        <v>445489.6273728029</v>
+        <v>449799.691275638</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.257038016470958</v>
+        <v>-0.3017105521390417</v>
       </c>
     </row>
     <row r="17">
@@ -1322,10 +1322,10 @@
         <v>552656.7553519364</v>
       </c>
       <c r="C17" t="n">
-        <v>545951.6221329895</v>
+        <v>550753.8966228027</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.21325454796569</v>
+        <v>-0.3443111317660408</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9876536217821723</v>
+        <v>0.997645009665897</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.234637821782769</v>
+        <v>-0.2354990334103024</v>
       </c>
     </row>
     <row r="3">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9884504150119623</v>
+        <v>0.997400621507752</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.154958498803771</v>
+        <v>-0.2599378492248006</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.013734494724394</v>
+        <v>0.9975641355623592</v>
       </c>
       <c r="D2" t="n">
-        <v>1.373449472439425</v>
+        <v>-0.2435864437640767</v>
       </c>
     </row>
     <row r="3">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00956890093385</v>
+        <v>0.9976311466933196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9568900933849545</v>
+        <v>-0.2368853306680352</v>
       </c>
     </row>
     <row r="4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999534608836987</v>
+        <v>0.9994046980825932</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04653911630130292</v>
+        <v>-0.05953019174067542</v>
       </c>
     </row>
     <row r="5">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001900734080203</v>
+        <v>0.9989040774074891</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1900734080202859</v>
+        <v>-0.1095922592510901</v>
       </c>
     </row>
     <row r="6">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.010844786192658</v>
+        <v>0.999052887420526</v>
       </c>
       <c r="D6" t="n">
-        <v>1.084478619265772</v>
+        <v>-0.09471125794739965</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9982253230658397</v>
+        <v>1.000836967320951</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1774676934160335</v>
+        <v>0.08369673209509543</v>
       </c>
     </row>
     <row r="8">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.002826806304943</v>
+        <v>0.9992892068148576</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2826806304943474</v>
+        <v>-0.07107931851424443</v>
       </c>
     </row>
     <row r="9">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.006303033225964</v>
+        <v>0.9997762619671406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.630303322596415</v>
+        <v>-0.02237380328593552</v>
       </c>
     </row>
     <row r="10">
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.004270982046907</v>
+        <v>0.9996629381869736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4270982046906679</v>
+        <v>-0.03370618130263958</v>
       </c>
     </row>
     <row r="11">
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9939404729716531</v>
+        <v>1.002618146883916</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6059527028346889</v>
+        <v>0.2618146883915706</v>
       </c>
     </row>
     <row r="12">
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.00042408986178</v>
+        <v>1.000435185403201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04240898617799971</v>
+        <v>0.04351854032005331</v>
       </c>
     </row>
     <row r="13">
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9951298092126175</v>
+        <v>1.002837923425357</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4870190787382489</v>
+        <v>0.2837923425356825</v>
       </c>
     </row>
     <row r="14">
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9963220016805167</v>
+        <v>1.002037081518493</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3677998319483344</v>
+        <v>0.2037081518493133</v>
       </c>
     </row>
     <row r="15">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.006075951838422</v>
+        <v>0.9991059004270914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6075951838421911</v>
+        <v>-0.08940995729086465</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001052653882145</v>
+        <v>1.000399295534131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1052653882145149</v>
+        <v>0.03992955341309834</v>
       </c>
     </row>
     <row r="17">
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.000028111393129</v>
+        <v>1.001055468539802</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002811139312863808</v>
+        <v>0.1055468539802096</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.009942597462653</v>
+        <v>0.9982526112692428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9942597462653469</v>
+        <v>-0.1747388730757193</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.006725901785804</v>
+        <v>0.9983895545151702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6725901785803678</v>
+        <v>-0.1610445484829803</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001346038773815</v>
+        <v>0.9996453187220676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1346038773815339</v>
+        <v>-0.03546812779323671</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001274530428581</v>
+        <v>0.999401712549573</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1274530428580833</v>
+        <v>-0.05982874504270042</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.005052187018086</v>
+        <v>0.9996252958681437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5052187018085963</v>
+        <v>-0.03747041318562516</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9986009554048427</v>
+        <v>1.000773412675437</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1399044595157273</v>
+        <v>0.07734126754370685</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.001031195862075</v>
+        <v>1.000017528937141</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1031195862075007</v>
+        <v>0.001752893714068726</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.002258929696496</v>
+        <v>1.000190003748347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2258929696496104</v>
+        <v>0.01900037483471007</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0014272879991</v>
+        <v>1.000406407773614</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1427287999099747</v>
+        <v>0.04064077736138927</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9954116751952395</v>
+        <v>1.002213994216764</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4588324804760457</v>
+        <v>0.221399421676427</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999823915639806</v>
+        <v>1.000601162923052</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001760843601938955</v>
+        <v>0.06011629230520121</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9964269396701946</v>
+        <v>1.002239413519862</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3573060329805422</v>
+        <v>0.2239413519861566</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9969683946783102</v>
+        <v>1.001766340089076</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3031605321689779</v>
+        <v>0.176634008907639</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.005111529574674</v>
+        <v>0.9993219013253329</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5111529574673757</v>
+        <v>-0.06780986746670603</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000352718001809</v>
+        <v>1.000605548491128</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0352718001808805</v>
+        <v>0.06055484911282605</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9998905010347278</v>
+        <v>1.000908269846517</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01094989652722367</v>
+        <v>0.09082698465174843</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.009966603349594</v>
+        <v>0.9982473812280541</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9966603349593983</v>
+        <v>-0.175261877194588</v>
       </c>
     </row>
     <row r="3">
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.003381483969992</v>
+        <v>0.9991804743365168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3381483969991717</v>
+        <v>-0.08195256634832004</v>
       </c>
     </row>
     <row r="4">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001063277528034</v>
+        <v>0.9997193760280034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1063277528034146</v>
+        <v>-0.02806239719965742</v>
       </c>
     </row>
     <row r="5">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.001274528361582</v>
+        <v>0.9994017101313853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1274528361582261</v>
+        <v>-0.05982898686146543</v>
       </c>
     </row>
     <row r="6">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.005050938930153</v>
+        <v>0.9996254181512243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5050938930152959</v>
+        <v>-0.03745818487757013</v>
       </c>
     </row>
     <row r="7">
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985102067274186</v>
+        <v>1.000823444033228</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1489793272581363</v>
+        <v>0.08234440332284265</v>
       </c>
     </row>
     <row r="8">
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.001075141460303</v>
+        <v>1.000018281472608</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1075141460303408</v>
+        <v>0.001828147260818369</v>
       </c>
     </row>
     <row r="9">
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.001937834204533</v>
+        <v>1.000163557398916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1937834204533084</v>
+        <v>0.01635573989164918</v>
       </c>
     </row>
     <row r="10">
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.001830413177654</v>
+        <v>1.00052147314176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1830413177654089</v>
+        <v>0.05214731417602092</v>
       </c>
     </row>
     <row r="11">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9955337175014118</v>
+        <v>1.002154222192357</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4466282498588159</v>
+        <v>0.2154222192357391</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999836685446442</v>
+        <v>1.000557463264766</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001633145535584468</v>
+        <v>0.05574632647664668</v>
       </c>
     </row>
     <row r="13">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9943975200770918</v>
+        <v>1.003493512758482</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5602479922908188</v>
+        <v>0.3493512758481865</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9970112958610411</v>
+        <v>1.001741085726016</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2988704138958909</v>
+        <v>0.1741085726016278</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.005431751933842</v>
+        <v>0.99927902489871</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5431751933842488</v>
+        <v>-0.0720975101289989</v>
       </c>
     </row>
     <row r="16">
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000354815009349</v>
+        <v>1.000609145087867</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03548150093493074</v>
+        <v>0.06091450878673577</v>
       </c>
     </row>
     <row r="17">
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999890793753513</v>
+        <v>1.000905682671249</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01092062464870258</v>
+        <v>0.09056826712485755</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.010200521248145</v>
+        <v>0.9982067385546359</v>
       </c>
       <c r="D2" t="n">
-        <v>1.020052124814463</v>
+        <v>-0.1793261445364069</v>
       </c>
     </row>
     <row r="3">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00995384844159</v>
+        <v>0.9976070999684113</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9953848441590196</v>
+        <v>-0.2392900031588652</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001835524355191</v>
+        <v>0.999516040001437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1835524355190632</v>
+        <v>-0.04839599985629883</v>
       </c>
     </row>
     <row r="5">
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.00127453067088</v>
+        <v>0.9994017124356209</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1274530670880347</v>
+        <v>-0.05982875643790742</v>
       </c>
     </row>
     <row r="6">
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.005057237354809</v>
+        <v>0.9996249192688839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5057237354808786</v>
+        <v>-0.03750807311161397</v>
       </c>
     </row>
     <row r="7">
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9985039209917774</v>
+        <v>1.000826930210988</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1496079008222573</v>
+        <v>0.08269302109875643</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.001281710827557</v>
+        <v>1.000021792716981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1281710827557125</v>
+        <v>0.002179271698143914</v>
       </c>
     </row>
     <row r="9">
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.003990633733744</v>
+        <v>1.000336193355401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3990633733744087</v>
+        <v>0.03361933554011376</v>
       </c>
     </row>
     <row r="10">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.002006479091493</v>
+        <v>1.000571563795611</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2006479091493318</v>
+        <v>0.05715637956107411</v>
       </c>
     </row>
     <row r="11">
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.995335380684445</v>
+        <v>1.002250554235101</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4664619315554952</v>
+        <v>0.2250554235101232</v>
       </c>
     </row>
     <row r="12">
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999823199040817</v>
+        <v>1.000603607917686</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001768009591829323</v>
+        <v>0.06036079176858777</v>
       </c>
     </row>
     <row r="13">
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9938442979837134</v>
+        <v>1.003841959812923</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6155702016286568</v>
+        <v>0.384195981292268</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9969437217442898</v>
+        <v>1.001780646134003</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3056278255710199</v>
+        <v>0.1780646134003305</v>
       </c>
     </row>
     <row r="15">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.005512591270697</v>
+        <v>0.9992683642176703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5512591270697031</v>
+        <v>-0.07316357823297093</v>
       </c>
     </row>
     <row r="16">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000359728085776</v>
+        <v>1.000617580347161</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0359728085776112</v>
+        <v>0.061758034716064</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9998825183228185</v>
+        <v>1.000974412475629</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01174816771815079</v>
+        <v>0.09744124756290162</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3279,10 @@
         <v>1135500.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1143211.022416441</v>
+        <v>1134835.379197251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6790420489453871</v>
+        <v>-0.05857482083376239</v>
       </c>
     </row>
     <row r="3">
@@ -3295,10 +3295,10 @@
         <v>131043.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>129199.2484865791</v>
+        <v>131549.0227000822</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.407349666597548</v>
+        <v>0.3857758361288167</v>
       </c>
     </row>
     <row r="4">
@@ -3311,10 +3311,10 @@
         <v>2283937.65102503</v>
       </c>
       <c r="C4" t="n">
-        <v>2274165.984566526</v>
+        <v>2285586.377383522</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4278429603416637</v>
+        <v>0.07218788821805096</v>
       </c>
     </row>
     <row r="5">
@@ -3327,10 +3327,10 @@
         <v>426893.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>427067.9281409348</v>
+        <v>426491.587158847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04092972737476453</v>
+        <v>-0.09407850876004389</v>
       </c>
     </row>
     <row r="6">
@@ -3343,10 +3343,10 @@
         <v>744992.4177883761</v>
       </c>
       <c r="C6" t="n">
-        <v>753385.7546337339</v>
+        <v>745246.2668224203</v>
       </c>
       <c r="D6" t="n">
-        <v>1.126633861627034</v>
+        <v>0.03407404263224353</v>
       </c>
     </row>
     <row r="7">
@@ -3359,10 +3359,10 @@
         <v>1787008.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>1783161.578592982</v>
+        <v>1787801.196595608</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2152715291460173</v>
+        <v>0.04435890937309738</v>
       </c>
     </row>
     <row r="8">
@@ -3375,10 +3375,10 @@
         <v>425529.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>425752.6937600199</v>
+        <v>425204.220033274</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05254060427382327</v>
+        <v>-0.07635156862350206</v>
       </c>
     </row>
     <row r="9">
@@ -3391,10 +3391,10 @@
         <v>224861.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>223986.6131517731</v>
+        <v>224598.1674135005</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3889709234531241</v>
+        <v>-0.1170013245131332</v>
       </c>
     </row>
     <row r="10">
@@ -3407,10 +3407,10 @@
         <v>316229.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>316694.2481645541</v>
+        <v>315822.7093135997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1468572521627942</v>
+        <v>-0.1287457226373206</v>
       </c>
     </row>
     <row r="11">
@@ -3423,10 +3423,10 @@
         <v>917723.7076114072</v>
       </c>
       <c r="C11" t="n">
-        <v>914825.1864784636</v>
+        <v>918555.8590307587</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3158381012611798</v>
+        <v>0.09067559358550807</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3439,10 @@
         <v>1029993.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1030556.961153907</v>
+        <v>1029445.402907182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0546911205321943</v>
+        <v>-0.05322782158431983</v>
       </c>
     </row>
     <row r="13">
@@ -3455,10 +3455,10 @@
         <v>418612.9897780325</v>
       </c>
       <c r="C13" t="n">
-        <v>419987.0728694425</v>
+        <v>417343.6153952823</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3282466442664705</v>
+        <v>-0.3032333954623164</v>
       </c>
     </row>
     <row r="14">
@@ -3471,10 +3471,10 @@
         <v>99793.11102378671</v>
       </c>
       <c r="C14" t="n">
-        <v>99725.89383570092</v>
+        <v>99812.46131857845</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06735654134459368</v>
+        <v>0.01939041141540497</v>
       </c>
     </row>
     <row r="15">
@@ -3487,10 +3487,10 @@
         <v>162559.2634633618</v>
       </c>
       <c r="C15" t="n">
-        <v>162715.8184008272</v>
+        <v>162492.8599123401</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0963063772128202</v>
+        <v>-0.04084882621081919</v>
       </c>
     </row>
     <row r="16">
@@ -3503,10 +3503,10 @@
         <v>213874.0429722403</v>
       </c>
       <c r="C16" t="n">
-        <v>214047.6202278461</v>
+        <v>213812.2996825972</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08115863579964058</v>
+        <v>-0.02886899634246679</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>265197.5242526537</v>
       </c>
       <c r="C17" t="n">
-        <v>265266.6332820132</v>
+        <v>265152.8332969015</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02605945494937391</v>
+        <v>-0.01685195058971921</v>
       </c>
     </row>
     <row r="18">
@@ -3535,10 +3535,10 @@
         <v>580692</v>
       </c>
       <c r="C18" t="n">
-        <v>584163.8664846472</v>
+        <v>580494.0614573031</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5978843319086798</v>
+        <v>-0.03408666602895858</v>
       </c>
     </row>
     <row r="19">
@@ -3551,10 +3551,10 @@
         <v>23593</v>
       </c>
       <c r="C19" t="n">
-        <v>23242.21325124416</v>
+        <v>23689.81927074369</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.486825536200721</v>
+        <v>0.4103728679849383</v>
       </c>
     </row>
     <row r="20">
@@ -3567,10 +3567,10 @@
         <v>959036.53</v>
       </c>
       <c r="C20" t="n">
-        <v>954163.5847013739</v>
+        <v>959963.9958450149</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5081084136207082</v>
+        <v>0.09670808316497599</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3583,10 @@
         <v>92438</v>
       </c>
       <c r="C21" t="n">
-        <v>92401.28953766526</v>
+        <v>92373.66402715779</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03971360515668929</v>
+        <v>-0.06959905324888835</v>
       </c>
     </row>
     <row r="22">
@@ -3599,10 +3599,10 @@
         <v>576094</v>
       </c>
       <c r="C22" t="n">
-        <v>582114.8467628623</v>
+        <v>576431.5040864979</v>
       </c>
       <c r="D22" t="n">
-        <v>1.045115339313079</v>
+        <v>0.0585848987314463</v>
       </c>
     </row>
     <row r="23">
@@ -3615,10 +3615,10 @@
         <v>975807</v>
       </c>
       <c r="C23" t="n">
-        <v>972921.4573482024</v>
+        <v>976479.0605831884</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2957083369762304</v>
+        <v>0.0688722855224887</v>
       </c>
     </row>
     <row r="24">
@@ -3631,10 +3631,10 @@
         <v>241220</v>
       </c>
       <c r="C24" t="n">
-        <v>241152.188021749</v>
+        <v>241094.8845662492</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02811208782480884</v>
+        <v>-0.0518677695675278</v>
       </c>
     </row>
     <row r="25">
@@ -3647,10 +3647,10 @@
         <v>127419</v>
       </c>
       <c r="C25" t="n">
-        <v>126821.06377454</v>
+        <v>127301.1024030386</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.469267711612855</v>
+        <v>-0.09252748566651063</v>
       </c>
     </row>
     <row r="26">
@@ -3663,10 +3663,10 @@
         <v>156760</v>
       </c>
       <c r="C26" t="n">
-        <v>156863.6630853439</v>
+        <v>156596.5388839311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06612853109458355</v>
+        <v>-0.1042747614626505</v>
       </c>
     </row>
     <row r="27">
@@ -3679,10 +3679,10 @@
         <v>427069</v>
       </c>
       <c r="C27" t="n">
-        <v>425376.978920752</v>
+        <v>427560.9848481453</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.396193842036765</v>
+        <v>0.1152003184837432</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3695,10 @@
         <v>56837</v>
       </c>
       <c r="C28" t="n">
-        <v>56822.24323627751</v>
+        <v>56820.66598024186</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02596330510493676</v>
+        <v>-0.02873835663061377</v>
       </c>
     </row>
     <row r="29">
@@ -3711,10 +3711,10 @@
         <v>725200</v>
       </c>
       <c r="C29" t="n">
-        <v>726993.9396017193</v>
+        <v>723178.1047755934</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247371704594493</v>
+        <v>-0.2788051881421149</v>
       </c>
     </row>
     <row r="30">
@@ -3727,10 +3727,10 @@
         <v>612367</v>
       </c>
       <c r="C30" t="n">
-        <v>611461.2321470564</v>
+        <v>612635.8148427473</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1479125839477998</v>
+        <v>0.04389766965680573</v>
       </c>
     </row>
     <row r="31">
@@ -3743,10 +3743,10 @@
         <v>559598</v>
       </c>
       <c r="C31" t="n">
-        <v>559685.4002841171</v>
+        <v>559506.4703151187</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01561840537619643</v>
+        <v>-0.01635632809290427</v>
       </c>
     </row>
     <row r="32">
@@ -3759,10 +3759,10 @@
         <v>84287</v>
       </c>
       <c r="C32" t="n">
-        <v>84287.40700052145</v>
+        <v>84283.31365506719</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0004828746087122541</v>
+        <v>-0.004373562865932379</v>
       </c>
     </row>
     <row r="33">
@@ -3775,10 +3775,10 @@
         <v>98666.46999999974</v>
       </c>
       <c r="C33" t="n">
-        <v>98612.62584192744</v>
+        <v>98674.01445996125</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.05457189060508724</v>
+        <v>0.007646427364346594</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3820,10 @@
         <v>2685479.873327278</v>
       </c>
       <c r="B2" t="n">
-        <v>2653122.12567777</v>
+        <v>2678910.773761888</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.204914919336826</v>
+        <v>-0.2446154830887435</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3865,10 @@
         <v>129988.6072602831</v>
       </c>
       <c r="B2" t="n">
-        <v>128297.6005199965</v>
+        <v>129699.4779104412</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.300888420860314</v>
+        <v>-0.222426684873215</v>
       </c>
     </row>
   </sheetData>
@@ -3910,10 +3910,10 @@
         <v>945269.9536134986</v>
       </c>
       <c r="B2" t="n">
-        <v>933880.2549144014</v>
+        <v>942957.6769499743</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.204914919336806</v>
+        <v>-0.2446154830887362</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3967,10 @@
         <v>46424</v>
       </c>
       <c r="C2" t="n">
-        <v>45989.50747263768</v>
+        <v>46319.48885695471</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.935922211275021</v>
+        <v>-0.225123089447891</v>
       </c>
     </row>
     <row r="3">
@@ -3983,10 +3983,10 @@
         <v>8686</v>
       </c>
       <c r="C3" t="n">
-        <v>8434.207970679854</v>
+        <v>8705.587166249707</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.898826034079507</v>
+        <v>0.2255027198907042</v>
       </c>
     </row>
     <row r="4">
@@ -3999,10 +3999,10 @@
         <v>245357</v>
       </c>
       <c r="C4" t="n">
-        <v>241728.2327017378</v>
+        <v>245014.864113388</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.478974432464608</v>
+        <v>-0.1394441106681281</v>
       </c>
     </row>
     <row r="5">
@@ -4015,10 +4015,10 @@
         <v>37699</v>
       </c>
       <c r="C5" t="n">
-        <v>37225.5124003097</v>
+        <v>37593.55515956171</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.255968592509879</v>
+        <v>-0.2797019561216096</v>
       </c>
     </row>
     <row r="6">
@@ -4031,10 +4031,10 @@
         <v>52755</v>
       </c>
       <c r="C6" t="n">
-        <v>52388.7428471019</v>
+        <v>52678.86104144032</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6942605495177687</v>
+        <v>-0.1443255777834981</v>
       </c>
     </row>
     <row r="7">
@@ -4047,10 +4047,10 @@
         <v>474489</v>
       </c>
       <c r="C7" t="n">
-        <v>467797.9169113401</v>
+        <v>473551.4923245781</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.410166113157493</v>
+        <v>-0.1975825942059542</v>
       </c>
     </row>
     <row r="8">
@@ -4063,10 +4063,10 @@
         <v>31090</v>
       </c>
       <c r="C8" t="n">
-        <v>30667.27454594579</v>
+        <v>31015.69056750481</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.359683030087505</v>
+        <v>-0.2390139353335123</v>
       </c>
     </row>
     <row r="9">
@@ -4079,10 +4079,10 @@
         <v>51009</v>
       </c>
       <c r="C9" t="n">
-        <v>49981.58791612334</v>
+        <v>50850.36856644021</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.014178054611267</v>
+        <v>-0.3109871465031374</v>
       </c>
     </row>
     <row r="10">
@@ -4095,10 +4095,10 @@
         <v>42935</v>
       </c>
       <c r="C10" t="n">
-        <v>42346.932844893</v>
+        <v>42810.55710789916</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.369668464206352</v>
+        <v>-0.2898402051958463</v>
       </c>
     </row>
     <row r="11">
@@ -4111,10 +4111,10 @@
         <v>153354</v>
       </c>
       <c r="C11" t="n">
-        <v>151205.7427477747</v>
+        <v>153069.8530634168</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.400848528388744</v>
+        <v>-0.1852882458776532</v>
       </c>
     </row>
     <row r="12">
@@ -4127,10 +4127,10 @@
         <v>102842</v>
       </c>
       <c r="C12" t="n">
-        <v>101582.9549776115</v>
+        <v>102562.2092349258</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.224251786612944</v>
+        <v>-0.2720588524864885</v>
       </c>
     </row>
     <row r="13">
@@ -4143,10 +4143,10 @@
         <v>15452</v>
       </c>
       <c r="C13" t="n">
-        <v>15331.2761950164</v>
+        <v>15359.69302198274</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7812827141056031</v>
+        <v>-0.5973788378026087</v>
       </c>
     </row>
     <row r="14">
@@ -4159,10 +4159,10 @@
         <v>55546</v>
       </c>
       <c r="C14" t="n">
-        <v>54858.82432539947</v>
+        <v>55410.95934981857</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.237129000469029</v>
+        <v>-0.2431149861041815</v>
       </c>
     </row>
     <row r="15">
@@ -4175,10 +4175,10 @@
         <v>9450</v>
       </c>
       <c r="C15" t="n">
-        <v>9333.359791129986</v>
+        <v>9425.931609279312</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.234287924550415</v>
+        <v>-0.2546919652982815</v>
       </c>
     </row>
     <row r="16">
@@ -4191,10 +4191,10 @@
         <v>10107</v>
       </c>
       <c r="C16" t="n">
-        <v>9983.331356988703</v>
+        <v>10082.36545380051</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.22359397458491</v>
+        <v>-0.2437374710546307</v>
       </c>
     </row>
     <row r="17">
@@ -4207,10 +4207,10 @@
         <v>47161</v>
       </c>
       <c r="C17" t="n">
-        <v>46584.45941449323</v>
+        <v>47035.09024771583</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.222494403228866</v>
+        <v>-0.2669785464349131</v>
       </c>
     </row>
   </sheetData>
@@ -4529,10 +4529,10 @@
         <v>996184.050494849</v>
       </c>
       <c r="C2" t="n">
-        <v>977145.1814988736</v>
+        <v>995681.2523836292</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.91117986545939</v>
+        <v>-0.05047241129488188</v>
       </c>
     </row>
     <row r="3">
@@ -4545,10 +4545,10 @@
         <v>976.8286270496617</v>
       </c>
       <c r="C3" t="n">
-        <v>942.1750873975378</v>
+        <v>980.610622121101</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.547555701432375</v>
+        <v>0.3871707858175816</v>
       </c>
     </row>
     <row r="4">
@@ -4561,10 +4561,10 @@
         <v>1335493.450539227</v>
       </c>
       <c r="C4" t="n">
-        <v>1313973.185003744</v>
+        <v>1334104.365415312</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.611409290460707</v>
+        <v>-0.1040128742940766</v>
       </c>
     </row>
     <row r="5">
@@ -4577,10 +4577,10 @@
         <v>2112.539597468874</v>
       </c>
       <c r="C5" t="n">
-        <v>2083.351468779942</v>
+        <v>2107.891908166422</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.381660666806132</v>
+        <v>-0.2200048372120697</v>
       </c>
     </row>
     <row r="6">
@@ -4593,10 +4593,10 @@
         <v>3120.123852353638</v>
       </c>
       <c r="C6" t="n">
-        <v>3082.886742969592</v>
+        <v>3116.78858913864</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.193449720143518</v>
+        <v>-0.1068952186780084</v>
       </c>
     </row>
     <row r="7">
@@ -4609,10 +4609,10 @@
         <v>13906.41378521889</v>
       </c>
       <c r="C7" t="n">
-        <v>13729.51845905852</v>
+        <v>13868.21128171012</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.272041296141982</v>
+        <v>-0.274711396473572</v>
       </c>
     </row>
     <row r="8">
@@ -4625,10 +4625,10 @@
         <v>790.3713158162036</v>
       </c>
       <c r="C8" t="n">
-        <v>778.8216534939939</v>
+        <v>788.4683972175517</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.46129573418065</v>
+        <v>-0.2407626087349601</v>
       </c>
     </row>
     <row r="9">
@@ -4641,10 +4641,10 @@
         <v>8004.610860240749</v>
       </c>
       <c r="C9" t="n">
-        <v>7825.706025200378</v>
+        <v>7978.201661117127</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.235022266091659</v>
+        <v>-0.3299248343826235</v>
       </c>
     </row>
     <row r="10">
@@ -4657,10 +4657,10 @@
         <v>567.3164122969201</v>
       </c>
       <c r="C10" t="n">
-        <v>558.7485631866717</v>
+        <v>565.4423010967132</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.510241714241856</v>
+        <v>-0.3303467270793604</v>
       </c>
     </row>
     <row r="11">
@@ -4673,10 +4673,10 @@
         <v>831.6523942152977</v>
       </c>
       <c r="C11" t="n">
-        <v>823.7819831968397</v>
+        <v>828.2776381814477</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9463582469312858</v>
+        <v>-0.4057892524958339</v>
       </c>
     </row>
     <row r="12">
@@ -4689,10 +4689,10 @@
         <v>994.4142883118851</v>
       </c>
       <c r="C12" t="n">
-        <v>982.257449638349</v>
+        <v>991.1130757764336</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.222512469543603</v>
+        <v>-0.331975573385584</v>
       </c>
     </row>
     <row r="13">
@@ -4705,10 +4705,10 @@
         <v>2668.348360238089</v>
       </c>
       <c r="C13" t="n">
-        <v>2656.994617812842</v>
+        <v>2646.481645039208</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4254970076033739</v>
+        <v>-0.8194850239467997</v>
       </c>
     </row>
     <row r="14">
@@ -4721,10 +4721,10 @@
         <v>2408.744516456872</v>
       </c>
       <c r="C14" t="n">
-        <v>2386.179193036692</v>
+        <v>2398.651662968372</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9368085019399366</v>
+        <v>-0.4190088828243907</v>
       </c>
     </row>
     <row r="15">
@@ -4737,10 +4737,10 @@
         <v>887.2225417552854</v>
       </c>
       <c r="C15" t="n">
-        <v>871.8153511076694</v>
+        <v>885.5633565655404</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.736564381821769</v>
+        <v>-0.1870089083244523</v>
       </c>
     </row>
     <row r="16">
@@ -4753,10 +4753,10 @@
         <v>769.1315417398619</v>
       </c>
       <c r="C16" t="n">
-        <v>759.4526219272262</v>
+        <v>766.7925498993418</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.258421906705428</v>
+        <v>-0.3041081679252166</v>
       </c>
     </row>
     <row r="17">
@@ -4769,10 +4769,10 @@
         <v>841.3175629623918</v>
       </c>
       <c r="C17" t="n">
-        <v>831.1235100061541</v>
+        <v>838.3100138542754</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.21167718409955</v>
+        <v>-0.3574808420171752</v>
       </c>
     </row>
     <row r="18">
@@ -4785,10 +4785,10 @@
         <v>43.99404506602389</v>
       </c>
       <c r="C18" t="n">
-        <v>43.15323973472091</v>
+        <v>43.97184021065291</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.911179865459379</v>
+        <v>-0.05047241129486675</v>
       </c>
     </row>
     <row r="19">
@@ -4801,10 +4801,10 @@
         <v>24092.79883337583</v>
       </c>
       <c r="C19" t="n">
-        <v>23238.09337472776</v>
+        <v>24186.07911194445</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.547555701432413</v>
+        <v>0.387170785817561</v>
       </c>
     </row>
     <row r="20">
@@ -4817,10 +4817,10 @@
         <v>386766.2071966509</v>
       </c>
       <c r="C20" t="n">
-        <v>380533.8206015215</v>
+        <v>386363.9205477474</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.611409290460734</v>
+        <v>-0.1040128742940992</v>
       </c>
     </row>
     <row r="21">
@@ -4833,10 +4833,10 @@
         <v>25400.93814486871</v>
       </c>
       <c r="C21" t="n">
-        <v>25049.9833735213</v>
+        <v>25345.05485225276</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.38166066680613</v>
+        <v>-0.2200048372120363</v>
       </c>
     </row>
     <row r="22">
@@ -4849,10 +4849,10 @@
         <v>30205.13465254084</v>
       </c>
       <c r="C22" t="n">
-        <v>29844.65155756112</v>
+        <v>30172.84680780203</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.193449720143506</v>
+        <v>-0.1068952186779867</v>
       </c>
     </row>
     <row r="23">
@@ -4865,10 +4865,10 @@
         <v>554.7138472670425</v>
       </c>
       <c r="C23" t="n">
-        <v>547.6576580543879</v>
+        <v>553.189985110783</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.272041296141967</v>
+        <v>-0.2747113964735589</v>
       </c>
     </row>
     <row r="24">
@@ -4881,10 +4881,10 @@
         <v>60.33259108559908</v>
       </c>
       <c r="C24" t="n">
-        <v>59.45095350574458</v>
+        <v>60.18733276538401</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.461295734180623</v>
+        <v>-0.2407626087349373</v>
       </c>
     </row>
     <row r="25">
@@ -4897,10 +4897,10 @@
         <v>121.3883533638887</v>
       </c>
       <c r="C25" t="n">
-        <v>118.6752966377637</v>
+        <v>120.987863040093</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.235022266091703</v>
+        <v>-0.3299248343826627</v>
       </c>
     </row>
     <row r="26">
@@ -4913,10 +4913,10 @@
         <v>44.76267229817115</v>
       </c>
       <c r="C26" t="n">
-        <v>44.08664774871479</v>
+        <v>44.61480027528089</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.510241714241841</v>
+        <v>-0.3303467270793307</v>
       </c>
     </row>
     <row r="27">
@@ -4929,10 +4929,10 @@
         <v>87.47359940953065</v>
       </c>
       <c r="C27" t="n">
-        <v>86.64578578763093</v>
+        <v>87.11864094435552</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.9463582469312767</v>
+        <v>-0.405789252495829</v>
       </c>
     </row>
     <row r="28">
@@ -4945,10 +4945,10 @@
         <v>619.7676712045622</v>
       </c>
       <c r="C28" t="n">
-        <v>612.1909341418865</v>
+        <v>617.7101939244224</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.222512469543601</v>
+        <v>-0.3319755733855946</v>
       </c>
     </row>
     <row r="29">
@@ -4961,10 +4961,10 @@
         <v>110.111208618299</v>
       </c>
       <c r="C29" t="n">
-        <v>109.6426887205922</v>
+        <v>109.2088637539852</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4254970076033991</v>
+        <v>-0.819485023946836</v>
       </c>
     </row>
     <row r="30">
@@ -4977,10 +4977,10 @@
         <v>75.57409461921016</v>
       </c>
       <c r="C30" t="n">
-        <v>74.86611007555327</v>
+        <v>75.25743244964156</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.9368085019399349</v>
+        <v>-0.4190088828243925</v>
       </c>
     </row>
     <row r="31">
@@ -4993,10 +4993,10 @@
         <v>40.98978434403799</v>
       </c>
       <c r="C31" t="n">
-        <v>40.27797034893386</v>
+        <v>40.91312979581165</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.736564381821794</v>
+        <v>-0.1870089083244795</v>
       </c>
     </row>
     <row r="32">
@@ -5009,10 +5009,10 @@
         <v>17.20957189616361</v>
       </c>
       <c r="C32" t="n">
-        <v>16.99300287337207</v>
+        <v>17.15723618236242</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.258421906705402</v>
+        <v>-0.3041081679251705</v>
       </c>
     </row>
     <row r="33">
@@ -5025,10 +5025,10 @@
         <v>28.85883731522917</v>
       </c>
       <c r="C33" t="n">
-        <v>28.50916136788414</v>
+        <v>28.75567250059833</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.211677184099532</v>
+        <v>-0.3574808420171618</v>
       </c>
     </row>
     <row r="34">
@@ -5041,10 +5041,10 @@
         <v>562317.1813914984</v>
       </c>
       <c r="C34" t="n">
-        <v>551570.2886407254</v>
+        <v>562033.3663509247</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.911179865459376</v>
+        <v>-0.05047241129488304</v>
       </c>
     </row>
     <row r="35">
@@ -5057,10 +5057,10 @@
         <v>32889.50558041631</v>
       </c>
       <c r="C35" t="n">
-        <v>31722.73205002532</v>
+        <v>33016.84413762352</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.547555701432412</v>
+        <v>0.3871707858175581</v>
       </c>
     </row>
     <row r="36">
@@ -5073,10 +5073,10 @@
         <v>3536384.555394445</v>
       </c>
       <c r="C36" t="n">
-        <v>3479398.926122401</v>
+        <v>3532706.260172287</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.611409290460722</v>
+        <v>-0.1040128742940911</v>
       </c>
     </row>
     <row r="37">
@@ -5089,10 +5089,10 @@
         <v>169840.3628270353</v>
       </c>
       <c r="C37" t="n">
-        <v>167493.7453374933</v>
+        <v>169466.7058132773</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.381660666806165</v>
+        <v>-0.2200048372120814</v>
       </c>
     </row>
     <row r="38">
@@ -5105,10 +5105,10 @@
         <v>1185357.660552872</v>
       </c>
       <c r="C38" t="n">
-        <v>1171211.012870304</v>
+        <v>1184090.569889507</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.193449720143562</v>
+        <v>-0.1068952186780369</v>
       </c>
     </row>
     <row r="39">
@@ -5121,10 +5121,10 @@
         <v>159824.3694267376</v>
       </c>
       <c r="C39" t="n">
-        <v>157791.337446331</v>
+        <v>159385.3136695804</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.272041296141956</v>
+        <v>-0.2747113964735539</v>
       </c>
     </row>
     <row r="40">
@@ -5137,10 +5137,10 @@
         <v>421376.2451161093</v>
       </c>
       <c r="C40" t="n">
-        <v>415218.692021377</v>
+        <v>420361.7286757783</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.461295734180659</v>
+        <v>-0.2407626087349695</v>
       </c>
     </row>
     <row r="41">
@@ -5153,10 +5153,10 @@
         <v>232131.569601793</v>
       </c>
       <c r="C41" t="n">
-        <v>226943.3773345648</v>
+        <v>231365.7099052345</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.235022266091668</v>
+        <v>-0.329924834382637</v>
       </c>
     </row>
     <row r="42">
@@ -5169,10 +5169,10 @@
         <v>128836.3952206124</v>
       </c>
       <c r="C42" t="n">
-        <v>126890.6542368652</v>
+        <v>128410.7884057141</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.510241714241848</v>
+        <v>-0.330346727079334</v>
       </c>
     </row>
     <row r="43">
@@ -5185,10 +5185,10 @@
         <v>94652.76397187269</v>
       </c>
       <c r="C43" t="n">
-        <v>93757.00973407649</v>
+        <v>94268.67322848459</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.9463582469312567</v>
+        <v>-0.4057892524958178</v>
       </c>
     </row>
     <row r="44">
@@ -5201,10 +5201,10 @@
         <v>43047.18661193399</v>
       </c>
       <c r="C44" t="n">
-        <v>42520.9293878154</v>
+        <v>42904.28046735266</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.22251246954359</v>
+        <v>-0.3319755733855781</v>
       </c>
     </row>
     <row r="45">
@@ -5217,10 +5217,10 @@
         <v>127914.3668898133</v>
       </c>
       <c r="C45" t="n">
-        <v>127370.0950864023</v>
+        <v>126866.1278096749</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.4254970076033854</v>
+        <v>-0.8194850239468259</v>
       </c>
     </row>
     <row r="46">
@@ -5233,10 +5233,10 @@
         <v>25993.78164756393</v>
       </c>
       <c r="C46" t="n">
-        <v>25750.26969111384</v>
+        <v>25884.86539347866</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.936808501939951</v>
+        <v>-0.4190088828243954</v>
       </c>
     </row>
     <row r="47">
@@ -5249,10 +5249,10 @@
         <v>38145.22126086871</v>
       </c>
       <c r="C47" t="n">
-        <v>37482.80493508536</v>
+        <v>38073.88629901082</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.736564381821766</v>
+        <v>-0.1870089083244435</v>
       </c>
     </row>
     <row r="48">
@@ -5265,10 +5265,10 @@
         <v>32035.35572329106</v>
       </c>
       <c r="C48" t="n">
-        <v>31632.21578897816</v>
+        <v>31937.93358991264</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.258421906705414</v>
+        <v>-0.3041081679252045</v>
       </c>
     </row>
     <row r="49">
@@ -5281,10 +5281,10 @@
         <v>53452.78309609117</v>
       </c>
       <c r="C49" t="n">
-        <v>52805.10791904962</v>
+        <v>53261.69963699766</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.211677184099523</v>
+        <v>-0.3574808420171446</v>
       </c>
     </row>
     <row r="50">
@@ -5297,10 +5297,10 @@
         <v>23680.12450086494</v>
       </c>
       <c r="C50" t="n">
-        <v>23227.55472928869</v>
+        <v>23668.17257103173</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.911179865459377</v>
+        <v>-0.05047241129486432</v>
       </c>
     </row>
     <row r="51">
@@ -5313,10 +5313,10 @@
         <v>4258.121092261274</v>
       </c>
       <c r="C51" t="n">
-        <v>4107.061874678863</v>
+        <v>4274.607293155245</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.5475557014324</v>
+        <v>0.3871707858175714</v>
       </c>
     </row>
     <row r="52">
@@ -5329,10 +5329,10 @@
         <v>251159.6278232176</v>
       </c>
       <c r="C52" t="n">
-        <v>247112.4182465878</v>
+        <v>250898.3894752524</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.611409290460694</v>
+        <v>-0.1040128742940652</v>
       </c>
     </row>
     <row r="53">
@@ -5345,10 +5345,10 @@
         <v>38201.89914724839</v>
       </c>
       <c r="C53" t="n">
-        <v>37674.07853275791</v>
+        <v>38117.85312121757</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.381660666806146</v>
+        <v>-0.2200048372120551</v>
       </c>
     </row>
     <row r="54">
@@ -5361,10 +5361,10 @@
         <v>41069.58495758228</v>
       </c>
       <c r="C54" t="n">
-        <v>40579.44011084191</v>
+        <v>41025.68353493173</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.193449720143513</v>
+        <v>-0.1068952186779969</v>
       </c>
     </row>
     <row r="55">
@@ -5377,10 +5377,10 @@
         <v>68364.54647427362</v>
       </c>
       <c r="C55" t="n">
-        <v>67494.92121120071</v>
+        <v>68176.74127396134</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.272041296141947</v>
+        <v>-0.2747113964735507</v>
       </c>
     </row>
     <row r="56">
@@ -5393,10 +5393,10 @@
         <v>29101.75632494179</v>
       </c>
       <c r="C56" t="n">
-        <v>28676.49360119376</v>
+        <v>29031.69017722617</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.461295734180666</v>
+        <v>-0.2407626087349594</v>
       </c>
     </row>
     <row r="57">
@@ -5409,10 +5409,10 @@
         <v>14559.03440803147</v>
       </c>
       <c r="C57" t="n">
-        <v>14233.63674728402</v>
+        <v>14511.00053787306</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.235022266091668</v>
+        <v>-0.3299248343826291</v>
       </c>
     </row>
     <row r="58">
@@ -5425,10 +5425,10 @@
         <v>23427.48332184359</v>
       </c>
       <c r="C58" t="n">
-        <v>23073.67169612005</v>
+        <v>23350.09139745283</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.51024171424185</v>
+        <v>-0.3303467270793127</v>
       </c>
     </row>
     <row r="59">
@@ -5441,10 +5441,10 @@
         <v>46150.93133109502</v>
       </c>
       <c r="C59" t="n">
-        <v>45714.17818640761</v>
+        <v>45963.65581182671</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.9463582469312709</v>
+        <v>-0.4057892524958224</v>
       </c>
     </row>
     <row r="60">
@@ -5457,10 +5457,10 @@
         <v>21759.37696278335</v>
       </c>
       <c r="C60" t="n">
-        <v>21493.36586611833</v>
+        <v>21687.14114634602</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.222512469543603</v>
+        <v>-0.3319755733855931</v>
       </c>
     </row>
     <row r="61">
@@ -5473,10 +5473,10 @@
         <v>46542.62425884105</v>
       </c>
       <c r="C61" t="n">
-        <v>46344.5867853596</v>
+        <v>46161.21442328802</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4254970076033812</v>
+        <v>-0.8194850239467931</v>
       </c>
     </row>
     <row r="62">
@@ -5489,10 +5489,10 @@
         <v>7503.299767465179</v>
       </c>
       <c r="C62" t="n">
-        <v>7433.008217317526</v>
+        <v>7471.860274934557</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.9368085019399294</v>
+        <v>-0.4190088828243975</v>
       </c>
     </row>
     <row r="63">
@@ -5505,10 +5505,10 @@
         <v>7286.174502210705</v>
       </c>
       <c r="C63" t="n">
-        <v>7159.645391007934</v>
+        <v>7272.548706815506</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.73656438182177</v>
+        <v>-0.1870089083244548</v>
       </c>
     </row>
     <row r="64">
@@ -5521,10 +5521,10 @@
         <v>7097.341416109978</v>
       </c>
       <c r="C64" t="n">
-        <v>7008.026916935974</v>
+        <v>7075.757821158049</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.258421906705419</v>
+        <v>-0.3041081679252159</v>
       </c>
     </row>
     <row r="65">
@@ -5537,10 +5537,10 @@
         <v>7416.897539297385</v>
       </c>
       <c r="C65" t="n">
-        <v>7327.028684045679</v>
+        <v>7390.383551522355</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.211677184099532</v>
+        <v>-0.3574808420171656</v>
       </c>
     </row>
     <row r="66">
@@ -5553,10 +5553,10 @@
         <v>224.7272828615001</v>
       </c>
       <c r="C66" t="n">
-        <v>220.4323402792571</v>
+        <v>224.6138575830024</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.911179865459399</v>
+        <v>-0.05047241129490238</v>
       </c>
     </row>
     <row r="67">
@@ -5569,10 +5569,10 @@
         <v>173.8153879829501</v>
       </c>
       <c r="C67" t="n">
-        <v>167.6491902765941</v>
+        <v>174.4883503864756</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.547555701432388</v>
+        <v>0.38717078581757</v>
       </c>
     </row>
     <row r="68">
@@ -5585,10 +5585,10 @@
         <v>4996.512834695077</v>
       </c>
       <c r="C68" t="n">
-        <v>4915.998562677739</v>
+        <v>4991.315818081238</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.611409290460706</v>
+        <v>-0.1040128742940801</v>
       </c>
     </row>
     <row r="69">
@@ -5601,10 +5601,10 @@
         <v>276.6235712497684</v>
       </c>
       <c r="C69" t="n">
-        <v>272.8015721706959</v>
+        <v>276.0149860121501</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.381660666806157</v>
+        <v>-0.2200048372120766</v>
       </c>
     </row>
     <row r="70">
@@ -5617,10 +5617,10 @@
         <v>1232.245435416442</v>
       </c>
       <c r="C70" t="n">
-        <v>1217.539205715983</v>
+        <v>1230.928223963604</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.193449720143558</v>
+        <v>-0.1068952186780232</v>
       </c>
     </row>
     <row r="71">
@@ -5633,10 +5633,10 @@
         <v>5856.068227410703</v>
       </c>
       <c r="C71" t="n">
-        <v>5781.576621227791</v>
+        <v>5839.98094060474</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.272041296141945</v>
+        <v>-0.2747113964735401</v>
       </c>
     </row>
     <row r="72">
@@ -5649,10 +5649,10 @@
         <v>2040.773234874782</v>
       </c>
       <c r="C72" t="n">
-        <v>2010.951502649257</v>
+        <v>2035.859815996133</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.461295734180641</v>
+        <v>-0.2407626087349563</v>
       </c>
     </row>
     <row r="73">
@@ -5665,10 +5665,10 @@
         <v>1134.678551830647</v>
       </c>
       <c r="C73" t="n">
-        <v>1109.318233548666</v>
+        <v>1130.934965497745</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.235022266091618</v>
+        <v>-0.329924834382582</v>
       </c>
     </row>
     <row r="74">
@@ -5681,10 +5681,10 @@
         <v>4263.535655062377</v>
       </c>
       <c r="C74" t="n">
-        <v>4199.14596109805</v>
+        <v>4249.451204568019</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.510241714241868</v>
+        <v>-0.3303467270793306</v>
       </c>
     </row>
     <row r="75">
@@ -5697,10 +5697,10 @@
         <v>2782.808024353337</v>
       </c>
       <c r="C75" t="n">
-        <v>2756.472691118604</v>
+        <v>2771.515688472919</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.9463582469312826</v>
+        <v>-0.4057892524958449</v>
       </c>
     </row>
     <row r="76">
@@ -5713,10 +5713,10 @@
         <v>316.9983391350282</v>
       </c>
       <c r="C76" t="n">
-        <v>313.1229949108563</v>
+        <v>315.9459820810619</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.222512469543604</v>
+        <v>-0.3319755733855936</v>
       </c>
     </row>
     <row r="77">
@@ -5729,10 +5729,10 @@
         <v>14455.75492983291</v>
       </c>
       <c r="C77" t="n">
-        <v>14394.24612517999</v>
+        <v>14337.29218308448</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4254970076033743</v>
+        <v>-0.8194850239468097</v>
       </c>
     </row>
     <row r="78">
@@ -5745,10 +5745,10 @@
         <v>206.9246343398124</v>
       </c>
       <c r="C78" t="n">
-        <v>204.9861467727089</v>
+        <v>206.0576017411767</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.9368085019399254</v>
+        <v>-0.4190088828243835</v>
       </c>
     </row>
     <row r="79">
@@ -5761,10 +5761,10 @@
         <v>130.9767888995716</v>
       </c>
       <c r="C79" t="n">
-        <v>128.7022926350877</v>
+        <v>130.7318506364921</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.736564381821787</v>
+        <v>-0.1870089083244795</v>
       </c>
     </row>
     <row r="80">
@@ -5777,10 +5777,10 @@
         <v>912.0891916591041</v>
       </c>
       <c r="C80" t="n">
-        <v>900.6112614625736</v>
+        <v>909.3154539285058</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.258421906705422</v>
+        <v>-0.3041081679252066</v>
       </c>
     </row>
     <row r="81">
@@ -5793,10 +5793,10 @@
         <v>338.63275475275</v>
       </c>
       <c r="C81" t="n">
-        <v>334.5296189255232</v>
+        <v>337.4222075297139</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.21167718409954</v>
+        <v>-0.3574808420171587</v>
       </c>
     </row>
     <row r="82">
@@ -5809,10 +5809,10 @@
         <v>36797.3558384009</v>
       </c>
       <c r="C82" t="n">
-        <v>36094.09218259594</v>
+        <v>36778.7833256165</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.91117986545939</v>
+        <v>-0.0504724112948793</v>
       </c>
     </row>
     <row r="83">
@@ -5825,10 +5825,10 @@
         <v>5431.789807406018</v>
       </c>
       <c r="C83" t="n">
-        <v>5239.094038403563</v>
+        <v>5452.820110687311</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.547555701432372</v>
+        <v>0.387170785817588</v>
       </c>
     </row>
     <row r="84">
@@ -5841,10 +5841,10 @@
         <v>1083840.331624043</v>
       </c>
       <c r="C84" t="n">
-        <v>1066375.227826493</v>
+        <v>1082712.998142362</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.611409290460718</v>
+        <v>-0.104012874294075</v>
       </c>
     </row>
     <row r="85">
@@ -5857,10 +5857,10 @@
         <v>36567.36673926556</v>
       </c>
       <c r="C85" t="n">
-        <v>36062.12981614238</v>
+        <v>36486.91676359811</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.381660666806128</v>
+        <v>-0.2200048372120537</v>
       </c>
     </row>
     <row r="86">
@@ -5873,10 +5873,10 @@
         <v>176115.7238993268</v>
       </c>
       <c r="C86" t="n">
-        <v>174013.8712853215</v>
+        <v>175927.4646111382</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.193449720143548</v>
+        <v>-0.1068952186780208</v>
       </c>
     </row>
     <row r="87">
@@ -5889,10 +5889,10 @@
         <v>629355.3653459012</v>
       </c>
       <c r="C87" t="n">
-        <v>621349.7051992163</v>
+        <v>627626.4544329783</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.27204129614196</v>
+        <v>-0.2747113964735492</v>
       </c>
     </row>
     <row r="88">
@@ -5905,10 +5905,10 @@
         <v>50782.20817613851</v>
       </c>
       <c r="C88" t="n">
-        <v>50040.12993433786</v>
+        <v>50659.94360696042</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.461295734180664</v>
+        <v>-0.2407626087349667</v>
       </c>
     </row>
     <row r="89">
@@ -5921,10 +5921,10 @@
         <v>180339.3673151789</v>
       </c>
       <c r="C89" t="n">
-        <v>176308.7423011558</v>
+        <v>179744.3829562376</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.235022266091706</v>
+        <v>-0.3299248343826652</v>
       </c>
     </row>
     <row r="90">
@@ -5937,10 +5937,10 @@
         <v>40468.48989345161</v>
       </c>
       <c r="C90" t="n">
-        <v>39857.31787795695</v>
+        <v>40334.80356159015</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.510241714241866</v>
+        <v>-0.3303467270793526</v>
       </c>
     </row>
     <row r="91">
@@ -5953,10 +5953,10 @@
         <v>79355.15029333404</v>
       </c>
       <c r="C91" t="n">
-        <v>78604.16628416837</v>
+        <v>79033.13562214178</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.9463582469312644</v>
+        <v>-0.405789252495823</v>
       </c>
     </row>
     <row r="92">
@@ -5969,10 +5969,10 @@
         <v>45911.62510533771</v>
       </c>
       <c r="C92" t="n">
-        <v>45350.34976345485</v>
+        <v>45759.20972464362</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.222512469543604</v>
+        <v>-0.3319755733855925</v>
       </c>
     </row>
     <row r="93">
@@ -5985,10 +5985,10 @@
         <v>104995.5931434584</v>
       </c>
       <c r="C93" t="n">
-        <v>104548.8400365176</v>
+        <v>104135.1699818437</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.4254970076033323</v>
+        <v>-0.8194850239467624</v>
       </c>
     </row>
     <row r="94">
@@ -6001,10 +6001,10 @@
         <v>43593.4829173751</v>
       </c>
       <c r="C94" t="n">
-        <v>43185.0954631134</v>
+        <v>43410.82235161876</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.9368085019399226</v>
+        <v>-0.4190088828244053</v>
       </c>
     </row>
     <row r="95">
@@ -6017,10 +6017,10 @@
         <v>24589.96981740024</v>
       </c>
       <c r="C95" t="n">
-        <v>24162.94916005055</v>
+        <v>24543.98438328741</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.736564381821762</v>
+        <v>-0.1870089083244432</v>
       </c>
     </row>
     <row r="96">
@@ -6033,10 +6033,10 @@
         <v>22665.76219802206</v>
       </c>
       <c r="C96" t="n">
-        <v>22380.53128120039</v>
+        <v>22596.83376385537</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.258421906705443</v>
+        <v>-0.3041081679252267</v>
       </c>
     </row>
     <row r="97">
@@ -6049,10 +6049,10 @@
         <v>40428.24116361269</v>
       </c>
       <c r="C97" t="n">
-        <v>39938.38138950046</v>
+        <v>40283.71794668828</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.211677184099528</v>
+        <v>-0.3574808420171627</v>
       </c>
     </row>
     <row r="98">
@@ -6065,10 +6065,10 @@
         <v>17531.40922853843</v>
       </c>
       <c r="C98" t="n">
-        <v>17196.35246523131</v>
+        <v>17522.56070356681</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.911179865459385</v>
+        <v>-0.05047241129488725</v>
       </c>
     </row>
     <row r="99">
@@ -6081,10 +6081,10 @@
         <v>3349.304543958308</v>
       </c>
       <c r="C99" t="n">
-        <v>3230.486099650781</v>
+        <v>3362.272072680575</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.547555701432388</v>
+        <v>0.387170785817576</v>
       </c>
     </row>
     <row r="100">
@@ -6097,10 +6097,10 @@
         <v>195974.6734952563</v>
       </c>
       <c r="C100" t="n">
-        <v>192816.7193996037</v>
+        <v>195770.8346044654</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.611409290460718</v>
+        <v>-0.1040128742940935</v>
       </c>
     </row>
     <row r="101">
@@ -6113,10 +6113,10 @@
         <v>2724.247464785552</v>
       </c>
       <c r="C101" t="n">
-        <v>2686.607609098146</v>
+        <v>2718.253988585397</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.381660666806161</v>
+        <v>-0.2200048372120675</v>
       </c>
     </row>
     <row r="102">
@@ -6129,10 +6129,10 @@
         <v>18679.52557679249</v>
       </c>
       <c r="C102" t="n">
-        <v>18456.59483107213</v>
+        <v>18659.55805707917</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.193449720143488</v>
+        <v>-0.1068952186779823</v>
       </c>
     </row>
     <row r="103">
@@ -6145,10 +6145,10 @@
         <v>118620.5156491477</v>
       </c>
       <c r="C103" t="n">
-        <v>117111.6137043941</v>
+        <v>118294.6515741038</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.272041296141915</v>
+        <v>-0.2747113964735204</v>
       </c>
     </row>
     <row r="104">
@@ -6161,10 +6161,10 @@
         <v>273817.9512093465</v>
       </c>
       <c r="C104" t="n">
-        <v>269816.6611689034</v>
+        <v>273158.6999668302</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.461295734180663</v>
+        <v>-0.2407626087349705</v>
       </c>
     </row>
     <row r="105">
@@ -6177,10 +6177,10 @@
         <v>9177.580968609169</v>
       </c>
       <c r="C105" t="n">
-        <v>8972.459990472162</v>
+        <v>9147.301849798152</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.235022266091677</v>
+        <v>-0.3299248343826436</v>
       </c>
     </row>
     <row r="106">
@@ -6193,10 +6193,10 @@
         <v>33246.43879831057</v>
       </c>
       <c r="C106" t="n">
-        <v>32744.3372110786</v>
+        <v>33136.61027586991</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.51024171424185</v>
+        <v>-0.3303467270793473</v>
       </c>
     </row>
     <row r="107">
@@ -6209,10 +6209,10 @@
         <v>5642.141361711995</v>
       </c>
       <c r="C107" t="n">
-        <v>5588.746491631913</v>
+        <v>5619.246158455546</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.9463582469312749</v>
+        <v>-0.4057892524958335</v>
       </c>
     </row>
     <row r="108">
@@ -6225,10 +6225,10 @@
         <v>14363.30388731421</v>
       </c>
       <c r="C108" t="n">
-        <v>14187.71070625335</v>
+        <v>14315.62122687719</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.222512469543596</v>
+        <v>-0.3319755733855848</v>
       </c>
     </row>
     <row r="109">
@@ -6241,10 +6241,10 @@
         <v>25390.47786541112</v>
       </c>
       <c r="C109" t="n">
-        <v>25282.4421418776</v>
+        <v>25182.40670179554</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4254970076033884</v>
+        <v>-0.8194850239468315</v>
       </c>
     </row>
     <row r="110">
@@ -6257,10 +6257,10 @@
         <v>22661.60505308602</v>
       </c>
       <c r="C110" t="n">
-        <v>22449.30921027266</v>
+        <v>22566.650914923</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.936808501939955</v>
+        <v>-0.4190088828244073</v>
       </c>
     </row>
     <row r="111">
@@ -6273,10 +6273,10 @@
         <v>4451.960926071457</v>
       </c>
       <c r="C111" t="n">
-        <v>4374.649758336677</v>
+        <v>4443.63536254458</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.736564381821774</v>
+        <v>-0.1870089083244426</v>
       </c>
     </row>
     <row r="112">
@@ -6289,10 +6289,10 @@
         <v>1068.949165803444</v>
       </c>
       <c r="C112" t="n">
-        <v>1055.497275329429</v>
+        <v>1065.698404079268</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.258421906705389</v>
+        <v>-0.3041081679251755</v>
       </c>
     </row>
     <row r="113">
@@ -6305,10 +6305,10 @@
         <v>887.9321545985744</v>
       </c>
       <c r="C113" t="n">
-        <v>877.17328327102</v>
+        <v>884.7579672557741</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.211677184099543</v>
+        <v>-0.3574808420171746</v>
       </c>
     </row>
     <row r="114">
@@ -6321,10 +6321,10 @@
         <v>190.5485593842953</v>
       </c>
       <c r="C114" t="n">
-        <v>186.9068336834197</v>
+        <v>190.4523849316864</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.911179865459376</v>
+        <v>-0.05047241129488544</v>
       </c>
     </row>
     <row r="115">
@@ -6337,10 +6337,10 @@
         <v>31.68824515194521</v>
       </c>
       <c r="C115" t="n">
-        <v>30.5640870043735</v>
+        <v>31.81093277971179</v>
       </c>
       <c r="D115" t="n">
-        <v>-3.547555701432402</v>
+        <v>0.3871707858175706</v>
       </c>
     </row>
     <row r="116">
@@ -6353,10 +6353,10 @@
         <v>4123.192252520734</v>
       </c>
       <c r="C116" t="n">
-        <v>4056.750749500059</v>
+        <v>4118.903601746216</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.611409290460694</v>
+        <v>-0.1040128742940868</v>
       </c>
     </row>
     <row r="117">
@@ -6369,10 +6369,10 @@
         <v>170.525831571405</v>
       </c>
       <c r="C117" t="n">
-        <v>168.1697432298388</v>
+        <v>170.1506664932518</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.381660666806175</v>
+        <v>-0.2200048372120889</v>
       </c>
     </row>
     <row r="118">
@@ -6385,10 +6385,10 @@
         <v>657.5077035740391</v>
       </c>
       <c r="C118" t="n">
-        <v>649.6606797258127</v>
+        <v>656.8048592764789</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.193449720143512</v>
+        <v>-0.106895218678006</v>
       </c>
     </row>
     <row r="119">
@@ -6401,10 +6401,10 @@
         <v>2161.22177472801</v>
       </c>
       <c r="C119" t="n">
-        <v>2133.730141252258</v>
+        <v>2155.284652209764</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.272041296141949</v>
+        <v>-0.2747113964735526</v>
       </c>
     </row>
     <row r="120">
@@ -6417,10 +6417,10 @@
         <v>1554.140067831092</v>
       </c>
       <c r="C120" t="n">
-        <v>1531.429485316684</v>
+        <v>1550.398279660387</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.461295734180626</v>
+        <v>-0.2407626087349283</v>
       </c>
     </row>
     <row r="121">
@@ -6433,10 +6433,10 @@
         <v>129651.1464599214</v>
       </c>
       <c r="C121" t="n">
-        <v>126753.414468299</v>
+        <v>129223.3951296883</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.235022266091658</v>
+        <v>-0.3299248343826191</v>
       </c>
     </row>
     <row r="122">
@@ -6449,10 +6449,10 @@
         <v>863.7331225685518</v>
       </c>
       <c r="C122" t="n">
-        <v>850.6886646517978</v>
+        <v>860.8798084674464</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.510241714241858</v>
+        <v>-0.3303467270793419</v>
       </c>
     </row>
     <row r="123">
@@ -6465,10 +6465,10 @@
         <v>3906.237028514126</v>
       </c>
       <c r="C123" t="n">
-        <v>3869.270032250099</v>
+        <v>3890.385938475403</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.9463582469312818</v>
+        <v>-0.4057892524958407</v>
       </c>
     </row>
     <row r="124">
@@ -6481,10 +6481,10 @@
         <v>233.7506847980509</v>
       </c>
       <c r="C124" t="n">
-        <v>230.8930535287512</v>
+        <v>232.9746896218998</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.222512469543601</v>
+        <v>-0.3319755733856013</v>
       </c>
     </row>
     <row r="125">
@@ -6497,10 +6497,10 @@
         <v>2384.908631432158</v>
       </c>
       <c r="C125" t="n">
-        <v>2374.760916571339</v>
+        <v>2365.364662362756</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.425497007603387</v>
+        <v>-0.8194850239468182</v>
       </c>
     </row>
     <row r="126">
@@ -6513,10 +6513,10 @@
         <v>14131.62372138642</v>
       </c>
       <c r="C126" t="n">
-        <v>13999.23746890231</v>
+        <v>14072.41096270649</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9368085019399299</v>
+        <v>-0.4190088828243976</v>
       </c>
     </row>
     <row r="127">
@@ -6529,10 +6529,10 @@
         <v>141.2260852838927</v>
       </c>
       <c r="C127" t="n">
-        <v>138.7736033890114</v>
+        <v>140.9619799235339</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.73656438182179</v>
+        <v>-0.1870089083244534</v>
       </c>
     </row>
     <row r="128">
@@ -6545,10 +6545,10 @@
         <v>454.224649948026</v>
       </c>
       <c r="C128" t="n">
-        <v>448.5085874474241</v>
+        <v>452.8433156868044</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.258421906705413</v>
+        <v>-0.3041081679252097</v>
       </c>
     </row>
     <row r="129">
@@ -6561,10 +6561,10 @@
         <v>2015.03857679833</v>
       </c>
       <c r="C129" t="n">
-        <v>1990.622814112461</v>
+        <v>2007.835199927021</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.211677184099536</v>
+        <v>-0.3574808420171716</v>
       </c>
     </row>
     <row r="130">
@@ -6577,10 +6577,10 @@
         <v>10089.9896440092</v>
       </c>
       <c r="C130" t="n">
-        <v>9897.151793505962</v>
+        <v>10084.89698293647</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.911179865459355</v>
+        <v>-0.05047241129483977</v>
       </c>
     </row>
     <row r="131">
@@ -6593,10 +6593,10 @@
         <v>1033.763083661777</v>
       </c>
       <c r="C131" t="n">
-        <v>997.0897624480302</v>
+        <v>1037.765512316282</v>
       </c>
       <c r="D131" t="n">
-        <v>-3.547555701432405</v>
+        <v>0.3871707858175596</v>
       </c>
     </row>
     <row r="132">
@@ -6609,10 +6609,10 @@
         <v>87400.57085120806</v>
       </c>
       <c r="C132" t="n">
-        <v>85992.189932596</v>
+        <v>87309.66300531628</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.611409290460712</v>
+        <v>-0.1040128742940845</v>
       </c>
     </row>
     <row r="133">
@@ -6625,10 +6625,10 @@
         <v>6409.948712335483</v>
       </c>
       <c r="C133" t="n">
-        <v>6321.384972214698</v>
+        <v>6395.846515105533</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.381660666806125</v>
+        <v>-0.2200048372120492</v>
       </c>
     </row>
     <row r="134">
@@ -6641,10 +6641,10 @@
         <v>16821.84852122067</v>
       </c>
       <c r="C134" t="n">
-        <v>16621.08821712119</v>
+        <v>16803.86676945823</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.193449720143528</v>
+        <v>-0.1068952186779936</v>
       </c>
     </row>
     <row r="135">
@@ -6657,10 +6657,10 @@
         <v>33324.55059423266</v>
       </c>
       <c r="C135" t="n">
-        <v>32900.6485489203</v>
+        <v>33233.00425592671</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.272041296141957</v>
+        <v>-0.2747113964735586</v>
       </c>
     </row>
     <row r="136">
@@ -6673,10 +6673,10 @@
         <v>16030.92241827518</v>
       </c>
       <c r="C136" t="n">
-        <v>15796.66323282711</v>
+        <v>15992.32595125666</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.461295734180676</v>
+        <v>-0.2407626087349817</v>
       </c>
     </row>
     <row r="137">
@@ -6689,10 +6689,10 @@
         <v>8767.879875138795</v>
       </c>
       <c r="C137" t="n">
-        <v>8571.915807665273</v>
+        <v>8738.952461981875</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.235022266091663</v>
+        <v>-0.3299248343826345</v>
       </c>
     </row>
     <row r="138">
@@ -6705,10 +6705,10 @@
         <v>52028.20605016277</v>
       </c>
       <c r="C138" t="n">
-        <v>51242.45437922151</v>
+        <v>51856.33257431797</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.510241714241848</v>
+        <v>-0.3303467270793335</v>
       </c>
     </row>
     <row r="139">
@@ -6721,10 +6721,10 @@
         <v>35141.4421327932</v>
       </c>
       <c r="C139" t="n">
-        <v>34808.87819707893</v>
+        <v>34998.84193744628</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.9463582469312796</v>
+        <v>-0.4057892524958316</v>
       </c>
     </row>
     <row r="140">
@@ -6737,10 +6737,10 @@
         <v>22237.90806269026</v>
       </c>
       <c r="C140" t="n">
-        <v>21966.04686365823</v>
+        <v>22164.08363989018</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.222512469543606</v>
+        <v>-0.3319755733855917</v>
       </c>
     </row>
     <row r="141">
@@ -6753,10 +6753,10 @@
         <v>23949.54476326111</v>
       </c>
       <c r="C141" t="n">
-        <v>23847.6401669588</v>
+        <v>23753.28183062275</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.4254970076033996</v>
+        <v>-0.8194850239468208</v>
       </c>
     </row>
     <row r="142">
@@ -6769,10 +6769,10 @@
         <v>37082.79537782534</v>
       </c>
       <c r="C142" t="n">
-        <v>36735.40059796889</v>
+        <v>36927.41517119266</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.9368085019399294</v>
+        <v>-0.4190088828243955</v>
       </c>
     </row>
     <row r="143">
@@ -6785,10 +6785,10 @@
         <v>4070.394710307927</v>
       </c>
       <c r="C143" t="n">
-        <v>3999.709685569163</v>
+        <v>4062.782709595684</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.736564381821766</v>
+        <v>-0.1870089083244525</v>
       </c>
     </row>
     <row r="144">
@@ -6801,10 +6801,10 @@
         <v>4276.69932878695</v>
       </c>
       <c r="C144" t="n">
-        <v>4222.880407549571</v>
+        <v>4263.693536810505</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.25842190670543</v>
+        <v>-0.3041081679252375</v>
       </c>
     </row>
     <row r="145">
@@ -6817,10 +6817,10 @@
         <v>4302.918261308165</v>
       </c>
       <c r="C145" t="n">
-        <v>4250.780782485442</v>
+        <v>4287.53615287633</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.211677184099527</v>
+        <v>-0.3574808420171735</v>
       </c>
     </row>
     <row r="146">
@@ -6833,10 +6833,10 @@
         <v>29965.6972786291</v>
       </c>
       <c r="C146" t="n">
-        <v>29392.99890569543</v>
+        <v>29950.57286865126</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.911179865459377</v>
+        <v>-0.05047241129486905</v>
       </c>
     </row>
     <row r="147">
@@ -6849,10 +6849,10 @@
         <v>3375.075360705922</v>
       </c>
       <c r="C147" t="n">
-        <v>3255.342682319559</v>
+        <v>3388.142666501902</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.54755570143239</v>
+        <v>0.3871707858175683</v>
       </c>
     </row>
     <row r="148">
@@ -6865,10 +6865,10 @@
         <v>280657.780433469</v>
       </c>
       <c r="C148" t="n">
-        <v>276135.2348851633</v>
+        <v>280365.8602091102</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.611409290460706</v>
+        <v>-0.1040128742940708</v>
       </c>
     </row>
     <row r="149">
@@ -6881,10 +6881,10 @@
         <v>31702.75958278121</v>
       </c>
       <c r="C149" t="n">
-        <v>31264.73502333381</v>
+        <v>31633.01197816939</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.381660666806144</v>
+        <v>-0.2200048372120472</v>
       </c>
     </row>
     <row r="150">
@@ -6897,10 +6897,10 @@
         <v>87687.13267621709</v>
       </c>
       <c r="C150" t="n">
-        <v>86640.63083669091</v>
+        <v>87593.39932399038</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.193449720143516</v>
+        <v>-0.1068952186780048</v>
       </c>
     </row>
     <row r="151">
@@ -6913,10 +6913,10 @@
         <v>108470.3227140286</v>
       </c>
       <c r="C151" t="n">
-        <v>107090.5354150477</v>
+        <v>108172.3423757415</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.272041296141947</v>
+        <v>-0.2747113964735499</v>
       </c>
     </row>
     <row r="152">
@@ -6929,10 +6929,10 @@
         <v>54041.78996625963</v>
       </c>
       <c r="C152" t="n">
-        <v>53252.07959480781</v>
+        <v>53911.6775429298</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.461295734180659</v>
+        <v>-0.240762608734956</v>
       </c>
     </row>
     <row r="153">
@@ -6945,10 +6945,10 @@
         <v>10616.88118288948</v>
       </c>
       <c r="C153" t="n">
-        <v>10379.5915244874</v>
+        <v>10581.85345523023</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.235022266091669</v>
+        <v>-0.3299248343826387</v>
       </c>
     </row>
     <row r="154">
@@ -6961,10 +6961,10 @@
         <v>39079.32421015717</v>
       </c>
       <c r="C154" t="n">
-        <v>38489.13195429156</v>
+        <v>38950.22694166419</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.51024171424185</v>
+        <v>-0.3303467270793262</v>
       </c>
     </row>
     <row r="155">
@@ -6977,10 +6977,10 @@
         <v>544109.0187771801</v>
       </c>
       <c r="C155" t="n">
-        <v>538959.7982056855</v>
+        <v>541901.0828571218</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.9463582469312709</v>
+        <v>-0.4057892524958244</v>
       </c>
     </row>
     <row r="156">
@@ -6993,10 +6993,10 @@
         <v>63852.75474085637</v>
       </c>
       <c r="C156" t="n">
-        <v>63072.14685200231</v>
+        <v>63640.77919218292</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.222512469543594</v>
+        <v>-0.3319755733855866</v>
       </c>
     </row>
     <row r="157">
@@ -7009,10 +7009,10 @@
         <v>74920.82107145021</v>
       </c>
       <c r="C157" t="n">
-        <v>74602.0352197193</v>
+        <v>74306.85616295168</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.4254970076033849</v>
+        <v>-0.8194850239468209</v>
       </c>
     </row>
     <row r="158">
@@ -7025,10 +7025,10 @@
         <v>117868.7463496854</v>
       </c>
       <c r="C158" t="n">
-        <v>116764.5419127515</v>
+        <v>117374.8658324065</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.9368085019399346</v>
+        <v>-0.4190088828243884</v>
       </c>
     </row>
     <row r="159">
@@ -7041,10 +7041,10 @@
         <v>14279.81208682949</v>
       </c>
       <c r="C159" t="n">
-        <v>14031.83395633853</v>
+        <v>14253.10756613512</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.736564381821797</v>
+        <v>-0.1870089083244716</v>
       </c>
     </row>
     <row r="160">
@@ -7057,10 +7057,10 @@
         <v>15635.81331660888</v>
       </c>
       <c r="C160" t="n">
-        <v>15439.04881654111</v>
+        <v>15588.26353119153</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.258421906705443</v>
+        <v>-0.3041081679252285</v>
       </c>
     </row>
     <row r="161">
@@ -7073,10 +7073,10 @@
         <v>10995.11004725444</v>
       </c>
       <c r="C161" t="n">
-        <v>10861.88480744522</v>
+        <v>10955.8046352768</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.211677184099544</v>
+        <v>-0.3574808420171796</v>
       </c>
     </row>
     <row r="162">
@@ -7089,10 +7089,10 @@
         <v>9387.562623335931</v>
       </c>
       <c r="C162" t="n">
-        <v>9208.149416621343</v>
+        <v>9382.824494118116</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.911179865459388</v>
+        <v>-0.05047241129487721</v>
       </c>
     </row>
     <row r="163">
@@ -7105,10 +7105,10 @@
         <v>4251.761191120128</v>
       </c>
       <c r="C163" t="n">
-        <v>4100.927594573257</v>
+        <v>4268.222768334874</v>
       </c>
       <c r="D163" t="n">
-        <v>-3.54755570143238</v>
+        <v>0.3871707858175488</v>
       </c>
     </row>
     <row r="164">
@@ -7121,10 +7121,10 @@
         <v>131850.0203817157</v>
       </c>
       <c r="C164" t="n">
-        <v>129725.3769038104</v>
+        <v>131712.8793857594</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.611409290460712</v>
+        <v>-0.104012874294075</v>
       </c>
     </row>
     <row r="165">
@@ -7137,10 +7137,10 @@
         <v>7026.402470984634</v>
       </c>
       <c r="C165" t="n">
-        <v>6929.321431751545</v>
+        <v>7010.944045666481</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.381660666806142</v>
+        <v>-0.2200048372120583</v>
       </c>
     </row>
     <row r="166">
@@ -7153,10 +7153,10 @@
         <v>2414.365692738618</v>
       </c>
       <c r="C166" t="n">
-        <v>2385.551452135388</v>
+        <v>2411.784851251679</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.193449720143485</v>
+        <v>-0.106895218677972</v>
       </c>
     </row>
     <row r="167">
@@ -7169,10 +7169,10 @@
         <v>212606.6136742881</v>
       </c>
       <c r="C167" t="n">
-        <v>209902.1697500221</v>
+        <v>212022.5590768683</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.27204129614196</v>
+        <v>-0.2747113964735555</v>
       </c>
     </row>
     <row r="168">
@@ -7185,10 +7185,10 @@
         <v>36242.20451189306</v>
       </c>
       <c r="C168" t="n">
-        <v>35712.59872338774</v>
+        <v>36154.94683484717</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.461295734180658</v>
+        <v>-0.2407626087349539</v>
       </c>
     </row>
     <row r="169">
@@ -7201,10 +7201,10 @@
         <v>23664.4564037997</v>
       </c>
       <c r="C169" t="n">
-        <v>23135.55053402522</v>
+        <v>23586.38148520191</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.235022266091674</v>
+        <v>-0.3299248343826369</v>
       </c>
     </row>
     <row r="170">
@@ -7217,10 +7217,10 @@
         <v>82034.16324574809</v>
       </c>
       <c r="C170" t="n">
-        <v>80795.24909248154</v>
+        <v>81763.16607237884</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.510241714241861</v>
+        <v>-0.3303467270793391</v>
       </c>
     </row>
     <row r="171">
@@ -7233,10 +7233,10 @@
         <v>148991.1948680506</v>
       </c>
       <c r="C171" t="n">
-        <v>147581.2044082154</v>
+        <v>148386.604612111</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.9463582469312559</v>
+        <v>-0.4057892524958076</v>
       </c>
     </row>
     <row r="172">
@@ -7249,10 +7249,10 @@
         <v>63319.5053283951</v>
       </c>
       <c r="C172" t="n">
-        <v>62545.41648010215</v>
+        <v>63109.30003751624</v>
       </c>
       <c r="D172" t="n">
-        <v>-1.222512469543595</v>
+        <v>-0.3319755733855934</v>
       </c>
     </row>
     <row r="173">
@@ -7265,10 +7265,10 @@
         <v>109936.0050247709</v>
       </c>
       <c r="C173" t="n">
-        <v>109468.2306131118</v>
+        <v>109035.0959276675</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.4254970076033572</v>
+        <v>-0.8194850239467895</v>
       </c>
     </row>
     <row r="174">
@@ -7281,10 +7281,10 @@
         <v>9056.529986120127</v>
       </c>
       <c r="C174" t="n">
-        <v>8971.687643229414</v>
+        <v>9018.58232100263</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.9368085019399415</v>
+        <v>-0.4190088828243843</v>
       </c>
     </row>
     <row r="175">
@@ -7297,10 +7297,10 @@
         <v>20009.95200306803</v>
       </c>
       <c r="C175" t="n">
-        <v>19662.46630376312</v>
+        <v>19972.53161027085</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.736564381821749</v>
+        <v>-0.1870089083244454</v>
       </c>
     </row>
     <row r="176">
@@ -7313,10 +7313,10 @@
         <v>16409.31651151967</v>
       </c>
       <c r="C176" t="n">
-        <v>16202.81807779807</v>
+        <v>16359.41443970743</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.258421906705446</v>
+        <v>-0.3041081679252463</v>
       </c>
     </row>
     <row r="177">
@@ -7329,10 +7329,10 @@
         <v>16860.76859074634</v>
       </c>
       <c r="C177" t="n">
-        <v>16656.47050466844</v>
+        <v>16800.49457321757</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.211677184099542</v>
+        <v>-0.3574808420171632</v>
       </c>
     </row>
     <row r="178">
@@ -7345,10 +7345,10 @@
         <v>7671.725655247233</v>
       </c>
       <c r="C178" t="n">
-        <v>7525.105179190865</v>
+        <v>7667.853550321101</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.911179865459393</v>
+        <v>-0.0504724112948919</v>
       </c>
     </row>
     <row r="179">
@@ -7361,10 +7361,10 @@
         <v>1198.499581918997</v>
       </c>
       <c r="C179" t="n">
-        <v>1155.982141668986</v>
+        <v>1203.139822168333</v>
       </c>
       <c r="D179" t="n">
-        <v>-3.547555701432381</v>
+        <v>0.3871707858175916</v>
       </c>
     </row>
     <row r="180">
@@ -7377,10 +7377,10 @@
         <v>93942.00139192962</v>
       </c>
       <c r="C180" t="n">
-        <v>92428.21125385533</v>
+        <v>93844.2896161125</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.611409290460711</v>
+        <v>-0.1040128742940714</v>
       </c>
     </row>
     <row r="181">
@@ -7393,10 +7393,10 @@
         <v>13290.59523430951</v>
       </c>
       <c r="C181" t="n">
-        <v>13106.96430757265</v>
+        <v>13261.35528189976</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.381660666806121</v>
+        <v>-0.2200048372120458</v>
       </c>
     </row>
     <row r="182">
@@ -7409,10 +7409,10 @@
         <v>54723.08811872249</v>
       </c>
       <c r="C182" t="n">
-        <v>54069.99557671569</v>
+        <v>54664.59175401062</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.193449720143536</v>
+        <v>-0.1068952186780015</v>
       </c>
     </row>
     <row r="183">
@@ -7425,10 +7425,10 @@
         <v>41335.30632651814</v>
       </c>
       <c r="C183" t="n">
-        <v>40809.50416015805</v>
+        <v>41221.75352927194</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.272041296141954</v>
+        <v>-0.2747113964735569</v>
       </c>
     </row>
     <row r="184">
@@ -7441,10 +7441,10 @@
         <v>131563.2974169935</v>
       </c>
       <c r="C184" t="n">
-        <v>129640.7685640916</v>
+        <v>131246.5421899947</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.461295734180642</v>
+        <v>-0.2407626087349327</v>
       </c>
     </row>
     <row r="185">
@@ -7457,10 +7457,10 @@
         <v>41427.66918069134</v>
       </c>
       <c r="C185" t="n">
-        <v>40501.75155018009</v>
+        <v>41290.98901175836</v>
       </c>
       <c r="D185" t="n">
-        <v>-2.235022266091672</v>
+        <v>-0.3299248343826317</v>
       </c>
     </row>
     <row r="186">
@@ -7473,10 +7473,10 @@
         <v>122915.7609529236</v>
       </c>
       <c r="C186" t="n">
-        <v>121059.4358576347</v>
+        <v>122509.7127595509</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.510241714241874</v>
+        <v>-0.3303467270793572</v>
       </c>
     </row>
     <row r="187">
@@ -7489,10 +7489,10 @@
         <v>265714.1567284354</v>
       </c>
       <c r="C187" t="n">
-        <v>263199.5488929719</v>
+        <v>264635.9172380714</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.9463582469312897</v>
+        <v>-0.4057892524958538</v>
       </c>
     </row>
     <row r="188">
@@ -7505,10 +7505,10 @@
         <v>54806.72631406299</v>
       </c>
       <c r="C188" t="n">
-        <v>54136.70725072494</v>
+        <v>54624.78137012801</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.22251246954359</v>
+        <v>-0.3319755733855821</v>
       </c>
     </row>
     <row r="189">
@@ -7521,10 +7521,10 @@
         <v>280494.5109468997</v>
       </c>
       <c r="C189" t="n">
-        <v>279301.0151963289</v>
+        <v>278195.900436697</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.4254970076033774</v>
+        <v>-0.8194850239468164</v>
       </c>
     </row>
     <row r="190">
@@ -7537,10 +7537,10 @@
         <v>10593.21682983673</v>
       </c>
       <c r="C190" t="n">
-        <v>10493.97867394589</v>
+        <v>10548.83031034287</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.9368085019399459</v>
+        <v>-0.4190088828243924</v>
       </c>
     </row>
     <row r="191">
@@ -7553,10 +7553,10 @@
         <v>5684.394091299144</v>
       </c>
       <c r="C191" t="n">
-        <v>5585.680928187262</v>
+        <v>5673.763767964146</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.736564381821764</v>
+        <v>-0.1870089083244512</v>
       </c>
     </row>
     <row r="192">
@@ -7569,10 +7569,10 @@
         <v>28859.09469763844</v>
       </c>
       <c r="C192" t="n">
-        <v>28495.92552788649</v>
+        <v>28771.33183347364</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.258421906705449</v>
+        <v>-0.3041081679252356</v>
       </c>
     </row>
     <row r="193">
@@ -7585,10 +7585,10 @@
         <v>10795.41906703843</v>
       </c>
       <c r="C193" t="n">
-        <v>10664.61343727519</v>
+        <v>10756.8275120583</v>
       </c>
       <c r="D193" t="n">
-        <v>-1.211677184099536</v>
+        <v>-0.3574808420171621</v>
       </c>
     </row>
     <row r="194">
@@ -7601,10 +7601,10 @@
         <v>130.3430781668181</v>
       </c>
       <c r="C194" t="n">
-        <v>127.8519875008739</v>
+        <v>130.2772908723114</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.911179865459351</v>
+        <v>-0.05047241129482472</v>
       </c>
     </row>
     <row r="195">
@@ -7617,10 +7617,10 @@
         <v>59.17207945961287</v>
       </c>
       <c r="C195" t="n">
-        <v>57.07291698108727</v>
+        <v>59.40117646464125</v>
       </c>
       <c r="D195" t="n">
-        <v>-3.547555701432376</v>
+        <v>0.3871707858175801</v>
       </c>
     </row>
     <row r="196">
@@ -7633,10 +7633,10 @@
         <v>1833.370805769428</v>
       </c>
       <c r="C196" t="n">
-        <v>1803.827698276665</v>
+        <v>1831.463864097879</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.611409290460716</v>
+        <v>-0.1040128742940763</v>
       </c>
     </row>
     <row r="197">
@@ -7649,10 +7649,10 @@
         <v>285.6756973789712</v>
       </c>
       <c r="C197" t="n">
-        <v>281.7286286336619</v>
+        <v>285.0471970259982</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.381660666806134</v>
+        <v>-0.2200048372120492</v>
       </c>
     </row>
     <row r="198">
@@ -7665,10 +7665,10 @@
         <v>32.8274165087924</v>
       </c>
       <c r="C198" t="n">
-        <v>32.43563779833787</v>
+        <v>32.79232557012899</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.193449720143522</v>
+        <v>-0.1068952186779912</v>
       </c>
     </row>
     <row r="199">
@@ -7681,10 +7681,10 @@
         <v>2959.766329414751</v>
       </c>
       <c r="C199" t="n">
-        <v>2922.116879435291</v>
+        <v>2951.635513998862</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.272041296141931</v>
+        <v>-0.2747113964735339</v>
       </c>
     </row>
     <row r="200">
@@ -7697,10 +7697,10 @@
         <v>504.2821752044293</v>
       </c>
       <c r="C200" t="n">
-        <v>496.9131212899337</v>
+        <v>503.0680522840218</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.461295734180631</v>
+        <v>-0.2407626087349383</v>
       </c>
     </row>
     <row r="201">
@@ -7713,10 +7713,10 @@
         <v>329.3262663006252</v>
       </c>
       <c r="C201" t="n">
-        <v>321.9657509207179</v>
+        <v>328.2397371619543</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.235022266091672</v>
+        <v>-0.3299248343826398</v>
       </c>
     </row>
     <row r="202">
@@ -7729,10 +7729,10 @@
         <v>1142.065415761599</v>
       </c>
       <c r="C202" t="n">
-        <v>1124.817467448838</v>
+        <v>1138.292640039526</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.510241714241852</v>
+        <v>-0.3303467270793156</v>
       </c>
     </row>
     <row r="203">
@@ -7745,10 +7745,10 @@
         <v>2074.232428719989</v>
       </c>
       <c r="C203" t="n">
-        <v>2054.602759070274</v>
+        <v>2065.81541645246</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.9463582469312869</v>
+        <v>-0.4057892524958384</v>
       </c>
     </row>
     <row r="204">
@@ -7761,10 +7761,10 @@
         <v>881.4898055408516</v>
       </c>
       <c r="C204" t="n">
-        <v>870.7134827503592</v>
+        <v>878.5634747045719</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.222512469543594</v>
+        <v>-0.331975573385583</v>
       </c>
     </row>
     <row r="205">
@@ -7777,10 +7777,10 @@
         <v>1530.181350854171</v>
       </c>
       <c r="C205" t="n">
-        <v>1523.670474995382</v>
+        <v>1517.641743844694</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.4254970076033457</v>
+        <v>-0.8194850239467767</v>
       </c>
     </row>
     <row r="206">
@@ -7793,10 +7793,10 @@
         <v>200553.4450487138</v>
       </c>
       <c r="C206" t="n">
-        <v>198674.643324564</v>
+        <v>199713.1082991493</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.9368085019399355</v>
+        <v>-0.4190088828243931</v>
       </c>
     </row>
     <row r="207">
@@ -7809,10 +7809,10 @@
         <v>278.5757751426285</v>
       </c>
       <c r="C207" t="n">
-        <v>273.7381274551178</v>
+        <v>278.054813626678</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.736564381821756</v>
+        <v>-0.1870089083244292</v>
       </c>
     </row>
     <row r="208">
@@ -7825,10 +7825,10 @@
         <v>228.4063210516134</v>
       </c>
       <c r="C208" t="n">
-        <v>225.5320058711999</v>
+        <v>227.7117187732379</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.258421906705433</v>
+        <v>-0.3041081679252254</v>
       </c>
     </row>
     <row r="209">
@@ -7841,10 +7841,10 @@
         <v>224.8375270473168</v>
       </c>
       <c r="C209" t="n">
-        <v>222.1132220307908</v>
+        <v>224.0337759624574</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.211677184099561</v>
+        <v>-0.3574808420171818</v>
       </c>
     </row>
     <row r="210">
@@ -7857,10 +7857,10 @@
         <v>2778.315250756939</v>
       </c>
       <c r="C210" t="n">
-        <v>2725.216649085485</v>
+        <v>2776.912968056508</v>
       </c>
       <c r="D210" t="n">
-        <v>-1.911179865459389</v>
+        <v>-0.0504724112948841</v>
       </c>
     </row>
     <row r="211">
@@ -7873,10 +7873,10 @@
         <v>542.7758068847991</v>
       </c>
       <c r="C211" t="n">
-        <v>523.5205328016618</v>
+        <v>544.8772762415427</v>
       </c>
       <c r="D211" t="n">
-        <v>-3.54755570143237</v>
+        <v>0.3871707858175967</v>
       </c>
     </row>
     <row r="212">
@@ -7889,10 +7889,10 @@
         <v>37061.93836946738</v>
       </c>
       <c r="C212" t="n">
-        <v>36464.71885135696</v>
+        <v>37023.3891821002</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.611409290460705</v>
+        <v>-0.1040128742940654</v>
       </c>
     </row>
     <row r="213">
@@ -7905,10 +7905,10 @@
         <v>5019.468010577606</v>
       </c>
       <c r="C213" t="n">
-        <v>4950.115995392538</v>
+        <v>5008.424938152024</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.381660666806151</v>
+        <v>-0.2200048372120476</v>
       </c>
     </row>
     <row r="214">
@@ -7921,10 +7921,10 @@
         <v>11282.78686576815</v>
       </c>
       <c r="C214" t="n">
-        <v>11148.13247749425</v>
+        <v>11270.72610607502</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.193449720143479</v>
+        <v>-0.1068952186779628</v>
       </c>
     </row>
     <row r="215">
@@ -7937,10 +7937,10 @@
         <v>15112.70997075617</v>
       </c>
       <c r="C215" t="n">
-        <v>14920.47005896199</v>
+        <v>15071.19363415051</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.272041296141926</v>
+        <v>-0.2747113964735293</v>
       </c>
     </row>
     <row r="216">
@@ -7953,10 +7953,10 @@
         <v>18494.36720134626</v>
       </c>
       <c r="C216" t="n">
-        <v>18224.10980236928</v>
+        <v>18449.83968040328</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.461295734180645</v>
+        <v>-0.2407626087349485</v>
       </c>
     </row>
     <row r="217">
@@ -7969,10 +7969,10 @@
         <v>2317.133481337426</v>
       </c>
       <c r="C217" t="n">
-        <v>2265.345032094469</v>
+        <v>2309.488682536698</v>
       </c>
       <c r="D217" t="n">
-        <v>-2.235022266091693</v>
+        <v>-0.3299248343826761</v>
       </c>
     </row>
     <row r="218">
@@ -7985,10 +7985,10 @@
         <v>3727.739661860719</v>
       </c>
       <c r="C218" t="n">
-        <v>3671.441782488961</v>
+        <v>3715.425195893724</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.510241714241844</v>
+        <v>-0.3303467270793351</v>
       </c>
     </row>
     <row r="219">
@@ -8001,10 +8001,10 @@
         <v>9138.766773565736</v>
       </c>
       <c r="C219" t="n">
-        <v>9052.281300536282</v>
+        <v>9101.682640187946</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.9463582469312659</v>
+        <v>-0.4057892524958318</v>
       </c>
     </row>
     <row r="220">
@@ -8017,10 +8017,10 @@
         <v>6348.413799460275</v>
       </c>
       <c r="C220" t="n">
-        <v>6270.803649143646</v>
+        <v>6327.338616348627</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.222512469543611</v>
+        <v>-0.3319755733855966</v>
       </c>
     </row>
     <row r="221">
@@ -8033,10 +8033,10 @@
         <v>26823.73566237933</v>
       </c>
       <c r="C221" t="n">
-        <v>26709.60146980846</v>
+        <v>26603.91916576305</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.4254970076033972</v>
+        <v>-0.8194850239468313</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +8049,10 @@
         <v>3771.408181945571</v>
       </c>
       <c r="C222" t="n">
-        <v>3736.077309454247</v>
+        <v>3755.605646655654</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.9368085019399245</v>
+        <v>-0.4190088828243737</v>
       </c>
     </row>
     <row r="223">
@@ -8065,10 +8065,10 @@
         <v>1655.903869521936</v>
       </c>
       <c r="C223" t="n">
-        <v>1627.14803272661</v>
+        <v>1652.807181772641</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.73656438182174</v>
+        <v>-0.1870089083244269</v>
       </c>
     </row>
     <row r="224">
@@ -8081,10 +8081,10 @@
         <v>7689.051612621561</v>
       </c>
       <c r="C224" t="n">
-        <v>7592.290902710443</v>
+        <v>7665.668578631592</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.258421906705437</v>
+        <v>-0.3041081679252287</v>
       </c>
     </row>
     <row r="225">
@@ -8097,10 +8097,10 @@
         <v>2710.279428830022</v>
       </c>
       <c r="C225" t="n">
-        <v>2677.439591365545</v>
+        <v>2700.590699106822</v>
       </c>
       <c r="D225" t="n">
-        <v>-1.211677184099538</v>
+        <v>-0.3574808420171692</v>
       </c>
     </row>
     <row r="226">
@@ -8113,10 +8113,10 @@
         <v>325.8283497189743</v>
       </c>
       <c r="C226" t="n">
-        <v>319.6011839031867</v>
+        <v>325.6638962941888</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.911179865459394</v>
+        <v>-0.05047241129488785</v>
       </c>
     </row>
     <row r="227">
@@ -8129,10 +8129,10 @@
         <v>51.47494382944985</v>
       </c>
       <c r="C227" t="n">
-        <v>49.64884152481908</v>
+        <v>51.67423977397349</v>
       </c>
       <c r="D227" t="n">
-        <v>-3.547555701432385</v>
+        <v>0.3871707858175839</v>
       </c>
     </row>
     <row r="228">
@@ -8145,10 +8145,10 @@
         <v>6916.856511036302</v>
       </c>
       <c r="C228" t="n">
-        <v>6805.397642609626</v>
+        <v>6909.662089768376</v>
       </c>
       <c r="D228" t="n">
-        <v>-1.611409290460723</v>
+        <v>-0.1040128742940843</v>
       </c>
     </row>
     <row r="229">
@@ -8161,10 +8161,10 @@
         <v>369.233986241517</v>
       </c>
       <c r="C229" t="n">
-        <v>364.1324254851376</v>
+        <v>368.4216536111548</v>
       </c>
       <c r="D229" t="n">
-        <v>-1.381660666806146</v>
+        <v>-0.2200048372120522</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>1775.27247268218</v>
       </c>
       <c r="C230" t="n">
-        <v>1754.08548832517</v>
+        <v>1773.374791290377</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.193449720143498</v>
+        <v>-0.1068952186779697</v>
       </c>
     </row>
     <row r="231">
@@ -8193,10 +8193,10 @@
         <v>5928.014601319257</v>
       </c>
       <c r="C231" t="n">
-        <v>5852.607807549151</v>
+        <v>5911.729669624817</v>
       </c>
       <c r="D231" t="n">
-        <v>-1.272041296141952</v>
+        <v>-0.2747113964735533</v>
       </c>
     </row>
     <row r="232">
@@ -8209,10 +8209,10 @@
         <v>1031.395597177054</v>
       </c>
       <c r="C232" t="n">
-        <v>1016.323857312978</v>
+        <v>1028.912382230912</v>
       </c>
       <c r="D232" t="n">
-        <v>-1.461295734180703</v>
+        <v>-0.2407626087350105</v>
       </c>
     </row>
     <row r="233">
@@ -8225,10 +8225,10 @@
         <v>1608.551307985471</v>
       </c>
       <c r="C233" t="n">
-        <v>1572.599828090487</v>
+        <v>1603.24429774664</v>
       </c>
       <c r="D233" t="n">
-        <v>-2.23502226609168</v>
+        <v>-0.3299248343826506</v>
       </c>
     </row>
     <row r="234">
@@ -8241,10 +8241,10 @@
         <v>677.4327596080684</v>
       </c>
       <c r="C234" t="n">
-        <v>667.2018874865275</v>
+        <v>675.1948826585398</v>
       </c>
       <c r="D234" t="n">
-        <v>-1.510241714241866</v>
+        <v>-0.3303467270793597</v>
       </c>
     </row>
     <row r="235">
@@ -8257,10 +8257,10 @@
         <v>1698.715141718269</v>
       </c>
       <c r="C235" t="n">
-        <v>1682.639210882748</v>
+        <v>1691.821938242657</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.9463582469312758</v>
+        <v>-0.4057892524958365</v>
       </c>
     </row>
     <row r="236">
@@ -8273,10 +8273,10 @@
         <v>645.5155124368843</v>
       </c>
       <c r="C236" t="n">
-        <v>637.6240048045051</v>
+        <v>643.372558613179</v>
       </c>
       <c r="D236" t="n">
-        <v>-1.222512469543588</v>
+        <v>-0.3319755733855912</v>
       </c>
     </row>
     <row r="237">
@@ -8289,10 +8289,10 @@
         <v>1645.530889760532</v>
       </c>
       <c r="C237" t="n">
-        <v>1638.529205065412</v>
+        <v>1632.046010554526</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.4254970076033624</v>
+        <v>-0.8194850239468007</v>
       </c>
     </row>
     <row r="238">
@@ -8305,10 +8305,10 @@
         <v>761.9280649988186</v>
       </c>
       <c r="C238" t="n">
-        <v>754.7902581072434</v>
+        <v>758.7355187257416</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.9368085019399162</v>
+        <v>-0.4190088828243881</v>
       </c>
     </row>
     <row r="239">
@@ -8321,10 +8321,10 @@
         <v>537.7236817026917</v>
       </c>
       <c r="C239" t="n">
-        <v>528.3857637736222</v>
+        <v>536.7180905157376</v>
       </c>
       <c r="D239" t="n">
-        <v>-1.736564381821745</v>
+        <v>-0.187008908324427</v>
       </c>
     </row>
     <row r="240">
@@ -8337,10 +8337,10 @@
         <v>11949.50026854712</v>
       </c>
       <c r="C240" t="n">
-        <v>11799.1251394259</v>
+        <v>11913.16086220422</v>
       </c>
       <c r="D240" t="n">
-        <v>-1.258421906705445</v>
+        <v>-0.3041081679252416</v>
       </c>
     </row>
     <row r="241">
@@ -8353,10 +8353,10 @@
         <v>386.8847934372729</v>
       </c>
       <c r="C241" t="n">
-        <v>382.1969986664429</v>
+        <v>385.501754420057</v>
       </c>
       <c r="D241" t="n">
-        <v>-1.211677184099524</v>
+        <v>-0.357480842017151</v>
       </c>
     </row>
     <row r="242">
@@ -8369,10 +8369,10 @@
         <v>1046.295292655768</v>
       </c>
       <c r="C242" t="n">
-        <v>1026.298707689282</v>
+        <v>1045.7672021923</v>
       </c>
       <c r="D242" t="n">
-        <v>-1.911179865459382</v>
+        <v>-0.0504724112948679</v>
       </c>
     </row>
     <row r="243">
@@ -8385,10 +8385,10 @@
         <v>130.1836001021431</v>
       </c>
       <c r="C243" t="n">
-        <v>125.5652643743896</v>
+        <v>130.6876329696642</v>
       </c>
       <c r="D243" t="n">
-        <v>-3.547555701432399</v>
+        <v>0.3871707858175634</v>
       </c>
     </row>
     <row r="244">
@@ -8401,10 +8401,10 @@
         <v>11809.09997807655</v>
       </c>
       <c r="C244" t="n">
-        <v>11618.80704391003</v>
+        <v>11796.81699376109</v>
       </c>
       <c r="D244" t="n">
-        <v>-1.611409290460689</v>
+        <v>-0.1040128742940539</v>
       </c>
     </row>
     <row r="245">
@@ -8417,10 +8417,10 @@
         <v>825.7796476708539</v>
       </c>
       <c r="C245" t="n">
-        <v>814.3701750844954</v>
+        <v>823.9628925012654</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.381660666806146</v>
+        <v>-0.2200048372120536</v>
       </c>
     </row>
     <row r="246">
@@ -8433,10 +8433,10 @@
         <v>3297.724954117424</v>
       </c>
       <c r="C246" t="n">
-        <v>3258.368264881407</v>
+        <v>3294.199843816322</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.193449720143515</v>
+        <v>-0.1068952186779868</v>
       </c>
     </row>
     <row r="247">
@@ -8449,10 +8449,10 @@
         <v>11905.56344431094</v>
       </c>
       <c r="C247" t="n">
-        <v>11754.11976076092</v>
+        <v>11872.85750471503</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.272041296141946</v>
+        <v>-0.2747113964735523</v>
       </c>
     </row>
     <row r="248">
@@ -8465,10 +8465,10 @@
         <v>2030.975650240378</v>
       </c>
       <c r="C248" t="n">
-        <v>2001.297089701167</v>
+        <v>2026.085820282087</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.461295734180661</v>
+        <v>-0.2407626087349871</v>
       </c>
     </row>
     <row r="249">
@@ -8481,10 +8481,10 @@
         <v>7229.999439492259</v>
       </c>
       <c r="C249" t="n">
-        <v>7068.407342181304</v>
+        <v>7206.145875815649</v>
       </c>
       <c r="D249" t="n">
-        <v>-2.235022266091672</v>
+        <v>-0.3299248343826321</v>
       </c>
     </row>
     <row r="250">
@@ -8497,10 +8497,10 @@
         <v>1917.548880912487</v>
       </c>
       <c r="C250" t="n">
-        <v>1888.589257821969</v>
+        <v>1911.214320944247</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.510241714241848</v>
+        <v>-0.3303467270793162</v>
       </c>
     </row>
     <row r="251">
@@ -8513,10 +8513,10 @@
         <v>5140.148725132723</v>
       </c>
       <c r="C251" t="n">
-        <v>5091.504503767896</v>
+        <v>5119.290554043832</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.9463582469312705</v>
+        <v>-0.4057892524958343</v>
       </c>
     </row>
     <row r="252">
@@ -8529,10 +8529,10 @@
         <v>1583.233059004502</v>
       </c>
       <c r="C252" t="n">
-        <v>1563.877837436235</v>
+        <v>1577.977111978842</v>
       </c>
       <c r="D252" t="n">
-        <v>-1.222512469543587</v>
+        <v>-0.3319755733855725</v>
       </c>
     </row>
     <row r="253">
@@ -8545,10 +8545,10 @@
         <v>5884.108741303054</v>
       </c>
       <c r="C253" t="n">
-        <v>5859.07203468468</v>
+        <v>5835.88935137533</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.4254970076033817</v>
+        <v>-0.8194850239468083</v>
       </c>
     </row>
     <row r="254">
@@ -8561,10 +8561,10 @@
         <v>1109.271824274989</v>
       </c>
       <c r="C254" t="n">
-        <v>1098.880071515557</v>
+        <v>1104.623876796609</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.9368085019399012</v>
+        <v>-0.4190088828243616</v>
       </c>
     </row>
     <row r="255">
@@ -8577,10 +8577,10 @@
         <v>3763.941165659353</v>
       </c>
       <c r="C255" t="n">
-        <v>3698.577904023785</v>
+        <v>3756.902260375478</v>
       </c>
       <c r="D255" t="n">
-        <v>-1.736564381821774</v>
+        <v>-0.1870089083244612</v>
       </c>
     </row>
     <row r="256">
@@ -8593,10 +8593,10 @@
         <v>1794.712358636747</v>
       </c>
       <c r="C256" t="n">
-        <v>1772.127305153313</v>
+        <v>1789.25449176337</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.25842190670541</v>
+        <v>-0.3041081679252079</v>
       </c>
     </row>
     <row r="257">
@@ -8609,10 +8609,10 @@
         <v>30230.98358170662</v>
       </c>
       <c r="C257" t="n">
-        <v>29864.68165111821</v>
+        <v>30122.91360704867</v>
       </c>
       <c r="D257" t="n">
-        <v>-1.211677184099523</v>
+        <v>-0.357480842017153</v>
       </c>
     </row>
   </sheetData>
@@ -8666,10 +8666,10 @@
         <v>3414557.645092672</v>
       </c>
       <c r="C2" t="n">
-        <v>3349299.306885156</v>
+        <v>3412834.23551414</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.911179865459403</v>
+        <v>-0.05047241129489476</v>
       </c>
     </row>
     <row r="3">
@@ -8682,10 +8682,10 @@
         <v>236483.0463515812</v>
       </c>
       <c r="C3" t="n">
-        <v>228093.6785578147</v>
+        <v>237398.639620466</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.547555701432378</v>
+        <v>0.3871707858175857</v>
       </c>
     </row>
     <row r="4">
@@ -8698,10 +8698,10 @@
         <v>10693184.37090776</v>
       </c>
       <c r="C4" t="n">
-        <v>10520873.40450886</v>
+        <v>10682062.08249001</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.611409290460728</v>
+        <v>-0.104012874294087</v>
       </c>
     </row>
     <row r="5">
@@ -8714,10 +8714,10 @@
         <v>859555.5685829821</v>
       </c>
       <c r="C5" t="n">
-        <v>847679.4273825291</v>
+        <v>857664.5047535739</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.381660666806139</v>
+        <v>-0.220004837212055</v>
       </c>
     </row>
     <row r="6">
@@ -8730,10 +8730,10 @@
         <v>2955558.97113681</v>
       </c>
       <c r="C6" t="n">
-        <v>2920285.860867101</v>
+        <v>2952399.619911456</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.193449720143522</v>
+        <v>-0.1068952186779945</v>
       </c>
     </row>
     <row r="7">
@@ -8746,10 +8746,10 @@
         <v>4193101.561300549</v>
       </c>
       <c r="C7" t="n">
-        <v>4139763.577851634</v>
+        <v>4181582.633445946</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.272041296141945</v>
+        <v>-0.2747113964735434</v>
       </c>
     </row>
     <row r="8">
@@ -8762,10 +8762,10 @@
         <v>1706212.131163495</v>
       </c>
       <c r="C8" t="n">
-        <v>1681279.32607473</v>
+        <v>1702104.210325954</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.461295734180641</v>
+        <v>-0.2407626087349457</v>
       </c>
     </row>
     <row r="9">
@@ -8778,10 +8778,10 @@
         <v>1023361.531720356</v>
       </c>
       <c r="C9" t="n">
-        <v>1000489.17362379</v>
+        <v>1019985.207881692</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.235022266091638</v>
+        <v>-0.3299248343826013</v>
       </c>
     </row>
     <row r="10">
@@ -8794,10 +8794,10 @@
         <v>1008230.237982081</v>
       </c>
       <c r="C10" t="n">
-        <v>993003.5243524754</v>
+        <v>1004899.582389483</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.510241714241883</v>
+        <v>-0.3303467270793607</v>
       </c>
     </row>
     <row r="11">
@@ -8810,10 +8810,10 @@
         <v>2590209.541191509</v>
       </c>
       <c r="C11" t="n">
-        <v>2565696.879585642</v>
+        <v>2579698.749256232</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9463582469312766</v>
+        <v>-0.4057892524958305</v>
       </c>
     </row>
     <row r="12">
@@ -8826,10 +8826,10 @@
         <v>1427752.616260717</v>
       </c>
       <c r="C12" t="n">
-        <v>1410298.162492695</v>
+        <v>1423012.826326358</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.222512469543591</v>
+        <v>-0.3319755733855886</v>
       </c>
     </row>
     <row r="13">
@@ -8842,10 +8842,10 @@
         <v>1993459.613516357</v>
       </c>
       <c r="C13" t="n">
-        <v>1984977.502513063</v>
+        <v>1977123.510525162</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4254970076033859</v>
+        <v>-0.8194850239468197</v>
       </c>
     </row>
     <row r="14">
@@ -8858,10 +8858,10 @@
         <v>1209532.48903948</v>
       </c>
       <c r="C14" t="n">
-        <v>1198201.485848433</v>
+        <v>1204464.440469758</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9368085019399174</v>
+        <v>-0.4190088828243876</v>
       </c>
     </row>
     <row r="15">
@@ -8874,10 +8874,10 @@
         <v>848111.702553727</v>
       </c>
       <c r="C15" t="n">
-        <v>833383.6968091168</v>
+        <v>846525.6581174093</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.73656438182177</v>
+        <v>-0.1870089083244505</v>
       </c>
     </row>
     <row r="16">
@@ -8890,10 +8890,10 @@
         <v>450023.7008461211</v>
       </c>
       <c r="C16" t="n">
-        <v>444360.504009307</v>
+        <v>448655.1420142487</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.258421906705433</v>
+        <v>-0.3041081679252215</v>
       </c>
     </row>
     <row r="17">
@@ -8906,10 +8906,10 @@
         <v>545780.8972354506</v>
       </c>
       <c r="C17" t="n">
-        <v>539167.7946284749</v>
+        <v>543829.8350884444</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.211677184099539</v>
+        <v>-0.3574808420171711</v>
       </c>
     </row>
   </sheetData>
@@ -8963,10 +8963,10 @@
         <v>681704.0979888855</v>
       </c>
       <c r="C2" t="n">
-        <v>666843.9742193756</v>
+        <v>681230.4815463342</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.179849558385979</v>
+        <v>-0.06947536973130769</v>
       </c>
     </row>
     <row r="3">
@@ -8979,10 +8979,10 @@
         <v>1249.88667263317</v>
       </c>
       <c r="C3" t="n">
-        <v>1230.665127239622</v>
+        <v>1247.851902969557</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.537863057060464</v>
+        <v>-0.1627963325128234</v>
       </c>
     </row>
     <row r="4">
@@ -8995,10 +8995,10 @@
         <v>5072181.859160316</v>
       </c>
       <c r="C4" t="n">
-        <v>5005743.888215965</v>
+        <v>5061194.809592908</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.309849938135895</v>
+        <v>-0.2166138729344929</v>
       </c>
     </row>
     <row r="5">
@@ -9011,10 +9011,10 @@
         <v>228099.3515061853</v>
       </c>
       <c r="C5" t="n">
-        <v>225064.09781314</v>
+        <v>227677.6023783896</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.330671776575838</v>
+        <v>-0.1848971182998959</v>
       </c>
     </row>
     <row r="6">
@@ -9027,10 +9027,10 @@
         <v>41509.39267939057</v>
       </c>
       <c r="C6" t="n">
-        <v>40803.14561739887</v>
+        <v>41423.37072074779</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.701415068745037</v>
+        <v>-0.2072349246523539</v>
       </c>
     </row>
     <row r="7">
@@ -9043,10 +9043,10 @@
         <v>1668853.361421085</v>
       </c>
       <c r="C7" t="n">
-        <v>1651205.052466285</v>
+        <v>1663401.369776196</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.057511064948909</v>
+        <v>-0.3266908747600266</v>
       </c>
     </row>
     <row r="8">
@@ -9059,10 +9059,10 @@
         <v>844195.7394430137</v>
       </c>
       <c r="C8" t="n">
-        <v>833128.1683944718</v>
+        <v>842115.3108487725</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.311019533910954</v>
+        <v>-0.2464391250794258</v>
       </c>
     </row>
     <row r="9">
@@ -9075,10 +9075,10 @@
         <v>827929.9838858522</v>
       </c>
       <c r="C9" t="n">
-        <v>816372.138135442</v>
+        <v>825769.6782154604</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.395993136540832</v>
+        <v>-0.2609285461860519</v>
       </c>
     </row>
     <row r="10">
@@ -9091,10 +9091,10 @@
         <v>279204.3897815574</v>
       </c>
       <c r="C10" t="n">
-        <v>275336.2353601473</v>
+        <v>278376.2468786371</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.385420345445308</v>
+        <v>-0.2966081240944071</v>
       </c>
     </row>
     <row r="11">
@@ -9107,10 +9107,10 @@
         <v>847117.1702098944</v>
       </c>
       <c r="C11" t="n">
-        <v>840664.775415389</v>
+        <v>843228.488927582</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7616885858784679</v>
+        <v>-0.459048809192341</v>
       </c>
     </row>
     <row r="12">
@@ -9123,10 +9123,10 @@
         <v>709106.1542588873</v>
       </c>
       <c r="C12" t="n">
-        <v>700573.469796632</v>
+        <v>706977.4568528215</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.203301425464732</v>
+        <v>-0.3001944621804257</v>
       </c>
     </row>
     <row r="13">
@@ -9139,10 +9139,10 @@
         <v>34388.56298679487</v>
       </c>
       <c r="C13" t="n">
-        <v>34165.62227366331</v>
+        <v>34185.01744273235</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.648299009229207</v>
+        <v>-0.5918989523949477</v>
       </c>
     </row>
     <row r="14">
@@ -9155,10 +9155,10 @@
         <v>547184.0434827509</v>
       </c>
       <c r="C14" t="n">
-        <v>542211.4509141349</v>
+        <v>544896.834490718</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9087605217736556</v>
+        <v>-0.4179962883192183</v>
       </c>
     </row>
     <row r="15">
@@ -9171,10 +9171,10 @@
         <v>624199.4650670212</v>
       </c>
       <c r="C15" t="n">
-        <v>613346.8446763214</v>
+        <v>623121.8318559487</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.738646217765433</v>
+        <v>-0.1726424438631692</v>
       </c>
     </row>
     <row r="16">
@@ -9187,10 +9187,10 @@
         <v>366170.2447981961</v>
       </c>
       <c r="C16" t="n">
-        <v>361629.8931745228</v>
+        <v>365052.1659512513</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.239956465106979</v>
+        <v>-0.3053439930819565</v>
       </c>
     </row>
     <row r="17">
@@ -9203,10 +9203,10 @@
         <v>476990.7278785029</v>
       </c>
       <c r="C17" t="n">
-        <v>471294.8637775034</v>
+        <v>475393.3791596833</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.194124700564489</v>
+        <v>-0.3348804547887325</v>
       </c>
     </row>
   </sheetData>
@@ -9260,10 +9260,10 @@
         <v>4199.478882578032</v>
       </c>
       <c r="C2" t="n">
-        <v>4103.945946639769</v>
+        <v>4197.494728974711</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.274875969363515</v>
+        <v>-0.04724761473508756</v>
       </c>
     </row>
     <row r="3">
@@ -9276,10 +9276,10 @@
         <v>182.8844489195033</v>
       </c>
       <c r="C3" t="n">
-        <v>179.8970074530036</v>
+        <v>182.627332888779</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.633513119431298</v>
+        <v>-0.1405893350929565</v>
       </c>
     </row>
     <row r="4">
@@ -9292,10 +9292,10 @@
         <v>373785.7590061041</v>
       </c>
       <c r="C4" t="n">
-        <v>368531.37222191</v>
+        <v>373059.0490459515</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.405721501580345</v>
+        <v>-0.194418846262348</v>
       </c>
     </row>
     <row r="5">
@@ -9308,10 +9308,10 @@
         <v>30208.34326232866</v>
       </c>
       <c r="C5" t="n">
-        <v>29777.41426368167</v>
+        <v>30159.19578714018</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.426523112852687</v>
+        <v>-0.1626950368038709</v>
       </c>
     </row>
     <row r="6">
@@ -9324,10 +9324,10 @@
         <v>544.2639596754708</v>
       </c>
       <c r="C6" t="n">
-        <v>534.4840465667872</v>
+        <v>543.2568655540647</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.796906250142862</v>
+        <v>-0.1850378118012102</v>
       </c>
     </row>
     <row r="7">
@@ -9340,10 +9340,10 @@
         <v>109078.9813295354</v>
       </c>
       <c r="C7" t="n">
-        <v>107820.6159200705</v>
+        <v>108746.8136526359</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.153627760478737</v>
+        <v>-0.3045203327449825</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9356,10 @@
         <v>72652.30470162898</v>
       </c>
       <c r="C8" t="n">
-        <v>71630.16672022801</v>
+        <v>72489.38137615719</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.406889961163273</v>
+        <v>-0.2242507325003425</v>
       </c>
     </row>
     <row r="9">
@@ -9372,10 +9372,10 @@
         <v>256449.3035849219</v>
       </c>
       <c r="C9" t="n">
-        <v>252623.6415557285</v>
+        <v>255837.0478584835</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.491781017033078</v>
+        <v>-0.2387433765191133</v>
       </c>
     </row>
     <row r="10">
@@ -9388,10 +9388,10 @@
         <v>155149.7673252957</v>
       </c>
       <c r="C10" t="n">
-        <v>152851.6602739775</v>
+        <v>154723.9884368898</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.481218496770189</v>
+        <v>-0.2744308907103934</v>
       </c>
     </row>
     <row r="11">
@@ -9404,10 +9404,10 @@
         <v>481768.4252947781</v>
       </c>
       <c r="C11" t="n">
-        <v>477634.4058222049</v>
+        <v>479663.5419107804</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8580926552095473</v>
+        <v>-0.4369077078286747</v>
       </c>
     </row>
     <row r="12">
@@ -9420,10 +9420,10 @@
         <v>40310.04944841391</v>
       </c>
       <c r="C12" t="n">
-        <v>39786.31045104934</v>
+        <v>40197.98024445098</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.299276494400771</v>
+        <v>-0.2780180265131015</v>
       </c>
     </row>
     <row r="13">
@@ -9436,10 +9436,10 @@
         <v>54737.47033988653</v>
       </c>
       <c r="C13" t="n">
-        <v>54329.7784191726</v>
+        <v>54425.58313017303</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7448132297353466</v>
+        <v>-0.5697874011657317</v>
       </c>
     </row>
     <row r="14">
@@ -9452,10 +9452,10 @@
         <v>522067.6321158273</v>
       </c>
       <c r="C14" t="n">
-        <v>516820.7390223893</v>
+        <v>520001.0479867532</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.005021719537271</v>
+        <v>-0.395846055557715</v>
       </c>
     </row>
     <row r="15">
@@ -9468,10 +9468,10 @@
         <v>22378.20519142771</v>
       </c>
       <c r="C15" t="n">
-        <v>21967.76625446122</v>
+        <v>22344.53994843892</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.834101231334306</v>
+        <v>-0.1504376365343653</v>
       </c>
     </row>
     <row r="16">
@@ -9484,10 +9484,10 @@
         <v>52685.52568929273</v>
       </c>
       <c r="C16" t="n">
-        <v>51981.70189808639</v>
+        <v>52536.33676961629</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.335895925869773</v>
+        <v>-0.2831687028355082</v>
       </c>
     </row>
     <row r="17">
@@ -9500,10 +9500,10 @@
         <v>23438.95177260142</v>
       </c>
       <c r="C17" t="n">
-        <v>23136.56382031205</v>
+        <v>23365.65541998836</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.290108684138515</v>
+        <v>-0.3127117343990503</v>
       </c>
     </row>
   </sheetData>
@@ -9557,10 +9557,10 @@
         <v>394497.6888084688</v>
       </c>
       <c r="C2" t="n">
-        <v>387922.8315752049</v>
+        <v>394643.7756135359</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.666640241447913</v>
+        <v>0.0370310927570502</v>
       </c>
     </row>
     <row r="3">
@@ -9573,10 +9573,10 @@
         <v>13216.80477489961</v>
       </c>
       <c r="C3" t="n">
-        <v>13081.8234529536</v>
+        <v>13209.35190697765</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.021285584866614</v>
+        <v>-0.05638933198220744</v>
       </c>
     </row>
     <row r="4">
@@ -9589,10 +9589,10 @@
         <v>1539821.604049792</v>
       </c>
       <c r="C4" t="n">
-        <v>1527625.043529654</v>
+        <v>1538123.731592959</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7920762046759628</v>
+        <v>-0.1102642314127677</v>
       </c>
     </row>
     <row r="5">
@@ -9605,10 +9605,10 @@
         <v>1367.881618448352</v>
       </c>
       <c r="C5" t="n">
-        <v>1356.760641253623</v>
+        <v>1366.807644348792</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8130072840180429</v>
+        <v>-0.07851367289943369</v>
       </c>
     </row>
     <row r="6">
@@ -9621,10 +9621,10 @@
         <v>2927645.3929571</v>
       </c>
       <c r="C6" t="n">
-        <v>2892932.428436824</v>
+        <v>2924692.122264619</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.185695665321486</v>
+        <v>-0.1008752869997919</v>
       </c>
     </row>
     <row r="7">
@@ -9637,10 +9637,10 @@
         <v>4560.995555048999</v>
       </c>
       <c r="C7" t="n">
-        <v>4536.438541701248</v>
+        <v>4550.940450206357</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.538413446173321</v>
+        <v>-0.220458553867946</v>
       </c>
     </row>
     <row r="8">
@@ -9653,10 +9653,10 @@
         <v>1090.025652932387</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.379003330124</v>
+        <v>1088.49829512822</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7932519366862287</v>
+        <v>-0.1401212714634807</v>
       </c>
     </row>
     <row r="9">
@@ -9669,10 +9669,10 @@
         <v>618.7971370217454</v>
       </c>
       <c r="C9" t="n">
-        <v>613.3599438656083</v>
+        <v>617.840314922376</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8786713497586782</v>
+        <v>-0.1546261354689669</v>
       </c>
     </row>
     <row r="10">
@@ -9685,10 +9685,10 @@
         <v>21716.29890705622</v>
       </c>
       <c r="C10" t="n">
-        <v>21527.79207521604</v>
+        <v>21674.96329134165</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.868043088958073</v>
+        <v>-0.1903437408533013</v>
       </c>
     </row>
     <row r="11">
@@ -9701,10 +9701,10 @@
         <v>3166.211466152315</v>
       </c>
       <c r="C11" t="n">
-        <v>3158.579663378544</v>
+        <v>3155.03608354165</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2410389468725398</v>
+        <v>-0.3529575560613537</v>
       </c>
     </row>
     <row r="12">
@@ -9717,10 +9717,10 @@
         <v>7014.752514295814</v>
       </c>
       <c r="C12" t="n">
-        <v>6966.70365591284</v>
+        <v>7001.148531079931</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6849686897014816</v>
+        <v>-0.1939339012767544</v>
       </c>
     </row>
     <row r="13">
@@ -9733,10 +9733,10 @@
         <v>31104.57843132653</v>
       </c>
       <c r="C13" t="n">
-        <v>31065.05867201294</v>
+        <v>30953.42595277694</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1270544765647221</v>
+        <v>-0.485949291623776</v>
       </c>
     </row>
     <row r="14">
@@ -9749,10 +9749,10 @@
         <v>1057.98409967499</v>
       </c>
       <c r="C14" t="n">
-        <v>1053.869784769538</v>
+        <v>1054.684656906827</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.388882489511542</v>
+        <v>-0.3118612812022615</v>
       </c>
     </row>
     <row r="15">
@@ -9765,10 +9765,10 @@
         <v>5564.495219738023</v>
       </c>
       <c r="C15" t="n">
-        <v>5496.434646392084</v>
+        <v>5560.808967719898</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.223122146003804</v>
+        <v>-0.06624593736821258</v>
       </c>
     </row>
     <row r="16">
@@ -9781,10 +9781,10 @@
         <v>2237.227755704404</v>
       </c>
       <c r="C16" t="n">
-        <v>2221.079086946583</v>
+        <v>2232.773683114778</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7218160384719665</v>
+        <v>-0.1990889205745383</v>
       </c>
     </row>
     <row r="17">
@@ -9797,10 +9797,10 @@
         <v>4424.727197110003</v>
       </c>
       <c r="C17" t="n">
-        <v>4394.827376545845</v>
+        <v>4414.609754731652</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.6757438194988916</v>
+        <v>-0.2286568623927513</v>
       </c>
     </row>
   </sheetData>
@@ -9854,10 +9854,10 @@
         <v>88379.20989359371</v>
       </c>
       <c r="C2" t="n">
-        <v>84991.64689334067</v>
+        <v>88644.12359744584</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.832986292060742</v>
+        <v>0.2997466306511211</v>
       </c>
     </row>
     <row r="3">
@@ -9870,10 +9870,10 @@
         <v>80038.6007416122</v>
       </c>
       <c r="C3" t="n">
-        <v>76171.10228227203</v>
+        <v>80607.90704153327</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.832041569324257</v>
+        <v>0.7112896710412926</v>
       </c>
     </row>
     <row r="4">
@@ -9886,10 +9886,10 @@
         <v>2920941.758736638</v>
       </c>
       <c r="C4" t="n">
-        <v>2866152.334566212</v>
+        <v>2919974.556542079</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.875745177271973</v>
+        <v>-0.03311268332091823</v>
       </c>
     </row>
     <row r="5">
@@ -9902,10 +9902,10 @@
         <v>0.1707930718649235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1680047638902751</v>
+        <v>0.1706214190792417</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.632565035690436</v>
+        <v>-0.1005033657439853</v>
       </c>
     </row>
     <row r="6">
@@ -9918,10 +9918,10 @@
         <v>3019.361322344704</v>
       </c>
       <c r="C6" t="n">
-        <v>2953.409029016667</v>
+        <v>3018.395356087176</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.184312716731138</v>
+        <v>-0.03199240350530814</v>
       </c>
     </row>
     <row r="7">
@@ -9934,10 +9934,10 @@
         <v>302312.1911261023</v>
       </c>
       <c r="C7" t="n">
-        <v>299303.5473977532</v>
+        <v>301015.905991913</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9952108504595778</v>
+        <v>-0.4287902281944634</v>
       </c>
     </row>
     <row r="8">
@@ -9950,10 +9950,10 @@
         <v>339911.8913027431</v>
       </c>
       <c r="C8" t="n">
-        <v>334255.0530449142</v>
+        <v>339081.6229807443</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.664207226216363</v>
+        <v>-0.2442598635831028</v>
       </c>
     </row>
     <row r="9">
@@ -9966,10 +9966,10 @@
         <v>467265.7590406692</v>
       </c>
       <c r="C9" t="n">
-        <v>454765.378686463</v>
+        <v>465547.2050241355</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.675218569379103</v>
+        <v>-0.367789418180787</v>
       </c>
     </row>
     <row r="10">
@@ -9982,10 +9982,10 @@
         <v>303862.505135322</v>
       </c>
       <c r="C10" t="n">
-        <v>298420.9735517729</v>
+        <v>302612.6870162766</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.790787442210324</v>
+        <v>-0.4113104110981885</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         <v>44667.50305592605</v>
       </c>
       <c r="C11" t="n">
-        <v>44653.61899200538</v>
+        <v>44289.91479971859</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03108314315954643</v>
+        <v>-0.8453310133201191</v>
       </c>
     </row>
     <row r="12">
@@ -10014,10 +10014,10 @@
         <v>6203.60467028512</v>
       </c>
       <c r="C12" t="n">
-        <v>6127.980636039574</v>
+        <v>6175.582923310621</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.219033743523023</v>
+        <v>-0.451701042600617</v>
       </c>
     </row>
     <row r="13">
@@ -10030,10 +10030,10 @@
         <v>839824.0628519823</v>
       </c>
       <c r="C13" t="n">
-        <v>842258.7664514584</v>
+        <v>829223.7222656376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2899063872030602</v>
+        <v>-1.262209676434695</v>
       </c>
     </row>
     <row r="14">
@@ -10046,10 +10046,10 @@
         <v>10181.8199161731</v>
       </c>
       <c r="C14" t="n">
-        <v>10147.87117673492</v>
+        <v>10103.43346487738</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3334250626870361</v>
+        <v>-0.7698668012308192</v>
       </c>
     </row>
     <row r="15">
@@ -10062,10 +10062,10 @@
         <v>62709.11526794974</v>
       </c>
       <c r="C15" t="n">
-        <v>60994.98213714462</v>
+        <v>62676.81694916134</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.733467253493858</v>
+        <v>-0.05150498241027196</v>
       </c>
     </row>
     <row r="16">
@@ -10078,10 +10078,10 @@
         <v>8969.809554331197</v>
       </c>
       <c r="C16" t="n">
-        <v>8850.686811662184</v>
+        <v>8931.711187203897</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.328040934954889</v>
+        <v>-0.4247399779954563</v>
       </c>
     </row>
     <row r="17">
@@ -10094,10 +10094,10 @@
         <v>40285.14188351417</v>
       </c>
       <c r="C17" t="n">
-        <v>39805.73290658809</v>
+        <v>40068.31148633487</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.190039191899342</v>
+        <v>-0.5382391299657617</v>
       </c>
     </row>
   </sheetData>
@@ -10151,10 +10151,10 @@
         <v>78355.35792597735</v>
       </c>
       <c r="C2" t="n">
-        <v>78473.8900905387</v>
+        <v>78028.00875035685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1512751236148035</v>
+        <v>-0.4177751008804684</v>
       </c>
     </row>
     <row r="3">
@@ -10167,10 +10167,10 @@
         <v>317789.3840405327</v>
       </c>
       <c r="C3" t="n">
-        <v>314656.1696798565</v>
+        <v>316997.3765657608</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9859405373581051</v>
+        <v>-0.2492240189719228</v>
       </c>
     </row>
     <row r="4">
@@ -10183,10 +10183,10 @@
         <v>5812388.874918879</v>
       </c>
       <c r="C4" t="n">
-        <v>5745353.353727535</v>
+        <v>5799224.270774794</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.153321338849326</v>
+        <v>-0.2264921433748517</v>
       </c>
     </row>
     <row r="5">
@@ -10199,10 +10199,10 @@
         <v>0.0003561830006493868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003521577187714273</v>
+        <v>0.0003549742458923197</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.130116224137768</v>
+        <v>-0.339363404447511</v>
       </c>
     </row>
     <row r="6">
@@ -10215,10 +10215,10 @@
         <v>3747.700656387613</v>
       </c>
       <c r="C6" t="n">
-        <v>3740.559665493086</v>
+        <v>3740.883876200386</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1905432570329718</v>
+        <v>-0.1818923337862842</v>
       </c>
     </row>
     <row r="7">
@@ -10231,10 +10231,10 @@
         <v>18452.78067859498</v>
       </c>
       <c r="C7" t="n">
-        <v>18160.05341700946</v>
+        <v>18434.50731281878</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.586358536873949</v>
+        <v>-0.09902770804290403</v>
       </c>
     </row>
     <row r="8">
@@ -10247,10 +10247,10 @@
         <v>268135.8427319374</v>
       </c>
       <c r="C8" t="n">
-        <v>265027.9205858372</v>
+        <v>267504.2117921963</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.159084930397491</v>
+        <v>-0.2355637848732561</v>
       </c>
     </row>
     <row r="9">
@@ -10263,10 +10263,10 @@
         <v>640564.0214195349</v>
       </c>
       <c r="C9" t="n">
-        <v>633438.7452843926</v>
+        <v>639066.7729168836</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.112344105644928</v>
+        <v>-0.2337390881450597</v>
       </c>
     </row>
     <row r="10">
@@ -10279,10 +10279,10 @@
         <v>71737.1030274103</v>
       </c>
       <c r="C10" t="n">
-        <v>71019.59352750257</v>
+        <v>71605.51567788445</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.000193023732183</v>
+        <v>-0.1834299741314663</v>
       </c>
     </row>
     <row r="11">
@@ -10295,10 +10295,10 @@
         <v>120414.6020779007</v>
       </c>
       <c r="C11" t="n">
-        <v>118146.7853527288</v>
+        <v>120475.1690070323</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.883340297636618</v>
+        <v>0.05029865820790461</v>
       </c>
     </row>
     <row r="12">
@@ -10311,10 +10311,10 @@
         <v>126100.7636223691</v>
       </c>
       <c r="C12" t="n">
-        <v>124554.7438143471</v>
+        <v>125834.5261076721</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.22601938609333</v>
+        <v>-0.2111307711778216</v>
       </c>
     </row>
     <row r="13">
@@ -10327,10 +10327,10 @@
         <v>116158.5188728069</v>
       </c>
       <c r="C13" t="n">
-        <v>113653.2065419972</v>
+        <v>116465.1121272262</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.156804645170245</v>
+        <v>0.2639438393278963</v>
       </c>
     </row>
     <row r="14">
@@ -10343,10 +10343,10 @@
         <v>28460.98512839308</v>
       </c>
       <c r="C14" t="n">
-        <v>28020.89696730001</v>
+        <v>28443.56650095422</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.546285763151731</v>
+        <v>-0.06120177274356654</v>
       </c>
     </row>
     <row r="15">
@@ -10359,10 +10359,10 @@
         <v>11764.370195582</v>
       </c>
       <c r="C15" t="n">
-        <v>11697.20686135324</v>
+        <v>11723.93750091904</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5709046307807016</v>
+        <v>-0.343687711205711</v>
       </c>
     </row>
     <row r="16">
@@ -10375,10 +10375,10 @@
         <v>6241.96478553941</v>
       </c>
       <c r="C16" t="n">
-        <v>6167.936081565758</v>
+        <v>6230.821060846464</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.185984005311142</v>
+        <v>-0.178529118247539</v>
       </c>
     </row>
     <row r="17">
@@ -10391,10 +10391,10 @@
         <v>41897.22041143459</v>
       </c>
       <c r="C17" t="n">
-        <v>41379.17617567893</v>
+        <v>41834.37247853474</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.236464449594533</v>
+        <v>-0.1500050177139944</v>
       </c>
     </row>
   </sheetData>

--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -488,10 +488,10 @@
         <v>1716192.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1715326.292843203</v>
+        <v>1611257.852701749</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05047241129487474</v>
+        <v>-6.114386590439683</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         <v>154636.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>155235.1958943164</v>
+        <v>132335.7803796657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3871707858175755</v>
+        <v>-14.42137519450028</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3242974.18102503</v>
       </c>
       <c r="C4" t="n">
-        <v>3239601.070366731</v>
+        <v>3057377.846864983</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1040128742940701</v>
+        <v>-5.723028423907584</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>519331.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>518188.6481518393</v>
+        <v>492033.776513916</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2200048372120517</v>
+        <v>-5.256265231613107</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         <v>1321086.417788376</v>
       </c>
       <c r="C6" t="n">
-        <v>1319674.239573156</v>
+        <v>1269066.175364136</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1068952186779897</v>
+        <v>-3.937686567948138</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>2762815.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>2755225.730075389</v>
+        <v>2628799.734566821</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2747113964735569</v>
+        <v>-4.850695408039496</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>666749.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>665143.8356192902</v>
+        <v>629039.8974321348</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2407626087349644</v>
+        <v>-5.655683634077683</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>352280.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>351117.9980057724</v>
+        <v>329970.9907680147</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3299248343826354</v>
+        <v>-6.332817915586967</v>
       </c>
     </row>
     <row r="10">
@@ -616,10 +616,10 @@
         <v>472989.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>471427.3352470004</v>
+        <v>449336.3221337288</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3303467270793468</v>
+        <v>-5.000851495950481</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1344792.707611407</v>
       </c>
       <c r="C11" t="n">
-        <v>1339335.683335572</v>
+        <v>1291565.41732232</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4057892524958234</v>
+        <v>-3.958029366743665</v>
       </c>
     </row>
     <row r="12">
@@ -648,10 +648,10 @@
         <v>1086830.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1083222.633818372</v>
+        <v>1037776.612125717</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.331975573385577</v>
+        <v>-4.513493812336524</v>
       </c>
     </row>
     <row r="13">
@@ -664,10 +664,10 @@
         <v>1143812.989778033</v>
       </c>
       <c r="C13" t="n">
-        <v>1134439.613624843</v>
+        <v>1123606.472919926</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8194850239468495</v>
+        <v>-1.766592706909953</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>712160.1110237867</v>
       </c>
       <c r="C14" t="n">
-        <v>709176.0968986651</v>
+        <v>684280.5612841678</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4190088828243811</v>
+        <v>-3.914786760457538</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v>722157.2634633619</v>
       </c>
       <c r="C15" t="n">
-        <v>720806.7650485734</v>
+        <v>678499.4511327974</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1870089083244439</v>
+        <v>-6.045471608384568</v>
       </c>
     </row>
     <row r="16">
@@ -712,10 +712,10 @@
         <v>298161.0429722404</v>
       </c>
       <c r="C16" t="n">
-        <v>297254.3108869907</v>
+        <v>284411.3475571196</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3041081679252433</v>
+        <v>-4.611499637261799</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         <v>363863.9942526534</v>
       </c>
       <c r="C17" t="n">
-        <v>362563.2501822018</v>
+        <v>349063.5064024808</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3574808420171419</v>
+        <v>-4.067587913052953</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +785,10 @@
         <v>3450957.802370132</v>
       </c>
       <c r="C2" t="n">
-        <v>3448618.174390638</v>
+        <v>3247493.591188636</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06779648183141601</v>
+        <v>-5.895876531488047</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         <v>482919.8310003763</v>
       </c>
       <c r="C3" t="n">
-        <v>482506.8054535361</v>
+        <v>454082.2191505167</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08552673142136828</v>
+        <v>-5.971511211316806</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>13829988.52652916</v>
       </c>
       <c r="C4" t="n">
-        <v>13806412.34367666</v>
+        <v>13162501.43142137</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1704714563376275</v>
+        <v>-4.826374901377451</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>897254.4002150299</v>
       </c>
       <c r="C5" t="n">
-        <v>895280.3969278719</v>
+        <v>850092.3339071309</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2200048600135051</v>
+        <v>-5.25626470002226</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         <v>3009042.214440523</v>
       </c>
       <c r="C6" t="n">
-        <v>3005820.618981088</v>
+        <v>2890746.709789247</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1070638173161887</v>
+        <v>-3.931334166186526</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4383731.161583323</v>
       </c>
       <c r="C7" t="n">
-        <v>4372186.565164287</v>
+        <v>4171392.409072558</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2633509217035721</v>
+        <v>-4.843790476286228</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         <v>1665526.087146317</v>
       </c>
       <c r="C8" t="n">
-        <v>1661541.950348968</v>
+        <v>1580035.429446215</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2392119119655972</v>
+        <v>-5.132952186091559</v>
       </c>
     </row>
     <row r="9">
@@ -897,10 +897,10 @@
         <v>1247668.798003208</v>
       </c>
       <c r="C9" t="n">
-        <v>1244345.423452823</v>
+        <v>1186290.073000984</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2663667277488432</v>
+        <v>-4.919472627708211</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>819039.8384011268</v>
       </c>
       <c r="C10" t="n">
-        <v>816685.487613919</v>
+        <v>780359.8371851783</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2874525361066484</v>
+        <v>-4.7226031509599</v>
       </c>
     </row>
     <row r="11">
@@ -929,10 +929,10 @@
         <v>2819310.646765826</v>
       </c>
       <c r="C11" t="n">
-        <v>2808614.914061159</v>
+        <v>2704769.657039418</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3793740401376672</v>
+        <v>-4.06273036487851</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +945,10 @@
         <v>1650491.778729892</v>
       </c>
       <c r="C12" t="n">
-        <v>1645172.318164272</v>
+        <v>1576204.010259874</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3222954899971169</v>
+        <v>-4.500947501064476</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>1285246.074292473</v>
       </c>
       <c r="C13" t="n">
-        <v>1279681.606509506</v>
+        <v>1235166.032706166</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4329496035247772</v>
+        <v>-3.896533324474511</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
         <v>1283357.657219289</v>
       </c>
       <c r="C14" t="n">
-        <v>1278117.714174407</v>
+        <v>1232705.330280178</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4082995114733744</v>
+        <v>-3.946859759177526</v>
       </c>
     </row>
     <row r="15">
@@ -993,10 +993,10 @@
         <v>806616.9594252668</v>
       </c>
       <c r="C15" t="n">
-        <v>805005.0709641833</v>
+        <v>760221.2368370644</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1998331974363682</v>
+        <v>-5.751890292668836</v>
       </c>
     </row>
     <row r="16">
@@ -1009,10 +1009,10 @@
         <v>457402.8571253931</v>
       </c>
       <c r="C16" t="n">
-        <v>456030.5110402575</v>
+        <v>436373.5504414155</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.300030064035965</v>
+        <v>-4.597545983017897</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>594553.9771915111</v>
       </c>
       <c r="C17" t="n">
-        <v>592588.233674783</v>
+        <v>569876.8213115664</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3306249040690322</v>
+        <v>-4.15053247082997</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1082,10 @@
         <v>3372602.435199078</v>
       </c>
       <c r="C2" t="n">
-        <v>3370590.402507502</v>
+        <v>3170200.087027534</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05965816399160864</v>
+        <v>-6.001369923093139</v>
       </c>
     </row>
     <row r="3">
@@ -1098,10 +1098,10 @@
         <v>165130.445609969</v>
       </c>
       <c r="C3" t="n">
-        <v>165510.0511846088</v>
+        <v>145625.7101843708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2298822444507829</v>
+        <v>-11.81171367493764</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>8017599.612171117</v>
       </c>
       <c r="C4" t="n">
-        <v>8007188.821721615</v>
+        <v>7586436.640738118</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1298492186326921</v>
+        <v>-5.37770644942748</v>
       </c>
     </row>
     <row r="5">
@@ -1130,10 +1130,10 @@
         <v>897254.3977899103</v>
       </c>
       <c r="C5" t="n">
-        <v>895280.3945085136</v>
+        <v>850092.3315992533</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2200048599660255</v>
+        <v>-5.25626470116225</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>3005294.609814465</v>
       </c>
       <c r="C6" t="n">
-        <v>3002079.831558432</v>
+        <v>2887039.330324556</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1069704862057284</v>
+        <v>-3.934898066356611</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +1162,10 @@
         <v>4365278.370174446</v>
       </c>
       <c r="C7" t="n">
-        <v>4353752.059681415</v>
+        <v>4153815.020128489</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2640452570398368</v>
+        <v>-4.844212261256231</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1178,10 @@
         <v>1397390.239860752</v>
       </c>
       <c r="C8" t="n">
-        <v>1394037.734120624</v>
+        <v>1322337.658534349</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2399119189827626</v>
+        <v>-5.370910657990702</v>
       </c>
     </row>
     <row r="9">
@@ -1194,10 +1194,10 @@
         <v>607104.7726796871</v>
       </c>
       <c r="C9" t="n">
-        <v>605278.6817657778</v>
+        <v>572558.7466802056</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3007867827902631</v>
+        <v>-5.690290630890542</v>
       </c>
     </row>
     <row r="10">
@@ -1210,10 +1210,10 @@
         <v>747302.7328467588</v>
       </c>
       <c r="C10" t="n">
-        <v>745079.9907355518</v>
+        <v>711524.3160345553</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2974352981073307</v>
+        <v>-4.787673755174152</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         <v>2698896.038135583</v>
       </c>
       <c r="C11" t="n">
-        <v>2688140.320049947</v>
+        <v>2591282.505088676</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3985228750443476</v>
+        <v>-3.987316722330938</v>
       </c>
     </row>
     <row r="12">
@@ -1242,10 +1242,10 @@
         <v>1524391.011590432</v>
       </c>
       <c r="C12" t="n">
-        <v>1519337.830843851</v>
+        <v>1455597.337226382</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3314884900370044</v>
+        <v>-4.512862765589004</v>
       </c>
     </row>
     <row r="13">
@@ -1258,10 +1258,10 @@
         <v>1169087.550664374</v>
       </c>
       <c r="C13" t="n">
-        <v>1163218.041432565</v>
+        <v>1127819.565121909</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.502058997076248</v>
+        <v>-3.529931143224696</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         <v>1254896.669123307</v>
       </c>
       <c r="C14" t="n">
-        <v>1249674.232590744</v>
+        <v>1205662.093276543</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4161646660686055</v>
+        <v>-3.923396806938707</v>
       </c>
     </row>
     <row r="15">
@@ -1290,10 +1290,10 @@
         <v>794852.5872857772</v>
       </c>
       <c r="C15" t="n">
-        <v>793281.1377164879</v>
+        <v>748733.8368071434</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1977032715783749</v>
+        <v>-5.802176556550918</v>
       </c>
     </row>
     <row r="16">
@@ -1306,10 +1306,10 @@
         <v>451160.8912917899</v>
       </c>
       <c r="C16" t="n">
-        <v>449799.691275638</v>
+        <v>430392.5717664546</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3017105521390417</v>
+        <v>-4.603306697499928</v>
       </c>
     </row>
     <row r="17">
@@ -1322,10 +1322,10 @@
         <v>552656.7553519364</v>
       </c>
       <c r="C17" t="n">
-        <v>550753.8966228027</v>
+        <v>529951.2257955213</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3443111317660408</v>
+        <v>-4.108432464913252</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997645009665897</v>
+        <v>0.9556190344922171</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2354990334103024</v>
+        <v>-4.438096550778292</v>
       </c>
     </row>
     <row r="3">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997400621507752</v>
+        <v>0.9579421403363968</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2599378492248006</v>
+        <v>-4.20578596636032</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9975641355623592</v>
+        <v>1.032509708840426</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2435864437640767</v>
+        <v>3.250970884042625</v>
       </c>
     </row>
     <row r="3">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9976311466933196</v>
+        <v>1.047875034905173</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2368853306680352</v>
+        <v>4.787503490517331</v>
       </c>
     </row>
     <row r="4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994046980825932</v>
+        <v>0.9997254256038968</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05953019174067542</v>
+        <v>-0.02745743961032332</v>
       </c>
     </row>
     <row r="5">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989040774074891</v>
+        <v>1.022484842736878</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1095922592510901</v>
+        <v>2.248484273687756</v>
       </c>
     </row>
     <row r="6">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999052887420526</v>
+        <v>1.029798063661377</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09471125794739965</v>
+        <v>2.979806366137727</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000836967320951</v>
+        <v>1.00002809987643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08369673209509543</v>
+        <v>0.002809987643037637</v>
       </c>
     </row>
     <row r="8">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9992892068148576</v>
+        <v>1.013969957755115</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07107931851424443</v>
+        <v>1.396995775511467</v>
       </c>
     </row>
     <row r="9">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9997762619671406</v>
+        <v>1.009681746749947</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02237380328593552</v>
+        <v>0.9681746749946596</v>
       </c>
     </row>
     <row r="10">
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996629381869736</v>
+        <v>1.008470201680266</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03370618130263958</v>
+        <v>0.8470201680266243</v>
       </c>
     </row>
     <row r="11">
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.002618146883916</v>
+        <v>0.9887294123376388</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2618146883915706</v>
+        <v>-1.127058766236122</v>
       </c>
     </row>
     <row r="12">
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000435185403201</v>
+        <v>1.001731179775608</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04351854032005331</v>
+        <v>0.1731179775607883</v>
       </c>
     </row>
     <row r="13">
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.002837923425357</v>
+        <v>0.9820649550119946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2837923425356825</v>
+        <v>-1.793504498800536</v>
       </c>
     </row>
     <row r="14">
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.002037081518493</v>
+        <v>0.9929850974523668</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2037081518493133</v>
+        <v>-0.7014902547633151</v>
       </c>
     </row>
     <row r="15">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991059004270914</v>
+        <v>1.019746739914196</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08940995729086465</v>
+        <v>1.974673991419595</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000399295534131</v>
+        <v>1.004000764892749</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03992955341309834</v>
+        <v>0.400076489274892</v>
       </c>
     </row>
     <row r="17">
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.001055468539802</v>
+        <v>0.9954476687273407</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1055468539802096</v>
+        <v>-0.4552331272659305</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982526112692428</v>
+        <v>1.024090963727363</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1747388730757193</v>
+        <v>2.409096372736341</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9983895545151702</v>
+        <v>1.033866199837219</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1610445484829803</v>
+        <v>3.386619983721872</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996453187220676</v>
+        <v>1.005082850449151</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03546812779323671</v>
+        <v>0.5082850449150689</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999401712549573</v>
+        <v>1.015154497048146</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05982874504270042</v>
+        <v>1.515449704814564</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996252958681437</v>
+        <v>1.014878512550385</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03747041318562516</v>
+        <v>1.487851255038541</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000773412675437</v>
+        <v>1.00049242659058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07734126754370685</v>
+        <v>0.04924265905796865</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.000017528937141</v>
+        <v>1.006287386968895</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001752893714068726</v>
+        <v>0.6287386968895303</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000190003748347</v>
+        <v>1.004504200339883</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01900037483471007</v>
+        <v>0.4504200339883413</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000406407773614</v>
+        <v>1.002776272354974</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04064077736138927</v>
+        <v>0.2776272354974463</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.002213994216764</v>
+        <v>0.9909542265772381</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221399421676427</v>
+        <v>-0.9045773422761916</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000601162923052</v>
+        <v>1.00081329584524</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06011629230520121</v>
+        <v>0.08132958452398142</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.002239413519862</v>
+        <v>0.9878628238302353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2239413519861566</v>
+        <v>-1.213717616976473</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.001766340089076</v>
+        <v>0.9945382675420047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.176634008907639</v>
+        <v>-0.5461732457995305</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9993219013253329</v>
+        <v>1.016982771231575</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06780986746670603</v>
+        <v>1.698277123157532</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000605548491128</v>
+        <v>1.00216946649591</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06055484911282605</v>
+        <v>0.2169466495909989</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.000908269846517</v>
+        <v>0.997096802695818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09082698465174843</v>
+        <v>-0.2903197304181981</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982473812280541</v>
+        <v>1.02413263653602</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.175261877194588</v>
+        <v>2.413263653601971</v>
       </c>
     </row>
     <row r="3">
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991804743365168</v>
+        <v>1.016395794995335</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08195256634832004</v>
+        <v>1.639579499533461</v>
       </c>
     </row>
     <row r="4">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9997193760280034</v>
+        <v>1.004001160335035</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02806239719965742</v>
+        <v>0.4001160335034504</v>
       </c>
     </row>
     <row r="5">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994017101313853</v>
+        <v>1.015154497543064</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05982898686146543</v>
+        <v>1.515449754306353</v>
       </c>
     </row>
     <row r="6">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996254181512243</v>
+        <v>1.014874449666174</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03745818487757013</v>
+        <v>1.487444966617368</v>
       </c>
     </row>
     <row r="7">
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000823444033228</v>
+        <v>1.000524291173619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08234440332284265</v>
+        <v>0.05242911736187406</v>
       </c>
     </row>
     <row r="8">
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.000018281472608</v>
+        <v>1.006540200111048</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001828147260818369</v>
+        <v>0.6540200111048389</v>
       </c>
     </row>
     <row r="9">
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000163557398916</v>
+        <v>1.003849585033161</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01635573989164918</v>
+        <v>0.384958503316124</v>
       </c>
     </row>
     <row r="10">
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.00052147314176</v>
+        <v>1.003557881581698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05214731417602092</v>
+        <v>0.3557881581698119</v>
       </c>
     </row>
     <row r="11">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.002154222192357</v>
+        <v>0.9911924653367478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2154222192357391</v>
+        <v>-0.8807534663252237</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000557463264766</v>
+        <v>1.000754163677672</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05574632647664668</v>
+        <v>0.0754163677672226</v>
       </c>
     </row>
     <row r="13">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.003493512758482</v>
+        <v>0.9808217724638491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3493512758481865</v>
+        <v>-1.917822753615095</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.001741085726016</v>
+        <v>0.9946151600702011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1741085726016278</v>
+        <v>-0.5384839929798879</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.99927902489871</v>
+        <v>1.018026960952643</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0720975101289989</v>
+        <v>1.802696095264289</v>
       </c>
     </row>
     <row r="16">
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000609145087867</v>
+        <v>1.002182242652769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06091450878673577</v>
+        <v>0.2182242652769117</v>
       </c>
     </row>
     <row r="17">
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.000905682671249</v>
+        <v>0.997103420810437</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09056826712485755</v>
+        <v>-0.2896579189562987</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9982067385546359</v>
+        <v>1.024707163236764</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1793261445364069</v>
+        <v>2.470716323676414</v>
       </c>
     </row>
     <row r="3">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9976070999684113</v>
+        <v>1.049511344169356</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2392900031588652</v>
+        <v>4.951134416935576</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999516040001437</v>
+        <v>1.00692189951302</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04839599985629883</v>
+        <v>0.6921899513020024</v>
       </c>
     </row>
     <row r="5">
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9994017124356209</v>
+        <v>1.015154499889968</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05982875643790742</v>
+        <v>1.515449988996753</v>
       </c>
     </row>
     <row r="6">
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996249192688839</v>
+        <v>1.014893242415353</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03750807311161397</v>
+        <v>1.489324241535295</v>
       </c>
     </row>
     <row r="7">
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000826930210988</v>
+        <v>1.000526511068652</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08269302109875643</v>
+        <v>0.05265110686518693</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.000021792716981</v>
+        <v>1.007804953404651</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002179271698143914</v>
+        <v>0.7804953404650927</v>
       </c>
     </row>
     <row r="9">
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000336193355401</v>
+        <v>1.007943602889532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03361933554011376</v>
+        <v>0.7943602889532109</v>
       </c>
     </row>
     <row r="10">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000571563795611</v>
+        <v>1.003900755013174</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05715637956107411</v>
+        <v>0.3900755013174217</v>
       </c>
     </row>
     <row r="11">
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.002250554235101</v>
+        <v>0.9908031226301875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2250554235101232</v>
+        <v>-0.9196877369812451</v>
       </c>
     </row>
     <row r="12">
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000603607917686</v>
+        <v>1.000816602903782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06036079176858777</v>
+        <v>0.08166029037823819</v>
       </c>
     </row>
     <row r="13">
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.003841959812923</v>
+        <v>0.9789563598808424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.384195981292268</v>
+        <v>-2.10436401191576</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.001780646134003</v>
+        <v>0.9944937070302455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1780646134003305</v>
+        <v>-0.5506292969754467</v>
       </c>
     </row>
     <row r="15">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9992683642176703</v>
+        <v>1.018298657274997</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07316357823297093</v>
+        <v>1.829865727499658</v>
       </c>
     </row>
     <row r="16">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000617580347161</v>
+        <v>1.002212503852308</v>
       </c>
       <c r="D16" t="n">
-        <v>0.061758034716064</v>
+        <v>0.2212503852308423</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.000974412475629</v>
+        <v>0.9968845162171619</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09744124756290162</v>
+        <v>-0.3115483782838102</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3279,10 @@
         <v>1135500.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1134835.379197251</v>
+        <v>1151849.475870009</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05857482083376239</v>
+        <v>1.439803799344934</v>
       </c>
     </row>
     <row r="3">
@@ -3295,10 +3295,10 @@
         <v>131043.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>131549.0227000822</v>
+        <v>122971.7777596104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3857758361288167</v>
+        <v>-6.159566502512813</v>
       </c>
     </row>
     <row r="4">
@@ -3311,10 +3311,10 @@
         <v>2283937.65102503</v>
       </c>
       <c r="C4" t="n">
-        <v>2285586.377383522</v>
+        <v>2252608.990929649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07218788821805096</v>
+        <v>-1.371695067127634</v>
       </c>
     </row>
     <row r="5">
@@ -3327,10 +3327,10 @@
         <v>426893.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>426491.587158847</v>
+        <v>432754.7330940557</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09407850876004389</v>
+        <v>1.373067350457312</v>
       </c>
     </row>
     <row r="6">
@@ -3343,10 +3343,10 @@
         <v>744992.4177883761</v>
       </c>
       <c r="C6" t="n">
-        <v>745246.2668224203</v>
+        <v>771209.1494814614</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03407404263224353</v>
+        <v>3.519060203446588</v>
       </c>
     </row>
     <row r="7">
@@ -3359,10 +3359,10 @@
         <v>1787008.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>1787801.196595608</v>
+        <v>1779342.894488968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04435890937309738</v>
+        <v>-0.4289629640723275</v>
       </c>
     </row>
     <row r="8">
@@ -3375,10 +3375,10 @@
         <v>425529.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>425204.220033274</v>
+        <v>425976.1866292423</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07635156862350206</v>
+        <v>0.1050617737235228</v>
       </c>
     </row>
     <row r="9">
@@ -3391,10 +3391,10 @@
         <v>224861.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>224598.1674135005</v>
+        <v>222536.7824516425</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1170013245131332</v>
+        <v>-1.033737706586361</v>
       </c>
     </row>
     <row r="10">
@@ -3407,10 +3407,10 @@
         <v>316229.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>315822.7093135997</v>
+        <v>317030.3512235339</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1287457226373206</v>
+        <v>0.2531416740136596</v>
       </c>
     </row>
     <row r="11">
@@ -3423,10 +3423,10 @@
         <v>917723.7076114072</v>
       </c>
       <c r="C11" t="n">
-        <v>918555.8590307587</v>
+        <v>911938.7612476975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09067559358550807</v>
+        <v>-0.630358169428392</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3439,10 @@
         <v>1029993.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1029445.402907182</v>
+        <v>1030962.690064154</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05322782158431983</v>
+        <v>0.0940825198663735</v>
       </c>
     </row>
     <row r="13">
@@ -3455,10 +3455,10 @@
         <v>418612.9897780325</v>
       </c>
       <c r="C13" t="n">
-        <v>417343.6153952823</v>
+        <v>422597.8960791815</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3032333954623164</v>
+        <v>0.9519308761206787</v>
       </c>
     </row>
     <row r="14">
@@ -3471,10 +3471,10 @@
         <v>99793.11102378671</v>
       </c>
       <c r="C14" t="n">
-        <v>99812.46131857845</v>
+        <v>99635.71901798619</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01939041141540497</v>
+        <v>-0.1577183075923958</v>
       </c>
     </row>
     <row r="15">
@@ -3487,10 +3487,10 @@
         <v>162559.2634633618</v>
       </c>
       <c r="C15" t="n">
-        <v>162492.8599123401</v>
+        <v>162980.9983299963</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04084882621081919</v>
+        <v>0.259434533381457</v>
       </c>
     </row>
     <row r="16">
@@ -3503,10 +3503,10 @@
         <v>213874.0429722403</v>
       </c>
       <c r="C16" t="n">
-        <v>213812.2996825972</v>
+        <v>214340.0621786087</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02886899634246679</v>
+        <v>0.2178942333964534</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>265197.5242526537</v>
       </c>
       <c r="C17" t="n">
-        <v>265152.8332969015</v>
+        <v>265013.7893159502</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01685195058971921</v>
+        <v>-0.06928229711843685</v>
       </c>
     </row>
     <row r="18">
@@ -3535,10 +3535,10 @@
         <v>580692</v>
       </c>
       <c r="C18" t="n">
-        <v>580494.0614573031</v>
+        <v>587624.3132502701</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03408666602895858</v>
+        <v>1.193802093066564</v>
       </c>
     </row>
     <row r="19">
@@ -3551,10 +3551,10 @@
         <v>23593</v>
       </c>
       <c r="C19" t="n">
-        <v>23689.81927074369</v>
+        <v>22086.08230209561</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4103728679849383</v>
+        <v>-6.387138973019064</v>
       </c>
     </row>
     <row r="20">
@@ -3567,10 +3567,10 @@
         <v>959036.53</v>
       </c>
       <c r="C20" t="n">
-        <v>959963.9958450149</v>
+        <v>943587.6157101959</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09670808316497599</v>
+        <v>-1.610878606449347</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3583,10 @@
         <v>92438</v>
       </c>
       <c r="C21" t="n">
-        <v>92373.66402715779</v>
+        <v>93479.98654421692</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06959905324888835</v>
+        <v>1.127227486766184</v>
       </c>
     </row>
     <row r="22">
@@ -3599,10 +3599,10 @@
         <v>576094</v>
       </c>
       <c r="C22" t="n">
-        <v>576431.5040864979</v>
+        <v>594920.8446232143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0585848987314463</v>
+        <v>3.268016091681971</v>
       </c>
     </row>
     <row r="23">
@@ -3615,10 +3615,10 @@
         <v>975807</v>
       </c>
       <c r="C23" t="n">
-        <v>976479.0605831884</v>
+        <v>969264.870555054</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0688722855224887</v>
+        <v>-0.6704327233711126</v>
       </c>
     </row>
     <row r="24">
@@ -3631,10 +3631,10 @@
         <v>241220</v>
       </c>
       <c r="C24" t="n">
-        <v>241094.8845662492</v>
+        <v>240887.8327047984</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0518677695675278</v>
+        <v>-0.1377030491673846</v>
       </c>
     </row>
     <row r="25">
@@ -3647,10 +3647,10 @@
         <v>127419</v>
       </c>
       <c r="C25" t="n">
-        <v>127301.1024030386</v>
+        <v>125796.0121763711</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09252748566651063</v>
+        <v>-1.273740826430029</v>
       </c>
     </row>
     <row r="26">
@@ -3663,10 +3663,10 @@
         <v>156760</v>
       </c>
       <c r="C26" t="n">
-        <v>156596.5388839311</v>
+        <v>156775.7038131445</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1042747614626505</v>
+        <v>0.01001774250093869</v>
       </c>
     </row>
     <row r="27">
@@ -3679,10 +3679,10 @@
         <v>427069</v>
       </c>
       <c r="C27" t="n">
-        <v>427560.9848481453</v>
+        <v>423347.7790033839</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1152003184837432</v>
+        <v>-0.8713395251390565</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3695,10 @@
         <v>56837</v>
       </c>
       <c r="C28" t="n">
-        <v>56820.66598024186</v>
+        <v>56752.50857273172</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02873835663061377</v>
+        <v>-0.1486556772318735</v>
       </c>
     </row>
     <row r="29">
@@ -3711,10 +3711,10 @@
         <v>725200</v>
       </c>
       <c r="C29" t="n">
-        <v>723178.1047755934</v>
+        <v>730327.9784768453</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2788051881421149</v>
+        <v>0.7071123106515872</v>
       </c>
     </row>
     <row r="30">
@@ -3727,10 +3727,10 @@
         <v>612367</v>
       </c>
       <c r="C30" t="n">
-        <v>612635.8148427473</v>
+        <v>609918.4758877391</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04389766965680573</v>
+        <v>-0.3998458624094539</v>
       </c>
     </row>
     <row r="31">
@@ -3743,10 +3743,10 @@
         <v>559598</v>
       </c>
       <c r="C31" t="n">
-        <v>559506.4703151187</v>
+        <v>559689.1884026264</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01635632809290427</v>
+        <v>0.0162953410531186</v>
       </c>
     </row>
     <row r="32">
@@ -3759,10 +3759,10 @@
         <v>84287</v>
       </c>
       <c r="C32" t="n">
-        <v>84283.31365506719</v>
+        <v>84265.80669168069</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.004373562865932379</v>
+        <v>-0.02514421953482077</v>
       </c>
     </row>
     <row r="33">
@@ -3775,10 +3775,10 @@
         <v>98666.46999999974</v>
       </c>
       <c r="C33" t="n">
-        <v>98674.01445996125</v>
+        <v>98359.0012856317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.007646427364346594</v>
+        <v>-0.3116243181376973</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3820,10 @@
         <v>2685479.873327278</v>
       </c>
       <c r="B2" t="n">
-        <v>2678910.773761888</v>
+        <v>2568622.898549922</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2446154830887435</v>
+        <v>-4.351437370207186</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3865,10 @@
         <v>129988.6072602831</v>
       </c>
       <c r="B2" t="n">
-        <v>129699.4779104412</v>
+        <v>124030.985307182</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.222426684873215</v>
+        <v>-4.583187772119012</v>
       </c>
     </row>
   </sheetData>
@@ -3910,10 +3910,10 @@
         <v>945269.9536134986</v>
       </c>
       <c r="B2" t="n">
-        <v>942957.6769499743</v>
+        <v>904137.1236026207</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2446154830887362</v>
+        <v>-4.351437370207187</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3967,10 @@
         <v>46424</v>
       </c>
       <c r="C2" t="n">
-        <v>46319.48885695471</v>
+        <v>44635.47283695933</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.225123089447891</v>
+        <v>-3.852591683268722</v>
       </c>
     </row>
     <row r="3">
@@ -3983,10 +3983,10 @@
         <v>8686</v>
       </c>
       <c r="C3" t="n">
-        <v>8705.587166249707</v>
+        <v>7685.098983835181</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2255027198907042</v>
+        <v>-11.52315238504282</v>
       </c>
     </row>
     <row r="4">
@@ -3999,10 +3999,10 @@
         <v>245357</v>
       </c>
       <c r="C4" t="n">
-        <v>245014.864113388</v>
+        <v>232490.8894597053</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1394441106681281</v>
+        <v>-5.243832676587474</v>
       </c>
     </row>
     <row r="5">
@@ -4015,10 +4015,10 @@
         <v>37699</v>
       </c>
       <c r="C5" t="n">
-        <v>37593.55515956171</v>
+        <v>36258.72041802462</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2797019561216096</v>
+        <v>-3.820471582735301</v>
       </c>
     </row>
     <row r="6">
@@ -4031,10 +4031,10 @@
         <v>52755</v>
       </c>
       <c r="C6" t="n">
-        <v>52678.86104144032</v>
+        <v>51431.68185154517</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1443255777834981</v>
+        <v>-2.508422231930293</v>
       </c>
     </row>
     <row r="7">
@@ -4047,10 +4047,10 @@
         <v>474489</v>
       </c>
       <c r="C7" t="n">
-        <v>473551.4923245781</v>
+        <v>451695.3011675312</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1975825942059542</v>
+        <v>-4.803841360383228</v>
       </c>
     </row>
     <row r="8">
@@ -4063,10 +4063,10 @@
         <v>31090</v>
       </c>
       <c r="C8" t="n">
-        <v>31015.69056750481</v>
+        <v>29516.06737931364</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2390139353335123</v>
+        <v>-5.062504408769259</v>
       </c>
     </row>
     <row r="9">
@@ -4079,10 +4079,10 @@
         <v>51009</v>
       </c>
       <c r="C9" t="n">
-        <v>50850.36856644021</v>
+        <v>47993.89771428012</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3109871465031374</v>
+        <v>-5.910922162206428</v>
       </c>
     </row>
     <row r="10">
@@ -4095,10 +4095,10 @@
         <v>42935</v>
       </c>
       <c r="C10" t="n">
-        <v>42810.55710789916</v>
+        <v>40901.12268611963</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2898402051958463</v>
+        <v>-4.737107986212585</v>
       </c>
     </row>
     <row r="11">
@@ -4111,10 +4111,10 @@
         <v>153354</v>
       </c>
       <c r="C11" t="n">
-        <v>153069.8530634168</v>
+        <v>145951.90411</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1852882458776532</v>
+        <v>-4.826803272167663</v>
       </c>
     </row>
     <row r="12">
@@ -4127,10 +4127,10 @@
         <v>102842</v>
       </c>
       <c r="C12" t="n">
-        <v>102562.2092349258</v>
+        <v>98280.09853476807</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2720588524864885</v>
+        <v>-4.435835033577654</v>
       </c>
     </row>
     <row r="13">
@@ -4143,10 +4143,10 @@
         <v>15452</v>
       </c>
       <c r="C13" t="n">
-        <v>15359.69302198274</v>
+        <v>14994.79558112868</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5973788378026087</v>
+        <v>-2.958868876982402</v>
       </c>
     </row>
     <row r="14">
@@ -4159,10 +4159,10 @@
         <v>55546</v>
       </c>
       <c r="C14" t="n">
-        <v>55410.95934981857</v>
+        <v>53079.9917328659</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2431149861041815</v>
+        <v>-4.439578488341376</v>
       </c>
     </row>
     <row r="15">
@@ -4175,10 +4175,10 @@
         <v>9450</v>
       </c>
       <c r="C15" t="n">
-        <v>9425.931609279312</v>
+        <v>9029.487913752046</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2546919652982815</v>
+        <v>-4.4498633465392</v>
       </c>
     </row>
     <row r="16">
@@ -4191,10 +4191,10 @@
         <v>10107</v>
       </c>
       <c r="C16" t="n">
-        <v>10082.36545380051</v>
+        <v>9661.831375331683</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2437374710546307</v>
+        <v>-4.404557481629728</v>
       </c>
     </row>
     <row r="17">
@@ -4207,10 +4207,10 @@
         <v>47161</v>
       </c>
       <c r="C17" t="n">
-        <v>47035.09024771583</v>
+        <v>45111.33642359303</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2669785464349131</v>
+        <v>-4.346098633207465</v>
       </c>
     </row>
   </sheetData>
@@ -4529,10 +4529,10 @@
         <v>996184.050494849</v>
       </c>
       <c r="C2" t="n">
-        <v>995681.2523836292</v>
+        <v>935273.5064952928</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05047241129488188</v>
+        <v>-6.114386590439713</v>
       </c>
     </row>
     <row r="3">
@@ -4545,10 +4545,10 @@
         <v>976.8286270496617</v>
       </c>
       <c r="C3" t="n">
-        <v>980.610622121101</v>
+        <v>835.9565057355442</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3871707858175816</v>
+        <v>-14.42137519450027</v>
       </c>
     </row>
     <row r="4">
@@ -4561,10 +4561,10 @@
         <v>1335493.450539227</v>
       </c>
       <c r="C4" t="n">
-        <v>1334104.365415312</v>
+        <v>1259062.780765443</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1040128742940766</v>
+        <v>-5.723028423907591</v>
       </c>
     </row>
     <row r="5">
@@ -4577,10 +4577,10 @@
         <v>2112.539597468874</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.891908166422</v>
+        <v>2001.498913103058</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2200048372120697</v>
+        <v>-5.256265231613105</v>
       </c>
     </row>
     <row r="6">
@@ -4593,10 +4593,10 @@
         <v>3120.123852353638</v>
       </c>
       <c r="C6" t="n">
-        <v>3116.78858913864</v>
+        <v>2997.263154516163</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1068952186780084</v>
+        <v>-3.937686567948148</v>
       </c>
     </row>
     <row r="7">
@@ -4609,10 +4609,10 @@
         <v>13906.41378521889</v>
       </c>
       <c r="C7" t="n">
-        <v>13868.21128171012</v>
+        <v>13231.8560103163</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.274711396473572</v>
+        <v>-4.850695408039516</v>
       </c>
     </row>
     <row r="8">
@@ -4625,10 +4625,10 @@
         <v>790.3713158162036</v>
       </c>
       <c r="C8" t="n">
-        <v>788.4683972175517</v>
+        <v>745.6704146591422</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2407626087349601</v>
+        <v>-5.65568363407767</v>
       </c>
     </row>
     <row r="9">
@@ -4641,10 +4641,10 @@
         <v>8004.610860240749</v>
       </c>
       <c r="C9" t="n">
-        <v>7978.201661117127</v>
+        <v>7497.693429610405</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3299248343826235</v>
+        <v>-6.33281791558695</v>
       </c>
     </row>
     <row r="10">
@@ -4657,10 +4657,10 @@
         <v>567.3164122969201</v>
       </c>
       <c r="C10" t="n">
-        <v>565.4423010967132</v>
+        <v>538.9457610057971</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3303467270793604</v>
+        <v>-5.00085149595047</v>
       </c>
     </row>
     <row r="11">
@@ -4673,10 +4673,10 @@
         <v>831.6523942152977</v>
       </c>
       <c r="C11" t="n">
-        <v>828.2776381814477</v>
+        <v>798.7353482230293</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4057892524958339</v>
+        <v>-3.958029366743681</v>
       </c>
     </row>
     <row r="12">
@@ -4689,10 +4689,10 @@
         <v>994.4142883118851</v>
       </c>
       <c r="C12" t="n">
-        <v>991.1130757764336</v>
+        <v>949.5314609399378</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.331975573385584</v>
+        <v>-4.513493812336534</v>
       </c>
     </row>
     <row r="13">
@@ -4705,10 +4705,10 @@
         <v>2668.348360238089</v>
       </c>
       <c r="C13" t="n">
-        <v>2646.481645039208</v>
+        <v>2621.209512711172</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8194850239467997</v>
+        <v>-1.766592706909915</v>
       </c>
     </row>
     <row r="14">
@@ -4721,10 +4721,10 @@
         <v>2408.744516456872</v>
       </c>
       <c r="C14" t="n">
-        <v>2398.651662968372</v>
+        <v>2314.447305033371</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4190088828243907</v>
+        <v>-3.914786760457548</v>
       </c>
     </row>
     <row r="15">
@@ -4737,10 +4737,10 @@
         <v>887.2225417552854</v>
       </c>
       <c r="C15" t="n">
-        <v>885.5633565655404</v>
+        <v>833.5857548902818</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1870089083244523</v>
+        <v>-6.045471608384559</v>
       </c>
     </row>
     <row r="16">
@@ -4753,10 +4753,10 @@
         <v>769.1315417398619</v>
       </c>
       <c r="C16" t="n">
-        <v>766.7925498993418</v>
+        <v>733.6630434824622</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3041081679252166</v>
+        <v>-4.611499637261783</v>
       </c>
     </row>
     <row r="17">
@@ -4769,10 +4769,10 @@
         <v>841.3175629623918</v>
       </c>
       <c r="C17" t="n">
-        <v>838.3100138542754</v>
+        <v>807.0962314609417</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3574808420171752</v>
+        <v>-4.067587913052974</v>
       </c>
     </row>
     <row r="18">
@@ -4785,10 +4785,10 @@
         <v>43.99404506602389</v>
       </c>
       <c r="C18" t="n">
-        <v>43.97184021065291</v>
+        <v>41.30407907391493</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05047241129486675</v>
+        <v>-6.114386590439692</v>
       </c>
     </row>
     <row r="19">
@@ -4801,10 +4801,10 @@
         <v>24092.79883337583</v>
       </c>
       <c r="C19" t="n">
-        <v>24186.07911194445</v>
+        <v>20618.28591875851</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387170785817561</v>
+        <v>-14.42137519450029</v>
       </c>
     </row>
     <row r="20">
@@ -4817,10 +4817,10 @@
         <v>386766.2071966509</v>
       </c>
       <c r="C20" t="n">
-        <v>386363.9205477474</v>
+        <v>364631.4672247172</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1040128742940992</v>
+        <v>-5.723028423907604</v>
       </c>
     </row>
     <row r="21">
@@ -4833,10 +4833,10 @@
         <v>25400.93814486871</v>
       </c>
       <c r="C21" t="n">
-        <v>25345.05485225276</v>
+        <v>24065.79746465643</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2200048372120363</v>
+        <v>-5.256265231613087</v>
       </c>
     </row>
     <row r="22">
@@ -4849,10 +4849,10 @@
         <v>30205.13465254084</v>
       </c>
       <c r="C22" t="n">
-        <v>30172.84680780203</v>
+        <v>29015.75112249709</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1068952186779867</v>
+        <v>-3.937686567948139</v>
       </c>
     </row>
     <row r="23">
@@ -4865,10 +4865,10 @@
         <v>554.7138472670425</v>
       </c>
       <c r="C23" t="n">
-        <v>553.189985110783</v>
+        <v>527.8063681499009</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2747113964735589</v>
+        <v>-4.850695408039492</v>
       </c>
     </row>
     <row r="24">
@@ -4881,10 +4881,10 @@
         <v>60.33259108559908</v>
       </c>
       <c r="C24" t="n">
-        <v>60.18733276538401</v>
+        <v>56.92037060555585</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2407626087349373</v>
+        <v>-5.65568363407766</v>
       </c>
     </row>
     <row r="25">
@@ -4897,10 +4897,10 @@
         <v>121.3883533638887</v>
       </c>
       <c r="C25" t="n">
-        <v>120.987863040093</v>
+        <v>113.7010499746243</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3299248343826627</v>
+        <v>-6.332817915586991</v>
       </c>
     </row>
     <row r="26">
@@ -4913,10 +4913,10 @@
         <v>44.76267229817115</v>
       </c>
       <c r="C26" t="n">
-        <v>44.61480027528089</v>
+        <v>42.52415753092065</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3303467270793307</v>
+        <v>-5.000851495950458</v>
       </c>
     </row>
     <row r="27">
@@ -4929,10 +4929,10 @@
         <v>87.47359940953065</v>
       </c>
       <c r="C27" t="n">
-        <v>87.11864094435552</v>
+        <v>84.0113686567537</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.405789252495829</v>
+        <v>-3.958029366743677</v>
       </c>
     </row>
     <row r="28">
@@ -4945,10 +4945,10 @@
         <v>619.7676712045622</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7101939244224</v>
+        <v>591.794495713882</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3319755733855946</v>
+        <v>-4.513493812336542</v>
       </c>
     </row>
     <row r="29">
@@ -4961,10 +4961,10 @@
         <v>110.111208618299</v>
       </c>
       <c r="C29" t="n">
-        <v>109.2088637539852</v>
+        <v>108.1659920373578</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.819485023946836</v>
+        <v>-1.766592706909931</v>
       </c>
     </row>
     <row r="30">
@@ -4977,10 +4977,10 @@
         <v>75.57409461921016</v>
       </c>
       <c r="C30" t="n">
-        <v>75.25743244964156</v>
+        <v>72.61552996872165</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4190088828243925</v>
+        <v>-3.914786760457564</v>
       </c>
     </row>
     <row r="31">
@@ -4993,10 +4993,10 @@
         <v>40.98978434403799</v>
       </c>
       <c r="C31" t="n">
-        <v>40.91312979581165</v>
+        <v>38.5117585691811</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1870089083244795</v>
+        <v>-6.04547160838459</v>
       </c>
     </row>
     <row r="32">
@@ -5009,10 +5009,10 @@
         <v>17.20957189616361</v>
       </c>
       <c r="C32" t="n">
-        <v>17.15723618236242</v>
+        <v>16.41595255059772</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3041081679251705</v>
+        <v>-4.61149963726176</v>
       </c>
     </row>
     <row r="33">
@@ -5025,10 +5025,10 @@
         <v>28.85883731522917</v>
       </c>
       <c r="C33" t="n">
-        <v>28.75567250059833</v>
+        <v>27.68497873674729</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3574808420171618</v>
+        <v>-4.067587913052952</v>
       </c>
     </row>
     <row r="34">
@@ -5041,10 +5041,10 @@
         <v>562317.1813914984</v>
       </c>
       <c r="C34" t="n">
-        <v>562033.3663509247</v>
+        <v>527934.9350567581</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.05047241129488304</v>
+        <v>-6.114386590439708</v>
       </c>
     </row>
     <row r="35">
@@ -5057,10 +5057,10 @@
         <v>32889.50558041631</v>
       </c>
       <c r="C35" t="n">
-        <v>33016.84413762352</v>
+        <v>28146.38658104837</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3871707858175581</v>
+        <v>-14.42137519450029</v>
       </c>
     </row>
     <row r="36">
@@ -5073,10 +5073,10 @@
         <v>3536384.555394445</v>
       </c>
       <c r="C36" t="n">
-        <v>3532706.260172287</v>
+        <v>3333996.262110543</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1040128742940911</v>
+        <v>-5.723028423907589</v>
       </c>
     </row>
     <row r="37">
@@ -5089,10 +5089,10 @@
         <v>169840.3628270353</v>
       </c>
       <c r="C37" t="n">
-        <v>169466.7058132773</v>
+        <v>160913.1028865123</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2200048372120814</v>
+        <v>-5.256265231613127</v>
       </c>
     </row>
     <row r="38">
@@ -5105,10 +5105,10 @@
         <v>1185357.660552872</v>
       </c>
       <c r="C38" t="n">
-        <v>1184090.569889507</v>
+        <v>1138681.991171137</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1068952186780369</v>
+        <v>-3.937686567948173</v>
       </c>
     </row>
     <row r="39">
@@ -5121,10 +5121,10 @@
         <v>159824.3694267376</v>
       </c>
       <c r="C39" t="n">
-        <v>159385.3136695804</v>
+        <v>152071.7760780268</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2747113964735539</v>
+        <v>-4.850695408039488</v>
       </c>
     </row>
     <row r="40">
@@ -5137,10 +5137,10 @@
         <v>421376.2451161093</v>
       </c>
       <c r="C40" t="n">
-        <v>420361.7286757783</v>
+        <v>397544.5377831864</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2407626087349695</v>
+        <v>-5.655683634077693</v>
       </c>
     </row>
     <row r="41">
@@ -5153,10 +5153,10 @@
         <v>232131.569601793</v>
       </c>
       <c r="C41" t="n">
-        <v>231365.7099052345</v>
+        <v>217431.0999743174</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.329924834382637</v>
+        <v>-6.332817915586952</v>
       </c>
     </row>
     <row r="42">
@@ -5169,10 +5169,10 @@
         <v>128836.3952206124</v>
       </c>
       <c r="C42" t="n">
-        <v>128410.7884057141</v>
+        <v>122393.4784228937</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.330346727079334</v>
+        <v>-5.000851495950474</v>
       </c>
     </row>
     <row r="43">
@@ -5185,10 +5185,10 @@
         <v>94652.76397187269</v>
       </c>
       <c r="C43" t="n">
-        <v>94268.67322848459</v>
+        <v>90906.37977743139</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4057892524958178</v>
+        <v>-3.958029366743677</v>
       </c>
     </row>
     <row r="44">
@@ -5201,10 +5201,10 @@
         <v>43047.18661193399</v>
       </c>
       <c r="C44" t="n">
-        <v>42904.28046735266</v>
+        <v>41104.25450781939</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3319755733855781</v>
+        <v>-4.513493812336521</v>
       </c>
     </row>
     <row r="45">
@@ -5217,10 +5217,10 @@
         <v>127914.3668898133</v>
       </c>
       <c r="C45" t="n">
-        <v>126866.1278096749</v>
+        <v>125654.6410132478</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8194850239468259</v>
+        <v>-1.766592706909932</v>
       </c>
     </row>
     <row r="46">
@@ -5233,10 +5233,10 @@
         <v>25993.78164756393</v>
       </c>
       <c r="C46" t="n">
-        <v>25884.86539347866</v>
+        <v>24976.18052508285</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4190088828243954</v>
+        <v>-3.914786760457557</v>
       </c>
     </row>
     <row r="47">
@@ -5249,10 +5249,10 @@
         <v>38145.22126086871</v>
       </c>
       <c r="C47" t="n">
-        <v>38073.88629901082</v>
+        <v>35839.16273958742</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1870089083244435</v>
+        <v>-6.045471608384557</v>
       </c>
     </row>
     <row r="48">
@@ -5265,10 +5265,10 @@
         <v>32035.35572329106</v>
       </c>
       <c r="C48" t="n">
-        <v>31937.93358991264</v>
+        <v>30558.04541031597</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3041081679252045</v>
+        <v>-4.611499637261782</v>
       </c>
     </row>
     <row r="49">
@@ -5281,10 +5281,10 @@
         <v>53452.78309609117</v>
       </c>
       <c r="C49" t="n">
-        <v>53261.69963699766</v>
+        <v>51278.54415168415</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3574808420171446</v>
+        <v>-4.067587913052948</v>
       </c>
     </row>
     <row r="50">
@@ -5297,10 +5297,10 @@
         <v>23680.12450086494</v>
       </c>
       <c r="C50" t="n">
-        <v>23668.17257103173</v>
+        <v>22232.23014378463</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.05047241129486432</v>
+        <v>-6.114386590439691</v>
       </c>
     </row>
     <row r="51">
@@ -5313,10 +5313,10 @@
         <v>4258.121092261274</v>
       </c>
       <c r="C51" t="n">
-        <v>4274.607293155245</v>
+        <v>3644.041473310122</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3871707858175714</v>
+        <v>-14.42137519450028</v>
       </c>
     </row>
     <row r="52">
@@ -5329,10 +5329,10 @@
         <v>251159.6278232176</v>
       </c>
       <c r="C52" t="n">
-        <v>250898.3894752524</v>
+        <v>236785.6909335144</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1040128742940652</v>
+        <v>-5.723028423907583</v>
       </c>
     </row>
     <row r="53">
@@ -5345,10 +5345,10 @@
         <v>38201.89914724839</v>
       </c>
       <c r="C53" t="n">
-        <v>38117.85312121757</v>
+        <v>36193.90600455567</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.2200048372120551</v>
+        <v>-5.256265231613108</v>
       </c>
     </row>
     <row r="54">
@@ -5361,10 +5361,10 @@
         <v>41069.58495758228</v>
       </c>
       <c r="C54" t="n">
-        <v>41025.68353493173</v>
+        <v>39452.39342719551</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1068952186779969</v>
+        <v>-3.937686567948133</v>
       </c>
     </row>
     <row r="55">
@@ -5377,10 +5377,10 @@
         <v>68364.54647427362</v>
       </c>
       <c r="C55" t="n">
-        <v>68176.74127396134</v>
+        <v>65048.39055771902</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.2747113964735507</v>
+        <v>-4.850695408039479</v>
       </c>
     </row>
     <row r="56">
@@ -5393,10 +5393,10 @@
         <v>29101.75632494179</v>
       </c>
       <c r="C56" t="n">
-        <v>29031.69017722617</v>
+        <v>27455.85305524289</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.2407626087349594</v>
+        <v>-5.655683634077689</v>
       </c>
     </row>
     <row r="57">
@@ -5409,10 +5409,10 @@
         <v>14559.03440803147</v>
       </c>
       <c r="C57" t="n">
-        <v>14511.00053787306</v>
+        <v>13637.03726870318</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.3299248343826291</v>
+        <v>-6.33281791558696</v>
       </c>
     </row>
     <row r="58">
@@ -5425,10 +5425,10 @@
         <v>23427.48332184359</v>
       </c>
       <c r="C58" t="n">
-        <v>23350.09139745283</v>
+        <v>22255.90967167963</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3303467270793127</v>
+        <v>-5.000851495950455</v>
       </c>
     </row>
     <row r="59">
@@ -5441,10 +5441,10 @@
         <v>46150.93133109502</v>
       </c>
       <c r="C59" t="n">
-        <v>45963.65581182671</v>
+        <v>44324.26391598456</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.4057892524958224</v>
+        <v>-3.958029366743684</v>
       </c>
     </row>
     <row r="60">
@@ -5457,10 +5457,10 @@
         <v>21759.37696278335</v>
       </c>
       <c r="C60" t="n">
-        <v>21687.14114634602</v>
+        <v>20777.26882996514</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.3319755733855931</v>
+        <v>-4.513493812336535</v>
       </c>
     </row>
     <row r="61">
@@ -5473,10 +5473,10 @@
         <v>46542.62425884105</v>
       </c>
       <c r="C61" t="n">
-        <v>46161.21442328802</v>
+        <v>45720.40565307988</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.8194850239467931</v>
+        <v>-1.766592706909926</v>
       </c>
     </row>
     <row r="62">
@@ -5489,10 +5489,10 @@
         <v>7503.299767465179</v>
       </c>
       <c r="C62" t="n">
-        <v>7471.860274934557</v>
+        <v>7209.56158157101</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.4190088828243975</v>
+        <v>-3.91478676045755</v>
       </c>
     </row>
     <row r="63">
@@ -5505,10 +5505,10 @@
         <v>7286.174502210705</v>
       </c>
       <c r="C63" t="n">
-        <v>7272.548706815506</v>
+        <v>6845.690891342202</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1870089083244548</v>
+        <v>-6.045471608384558</v>
       </c>
     </row>
     <row r="64">
@@ -5521,10 +5521,10 @@
         <v>7097.341416109978</v>
       </c>
       <c r="C64" t="n">
-        <v>7075.757821158049</v>
+        <v>6770.047542450836</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.3041081679252159</v>
+        <v>-4.611499637261788</v>
       </c>
     </row>
     <row r="65">
@@ -5537,10 +5537,10 @@
         <v>7416.897539297385</v>
       </c>
       <c r="C65" t="n">
-        <v>7390.383551522355</v>
+        <v>7115.208711465402</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.3574808420171656</v>
+        <v>-4.067587913052962</v>
       </c>
     </row>
     <row r="66">
@@ -5553,10 +5553,10 @@
         <v>224.7272828615001</v>
       </c>
       <c r="C66" t="n">
-        <v>224.6138575830024</v>
+        <v>210.986588013157</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.05047241129490238</v>
+        <v>-6.114386590439723</v>
       </c>
     </row>
     <row r="67">
@@ -5569,10 +5569,10 @@
         <v>173.8153879829501</v>
       </c>
       <c r="C67" t="n">
-        <v>174.4883503864756</v>
+        <v>148.7488187361525</v>
       </c>
       <c r="D67" t="n">
-        <v>0.38717078581757</v>
+        <v>-14.42137519450029</v>
       </c>
     </row>
     <row r="68">
@@ -5585,10 +5585,10 @@
         <v>4996.512834695077</v>
       </c>
       <c r="C68" t="n">
-        <v>4991.315818081238</v>
+        <v>4710.560984961287</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1040128742940801</v>
+        <v>-5.723028423907595</v>
       </c>
     </row>
     <row r="69">
@@ -5601,10 +5601,10 @@
         <v>276.6235712497684</v>
       </c>
       <c r="C69" t="n">
-        <v>276.0149860121501</v>
+        <v>262.0835026517203</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.2200048372120766</v>
+        <v>-5.25626523161313</v>
       </c>
     </row>
     <row r="70">
@@ -5617,10 +5617,10 @@
         <v>1232.245435416442</v>
       </c>
       <c r="C70" t="n">
-        <v>1230.928223963604</v>
+        <v>1183.723472421894</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1068952186780232</v>
+        <v>-3.937686567948174</v>
       </c>
     </row>
     <row r="71">
@@ -5633,10 +5633,10 @@
         <v>5856.068227410703</v>
       </c>
       <c r="C71" t="n">
-        <v>5839.98094060474</v>
+        <v>5572.008194812034</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.2747113964735401</v>
+        <v>-4.850695408039461</v>
       </c>
     </row>
     <row r="72">
@@ -5649,10 +5649,10 @@
         <v>2040.773234874782</v>
       </c>
       <c r="C72" t="n">
-        <v>2035.859815996133</v>
+        <v>1925.353557021331</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2407626087349563</v>
+        <v>-5.655683634077675</v>
       </c>
     </row>
     <row r="73">
@@ -5665,10 +5665,10 @@
         <v>1134.678551830647</v>
       </c>
       <c r="C73" t="n">
-        <v>1130.934965497745</v>
+        <v>1062.821425215993</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.329924834382582</v>
+        <v>-6.332817915586922</v>
       </c>
     </row>
     <row r="74">
@@ -5681,10 +5681,10 @@
         <v>4263.535655062377</v>
       </c>
       <c r="C74" t="n">
-        <v>4249.451204568019</v>
+        <v>4050.322568475809</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.3303467270793306</v>
+        <v>-5.000851495950476</v>
       </c>
     </row>
     <row r="75">
@@ -5697,10 +5697,10 @@
         <v>2782.808024353337</v>
       </c>
       <c r="C75" t="n">
-        <v>2771.515688472919</v>
+        <v>2672.663665529332</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.4057892524958449</v>
+        <v>-3.958029366743689</v>
       </c>
     </row>
     <row r="76">
@@ -5713,10 +5713,10 @@
         <v>316.9983391350282</v>
       </c>
       <c r="C76" t="n">
-        <v>315.9459820810619</v>
+        <v>302.6906387129591</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.3319755733855936</v>
+        <v>-4.513493812336524</v>
       </c>
     </row>
     <row r="77">
@@ -5729,10 +5729,10 @@
         <v>14455.75492983291</v>
       </c>
       <c r="C77" t="n">
-        <v>14337.29218308448</v>
+        <v>14200.38061751371</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.8194850239468097</v>
+        <v>-1.76659270690991</v>
       </c>
     </row>
     <row r="78">
@@ -5745,10 +5745,10 @@
         <v>206.9246343398124</v>
       </c>
       <c r="C78" t="n">
-        <v>206.0576017411767</v>
+        <v>198.8239761505522</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.4190088828243835</v>
+        <v>-3.91478676045755</v>
       </c>
     </row>
     <row r="79">
@@ -5761,10 +5761,10 @@
         <v>130.9767888995716</v>
       </c>
       <c r="C79" t="n">
-        <v>130.7318506364921</v>
+        <v>123.0586243130742</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1870089083244795</v>
+        <v>-6.045471608384572</v>
       </c>
     </row>
     <row r="80">
@@ -5777,10 +5777,10 @@
         <v>912.0891916591041</v>
       </c>
       <c r="C80" t="n">
-        <v>909.3154539285058</v>
+        <v>870.0282018942406</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.3041081679252066</v>
+        <v>-4.611499637261782</v>
       </c>
     </row>
     <row r="81">
@@ -5793,10 +5793,10 @@
         <v>338.63275475275</v>
       </c>
       <c r="C81" t="n">
-        <v>337.4222075297139</v>
+        <v>324.8585697507888</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.3574808420171587</v>
+        <v>-4.067587913052964</v>
       </c>
     </row>
     <row r="82">
@@ -5809,10 +5809,10 @@
         <v>36797.3558384009</v>
       </c>
       <c r="C82" t="n">
-        <v>36778.7833256165</v>
+        <v>34547.42324738133</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.0504724112948793</v>
+        <v>-6.114386590439713</v>
       </c>
     </row>
     <row r="83">
@@ -5825,10 +5825,10 @@
         <v>5431.789807406018</v>
       </c>
       <c r="C83" t="n">
-        <v>5452.820110687311</v>
+        <v>4648.451019503372</v>
       </c>
       <c r="D83" t="n">
-        <v>0.387170785817588</v>
+        <v>-14.42137519450028</v>
       </c>
     </row>
     <row r="84">
@@ -5841,10 +5841,10 @@
         <v>1083840.331624043</v>
       </c>
       <c r="C84" t="n">
-        <v>1082712.998142362</v>
+        <v>1021811.841375425</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.104012874294075</v>
+        <v>-5.723028423907583</v>
       </c>
     </row>
     <row r="85">
@@ -5857,10 +5857,10 @@
         <v>36567.36673926556</v>
       </c>
       <c r="C85" t="n">
-        <v>36486.91676359811</v>
+        <v>34645.28895523309</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.2200048372120537</v>
+        <v>-5.256265231613114</v>
       </c>
     </row>
     <row r="86">
@@ -5873,10 +5873,10 @@
         <v>176115.7238993268</v>
       </c>
       <c r="C86" t="n">
-        <v>175927.4646111382</v>
+        <v>169180.8386952984</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1068952186780208</v>
+        <v>-3.937686567948157</v>
       </c>
     </row>
     <row r="87">
@@ -5889,10 +5889,10 @@
         <v>629355.3653459012</v>
       </c>
       <c r="C87" t="n">
-        <v>627626.4544329783</v>
+        <v>598827.2535388174</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.2747113964735492</v>
+        <v>-4.850695408039496</v>
       </c>
     </row>
     <row r="88">
@@ -5905,10 +5905,10 @@
         <v>50782.20817613851</v>
       </c>
       <c r="C88" t="n">
-        <v>50659.94360696042</v>
+        <v>47910.12713929738</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.2407626087349667</v>
+        <v>-5.655683634077699</v>
       </c>
     </row>
     <row r="89">
@@ -5921,10 +5921,10 @@
         <v>180339.3673151789</v>
       </c>
       <c r="C89" t="n">
-        <v>179744.3829562376</v>
+        <v>168918.803552987</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.3299248343826652</v>
+        <v>-6.332817915586995</v>
       </c>
     </row>
     <row r="90">
@@ -5937,10 +5937,10 @@
         <v>40468.48989345161</v>
       </c>
       <c r="C90" t="n">
-        <v>40334.80356159015</v>
+        <v>38444.72081122637</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.3303467270793526</v>
+        <v>-5.000851495950473</v>
       </c>
     </row>
     <row r="91">
@@ -5953,10 +5953,10 @@
         <v>79355.15029333404</v>
       </c>
       <c r="C91" t="n">
-        <v>79033.13562214178</v>
+        <v>76214.2501407003</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.405789252495823</v>
+        <v>-3.958029366743671</v>
       </c>
     </row>
     <row r="92">
@@ -5969,10 +5969,10 @@
         <v>45911.62510533771</v>
       </c>
       <c r="C92" t="n">
-        <v>45759.20972464362</v>
+        <v>43839.40674706515</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.3319755733855925</v>
+        <v>-4.513493812336531</v>
       </c>
     </row>
     <row r="93">
@@ -5985,10 +5985,10 @@
         <v>104995.5931434584</v>
       </c>
       <c r="C93" t="n">
-        <v>104135.1699818437</v>
+        <v>103140.7486524093</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.8194850239467624</v>
+        <v>-1.766592706909869</v>
       </c>
     </row>
     <row r="94">
@@ -6001,10 +6001,10 @@
         <v>43593.4829173751</v>
       </c>
       <c r="C94" t="n">
-        <v>43410.82235161876</v>
+        <v>41886.89101970337</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.4190088828244053</v>
+        <v>-3.914786760457562</v>
       </c>
     </row>
     <row r="95">
@@ -6017,10 +6017,10 @@
         <v>24589.96981740024</v>
       </c>
       <c r="C95" t="n">
-        <v>24543.98438328741</v>
+        <v>23103.39017357898</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1870089083244432</v>
+        <v>-6.045471608384543</v>
       </c>
     </row>
     <row r="96">
@@ -6033,10 +6033,10 @@
         <v>22665.76219802206</v>
       </c>
       <c r="C96" t="n">
-        <v>22596.83376385537</v>
+        <v>21620.53065647765</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.3041081679252267</v>
+        <v>-4.611499637261802</v>
       </c>
     </row>
     <row r="97">
@@ -6049,10 +6049,10 @@
         <v>40428.24116361269</v>
       </c>
       <c r="C97" t="n">
-        <v>40283.71794668828</v>
+        <v>38783.78691258168</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.3574808420171627</v>
+        <v>-4.067587913052964</v>
       </c>
     </row>
     <row r="98">
@@ -6065,10 +6065,10 @@
         <v>17531.40922853843</v>
       </c>
       <c r="C98" t="n">
-        <v>17522.56070356681</v>
+        <v>16459.47109355357</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.05047241129488725</v>
+        <v>-6.114386590439706</v>
       </c>
     </row>
     <row r="99">
@@ -6081,10 +6081,10 @@
         <v>3349.304543958308</v>
       </c>
       <c r="C99" t="n">
-        <v>3362.272072680575</v>
+        <v>2866.288769267634</v>
       </c>
       <c r="D99" t="n">
-        <v>0.387170785817576</v>
+        <v>-14.42137519450028</v>
       </c>
     </row>
     <row r="100">
@@ -6097,10 +6097,10 @@
         <v>195974.6734952563</v>
       </c>
       <c r="C100" t="n">
-        <v>195770.8346044654</v>
+        <v>184758.9872274627</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1040128742940935</v>
+        <v>-5.723028423907606</v>
       </c>
     </row>
     <row r="101">
@@ -6113,10 +6113,10 @@
         <v>2724.247464785552</v>
       </c>
       <c r="C101" t="n">
-        <v>2718.253988585397</v>
+        <v>2581.053792470927</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.2200048372120675</v>
+        <v>-5.256265231613127</v>
       </c>
     </row>
     <row r="102">
@@ -6129,10 +6129,10 @@
         <v>18679.52557679249</v>
       </c>
       <c r="C102" t="n">
-        <v>18659.55805707917</v>
+        <v>17943.9844071987</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1068952186779823</v>
+        <v>-3.937686567948117</v>
       </c>
     </row>
     <row r="103">
@@ -6145,10 +6145,10 @@
         <v>118620.5156491477</v>
       </c>
       <c r="C103" t="n">
-        <v>118294.6515741038</v>
+        <v>112866.5957435618</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.2747113964735204</v>
+        <v>-4.850695408039448</v>
       </c>
     </row>
     <row r="104">
@@ -6161,10 +6161,10 @@
         <v>273817.9512093465</v>
       </c>
       <c r="C104" t="n">
-        <v>273158.6999668302</v>
+        <v>258331.6741556326</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.2407626087349705</v>
+        <v>-5.655683634077684</v>
       </c>
     </row>
     <row r="105">
@@ -6177,10 +6177,10 @@
         <v>9177.580968609169</v>
       </c>
       <c r="C105" t="n">
-        <v>9147.301849798152</v>
+        <v>8596.381476811588</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.3299248343826436</v>
+        <v>-6.33281791558696</v>
       </c>
     </row>
     <row r="106">
@@ -6193,10 +6193,10 @@
         <v>33246.43879831057</v>
       </c>
       <c r="C106" t="n">
-        <v>33136.61027586991</v>
+        <v>31583.833766315</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.3303467270793473</v>
+        <v>-5.00085149595046</v>
       </c>
     </row>
     <row r="107">
@@ -6209,10 +6209,10 @@
         <v>5642.141361711995</v>
       </c>
       <c r="C107" t="n">
-        <v>5619.246158455546</v>
+        <v>5418.823749702243</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.4057892524958335</v>
+        <v>-3.958029366743677</v>
       </c>
     </row>
     <row r="108">
@@ -6225,10 +6225,10 @@
         <v>14363.30388731421</v>
       </c>
       <c r="C108" t="n">
-        <v>14315.62122687719</v>
+        <v>13715.01705511319</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.3319755733855848</v>
+        <v>-4.513493812336535</v>
       </c>
     </row>
     <row r="109">
@@ -6241,10 +6241,10 @@
         <v>25390.47786541112</v>
       </c>
       <c r="C109" t="n">
-        <v>25182.40670179554</v>
+        <v>24941.93153519119</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.8194850239468315</v>
+        <v>-1.766592706909938</v>
       </c>
     </row>
     <row r="110">
@@ -6257,10 +6257,10 @@
         <v>22661.60505308602</v>
       </c>
       <c r="C110" t="n">
-        <v>22566.650914923</v>
+        <v>21774.45153876063</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.4190088828244073</v>
+        <v>-3.914786760457561</v>
       </c>
     </row>
     <row r="111">
@@ -6273,10 +6273,10 @@
         <v>4451.960926071457</v>
       </c>
       <c r="C111" t="n">
-        <v>4443.63536254458</v>
+        <v>4182.818892269433</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1870089083244426</v>
+        <v>-6.045471608384562</v>
       </c>
     </row>
     <row r="112">
@@ -6289,10 +6289,10 @@
         <v>1068.949165803444</v>
       </c>
       <c r="C112" t="n">
-        <v>1065.698404079268</v>
+        <v>1019.654578899906</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.3041081679251755</v>
+        <v>-4.611499637261748</v>
       </c>
     </row>
     <row r="113">
@@ -6305,10 +6305,10 @@
         <v>887.9321545985744</v>
       </c>
       <c r="C113" t="n">
-        <v>884.7579672557741</v>
+        <v>851.814733602012</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.3574808420171746</v>
+        <v>-4.067587913052964</v>
       </c>
     </row>
     <row r="114">
@@ -6321,10 +6321,10 @@
         <v>190.5485593842953</v>
       </c>
       <c r="C114" t="n">
-        <v>190.4523849316864</v>
+        <v>178.8976838210259</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.05047241129488544</v>
+        <v>-6.114386590439685</v>
       </c>
     </row>
     <row r="115">
@@ -6337,10 +6337,10 @@
         <v>31.68824515194521</v>
       </c>
       <c r="C115" t="n">
-        <v>31.81093277971179</v>
+        <v>27.11836442603014</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3871707858175706</v>
+        <v>-14.42137519450029</v>
       </c>
     </row>
     <row r="116">
@@ -6353,10 +6353,10 @@
         <v>4123.192252520734</v>
       </c>
       <c r="C116" t="n">
-        <v>4118.903601746216</v>
+        <v>3887.220787936617</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1040128742940868</v>
+        <v>-5.72302842390758</v>
       </c>
     </row>
     <row r="117">
@@ -6369,10 +6369,10 @@
         <v>170.525831571405</v>
       </c>
       <c r="C117" t="n">
-        <v>170.1506664932518</v>
+        <v>161.5625415755981</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2200048372120889</v>
+        <v>-5.256265231613141</v>
       </c>
     </row>
     <row r="118">
@@ -6385,10 +6385,10 @@
         <v>657.5077035740391</v>
       </c>
       <c r="C118" t="n">
-        <v>656.8048592764789</v>
+        <v>631.6171110471798</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.106895218678006</v>
+        <v>-3.937686567948142</v>
       </c>
     </row>
     <row r="119">
@@ -6401,10 +6401,10 @@
         <v>2161.22177472801</v>
       </c>
       <c r="C119" t="n">
-        <v>2155.284652209764</v>
+        <v>2056.387489343729</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.2747113964735526</v>
+        <v>-4.850695408039481</v>
       </c>
     </row>
     <row r="120">
@@ -6417,10 +6417,10 @@
         <v>1554.140067831092</v>
       </c>
       <c r="C120" t="n">
-        <v>1550.398279660387</v>
+        <v>1466.242822364126</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.2407626087349283</v>
+        <v>-5.655683634077647</v>
       </c>
     </row>
     <row r="121">
@@ -6433,10 +6433,10 @@
         <v>129651.1464599214</v>
       </c>
       <c r="C121" t="n">
-        <v>129223.3951296883</v>
+        <v>121440.5754291436</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.3299248343826191</v>
+        <v>-6.33281791558696</v>
       </c>
     </row>
     <row r="122">
@@ -6449,10 +6449,10 @@
         <v>863.7331225685518</v>
       </c>
       <c r="C122" t="n">
-        <v>860.8798084674464</v>
+        <v>820.5391117875627</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.3303467270793419</v>
+        <v>-5.000851495950475</v>
       </c>
     </row>
     <row r="123">
@@ -6465,10 +6465,10 @@
         <v>3906.237028514126</v>
       </c>
       <c r="C123" t="n">
-        <v>3890.385938475403</v>
+        <v>3751.627019790921</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.4057892524958407</v>
+        <v>-3.958029366743692</v>
       </c>
     </row>
     <row r="124">
@@ -6481,10 +6481,10 @@
         <v>233.7506847980509</v>
       </c>
       <c r="C124" t="n">
-        <v>232.9746896218998</v>
+        <v>223.2003621033966</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.3319755733856013</v>
+        <v>-4.513493812336538</v>
       </c>
     </row>
     <row r="125">
@@ -6497,10 +6497,10 @@
         <v>2384.908631432158</v>
       </c>
       <c r="C125" t="n">
-        <v>2365.364662362756</v>
+        <v>2342.777009482812</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.8194850239468182</v>
+        <v>-1.766592706909915</v>
       </c>
     </row>
     <row r="126">
@@ -6513,10 +6513,10 @@
         <v>14131.62372138642</v>
       </c>
       <c r="C126" t="n">
-        <v>14072.41096270649</v>
+        <v>13578.40078690391</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.4190088828243976</v>
+        <v>-3.914786760457559</v>
       </c>
     </row>
     <row r="127">
@@ -6529,10 +6529,10 @@
         <v>141.2260852838927</v>
       </c>
       <c r="C127" t="n">
-        <v>140.9619799235339</v>
+        <v>132.688302394422</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1870089083244534</v>
+        <v>-6.045471608384575</v>
       </c>
     </row>
     <row r="128">
@@ -6545,10 +6545,10 @@
         <v>454.224649948026</v>
       </c>
       <c r="C128" t="n">
-        <v>452.8433156868044</v>
+        <v>433.2780818633192</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.3041081679252097</v>
+        <v>-4.611499637261783</v>
       </c>
     </row>
     <row r="129">
@@ -6561,10 +6561,10 @@
         <v>2015.03857679833</v>
       </c>
       <c r="C129" t="n">
-        <v>2007.835199927021</v>
+        <v>1933.075111205126</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.3574808420171716</v>
+        <v>-4.067587913052979</v>
       </c>
     </row>
     <row r="130">
@@ -6577,10 +6577,10 @@
         <v>10089.9896440092</v>
       </c>
       <c r="C130" t="n">
-        <v>10084.89698293647</v>
+        <v>9473.04867023915</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.05047241129483977</v>
+        <v>-6.114386590439669</v>
       </c>
     </row>
     <row r="131">
@@ -6593,10 +6593,10 @@
         <v>1033.763083661777</v>
       </c>
       <c r="C131" t="n">
-        <v>1037.765512316282</v>
+        <v>884.6802307446762</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3871707858175596</v>
+        <v>-14.42137519450029</v>
       </c>
     </row>
     <row r="132">
@@ -6609,10 +6609,10 @@
         <v>87400.57085120806</v>
       </c>
       <c r="C132" t="n">
-        <v>87309.66300531628</v>
+        <v>82398.61133873594</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1040128742940845</v>
+        <v>-5.723028423907584</v>
       </c>
     </row>
     <row r="133">
@@ -6625,10 +6625,10 @@
         <v>6409.948712335483</v>
       </c>
       <c r="C133" t="n">
-        <v>6395.846515105533</v>
+        <v>6073.02480680476</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.2200048372120492</v>
+        <v>-5.256265231613115</v>
       </c>
     </row>
     <row r="134">
@@ -6641,10 +6641,10 @@
         <v>16821.84852122067</v>
       </c>
       <c r="C134" t="n">
-        <v>16803.86676945823</v>
+        <v>16159.45685151998</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1068952186779936</v>
+        <v>-3.937686567948155</v>
       </c>
     </row>
     <row r="135">
@@ -6657,10 +6657,10 @@
         <v>33324.55059423266</v>
       </c>
       <c r="C135" t="n">
-        <v>33233.00425592671</v>
+        <v>31708.07814880842</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.2747113964735586</v>
+        <v>-4.850695408039485</v>
       </c>
     </row>
     <row r="136">
@@ -6673,10 +6673,10 @@
         <v>16030.92241827518</v>
       </c>
       <c r="C136" t="n">
-        <v>15992.32595125666</v>
+        <v>15124.2641626731</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.2407626087349817</v>
+        <v>-5.655683634077698</v>
       </c>
     </row>
     <row r="137">
@@ -6689,10 +6689,10 @@
         <v>8767.879875138795</v>
       </c>
       <c r="C137" t="n">
-        <v>8738.952461981875</v>
+        <v>8212.626007588862</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.3299248343826345</v>
+        <v>-6.332817915586954</v>
       </c>
     </row>
     <row r="138">
@@ -6705,10 +6705,10 @@
         <v>52028.20605016277</v>
       </c>
       <c r="C138" t="n">
-        <v>51856.33257431797</v>
+        <v>49426.35272958702</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3303467270793335</v>
+        <v>-5.000851495950466</v>
       </c>
     </row>
     <row r="139">
@@ -6721,10 +6721,10 @@
         <v>35141.4421327932</v>
       </c>
       <c r="C139" t="n">
-        <v>34998.84193744628</v>
+        <v>33750.53353328001</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.4057892524958316</v>
+        <v>-3.958029366743676</v>
       </c>
     </row>
     <row r="140">
@@ -6737,10 +6737,10 @@
         <v>22237.90806269026</v>
       </c>
       <c r="C140" t="n">
-        <v>22164.08363989018</v>
+        <v>21234.20145828765</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.3319755733855917</v>
+        <v>-4.513493812336543</v>
       </c>
     </row>
     <row r="141">
@@ -6753,10 +6753,10 @@
         <v>23949.54476326111</v>
       </c>
       <c r="C141" t="n">
-        <v>23753.28183062275</v>
+        <v>23526.45385213521</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.8194850239468208</v>
+        <v>-1.766592706909941</v>
       </c>
     </row>
     <row r="142">
@@ -6769,10 +6769,10 @@
         <v>37082.79537782534</v>
       </c>
       <c r="C142" t="n">
-        <v>36927.41517119266</v>
+        <v>35631.08301396667</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.4190088828243955</v>
+        <v>-3.91478676045755</v>
       </c>
     </row>
     <row r="143">
@@ -6785,10 +6785,10 @@
         <v>4070.394710307927</v>
       </c>
       <c r="C143" t="n">
-        <v>4062.782709595684</v>
+        <v>3824.320153747075</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1870089083244525</v>
+        <v>-6.045471608384559</v>
       </c>
     </row>
     <row r="144">
@@ -6801,10 +6801,10 @@
         <v>4276.69932878695</v>
       </c>
       <c r="C144" t="n">
-        <v>4263.693536810505</v>
+        <v>4079.479354753162</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.3041081679252375</v>
+        <v>-4.611499637261795</v>
       </c>
     </row>
     <row r="145">
@@ -6817,10 +6817,10 @@
         <v>4302.918261308165</v>
       </c>
       <c r="C145" t="n">
-        <v>4287.53615287633</v>
+        <v>4127.893278202646</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.3574808420171735</v>
+        <v>-4.067587913052947</v>
       </c>
     </row>
     <row r="146">
@@ -6833,10 +6833,10 @@
         <v>29965.6972786291</v>
       </c>
       <c r="C146" t="n">
-        <v>29950.57286865126</v>
+        <v>28133.47870249285</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.05047241129486905</v>
+        <v>-6.114386590439702</v>
       </c>
     </row>
     <row r="147">
@@ -6849,10 +6849,10 @@
         <v>3375.075360705922</v>
       </c>
       <c r="C147" t="n">
-        <v>3388.142666501902</v>
+        <v>2888.343079841387</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3871707858175683</v>
+        <v>-14.42137519450027</v>
       </c>
     </row>
     <row r="148">
@@ -6865,10 +6865,10 @@
         <v>280657.780433469</v>
       </c>
       <c r="C148" t="n">
-        <v>280365.8602091102</v>
+        <v>264595.6558853535</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1040128742940708</v>
+        <v>-5.723028423907572</v>
       </c>
     </row>
     <row r="149">
@@ -6881,10 +6881,10 @@
         <v>31702.75958278121</v>
       </c>
       <c r="C149" t="n">
-        <v>31633.01197816939</v>
+        <v>30036.37845336959</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.2200048372120472</v>
+        <v>-5.256265231613115</v>
       </c>
     </row>
     <row r="150">
@@ -6897,10 +6897,10 @@
         <v>87687.13267621709</v>
       </c>
       <c r="C150" t="n">
-        <v>87593.39932399038</v>
+        <v>84234.28823100684</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1068952186780048</v>
+        <v>-3.93768656794813</v>
       </c>
     </row>
     <row r="151">
@@ -6913,10 +6913,10 @@
         <v>108470.3227140286</v>
       </c>
       <c r="C151" t="n">
-        <v>108172.3423757415</v>
+        <v>103208.7577510536</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.2747113964735499</v>
+        <v>-4.850695408039486</v>
       </c>
     </row>
     <row r="152">
@@ -6929,10 +6929,10 @@
         <v>54041.78996625963</v>
       </c>
       <c r="C152" t="n">
-        <v>53911.6775429298</v>
+        <v>50985.35729557525</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.240762608734956</v>
+        <v>-5.655683634077691</v>
       </c>
     </row>
     <row r="153">
@@ -6945,10 +6945,10 @@
         <v>10616.88118288948</v>
       </c>
       <c r="C153" t="n">
-        <v>10581.85345523023</v>
+        <v>9944.533429262874</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.3299248343826387</v>
+        <v>-6.332817915586959</v>
       </c>
     </row>
     <row r="154">
@@ -6961,10 +6961,10 @@
         <v>39079.32421015717</v>
       </c>
       <c r="C154" t="n">
-        <v>38950.22694166419</v>
+        <v>37125.02524078618</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.3303467270793262</v>
+        <v>-5.000851495950479</v>
       </c>
     </row>
     <row r="155">
@@ -6977,10 +6977,10 @@
         <v>544109.0187771801</v>
       </c>
       <c r="C155" t="n">
-        <v>541901.0828571218</v>
+        <v>522573.0240268784</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.4057892524958244</v>
+        <v>-3.958029366743685</v>
       </c>
     </row>
     <row r="156">
@@ -6993,10 +6993,10 @@
         <v>63852.75474085637</v>
       </c>
       <c r="C156" t="n">
-        <v>63640.77919218292</v>
+        <v>60970.7646066214</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.3319755733855866</v>
+        <v>-4.513493812336526</v>
       </c>
     </row>
     <row r="157">
@@ -7009,10 +7009,10 @@
         <v>74920.82107145021</v>
       </c>
       <c r="C157" t="n">
-        <v>74306.85616295168</v>
+        <v>73597.27531044494</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.8194850239468209</v>
+        <v>-1.766592706909919</v>
       </c>
     </row>
     <row r="158">
@@ -7025,10 +7025,10 @@
         <v>117868.7463496854</v>
       </c>
       <c r="C158" t="n">
-        <v>117374.8658324065</v>
+        <v>113254.4362728706</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.4190088828243884</v>
+        <v>-3.914786760457558</v>
       </c>
     </row>
     <row r="159">
@@ -7041,10 +7041,10 @@
         <v>14279.81208682949</v>
       </c>
       <c r="C159" t="n">
-        <v>14253.10756613512</v>
+        <v>13416.53010138954</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.1870089083244716</v>
+        <v>-6.045471608384589</v>
       </c>
     </row>
     <row r="160">
@@ -7057,10 +7057,10 @@
         <v>15635.81331660888</v>
       </c>
       <c r="C160" t="n">
-        <v>15588.26353119153</v>
+        <v>14914.76784223053</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3041081679252285</v>
+        <v>-4.611499637261796</v>
       </c>
     </row>
     <row r="161">
@@ -7073,10 +7073,10 @@
         <v>10995.11004725444</v>
       </c>
       <c r="C161" t="n">
-        <v>10955.8046352768</v>
+        <v>10547.87427994545</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3574808420171796</v>
+        <v>-4.067587913052964</v>
       </c>
     </row>
     <row r="162">
@@ -7089,10 +7089,10 @@
         <v>9387.562623335931</v>
       </c>
       <c r="C162" t="n">
-        <v>9382.824494118116</v>
+        <v>8813.570753125548</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.05047241129487721</v>
+        <v>-6.114386590439709</v>
       </c>
     </row>
     <row r="163">
@@ -7105,10 +7105,10 @@
         <v>4251.761191120128</v>
       </c>
       <c r="C163" t="n">
-        <v>4268.222768334874</v>
+        <v>3638.598757374541</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3871707858175488</v>
+        <v>-14.42137519450028</v>
       </c>
     </row>
     <row r="164">
@@ -7121,10 +7121,10 @@
         <v>131850.0203817157</v>
       </c>
       <c r="C164" t="n">
-        <v>131712.8793857594</v>
+        <v>124304.2062383422</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.104012874294075</v>
+        <v>-5.723028423907581</v>
       </c>
     </row>
     <row r="165">
@@ -7137,10 +7137,10 @@
         <v>7026.402470984634</v>
       </c>
       <c r="C165" t="n">
-        <v>7010.944045666481</v>
+        <v>6657.076120869065</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.2200048372120583</v>
+        <v>-5.25626523161311</v>
       </c>
     </row>
     <row r="166">
@@ -7153,10 +7153,10 @@
         <v>2414.365692738618</v>
       </c>
       <c r="C166" t="n">
-        <v>2411.784851251679</v>
+        <v>2319.295539154502</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.106895218677972</v>
+        <v>-3.937686567948126</v>
       </c>
     </row>
     <row r="167">
@@ -7169,10 +7169,10 @@
         <v>212606.6136742881</v>
       </c>
       <c r="C167" t="n">
-        <v>212022.5590768683</v>
+        <v>202293.7144276011</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.2747113964735555</v>
+        <v>-4.850695408039491</v>
       </c>
     </row>
     <row r="168">
@@ -7185,10 +7185,10 @@
         <v>36242.20451189306</v>
       </c>
       <c r="C168" t="n">
-        <v>36154.94683484717</v>
+        <v>34192.46008268496</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.2407626087349539</v>
+        <v>-5.655683634077679</v>
       </c>
     </row>
     <row r="169">
@@ -7201,10 +7201,10 @@
         <v>23664.4564037997</v>
       </c>
       <c r="C169" t="n">
-        <v>23586.38148520191</v>
+        <v>22165.82946903361</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.3299248343826369</v>
+        <v>-6.332817915586959</v>
       </c>
     </row>
     <row r="170">
@@ -7217,10 +7217,10 @@
         <v>82034.16324574809</v>
       </c>
       <c r="C170" t="n">
-        <v>81763.16607237884</v>
+        <v>77931.75656588265</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3303467270793391</v>
+        <v>-5.000851495950464</v>
       </c>
     </row>
     <row r="171">
@@ -7233,10 +7233,10 @@
         <v>148991.1948680506</v>
       </c>
       <c r="C171" t="n">
-        <v>148386.604612111</v>
+        <v>143094.0796213109</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.4057892524958076</v>
+        <v>-3.958029366743652</v>
       </c>
     </row>
     <row r="172">
@@ -7249,10 +7249,10 @@
         <v>63319.5053283951</v>
       </c>
       <c r="C172" t="n">
-        <v>63109.30003751624</v>
+        <v>60461.58337339589</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.3319755733855934</v>
+        <v>-4.51349381233653</v>
       </c>
     </row>
     <row r="173">
@@ -7265,10 +7265,10 @@
         <v>109936.0050247709</v>
       </c>
       <c r="C173" t="n">
-        <v>109035.0959276675</v>
+        <v>107993.8835777352</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.8194850239467895</v>
+        <v>-1.766592706909904</v>
       </c>
     </row>
     <row r="174">
@@ -7281,10 +7281,10 @@
         <v>9056.529986120127</v>
       </c>
       <c r="C174" t="n">
-        <v>9018.58232100263</v>
+        <v>8701.98614926663</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.4190088828243843</v>
+        <v>-3.91478676045754</v>
       </c>
     </row>
     <row r="175">
@@ -7297,10 +7297,10 @@
         <v>20009.95200306803</v>
       </c>
       <c r="C175" t="n">
-        <v>19972.53161027085</v>
+        <v>18800.25603587117</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1870089083244454</v>
+        <v>-6.045471608384555</v>
       </c>
     </row>
     <row r="176">
@@ -7313,10 +7313,10 @@
         <v>16409.31651151967</v>
       </c>
       <c r="C176" t="n">
-        <v>16359.41443970743</v>
+        <v>15652.6009401138</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.3041081679252463</v>
+        <v>-4.611499637261809</v>
       </c>
     </row>
     <row r="177">
@@ -7329,10 +7329,10 @@
         <v>16860.76859074634</v>
       </c>
       <c r="C177" t="n">
-        <v>16800.49457321757</v>
+        <v>16174.94200550131</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.3574808420171632</v>
+        <v>-4.067587913052958</v>
       </c>
     </row>
     <row r="178">
@@ -7345,10 +7345,10 @@
         <v>7671.725655247233</v>
       </c>
       <c r="C178" t="n">
-        <v>7667.853550321101</v>
+        <v>7202.646690527473</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.0504724112948919</v>
+        <v>-6.114386590439711</v>
       </c>
     </row>
     <row r="179">
@@ -7361,10 +7361,10 @@
         <v>1198.499581918997</v>
       </c>
       <c r="C179" t="n">
-        <v>1203.139822168333</v>
+        <v>1025.659460505941</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3871707858175916</v>
+        <v>-14.42137519450026</v>
       </c>
     </row>
     <row r="180">
@@ -7377,10 +7377,10 @@
         <v>93942.00139192962</v>
       </c>
       <c r="C180" t="n">
-        <v>93844.2896161125</v>
+        <v>88565.67395028182</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.1040128742940714</v>
+        <v>-5.723028423907588</v>
       </c>
     </row>
     <row r="181">
@@ -7393,10 +7393,10 @@
         <v>13290.59523430951</v>
       </c>
       <c r="C181" t="n">
-        <v>13261.35528189976</v>
+        <v>12592.00629793407</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.2200048372120458</v>
+        <v>-5.256265231613095</v>
       </c>
     </row>
     <row r="182">
@@ -7409,10 +7409,10 @@
         <v>54723.08811872249</v>
       </c>
       <c r="C182" t="n">
-        <v>54664.59175401062</v>
+        <v>52568.26442830513</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1068952186780015</v>
+        <v>-3.937686567948142</v>
       </c>
     </row>
     <row r="183">
@@ -7425,10 +7425,10 @@
         <v>41335.30632651814</v>
       </c>
       <c r="C183" t="n">
-        <v>41221.75352927194</v>
+        <v>39330.25652063867</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.2747113964735569</v>
+        <v>-4.850695408039482</v>
       </c>
     </row>
     <row r="184">
@@ -7441,10 +7441,10 @@
         <v>131563.2974169935</v>
       </c>
       <c r="C184" t="n">
-        <v>131246.5421899947</v>
+        <v>124122.4935365277</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2407626087349327</v>
+        <v>-5.655683634077656</v>
       </c>
     </row>
     <row r="185">
@@ -7457,10 +7457,10 @@
         <v>41427.66918069134</v>
       </c>
       <c r="C185" t="n">
-        <v>41290.98901175836</v>
+        <v>38804.13032480642</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.3299248343826317</v>
+        <v>-6.332817915586953</v>
       </c>
     </row>
     <row r="186">
@@ -7473,10 +7473,10 @@
         <v>122915.7609529236</v>
       </c>
       <c r="C186" t="n">
-        <v>122509.7127595509</v>
+        <v>116768.9262825504</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.3303467270793572</v>
+        <v>-5.000851495950491</v>
       </c>
     </row>
     <row r="187">
@@ -7489,10 +7489,10 @@
         <v>265714.1567284354</v>
       </c>
       <c r="C187" t="n">
-        <v>264635.9172380714</v>
+        <v>255197.1123735286</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.4057892524958538</v>
+        <v>-3.958029366743702</v>
       </c>
     </row>
     <row r="188">
@@ -7505,10 +7505,10 @@
         <v>54806.72631406299</v>
       </c>
       <c r="C188" t="n">
-        <v>54624.78137012801</v>
+        <v>52333.02811313354</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.3319755733855821</v>
+        <v>-4.51349381233652</v>
       </c>
     </row>
     <row r="189">
@@ -7521,10 +7521,10 @@
         <v>280494.5109468997</v>
       </c>
       <c r="C189" t="n">
-        <v>278195.900436697</v>
+        <v>275539.3153732291</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.8194850239468164</v>
+        <v>-1.766592706909933</v>
       </c>
     </row>
     <row r="190">
@@ -7537,10 +7537,10 @@
         <v>10593.21682983673</v>
       </c>
       <c r="C190" t="n">
-        <v>10548.83031034287</v>
+        <v>10178.51497987572</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.4190088828243924</v>
+        <v>-3.914786760457568</v>
       </c>
     </row>
     <row r="191">
@@ -7553,10 +7553,10 @@
         <v>5684.394091299144</v>
       </c>
       <c r="C191" t="n">
-        <v>5673.763767964146</v>
+        <v>5340.745660400965</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1870089083244512</v>
+        <v>-6.045471608384554</v>
       </c>
     </row>
     <row r="192">
@@ -7569,10 +7569,10 @@
         <v>28859.09469763844</v>
       </c>
       <c r="C192" t="n">
-        <v>28771.33183347364</v>
+        <v>27528.2576503398</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.3041081679252356</v>
+        <v>-4.611499637261811</v>
       </c>
     </row>
     <row r="193">
@@ -7585,10 +7585,10 @@
         <v>10795.41906703843</v>
       </c>
       <c r="C193" t="n">
-        <v>10756.8275120583</v>
+        <v>10356.30590590416</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.3574808420171621</v>
+        <v>-4.067587913052977</v>
       </c>
     </row>
     <row r="194">
@@ -7601,10 +7601,10 @@
         <v>130.3430781668181</v>
       </c>
       <c r="C194" t="n">
-        <v>130.2772908723114</v>
+        <v>122.3733984738199</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.05047241129482472</v>
+        <v>-6.114386590439663</v>
       </c>
     </row>
     <row r="195">
@@ -7617,10 +7617,10 @@
         <v>59.17207945961287</v>
       </c>
       <c r="C195" t="n">
-        <v>59.40117646464125</v>
+        <v>50.63865187035427</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3871707858175801</v>
+        <v>-14.42137519450027</v>
       </c>
     </row>
     <row r="196">
@@ -7633,10 +7633,10 @@
         <v>1833.370805769428</v>
       </c>
       <c r="C196" t="n">
-        <v>1831.463864097879</v>
+        <v>1728.44647343962</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1040128742940763</v>
+        <v>-5.723028423907582</v>
       </c>
     </row>
     <row r="197">
@@ -7649,10 +7649,10 @@
         <v>285.6756973789712</v>
       </c>
       <c r="C197" t="n">
-        <v>285.0471970259982</v>
+        <v>270.6598250224721</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.2200048372120492</v>
+        <v>-5.256265231613104</v>
       </c>
     </row>
     <row r="198">
@@ -7665,10 +7665,10 @@
         <v>32.8274165087924</v>
       </c>
       <c r="C198" t="n">
-        <v>32.79232557012899</v>
+        <v>31.5347757383213</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1068952186779912</v>
+        <v>-3.937686567948132</v>
       </c>
     </row>
     <row r="199">
@@ -7681,10 +7681,10 @@
         <v>2959.766329414751</v>
       </c>
       <c r="C199" t="n">
-        <v>2951.635513998862</v>
+        <v>2816.197079985132</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.2747113964735339</v>
+        <v>-4.850695408039448</v>
       </c>
     </row>
     <row r="200">
@@ -7697,10 +7697,10 @@
         <v>504.2821752044293</v>
       </c>
       <c r="C200" t="n">
-        <v>503.0680522840218</v>
+        <v>475.7615707518215</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.2407626087349383</v>
+        <v>-5.655683634077664</v>
       </c>
     </row>
     <row r="201">
@@ -7713,10 +7713,10 @@
         <v>329.3262663006252</v>
       </c>
       <c r="C201" t="n">
-        <v>328.2397371619543</v>
+        <v>308.4706335076056</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.3299248343826398</v>
+        <v>-6.332817915586954</v>
       </c>
     </row>
     <row r="202">
@@ -7729,10 +7729,10 @@
         <v>1142.065415761599</v>
       </c>
       <c r="C202" t="n">
-        <v>1138.292640039526</v>
+        <v>1084.952420332752</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.3303467270793156</v>
+        <v>-5.000851495950456</v>
       </c>
     </row>
     <row r="203">
@@ -7745,10 +7745,10 @@
         <v>2074.232428719989</v>
       </c>
       <c r="C203" t="n">
-        <v>2065.81541645246</v>
+        <v>1992.133700056731</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.4057892524958384</v>
+        <v>-3.958029366743712</v>
       </c>
     </row>
     <row r="204">
@@ -7761,10 +7761,10 @@
         <v>881.4898055408516</v>
       </c>
       <c r="C204" t="n">
-        <v>878.5634747045719</v>
+        <v>841.7038177113881</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.331975573385583</v>
+        <v>-4.513493812336522</v>
       </c>
     </row>
     <row r="205">
@@ -7777,10 +7777,10 @@
         <v>1530.181350854171</v>
       </c>
       <c r="C205" t="n">
-        <v>1517.641743844694</v>
+        <v>1503.149278707486</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.8194850239467767</v>
+        <v>-1.766592706909895</v>
       </c>
     </row>
     <row r="206">
@@ -7793,10 +7793,10 @@
         <v>200553.4450487138</v>
       </c>
       <c r="C206" t="n">
-        <v>199713.1082991493</v>
+        <v>192702.2053343052</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.4190088828243931</v>
+        <v>-3.914786760457564</v>
       </c>
     </row>
     <row r="207">
@@ -7809,10 +7809,10 @@
         <v>278.5757751426285</v>
       </c>
       <c r="C207" t="n">
-        <v>278.054813626678</v>
+        <v>261.7345557485437</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1870089083244292</v>
+        <v>-6.045471608384559</v>
       </c>
     </row>
     <row r="208">
@@ -7825,10 +7825,10 @@
         <v>228.4063210516134</v>
       </c>
       <c r="C208" t="n">
-        <v>227.7117187732379</v>
+        <v>217.8733643848352</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.3041081679252254</v>
+        <v>-4.611499637261788</v>
       </c>
     </row>
     <row r="209">
@@ -7841,10 +7841,10 @@
         <v>224.8375270473168</v>
       </c>
       <c r="C209" t="n">
-        <v>224.0337759624574</v>
+        <v>215.6920629731329</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.3574808420171818</v>
+        <v>-4.06758791305299</v>
       </c>
     </row>
     <row r="210">
@@ -7857,10 +7857,10 @@
         <v>2778.315250756939</v>
       </c>
       <c r="C210" t="n">
-        <v>2776.912968056508</v>
+        <v>2608.438315624515</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.0504724112948841</v>
+        <v>-6.114386590439707</v>
       </c>
     </row>
     <row r="211">
@@ -7873,10 +7873,10 @@
         <v>542.7758068847991</v>
       </c>
       <c r="C211" t="n">
-        <v>544.8772762415427</v>
+        <v>464.5000713089659</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3871707858175967</v>
+        <v>-14.42137519450028</v>
       </c>
     </row>
     <row r="212">
@@ -7889,10 +7889,10 @@
         <v>37061.93836946738</v>
       </c>
       <c r="C212" t="n">
-        <v>37023.3891821002</v>
+        <v>34940.87310213166</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.1040128742940654</v>
+        <v>-5.723028423907573</v>
       </c>
     </row>
     <row r="213">
@@ -7905,10 +7905,10 @@
         <v>5019.468010577606</v>
       </c>
       <c r="C213" t="n">
-        <v>5008.424938152024</v>
+        <v>4755.631458725673</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.2200048372120476</v>
+        <v>-5.256265231613113</v>
       </c>
     </row>
     <row r="214">
@@ -7921,10 +7921,10 @@
         <v>11282.78686576815</v>
       </c>
       <c r="C214" t="n">
-        <v>11270.72610607502</v>
+        <v>10838.50608286459</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.1068952186779628</v>
+        <v>-3.937686567948098</v>
       </c>
     </row>
     <row r="215">
@@ -7937,10 +7937,10 @@
         <v>15112.70997075617</v>
       </c>
       <c r="C215" t="n">
-        <v>15071.19363415051</v>
+        <v>14379.63844217438</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.2747113964735293</v>
+        <v>-4.850695408039463</v>
       </c>
     </row>
     <row r="216">
@@ -7953,10 +7953,10 @@
         <v>18494.36720134626</v>
       </c>
       <c r="C216" t="n">
-        <v>18449.83968040328</v>
+        <v>17448.38430231349</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.2407626087349485</v>
+        <v>-5.655683634077675</v>
       </c>
     </row>
     <row r="217">
@@ -7969,10 +7969,10 @@
         <v>2317.133481337426</v>
       </c>
       <c r="C217" t="n">
-        <v>2309.488682536698</v>
+        <v>2170.393637103226</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.3299248343826761</v>
+        <v>-6.332817915586967</v>
       </c>
     </row>
     <row r="218">
@@ -7985,10 +7985,10 @@
         <v>3727.739661860719</v>
       </c>
       <c r="C218" t="n">
-        <v>3715.425195893724</v>
+        <v>3541.320937215418</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.3303467270793351</v>
+        <v>-5.000851495950468</v>
       </c>
     </row>
     <row r="219">
@@ -8001,10 +8001,10 @@
         <v>9138.766773565736</v>
       </c>
       <c r="C219" t="n">
-        <v>9101.682640187946</v>
+        <v>8777.051700909791</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.4057892524958318</v>
+        <v>-3.95802936674367</v>
       </c>
     </row>
     <row r="220">
@@ -8017,10 +8017,10 @@
         <v>6348.413799460275</v>
       </c>
       <c r="C220" t="n">
-        <v>6327.338616348627</v>
+        <v>6061.878535440116</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.3319755733855966</v>
+        <v>-4.513493812336548</v>
       </c>
     </row>
     <row r="221">
@@ -8033,10 +8033,10 @@
         <v>26823.73566237933</v>
       </c>
       <c r="C221" t="n">
-        <v>26603.91916576305</v>
+        <v>26349.86950444694</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.8194850239468313</v>
+        <v>-1.766592706909935</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +8049,10 @@
         <v>3771.408181945571</v>
       </c>
       <c r="C222" t="n">
-        <v>3755.605646655654</v>
+        <v>3623.765593755953</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.4190088828243737</v>
+        <v>-3.914786760457537</v>
       </c>
     </row>
     <row r="223">
@@ -8065,10 +8065,10 @@
         <v>1655.903869521936</v>
       </c>
       <c r="C223" t="n">
-        <v>1652.807181772641</v>
+        <v>1555.796671227847</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1870089083244269</v>
+        <v>-6.045471608384524</v>
       </c>
     </row>
     <row r="224">
@@ -8081,10 +8081,10 @@
         <v>7689.051612621561</v>
       </c>
       <c r="C224" t="n">
-        <v>7665.668578631592</v>
+        <v>7334.471025396646</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.3041081679252287</v>
+        <v>-4.611499637261786</v>
       </c>
     </row>
     <row r="225">
@@ -8097,10 +8097,10 @@
         <v>2710.279428830022</v>
       </c>
       <c r="C225" t="n">
-        <v>2700.590699106822</v>
+        <v>2600.036430372971</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.3574808420171692</v>
+        <v>-4.067587913052962</v>
       </c>
     </row>
     <row r="226">
@@ -8113,10 +8113,10 @@
         <v>325.8283497189743</v>
       </c>
       <c r="C226" t="n">
-        <v>325.6638962941888</v>
+        <v>305.9059447959064</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.05047241129488785</v>
+        <v>-6.114386590439711</v>
       </c>
     </row>
     <row r="227">
@@ -8129,10 +8129,10 @@
         <v>51.47494382944985</v>
       </c>
       <c r="C227" t="n">
-        <v>51.67423977397349</v>
+        <v>44.05154904864662</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3871707858175839</v>
+        <v>-14.42137519450027</v>
       </c>
     </row>
     <row r="228">
@@ -8145,10 +8145,10 @@
         <v>6916.856511036302</v>
       </c>
       <c r="C228" t="n">
-        <v>6909.662089768376</v>
+        <v>6521.002846868791</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1040128742940843</v>
+        <v>-5.723028423907597</v>
       </c>
     </row>
     <row r="229">
@@ -8161,10 +8161,10 @@
         <v>369.233986241517</v>
       </c>
       <c r="C229" t="n">
-        <v>368.4216536111548</v>
+        <v>349.8260685994049</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.2200048372120522</v>
+        <v>-5.25626523161313</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>1775.27247268218</v>
       </c>
       <c r="C230" t="n">
-        <v>1773.374791290377</v>
+        <v>1705.367806980893</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1068952186779697</v>
+        <v>-3.937686567948117</v>
       </c>
     </row>
     <row r="231">
@@ -8193,10 +8193,10 @@
         <v>5928.014601319257</v>
       </c>
       <c r="C231" t="n">
-        <v>5911.729669624817</v>
+        <v>5640.464669265154</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.2747113964735533</v>
+        <v>-4.850695408039479</v>
       </c>
     </row>
     <row r="232">
@@ -8209,10 +8209,10 @@
         <v>1031.395597177054</v>
       </c>
       <c r="C232" t="n">
-        <v>1028.912382230912</v>
+        <v>973.0631251849131</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.2407626087350105</v>
+        <v>-5.655683634077727</v>
       </c>
     </row>
     <row r="233">
@@ -8225,10 +8225,10 @@
         <v>1608.551307985471</v>
       </c>
       <c r="C233" t="n">
-        <v>1603.24429774664</v>
+        <v>1506.684682571959</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.3299248343826506</v>
+        <v>-6.332817915586963</v>
       </c>
     </row>
     <row r="234">
@@ -8241,10 +8241,10 @@
         <v>677.4327596080684</v>
       </c>
       <c r="C234" t="n">
-        <v>675.1948826585398</v>
+        <v>643.5553533151498</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.3303467270793597</v>
+        <v>-5.000851495950469</v>
       </c>
     </row>
     <row r="235">
@@ -8257,10 +8257,10 @@
         <v>1698.715141718269</v>
       </c>
       <c r="C235" t="n">
-        <v>1691.821938242657</v>
+        <v>1631.479497551738</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.4057892524958365</v>
+        <v>-3.958029366743694</v>
       </c>
     </row>
     <row r="236">
@@ -8273,10 +8273,10 @@
         <v>645.5155124368843</v>
       </c>
       <c r="C236" t="n">
-        <v>643.372558613179</v>
+        <v>616.380209725373</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.3319755733855912</v>
+        <v>-4.513493812336537</v>
       </c>
     </row>
     <row r="237">
@@ -8289,10 +8289,10 @@
         <v>1645.530889760532</v>
       </c>
       <c r="C237" t="n">
-        <v>1632.046010554526</v>
+        <v>1616.461061072073</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.8194850239468007</v>
+        <v>-1.766592706909904</v>
       </c>
     </row>
     <row r="238">
@@ -8305,10 +8305,10 @@
         <v>761.9280649988186</v>
       </c>
       <c r="C238" t="n">
-        <v>758.7355187257416</v>
+        <v>732.1002059860346</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.4190088828243881</v>
+        <v>-3.91478676045754</v>
       </c>
     </row>
     <row r="239">
@@ -8321,10 +8321,10 @@
         <v>537.7236817026917</v>
       </c>
       <c r="C239" t="n">
-        <v>536.7180905157376</v>
+        <v>505.2157491937953</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.187008908324427</v>
+        <v>-6.045471608384558</v>
       </c>
     </row>
     <row r="240">
@@ -8337,10 +8337,10 @@
         <v>11949.50026854712</v>
       </c>
       <c r="C240" t="n">
-        <v>11913.16086220422</v>
+        <v>11398.44910700847</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.3041081679252416</v>
+        <v>-4.61149963726181</v>
       </c>
     </row>
     <row r="241">
@@ -8353,10 +8353,10 @@
         <v>386.8847934372729</v>
       </c>
       <c r="C241" t="n">
-        <v>385.501754420057</v>
+        <v>371.1479143419785</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.357480842017151</v>
+        <v>-4.067587913052954</v>
       </c>
     </row>
     <row r="242">
@@ -8369,10 +8369,10 @@
         <v>1046.295292655768</v>
       </c>
       <c r="C242" t="n">
-        <v>1045.7672021923</v>
+        <v>982.320753585222</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.0504724112948679</v>
+        <v>-6.114386590439694</v>
       </c>
     </row>
     <row r="243">
@@ -8385,10 +8385,10 @@
         <v>130.1836001021431</v>
       </c>
       <c r="C243" t="n">
-        <v>130.6876329696642</v>
+        <v>111.4093346897052</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3871707858175634</v>
+        <v>-14.4213751945003</v>
       </c>
     </row>
     <row r="244">
@@ -8401,10 +8401,10 @@
         <v>11809.09997807655</v>
       </c>
       <c r="C244" t="n">
-        <v>11796.81699376109</v>
+        <v>11133.26182972357</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1040128742940539</v>
+        <v>-5.723028423907563</v>
       </c>
     </row>
     <row r="245">
@@ -8417,10 +8417,10 @@
         <v>825.7796476708539</v>
       </c>
       <c r="C245" t="n">
-        <v>823.9628925012654</v>
+        <v>782.3744791605935</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.2200048372120536</v>
+        <v>-5.256265231613119</v>
       </c>
     </row>
     <row r="246">
@@ -8433,10 +8433,10 @@
         <v>3297.724954117424</v>
       </c>
       <c r="C246" t="n">
-        <v>3294.199843816322</v>
+        <v>3167.870881551268</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1068952186779868</v>
+        <v>-3.937686567948147</v>
       </c>
     </row>
     <row r="247">
@@ -8449,10 +8449,10 @@
         <v>11905.56344431094</v>
       </c>
       <c r="C247" t="n">
-        <v>11872.85750471503</v>
+        <v>11328.06082501652</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.2747113964735523</v>
+        <v>-4.850695408039474</v>
       </c>
     </row>
     <row r="248">
@@ -8465,10 +8465,10 @@
         <v>2030.975650240378</v>
       </c>
       <c r="C248" t="n">
-        <v>2026.085820282087</v>
+        <v>1916.11009277763</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.2407626087349871</v>
+        <v>-5.655683634077702</v>
       </c>
     </row>
     <row r="249">
@@ -8481,10 +8481,10 @@
         <v>7229.999439492259</v>
       </c>
       <c r="C249" t="n">
-        <v>7206.145875815649</v>
+        <v>6772.136739691256</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.3299248343826321</v>
+        <v>-6.332817915586968</v>
       </c>
     </row>
     <row r="250">
@@ -8497,10 +8497,10 @@
         <v>1917.548880912487</v>
       </c>
       <c r="C250" t="n">
-        <v>1911.214320944247</v>
+        <v>1821.655109015794</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.3303467270793162</v>
+        <v>-5.000851495950445</v>
       </c>
     </row>
     <row r="251">
@@ -8513,10 +8513,10 @@
         <v>5140.148725132723</v>
       </c>
       <c r="C251" t="n">
-        <v>5119.290554043832</v>
+        <v>4936.700129097669</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.4057892524958343</v>
+        <v>-3.958029366743678</v>
       </c>
     </row>
     <row r="252">
@@ -8529,10 +8529,10 @@
         <v>1583.233059004502</v>
       </c>
       <c r="C252" t="n">
-        <v>1577.977111978842</v>
+        <v>1511.773932851468</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.3319755733855725</v>
+        <v>-4.513493812336512</v>
       </c>
     </row>
     <row r="253">
@@ -8545,10 +8545,10 @@
         <v>5884.108741303054</v>
       </c>
       <c r="C253" t="n">
-        <v>5835.88935137533</v>
+        <v>5780.160505412545</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.8194850239468083</v>
+        <v>-1.76659270690992</v>
       </c>
     </row>
     <row r="254">
@@ -8561,10 +8561,10 @@
         <v>1109.271824274989</v>
       </c>
       <c r="C254" t="n">
-        <v>1104.623876796609</v>
+        <v>1065.846197760786</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.4190088828243616</v>
+        <v>-3.914786760457534</v>
       </c>
     </row>
     <row r="255">
@@ -8577,10 +8577,10 @@
         <v>3763.941165659353</v>
       </c>
       <c r="C255" t="n">
-        <v>3756.902260375478</v>
+        <v>3536.393171133117</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.1870089083244612</v>
+        <v>-6.045471608384572</v>
       </c>
     </row>
     <row r="256">
@@ -8593,10 +8593,10 @@
         <v>1794.712358636747</v>
       </c>
       <c r="C256" t="n">
-        <v>1789.25449176337</v>
+        <v>1711.949204728321</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.3041081679252079</v>
+        <v>-4.61149963726178</v>
       </c>
     </row>
     <row r="257">
@@ -8609,10 +8609,10 @@
         <v>30230.98358170662</v>
       </c>
       <c r="C257" t="n">
-        <v>30122.91360704867</v>
+        <v>29001.3117475401</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.357480842017153</v>
+        <v>-4.067587913052956</v>
       </c>
     </row>
   </sheetData>
@@ -8666,10 +8666,10 @@
         <v>3414557.645092672</v>
       </c>
       <c r="C2" t="n">
-        <v>3412834.23551414</v>
+        <v>3205778.390318292</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.05047241129489476</v>
+        <v>-6.114386590439715</v>
       </c>
     </row>
     <row r="3">
@@ -8682,10 +8682,10 @@
         <v>236483.0463515812</v>
       </c>
       <c r="C3" t="n">
-        <v>237398.639620466</v>
+        <v>202378.9389658357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3871707858175857</v>
+        <v>-14.42137519450027</v>
       </c>
     </row>
     <row r="4">
@@ -8698,10 +8698,10 @@
         <v>10693184.37090776</v>
       </c>
       <c r="C4" t="n">
-        <v>10682062.08249001</v>
+        <v>10081210.38993986</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.104012874294087</v>
+        <v>-5.723028423907599</v>
       </c>
     </row>
     <row r="5">
@@ -8714,10 +8714,10 @@
         <v>859555.5685829821</v>
       </c>
       <c r="C5" t="n">
-        <v>857664.5047535739</v>
+        <v>814375.0480851603</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.220004837212055</v>
+        <v>-5.256265231613118</v>
       </c>
     </row>
     <row r="6">
@@ -8730,10 +8730,10 @@
         <v>2955558.97113681</v>
       </c>
       <c r="C6" t="n">
-        <v>2952399.619911456</v>
+        <v>2839178.322522569</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1068952186779945</v>
+        <v>-3.937686567948138</v>
       </c>
     </row>
     <row r="7">
@@ -8746,10 +8746,10 @@
         <v>4193101.561300549</v>
       </c>
       <c r="C7" t="n">
-        <v>4181582.633445946</v>
+        <v>3989706.976412112</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2747113964735434</v>
+        <v>-4.850695408039476</v>
       </c>
     </row>
     <row r="8">
@@ -8762,10 +8762,10 @@
         <v>1706212.131163495</v>
       </c>
       <c r="C8" t="n">
-        <v>1702104.210325954</v>
+        <v>1609714.170898633</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2407626087349457</v>
+        <v>-5.655683634077668</v>
       </c>
     </row>
     <row r="9">
@@ -8778,10 +8778,10 @@
         <v>1023361.531720356</v>
       </c>
       <c r="C9" t="n">
-        <v>1019985.207881692</v>
+        <v>958553.9092983444</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3299248343826013</v>
+        <v>-6.332817915586935</v>
       </c>
     </row>
     <row r="10">
@@ -8794,10 +8794,10 @@
         <v>1008230.237982081</v>
       </c>
       <c r="C10" t="n">
-        <v>1004899.582389483</v>
+        <v>957810.1410433289</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3303467270793607</v>
+        <v>-5.000851495950492</v>
       </c>
     </row>
     <row r="11">
@@ -8810,10 +8810,10 @@
         <v>2590209.541191509</v>
       </c>
       <c r="C11" t="n">
-        <v>2579698.749256232</v>
+        <v>2487688.286890952</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4057892524958305</v>
+        <v>-3.958029366743678</v>
       </c>
     </row>
     <row r="12">
@@ -8826,10 +8826,10 @@
         <v>1427752.616260717</v>
       </c>
       <c r="C12" t="n">
-        <v>1423012.826326358</v>
+        <v>1363311.090270316</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3319755733855886</v>
+        <v>-4.513493812336536</v>
       </c>
     </row>
     <row r="13">
@@ -8842,10 +8842,10 @@
         <v>1993459.613516357</v>
       </c>
       <c r="C13" t="n">
-        <v>1977123.510525162</v>
+        <v>1958243.301368782</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8194850239468197</v>
+        <v>-1.766592706909936</v>
       </c>
     </row>
     <row r="14">
@@ -8858,10 +8858,10 @@
         <v>1209532.48903948</v>
       </c>
       <c r="C14" t="n">
-        <v>1204464.440469758</v>
+        <v>1162181.87129513</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4190088828243876</v>
+        <v>-3.91478676045754</v>
       </c>
     </row>
     <row r="15">
@@ -8874,10 +8874,10 @@
         <v>848111.702553727</v>
       </c>
       <c r="C15" t="n">
-        <v>846525.6581174093</v>
+        <v>796839.3503684545</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1870089083244505</v>
+        <v>-6.045471608384563</v>
       </c>
     </row>
     <row r="16">
@@ -8890,10 +8890,10 @@
         <v>450023.7008461211</v>
       </c>
       <c r="C16" t="n">
-        <v>448655.1420142487</v>
+        <v>429270.8595140101</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3041081679252215</v>
+        <v>-4.611499637261796</v>
       </c>
     </row>
     <row r="17">
@@ -8906,10 +8906,10 @@
         <v>545780.8972354506</v>
       </c>
       <c r="C17" t="n">
-        <v>543829.8350884444</v>
+        <v>523580.7794277493</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3574808420171711</v>
+        <v>-4.067587913052969</v>
       </c>
     </row>
   </sheetData>
@@ -8963,10 +8963,10 @@
         <v>681704.0979888855</v>
       </c>
       <c r="C2" t="n">
-        <v>681230.4815463342</v>
+        <v>636675.5123830393</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06947536973130769</v>
+        <v>-6.605297773430766</v>
       </c>
     </row>
     <row r="3">
@@ -8979,10 +8979,10 @@
         <v>1249.88667263317</v>
       </c>
       <c r="C3" t="n">
-        <v>1247.851902969557</v>
+        <v>1176.213678531067</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1627963325128234</v>
+        <v>-5.894373923268915</v>
       </c>
     </row>
     <row r="4">
@@ -8995,10 +8995,10 @@
         <v>5072181.859160316</v>
       </c>
       <c r="C4" t="n">
-        <v>5061194.809592908</v>
+        <v>4832134.895777424</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2166138729344929</v>
+        <v>-4.732617442518738</v>
       </c>
     </row>
     <row r="5">
@@ -9011,10 +9011,10 @@
         <v>228099.3515061853</v>
       </c>
       <c r="C5" t="n">
-        <v>227677.6023783896</v>
+        <v>214916.795041131</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1848971182998959</v>
+        <v>-5.779304666149772</v>
       </c>
     </row>
     <row r="6">
@@ -9027,10 +9027,10 @@
         <v>41509.39267939057</v>
       </c>
       <c r="C6" t="n">
-        <v>41423.37072074779</v>
+        <v>39121.23067760078</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2072349246523539</v>
+        <v>-5.75330508985143</v>
       </c>
     </row>
     <row r="7">
@@ -9043,10 +9043,10 @@
         <v>1668853.361421085</v>
       </c>
       <c r="C7" t="n">
-        <v>1663401.369776196</v>
+        <v>1595397.799613501</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3266908747600266</v>
+        <v>-4.401558789145762</v>
       </c>
     </row>
     <row r="8">
@@ -9059,10 +9059,10 @@
         <v>844195.7394430137</v>
       </c>
       <c r="C8" t="n">
-        <v>842115.3108487725</v>
+        <v>802214.4475403056</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2464391250794258</v>
+        <v>-4.972933401725847</v>
       </c>
     </row>
     <row r="9">
@@ -9075,10 +9075,10 @@
         <v>827929.9838858522</v>
       </c>
       <c r="C9" t="n">
-        <v>825769.6782154604</v>
+        <v>788866.3211846952</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2609285461860519</v>
+        <v>-4.718232635785623</v>
       </c>
     </row>
     <row r="10">
@@ -9091,10 +9091,10 @@
         <v>279204.3897815574</v>
       </c>
       <c r="C10" t="n">
-        <v>278376.2468786371</v>
+        <v>266108.2041470701</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2966081240944071</v>
+        <v>-4.690537152633396</v>
       </c>
     </row>
     <row r="11">
@@ -9107,10 +9107,10 @@
         <v>847117.1702098944</v>
       </c>
       <c r="C11" t="n">
-        <v>843228.488927582</v>
+        <v>817455.1617688731</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.459048809192341</v>
+        <v>-3.50152369520167</v>
       </c>
     </row>
     <row r="12">
@@ -9123,10 +9123,10 @@
         <v>709106.1542588873</v>
       </c>
       <c r="C12" t="n">
-        <v>706977.4568528215</v>
+        <v>677738.7181438508</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3001944621804257</v>
+        <v>-4.4235176816114</v>
       </c>
     </row>
     <row r="13">
@@ -9139,10 +9139,10 @@
         <v>34388.56298679487</v>
       </c>
       <c r="C13" t="n">
-        <v>34185.01744273235</v>
+        <v>33535.31409002503</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5918989523949477</v>
+        <v>-2.481199627613061</v>
       </c>
     </row>
     <row r="14">
@@ -9155,10 +9155,10 @@
         <v>547184.0434827509</v>
       </c>
       <c r="C14" t="n">
-        <v>544896.834490718</v>
+        <v>526207.2141489291</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4179962883192183</v>
+        <v>-3.833596681713735</v>
       </c>
     </row>
     <row r="15">
@@ -9171,10 +9171,10 @@
         <v>624199.4650670212</v>
       </c>
       <c r="C15" t="n">
-        <v>623121.8318559487</v>
+        <v>586465.6233866038</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1726424438631692</v>
+        <v>-6.045157644658648</v>
       </c>
     </row>
     <row r="16">
@@ -9187,10 +9187,10 @@
         <v>366170.2447981961</v>
       </c>
       <c r="C16" t="n">
-        <v>365052.1659512513</v>
+        <v>349473.9389917692</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3053439930819565</v>
+        <v>-4.55971123913375</v>
       </c>
     </row>
     <row r="17">
@@ -9203,10 +9203,10 @@
         <v>476990.7278785029</v>
       </c>
       <c r="C17" t="n">
-        <v>475393.3791596833</v>
+        <v>457560.1342560342</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3348804547887325</v>
+        <v>-4.073578895105491</v>
       </c>
     </row>
   </sheetData>
@@ -9260,10 +9260,10 @@
         <v>4199.478882578032</v>
       </c>
       <c r="C2" t="n">
-        <v>4197.494728974711</v>
+        <v>3912.587820159823</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04724761473508756</v>
+        <v>-6.831587214509087</v>
       </c>
     </row>
     <row r="3">
@@ -9276,10 +9276,10 @@
         <v>182.8844489195033</v>
       </c>
       <c r="C3" t="n">
-        <v>182.627332888779</v>
+        <v>171.6875572279581</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1405893350929565</v>
+        <v>-6.122385887754501</v>
       </c>
     </row>
     <row r="4">
@@ -9292,10 +9292,10 @@
         <v>373785.7590061041</v>
       </c>
       <c r="C4" t="n">
-        <v>373059.0490459515</v>
+        <v>355233.1111713048</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.194418846262348</v>
+        <v>-4.963444269286978</v>
       </c>
     </row>
     <row r="5">
@@ -9308,10 +9308,10 @@
         <v>30208.34326232866</v>
       </c>
       <c r="C5" t="n">
-        <v>30159.19578714018</v>
+        <v>28393.54821116494</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1626950368038709</v>
+        <v>-6.007595436148484</v>
       </c>
     </row>
     <row r="6">
@@ -9324,10 +9324,10 @@
         <v>544.2639596754708</v>
       </c>
       <c r="C6" t="n">
-        <v>543.2568655540647</v>
+        <v>511.7079463360179</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1850378118012102</v>
+        <v>-5.981658855174813</v>
       </c>
     </row>
     <row r="7">
@@ -9340,10 +9340,10 @@
         <v>109078.9813295354</v>
       </c>
       <c r="C7" t="n">
-        <v>108746.8136526359</v>
+        <v>104025.1473287094</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3045203327449825</v>
+        <v>-4.633187750037763</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9356,10 @@
         <v>72652.30470162898</v>
       </c>
       <c r="C8" t="n">
-        <v>72489.38137615719</v>
+        <v>68872.07599729566</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2242507325003425</v>
+        <v>-5.203177958164019</v>
       </c>
     </row>
     <row r="9">
@@ -9372,10 +9372,10 @@
         <v>256449.3035849219</v>
       </c>
       <c r="C9" t="n">
-        <v>255837.0478584835</v>
+        <v>243757.3856777061</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2387433765191133</v>
+        <v>-4.949094316028394</v>
       </c>
     </row>
     <row r="10">
@@ -9388,10 +9388,10 @@
         <v>155149.7673252957</v>
       </c>
       <c r="C10" t="n">
-        <v>154723.9884368898</v>
+        <v>147514.1243746189</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2744308907103934</v>
+        <v>-4.92146593727559</v>
       </c>
     </row>
     <row r="11">
@@ -9404,10 +9404,10 @@
         <v>481768.4252947781</v>
       </c>
       <c r="C11" t="n">
-        <v>479663.5419107804</v>
+        <v>463772.7684709179</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4369077078286747</v>
+        <v>-3.735333384052566</v>
       </c>
     </row>
     <row r="12">
@@ -9420,10 +9420,10 @@
         <v>40310.04944841391</v>
       </c>
       <c r="C12" t="n">
-        <v>40197.98024445098</v>
+        <v>38433.578981888</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2780180265131015</v>
+        <v>-4.655093437499483</v>
       </c>
     </row>
     <row r="13">
@@ -9436,10 +9436,10 @@
         <v>54737.47033988653</v>
       </c>
       <c r="C13" t="n">
-        <v>54425.58313017303</v>
+        <v>53249.98971148619</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5697874011657317</v>
+        <v>-2.717481496978192</v>
       </c>
     </row>
     <row r="14">
@@ -9452,10 +9452,10 @@
         <v>522067.6321158273</v>
       </c>
       <c r="C14" t="n">
-        <v>520001.0479867532</v>
+        <v>500837.2205017913</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.395846055557715</v>
+        <v>-4.066601778776007</v>
       </c>
     </row>
     <row r="15">
@@ -9468,10 +9468,10 @@
         <v>22378.20519142771</v>
       </c>
       <c r="C15" t="n">
-        <v>22344.53994843892</v>
+        <v>20974.46418068666</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1504376365343653</v>
+        <v>-6.272804269748915</v>
       </c>
     </row>
     <row r="16">
@@ -9484,10 +9484,10 @@
         <v>52685.52568929273</v>
       </c>
       <c r="C16" t="n">
-        <v>52536.33676961629</v>
+        <v>50161.3848047815</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2831687028355082</v>
+        <v>-4.790957006668351</v>
       </c>
     </row>
     <row r="17">
@@ -9500,10 +9500,10 @@
         <v>23438.95177260142</v>
       </c>
       <c r="C17" t="n">
-        <v>23365.65541998836</v>
+        <v>22429.66991615459</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3127117343990503</v>
+        <v>-4.306002530482651</v>
       </c>
     </row>
   </sheetData>
@@ -9557,10 +9557,10 @@
         <v>394497.6888084688</v>
       </c>
       <c r="C2" t="n">
-        <v>394643.7756135359</v>
+        <v>375662.0508790129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0370310927570502</v>
+        <v>-4.774587650018078</v>
       </c>
     </row>
     <row r="3">
@@ -9573,10 +9573,10 @@
         <v>13216.80477489961</v>
       </c>
       <c r="C3" t="n">
-        <v>13209.35190697765</v>
+        <v>12681.56008256024</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05638933198220744</v>
+        <v>-4.049728368204939</v>
       </c>
     </row>
     <row r="4">
@@ -9589,10 +9589,10 @@
         <v>1539821.604049792</v>
       </c>
       <c r="C4" t="n">
-        <v>1538123.731592959</v>
+        <v>1495702.646283054</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1102642314127677</v>
+        <v>-2.86519929650962</v>
       </c>
     </row>
     <row r="5">
@@ -9605,10 +9605,10 @@
         <v>1367.881618448352</v>
       </c>
       <c r="C5" t="n">
-        <v>1366.807644348792</v>
+        <v>1314.090993270852</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07851367289943369</v>
+        <v>-3.932403539314835</v>
       </c>
     </row>
     <row r="6">
@@ -9621,10 +9621,10 @@
         <v>2927645.3929571</v>
       </c>
       <c r="C6" t="n">
-        <v>2924692.122264619</v>
+        <v>2813294.657759137</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1008752869997919</v>
+        <v>-3.905894322893456</v>
       </c>
     </row>
     <row r="7">
@@ -9637,10 +9637,10 @@
         <v>4560.995555048999</v>
       </c>
       <c r="C7" t="n">
-        <v>4550.940450206357</v>
+        <v>4445.709492662872</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.220458553867946</v>
+        <v>-2.527651276890784</v>
       </c>
     </row>
     <row r="8">
@@ -9653,10 +9653,10 @@
         <v>1090.025652932387</v>
       </c>
       <c r="C8" t="n">
-        <v>1088.49829512822</v>
+        <v>1056.123392800348</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1401212714634807</v>
+        <v>-3.110225896136903</v>
       </c>
     </row>
     <row r="9">
@@ -9669,10 +9669,10 @@
         <v>618.7971370217454</v>
       </c>
       <c r="C9" t="n">
-        <v>617.840314922376</v>
+        <v>601.1581233933407</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1546261354689669</v>
+        <v>-2.850532520770987</v>
       </c>
     </row>
     <row r="10">
@@ -9685,10 +9685,10 @@
         <v>21716.29890705622</v>
       </c>
       <c r="C10" t="n">
-        <v>21674.96329134165</v>
+        <v>21103.40107241505</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1903437408533013</v>
+        <v>-2.822294154562533</v>
       </c>
     </row>
     <row r="11">
@@ -9701,10 +9701,10 @@
         <v>3166.211466152315</v>
       </c>
       <c r="C11" t="n">
-        <v>3155.03608354165</v>
+        <v>3115.23629050344</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3529575560613537</v>
+        <v>-1.609973818673018</v>
       </c>
     </row>
     <row r="12">
@@ -9717,10 +9717,10 @@
         <v>7014.752514295814</v>
       </c>
       <c r="C12" t="n">
-        <v>7001.148531079931</v>
+        <v>6835.873476872574</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1939339012767544</v>
+        <v>-2.550040604550072</v>
       </c>
     </row>
     <row r="13">
@@ -9733,10 +9733,10 @@
         <v>31104.57843132653</v>
       </c>
       <c r="C13" t="n">
-        <v>30953.42595277694</v>
+        <v>30927.39135616575</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.485949291623776</v>
+        <v>-0.5696494988735273</v>
       </c>
     </row>
     <row r="14">
@@ -9749,10 +9749,10 @@
         <v>1057.98409967499</v>
       </c>
       <c r="C14" t="n">
-        <v>1054.684656906827</v>
+        <v>1037.368686447772</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3118612812022615</v>
+        <v>-1.948556054249841</v>
       </c>
     </row>
     <row r="15">
@@ -9765,10 +9765,10 @@
         <v>5564.495219738023</v>
       </c>
       <c r="C15" t="n">
-        <v>5560.808967719898</v>
+        <v>5330.593458761697</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06624593736821258</v>
+        <v>-4.203467731388186</v>
       </c>
     </row>
     <row r="16">
@@ -9781,10 +9781,10 @@
         <v>2237.227755704404</v>
       </c>
       <c r="C16" t="n">
-        <v>2232.773683114778</v>
+        <v>2177.070853354568</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1990889205745383</v>
+        <v>-2.688903809478048</v>
       </c>
     </row>
     <row r="17">
@@ -9797,10 +9797,10 @@
         <v>4424.727197110003</v>
       </c>
       <c r="C17" t="n">
-        <v>4414.609754731652</v>
+        <v>4327.682205642081</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2286568623927513</v>
+        <v>-2.193242366022154</v>
       </c>
     </row>
   </sheetData>
@@ -9854,10 +9854,10 @@
         <v>88379.20989359371</v>
       </c>
       <c r="C2" t="n">
-        <v>88644.12359744584</v>
+        <v>79117.41600344951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2997466306511211</v>
+        <v>-10.47960702669232</v>
       </c>
     </row>
     <row r="3">
@@ -9870,10 +9870,10 @@
         <v>80038.6007416122</v>
       </c>
       <c r="C3" t="n">
-        <v>80607.90704153327</v>
+        <v>64082.00869831588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7112896710412926</v>
+        <v>-19.93612069107608</v>
       </c>
     </row>
     <row r="4">
@@ -9886,10 +9886,10 @@
         <v>2920941.758736638</v>
       </c>
       <c r="C4" t="n">
-        <v>2919974.556542079</v>
+        <v>2725993.371330854</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03311268332091823</v>
+        <v>-6.674162085659052</v>
       </c>
     </row>
     <row r="5">
@@ -9902,10 +9902,10 @@
         <v>0.1707930718649235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1706214190792417</v>
+        <v>0.1570205392672306</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1005033657439853</v>
+        <v>-8.063870769058681</v>
       </c>
     </row>
     <row r="6">
@@ -9918,10 +9918,10 @@
         <v>3019.361322344704</v>
       </c>
       <c r="C6" t="n">
-        <v>3018.395356087176</v>
+        <v>2816.047744817952</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03199240350530814</v>
+        <v>-6.733661719189922</v>
       </c>
     </row>
     <row r="7">
@@ -9934,10 +9934,10 @@
         <v>302312.1911261023</v>
       </c>
       <c r="C7" t="n">
-        <v>301015.905991913</v>
+        <v>287364.865669729</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4287902281944634</v>
+        <v>-4.944334332232873</v>
       </c>
     </row>
     <row r="8">
@@ -9950,10 +9950,10 @@
         <v>339911.8913027431</v>
       </c>
       <c r="C8" t="n">
-        <v>339081.6229807443</v>
+        <v>316692.6918352791</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2442598635831028</v>
+        <v>-6.830946507482976</v>
       </c>
     </row>
     <row r="9">
@@ -9966,10 +9966,10 @@
         <v>467265.7590406692</v>
       </c>
       <c r="C9" t="n">
-        <v>465547.2050241355</v>
+        <v>433758.3998619226</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.367789418180787</v>
+        <v>-7.170942559013878</v>
       </c>
     </row>
     <row r="10">
@@ -9982,10 +9982,10 @@
         <v>303862.505135322</v>
       </c>
       <c r="C10" t="n">
-        <v>302612.6870162766</v>
+        <v>287070.6074680202</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4113104110981885</v>
+        <v>-5.526149947267671</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         <v>44667.50305592605</v>
       </c>
       <c r="C11" t="n">
-        <v>44289.91479971859</v>
+        <v>43686.32875244392</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8453310133201191</v>
+        <v>-2.1966177564339</v>
       </c>
     </row>
     <row r="12">
@@ -10014,10 +10014,10 @@
         <v>6203.60467028512</v>
       </c>
       <c r="C12" t="n">
-        <v>6175.582923310621</v>
+        <v>5913.981811873079</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.451701042600617</v>
+        <v>-4.668622096429134</v>
       </c>
     </row>
     <row r="13">
@@ -10030,10 +10030,10 @@
         <v>839824.0628519823</v>
       </c>
       <c r="C13" t="n">
-        <v>829223.7222656376</v>
+        <v>845384.4169437997</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.262209676434695</v>
+        <v>0.6620855888476014</v>
       </c>
     </row>
     <row r="14">
@@ -10046,10 +10046,10 @@
         <v>10181.8199161731</v>
       </c>
       <c r="C14" t="n">
-        <v>10103.43346487738</v>
+        <v>9890.972011015814</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7698668012308192</v>
+        <v>-2.856541439073141</v>
       </c>
     </row>
     <row r="15">
@@ -10062,10 +10062,10 @@
         <v>62709.11526794974</v>
       </c>
       <c r="C15" t="n">
-        <v>62676.81694916134</v>
+        <v>56966.71800076102</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05150498241027196</v>
+        <v>-9.157197071991895</v>
       </c>
     </row>
     <row r="16">
@@ -10078,10 +10078,10 @@
         <v>8969.809554331197</v>
       </c>
       <c r="C16" t="n">
-        <v>8931.711187203897</v>
+        <v>8519.162647235278</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4247399779954563</v>
+        <v>-5.02404097173187</v>
       </c>
     </row>
     <row r="17">
@@ -10094,10 +10094,10 @@
         <v>40285.14188351417</v>
       </c>
       <c r="C17" t="n">
-        <v>40068.31148633487</v>
+        <v>38871.88619812706</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5382391299657617</v>
+        <v>-3.508131334062525</v>
       </c>
     </row>
   </sheetData>
@@ -10151,10 +10151,10 @@
         <v>78355.35792597735</v>
       </c>
       <c r="C2" t="n">
-        <v>78028.00875035685</v>
+        <v>77337.43560691572</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4177751008804684</v>
+        <v>-1.299110036640083</v>
       </c>
     </row>
     <row r="3">
@@ -10167,10 +10167,10 @@
         <v>317789.3840405327</v>
       </c>
       <c r="C3" t="n">
-        <v>316997.3765657608</v>
+        <v>308691.4232855189</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2492240189719228</v>
+        <v>-2.86289008126632</v>
       </c>
     </row>
     <row r="4">
@@ -10183,10 +10183,10 @@
         <v>5812388.874918879</v>
       </c>
       <c r="C4" t="n">
-        <v>5799224.270774794</v>
+        <v>5576217.517231409</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2264921433748517</v>
+        <v>-4.063240825240994</v>
       </c>
     </row>
     <row r="5">
@@ -10199,10 +10199,10 @@
         <v>0.0003561830006493868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003549742458923197</v>
+        <v>0.0003477666880225023</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.339363404447511</v>
+        <v>-2.362918109943482</v>
       </c>
     </row>
     <row r="6">
@@ -10215,10 +10215,10 @@
         <v>3747.700656387613</v>
       </c>
       <c r="C6" t="n">
-        <v>3740.883876200386</v>
+        <v>3708.269287927508</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1818923337862842</v>
+        <v>-1.05214829239091</v>
       </c>
     </row>
     <row r="7">
@@ -10231,10 +10231,10 @@
         <v>18452.78067859498</v>
       </c>
       <c r="C7" t="n">
-        <v>18434.50731281878</v>
+        <v>17577.38358061593</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09902770804290403</v>
+        <v>-4.743984731767289</v>
       </c>
     </row>
     <row r="8">
@@ -10247,10 +10247,10 @@
         <v>268135.8427319374</v>
       </c>
       <c r="C8" t="n">
-        <v>267504.2117921963</v>
+        <v>257710.7349929145</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2355637848732561</v>
+        <v>-3.887994843511165</v>
       </c>
     </row>
     <row r="9">
@@ -10263,10 +10263,10 @@
         <v>640564.0214195349</v>
       </c>
       <c r="C9" t="n">
-        <v>639066.7729168836</v>
+        <v>613749.8715162347</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2337390881450597</v>
+        <v>-4.186021850536997</v>
       </c>
     </row>
     <row r="10">
@@ -10279,10 +10279,10 @@
         <v>71737.1030274103</v>
       </c>
       <c r="C10" t="n">
-        <v>71605.51567788445</v>
+        <v>68836.46699967358</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1834299741314663</v>
+        <v>-4.043425097091537</v>
       </c>
     </row>
     <row r="11">
@@ -10295,10 +10295,10 @@
         <v>120414.6020779007</v>
       </c>
       <c r="C11" t="n">
-        <v>120475.1690070323</v>
+        <v>113496.5068700945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05029865820790461</v>
+        <v>-5.745229472527481</v>
       </c>
     </row>
     <row r="12">
@@ -10311,10 +10311,10 @@
         <v>126100.7636223691</v>
       </c>
       <c r="C12" t="n">
-        <v>125834.5261076721</v>
+        <v>120606.7438343155</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2111307711778216</v>
+        <v>-4.356848943838625</v>
       </c>
     </row>
     <row r="13">
@@ -10327,10 +10327,10 @@
         <v>116158.5188728069</v>
       </c>
       <c r="C13" t="n">
-        <v>116465.1121272262</v>
+        <v>107391.6014118635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2639438393278963</v>
+        <v>-7.547373663177577</v>
       </c>
     </row>
     <row r="14">
@@ -10343,10 +10343,10 @@
         <v>28460.98512839308</v>
       </c>
       <c r="C14" t="n">
-        <v>28443.56650095422</v>
+        <v>27044.04482757359</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06120177274356654</v>
+        <v>-4.978535684648293</v>
       </c>
     </row>
     <row r="15">
@@ -10359,10 +10359,10 @@
         <v>11764.370195582</v>
       </c>
       <c r="C15" t="n">
-        <v>11723.93750091904</v>
+        <v>11491.05471182535</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.343687711205711</v>
+        <v>-2.32324790203637</v>
       </c>
     </row>
     <row r="16">
@@ -10375,10 +10375,10 @@
         <v>6241.96478553941</v>
       </c>
       <c r="C16" t="n">
-        <v>6230.821060846464</v>
+        <v>5981.006426236311</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.178529118247539</v>
+        <v>-4.180708611295814</v>
       </c>
     </row>
     <row r="17">
@@ -10391,10 +10391,10 @@
         <v>41897.22041143459</v>
       </c>
       <c r="C17" t="n">
-        <v>41834.37247853474</v>
+        <v>39925.95662448057</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1500050177139944</v>
+        <v>-4.704998965554341</v>
       </c>
     </row>
   </sheetData>

--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -481,7 +481,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -497,7 +497,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -513,7 +513,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -529,7 +529,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -545,7 +545,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -577,7 +577,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -593,7 +593,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -609,7 +609,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -625,7 +625,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -641,7 +641,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -689,7 +689,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -705,7 +705,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -721,7 +721,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -778,7 +778,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -794,7 +794,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -810,7 +810,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -826,7 +826,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -842,7 +842,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -858,7 +858,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -874,7 +874,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -890,7 +890,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -922,7 +922,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -938,7 +938,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -986,7 +986,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1002,7 +1002,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1018,7 +1018,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1075,7 +1075,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1091,7 +1091,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1107,7 +1107,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1123,7 +1123,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1139,7 +1139,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1155,7 +1155,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1171,7 +1171,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1187,7 +1187,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1203,7 +1203,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1219,7 +1219,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1235,7 +1235,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1283,7 +1283,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1299,7 +1299,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1315,7 +1315,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1445,7 +1445,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1461,7 +1461,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1477,7 +1477,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1493,7 +1493,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1509,7 +1509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1525,7 +1525,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1541,7 +1541,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1557,7 +1557,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1573,7 +1573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1589,7 +1589,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1605,7 +1605,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1653,7 +1653,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1669,7 +1669,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1685,7 +1685,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1742,7 +1742,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1758,7 +1758,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1774,7 +1774,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1790,7 +1790,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1806,7 +1806,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1822,7 +1822,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1838,7 +1838,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1854,7 +1854,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1870,7 +1870,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1886,7 +1886,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1902,7 +1902,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1950,7 +1950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1966,7 +1966,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1982,7 +1982,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2039,7 +2039,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2055,7 +2055,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2071,7 +2071,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2087,7 +2087,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2103,7 +2103,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2119,7 +2119,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2135,7 +2135,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2151,7 +2151,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2167,7 +2167,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2183,7 +2183,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2199,7 +2199,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2247,7 +2247,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2263,7 +2263,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2279,7 +2279,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2336,7 +2336,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2352,7 +2352,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2368,7 +2368,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2384,7 +2384,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2400,7 +2400,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2416,7 +2416,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2432,7 +2432,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2448,7 +2448,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2464,7 +2464,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2480,7 +2480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2496,7 +2496,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2544,7 +2544,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2560,7 +2560,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2576,7 +2576,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2633,7 +2633,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2649,7 +2649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2665,7 +2665,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2681,7 +2681,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2697,7 +2697,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2713,7 +2713,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2729,7 +2729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2745,7 +2745,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2761,7 +2761,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2777,7 +2777,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2793,7 +2793,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2841,7 +2841,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2857,7 +2857,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2873,7 +2873,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2930,7 +2930,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2946,7 +2946,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2962,7 +2962,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2978,7 +2978,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2994,7 +2994,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3010,7 +3010,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3026,7 +3026,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3042,7 +3042,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3058,7 +3058,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3074,7 +3074,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3090,7 +3090,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3138,7 +3138,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3154,7 +3154,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3170,7 +3170,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3272,7 +3272,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('CAP', 'AGR')</t>
+          <t>('CAP', 'AFF')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3288,7 +3288,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('CAP', 'MIN')</t>
+          <t>('CAP', 'MAQ')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3304,7 +3304,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('CAP', 'MAN')</t>
+          <t>('CAP', 'MFG')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3320,7 +3320,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('CAP', 'ESW')</t>
+          <t>('CAP', 'ESWW')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3336,7 +3336,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('CAP', 'CON')</t>
+          <t>('CAP', 'CNS')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3352,7 +3352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('CAP', 'WRT')</t>
+          <t>('CAP', 'TRD')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3368,7 +3368,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('CAP', 'TRS')</t>
+          <t>('CAP', 'TAS')</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3384,7 +3384,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('CAP', 'AFS')</t>
+          <t>('CAP', 'AFSA')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3400,7 +3400,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('CAP', 'INF')</t>
+          <t>('CAP', 'IAC')</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3416,7 +3416,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('CAP', 'FIN')</t>
+          <t>('CAP', 'FIA')</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3432,7 +3432,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('CAP', 'REA')</t>
+          <t>('CAP', 'REOD')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3480,7 +3480,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('CAP', 'EDU')</t>
+          <t>('CAP', 'EDUC')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3496,7 +3496,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('CAP', 'HHS')</t>
+          <t>('CAP', 'HHSW')</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3512,7 +3512,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('CAP', 'OTH')</t>
+          <t>('CAP', 'OS')</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3528,7 +3528,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('LAB', 'AGR')</t>
+          <t>('LAB', 'AFF')</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3544,7 +3544,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('LAB', 'MIN')</t>
+          <t>('LAB', 'MAQ')</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3560,7 +3560,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('LAB', 'MAN')</t>
+          <t>('LAB', 'MFG')</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3576,7 +3576,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('LAB', 'ESW')</t>
+          <t>('LAB', 'ESWW')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3592,7 +3592,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('LAB', 'CON')</t>
+          <t>('LAB', 'CNS')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3608,7 +3608,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('LAB', 'WRT')</t>
+          <t>('LAB', 'TRD')</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3624,7 +3624,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('LAB', 'TRS')</t>
+          <t>('LAB', 'TAS')</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3640,7 +3640,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('LAB', 'AFS')</t>
+          <t>('LAB', 'AFSA')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3656,7 +3656,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('LAB', 'INF')</t>
+          <t>('LAB', 'IAC')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3672,7 +3672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('LAB', 'FIN')</t>
+          <t>('LAB', 'FIA')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3688,7 +3688,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('LAB', 'REA')</t>
+          <t>('LAB', 'REOD')</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3736,7 +3736,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('LAB', 'EDU')</t>
+          <t>('LAB', 'EDUC')</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3752,7 +3752,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('LAB', 'HHS')</t>
+          <t>('LAB', 'HHSW')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3768,7 +3768,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('LAB', 'OTH')</t>
+          <t>('LAB', 'OS')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3960,7 +3960,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3976,7 +3976,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3992,7 +3992,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4008,7 +4008,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4024,7 +4024,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4040,7 +4040,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4056,7 +4056,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4072,7 +4072,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4088,7 +4088,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4104,7 +4104,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4120,7 +4120,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4168,7 +4168,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4184,7 +4184,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4200,7 +4200,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4257,7 +4257,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4271,7 +4271,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4285,7 +4285,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4299,7 +4299,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4313,7 +4313,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4327,7 +4327,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4341,7 +4341,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4355,7 +4355,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4369,7 +4369,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4383,7 +4383,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4397,7 +4397,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4439,7 +4439,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4453,7 +4453,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4467,7 +4467,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4522,7 +4522,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('AGR', 'AGR')</t>
+          <t>('AFF', 'AFF')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4538,7 +4538,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('AGR', 'MIN')</t>
+          <t>('AFF', 'MAQ')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4554,7 +4554,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('AGR', 'MAN')</t>
+          <t>('AFF', 'MFG')</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4570,7 +4570,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('AGR', 'ESW')</t>
+          <t>('AFF', 'ESWW')</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4586,7 +4586,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('AGR', 'CON')</t>
+          <t>('AFF', 'CNS')</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4602,7 +4602,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('AGR', 'WRT')</t>
+          <t>('AFF', 'TRD')</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4618,7 +4618,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('AGR', 'TRS')</t>
+          <t>('AFF', 'TAS')</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4634,7 +4634,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('AGR', 'AFS')</t>
+          <t>('AFF', 'AFSA')</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4650,7 +4650,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('AGR', 'INF')</t>
+          <t>('AFF', 'IAC')</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4666,7 +4666,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('AGR', 'FIN')</t>
+          <t>('AFF', 'FIA')</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4682,7 +4682,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('AGR', 'REA')</t>
+          <t>('AFF', 'REOD')</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4698,7 +4698,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('AGR', 'PBS')</t>
+          <t>('AFF', 'PBS')</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4714,7 +4714,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('AGR', 'PAD')</t>
+          <t>('AFF', 'PAD')</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4730,7 +4730,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('AGR', 'EDU')</t>
+          <t>('AFF', 'EDUC')</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4746,7 +4746,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('AGR', 'HHS')</t>
+          <t>('AFF', 'HHSW')</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4762,7 +4762,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('AGR', 'OTH')</t>
+          <t>('AFF', 'OS')</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4778,7 +4778,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('MIN', 'AGR')</t>
+          <t>('MAQ', 'AFF')</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4794,7 +4794,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('MIN', 'MIN')</t>
+          <t>('MAQ', 'MAQ')</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4810,7 +4810,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('MIN', 'MAN')</t>
+          <t>('MAQ', 'MFG')</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4826,7 +4826,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('MIN', 'ESW')</t>
+          <t>('MAQ', 'ESWW')</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4842,7 +4842,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('MIN', 'CON')</t>
+          <t>('MAQ', 'CNS')</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4858,7 +4858,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('MIN', 'WRT')</t>
+          <t>('MAQ', 'TRD')</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4874,7 +4874,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('MIN', 'TRS')</t>
+          <t>('MAQ', 'TAS')</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4890,7 +4890,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('MIN', 'AFS')</t>
+          <t>('MAQ', 'AFSA')</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4906,7 +4906,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('MIN', 'INF')</t>
+          <t>('MAQ', 'IAC')</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4922,7 +4922,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('MIN', 'FIN')</t>
+          <t>('MAQ', 'FIA')</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4938,7 +4938,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('MIN', 'REA')</t>
+          <t>('MAQ', 'REOD')</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4954,7 +4954,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('MIN', 'PBS')</t>
+          <t>('MAQ', 'PBS')</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4970,7 +4970,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('MIN', 'PAD')</t>
+          <t>('MAQ', 'PAD')</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4986,7 +4986,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('MIN', 'EDU')</t>
+          <t>('MAQ', 'EDUC')</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5002,7 +5002,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('MIN', 'HHS')</t>
+          <t>('MAQ', 'HHSW')</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5018,7 +5018,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('MIN', 'OTH')</t>
+          <t>('MAQ', 'OS')</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5034,7 +5034,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('MAN', 'AGR')</t>
+          <t>('MFG', 'AFF')</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5050,7 +5050,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('MAN', 'MIN')</t>
+          <t>('MFG', 'MAQ')</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5066,7 +5066,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('MAN', 'MAN')</t>
+          <t>('MFG', 'MFG')</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5082,7 +5082,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('MAN', 'ESW')</t>
+          <t>('MFG', 'ESWW')</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5098,7 +5098,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('MAN', 'CON')</t>
+          <t>('MFG', 'CNS')</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5114,7 +5114,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('MAN', 'WRT')</t>
+          <t>('MFG', 'TRD')</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5130,7 +5130,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('MAN', 'TRS')</t>
+          <t>('MFG', 'TAS')</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5146,7 +5146,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('MAN', 'AFS')</t>
+          <t>('MFG', 'AFSA')</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5162,7 +5162,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('MAN', 'INF')</t>
+          <t>('MFG', 'IAC')</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -5178,7 +5178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('MAN', 'FIN')</t>
+          <t>('MFG', 'FIA')</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -5194,7 +5194,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('MAN', 'REA')</t>
+          <t>('MFG', 'REOD')</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -5210,7 +5210,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('MAN', 'PBS')</t>
+          <t>('MFG', 'PBS')</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5226,7 +5226,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('MAN', 'PAD')</t>
+          <t>('MFG', 'PAD')</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -5242,7 +5242,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('MAN', 'EDU')</t>
+          <t>('MFG', 'EDUC')</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -5258,7 +5258,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('MAN', 'HHS')</t>
+          <t>('MFG', 'HHSW')</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -5274,7 +5274,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('MAN', 'OTH')</t>
+          <t>('MFG', 'OS')</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -5290,7 +5290,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('ESW', 'AGR')</t>
+          <t>('ESWW', 'AFF')</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -5306,7 +5306,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('ESW', 'MIN')</t>
+          <t>('ESWW', 'MAQ')</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -5322,7 +5322,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('ESW', 'MAN')</t>
+          <t>('ESWW', 'MFG')</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -5338,7 +5338,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('ESW', 'ESW')</t>
+          <t>('ESWW', 'ESWW')</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -5354,7 +5354,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('ESW', 'CON')</t>
+          <t>('ESWW', 'CNS')</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -5370,7 +5370,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('ESW', 'WRT')</t>
+          <t>('ESWW', 'TRD')</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -5386,7 +5386,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('ESW', 'TRS')</t>
+          <t>('ESWW', 'TAS')</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -5402,7 +5402,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('ESW', 'AFS')</t>
+          <t>('ESWW', 'AFSA')</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -5418,7 +5418,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('ESW', 'INF')</t>
+          <t>('ESWW', 'IAC')</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -5434,7 +5434,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('ESW', 'FIN')</t>
+          <t>('ESWW', 'FIA')</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -5450,7 +5450,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('ESW', 'REA')</t>
+          <t>('ESWW', 'REOD')</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -5466,7 +5466,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('ESW', 'PBS')</t>
+          <t>('ESWW', 'PBS')</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -5482,7 +5482,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('ESW', 'PAD')</t>
+          <t>('ESWW', 'PAD')</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -5498,7 +5498,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('ESW', 'EDU')</t>
+          <t>('ESWW', 'EDUC')</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -5514,7 +5514,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('ESW', 'HHS')</t>
+          <t>('ESWW', 'HHSW')</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -5530,7 +5530,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('ESW', 'OTH')</t>
+          <t>('ESWW', 'OS')</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5546,7 +5546,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('CON', 'AGR')</t>
+          <t>('CNS', 'AFF')</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5562,7 +5562,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('CON', 'MIN')</t>
+          <t>('CNS', 'MAQ')</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5578,7 +5578,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('CON', 'MAN')</t>
+          <t>('CNS', 'MFG')</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5594,7 +5594,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('CON', 'ESW')</t>
+          <t>('CNS', 'ESWW')</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5610,7 +5610,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('CON', 'CON')</t>
+          <t>('CNS', 'CNS')</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5626,7 +5626,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('CON', 'WRT')</t>
+          <t>('CNS', 'TRD')</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5642,7 +5642,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('CON', 'TRS')</t>
+          <t>('CNS', 'TAS')</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5658,7 +5658,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('CON', 'AFS')</t>
+          <t>('CNS', 'AFSA')</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5674,7 +5674,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('CON', 'INF')</t>
+          <t>('CNS', 'IAC')</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5690,7 +5690,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('CON', 'FIN')</t>
+          <t>('CNS', 'FIA')</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5706,7 +5706,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('CON', 'REA')</t>
+          <t>('CNS', 'REOD')</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5722,7 +5722,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('CON', 'PBS')</t>
+          <t>('CNS', 'PBS')</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5738,7 +5738,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('CON', 'PAD')</t>
+          <t>('CNS', 'PAD')</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5754,7 +5754,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('CON', 'EDU')</t>
+          <t>('CNS', 'EDUC')</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5770,7 +5770,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('CON', 'HHS')</t>
+          <t>('CNS', 'HHSW')</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5786,7 +5786,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('CON', 'OTH')</t>
+          <t>('CNS', 'OS')</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5802,7 +5802,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('WRT', 'AGR')</t>
+          <t>('TRD', 'AFF')</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5818,7 +5818,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('WRT', 'MIN')</t>
+          <t>('TRD', 'MAQ')</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -5834,7 +5834,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('WRT', 'MAN')</t>
+          <t>('TRD', 'MFG')</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -5850,7 +5850,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('WRT', 'ESW')</t>
+          <t>('TRD', 'ESWW')</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -5866,7 +5866,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('WRT', 'CON')</t>
+          <t>('TRD', 'CNS')</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -5882,7 +5882,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('WRT', 'WRT')</t>
+          <t>('TRD', 'TRD')</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -5898,7 +5898,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('WRT', 'TRS')</t>
+          <t>('TRD', 'TAS')</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -5914,7 +5914,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('WRT', 'AFS')</t>
+          <t>('TRD', 'AFSA')</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -5930,7 +5930,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('WRT', 'INF')</t>
+          <t>('TRD', 'IAC')</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -5946,7 +5946,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('WRT', 'FIN')</t>
+          <t>('TRD', 'FIA')</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -5962,7 +5962,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('WRT', 'REA')</t>
+          <t>('TRD', 'REOD')</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -5978,7 +5978,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('WRT', 'PBS')</t>
+          <t>('TRD', 'PBS')</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -5994,7 +5994,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('WRT', 'PAD')</t>
+          <t>('TRD', 'PAD')</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6010,7 +6010,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('WRT', 'EDU')</t>
+          <t>('TRD', 'EDUC')</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6026,7 +6026,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('WRT', 'HHS')</t>
+          <t>('TRD', 'HHSW')</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6042,7 +6042,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('WRT', 'OTH')</t>
+          <t>('TRD', 'OS')</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -6058,7 +6058,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('TRS', 'AGR')</t>
+          <t>('TAS', 'AFF')</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -6074,7 +6074,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('TRS', 'MIN')</t>
+          <t>('TAS', 'MAQ')</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -6090,7 +6090,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('TRS', 'MAN')</t>
+          <t>('TAS', 'MFG')</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -6106,7 +6106,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('TRS', 'ESW')</t>
+          <t>('TAS', 'ESWW')</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -6122,7 +6122,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('TRS', 'CON')</t>
+          <t>('TAS', 'CNS')</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -6138,7 +6138,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('TRS', 'WRT')</t>
+          <t>('TAS', 'TRD')</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -6154,7 +6154,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('TRS', 'TRS')</t>
+          <t>('TAS', 'TAS')</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -6170,7 +6170,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('TRS', 'AFS')</t>
+          <t>('TAS', 'AFSA')</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -6186,7 +6186,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('TRS', 'INF')</t>
+          <t>('TAS', 'IAC')</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -6202,7 +6202,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('TRS', 'FIN')</t>
+          <t>('TAS', 'FIA')</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -6218,7 +6218,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('TRS', 'REA')</t>
+          <t>('TAS', 'REOD')</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -6234,7 +6234,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('TRS', 'PBS')</t>
+          <t>('TAS', 'PBS')</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -6250,7 +6250,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('TRS', 'PAD')</t>
+          <t>('TAS', 'PAD')</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -6266,7 +6266,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('TRS', 'EDU')</t>
+          <t>('TAS', 'EDUC')</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -6282,7 +6282,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('TRS', 'HHS')</t>
+          <t>('TAS', 'HHSW')</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -6298,7 +6298,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('TRS', 'OTH')</t>
+          <t>('TAS', 'OS')</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -6314,7 +6314,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('AFS', 'AGR')</t>
+          <t>('AFSA', 'AFF')</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -6330,7 +6330,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('AFS', 'MIN')</t>
+          <t>('AFSA', 'MAQ')</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -6346,7 +6346,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('AFS', 'MAN')</t>
+          <t>('AFSA', 'MFG')</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -6362,7 +6362,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('AFS', 'ESW')</t>
+          <t>('AFSA', 'ESWW')</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -6378,7 +6378,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('AFS', 'CON')</t>
+          <t>('AFSA', 'CNS')</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -6394,7 +6394,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('AFS', 'WRT')</t>
+          <t>('AFSA', 'TRD')</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -6410,7 +6410,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('AFS', 'TRS')</t>
+          <t>('AFSA', 'TAS')</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -6426,7 +6426,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('AFS', 'AFS')</t>
+          <t>('AFSA', 'AFSA')</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -6442,7 +6442,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('AFS', 'INF')</t>
+          <t>('AFSA', 'IAC')</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -6458,7 +6458,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('AFS', 'FIN')</t>
+          <t>('AFSA', 'FIA')</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -6474,7 +6474,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('AFS', 'REA')</t>
+          <t>('AFSA', 'REOD')</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -6490,7 +6490,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('AFS', 'PBS')</t>
+          <t>('AFSA', 'PBS')</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -6506,7 +6506,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('AFS', 'PAD')</t>
+          <t>('AFSA', 'PAD')</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -6522,7 +6522,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('AFS', 'EDU')</t>
+          <t>('AFSA', 'EDUC')</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -6538,7 +6538,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('AFS', 'HHS')</t>
+          <t>('AFSA', 'HHSW')</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -6554,7 +6554,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('AFS', 'OTH')</t>
+          <t>('AFSA', 'OS')</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -6570,7 +6570,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('INF', 'AGR')</t>
+          <t>('IAC', 'AFF')</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -6586,7 +6586,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('INF', 'MIN')</t>
+          <t>('IAC', 'MAQ')</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -6602,7 +6602,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('INF', 'MAN')</t>
+          <t>('IAC', 'MFG')</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -6618,7 +6618,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('INF', 'ESW')</t>
+          <t>('IAC', 'ESWW')</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -6634,7 +6634,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('INF', 'CON')</t>
+          <t>('IAC', 'CNS')</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -6650,7 +6650,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('INF', 'WRT')</t>
+          <t>('IAC', 'TRD')</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -6666,7 +6666,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('INF', 'TRS')</t>
+          <t>('IAC', 'TAS')</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -6682,7 +6682,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('INF', 'AFS')</t>
+          <t>('IAC', 'AFSA')</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -6698,7 +6698,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('INF', 'INF')</t>
+          <t>('IAC', 'IAC')</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -6714,7 +6714,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('INF', 'FIN')</t>
+          <t>('IAC', 'FIA')</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -6730,7 +6730,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('INF', 'REA')</t>
+          <t>('IAC', 'REOD')</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -6746,7 +6746,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('INF', 'PBS')</t>
+          <t>('IAC', 'PBS')</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -6762,7 +6762,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('INF', 'PAD')</t>
+          <t>('IAC', 'PAD')</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -6778,7 +6778,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('INF', 'EDU')</t>
+          <t>('IAC', 'EDUC')</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -6794,7 +6794,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('INF', 'HHS')</t>
+          <t>('IAC', 'HHSW')</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -6810,7 +6810,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('INF', 'OTH')</t>
+          <t>('IAC', 'OS')</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -6826,7 +6826,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('FIN', 'AGR')</t>
+          <t>('FIA', 'AFF')</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6842,7 +6842,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('FIN', 'MIN')</t>
+          <t>('FIA', 'MAQ')</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -6858,7 +6858,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('FIN', 'MAN')</t>
+          <t>('FIA', 'MFG')</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -6874,7 +6874,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('FIN', 'ESW')</t>
+          <t>('FIA', 'ESWW')</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -6890,7 +6890,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('FIN', 'CON')</t>
+          <t>('FIA', 'CNS')</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -6906,7 +6906,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('FIN', 'WRT')</t>
+          <t>('FIA', 'TRD')</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -6922,7 +6922,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('FIN', 'TRS')</t>
+          <t>('FIA', 'TAS')</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -6938,7 +6938,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('FIN', 'AFS')</t>
+          <t>('FIA', 'AFSA')</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -6954,7 +6954,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('FIN', 'INF')</t>
+          <t>('FIA', 'IAC')</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -6970,7 +6970,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('FIN', 'FIN')</t>
+          <t>('FIA', 'FIA')</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6986,7 +6986,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('FIN', 'REA')</t>
+          <t>('FIA', 'REOD')</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -7002,7 +7002,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('FIN', 'PBS')</t>
+          <t>('FIA', 'PBS')</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -7018,7 +7018,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('FIN', 'PAD')</t>
+          <t>('FIA', 'PAD')</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -7034,7 +7034,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('FIN', 'EDU')</t>
+          <t>('FIA', 'EDUC')</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -7050,7 +7050,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('FIN', 'HHS')</t>
+          <t>('FIA', 'HHSW')</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -7066,7 +7066,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('FIN', 'OTH')</t>
+          <t>('FIA', 'OS')</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -7082,7 +7082,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('REA', 'AGR')</t>
+          <t>('REOD', 'AFF')</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -7098,7 +7098,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('REA', 'MIN')</t>
+          <t>('REOD', 'MAQ')</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -7114,7 +7114,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('REA', 'MAN')</t>
+          <t>('REOD', 'MFG')</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -7130,7 +7130,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('REA', 'ESW')</t>
+          <t>('REOD', 'ESWW')</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -7146,7 +7146,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('REA', 'CON')</t>
+          <t>('REOD', 'CNS')</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -7162,7 +7162,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('REA', 'WRT')</t>
+          <t>('REOD', 'TRD')</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -7178,7 +7178,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('REA', 'TRS')</t>
+          <t>('REOD', 'TAS')</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -7194,7 +7194,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('REA', 'AFS')</t>
+          <t>('REOD', 'AFSA')</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -7210,7 +7210,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('REA', 'INF')</t>
+          <t>('REOD', 'IAC')</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -7226,7 +7226,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('REA', 'FIN')</t>
+          <t>('REOD', 'FIA')</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -7242,7 +7242,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('REA', 'REA')</t>
+          <t>('REOD', 'REOD')</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -7258,7 +7258,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('REA', 'PBS')</t>
+          <t>('REOD', 'PBS')</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -7274,7 +7274,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('REA', 'PAD')</t>
+          <t>('REOD', 'PAD')</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7290,7 +7290,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('REA', 'EDU')</t>
+          <t>('REOD', 'EDUC')</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7306,7 +7306,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('REA', 'HHS')</t>
+          <t>('REOD', 'HHSW')</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -7322,7 +7322,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('REA', 'OTH')</t>
+          <t>('REOD', 'OS')</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -7338,7 +7338,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('PBS', 'AGR')</t>
+          <t>('PBS', 'AFF')</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -7354,7 +7354,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('PBS', 'MIN')</t>
+          <t>('PBS', 'MAQ')</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -7370,7 +7370,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('PBS', 'MAN')</t>
+          <t>('PBS', 'MFG')</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -7386,7 +7386,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('PBS', 'ESW')</t>
+          <t>('PBS', 'ESWW')</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -7402,7 +7402,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('PBS', 'CON')</t>
+          <t>('PBS', 'CNS')</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -7418,7 +7418,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('PBS', 'WRT')</t>
+          <t>('PBS', 'TRD')</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -7434,7 +7434,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('PBS', 'TRS')</t>
+          <t>('PBS', 'TAS')</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -7450,7 +7450,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('PBS', 'AFS')</t>
+          <t>('PBS', 'AFSA')</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -7466,7 +7466,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('PBS', 'INF')</t>
+          <t>('PBS', 'IAC')</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -7482,7 +7482,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('PBS', 'FIN')</t>
+          <t>('PBS', 'FIA')</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -7498,7 +7498,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('PBS', 'REA')</t>
+          <t>('PBS', 'REOD')</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -7546,7 +7546,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('PBS', 'EDU')</t>
+          <t>('PBS', 'EDUC')</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -7562,7 +7562,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('PBS', 'HHS')</t>
+          <t>('PBS', 'HHSW')</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -7578,7 +7578,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('PBS', 'OTH')</t>
+          <t>('PBS', 'OS')</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -7594,7 +7594,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('PAD', 'AGR')</t>
+          <t>('PAD', 'AFF')</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -7610,7 +7610,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('PAD', 'MIN')</t>
+          <t>('PAD', 'MAQ')</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -7626,7 +7626,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('PAD', 'MAN')</t>
+          <t>('PAD', 'MFG')</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -7642,7 +7642,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>('PAD', 'ESW')</t>
+          <t>('PAD', 'ESWW')</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -7658,7 +7658,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('PAD', 'CON')</t>
+          <t>('PAD', 'CNS')</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -7674,7 +7674,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>('PAD', 'WRT')</t>
+          <t>('PAD', 'TRD')</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -7690,7 +7690,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>('PAD', 'TRS')</t>
+          <t>('PAD', 'TAS')</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -7706,7 +7706,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('PAD', 'AFS')</t>
+          <t>('PAD', 'AFSA')</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -7722,7 +7722,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>('PAD', 'INF')</t>
+          <t>('PAD', 'IAC')</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -7738,7 +7738,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('PAD', 'FIN')</t>
+          <t>('PAD', 'FIA')</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -7754,7 +7754,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>('PAD', 'REA')</t>
+          <t>('PAD', 'REOD')</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -7802,7 +7802,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('PAD', 'EDU')</t>
+          <t>('PAD', 'EDUC')</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -7818,7 +7818,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('PAD', 'HHS')</t>
+          <t>('PAD', 'HHSW')</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -7834,7 +7834,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>('PAD', 'OTH')</t>
+          <t>('PAD', 'OS')</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -7850,7 +7850,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>('EDU', 'AGR')</t>
+          <t>('EDUC', 'AFF')</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -7866,7 +7866,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>('EDU', 'MIN')</t>
+          <t>('EDUC', 'MAQ')</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -7882,7 +7882,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('EDU', 'MAN')</t>
+          <t>('EDUC', 'MFG')</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7898,7 +7898,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('EDU', 'ESW')</t>
+          <t>('EDUC', 'ESWW')</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7914,7 +7914,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('EDU', 'CON')</t>
+          <t>('EDUC', 'CNS')</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7930,7 +7930,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>('EDU', 'WRT')</t>
+          <t>('EDUC', 'TRD')</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7946,7 +7946,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>('EDU', 'TRS')</t>
+          <t>('EDUC', 'TAS')</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7962,7 +7962,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>('EDU', 'AFS')</t>
+          <t>('EDUC', 'AFSA')</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -7978,7 +7978,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>('EDU', 'INF')</t>
+          <t>('EDUC', 'IAC')</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -7994,7 +7994,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>('EDU', 'FIN')</t>
+          <t>('EDUC', 'FIA')</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -8010,7 +8010,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('EDU', 'REA')</t>
+          <t>('EDUC', 'REOD')</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -8026,7 +8026,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('EDU', 'PBS')</t>
+          <t>('EDUC', 'PBS')</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -8042,7 +8042,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('EDU', 'PAD')</t>
+          <t>('EDUC', 'PAD')</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -8058,7 +8058,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('EDU', 'EDU')</t>
+          <t>('EDUC', 'EDUC')</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -8074,7 +8074,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>('EDU', 'HHS')</t>
+          <t>('EDUC', 'HHSW')</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -8090,7 +8090,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>('EDU', 'OTH')</t>
+          <t>('EDUC', 'OS')</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -8106,7 +8106,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>('HHS', 'AGR')</t>
+          <t>('HHSW', 'AFF')</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -8122,7 +8122,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>('HHS', 'MIN')</t>
+          <t>('HHSW', 'MAQ')</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -8138,7 +8138,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>('HHS', 'MAN')</t>
+          <t>('HHSW', 'MFG')</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -8154,7 +8154,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('HHS', 'ESW')</t>
+          <t>('HHSW', 'ESWW')</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -8170,7 +8170,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>('HHS', 'CON')</t>
+          <t>('HHSW', 'CNS')</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -8186,7 +8186,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>('HHS', 'WRT')</t>
+          <t>('HHSW', 'TRD')</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -8202,7 +8202,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>('HHS', 'TRS')</t>
+          <t>('HHSW', 'TAS')</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -8218,7 +8218,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('HHS', 'AFS')</t>
+          <t>('HHSW', 'AFSA')</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -8234,7 +8234,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('HHS', 'INF')</t>
+          <t>('HHSW', 'IAC')</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -8250,7 +8250,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>('HHS', 'FIN')</t>
+          <t>('HHSW', 'FIA')</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -8266,7 +8266,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('HHS', 'REA')</t>
+          <t>('HHSW', 'REOD')</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -8282,7 +8282,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('HHS', 'PBS')</t>
+          <t>('HHSW', 'PBS')</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -8298,7 +8298,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>('HHS', 'PAD')</t>
+          <t>('HHSW', 'PAD')</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -8314,7 +8314,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('HHS', 'EDU')</t>
+          <t>('HHSW', 'EDUC')</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -8330,7 +8330,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>('HHS', 'HHS')</t>
+          <t>('HHSW', 'HHSW')</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -8346,7 +8346,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>('HHS', 'OTH')</t>
+          <t>('HHSW', 'OS')</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -8362,7 +8362,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>('OTH', 'AGR')</t>
+          <t>('OS', 'AFF')</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -8378,7 +8378,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>('OTH', 'MIN')</t>
+          <t>('OS', 'MAQ')</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -8394,7 +8394,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('OTH', 'MAN')</t>
+          <t>('OS', 'MFG')</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8410,7 +8410,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>('OTH', 'ESW')</t>
+          <t>('OS', 'ESWW')</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -8426,7 +8426,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>('OTH', 'CON')</t>
+          <t>('OS', 'CNS')</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -8442,7 +8442,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>('OTH', 'WRT')</t>
+          <t>('OS', 'TRD')</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -8458,7 +8458,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>('OTH', 'TRS')</t>
+          <t>('OS', 'TAS')</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -8474,7 +8474,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>('OTH', 'AFS')</t>
+          <t>('OS', 'AFSA')</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -8490,7 +8490,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>('OTH', 'INF')</t>
+          <t>('OS', 'IAC')</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -8506,7 +8506,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>('OTH', 'FIN')</t>
+          <t>('OS', 'FIA')</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -8522,7 +8522,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>('OTH', 'REA')</t>
+          <t>('OS', 'REOD')</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -8538,7 +8538,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('OTH', 'PBS')</t>
+          <t>('OS', 'PBS')</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -8554,7 +8554,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>('OTH', 'PAD')</t>
+          <t>('OS', 'PAD')</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -8570,7 +8570,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>('OTH', 'EDU')</t>
+          <t>('OS', 'EDUC')</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -8586,7 +8586,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>('OTH', 'HHS')</t>
+          <t>('OS', 'HHSW')</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -8602,7 +8602,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>('OTH', 'OTH')</t>
+          <t>('OS', 'OS')</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -8659,7 +8659,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -8675,7 +8675,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -8691,7 +8691,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -8707,7 +8707,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8723,7 +8723,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -8739,7 +8739,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8755,7 +8755,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8771,7 +8771,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -8787,7 +8787,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8803,7 +8803,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8819,7 +8819,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -8867,7 +8867,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8883,7 +8883,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8899,7 +8899,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -8956,7 +8956,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -8972,7 +8972,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -8988,7 +8988,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9004,7 +9004,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9020,7 +9020,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9036,7 +9036,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9052,7 +9052,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9068,7 +9068,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9084,7 +9084,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9100,7 +9100,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -9116,7 +9116,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -9164,7 +9164,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -9180,7 +9180,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9196,7 +9196,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9253,7 +9253,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9269,7 +9269,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9285,7 +9285,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9301,7 +9301,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9317,7 +9317,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9333,7 +9333,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9349,7 +9349,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9365,7 +9365,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9381,7 +9381,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9397,7 +9397,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -9413,7 +9413,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -9461,7 +9461,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -9477,7 +9477,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9493,7 +9493,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9550,7 +9550,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9566,7 +9566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9582,7 +9582,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9598,7 +9598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9614,7 +9614,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9630,7 +9630,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9646,7 +9646,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9662,7 +9662,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9678,7 +9678,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9694,7 +9694,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -9710,7 +9710,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -9758,7 +9758,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -9774,7 +9774,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9790,7 +9790,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9847,7 +9847,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -9863,7 +9863,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -9879,7 +9879,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9895,7 +9895,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -9911,7 +9911,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -9927,7 +9927,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9943,7 +9943,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9959,7 +9959,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -9975,7 +9975,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9991,7 +9991,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10007,7 +10007,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10055,7 +10055,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -10071,7 +10071,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10087,7 +10087,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -10144,7 +10144,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AFF</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -10160,7 +10160,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MAQ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -10176,7 +10176,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MFG</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -10192,7 +10192,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ESW</t>
+          <t>ESWW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -10208,7 +10208,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -10224,7 +10224,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WRT</t>
+          <t>TRD</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -10240,7 +10240,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TAS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -10256,7 +10256,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>AFSA</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -10272,7 +10272,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INF</t>
+          <t>IAC</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -10288,7 +10288,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>FIA</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -10304,7 +10304,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>REA</t>
+          <t>REOD</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -10352,7 +10352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EDU</t>
+          <t>EDUC</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -10368,7 +10368,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HHS</t>
+          <t>HHSW</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -10384,7 +10384,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>OS</t>
         </is>
       </c>
       <c r="B17" t="n">

--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -488,10 +488,10 @@
         <v>1716192.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1611257.852701749</v>
+        <v>1669422.509735978</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.114386590439683</v>
+        <v>-2.725218000658333</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         <v>154636.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>132335.7803796657</v>
+        <v>146792.8396347389</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.42137519450028</v>
+        <v>-5.072314447427473</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3242974.18102503</v>
       </c>
       <c r="C4" t="n">
-        <v>3057377.846864983</v>
+        <v>3172163.576208652</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.723028423907584</v>
+        <v>-2.183508127529897</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>519331.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>492033.776513916</v>
+        <v>508301.9141338954</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.256265231613107</v>
+        <v>-2.123748340672881</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         <v>1321086.417788376</v>
       </c>
       <c r="C6" t="n">
-        <v>1269066.175364136</v>
+        <v>1295883.926274985</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.937686567948138</v>
+        <v>-1.907709531643102</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>2762815.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>2628799.734566821</v>
+        <v>2709561.2980815</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.850695408039496</v>
+        <v>-1.927533744130039</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>666749.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>629039.8974321348</v>
+        <v>651969.1558666178</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.655683634077683</v>
+        <v>-2.216720190566948</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>352280.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>329970.9907680147</v>
+        <v>342991.6602484134</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.332817915586967</v>
+        <v>-2.636706883999622</v>
       </c>
     </row>
     <row r="10">
@@ -616,10 +616,10 @@
         <v>472989.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>449336.3221337288</v>
+        <v>464372.0465700736</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.000851495950481</v>
+        <v>-1.821983133358637</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1344792.707611407</v>
       </c>
       <c r="C11" t="n">
-        <v>1291565.41732232</v>
+        <v>1325433.342593411</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.958029366743665</v>
+        <v>-1.439579863009641</v>
       </c>
     </row>
     <row r="12">
@@ -648,10 +648,10 @@
         <v>1086830.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1037776.612125717</v>
+        <v>1069296.936865976</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.513493812336524</v>
+        <v>-1.613288076168605</v>
       </c>
     </row>
     <row r="13">
@@ -664,10 +664,10 @@
         <v>1143812.989778033</v>
       </c>
       <c r="C13" t="n">
-        <v>1123606.472919926</v>
+        <v>1141161.136737559</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.766592706909953</v>
+        <v>-0.231843235229247</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>712160.1110237867</v>
       </c>
       <c r="C14" t="n">
-        <v>684280.5612841678</v>
+        <v>701225.0576305613</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.914786760457538</v>
+        <v>-1.535476815389928</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v>722157.2634633619</v>
       </c>
       <c r="C15" t="n">
-        <v>678499.4511327974</v>
+        <v>702894.6036649796</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.045471608384568</v>
+        <v>-2.667377422197678</v>
       </c>
     </row>
     <row r="16">
@@ -712,10 +712,10 @@
         <v>298161.0429722404</v>
       </c>
       <c r="C16" t="n">
-        <v>284411.3475571196</v>
+        <v>292847.9997820971</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.611499637261799</v>
+        <v>-1.781937417839667</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         <v>363863.9942526534</v>
       </c>
       <c r="C17" t="n">
-        <v>349063.5064024808</v>
+        <v>359530.6241076284</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.067587913052953</v>
+        <v>-1.190931285719915</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +785,10 @@
         <v>3450957.802370132</v>
       </c>
       <c r="C2" t="n">
-        <v>3247493.591188636</v>
+        <v>3362352.175115664</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.895876531488047</v>
+        <v>-2.567566233166144</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         <v>482919.8310003763</v>
       </c>
       <c r="C3" t="n">
-        <v>454082.2191505167</v>
+        <v>471894.5840023756</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.971511211316806</v>
+        <v>-2.283038775848516</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>13829988.52652916</v>
       </c>
       <c r="C4" t="n">
-        <v>13162501.43142137</v>
+        <v>13575753.83498682</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.826374901377451</v>
+        <v>-1.838285628759999</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>897254.4002150299</v>
       </c>
       <c r="C5" t="n">
-        <v>850092.3339071309</v>
+        <v>878198.9782460125</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.25626470002226</v>
+        <v>-2.123747954253641</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         <v>3009042.214440523</v>
       </c>
       <c r="C6" t="n">
-        <v>2890746.709789247</v>
+        <v>2951776.050654474</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.931334166186526</v>
+        <v>-1.903135938446666</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4383731.161583323</v>
       </c>
       <c r="C7" t="n">
-        <v>4171392.409072558</v>
+        <v>4300451.453722675</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.843790476286228</v>
+        <v>-1.899744870088443</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         <v>1665526.087146317</v>
       </c>
       <c r="C8" t="n">
-        <v>1580035.429446215</v>
+        <v>1633030.841466342</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.132952186091559</v>
+        <v>-1.95104993735954</v>
       </c>
     </row>
     <row r="9">
@@ -897,10 +897,10 @@
         <v>1247668.798003208</v>
       </c>
       <c r="C9" t="n">
-        <v>1186290.073000984</v>
+        <v>1224552.09985488</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.919472627708211</v>
+        <v>-1.852791236370122</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>819039.8384011268</v>
       </c>
       <c r="C10" t="n">
-        <v>780359.8371851783</v>
+        <v>804879.8181778799</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.7226031509599</v>
+        <v>-1.728856101906973</v>
       </c>
     </row>
     <row r="11">
@@ -929,10 +929,10 @@
         <v>2819310.646765826</v>
       </c>
       <c r="C11" t="n">
-        <v>2704769.657039418</v>
+        <v>2777522.16692964</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.06273036487851</v>
+        <v>-1.482223318814589</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +945,10 @@
         <v>1650491.778729892</v>
       </c>
       <c r="C12" t="n">
-        <v>1576204.010259874</v>
+        <v>1623819.635762476</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.500947501064476</v>
+        <v>-1.61601186453295</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>1285246.074292473</v>
       </c>
       <c r="C13" t="n">
-        <v>1235166.032706166</v>
+        <v>1267737.485137305</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.896533324474511</v>
+        <v>-1.362275248715037</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
         <v>1283357.657219289</v>
       </c>
       <c r="C14" t="n">
-        <v>1232705.330280178</v>
+        <v>1263607.916001734</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.946859759177526</v>
+        <v>-1.538911706059221</v>
       </c>
     </row>
     <row r="15">
@@ -993,10 +993,10 @@
         <v>806616.9594252668</v>
       </c>
       <c r="C15" t="n">
-        <v>760221.2368370644</v>
+        <v>786678.0605384414</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.751890292668836</v>
+        <v>-2.471916645669383</v>
       </c>
     </row>
     <row r="16">
@@ -1009,10 +1009,10 @@
         <v>457402.8571253931</v>
       </c>
       <c r="C16" t="n">
-        <v>436373.5504414155</v>
+        <v>449316.5932355722</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.597545983017897</v>
+        <v>-1.767864752887653</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>594553.9771915111</v>
       </c>
       <c r="C17" t="n">
-        <v>569876.8213115664</v>
+        <v>586905.9526952298</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.15053247082997</v>
+        <v>-1.286346537013878</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1082,10 @@
         <v>3372602.435199078</v>
       </c>
       <c r="C2" t="n">
-        <v>3170200.087027534</v>
+        <v>3283461.372376816</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.001369923093139</v>
+        <v>-2.643094302842145</v>
       </c>
     </row>
     <row r="3">
@@ -1098,10 +1098,10 @@
         <v>165130.445609969</v>
       </c>
       <c r="C3" t="n">
-        <v>145625.7101843708</v>
+        <v>158249.3828091623</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.81171367493764</v>
+        <v>-4.167046709883826</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>8017599.612171117</v>
       </c>
       <c r="C4" t="n">
-        <v>7586436.640738118</v>
+        <v>7853253.34368951</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.37770644942748</v>
+        <v>-2.049818853913854</v>
       </c>
     </row>
     <row r="5">
@@ -1130,10 +1130,10 @@
         <v>897254.3977899103</v>
       </c>
       <c r="C5" t="n">
-        <v>850092.3315992533</v>
+        <v>878198.9758650278</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.25626470116225</v>
+        <v>-2.123747955074871</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>3005294.609814465</v>
       </c>
       <c r="C6" t="n">
-        <v>2887039.330324556</v>
+        <v>2948022.949485627</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.934898066356611</v>
+        <v>-1.905692045691779</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +1162,10 @@
         <v>4365278.370174446</v>
       </c>
       <c r="C7" t="n">
-        <v>4153815.020128489</v>
+        <v>4282274.908645947</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.844212261256231</v>
+        <v>-1.901447158458823</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1178,10 @@
         <v>1397390.239860752</v>
       </c>
       <c r="C8" t="n">
-        <v>1322337.658534349</v>
+        <v>1368443.698160344</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.370910657990702</v>
+        <v>-2.07147158143112</v>
       </c>
     </row>
     <row r="9">
@@ -1194,10 +1194,10 @@
         <v>607104.7726796871</v>
       </c>
       <c r="C9" t="n">
-        <v>572558.7466802056</v>
+        <v>593269.6521558042</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.690290630890542</v>
+        <v>-2.278868680741277</v>
       </c>
     </row>
     <row r="10">
@@ -1210,10 +1210,10 @@
         <v>747302.7328467588</v>
       </c>
       <c r="C10" t="n">
-        <v>711524.3160345553</v>
+        <v>734220.8151957201</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.787673755174152</v>
+        <v>-1.750551292808038</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         <v>2698896.038135583</v>
       </c>
       <c r="C11" t="n">
-        <v>2591282.505088676</v>
+        <v>2659723.93950472</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.987316722330938</v>
+        <v>-1.451411913514224</v>
       </c>
     </row>
     <row r="12">
@@ -1242,10 +1242,10 @@
         <v>1524391.011590432</v>
       </c>
       <c r="C12" t="n">
-        <v>1455597.337226382</v>
+        <v>1499796.100764323</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.512862765589004</v>
+        <v>-1.613425337666381</v>
       </c>
     </row>
     <row r="13">
@@ -1258,10 +1258,10 @@
         <v>1169087.550664374</v>
       </c>
       <c r="C13" t="n">
-        <v>1127819.565121909</v>
+        <v>1155471.369869203</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.529931143224696</v>
+        <v>-1.164684440222927</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         <v>1254896.669123307</v>
       </c>
       <c r="C14" t="n">
-        <v>1205662.093276543</v>
+        <v>1235616.534181688</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.923396806938707</v>
+        <v>-1.536392231807288</v>
       </c>
     </row>
     <row r="15">
@@ -1290,10 +1290,10 @@
         <v>794852.5872857772</v>
       </c>
       <c r="C15" t="n">
-        <v>748733.8368071434</v>
+        <v>774941.2047039077</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.802176556550918</v>
+        <v>-2.505040922098761</v>
       </c>
     </row>
     <row r="16">
@@ -1306,10 +1306,10 @@
         <v>451160.8912917899</v>
       </c>
       <c r="C16" t="n">
-        <v>430392.5717664546</v>
+        <v>443158.766550737</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.603306697499928</v>
+        <v>-1.773674291257984</v>
       </c>
     </row>
     <row r="17">
@@ -1322,10 +1322,10 @@
         <v>552656.7553519364</v>
       </c>
       <c r="C17" t="n">
-        <v>529951.2257955213</v>
+        <v>545815.2283394231</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.108432464913252</v>
+        <v>-1.237934205320014</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9556190344922171</v>
+        <v>0.9841485150012714</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.438096550778292</v>
+        <v>-1.585148499872857</v>
       </c>
     </row>
     <row r="3">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9579421403363968</v>
+        <v>0.9853971121641342</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.20578596636032</v>
+        <v>-1.460288783586583</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.032509708840426</v>
+        <v>1.022815959143095</v>
       </c>
       <c r="D2" t="n">
-        <v>3.250970884042625</v>
+        <v>2.281595914309476</v>
       </c>
     </row>
     <row r="3">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.047875034905173</v>
+        <v>1.013847132947711</v>
       </c>
       <c r="D3" t="n">
-        <v>4.787503490517331</v>
+        <v>1.384713294771056</v>
       </c>
     </row>
     <row r="4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9997254256038968</v>
+        <v>0.9958474108339325</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02745743961032332</v>
+        <v>-0.4152589166067533</v>
       </c>
     </row>
     <row r="5">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.022484842736878</v>
+        <v>1.016098559933817</v>
       </c>
       <c r="D5" t="n">
-        <v>2.248484273687756</v>
+        <v>1.609855993381681</v>
       </c>
     </row>
     <row r="6">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.029798063661377</v>
+        <v>1.021775773888559</v>
       </c>
       <c r="D6" t="n">
-        <v>2.979806366137727</v>
+        <v>2.177577388855934</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.00002809987643</v>
+        <v>1.002098657498871</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002809987643037637</v>
+        <v>0.2098657498870837</v>
       </c>
     </row>
     <row r="8">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.013969957755115</v>
+        <v>1.006877137466816</v>
       </c>
       <c r="D8" t="n">
-        <v>1.396995775511467</v>
+        <v>0.6877137466815952</v>
       </c>
     </row>
     <row r="9">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.009681746749947</v>
+        <v>1.004506608072272</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9681746749946596</v>
+        <v>0.4506608072271767</v>
       </c>
     </row>
     <row r="10">
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.008470201680266</v>
+        <v>1.003193282746631</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8470201680266243</v>
+        <v>0.3193282746630555</v>
       </c>
     </row>
     <row r="11">
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9887294123376388</v>
+        <v>0.9957536646550169</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.127058766236122</v>
+        <v>-0.4246335344983088</v>
       </c>
     </row>
     <row r="12">
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.001731179775608</v>
+        <v>0.999990376954068</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1731179775607883</v>
+        <v>-0.0009623045931994589</v>
       </c>
     </row>
     <row r="13">
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9820649550119946</v>
+        <v>0.9902343769277506</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.793504498800536</v>
+        <v>-0.9765623072249374</v>
       </c>
     </row>
     <row r="14">
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9929850974523668</v>
+        <v>0.9993069772388494</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7014902547633151</v>
+        <v>-0.06930227611505746</v>
       </c>
     </row>
     <row r="15">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.019746739914196</v>
+        <v>1.012526110532708</v>
       </c>
       <c r="D15" t="n">
-        <v>1.974673991419595</v>
+        <v>1.252611053270813</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.004000764892749</v>
+        <v>1.003339387323462</v>
       </c>
       <c r="D16" t="n">
-        <v>0.400076489274892</v>
+        <v>0.3339387323461507</v>
       </c>
     </row>
     <row r="17">
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9954476687273407</v>
+        <v>0.9949880762356281</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4552331272659305</v>
+        <v>-0.5011923764371873</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.024090963727363</v>
+        <v>1.01665135252307</v>
       </c>
       <c r="D2" t="n">
-        <v>2.409096372736341</v>
+        <v>1.665135252307026</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.033866199837219</v>
+        <v>1.010059910498482</v>
       </c>
       <c r="D3" t="n">
-        <v>3.386619983721872</v>
+        <v>1.005991049848176</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.005082850449151</v>
+        <v>1.001883467766101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5082850449150689</v>
+        <v>0.1883467766100821</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.015154497048146</v>
+        <v>1.010567877579306</v>
       </c>
       <c r="D5" t="n">
-        <v>1.515449704814564</v>
+        <v>1.056787757930633</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.014878512550385</v>
+        <v>1.010450431606429</v>
       </c>
       <c r="D6" t="n">
-        <v>1.487851255038541</v>
+        <v>1.045043160642867</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.00049242659058</v>
+        <v>1.001927958860813</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04924265905796865</v>
+        <v>0.1927958860813428</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.006287386968895</v>
+        <v>1.003073221415337</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6287386968895303</v>
+        <v>0.3073221415337057</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.004504200339883</v>
+        <v>1.002401276360707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4504200339883413</v>
+        <v>0.2401276360706861</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.002776272354974</v>
+        <v>1.000896446142652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2776272354974463</v>
+        <v>0.0896446142651941</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9909542265772381</v>
+        <v>0.9963994076352172</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9045773422761916</v>
+        <v>-0.3600592364782829</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.00081329584524</v>
+        <v>0.9998286494295089</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08132958452398142</v>
+        <v>-0.01713505704911134</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9878628238302353</v>
+        <v>0.9935903357991545</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.213717616976473</v>
+        <v>-0.6409664200845544</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9945382675420047</v>
+        <v>0.9994277402293051</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5461732457995305</v>
+        <v>-0.05722597706948607</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.016982771231575</v>
+        <v>1.010803930969</v>
       </c>
       <c r="D15" t="n">
-        <v>1.698277123157532</v>
+        <v>1.080393096900001</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.00216946649591</v>
+        <v>1.002124826113155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2169466495909989</v>
+        <v>0.2124826113155232</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.997096802695818</v>
+        <v>0.9967585792897573</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2903197304181981</v>
+        <v>-0.3241420710242693</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.02413263653602</v>
+        <v>1.016686121718191</v>
       </c>
       <c r="D2" t="n">
-        <v>2.413263653601971</v>
+        <v>1.668612171819106</v>
       </c>
     </row>
     <row r="3">
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.016395794995335</v>
+        <v>1.00503360265802</v>
       </c>
       <c r="D3" t="n">
-        <v>1.639579499533461</v>
+        <v>0.5033602658020442</v>
       </c>
     </row>
     <row r="4">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.004001160335035</v>
+        <v>1.00148706341009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4001160335034504</v>
+        <v>0.1487063410090084</v>
       </c>
     </row>
     <row r="5">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.015154497543064</v>
+        <v>1.010567877235488</v>
       </c>
       <c r="D5" t="n">
-        <v>1.515449754306353</v>
+        <v>1.056787723548758</v>
       </c>
     </row>
     <row r="6">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.014874449666174</v>
+        <v>1.010447690019242</v>
       </c>
       <c r="D6" t="n">
-        <v>1.487444966617368</v>
+        <v>1.044769001924206</v>
       </c>
     </row>
     <row r="7">
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000524291173619</v>
+        <v>1.002052506250181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05242911736187406</v>
+        <v>0.2052506250181052</v>
       </c>
     </row>
     <row r="8">
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.006540200111048</v>
+        <v>1.003201308149122</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6540200111048389</v>
+        <v>0.3201308149121784</v>
       </c>
     </row>
     <row r="9">
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.003849585033161</v>
+        <v>1.002059458994091</v>
       </c>
       <c r="D9" t="n">
-        <v>0.384958503316124</v>
+        <v>0.2059458994090768</v>
       </c>
     </row>
     <row r="10">
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.003557881581698</v>
+        <v>1.001149960730246</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3557881581698119</v>
+        <v>0.1149960730245869</v>
       </c>
     </row>
     <row r="11">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9911924653367478</v>
+        <v>0.9964953855726563</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8807534663252237</v>
+        <v>-0.3504614427343733</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000754163677672</v>
+        <v>0.9998410925691388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0754163677672226</v>
+        <v>-0.01589074308612215</v>
       </c>
     </row>
     <row r="13">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9808217724638491</v>
+        <v>0.9899243634436086</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.917822753615095</v>
+        <v>-1.007563655639143</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9946151600702011</v>
+        <v>0.9994358789102938</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5384839929798879</v>
+        <v>-0.05641210897061599</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.018026960952643</v>
+        <v>1.011474701939726</v>
       </c>
       <c r="D15" t="n">
-        <v>1.802696095264289</v>
+        <v>1.147470193972611</v>
       </c>
     </row>
     <row r="16">
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002182242652769</v>
+        <v>1.002137342545894</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2182242652769117</v>
+        <v>0.2137342545893706</v>
       </c>
     </row>
     <row r="17">
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.997103420810437</v>
+        <v>0.9967658055053205</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2896579189562987</v>
+        <v>-0.3234194494679543</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.024707163236764</v>
+        <v>1.017080413130756</v>
       </c>
       <c r="D2" t="n">
-        <v>2.470716323676414</v>
+        <v>1.708041313075626</v>
       </c>
     </row>
     <row r="3">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.049511344169356</v>
+        <v>1.014864646959328</v>
       </c>
       <c r="D3" t="n">
-        <v>4.951134416935576</v>
+        <v>1.48646469593281</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00692189951302</v>
+        <v>1.002567888850078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6921899513020024</v>
+        <v>0.2567888850077971</v>
       </c>
     </row>
     <row r="5">
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.015154499889968</v>
+        <v>1.010567879569948</v>
       </c>
       <c r="D5" t="n">
-        <v>1.515449988996753</v>
+        <v>1.056787956994776</v>
       </c>
     </row>
     <row r="6">
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.014893242415353</v>
+        <v>1.010460822632364</v>
       </c>
       <c r="D6" t="n">
-        <v>1.489324241535295</v>
+        <v>1.046082263236414</v>
       </c>
     </row>
     <row r="7">
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000526511068652</v>
+        <v>1.002061202893047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05265110686518693</v>
+        <v>0.206120289304712</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.007804953404651</v>
+        <v>1.003817934245456</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7804953404650927</v>
+        <v>0.3817934245455623</v>
       </c>
     </row>
     <row r="9">
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.007943602889532</v>
+        <v>1.004241643943219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7943602889532109</v>
+        <v>0.4241643943218909</v>
       </c>
     </row>
     <row r="10">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.003900755013174</v>
+        <v>1.001260493399418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3900755013174217</v>
+        <v>0.1260493399418028</v>
       </c>
     </row>
     <row r="11">
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9908031226301875</v>
+        <v>0.996339597612363</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9196877369812451</v>
+        <v>-0.3660402387636985</v>
       </c>
     </row>
     <row r="12">
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000816602903782</v>
+        <v>0.9998279519876342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08166029037823819</v>
+        <v>-0.01720480123658108</v>
       </c>
     </row>
     <row r="13">
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9789563598808424</v>
+        <v>0.9889343474292515</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.10436401191576</v>
+        <v>-1.106565257074854</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9944937070302455</v>
+        <v>0.9994230944205514</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5506292969754467</v>
+        <v>-0.05769055794485611</v>
       </c>
     </row>
     <row r="15">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.018298657274997</v>
+        <v>1.011646515939184</v>
       </c>
       <c r="D15" t="n">
-        <v>1.829865727499658</v>
+        <v>1.164651593918409</v>
       </c>
     </row>
     <row r="16">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002212503852308</v>
+        <v>1.002166979816426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2212503852308423</v>
+        <v>0.2166979816426329</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9968845162171619</v>
+        <v>0.9965214748572608</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3115483782838102</v>
+        <v>-0.3478525142739164</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3279,10 @@
         <v>1135500.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1151849.475870009</v>
+        <v>1147953.902905276</v>
       </c>
       <c r="D2" t="n">
-        <v>1.439803799344934</v>
+        <v>1.096732794403035</v>
       </c>
     </row>
     <row r="3">
@@ -3295,10 +3295,10 @@
         <v>131043.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>122971.7777596104</v>
+        <v>128150.4614769214</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.159566502512813</v>
+        <v>-2.207684746937718</v>
       </c>
     </row>
     <row r="4">
@@ -3311,10 +3311,10 @@
         <v>2283937.65102503</v>
       </c>
       <c r="C4" t="n">
-        <v>2252608.990929649</v>
+        <v>2260624.781323675</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.371695067127634</v>
+        <v>-1.020731441197266</v>
       </c>
     </row>
     <row r="5">
@@ -3327,10 +3327,10 @@
         <v>426893.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>432754.7330940557</v>
+        <v>431391.6773692792</v>
       </c>
       <c r="D5" t="n">
-        <v>1.373067350457312</v>
+        <v>1.05377069296666</v>
       </c>
     </row>
     <row r="6">
@@ -3343,10 +3343,10 @@
         <v>744992.4177883761</v>
       </c>
       <c r="C6" t="n">
-        <v>771209.1494814614</v>
+        <v>758720.2722330079</v>
       </c>
       <c r="D6" t="n">
-        <v>3.519060203446588</v>
+        <v>1.842683779975248</v>
       </c>
     </row>
     <row r="7">
@@ -3359,10 +3359,10 @@
         <v>1787008.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>1779342.894488968</v>
+        <v>1784528.768413466</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4289629640723275</v>
+        <v>-0.138764348505249</v>
       </c>
     </row>
     <row r="8">
@@ -3375,10 +3375,10 @@
         <v>425529.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>425976.1866292423</v>
+        <v>425705.9514630162</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1050617737235228</v>
+        <v>0.04155609228495873</v>
       </c>
     </row>
     <row r="9">
@@ -3391,10 +3391,10 @@
         <v>224861.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>222536.7824516425</v>
+        <v>223461.1591923729</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.033737706586361</v>
+        <v>-0.6226501103102964</v>
       </c>
     </row>
     <row r="10">
@@ -3407,10 +3407,10 @@
         <v>316229.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>317030.3512235339</v>
+        <v>316476.2180589201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2531416740136596</v>
+        <v>0.07791053149405656</v>
       </c>
     </row>
     <row r="11">
@@ -3423,10 +3423,10 @@
         <v>917723.7076114072</v>
       </c>
       <c r="C11" t="n">
-        <v>911938.7612476975</v>
+        <v>915178.4161254785</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.630358169428392</v>
+        <v>-0.2773483418613452</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3439,10 @@
         <v>1029993.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1030962.690064154</v>
+        <v>1029689.233068895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0940825198663735</v>
+        <v>-0.02955484431500728</v>
       </c>
     </row>
     <row r="13">
@@ -3455,10 +3455,10 @@
         <v>418612.9897780325</v>
       </c>
       <c r="C13" t="n">
-        <v>422597.8960791815</v>
+        <v>420225.1171386415</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9519308761206787</v>
+        <v>0.3851116424895881</v>
       </c>
     </row>
     <row r="14">
@@ -3471,10 +3471,10 @@
         <v>99793.11102378671</v>
       </c>
       <c r="C14" t="n">
-        <v>99635.71901798619</v>
+        <v>99774.28453674217</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1577183075923958</v>
+        <v>-0.0188655177210122</v>
       </c>
     </row>
     <row r="15">
@@ -3487,10 +3487,10 @@
         <v>162559.2634633618</v>
       </c>
       <c r="C15" t="n">
-        <v>162980.9983299963</v>
+        <v>162785.5076257314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.259434533381457</v>
+        <v>0.1391764194481414</v>
       </c>
     </row>
     <row r="16">
@@ -3503,10 +3503,10 @@
         <v>213874.0429722403</v>
       </c>
       <c r="C16" t="n">
-        <v>214340.0621786087</v>
+        <v>214159.1636672346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2178942333964534</v>
+        <v>0.1333124352221286</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>265197.5242526537</v>
       </c>
       <c r="C17" t="n">
-        <v>265013.7893159502</v>
+        <v>264925.3435630862</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.06928229711843685</v>
+        <v>-0.102633194006804</v>
       </c>
     </row>
     <row r="18">
@@ -3535,10 +3535,10 @@
         <v>580692</v>
       </c>
       <c r="C18" t="n">
-        <v>587624.3132502701</v>
+        <v>586316.7747748595</v>
       </c>
       <c r="D18" t="n">
-        <v>1.193802093066564</v>
+        <v>0.9686330748244411</v>
       </c>
     </row>
     <row r="19">
@@ -3551,10 +3551,10 @@
         <v>23593</v>
       </c>
       <c r="C19" t="n">
-        <v>22086.08230209561</v>
+        <v>23042.90621658638</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.387138973019064</v>
+        <v>-2.331597437433223</v>
       </c>
     </row>
     <row r="20">
@@ -3567,10 +3567,10 @@
         <v>959036.53</v>
       </c>
       <c r="C20" t="n">
-        <v>943587.6157101959</v>
+        <v>948044.5508335513</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.610878606449347</v>
+        <v>-1.146148120807108</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3583,10 @@
         <v>92438</v>
       </c>
       <c r="C21" t="n">
-        <v>93479.98654421692</v>
+        <v>93293.72205513158</v>
       </c>
       <c r="D21" t="n">
-        <v>1.127227486766184</v>
+        <v>0.9257254106877951</v>
       </c>
     </row>
     <row r="22">
@@ -3599,10 +3599,10 @@
         <v>576094</v>
       </c>
       <c r="C22" t="n">
-        <v>594920.8446232143</v>
+        <v>585966.1706860319</v>
       </c>
       <c r="D22" t="n">
-        <v>3.268016091681971</v>
+        <v>1.713638865537903</v>
       </c>
     </row>
     <row r="23">
@@ -3615,10 +3615,10 @@
         <v>975807</v>
       </c>
       <c r="C23" t="n">
-        <v>969264.870555054</v>
+        <v>973218.1979923134</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.6704327233711126</v>
+        <v>-0.2652985690496768</v>
       </c>
     </row>
     <row r="24">
@@ -3631,10 +3631,10 @@
         <v>241220</v>
       </c>
       <c r="C24" t="n">
-        <v>240887.8327047984</v>
+        <v>241014.4646096213</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1377030491673846</v>
+        <v>-0.08520661237820396</v>
       </c>
     </row>
     <row r="25">
@@ -3647,10 +3647,10 @@
         <v>127419</v>
       </c>
       <c r="C25" t="n">
-        <v>125796.0121763711</v>
+        <v>126465.1780639854</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.273740826430029</v>
+        <v>-0.7485711989692185</v>
       </c>
     </row>
     <row r="26">
@@ -3663,10 +3663,10 @@
         <v>156760</v>
       </c>
       <c r="C26" t="n">
-        <v>156775.7038131445</v>
+        <v>156683.347122273</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01001774250093869</v>
+        <v>-0.04889823789678462</v>
       </c>
     </row>
     <row r="27">
@@ -3679,10 +3679,10 @@
         <v>427069</v>
       </c>
       <c r="C27" t="n">
-        <v>423347.7790033839</v>
+        <v>425344.8927120646</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8713395251390565</v>
+        <v>-0.4037069625600052</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3695,10 @@
         <v>56837</v>
       </c>
       <c r="C28" t="n">
-        <v>56752.50857273172</v>
+        <v>56748.20500749708</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1486556772318735</v>
+        <v>-0.1562274442756027</v>
       </c>
     </row>
     <row r="29">
@@ -3711,10 +3711,10 @@
         <v>725200</v>
       </c>
       <c r="C29" t="n">
-        <v>730327.9784768453</v>
+        <v>727070.3895607868</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7071123106515872</v>
+        <v>0.2579136184206804</v>
       </c>
     </row>
     <row r="30">
@@ -3727,10 +3727,10 @@
         <v>612367</v>
       </c>
       <c r="C30" t="n">
-        <v>609918.4758877391</v>
+        <v>611475.6896531486</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3998458624094539</v>
+        <v>-0.1455516621325705</v>
       </c>
     </row>
     <row r="31">
@@ -3743,10 +3743,10 @@
         <v>559598</v>
       </c>
       <c r="C31" t="n">
-        <v>559689.1884026264</v>
+        <v>559666.7747062353</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0162953410531186</v>
+        <v>0.01229002002067053</v>
       </c>
     </row>
     <row r="32">
@@ -3759,10 +3759,10 @@
         <v>84287</v>
       </c>
       <c r="C32" t="n">
-        <v>84265.80669168069</v>
+        <v>84292.42257553118</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.02514421953482077</v>
+        <v>0.006433466051915662</v>
       </c>
     </row>
     <row r="33">
@@ -3775,10 +3775,10 @@
         <v>98666.46999999974</v>
       </c>
       <c r="C33" t="n">
-        <v>98359.0012856317</v>
+        <v>98440.3134303823</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3116243181376973</v>
+        <v>-0.2292131963547872</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3820,10 @@
         <v>2685479.873327278</v>
       </c>
       <c r="B2" t="n">
-        <v>2568622.898549922</v>
+        <v>2644161.835027991</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.351437370207186</v>
+        <v>-1.538571884662616</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3865,10 @@
         <v>129988.6072602831</v>
       </c>
       <c r="B2" t="n">
-        <v>124030.985307182</v>
+        <v>127841.3614776147</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.583187772119012</v>
+        <v>-1.651872289368315</v>
       </c>
     </row>
   </sheetData>
@@ -3910,10 +3910,10 @@
         <v>945269.9536134986</v>
       </c>
       <c r="B2" t="n">
-        <v>904137.1236026207</v>
+        <v>930726.2958730382</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.351437370207187</v>
+        <v>-1.538571884662586</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3967,10 @@
         <v>46424</v>
       </c>
       <c r="C2" t="n">
-        <v>44635.47283695933</v>
+        <v>45910.80063959675</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.852591683268722</v>
+        <v>-1.105461313982524</v>
       </c>
     </row>
     <row r="3">
@@ -3983,10 +3983,10 @@
         <v>8686</v>
       </c>
       <c r="C3" t="n">
-        <v>7685.098983835181</v>
+        <v>8328.366941915941</v>
       </c>
       <c r="D3" t="n">
-        <v>-11.52315238504282</v>
+        <v>-4.117350426940578</v>
       </c>
     </row>
     <row r="4">
@@ -3999,10 +3999,10 @@
         <v>245357</v>
       </c>
       <c r="C4" t="n">
-        <v>232490.8894597053</v>
+        <v>240451.6414927795</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.243832676587474</v>
+        <v>-1.999273918095045</v>
       </c>
     </row>
     <row r="5">
@@ -4015,10 +4015,10 @@
         <v>37699</v>
       </c>
       <c r="C5" t="n">
-        <v>36258.72041802462</v>
+        <v>37288.30555014462</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.820471582735301</v>
+        <v>-1.089404095215731</v>
       </c>
     </row>
     <row r="6">
@@ -4031,10 +4031,10 @@
         <v>52755</v>
       </c>
       <c r="C6" t="n">
-        <v>51431.68185154517</v>
+        <v>52289.38291449715</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.508422231930293</v>
+        <v>-0.8826027589855876</v>
       </c>
     </row>
     <row r="7">
@@ -4047,10 +4047,10 @@
         <v>474489</v>
       </c>
       <c r="C7" t="n">
-        <v>451695.3011675312</v>
+        <v>466240.2266971676</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.803841360383228</v>
+        <v>-1.738454063810214</v>
       </c>
     </row>
     <row r="8">
@@ -4063,10 +4063,10 @@
         <v>31090</v>
       </c>
       <c r="C8" t="n">
-        <v>29516.06737931364</v>
+        <v>30494.25014902276</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.062504408769259</v>
+        <v>-1.916210520994676</v>
       </c>
     </row>
     <row r="9">
@@ -4079,10 +4079,10 @@
         <v>51009</v>
       </c>
       <c r="C9" t="n">
-        <v>47993.89771428012</v>
+        <v>49783.29927601792</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.910922162206428</v>
+        <v>-2.4029107098396</v>
       </c>
     </row>
     <row r="10">
@@ -4095,10 +4095,10 @@
         <v>42935</v>
       </c>
       <c r="C10" t="n">
-        <v>40901.12268611963</v>
+        <v>42190.51919528526</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.737107986212585</v>
+        <v>-1.73397182884532</v>
       </c>
     </row>
     <row r="11">
@@ -4111,10 +4111,10 @@
         <v>153354</v>
       </c>
       <c r="C11" t="n">
-        <v>145951.90411</v>
+        <v>150602.1303149985</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.826803272167663</v>
+        <v>-1.794455759224714</v>
       </c>
     </row>
     <row r="12">
@@ -4127,10 +4127,10 @@
         <v>102842</v>
       </c>
       <c r="C12" t="n">
-        <v>98280.09853476807</v>
+        <v>101165.5245355316</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.435835033577654</v>
+        <v>-1.630146695385514</v>
       </c>
     </row>
     <row r="13">
@@ -4143,10 +4143,10 @@
         <v>15452</v>
       </c>
       <c r="C13" t="n">
-        <v>14994.79558112868</v>
+        <v>15317.3630745422</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.958868876982402</v>
+        <v>-0.8713236180287126</v>
       </c>
     </row>
     <row r="14">
@@ -4159,10 +4159,10 @@
         <v>55546</v>
       </c>
       <c r="C14" t="n">
-        <v>53079.9917328659</v>
+        <v>54661.80538494234</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.439578488341376</v>
+        <v>-1.591824100849138</v>
       </c>
     </row>
     <row r="15">
@@ -4175,10 +4175,10 @@
         <v>9450</v>
       </c>
       <c r="C15" t="n">
-        <v>9029.487913752046</v>
+        <v>9297.306664994056</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.4498633465392</v>
+        <v>-1.61580248683539</v>
       </c>
     </row>
     <row r="16">
@@ -4191,10 +4191,10 @@
         <v>10107</v>
       </c>
       <c r="C16" t="n">
-        <v>9661.831375331683</v>
+        <v>9947.992520640204</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.404557481629728</v>
+        <v>-1.573241113681567</v>
       </c>
     </row>
     <row r="17">
@@ -4207,10 +4207,10 @@
         <v>47161</v>
       </c>
       <c r="C17" t="n">
-        <v>45111.33642359303</v>
+        <v>46448.29681471088</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.346098633207465</v>
+        <v>-1.511213047410197</v>
       </c>
     </row>
   </sheetData>
@@ -4264,9 +4264,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4278,9 +4282,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4292,9 +4300,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4306,9 +4318,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4320,9 +4336,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4334,9 +4354,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4348,9 +4372,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>5.510129769478951e-40</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4362,9 +4390,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4376,9 +4408,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4390,9 +4426,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4404,9 +4444,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4418,9 +4462,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4432,9 +4480,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4446,9 +4498,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4460,9 +4516,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4474,9 +4534,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>5.510129769478846e-40</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4529,10 +4593,10 @@
         <v>996184.050494849</v>
       </c>
       <c r="C2" t="n">
-        <v>935273.5064952928</v>
+        <v>969035.8634310759</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.114386590439713</v>
+        <v>-2.725218000658345</v>
       </c>
     </row>
     <row r="3">
@@ -4545,10 +4609,10 @@
         <v>976.8286270496617</v>
       </c>
       <c r="C3" t="n">
-        <v>835.9565057355442</v>
+        <v>927.2808074732143</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.42137519450027</v>
+        <v>-5.072314447427472</v>
       </c>
     </row>
     <row r="4">
@@ -4561,10 +4625,10 @@
         <v>1335493.450539227</v>
       </c>
       <c r="C4" t="n">
-        <v>1259062.780765443</v>
+        <v>1306332.842504074</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.723028423907591</v>
+        <v>-2.183508127529896</v>
       </c>
     </row>
     <row r="5">
@@ -4577,10 +4641,10 @@
         <v>2112.539597468874</v>
       </c>
       <c r="C5" t="n">
-        <v>2001.498913103058</v>
+        <v>2067.674572821571</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.256265231613105</v>
+        <v>-2.123748340672893</v>
       </c>
     </row>
     <row r="6">
@@ -4593,10 +4657,10 @@
         <v>3120.123852353638</v>
       </c>
       <c r="C6" t="n">
-        <v>2997.263154516163</v>
+        <v>3060.600952223218</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.937686567948148</v>
+        <v>-1.907709531643096</v>
       </c>
     </row>
     <row r="7">
@@ -4609,10 +4673,10 @@
         <v>13906.41378521889</v>
       </c>
       <c r="C7" t="n">
-        <v>13231.8560103163</v>
+        <v>13638.36296691044</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.850695408039516</v>
+        <v>-1.927533744130066</v>
       </c>
     </row>
     <row r="8">
@@ -4625,10 +4689,10 @@
         <v>790.3713158162036</v>
       </c>
       <c r="C8" t="n">
-        <v>745.6704146591422</v>
+        <v>772.8509952780563</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.65568363407767</v>
+        <v>-2.21672019056693</v>
       </c>
     </row>
     <row r="9">
@@ -4641,10 +4705,10 @@
         <v>8004.610860240749</v>
       </c>
       <c r="C9" t="n">
-        <v>7497.693429610405</v>
+        <v>7793.552734651401</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.33281791558695</v>
+        <v>-2.636706883999613</v>
       </c>
     </row>
     <row r="10">
@@ -4657,10 +4721,10 @@
         <v>567.3164122969201</v>
       </c>
       <c r="C10" t="n">
-        <v>538.9457610057971</v>
+        <v>556.9800029520949</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.00085149595047</v>
+        <v>-1.821983133358642</v>
       </c>
     </row>
     <row r="11">
@@ -4673,10 +4737,10 @@
         <v>831.6523942152977</v>
       </c>
       <c r="C11" t="n">
-        <v>798.7353482230293</v>
+        <v>819.6800938179365</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.958029366743681</v>
+        <v>-1.439579863009668</v>
       </c>
     </row>
     <row r="12">
@@ -4689,10 +4753,10 @@
         <v>994.4142883118851</v>
       </c>
       <c r="C12" t="n">
-        <v>949.5314609399378</v>
+        <v>978.3715211708326</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.513493812336534</v>
+        <v>-1.613288076168605</v>
       </c>
     </row>
     <row r="13">
@@ -4705,10 +4769,10 @@
         <v>2668.348360238089</v>
       </c>
       <c r="C13" t="n">
-        <v>2621.209512711172</v>
+        <v>2662.161975072528</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.766592706909915</v>
+        <v>-0.2318432352291967</v>
       </c>
     </row>
     <row r="14">
@@ -4721,10 +4785,10 @@
         <v>2408.744516456872</v>
       </c>
       <c r="C14" t="n">
-        <v>2314.447305033371</v>
+        <v>2371.758802864701</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.914786760457548</v>
+        <v>-1.535476815389931</v>
       </c>
     </row>
     <row r="15">
@@ -4737,10 +4801,10 @@
         <v>887.2225417552854</v>
       </c>
       <c r="C15" t="n">
-        <v>833.5857548902818</v>
+        <v>863.5569679918565</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.045471608384559</v>
+        <v>-2.667377422197688</v>
       </c>
     </row>
     <row r="16">
@@ -4753,10 +4817,10 @@
         <v>769.1315417398619</v>
       </c>
       <c r="C16" t="n">
-        <v>733.6630434824622</v>
+        <v>755.4260990051923</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.611499637261783</v>
+        <v>-1.781937417839643</v>
       </c>
     </row>
     <row r="17">
@@ -4769,10 +4833,10 @@
         <v>841.3175629623918</v>
       </c>
       <c r="C17" t="n">
-        <v>807.0962314609417</v>
+        <v>831.2980488928162</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.067587913052974</v>
+        <v>-1.190931285719933</v>
       </c>
     </row>
     <row r="18">
@@ -4785,10 +4849,10 @@
         <v>43.99404506602389</v>
       </c>
       <c r="C18" t="n">
-        <v>41.30407907391493</v>
+        <v>42.79511143066686</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.114386590439692</v>
+        <v>-2.72521800065835</v>
       </c>
     </row>
     <row r="19">
@@ -4801,10 +4865,10 @@
         <v>24092.79883337583</v>
       </c>
       <c r="C19" t="n">
-        <v>20618.28591875851</v>
+        <v>22870.73631736086</v>
       </c>
       <c r="D19" t="n">
-        <v>-14.42137519450029</v>
+        <v>-5.072314447427509</v>
       </c>
     </row>
     <row r="20">
@@ -4817,10 +4881,10 @@
         <v>386766.2071966509</v>
       </c>
       <c r="C20" t="n">
-        <v>364631.4672247172</v>
+        <v>378321.1356279728</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.723028423907604</v>
+        <v>-2.183508127529918</v>
       </c>
     </row>
     <row r="21">
@@ -4833,10 +4897,10 @@
         <v>25400.93814486871</v>
       </c>
       <c r="C21" t="n">
-        <v>24065.79746465643</v>
+        <v>24861.48614250172</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.256265231613087</v>
+        <v>-2.123748340672866</v>
       </c>
     </row>
     <row r="22">
@@ -4849,10 +4913,10 @@
         <v>30205.13465254084</v>
       </c>
       <c r="C22" t="n">
-        <v>29015.75112249709</v>
+        <v>29628.90841972869</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.937686567948139</v>
+        <v>-1.907709531643087</v>
       </c>
     </row>
     <row r="23">
@@ -4865,10 +4929,10 @@
         <v>554.7138472670425</v>
       </c>
       <c r="C23" t="n">
-        <v>527.8063681499009</v>
+        <v>544.0215506776083</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.850695408039492</v>
+        <v>-1.927533744130046</v>
       </c>
     </row>
     <row r="24">
@@ -4881,10 +4945,10 @@
         <v>60.33259108559908</v>
       </c>
       <c r="C24" t="n">
-        <v>56.92037060555585</v>
+        <v>58.99518635751243</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.65568363407766</v>
+        <v>-2.21672019056691</v>
       </c>
     </row>
     <row r="25">
@@ -4897,10 +4961,10 @@
         <v>121.3883533638887</v>
       </c>
       <c r="C25" t="n">
-        <v>113.7010499746243</v>
+        <v>118.1876982943692</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.332817915586991</v>
+        <v>-2.636706883999659</v>
       </c>
     </row>
     <row r="26">
@@ -4913,10 +4977,10 @@
         <v>44.76267229817115</v>
       </c>
       <c r="C26" t="n">
-        <v>42.52415753092065</v>
+        <v>43.94710395885787</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.000851495950458</v>
+        <v>-1.821983133358628</v>
       </c>
     </row>
     <row r="27">
@@ -4929,10 +4993,10 @@
         <v>87.47359940953065</v>
       </c>
       <c r="C27" t="n">
-        <v>84.0113686567537</v>
+        <v>86.21434708698129</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.958029366743677</v>
+        <v>-1.43957986300968</v>
       </c>
     </row>
     <row r="28">
@@ -4945,10 +5009,10 @@
         <v>619.7676712045622</v>
       </c>
       <c r="C28" t="n">
-        <v>591.794495713882</v>
+        <v>609.7690332650711</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.513493812336542</v>
+        <v>-1.613288076168616</v>
       </c>
     </row>
     <row r="29">
@@ -4961,10 +5025,10 @@
         <v>110.111208618299</v>
       </c>
       <c r="C29" t="n">
-        <v>108.1659920373578</v>
+        <v>109.8559232298883</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.766592706909931</v>
+        <v>-0.2318432352292286</v>
       </c>
     </row>
     <row r="30">
@@ -4977,10 +5041,10 @@
         <v>75.57409461921016</v>
       </c>
       <c r="C30" t="n">
-        <v>72.61552996872165</v>
+        <v>74.41367191789134</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.914786760457564</v>
+        <v>-1.535476815389932</v>
       </c>
     </row>
     <row r="31">
@@ -4993,10 +5057,10 @@
         <v>40.98978434403799</v>
       </c>
       <c r="C31" t="n">
-        <v>38.5117585691811</v>
+        <v>39.8964320910376</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.04547160838459</v>
+        <v>-2.6673774221977</v>
       </c>
     </row>
     <row r="32">
@@ -5009,10 +5073,10 @@
         <v>17.20957189616361</v>
       </c>
       <c r="C32" t="n">
-        <v>16.41595255059772</v>
+        <v>16.90290809509586</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.61149963726176</v>
+        <v>-1.781937417839633</v>
       </c>
     </row>
     <row r="33">
@@ -5025,10 +5089,10 @@
         <v>28.85883731522917</v>
       </c>
       <c r="C33" t="n">
-        <v>27.68497873674729</v>
+        <v>28.51514839294709</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.067587913052952</v>
+        <v>-1.190931285719925</v>
       </c>
     </row>
     <row r="34">
@@ -5041,10 +5105,10 @@
         <v>562317.1813914984</v>
       </c>
       <c r="C34" t="n">
-        <v>527934.9350567581</v>
+        <v>546992.8123434226</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.114386590439708</v>
+        <v>-2.725218000658365</v>
       </c>
     </row>
     <row r="35">
@@ -5057,10 +5121,10 @@
         <v>32889.50558041631</v>
       </c>
       <c r="C35" t="n">
-        <v>28146.38658104837</v>
+        <v>31221.24643717338</v>
       </c>
       <c r="D35" t="n">
-        <v>-14.42137519450029</v>
+        <v>-5.072314447427506</v>
       </c>
     </row>
     <row r="36">
@@ -5073,10 +5137,10 @@
         <v>3536384.555394445</v>
       </c>
       <c r="C36" t="n">
-        <v>3333996.262110543</v>
+        <v>3459167.311206695</v>
       </c>
       <c r="D36" t="n">
-        <v>-5.723028423907589</v>
+        <v>-2.183508127529903</v>
       </c>
     </row>
     <row r="37">
@@ -5089,10 +5153,10 @@
         <v>169840.3628270353</v>
       </c>
       <c r="C37" t="n">
-        <v>160913.1028865123</v>
+        <v>166233.3809397033</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.256265231613127</v>
+        <v>-2.123748340672897</v>
       </c>
     </row>
     <row r="38">
@@ -5105,10 +5169,10 @@
         <v>1185357.660552872</v>
       </c>
       <c r="C38" t="n">
-        <v>1138681.991171137</v>
+        <v>1162744.479478443</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.937686567948173</v>
+        <v>-1.907709531643142</v>
       </c>
     </row>
     <row r="39">
@@ -5121,10 +5185,10 @@
         <v>159824.3694267376</v>
       </c>
       <c r="C39" t="n">
-        <v>152071.7760780268</v>
+        <v>156743.7007746942</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.850695408039488</v>
+        <v>-1.927533744130054</v>
       </c>
     </row>
     <row r="40">
@@ -5137,10 +5201,10 @@
         <v>421376.2451161093</v>
       </c>
       <c r="C40" t="n">
-        <v>397544.5377831864</v>
+        <v>412035.5128123677</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.655683634077693</v>
+        <v>-2.216720190566937</v>
       </c>
     </row>
     <row r="41">
@@ -5153,10 +5217,10 @@
         <v>232131.569601793</v>
       </c>
       <c r="C41" t="n">
-        <v>217431.0999743174</v>
+        <v>226010.9405261661</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.332817915586952</v>
+        <v>-2.636706883999619</v>
       </c>
     </row>
     <row r="42">
@@ -5169,10 +5233,10 @@
         <v>128836.3952206124</v>
       </c>
       <c r="C42" t="n">
-        <v>122393.4784228937</v>
+        <v>126489.0178300656</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.000851495950474</v>
+        <v>-1.821983133358633</v>
       </c>
     </row>
     <row r="43">
@@ -5185,10 +5249,10 @@
         <v>94652.76397187269</v>
       </c>
       <c r="C43" t="n">
-        <v>90906.37977743139</v>
+        <v>93290.16184195154</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.958029366743677</v>
+        <v>-1.439579863009661</v>
       </c>
     </row>
     <row r="44">
@@ -5201,10 +5265,10 @@
         <v>43047.18661193399</v>
       </c>
       <c r="C44" t="n">
-        <v>41104.25450781939</v>
+        <v>42352.71148319761</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.513493812336521</v>
+        <v>-1.613288076168598</v>
       </c>
     </row>
     <row r="45">
@@ -5217,10 +5281,10 @@
         <v>127914.3668898133</v>
       </c>
       <c r="C45" t="n">
-        <v>125654.6410132478</v>
+        <v>127617.806083293</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.766592706909932</v>
+        <v>-0.2318432352292161</v>
       </c>
     </row>
     <row r="46">
@@ -5233,10 +5297,10 @@
         <v>25993.78164756393</v>
       </c>
       <c r="C46" t="n">
-        <v>24976.18052508285</v>
+        <v>25594.6531569225</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.914786760457557</v>
+        <v>-1.535476815389954</v>
       </c>
     </row>
     <row r="47">
@@ -5249,10 +5313,10 @@
         <v>38145.22126086871</v>
       </c>
       <c r="C47" t="n">
-        <v>35839.16273958742</v>
+        <v>37127.74424130895</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.045471608384557</v>
+        <v>-2.667377422197675</v>
       </c>
     </row>
     <row r="48">
@@ -5265,10 +5329,10 @@
         <v>32035.35572329106</v>
       </c>
       <c r="C48" t="n">
-        <v>30558.04541031597</v>
+        <v>31464.5057327197</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.611499637261782</v>
+        <v>-1.781937417839646</v>
       </c>
     </row>
     <row r="49">
@@ -5281,10 +5345,10 @@
         <v>53452.78309609117</v>
       </c>
       <c r="C49" t="n">
-        <v>51278.54415168415</v>
+        <v>52816.19717911181</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.067587913052948</v>
+        <v>-1.190931285719913</v>
       </c>
     </row>
     <row r="50">
@@ -5297,10 +5361,10 @@
         <v>23680.12450086494</v>
       </c>
       <c r="C50" t="n">
-        <v>22232.23014378463</v>
+        <v>23034.78948538906</v>
       </c>
       <c r="D50" t="n">
-        <v>-6.114386590439691</v>
+        <v>-2.72521800065834</v>
       </c>
     </row>
     <row r="51">
@@ -5313,10 +5377,10 @@
         <v>4258.121092261274</v>
       </c>
       <c r="C51" t="n">
-        <v>3644.041473310122</v>
+        <v>4042.135800909548</v>
       </c>
       <c r="D51" t="n">
-        <v>-14.42137519450028</v>
+        <v>-5.072314447427487</v>
       </c>
     </row>
     <row r="52">
@@ -5329,10 +5393,10 @@
         <v>251159.6278232176</v>
       </c>
       <c r="C52" t="n">
-        <v>236785.6909335144</v>
+        <v>245675.5369366238</v>
       </c>
       <c r="D52" t="n">
-        <v>-5.723028423907583</v>
+        <v>-2.183508127529897</v>
       </c>
     </row>
     <row r="53">
@@ -5345,10 +5409,10 @@
         <v>38201.89914724839</v>
       </c>
       <c r="C53" t="n">
-        <v>36193.90600455567</v>
+        <v>37390.58694800317</v>
       </c>
       <c r="D53" t="n">
-        <v>-5.256265231613108</v>
+        <v>-2.123748340672898</v>
       </c>
     </row>
     <row r="54">
@@ -5361,10 +5425,10 @@
         <v>41069.58495758228</v>
       </c>
       <c r="C54" t="n">
-        <v>39452.39342719551</v>
+        <v>40286.09657074022</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.937686567948133</v>
+        <v>-1.907709531643101</v>
       </c>
     </row>
     <row r="55">
@@ -5377,10 +5441,10 @@
         <v>68364.54647427362</v>
       </c>
       <c r="C55" t="n">
-        <v>65048.39055771902</v>
+        <v>67046.79677196054</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.850695408039479</v>
+        <v>-1.927533744130037</v>
       </c>
     </row>
     <row r="56">
@@ -5393,10 +5457,10 @@
         <v>29101.75632494179</v>
       </c>
       <c r="C56" t="n">
-        <v>27455.85305524289</v>
+        <v>28456.65181667721</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.655683634077689</v>
+        <v>-2.21672019056694</v>
       </c>
     </row>
     <row r="57">
@@ -5409,10 +5473,10 @@
         <v>14559.03440803147</v>
       </c>
       <c r="C57" t="n">
-        <v>13637.03726870318</v>
+        <v>14175.15534555103</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.33281791558696</v>
+        <v>-2.636706883999618</v>
       </c>
     </row>
     <row r="58">
@@ -5425,10 +5489,10 @@
         <v>23427.48332184359</v>
       </c>
       <c r="C58" t="n">
-        <v>22255.90967167963</v>
+        <v>23000.6385271492</v>
       </c>
       <c r="D58" t="n">
-        <v>-5.000851495950455</v>
+        <v>-1.821983133358614</v>
       </c>
     </row>
     <row r="59">
@@ -5441,10 +5505,10 @@
         <v>46150.93133109502</v>
       </c>
       <c r="C59" t="n">
-        <v>44324.26391598456</v>
+        <v>45486.55181706115</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.958029366743684</v>
+        <v>-1.439579863009681</v>
       </c>
     </row>
     <row r="60">
@@ -5457,10 +5521,10 @@
         <v>21759.37696278335</v>
       </c>
       <c r="C60" t="n">
-        <v>20777.26882996514</v>
+        <v>21408.33552879419</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.513493812336535</v>
+        <v>-1.613288076168601</v>
       </c>
     </row>
     <row r="61">
@@ -5473,10 +5537,10 @@
         <v>46542.62425884105</v>
       </c>
       <c r="C61" t="n">
-        <v>45720.40565307988</v>
+        <v>46434.71833299878</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.766592706909926</v>
+        <v>-0.2318432352292079</v>
       </c>
     </row>
     <row r="62">
@@ -5489,10 +5553,10 @@
         <v>7503.299767465179</v>
       </c>
       <c r="C62" t="n">
-        <v>7209.56158157101</v>
+        <v>7388.088339146543</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.91478676045755</v>
+        <v>-1.535476815389947</v>
       </c>
     </row>
     <row r="63">
@@ -5505,10 +5569,10 @@
         <v>7286.174502210705</v>
       </c>
       <c r="C63" t="n">
-        <v>6845.690891342202</v>
+        <v>7091.824728596812</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.045471608384558</v>
+        <v>-2.667377422197691</v>
       </c>
     </row>
     <row r="64">
@@ -5521,10 +5585,10 @@
         <v>7097.341416109978</v>
       </c>
       <c r="C64" t="n">
-        <v>6770.047542450836</v>
+        <v>6970.871233744483</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.611499637261788</v>
+        <v>-1.781937417839662</v>
       </c>
     </row>
     <row r="65">
@@ -5537,10 +5601,10 @@
         <v>7416.897539297385</v>
       </c>
       <c r="C65" t="n">
-        <v>7115.208711465402</v>
+        <v>7328.567386072101</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.067587913052962</v>
+        <v>-1.190931285719933</v>
       </c>
     </row>
     <row r="66">
@@ -5553,10 +5617,10 @@
         <v>224.7272828615001</v>
       </c>
       <c r="C66" t="n">
-        <v>210.986588013157</v>
+        <v>218.602974496568</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.114386590439723</v>
+        <v>-2.725218000658374</v>
       </c>
     </row>
     <row r="67">
@@ -5569,10 +5633,10 @@
         <v>173.8153879829501</v>
       </c>
       <c r="C67" t="n">
-        <v>148.7488187361525</v>
+        <v>164.9989249464388</v>
       </c>
       <c r="D67" t="n">
-        <v>-14.42137519450029</v>
+        <v>-5.072314447427489</v>
       </c>
     </row>
     <row r="68">
@@ -5585,10 +5649,10 @@
         <v>4996.512834695077</v>
       </c>
       <c r="C68" t="n">
-        <v>4710.560984961287</v>
+        <v>4887.413570856435</v>
       </c>
       <c r="D68" t="n">
-        <v>-5.723028423907595</v>
+        <v>-2.183508127529898</v>
       </c>
     </row>
     <row r="69">
@@ -5601,10 +5665,10 @@
         <v>276.6235712497684</v>
       </c>
       <c r="C69" t="n">
-        <v>262.0835026517203</v>
+        <v>270.7487827454413</v>
       </c>
       <c r="D69" t="n">
-        <v>-5.25626523161313</v>
+        <v>-2.123748340672914</v>
       </c>
     </row>
     <row r="70">
@@ -5617,10 +5681,10 @@
         <v>1232.245435416442</v>
       </c>
       <c r="C70" t="n">
-        <v>1183.723472421894</v>
+        <v>1208.737771791765</v>
       </c>
       <c r="D70" t="n">
-        <v>-3.937686567948174</v>
+        <v>-1.90770953164314</v>
       </c>
     </row>
     <row r="71">
@@ -5633,10 +5697,10 @@
         <v>5856.068227410703</v>
       </c>
       <c r="C71" t="n">
-        <v>5572.008194812034</v>
+        <v>5743.190536248085</v>
       </c>
       <c r="D71" t="n">
-        <v>-4.850695408039461</v>
+        <v>-1.927533744130024</v>
       </c>
     </row>
     <row r="72">
@@ -5649,10 +5713,10 @@
         <v>2040.773234874782</v>
       </c>
       <c r="C72" t="n">
-        <v>1925.353557021331</v>
+        <v>1995.535002533627</v>
       </c>
       <c r="D72" t="n">
-        <v>-5.655683634077675</v>
+        <v>-2.216720190566923</v>
       </c>
     </row>
     <row r="73">
@@ -5665,10 +5729,10 @@
         <v>1134.678551830647</v>
       </c>
       <c r="C73" t="n">
-        <v>1062.821425215993</v>
+        <v>1104.760404343262</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.332817915586922</v>
+        <v>-2.636706883999574</v>
       </c>
     </row>
     <row r="74">
@@ -5681,10 +5745,10 @@
         <v>4263.535655062377</v>
       </c>
       <c r="C74" t="n">
-        <v>4050.322568475809</v>
+        <v>4185.854754542409</v>
       </c>
       <c r="D74" t="n">
-        <v>-5.000851495950476</v>
+        <v>-1.821983133358642</v>
       </c>
     </row>
     <row r="75">
@@ -5697,10 +5761,10 @@
         <v>2782.808024353337</v>
       </c>
       <c r="C75" t="n">
-        <v>2672.663665529332</v>
+        <v>2742.747280408529</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.958029366743689</v>
+        <v>-1.439579863009679</v>
       </c>
     </row>
     <row r="76">
@@ -5713,10 +5777,10 @@
         <v>316.9983391350282</v>
       </c>
       <c r="C76" t="n">
-        <v>302.6906387129591</v>
+        <v>311.8842427281102</v>
       </c>
       <c r="D76" t="n">
-        <v>-4.513493812336524</v>
+        <v>-1.613288076168613</v>
       </c>
     </row>
     <row r="77">
@@ -5729,10 +5793,10 @@
         <v>14455.75492983291</v>
       </c>
       <c r="C77" t="n">
-        <v>14200.38061751371</v>
+        <v>14422.24023992678</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.76659270690991</v>
+        <v>-0.2318432352292001</v>
       </c>
     </row>
     <row r="78">
@@ -5745,10 +5809,10 @@
         <v>206.9246343398124</v>
       </c>
       <c r="C78" t="n">
-        <v>198.8239761505522</v>
+        <v>203.7473545541942</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.91478676045755</v>
+        <v>-1.535476815389938</v>
       </c>
     </row>
     <row r="79">
@@ -5761,10 +5825,10 @@
         <v>130.9767888995716</v>
       </c>
       <c r="C79" t="n">
-        <v>123.0586243130742</v>
+        <v>127.4831436041449</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.045471608384572</v>
+        <v>-2.667377422197711</v>
       </c>
     </row>
     <row r="80">
@@ -5777,10 +5841,10 @@
         <v>912.0891916591041</v>
       </c>
       <c r="C80" t="n">
-        <v>870.0282018942406</v>
+        <v>895.8363330688593</v>
       </c>
       <c r="D80" t="n">
-        <v>-4.611499637261782</v>
+        <v>-1.781937417839657</v>
       </c>
     </row>
     <row r="81">
@@ -5793,10 +5857,10 @@
         <v>338.63275475275</v>
       </c>
       <c r="C81" t="n">
-        <v>324.8585697507888</v>
+        <v>334.5998713327043</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.067587913052964</v>
+        <v>-1.190931285719924</v>
       </c>
     </row>
     <row r="82">
@@ -5809,10 +5873,10 @@
         <v>36797.3558384009</v>
       </c>
       <c r="C82" t="n">
-        <v>34547.42324738133</v>
+        <v>35794.54767332649</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.114386590439713</v>
+        <v>-2.725218000658346</v>
       </c>
     </row>
     <row r="83">
@@ -5825,10 +5889,10 @@
         <v>5431.789807406018</v>
       </c>
       <c r="C83" t="n">
-        <v>4648.451019503372</v>
+        <v>5156.272348251069</v>
       </c>
       <c r="D83" t="n">
-        <v>-14.42137519450028</v>
+        <v>-5.072314447427476</v>
       </c>
     </row>
     <row r="84">
@@ -5841,10 +5905,10 @@
         <v>1083840.331624043</v>
       </c>
       <c r="C84" t="n">
-        <v>1021811.841375425</v>
+        <v>1060174.589893585</v>
       </c>
       <c r="D84" t="n">
-        <v>-5.723028423907583</v>
+        <v>-2.183508127529888</v>
       </c>
     </row>
     <row r="85">
@@ -5857,10 +5921,10 @@
         <v>36567.36673926556</v>
       </c>
       <c r="C85" t="n">
-        <v>34645.28895523309</v>
+        <v>35790.76789491264</v>
       </c>
       <c r="D85" t="n">
-        <v>-5.256265231613114</v>
+        <v>-2.123748340672884</v>
       </c>
     </row>
     <row r="86">
@@ -5873,10 +5937,10 @@
         <v>176115.7238993268</v>
       </c>
       <c r="C86" t="n">
-        <v>169180.8386952984</v>
+        <v>172755.9474477771</v>
       </c>
       <c r="D86" t="n">
-        <v>-3.937686567948157</v>
+        <v>-1.90770953164313</v>
       </c>
     </row>
     <row r="87">
@@ -5889,10 +5953,10 @@
         <v>629355.3653459012</v>
       </c>
       <c r="C87" t="n">
-        <v>598827.2535388174</v>
+        <v>617224.3283083661</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.850695408039496</v>
+        <v>-1.927533744130034</v>
       </c>
     </row>
     <row r="88">
@@ -5905,10 +5969,10 @@
         <v>50782.20817613851</v>
       </c>
       <c r="C88" t="n">
-        <v>47910.12713929738</v>
+        <v>49656.50871428232</v>
       </c>
       <c r="D88" t="n">
-        <v>-5.655683634077699</v>
+        <v>-2.216720190566934</v>
       </c>
     </row>
     <row r="89">
@@ -5921,10 +5985,10 @@
         <v>180339.3673151789</v>
       </c>
       <c r="C89" t="n">
-        <v>168918.803552987</v>
+        <v>175584.3468026182</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.332817915586995</v>
+        <v>-2.636706883999663</v>
       </c>
     </row>
     <row r="90">
@@ -5937,10 +6001,10 @@
         <v>40468.48989345161</v>
       </c>
       <c r="C90" t="n">
-        <v>38444.72081122637</v>
+        <v>39731.16083326798</v>
       </c>
       <c r="D90" t="n">
-        <v>-5.000851495950473</v>
+        <v>-1.82198313335864</v>
       </c>
     </row>
     <row r="91">
@@ -5953,10 +6017,10 @@
         <v>79355.15029333404</v>
       </c>
       <c r="C91" t="n">
-        <v>76214.2501407003</v>
+        <v>78212.76952945015</v>
       </c>
       <c r="D91" t="n">
-        <v>-3.958029366743671</v>
+        <v>-1.439579863009665</v>
       </c>
     </row>
     <row r="92">
@@ -5969,10 +6033,10 @@
         <v>45911.62510533771</v>
       </c>
       <c r="C92" t="n">
-        <v>43839.40674706515</v>
+        <v>45170.93833193807</v>
       </c>
       <c r="D92" t="n">
-        <v>-4.513493812336531</v>
+        <v>-1.613288076168595</v>
       </c>
     </row>
     <row r="93">
@@ -5985,10 +6049,10 @@
         <v>104995.5931434584</v>
       </c>
       <c r="C93" t="n">
-        <v>103140.7486524093</v>
+        <v>104752.1679634666</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.766592706909869</v>
+        <v>-0.2318432352291619</v>
       </c>
     </row>
     <row r="94">
@@ -6001,10 +6065,10 @@
         <v>43593.4829173751</v>
       </c>
       <c r="C94" t="n">
-        <v>41886.89101970337</v>
+        <v>42924.11509415783</v>
       </c>
       <c r="D94" t="n">
-        <v>-3.914786760457562</v>
+        <v>-1.535476815389938</v>
       </c>
     </row>
     <row r="95">
@@ -6017,10 +6081,10 @@
         <v>24589.96981740024</v>
       </c>
       <c r="C95" t="n">
-        <v>23103.39017357898</v>
+        <v>23934.06251436568</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.045471608384543</v>
+        <v>-2.667377422197676</v>
       </c>
     </row>
     <row r="96">
@@ -6033,10 +6097,10 @@
         <v>22665.76219802206</v>
       </c>
       <c r="C96" t="n">
-        <v>21620.53065647765</v>
+        <v>22261.87250037695</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.611499637261802</v>
+        <v>-1.781937417839669</v>
       </c>
     </row>
     <row r="97">
@@ -6049,10 +6113,10 @@
         <v>40428.24116361269</v>
       </c>
       <c r="C97" t="n">
-        <v>38783.78691258168</v>
+        <v>39946.76859132892</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.067587913052964</v>
+        <v>-1.190931285719934</v>
       </c>
     </row>
     <row r="98">
@@ -6065,10 +6129,10 @@
         <v>17531.40922853843</v>
       </c>
       <c r="C98" t="n">
-        <v>16459.47109355357</v>
+        <v>17053.64010847322</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.114386590439706</v>
+        <v>-2.725218000658348</v>
       </c>
     </row>
     <row r="99">
@@ -6081,10 +6145,10 @@
         <v>3349.304543958308</v>
       </c>
       <c r="C99" t="n">
-        <v>2866.288769267634</v>
+        <v>3179.417285686766</v>
       </c>
       <c r="D99" t="n">
-        <v>-14.42137519450028</v>
+        <v>-5.072314447427474</v>
       </c>
     </row>
     <row r="100">
@@ -6097,10 +6161,10 @@
         <v>195974.6734952563</v>
       </c>
       <c r="C100" t="n">
-        <v>184758.9872274627</v>
+        <v>191695.5505715871</v>
       </c>
       <c r="D100" t="n">
-        <v>-5.723028423907606</v>
+        <v>-2.183508127529934</v>
       </c>
     </row>
     <row r="101">
@@ -6113,10 +6177,10 @@
         <v>2724.247464785552</v>
       </c>
       <c r="C101" t="n">
-        <v>2581.053792470927</v>
+        <v>2666.391304456345</v>
       </c>
       <c r="D101" t="n">
-        <v>-5.256265231613127</v>
+        <v>-2.123748340672923</v>
       </c>
     </row>
     <row r="102">
@@ -6129,10 +6193,10 @@
         <v>18679.52557679249</v>
       </c>
       <c r="C102" t="n">
-        <v>17943.9844071987</v>
+        <v>18323.17448689832</v>
       </c>
       <c r="D102" t="n">
-        <v>-3.937686567948117</v>
+        <v>-1.907709531643067</v>
       </c>
     </row>
     <row r="103">
@@ -6145,10 +6209,10 @@
         <v>118620.5156491477</v>
       </c>
       <c r="C103" t="n">
-        <v>112866.5957435618</v>
+        <v>116334.0651825494</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.850695408039448</v>
+        <v>-1.927533744129997</v>
       </c>
     </row>
     <row r="104">
@@ -6161,10 +6225,10 @@
         <v>273817.9512093465</v>
       </c>
       <c r="C104" t="n">
-        <v>258331.6741556326</v>
+        <v>267748.1733994922</v>
       </c>
       <c r="D104" t="n">
-        <v>-5.655683634077684</v>
+        <v>-2.216720190566936</v>
       </c>
     </row>
     <row r="105">
@@ -6177,10 +6241,10 @@
         <v>9177.580968609169</v>
       </c>
       <c r="C105" t="n">
-        <v>8596.381476811588</v>
+        <v>8935.595059425212</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.33281791558696</v>
+        <v>-2.636706883999622</v>
       </c>
     </row>
     <row r="106">
@@ -6193,10 +6257,10 @@
         <v>33246.43879831057</v>
       </c>
       <c r="C106" t="n">
-        <v>31583.833766315</v>
+        <v>32640.69429096295</v>
       </c>
       <c r="D106" t="n">
-        <v>-5.00085149595046</v>
+        <v>-1.821983133358633</v>
       </c>
     </row>
     <row r="107">
@@ -6209,10 +6273,10 @@
         <v>5642.141361711995</v>
       </c>
       <c r="C107" t="n">
-        <v>5418.823749702243</v>
+        <v>5560.91823082625</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.958029366743677</v>
+        <v>-1.439579863009668</v>
       </c>
     </row>
     <row r="108">
@@ -6225,10 +6289,10 @@
         <v>14363.30388731421</v>
       </c>
       <c r="C108" t="n">
-        <v>13715.01705511319</v>
+        <v>14131.58241835631</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.513493812336535</v>
+        <v>-1.613288076168601</v>
       </c>
     </row>
     <row r="109">
@@ -6241,10 +6305,10 @@
         <v>25390.47786541112</v>
       </c>
       <c r="C109" t="n">
-        <v>24941.93153519119</v>
+        <v>25331.6117600878</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.766592706909938</v>
+        <v>-0.2318432352292129</v>
       </c>
     </row>
     <row r="110">
@@ -6257,10 +6321,10 @@
         <v>22661.60505308602</v>
       </c>
       <c r="C110" t="n">
-        <v>21774.45153876063</v>
+        <v>22313.64136150065</v>
       </c>
       <c r="D110" t="n">
-        <v>-3.914786760457561</v>
+        <v>-1.535476815389951</v>
       </c>
     </row>
     <row r="111">
@@ -6273,10 +6337,10 @@
         <v>4451.960926071457</v>
       </c>
       <c r="C111" t="n">
-        <v>4182.818892269433</v>
+        <v>4333.210325484364</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.045471608384562</v>
+        <v>-2.66737742219768</v>
       </c>
     </row>
     <row r="112">
@@ -6289,10 +6353,10 @@
         <v>1068.949165803444</v>
       </c>
       <c r="C112" t="n">
-        <v>1019.654578899906</v>
+        <v>1049.901160640308</v>
       </c>
       <c r="D112" t="n">
-        <v>-4.611499637261748</v>
+        <v>-1.78193741783961</v>
       </c>
     </row>
     <row r="113">
@@ -6305,10 +6369,10 @@
         <v>887.9321545985744</v>
       </c>
       <c r="C113" t="n">
-        <v>851.814733602012</v>
+        <v>877.3574927734927</v>
       </c>
       <c r="D113" t="n">
-        <v>-4.067587913052964</v>
+        <v>-1.190931285719949</v>
       </c>
     </row>
     <row r="114">
@@ -6321,10 +6385,10 @@
         <v>190.5485593842953</v>
       </c>
       <c r="C114" t="n">
-        <v>178.8976838210259</v>
+        <v>185.3556957439593</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.114386590439685</v>
+        <v>-2.725218000658338</v>
       </c>
     </row>
     <row r="115">
@@ -6337,10 +6401,10 @@
         <v>31.68824515194521</v>
       </c>
       <c r="C115" t="n">
-        <v>27.11836442603014</v>
+        <v>30.08091771496685</v>
       </c>
       <c r="D115" t="n">
-        <v>-14.42137519450029</v>
+        <v>-5.072314447427504</v>
       </c>
     </row>
     <row r="116">
@@ -6353,10 +6417,10 @@
         <v>4123.192252520734</v>
       </c>
       <c r="C116" t="n">
-        <v>3887.220787936617</v>
+        <v>4033.162014573261</v>
       </c>
       <c r="D116" t="n">
-        <v>-5.72302842390758</v>
+        <v>-2.183508127529888</v>
       </c>
     </row>
     <row r="117">
@@ -6369,10 +6433,10 @@
         <v>170.525831571405</v>
       </c>
       <c r="C117" t="n">
-        <v>161.5625415755981</v>
+        <v>166.9042920529886</v>
       </c>
       <c r="D117" t="n">
-        <v>-5.256265231613141</v>
+        <v>-2.123748340672929</v>
       </c>
     </row>
     <row r="118">
@@ -6385,10 +6449,10 @@
         <v>657.5077035740391</v>
       </c>
       <c r="C118" t="n">
-        <v>631.6171110471798</v>
+        <v>644.9643664416694</v>
       </c>
       <c r="D118" t="n">
-        <v>-3.937686567948142</v>
+        <v>-1.907709531643104</v>
       </c>
     </row>
     <row r="119">
@@ -6401,10 +6465,10 @@
         <v>2161.22177472801</v>
       </c>
       <c r="C119" t="n">
-        <v>2056.387489343729</v>
+        <v>2119.563495734641</v>
       </c>
       <c r="D119" t="n">
-        <v>-4.850695408039481</v>
+        <v>-1.927533744130046</v>
       </c>
     </row>
     <row r="120">
@@ -6417,10 +6481,10 @@
         <v>1554.140067831092</v>
       </c>
       <c r="C120" t="n">
-        <v>1466.242822364126</v>
+        <v>1519.68913115779</v>
       </c>
       <c r="D120" t="n">
-        <v>-5.655683634077647</v>
+        <v>-2.216720190566894</v>
       </c>
     </row>
     <row r="121">
@@ -6433,10 +6497,10 @@
         <v>129651.1464599214</v>
       </c>
       <c r="C121" t="n">
-        <v>121440.5754291436</v>
+        <v>126232.6257560282</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.33281791558696</v>
+        <v>-2.636706883999614</v>
       </c>
     </row>
     <row r="122">
@@ -6449,10 +6513,10 @@
         <v>863.7331225685518</v>
       </c>
       <c r="C122" t="n">
-        <v>820.5391117875627</v>
+        <v>847.9960507581209</v>
       </c>
       <c r="D122" t="n">
-        <v>-5.000851495950475</v>
+        <v>-1.821983133358644</v>
       </c>
     </row>
     <row r="123">
@@ -6465,10 +6529,10 @@
         <v>3906.237028514126</v>
       </c>
       <c r="C123" t="n">
-        <v>3751.627019790921</v>
+        <v>3850.003626850209</v>
       </c>
       <c r="D123" t="n">
-        <v>-3.958029366743692</v>
+        <v>-1.439579863009679</v>
       </c>
     </row>
     <row r="124">
@@ -6481,10 +6545,10 @@
         <v>233.7506847980509</v>
       </c>
       <c r="C124" t="n">
-        <v>223.2003621033966</v>
+        <v>229.9796128722415</v>
       </c>
       <c r="D124" t="n">
-        <v>-4.513493812336538</v>
+        <v>-1.61328807616862</v>
       </c>
     </row>
     <row r="125">
@@ -6497,10 +6561,10 @@
         <v>2384.908631432158</v>
       </c>
       <c r="C125" t="n">
-        <v>2342.777009482812</v>
+        <v>2379.379382103785</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.766592706909915</v>
+        <v>-0.2318432352292008</v>
       </c>
     </row>
     <row r="126">
@@ -6513,10 +6577,10 @@
         <v>14131.62372138642</v>
       </c>
       <c r="C126" t="n">
-        <v>13578.40078690391</v>
+        <v>13914.63591550639</v>
       </c>
       <c r="D126" t="n">
-        <v>-3.914786760457559</v>
+        <v>-1.535476815389951</v>
       </c>
     </row>
     <row r="127">
@@ -6529,10 +6593,10 @@
         <v>141.2260852838927</v>
       </c>
       <c r="C127" t="n">
-        <v>132.688302394422</v>
+        <v>137.4590525707765</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.045471608384575</v>
+        <v>-2.66737742219769</v>
       </c>
     </row>
     <row r="128">
@@ -6545,10 +6609,10 @@
         <v>454.224649948026</v>
       </c>
       <c r="C128" t="n">
-        <v>433.2780818633192</v>
+        <v>446.130650949551</v>
       </c>
       <c r="D128" t="n">
-        <v>-4.611499637261783</v>
+        <v>-1.781937417839653</v>
       </c>
     </row>
     <row r="129">
@@ -6561,10 +6625,10 @@
         <v>2015.03857679833</v>
       </c>
       <c r="C129" t="n">
-        <v>1933.075111205126</v>
+        <v>1991.040851967913</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.067587913052979</v>
+        <v>-1.190931285719941</v>
       </c>
     </row>
     <row r="130">
@@ -6577,10 +6641,10 @@
         <v>10089.9896440092</v>
       </c>
       <c r="C130" t="n">
-        <v>9473.04867023915</v>
+        <v>9815.015429966101</v>
       </c>
       <c r="D130" t="n">
-        <v>-6.114386590439669</v>
+        <v>-2.725218000658319</v>
       </c>
     </row>
     <row r="131">
@@ -6593,10 +6657,10 @@
         <v>1033.763083661777</v>
       </c>
       <c r="C131" t="n">
-        <v>884.6802307446762</v>
+        <v>981.3273694170288</v>
       </c>
       <c r="D131" t="n">
-        <v>-14.42137519450029</v>
+        <v>-5.072314447427494</v>
       </c>
     </row>
     <row r="132">
@@ -6609,10 +6673,10 @@
         <v>87400.57085120806</v>
       </c>
       <c r="C132" t="n">
-        <v>82398.61133873594</v>
+        <v>85492.1722831644</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.723028423907584</v>
+        <v>-2.183508127529904</v>
       </c>
     </row>
     <row r="133">
@@ -6625,10 +6689,10 @@
         <v>6409.948712335483</v>
       </c>
       <c r="C133" t="n">
-        <v>6073.02480680476</v>
+        <v>6273.817532919275</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.256265231613115</v>
+        <v>-2.123748340672881</v>
       </c>
     </row>
     <row r="134">
@@ -6641,10 +6705,10 @@
         <v>16821.84852122067</v>
       </c>
       <c r="C134" t="n">
-        <v>16159.45685151998</v>
+        <v>16500.93651358278</v>
       </c>
       <c r="D134" t="n">
-        <v>-3.937686567948155</v>
+        <v>-1.907709531643115</v>
       </c>
     </row>
     <row r="135">
@@ -6657,10 +6721,10 @@
         <v>33324.55059423266</v>
       </c>
       <c r="C135" t="n">
-        <v>31708.07814880842</v>
+        <v>32682.20863644914</v>
       </c>
       <c r="D135" t="n">
-        <v>-4.850695408039485</v>
+        <v>-1.927533744130042</v>
       </c>
     </row>
     <row r="136">
@@ -6673,10 +6737,10 @@
         <v>16030.92241827518</v>
       </c>
       <c r="C136" t="n">
-        <v>15124.2641626731</v>
+        <v>15675.56172429515</v>
       </c>
       <c r="D136" t="n">
-        <v>-5.655683634077698</v>
+        <v>-2.216720190566954</v>
       </c>
     </row>
     <row r="137">
@@ -6689,10 +6753,10 @@
         <v>8767.879875138795</v>
       </c>
       <c r="C137" t="n">
-        <v>8212.626007588862</v>
+        <v>8536.696582890194</v>
       </c>
       <c r="D137" t="n">
-        <v>-6.332817915586954</v>
+        <v>-2.63670688399961</v>
       </c>
     </row>
     <row r="138">
@@ -6705,10 +6769,10 @@
         <v>52028.20605016277</v>
       </c>
       <c r="C138" t="n">
-        <v>49426.35272958702</v>
+        <v>51080.26091133973</v>
       </c>
       <c r="D138" t="n">
-        <v>-5.000851495950466</v>
+        <v>-1.821983133358639</v>
       </c>
     </row>
     <row r="139">
@@ -6721,10 +6785,10 @@
         <v>35141.4421327932</v>
       </c>
       <c r="C139" t="n">
-        <v>33750.53353328001</v>
+        <v>34635.55300827832</v>
       </c>
       <c r="D139" t="n">
-        <v>-3.958029366743676</v>
+        <v>-1.439579863009663</v>
       </c>
     </row>
     <row r="140">
@@ -6737,10 +6801,10 @@
         <v>22237.90806269026</v>
       </c>
       <c r="C140" t="n">
-        <v>21234.20145828765</v>
+        <v>21879.14654352554</v>
       </c>
       <c r="D140" t="n">
-        <v>-4.513493812336543</v>
+        <v>-1.613288076168611</v>
       </c>
     </row>
     <row r="141">
@@ -6753,10 +6817,10 @@
         <v>23949.54476326111</v>
       </c>
       <c r="C141" t="n">
-        <v>23526.45385213521</v>
+        <v>23894.0193638593</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.766592706909941</v>
+        <v>-0.2318432352292127</v>
       </c>
     </row>
     <row r="142">
@@ -6769,10 +6833,10 @@
         <v>37082.79537782534</v>
       </c>
       <c r="C142" t="n">
-        <v>35631.08301396667</v>
+        <v>36513.39765230034</v>
       </c>
       <c r="D142" t="n">
-        <v>-3.91478676045755</v>
+        <v>-1.535476815389937</v>
       </c>
     </row>
     <row r="143">
@@ -6785,10 +6849,10 @@
         <v>4070.394710307927</v>
       </c>
       <c r="C143" t="n">
-        <v>3824.320153747075</v>
+        <v>3961.821920810844</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.045471608384559</v>
+        <v>-2.667377422197692</v>
       </c>
     </row>
     <row r="144">
@@ -6801,10 +6865,10 @@
         <v>4276.69932878695</v>
       </c>
       <c r="C144" t="n">
-        <v>4079.479354753162</v>
+        <v>4200.491223198797</v>
       </c>
       <c r="D144" t="n">
-        <v>-4.611499637261795</v>
+        <v>-1.781937417839669</v>
       </c>
     </row>
     <row r="145">
@@ -6817,10 +6881,10 @@
         <v>4302.918261308165</v>
       </c>
       <c r="C145" t="n">
-        <v>4127.893278202646</v>
+        <v>4251.67346153529</v>
       </c>
       <c r="D145" t="n">
-        <v>-4.067587913052947</v>
+        <v>-1.190931285719931</v>
       </c>
     </row>
     <row r="146">
@@ -6833,10 +6897,10 @@
         <v>29965.6972786291</v>
       </c>
       <c r="C146" t="n">
-        <v>28133.47870249285</v>
+        <v>29149.06670236912</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.114386590439702</v>
+        <v>-2.725218000658332</v>
       </c>
     </row>
     <row r="147">
@@ -6849,10 +6913,10 @@
         <v>3375.075360705922</v>
       </c>
       <c r="C147" t="n">
-        <v>2888.343079841387</v>
+        <v>3203.88092557327</v>
       </c>
       <c r="D147" t="n">
-        <v>-14.42137519450027</v>
+        <v>-5.072314447427477</v>
       </c>
     </row>
     <row r="148">
@@ -6865,10 +6929,10 @@
         <v>280657.780433469</v>
       </c>
       <c r="C148" t="n">
-        <v>264595.6558853535</v>
+        <v>274529.5949871592</v>
       </c>
       <c r="D148" t="n">
-        <v>-5.723028423907572</v>
+        <v>-2.183508127529894</v>
       </c>
     </row>
     <row r="149">
@@ -6881,10 +6945,10 @@
         <v>31702.75958278121</v>
       </c>
       <c r="C149" t="n">
-        <v>30036.37845336959</v>
+        <v>31029.47275219438</v>
       </c>
       <c r="D149" t="n">
-        <v>-5.256265231613115</v>
+        <v>-2.123748340672893</v>
       </c>
     </row>
     <row r="150">
@@ -6897,10 +6961,10 @@
         <v>87687.13267621709</v>
       </c>
       <c r="C150" t="n">
-        <v>84234.28823100684</v>
+        <v>86014.31688812838</v>
       </c>
       <c r="D150" t="n">
-        <v>-3.93768656794813</v>
+        <v>-1.907709531643089</v>
       </c>
     </row>
     <row r="151">
@@ -6913,10 +6977,10 @@
         <v>108470.3227140286</v>
       </c>
       <c r="C151" t="n">
-        <v>103208.7577510536</v>
+        <v>106379.520641349</v>
       </c>
       <c r="D151" t="n">
-        <v>-4.850695408039486</v>
+        <v>-1.92753374413004</v>
       </c>
     </row>
     <row r="152">
@@ -6929,10 +6993,10 @@
         <v>54041.78996625963</v>
       </c>
       <c r="C152" t="n">
-        <v>50985.35729557525</v>
+        <v>52843.83469673379</v>
       </c>
       <c r="D152" t="n">
-        <v>-5.655683634077691</v>
+        <v>-2.216720190566922</v>
       </c>
     </row>
     <row r="153">
@@ -6945,10 +7009,10 @@
         <v>10616.88118288948</v>
       </c>
       <c r="C153" t="n">
-        <v>9944.533429262874</v>
+        <v>10336.94514587417</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.332817915586959</v>
+        <v>-2.636706883999628</v>
       </c>
     </row>
     <row r="154">
@@ -6961,10 +7025,10 @@
         <v>39079.32421015717</v>
       </c>
       <c r="C154" t="n">
-        <v>37125.02524078618</v>
+        <v>38367.30551441757</v>
       </c>
       <c r="D154" t="n">
-        <v>-5.000851495950479</v>
+        <v>-1.821983133358632</v>
       </c>
     </row>
     <row r="155">
@@ -6977,10 +7041,10 @@
         <v>544109.0187771801</v>
       </c>
       <c r="C155" t="n">
-        <v>522573.0240268784</v>
+        <v>536276.1349100444</v>
       </c>
       <c r="D155" t="n">
-        <v>-3.958029366743685</v>
+        <v>-1.43957986300966</v>
       </c>
     </row>
     <row r="156">
@@ -6993,10 +7057,10 @@
         <v>63852.75474085637</v>
       </c>
       <c r="C156" t="n">
-        <v>60970.7646066214</v>
+        <v>62822.62586231695</v>
       </c>
       <c r="D156" t="n">
-        <v>-4.513493812336526</v>
+        <v>-1.613288076168607</v>
       </c>
     </row>
     <row r="157">
@@ -7009,10 +7073,10 @@
         <v>74920.82107145021</v>
       </c>
       <c r="C157" t="n">
-        <v>73597.27531044494</v>
+        <v>74747.12221601786</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.766592706909919</v>
+        <v>-0.2318432352292223</v>
       </c>
     </row>
     <row r="158">
@@ -7025,10 +7089,10 @@
         <v>117868.7463496854</v>
       </c>
       <c r="C158" t="n">
-        <v>113254.4362728706</v>
+        <v>116058.8990768952</v>
       </c>
       <c r="D158" t="n">
-        <v>-3.914786760457558</v>
+        <v>-1.535476815389954</v>
       </c>
     </row>
     <row r="159">
@@ -7041,10 +7105,10 @@
         <v>14279.81208682949</v>
       </c>
       <c r="C159" t="n">
-        <v>13416.53010138954</v>
+        <v>13898.91560329314</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.045471608384589</v>
+        <v>-2.66737742219771</v>
       </c>
     </row>
     <row r="160">
@@ -7057,10 +7121,10 @@
         <v>15635.81331660888</v>
       </c>
       <c r="C160" t="n">
-        <v>14914.76784223053</v>
+        <v>15357.19290853667</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.611499637261796</v>
+        <v>-1.781937417839678</v>
       </c>
     </row>
     <row r="161">
@@ -7073,10 +7137,10 @@
         <v>10995.11004725444</v>
       </c>
       <c r="C161" t="n">
-        <v>10547.87427994545</v>
+        <v>10864.16584180235</v>
       </c>
       <c r="D161" t="n">
-        <v>-4.067587913052964</v>
+        <v>-1.19093128571994</v>
       </c>
     </row>
     <row r="162">
@@ -7089,10 +7153,10 @@
         <v>9387.562623335931</v>
       </c>
       <c r="C162" t="n">
-        <v>8813.570753125548</v>
+        <v>9131.731076901706</v>
       </c>
       <c r="D162" t="n">
-        <v>-6.114386590439709</v>
+        <v>-2.725218000658339</v>
       </c>
     </row>
     <row r="163">
@@ -7105,10 +7169,10 @@
         <v>4251.761191120128</v>
       </c>
       <c r="C163" t="n">
-        <v>3638.598757374541</v>
+        <v>4036.098493952827</v>
       </c>
       <c r="D163" t="n">
-        <v>-14.42137519450028</v>
+        <v>-5.072314447427487</v>
       </c>
     </row>
     <row r="164">
@@ -7121,10 +7185,10 @@
         <v>131850.0203817157</v>
       </c>
       <c r="C164" t="n">
-        <v>124304.2062383422</v>
+        <v>128971.0644705311</v>
       </c>
       <c r="D164" t="n">
-        <v>-5.723028423907581</v>
+        <v>-2.183508127529897</v>
       </c>
     </row>
     <row r="165">
@@ -7137,10 +7201,10 @@
         <v>7026.402470984634</v>
       </c>
       <c r="C165" t="n">
-        <v>6657.076120869065</v>
+        <v>6877.179365098099</v>
       </c>
       <c r="D165" t="n">
-        <v>-5.25626523161311</v>
+        <v>-2.123748340672895</v>
       </c>
     </row>
     <row r="166">
@@ -7153,10 +7217,10 @@
         <v>2414.365692738618</v>
       </c>
       <c r="C166" t="n">
-        <v>2319.295539154502</v>
+        <v>2368.306608289523</v>
       </c>
       <c r="D166" t="n">
-        <v>-3.937686567948126</v>
+        <v>-1.907709531643069</v>
       </c>
     </row>
     <row r="167">
@@ -7169,10 +7233,10 @@
         <v>212606.6136742881</v>
       </c>
       <c r="C167" t="n">
-        <v>202293.7144276011</v>
+        <v>208508.549453464</v>
       </c>
       <c r="D167" t="n">
-        <v>-4.850695408039491</v>
+        <v>-1.927533744130044</v>
       </c>
     </row>
     <row r="168">
@@ -7185,10 +7249,10 @@
         <v>36242.20451189306</v>
       </c>
       <c r="C168" t="n">
-        <v>34192.46008268496</v>
+        <v>35438.81624697137</v>
       </c>
       <c r="D168" t="n">
-        <v>-5.655683634077679</v>
+        <v>-2.216720190566924</v>
       </c>
     </row>
     <row r="169">
@@ -7201,10 +7265,10 @@
         <v>23664.4564037997</v>
       </c>
       <c r="C169" t="n">
-        <v>22165.82946903361</v>
+        <v>23040.49405273962</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.332817915586959</v>
+        <v>-2.636706883999636</v>
       </c>
     </row>
     <row r="170">
@@ -7217,10 +7281,10 @@
         <v>82034.16324574809</v>
       </c>
       <c r="C170" t="n">
-        <v>77931.75656588265</v>
+        <v>80539.51462781869</v>
       </c>
       <c r="D170" t="n">
-        <v>-5.000851495950464</v>
+        <v>-1.821983133358613</v>
       </c>
     </row>
     <row r="171">
@@ -7233,10 +7297,10 @@
         <v>148991.1948680506</v>
       </c>
       <c r="C171" t="n">
-        <v>143094.0796213109</v>
+        <v>146846.3476290727</v>
       </c>
       <c r="D171" t="n">
-        <v>-3.958029366743652</v>
+        <v>-1.439579863009657</v>
       </c>
     </row>
     <row r="172">
@@ -7249,10 +7313,10 @@
         <v>63319.5053283951</v>
       </c>
       <c r="C172" t="n">
-        <v>60461.58337339589</v>
+        <v>62297.97929904315</v>
       </c>
       <c r="D172" t="n">
-        <v>-4.51349381233653</v>
+        <v>-1.61328807616861</v>
       </c>
     </row>
     <row r="173">
@@ -7265,10 +7329,10 @@
         <v>109936.0050247709</v>
       </c>
       <c r="C173" t="n">
-        <v>107993.8835777352</v>
+        <v>109681.1258340397</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.766592706909904</v>
+        <v>-0.2318432352291896</v>
       </c>
     </row>
     <row r="174">
@@ -7281,10 +7345,10 @@
         <v>9056.529986120127</v>
       </c>
       <c r="C174" t="n">
-        <v>8701.98614926663</v>
+        <v>8917.469067904414</v>
       </c>
       <c r="D174" t="n">
-        <v>-3.91478676045754</v>
+        <v>-1.53547681538995</v>
       </c>
     </row>
     <row r="175">
@@ -7297,10 +7361,10 @@
         <v>20009.95200306803</v>
       </c>
       <c r="C175" t="n">
-        <v>18800.25603587117</v>
+        <v>19476.2110611456</v>
       </c>
       <c r="D175" t="n">
-        <v>-6.045471608384555</v>
+        <v>-2.667377422197673</v>
       </c>
     </row>
     <row r="176">
@@ -7313,10 +7377,10 @@
         <v>16409.31651151967</v>
       </c>
       <c r="C176" t="n">
-        <v>15652.6009401138</v>
+        <v>16116.91276058916</v>
       </c>
       <c r="D176" t="n">
-        <v>-4.611499637261809</v>
+        <v>-1.781937417839683</v>
       </c>
     </row>
     <row r="177">
@@ -7329,10 +7393,10 @@
         <v>16860.76859074634</v>
       </c>
       <c r="C177" t="n">
-        <v>16174.94200550131</v>
+        <v>16659.9684225863</v>
       </c>
       <c r="D177" t="n">
-        <v>-4.067587913052958</v>
+        <v>-1.190931285719923</v>
       </c>
     </row>
     <row r="178">
@@ -7345,10 +7409,10 @@
         <v>7671.725655247233</v>
       </c>
       <c r="C178" t="n">
-        <v>7202.646690527473</v>
+        <v>7462.65440672931</v>
       </c>
       <c r="D178" t="n">
-        <v>-6.114386590439711</v>
+        <v>-2.725218000658357</v>
       </c>
     </row>
     <row r="179">
@@ -7361,10 +7425,10 @@
         <v>1198.499581918997</v>
       </c>
       <c r="C179" t="n">
-        <v>1025.659460505941</v>
+        <v>1137.707914472962</v>
       </c>
       <c r="D179" t="n">
-        <v>-14.42137519450026</v>
+        <v>-5.072314447427464</v>
       </c>
     </row>
     <row r="180">
@@ -7377,10 +7441,10 @@
         <v>93942.00139192962</v>
       </c>
       <c r="C180" t="n">
-        <v>88565.67395028182</v>
+        <v>91890.7701563726</v>
       </c>
       <c r="D180" t="n">
-        <v>-5.723028423907588</v>
+        <v>-2.183508127529882</v>
       </c>
     </row>
     <row r="181">
@@ -7393,10 +7457,10 @@
         <v>13290.59523430951</v>
       </c>
       <c r="C181" t="n">
-        <v>12592.00629793407</v>
+        <v>13008.33643855531</v>
       </c>
       <c r="D181" t="n">
-        <v>-5.256265231613095</v>
+        <v>-2.123748340672875</v>
       </c>
     </row>
     <row r="182">
@@ -7409,10 +7473,10 @@
         <v>54723.08811872249</v>
       </c>
       <c r="C182" t="n">
-        <v>52568.26442830513</v>
+        <v>53679.13055067216</v>
       </c>
       <c r="D182" t="n">
-        <v>-3.937686567948142</v>
+        <v>-1.907709531643107</v>
       </c>
     </row>
     <row r="183">
@@ -7425,10 +7489,10 @@
         <v>41335.30632651814</v>
       </c>
       <c r="C183" t="n">
-        <v>39330.25652063867</v>
+        <v>40538.55434883499</v>
       </c>
       <c r="D183" t="n">
-        <v>-4.850695408039482</v>
+        <v>-1.927533744130034</v>
       </c>
     </row>
     <row r="184">
@@ -7441,10 +7505,10 @@
         <v>131563.2974169935</v>
       </c>
       <c r="C184" t="n">
-        <v>124122.4935365277</v>
+        <v>128646.9072397754</v>
       </c>
       <c r="D184" t="n">
-        <v>-5.655683634077656</v>
+        <v>-2.216720190566917</v>
       </c>
     </row>
     <row r="185">
@@ -7457,10 +7521,10 @@
         <v>41427.66918069134</v>
       </c>
       <c r="C185" t="n">
-        <v>38804.13032480642</v>
+        <v>40335.34297552346</v>
       </c>
       <c r="D185" t="n">
-        <v>-6.332817915586953</v>
+        <v>-2.636706883999616</v>
       </c>
     </row>
     <row r="186">
@@ -7473,10 +7537,10 @@
         <v>122915.7609529236</v>
       </c>
       <c r="C186" t="n">
-        <v>116768.9262825504</v>
+        <v>120676.2565201219</v>
       </c>
       <c r="D186" t="n">
-        <v>-5.000851495950491</v>
+        <v>-1.821983133358654</v>
       </c>
     </row>
     <row r="187">
@@ -7489,10 +7553,10 @@
         <v>265714.1567284354</v>
       </c>
       <c r="C187" t="n">
-        <v>255197.1123735286</v>
+        <v>261888.9892350069</v>
       </c>
       <c r="D187" t="n">
-        <v>-3.958029366743702</v>
+        <v>-1.439579863009692</v>
       </c>
     </row>
     <row r="188">
@@ -7505,10 +7569,10 @@
         <v>54806.72631406299</v>
       </c>
       <c r="C188" t="n">
-        <v>52333.02811313354</v>
+        <v>53922.53593349986</v>
       </c>
       <c r="D188" t="n">
-        <v>-4.51349381233652</v>
+        <v>-1.613288076168588</v>
       </c>
     </row>
     <row r="189">
@@ -7521,10 +7585,10 @@
         <v>280494.5109468997</v>
       </c>
       <c r="C189" t="n">
-        <v>275539.3153732291</v>
+        <v>279844.2033980801</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.766592706909933</v>
+        <v>-0.2318432352292067</v>
       </c>
     </row>
     <row r="190">
@@ -7537,10 +7601,10 @@
         <v>10593.21682983673</v>
       </c>
       <c r="C190" t="n">
-        <v>10178.51497987572</v>
+        <v>10430.5604414106</v>
       </c>
       <c r="D190" t="n">
-        <v>-3.914786760457568</v>
+        <v>-1.535476815389944</v>
       </c>
     </row>
     <row r="191">
@@ -7553,10 +7617,10 @@
         <v>5684.394091299144</v>
       </c>
       <c r="C191" t="n">
-        <v>5340.745660400965</v>
+        <v>5532.769846719091</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.045471608384554</v>
+        <v>-2.667377422197685</v>
       </c>
     </row>
     <row r="192">
@@ -7569,10 +7633,10 @@
         <v>28859.09469763844</v>
       </c>
       <c r="C192" t="n">
-        <v>27528.2576503398</v>
+        <v>28344.84369077143</v>
       </c>
       <c r="D192" t="n">
-        <v>-4.611499637261811</v>
+        <v>-1.781937417839676</v>
       </c>
     </row>
     <row r="193">
@@ -7585,10 +7649,10 @@
         <v>10795.41906703843</v>
       </c>
       <c r="C193" t="n">
-        <v>10356.30590590416</v>
+        <v>10666.85304394449</v>
       </c>
       <c r="D193" t="n">
-        <v>-4.067587913052977</v>
+        <v>-1.190931285719934</v>
       </c>
     </row>
     <row r="194">
@@ -7601,10 +7665,10 @@
         <v>130.3430781668181</v>
       </c>
       <c r="C194" t="n">
-        <v>122.3733984738199</v>
+        <v>126.7909451380038</v>
       </c>
       <c r="D194" t="n">
-        <v>-6.114386590439663</v>
+        <v>-2.725218000658307</v>
       </c>
     </row>
     <row r="195">
@@ -7617,10 +7681,10 @@
         <v>59.17207945961287</v>
       </c>
       <c r="C195" t="n">
-        <v>50.63865187035427</v>
+        <v>56.17068552433966</v>
       </c>
       <c r="D195" t="n">
-        <v>-14.42137519450027</v>
+        <v>-5.072314447427471</v>
       </c>
     </row>
     <row r="196">
@@ -7633,10 +7697,10 @@
         <v>1833.370805769428</v>
       </c>
       <c r="C196" t="n">
-        <v>1728.44647343962</v>
+        <v>1793.339005217692</v>
       </c>
       <c r="D196" t="n">
-        <v>-5.723028423907582</v>
+        <v>-2.183508127529898</v>
       </c>
     </row>
     <row r="197">
@@ -7649,10 +7713,10 @@
         <v>285.6756973789712</v>
       </c>
       <c r="C197" t="n">
-        <v>270.6598250224721</v>
+        <v>279.6086644961796</v>
       </c>
       <c r="D197" t="n">
-        <v>-5.256265231613104</v>
+        <v>-2.12374834067288</v>
       </c>
     </row>
     <row r="198">
@@ -7665,10 +7729,10 @@
         <v>32.8274165087924</v>
       </c>
       <c r="C198" t="n">
-        <v>31.5347757383213</v>
+        <v>32.201164755062</v>
       </c>
       <c r="D198" t="n">
-        <v>-3.937686567948132</v>
+        <v>-1.907709531643083</v>
       </c>
     </row>
     <row r="199">
@@ -7681,10 +7745,10 @@
         <v>2959.766329414751</v>
       </c>
       <c r="C199" t="n">
-        <v>2816.197079985132</v>
+        <v>2902.715834667883</v>
       </c>
       <c r="D199" t="n">
-        <v>-4.850695408039448</v>
+        <v>-1.927533744130012</v>
       </c>
     </row>
     <row r="200">
@@ -7697,10 +7761,10 @@
         <v>504.2821752044293</v>
       </c>
       <c r="C200" t="n">
-        <v>475.7615707518215</v>
+        <v>493.1036504092427</v>
       </c>
       <c r="D200" t="n">
-        <v>-5.655683634077664</v>
+        <v>-2.216720190566914</v>
       </c>
     </row>
     <row r="201">
@@ -7713,10 +7777,10 @@
         <v>329.3262663006252</v>
       </c>
       <c r="C201" t="n">
-        <v>308.4706335076056</v>
+        <v>320.6428979662577</v>
       </c>
       <c r="D201" t="n">
-        <v>-6.332817915586954</v>
+        <v>-2.636706883999623</v>
       </c>
     </row>
     <row r="202">
@@ -7729,10 +7793,10 @@
         <v>1142.065415761599</v>
       </c>
       <c r="C202" t="n">
-        <v>1084.952420332752</v>
+        <v>1121.257176514501</v>
       </c>
       <c r="D202" t="n">
-        <v>-5.000851495950456</v>
+        <v>-1.821983133358617</v>
       </c>
     </row>
     <row r="203">
@@ -7745,10 +7809,10 @@
         <v>2074.232428719989</v>
       </c>
       <c r="C203" t="n">
-        <v>1992.133700056731</v>
+        <v>2044.372196364119</v>
       </c>
       <c r="D203" t="n">
-        <v>-3.958029366743712</v>
+        <v>-1.439579863009691</v>
       </c>
     </row>
     <row r="204">
@@ -7761,10 +7825,10 @@
         <v>881.4898055408516</v>
       </c>
       <c r="C204" t="n">
-        <v>841.7038177113881</v>
+        <v>867.2688356154193</v>
       </c>
       <c r="D204" t="n">
-        <v>-4.513493812336522</v>
+        <v>-1.613288076168597</v>
       </c>
     </row>
     <row r="205">
@@ -7777,10 +7841,10 @@
         <v>1530.181350854171</v>
       </c>
       <c r="C205" t="n">
-        <v>1503.149278707486</v>
+        <v>1526.633728905477</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.766592706909895</v>
+        <v>-0.2318432352291787</v>
       </c>
     </row>
     <row r="206">
@@ -7793,10 +7857,10 @@
         <v>200553.4450487138</v>
       </c>
       <c r="C206" t="n">
-        <v>192702.2053343052</v>
+        <v>197473.993397525</v>
       </c>
       <c r="D206" t="n">
-        <v>-3.914786760457564</v>
+        <v>-1.535476815389941</v>
       </c>
     </row>
     <row r="207">
@@ -7809,10 +7873,10 @@
         <v>278.5757751426285</v>
       </c>
       <c r="C207" t="n">
-        <v>261.7345557485437</v>
+        <v>271.1451078127619</v>
       </c>
       <c r="D207" t="n">
-        <v>-6.045471608384559</v>
+        <v>-2.66737742219766</v>
       </c>
     </row>
     <row r="208">
@@ -7825,10 +7889,10 @@
         <v>228.4063210516134</v>
       </c>
       <c r="C208" t="n">
-        <v>217.8733643848352</v>
+        <v>224.3362633520837</v>
       </c>
       <c r="D208" t="n">
-        <v>-4.611499637261788</v>
+        <v>-1.78193741783966</v>
       </c>
     </row>
     <row r="209">
@@ -7841,10 +7905,10 @@
         <v>224.8375270473168</v>
       </c>
       <c r="C209" t="n">
-        <v>215.6920629731329</v>
+        <v>222.1598665956712</v>
       </c>
       <c r="D209" t="n">
-        <v>-4.06758791305299</v>
+        <v>-1.19093128571995</v>
       </c>
     </row>
     <row r="210">
@@ -7857,10 +7921,10 @@
         <v>2778.315250756939</v>
       </c>
       <c r="C210" t="n">
-        <v>2608.438315624515</v>
+        <v>2702.600103428274</v>
       </c>
       <c r="D210" t="n">
-        <v>-6.114386590439707</v>
+        <v>-2.725218000658356</v>
       </c>
     </row>
     <row r="211">
@@ -7873,10 +7937,10 @@
         <v>542.7758068847991</v>
       </c>
       <c r="C211" t="n">
-        <v>464.5000713089659</v>
+        <v>515.2445112150403</v>
       </c>
       <c r="D211" t="n">
-        <v>-14.42137519450028</v>
+        <v>-5.072314447427476</v>
       </c>
     </row>
     <row r="212">
@@ -7889,10 +7953,10 @@
         <v>37061.93836946738</v>
       </c>
       <c r="C212" t="n">
-        <v>34940.87310213166</v>
+        <v>36252.68793294994</v>
       </c>
       <c r="D212" t="n">
-        <v>-5.723028423907573</v>
+        <v>-2.18350812752989</v>
       </c>
     </row>
     <row r="213">
@@ -7905,10 +7969,10 @@
         <v>5019.468010577606</v>
       </c>
       <c r="C213" t="n">
-        <v>4755.631458725673</v>
+        <v>4912.867141992358</v>
       </c>
       <c r="D213" t="n">
-        <v>-5.256265231613113</v>
+        <v>-2.123748340672873</v>
       </c>
     </row>
     <row r="214">
@@ -7921,10 +7985,10 @@
         <v>11282.78686576815</v>
       </c>
       <c r="C214" t="n">
-        <v>10838.50608286459</v>
+        <v>11067.54406529492</v>
       </c>
       <c r="D214" t="n">
-        <v>-3.937686567948098</v>
+        <v>-1.907709531643075</v>
       </c>
     </row>
     <row r="215">
@@ -7937,10 +8001,10 @@
         <v>15112.70997075617</v>
       </c>
       <c r="C215" t="n">
-        <v>14379.63844217438</v>
+        <v>14821.40738641734</v>
       </c>
       <c r="D215" t="n">
-        <v>-4.850695408039463</v>
+        <v>-1.927533744130011</v>
       </c>
     </row>
     <row r="216">
@@ -7953,10 +8017,10 @@
         <v>18494.36720134626</v>
       </c>
       <c r="C216" t="n">
-        <v>17448.38430231349</v>
+        <v>18084.39882947643</v>
       </c>
       <c r="D216" t="n">
-        <v>-5.655683634077675</v>
+        <v>-2.21672019056692</v>
       </c>
     </row>
     <row r="217">
@@ -7969,10 +8033,10 @@
         <v>2317.133481337426</v>
       </c>
       <c r="C217" t="n">
-        <v>2170.393637103226</v>
+        <v>2256.037463323541</v>
       </c>
       <c r="D217" t="n">
-        <v>-6.332817915586967</v>
+        <v>-2.636706883999644</v>
       </c>
     </row>
     <row r="218">
@@ -7985,10 +8049,10 @@
         <v>3727.739661860719</v>
       </c>
       <c r="C218" t="n">
-        <v>3541.320937215418</v>
+        <v>3659.820873966097</v>
       </c>
       <c r="D218" t="n">
-        <v>-5.000851495950468</v>
+        <v>-1.821983133358628</v>
       </c>
     </row>
     <row r="219">
@@ -8001,10 +8065,10 @@
         <v>9138.766773565736</v>
       </c>
       <c r="C219" t="n">
-        <v>8777.051700909791</v>
+        <v>9007.206927366065</v>
       </c>
       <c r="D219" t="n">
-        <v>-3.95802936674367</v>
+        <v>-1.439579863009667</v>
       </c>
     </row>
     <row r="220">
@@ -8017,10 +8081,10 @@
         <v>6348.413799460275</v>
       </c>
       <c r="C220" t="n">
-        <v>6061.878535440116</v>
+        <v>6245.99559660774</v>
       </c>
       <c r="D220" t="n">
-        <v>-4.513493812336548</v>
+        <v>-1.613288076168602</v>
       </c>
     </row>
     <row r="221">
@@ -8033,10 +8097,10 @@
         <v>26823.73566237933</v>
       </c>
       <c r="C221" t="n">
-        <v>26349.86950444694</v>
+        <v>26761.54664581034</v>
       </c>
       <c r="D221" t="n">
-        <v>-1.766592706909935</v>
+        <v>-0.2318432352292215</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +8113,10 @@
         <v>3771.408181945571</v>
       </c>
       <c r="C222" t="n">
-        <v>3623.765593755953</v>
+        <v>3713.499083698078</v>
       </c>
       <c r="D222" t="n">
-        <v>-3.914786760457537</v>
+        <v>-1.535476815389931</v>
       </c>
     </row>
     <row r="223">
@@ -8065,10 +8129,10 @@
         <v>1655.903869521936</v>
       </c>
       <c r="C223" t="n">
-        <v>1555.796671227847</v>
+        <v>1611.73466357301</v>
       </c>
       <c r="D223" t="n">
-        <v>-6.045471608384524</v>
+        <v>-2.667377422197661</v>
       </c>
     </row>
     <row r="224">
@@ -8081,10 +8145,10 @@
         <v>7689.051612621561</v>
       </c>
       <c r="C224" t="n">
-        <v>7334.471025396646</v>
+        <v>7552.037524859253</v>
       </c>
       <c r="D224" t="n">
-        <v>-4.611499637261786</v>
+        <v>-1.781937417839668</v>
       </c>
     </row>
     <row r="225">
@@ -8097,10 +8161,10 @@
         <v>2710.279428830022</v>
       </c>
       <c r="C225" t="n">
-        <v>2600.036430372971</v>
+        <v>2678.001863181654</v>
       </c>
       <c r="D225" t="n">
-        <v>-4.067587913052962</v>
+        <v>-1.190931285719931</v>
       </c>
     </row>
     <row r="226">
@@ -8113,10 +8177,10 @@
         <v>325.8283497189743</v>
       </c>
       <c r="C226" t="n">
-        <v>305.9059447959064</v>
+        <v>316.9488168811848</v>
       </c>
       <c r="D226" t="n">
-        <v>-6.114386590439711</v>
+        <v>-2.725218000658358</v>
       </c>
     </row>
     <row r="227">
@@ -8129,10 +8193,10 @@
         <v>51.47494382944985</v>
       </c>
       <c r="C227" t="n">
-        <v>44.05154904864662</v>
+        <v>48.86397281678349</v>
       </c>
       <c r="D227" t="n">
-        <v>-14.42137519450027</v>
+        <v>-5.072314447427474</v>
       </c>
     </row>
     <row r="228">
@@ -8145,10 +8209,10 @@
         <v>6916.856511036302</v>
       </c>
       <c r="C228" t="n">
-        <v>6521.002846868791</v>
+        <v>6765.826386948243</v>
       </c>
       <c r="D228" t="n">
-        <v>-5.723028423907597</v>
+        <v>-2.183508127529917</v>
       </c>
     </row>
     <row r="229">
@@ -8161,10 +8225,10 @@
         <v>369.233986241517</v>
       </c>
       <c r="C229" t="n">
-        <v>349.8260685994049</v>
+        <v>361.3923855855124</v>
       </c>
       <c r="D229" t="n">
-        <v>-5.25626523161313</v>
+        <v>-2.123748340672887</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8241,10 @@
         <v>1775.27247268218</v>
       </c>
       <c r="C230" t="n">
-        <v>1705.367806980893</v>
+        <v>1741.405430508186</v>
       </c>
       <c r="D230" t="n">
-        <v>-3.937686567948117</v>
+        <v>-1.907709531643077</v>
       </c>
     </row>
     <row r="231">
@@ -8193,10 +8257,10 @@
         <v>5928.014601319257</v>
       </c>
       <c r="C231" t="n">
-        <v>5640.464669265154</v>
+        <v>5813.750119521873</v>
       </c>
       <c r="D231" t="n">
-        <v>-4.850695408039479</v>
+        <v>-1.927533744130034</v>
       </c>
     </row>
     <row r="232">
@@ -8209,10 +8273,10 @@
         <v>1031.395597177054</v>
       </c>
       <c r="C232" t="n">
-        <v>973.0631251849131</v>
+        <v>1008.532442729811</v>
       </c>
       <c r="D232" t="n">
-        <v>-5.655683634077727</v>
+        <v>-2.216720190566972</v>
       </c>
     </row>
     <row r="233">
@@ -8225,10 +8289,10 @@
         <v>1608.551307985471</v>
       </c>
       <c r="C233" t="n">
-        <v>1506.684682571959</v>
+        <v>1566.138524915152</v>
       </c>
       <c r="D233" t="n">
-        <v>-6.332817915586963</v>
+        <v>-2.636706883999626</v>
       </c>
     </row>
     <row r="234">
@@ -8241,10 +8305,10 @@
         <v>677.4327596080684</v>
       </c>
       <c r="C234" t="n">
-        <v>643.5553533151498</v>
+        <v>665.0900489881634</v>
       </c>
       <c r="D234" t="n">
-        <v>-5.000851495950469</v>
+        <v>-1.821983133358643</v>
       </c>
     </row>
     <row r="235">
@@ -8257,10 +8321,10 @@
         <v>1698.715141718269</v>
       </c>
       <c r="C235" t="n">
-        <v>1631.479497551738</v>
+        <v>1674.260780608196</v>
       </c>
       <c r="D235" t="n">
-        <v>-3.958029366743694</v>
+        <v>-1.439579863009681</v>
       </c>
     </row>
     <row r="236">
@@ -8273,10 +8337,10 @@
         <v>645.5155124368843</v>
       </c>
       <c r="C236" t="n">
-        <v>616.380209725373</v>
+        <v>635.1014876449213</v>
       </c>
       <c r="D236" t="n">
-        <v>-4.513493812336537</v>
+        <v>-1.613288076168602</v>
       </c>
     </row>
     <row r="237">
@@ -8289,10 +8353,10 @@
         <v>1645.530889760532</v>
       </c>
       <c r="C237" t="n">
-        <v>1616.461061072073</v>
+        <v>1641.715837709015</v>
       </c>
       <c r="D237" t="n">
-        <v>-1.766592706909904</v>
+        <v>-0.2318432352292001</v>
       </c>
     </row>
     <row r="238">
@@ -8305,10 +8369,10 @@
         <v>761.9280649988186</v>
       </c>
       <c r="C238" t="n">
-        <v>732.1002059860346</v>
+        <v>750.2288362108127</v>
       </c>
       <c r="D238" t="n">
-        <v>-3.91478676045754</v>
+        <v>-1.535476815389925</v>
       </c>
     </row>
     <row r="239">
@@ -8321,10 +8385,10 @@
         <v>537.7236817026917</v>
       </c>
       <c r="C239" t="n">
-        <v>505.2157491937953</v>
+        <v>523.380561623144</v>
       </c>
       <c r="D239" t="n">
-        <v>-6.045471608384558</v>
+        <v>-2.667377422197677</v>
       </c>
     </row>
     <row r="240">
@@ -8337,10 +8401,10 @@
         <v>11949.50026854712</v>
       </c>
       <c r="C240" t="n">
-        <v>11398.44910700847</v>
+        <v>11736.56765201703</v>
       </c>
       <c r="D240" t="n">
-        <v>-4.61149963726181</v>
+        <v>-1.781937417839675</v>
       </c>
     </row>
     <row r="241">
@@ -8353,10 +8417,10 @@
         <v>386.8847934372729</v>
       </c>
       <c r="C241" t="n">
-        <v>371.1479143419785</v>
+        <v>382.2772613925356</v>
       </c>
       <c r="D241" t="n">
-        <v>-4.067587913052954</v>
+        <v>-1.190931285719901</v>
       </c>
     </row>
     <row r="242">
@@ -8369,10 +8433,10 @@
         <v>1046.295292655768</v>
       </c>
       <c r="C242" t="n">
-        <v>982.320753585222</v>
+        <v>1017.781465000272</v>
       </c>
       <c r="D242" t="n">
-        <v>-6.114386590439694</v>
+        <v>-2.725218000658345</v>
       </c>
     </row>
     <row r="243">
@@ -8385,10 +8449,10 @@
         <v>130.1836001021431</v>
       </c>
       <c r="C243" t="n">
-        <v>111.4093346897052</v>
+        <v>123.5802785459808</v>
       </c>
       <c r="D243" t="n">
-        <v>-14.4213751945003</v>
+        <v>-5.072314447427509</v>
       </c>
     </row>
     <row r="244">
@@ -8401,10 +8465,10 @@
         <v>11809.09997807655</v>
       </c>
       <c r="C244" t="n">
-        <v>11133.26182972357</v>
+        <v>11551.24732026712</v>
       </c>
       <c r="D244" t="n">
-        <v>-5.723028423907563</v>
+        <v>-2.183508127529871</v>
       </c>
     </row>
     <row r="245">
@@ -8417,10 +8481,10 @@
         <v>825.7796476708539</v>
       </c>
       <c r="C245" t="n">
-        <v>782.3744791605935</v>
+        <v>808.2421661058297</v>
       </c>
       <c r="D245" t="n">
-        <v>-5.256265231613119</v>
+        <v>-2.123748340672893</v>
       </c>
     </row>
     <row r="246">
@@ -8433,10 +8497,10 @@
         <v>3297.724954117424</v>
       </c>
       <c r="C246" t="n">
-        <v>3167.870881551268</v>
+        <v>3234.813940840353</v>
       </c>
       <c r="D246" t="n">
-        <v>-3.937686567948147</v>
+        <v>-1.907709531643099</v>
       </c>
     </row>
     <row r="247">
@@ -8449,10 +8513,10 @@
         <v>11905.56344431094</v>
       </c>
       <c r="C247" t="n">
-        <v>11328.06082501652</v>
+        <v>11676.07969149304</v>
       </c>
       <c r="D247" t="n">
-        <v>-4.850695408039474</v>
+        <v>-1.927533744130034</v>
       </c>
     </row>
     <row r="248">
@@ -8465,10 +8529,10 @@
         <v>2030.975650240378</v>
       </c>
       <c r="C248" t="n">
-        <v>1916.11009277763</v>
+        <v>1985.954602936001</v>
       </c>
       <c r="D248" t="n">
-        <v>-5.655683634077702</v>
+        <v>-2.216720190566952</v>
       </c>
     </row>
     <row r="249">
@@ -8481,10 +8545,10 @@
         <v>7229.999439492259</v>
       </c>
       <c r="C249" t="n">
-        <v>6772.136739691256</v>
+        <v>7039.365546558032</v>
       </c>
       <c r="D249" t="n">
-        <v>-6.332817915586968</v>
+        <v>-2.636706883999621</v>
       </c>
     </row>
     <row r="250">
@@ -8497,10 +8561,10 @@
         <v>1917.548880912487</v>
       </c>
       <c r="C250" t="n">
-        <v>1821.655109015794</v>
+        <v>1882.611463728354</v>
       </c>
       <c r="D250" t="n">
-        <v>-5.000851495950445</v>
+        <v>-1.821983133358622</v>
       </c>
     </row>
     <row r="251">
@@ -8513,10 +8577,10 @@
         <v>5140.148725132723</v>
       </c>
       <c r="C251" t="n">
-        <v>4936.700129097669</v>
+        <v>5066.152179156964</v>
       </c>
       <c r="D251" t="n">
-        <v>-3.958029366743678</v>
+        <v>-1.439579863009664</v>
       </c>
     </row>
     <row r="252">
@@ -8529,10 +8593,10 @@
         <v>1583.233059004502</v>
       </c>
       <c r="C252" t="n">
-        <v>1511.773932851468</v>
+        <v>1557.690948845623</v>
       </c>
       <c r="D252" t="n">
-        <v>-4.513493812336512</v>
+        <v>-1.613288076168588</v>
       </c>
     </row>
     <row r="253">
@@ -8545,10 +8609,10 @@
         <v>5884.108741303054</v>
       </c>
       <c r="C253" t="n">
-        <v>5780.160505412545</v>
+        <v>5870.466833232812</v>
       </c>
       <c r="D253" t="n">
-        <v>-1.76659270690992</v>
+        <v>-0.2318432352292092</v>
       </c>
     </row>
     <row r="254">
@@ -8561,10 +8625,10 @@
         <v>1109.271824274989</v>
       </c>
       <c r="C254" t="n">
-        <v>1065.846197760786</v>
+        <v>1092.239212593594</v>
       </c>
       <c r="D254" t="n">
-        <v>-3.914786760457534</v>
+        <v>-1.535476815389926</v>
       </c>
     </row>
     <row r="255">
@@ -8577,10 +8641,10 @@
         <v>3763.941165659353</v>
       </c>
       <c r="C255" t="n">
-        <v>3536.393171133117</v>
+        <v>3663.542648821751</v>
       </c>
       <c r="D255" t="n">
-        <v>-6.045471608384572</v>
+        <v>-2.667377422197688</v>
       </c>
     </row>
     <row r="256">
@@ -8593,10 +8657,10 @@
         <v>1794.712358636747</v>
       </c>
       <c r="C256" t="n">
-        <v>1711.949204728321</v>
+        <v>1762.731707575606</v>
       </c>
       <c r="D256" t="n">
-        <v>-4.61149963726178</v>
+        <v>-1.781937417839657</v>
       </c>
     </row>
     <row r="257">
@@ -8609,10 +8673,10 @@
         <v>30230.98358170662</v>
       </c>
       <c r="C257" t="n">
-        <v>29001.3117475401</v>
+        <v>29870.95334025122</v>
       </c>
       <c r="D257" t="n">
-        <v>-4.067587913052956</v>
+        <v>-1.190931285719928</v>
       </c>
     </row>
   </sheetData>
@@ -8666,10 +8730,10 @@
         <v>3414557.645092672</v>
       </c>
       <c r="C2" t="n">
-        <v>3205778.390318292</v>
+        <v>3321503.50550575</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.114386590439715</v>
+        <v>-2.725218000658362</v>
       </c>
     </row>
     <row r="3">
@@ -8682,10 +8746,10 @@
         <v>236483.0463515812</v>
       </c>
       <c r="C3" t="n">
-        <v>202378.9389658357</v>
+        <v>224487.8826257733</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.42137519450027</v>
+        <v>-5.072314447427471</v>
       </c>
     </row>
     <row r="4">
@@ -8698,10 +8762,10 @@
         <v>10693184.37090776</v>
       </c>
       <c r="C4" t="n">
-        <v>10081210.38993986</v>
+        <v>10459697.82107723</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.723028423907599</v>
+        <v>-2.183508127529918</v>
       </c>
     </row>
     <row r="5">
@@ -8714,10 +8778,10 @@
         <v>859555.5685829821</v>
       </c>
       <c r="C5" t="n">
-        <v>814375.0480851603</v>
+        <v>841300.7714580395</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.256265231613118</v>
+        <v>-2.123748340672893</v>
       </c>
     </row>
     <row r="6">
@@ -8730,10 +8794,10 @@
         <v>2955558.97113681</v>
       </c>
       <c r="C6" t="n">
-        <v>2839178.322522569</v>
+        <v>2899175.4909311</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.937686567948138</v>
+        <v>-1.907709531643097</v>
       </c>
     </row>
     <row r="7">
@@ -8746,10 +8810,10 @@
         <v>4193101.561300549</v>
       </c>
       <c r="C7" t="n">
-        <v>3989706.976412112</v>
+        <v>4112278.113780838</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.850695408039476</v>
+        <v>-1.92753374413003</v>
       </c>
     </row>
     <row r="8">
@@ -8762,10 +8826,10 @@
         <v>1706212.131163495</v>
       </c>
       <c r="C8" t="n">
-        <v>1609714.170898633</v>
+        <v>1668390.182358092</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.655683634077668</v>
+        <v>-2.216720190566912</v>
       </c>
     </row>
     <row r="9">
@@ -8778,10 +8842,10 @@
         <v>1023361.531720356</v>
       </c>
       <c r="C9" t="n">
-        <v>958553.9092983444</v>
+        <v>996378.4877652817</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.332817915586935</v>
+        <v>-2.63670688399959</v>
       </c>
     </row>
     <row r="10">
@@ -8794,10 +8858,10 @@
         <v>1008230.237982081</v>
       </c>
       <c r="C10" t="n">
-        <v>957810.1410433289</v>
+        <v>989860.4531006257</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.000851495950492</v>
+        <v>-1.821983133358656</v>
       </c>
     </row>
     <row r="11">
@@ -8810,10 +8874,10 @@
         <v>2590209.541191509</v>
       </c>
       <c r="C11" t="n">
-        <v>2487688.286890952</v>
+        <v>2552921.406226761</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.958029366743678</v>
+        <v>-1.439579863009676</v>
       </c>
     </row>
     <row r="12">
@@ -8826,10 +8890,10 @@
         <v>1427752.616260717</v>
       </c>
       <c r="C12" t="n">
-        <v>1363311.090270316</v>
+        <v>1404718.853545398</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.513493812336536</v>
+        <v>-1.613288076168602</v>
       </c>
     </row>
     <row r="13">
@@ -8842,10 +8906,10 @@
         <v>1993459.613516357</v>
       </c>
       <c r="C13" t="n">
-        <v>1958243.301368782</v>
+        <v>1988837.912255393</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.766592706909936</v>
+        <v>-0.2318432352292163</v>
       </c>
     </row>
     <row r="14">
@@ -8858,10 +8922,10 @@
         <v>1209532.48903948</v>
       </c>
       <c r="C14" t="n">
-        <v>1162181.87129513</v>
+        <v>1190960.39809567</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.91478676045754</v>
+        <v>-1.535476815389939</v>
       </c>
     </row>
     <row r="15">
@@ -8874,10 +8938,10 @@
         <v>848111.702553727</v>
       </c>
       <c r="C15" t="n">
-        <v>796839.3503684545</v>
+        <v>825489.3624847925</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.045471608384563</v>
+        <v>-2.667377422197683</v>
       </c>
     </row>
     <row r="16">
@@ -8890,10 +8954,10 @@
         <v>450023.7008461211</v>
       </c>
       <c r="C16" t="n">
-        <v>429270.8595140101</v>
+        <v>442004.5601315972</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.611499637261796</v>
+        <v>-1.781937417839673</v>
       </c>
     </row>
     <row r="17">
@@ -8906,10 +8970,10 @@
         <v>545780.8972354506</v>
       </c>
       <c r="C17" t="n">
-        <v>523580.7794277493</v>
+        <v>539281.0217787906</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.067587913052969</v>
+        <v>-1.190931285719933</v>
       </c>
     </row>
   </sheetData>
@@ -8963,10 +9027,10 @@
         <v>681704.0979888855</v>
       </c>
       <c r="C2" t="n">
-        <v>636675.5123830393</v>
+        <v>660199.4224788739</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.605297773430766</v>
+        <v>-3.154546902894257</v>
       </c>
     </row>
     <row r="3">
@@ -8979,10 +9043,10 @@
         <v>1249.88667263317</v>
       </c>
       <c r="C3" t="n">
-        <v>1176.213678531067</v>
+        <v>1224.492658198855</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.894373923268915</v>
+        <v>-2.031705352999451</v>
       </c>
     </row>
     <row r="4">
@@ -8995,10 +9059,10 @@
         <v>5072181.859160316</v>
       </c>
       <c r="C4" t="n">
-        <v>4832134.895777424</v>
+        <v>4986727.115706448</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.732617442518738</v>
+        <v>-1.684772861594803</v>
       </c>
     </row>
     <row r="5">
@@ -9011,10 +9075,10 @@
         <v>228099.3515061853</v>
       </c>
       <c r="C5" t="n">
-        <v>214916.795041131</v>
+        <v>222241.2606555456</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.779304666149772</v>
+        <v>-2.568218985261279</v>
       </c>
     </row>
     <row r="6">
@@ -9027,10 +9091,10 @@
         <v>41509.39267939057</v>
       </c>
       <c r="C6" t="n">
-        <v>39121.23067760078</v>
+        <v>40448.15108969468</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.75330508985143</v>
+        <v>-2.556630008761363</v>
       </c>
     </row>
     <row r="7">
@@ -9043,10 +9107,10 @@
         <v>1668853.361421085</v>
       </c>
       <c r="C7" t="n">
-        <v>1595397.799613501</v>
+        <v>1639811.130212137</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.401558789145762</v>
+        <v>-1.740250634376738</v>
       </c>
     </row>
     <row r="8">
@@ -9059,10 +9123,10 @@
         <v>844195.7394430137</v>
       </c>
       <c r="C8" t="n">
-        <v>802214.4475403056</v>
+        <v>828554.7221603787</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.972933401725847</v>
+        <v>-1.85277140736989</v>
       </c>
     </row>
     <row r="9">
@@ -9075,10 +9139,10 @@
         <v>827929.9838858522</v>
       </c>
       <c r="C9" t="n">
-        <v>788866.3211846952</v>
+        <v>813516.2825042502</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.718232635785623</v>
+        <v>-1.740932405171741</v>
       </c>
     </row>
     <row r="10">
@@ -9091,10 +9155,10 @@
         <v>279204.3897815574</v>
       </c>
       <c r="C10" t="n">
-        <v>266108.2041470701</v>
+        <v>274592.8585355129</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.690537152633396</v>
+        <v>-1.651668603653562</v>
       </c>
     </row>
     <row r="11">
@@ -9107,10 +9171,10 @@
         <v>847117.1702098944</v>
       </c>
       <c r="C11" t="n">
-        <v>817455.1617688731</v>
+        <v>837017.0857535609</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.50152369520167</v>
+        <v>-1.192288955001466</v>
       </c>
     </row>
     <row r="12">
@@ -9123,10 +9187,10 @@
         <v>709106.1542588873</v>
       </c>
       <c r="C12" t="n">
-        <v>677738.7181438508</v>
+        <v>698307.0125103585</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.4235176816114</v>
+        <v>-1.522923145380876</v>
       </c>
     </row>
     <row r="13">
@@ -9139,10 +9203,10 @@
         <v>34388.56298679487</v>
       </c>
       <c r="C13" t="n">
-        <v>33535.31409002503</v>
+        <v>34204.09828823188</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.481199627613061</v>
+        <v>-0.5364129307578859</v>
       </c>
     </row>
     <row r="14">
@@ -9155,10 +9219,10 @@
         <v>547184.0434827509</v>
       </c>
       <c r="C14" t="n">
-        <v>526207.2141489291</v>
+        <v>539069.3240068514</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.833596681713735</v>
+        <v>-1.482996365217524</v>
       </c>
     </row>
     <row r="15">
@@ -9171,10 +9235,10 @@
         <v>624199.4650670212</v>
       </c>
       <c r="C15" t="n">
-        <v>586465.6233866038</v>
+        <v>607623.4100711198</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.045157644658648</v>
+        <v>-2.655570202086223</v>
       </c>
     </row>
     <row r="16">
@@ -9187,10 +9251,10 @@
         <v>366170.2447981961</v>
       </c>
       <c r="C16" t="n">
-        <v>349473.9389917692</v>
+        <v>359767.5059646027</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.55971123913375</v>
+        <v>-1.748568848657285</v>
       </c>
     </row>
     <row r="17">
@@ -9203,10 +9267,10 @@
         <v>476990.7278785029</v>
       </c>
       <c r="C17" t="n">
-        <v>457560.1342560342</v>
+        <v>471175.7566852147</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.073578895105491</v>
+        <v>-1.219095226263892</v>
       </c>
     </row>
   </sheetData>
@@ -9260,10 +9324,10 @@
         <v>4199.478882578032</v>
       </c>
       <c r="C2" t="n">
-        <v>3912.587820159823</v>
+        <v>4062.324414971852</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.831587214509087</v>
+        <v>-3.265987791370499</v>
       </c>
     </row>
     <row r="3">
@@ -9276,10 +9340,10 @@
         <v>182.8844489195033</v>
       </c>
       <c r="C3" t="n">
-        <v>171.6875572279581</v>
+        <v>178.9626047433159</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.122385887754501</v>
+        <v>-2.144438304819248</v>
       </c>
     </row>
     <row r="4">
@@ -9292,10 +9356,10 @@
         <v>373785.7590061041</v>
       </c>
       <c r="C4" t="n">
-        <v>355233.1111713048</v>
+        <v>367065.4460375665</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.963444269286978</v>
+        <v>-1.797905031589985</v>
       </c>
     </row>
     <row r="5">
@@ -9308,10 +9372,10 @@
         <v>30208.34326232866</v>
       </c>
       <c r="C5" t="n">
-        <v>28393.54821116494</v>
+        <v>29398.65859597077</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.007595436148484</v>
+        <v>-2.680334566270666</v>
       </c>
     </row>
     <row r="6">
@@ -9324,10 +9388,10 @@
         <v>544.2639596754708</v>
       </c>
       <c r="C6" t="n">
-        <v>511.7079463360179</v>
+        <v>529.7388666744141</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.981658855174813</v>
+        <v>-2.668758925304845</v>
       </c>
     </row>
     <row r="7">
@@ -9340,10 +9404,10 @@
         <v>109078.9813295354</v>
       </c>
       <c r="C7" t="n">
-        <v>104025.1473287094</v>
+        <v>107057.3998810436</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.633187750037763</v>
+        <v>-1.853318965625868</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9420,10 @@
         <v>72652.30470162898</v>
       </c>
       <c r="C8" t="n">
-        <v>68872.07599729566</v>
+        <v>71224.17089397801</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.203177958164019</v>
+        <v>-1.965710260006315</v>
       </c>
     </row>
     <row r="9">
@@ -9372,10 +9436,10 @@
         <v>256449.3035849219</v>
       </c>
       <c r="C9" t="n">
-        <v>243757.3856777061</v>
+        <v>251694.733619806</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.949094316028394</v>
+        <v>-1.853999951901387</v>
       </c>
     </row>
     <row r="10">
@@ -9388,10 +9452,10 @@
         <v>155149.7673252957</v>
       </c>
       <c r="C10" t="n">
-        <v>147514.1243746189</v>
+        <v>152411.6239294778</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.92146593727559</v>
+        <v>-1.764838867000615</v>
       </c>
     </row>
     <row r="11">
@@ -9404,10 +9468,10 @@
         <v>481768.4252947781</v>
       </c>
       <c r="C11" t="n">
-        <v>463772.7684709179</v>
+        <v>475476.5882895915</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.735333384052566</v>
+        <v>-1.305987830426365</v>
       </c>
     </row>
     <row r="12">
@@ -9420,10 +9484,10 @@
         <v>40310.04944841391</v>
       </c>
       <c r="C12" t="n">
-        <v>38433.578981888</v>
+        <v>39650.47966760129</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.655093437499483</v>
+        <v>-1.636241557224319</v>
       </c>
     </row>
     <row r="13">
@@ -9436,10 +9500,10 @@
         <v>54737.47033988653</v>
       </c>
       <c r="C13" t="n">
-        <v>53249.98971148619</v>
+        <v>54381.20246699776</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.717481496978192</v>
+        <v>-0.6508665283151776</v>
       </c>
     </row>
     <row r="14">
@@ -9452,10 +9516,10 @@
         <v>522067.6321158273</v>
       </c>
       <c r="C14" t="n">
-        <v>500837.2205017913</v>
+        <v>513733.5494989068</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.066601778776007</v>
+        <v>-1.596360721147237</v>
       </c>
     </row>
     <row r="15">
@@ -9468,10 +9532,10 @@
         <v>22378.20519142771</v>
       </c>
       <c r="C15" t="n">
-        <v>20974.46418068666</v>
+        <v>21758.8692814623</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.272804269748915</v>
+        <v>-2.767585267305785</v>
       </c>
     </row>
     <row r="16">
@@ -9484,10 +9548,10 @@
         <v>52685.52568929273</v>
       </c>
       <c r="C16" t="n">
-        <v>50161.3848047815</v>
+        <v>51704.71739760597</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.790957006668351</v>
+        <v>-1.861627608066339</v>
       </c>
     </row>
     <row r="17">
@@ -9500,10 +9564,10 @@
         <v>23438.95177260142</v>
       </c>
       <c r="C17" t="n">
-        <v>22429.66991615459</v>
+        <v>23126.56603590559</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.306002530482651</v>
+        <v>-1.332763255483922</v>
       </c>
     </row>
   </sheetData>
@@ -9557,10 +9621,10 @@
         <v>394497.6888084688</v>
       </c>
       <c r="C2" t="n">
-        <v>375662.0508790129</v>
+        <v>384622.1657455429</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.774587650018078</v>
+        <v>-2.503315822395246</v>
       </c>
     </row>
     <row r="3">
@@ -9573,10 +9637,10 @@
         <v>13216.80477489961</v>
       </c>
       <c r="C3" t="n">
-        <v>12681.56008256024</v>
+        <v>13035.3481170714</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.049728368204939</v>
+        <v>-1.372923796020801</v>
       </c>
     </row>
     <row r="4">
@@ -9589,10 +9653,10 @@
         <v>1539821.604049792</v>
       </c>
       <c r="C4" t="n">
-        <v>1495702.646283054</v>
+        <v>1524059.091175565</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.86519929650962</v>
+        <v>-1.023658379176587</v>
       </c>
     </row>
     <row r="5">
@@ -9605,10 +9669,10 @@
         <v>1367.881618448352</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.090993270852</v>
+        <v>1341.713425078137</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.932403539314835</v>
+        <v>-1.913045180027971</v>
       </c>
     </row>
     <row r="6">
@@ -9621,10 +9685,10 @@
         <v>2927645.3929571</v>
       </c>
       <c r="C6" t="n">
-        <v>2813294.657759137</v>
+        <v>2871979.779509977</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.905894322893456</v>
+        <v>-1.901378274193825</v>
       </c>
     </row>
     <row r="7">
@@ -9637,10 +9701,10 @@
         <v>4560.995555048999</v>
       </c>
       <c r="C7" t="n">
-        <v>4445.709492662872</v>
+        <v>4511.759188023492</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.527651276890784</v>
+        <v>-1.079509208707796</v>
       </c>
     </row>
     <row r="8">
@@ -9653,10 +9717,10 @@
         <v>1090.025652932387</v>
       </c>
       <c r="C8" t="n">
-        <v>1056.123392800348</v>
+        <v>1077.023972784501</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.110225896136903</v>
+        <v>-1.192786620471602</v>
       </c>
     </row>
     <row r="9">
@@ -9669,10 +9733,10 @@
         <v>618.7971370217454</v>
       </c>
       <c r="C9" t="n">
-        <v>601.1581233933407</v>
+        <v>612.1129177973102</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.850532520770987</v>
+        <v>-1.080195564027036</v>
       </c>
     </row>
     <row r="10">
@@ -9685,10 +9749,10 @@
         <v>21716.29890705622</v>
       </c>
       <c r="C10" t="n">
-        <v>21103.40107241505</v>
+        <v>21501.23555535699</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.822294154562533</v>
+        <v>-0.9903315137615255</v>
       </c>
     </row>
     <row r="11">
@@ -9701,10 +9765,10 @@
         <v>3166.211466152315</v>
       </c>
       <c r="C11" t="n">
-        <v>3115.23629050344</v>
+        <v>3149.498213782231</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.609973818673018</v>
+        <v>-0.5278627959235572</v>
       </c>
     </row>
     <row r="12">
@@ -9717,10 +9781,10 @@
         <v>7014.752514295814</v>
       </c>
       <c r="C12" t="n">
-        <v>6835.873476872574</v>
+        <v>6954.375114368433</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.550040604550072</v>
+        <v>-0.8607203148554966</v>
       </c>
     </row>
     <row r="13">
@@ -9733,10 +9797,10 @@
         <v>31104.57843132653</v>
       </c>
       <c r="C13" t="n">
-        <v>30927.39135616575</v>
+        <v>31145.76824158492</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5696494988735273</v>
+        <v>0.1324236248670825</v>
       </c>
     </row>
     <row r="14">
@@ -9749,10 +9813,10 @@
         <v>1057.98409967499</v>
       </c>
       <c r="C14" t="n">
-        <v>1037.368686447772</v>
+        <v>1049.303075116349</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.948556054249841</v>
+        <v>-0.8205250496021821</v>
       </c>
     </row>
     <row r="15">
@@ -9765,10 +9829,10 @@
         <v>5564.495219738023</v>
       </c>
       <c r="C15" t="n">
-        <v>5330.593458761697</v>
+        <v>5453.150572699205</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.203467731388186</v>
+        <v>-2.000983784546395</v>
       </c>
     </row>
     <row r="16">
@@ -9781,10 +9845,10 @@
         <v>2237.227755704404</v>
       </c>
       <c r="C16" t="n">
-        <v>2177.070853354568</v>
+        <v>2212.889327263042</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.688903809478048</v>
+        <v>-1.087883358290394</v>
       </c>
     </row>
     <row r="17">
@@ -9797,10 +9861,10 @@
         <v>4424.727197110003</v>
       </c>
       <c r="C17" t="n">
-        <v>4327.682205642081</v>
+        <v>4400.17662815695</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.193242366022154</v>
+        <v>-0.5548493242495925</v>
       </c>
     </row>
   </sheetData>
@@ -9854,10 +9918,10 @@
         <v>88379.20989359371</v>
       </c>
       <c r="C2" t="n">
-        <v>79117.41600344951</v>
+        <v>83177.58280624798</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.47960702669232</v>
+        <v>-5.885577720833157</v>
       </c>
     </row>
     <row r="3">
@@ -9870,10 +9934,10 @@
         <v>80038.6007416122</v>
       </c>
       <c r="C3" t="n">
-        <v>64082.00869831588</v>
+        <v>74472.87355874649</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.93612069107608</v>
+        <v>-6.953803703832219</v>
       </c>
     </row>
     <row r="4">
@@ -9886,10 +9950,10 @@
         <v>2920941.758736638</v>
       </c>
       <c r="C4" t="n">
-        <v>2725993.371330854</v>
+        <v>2846430.340871571</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.674162085659052</v>
+        <v>-2.550938156921498</v>
       </c>
     </row>
     <row r="5">
@@ -9902,10 +9966,10 @@
         <v>0.1707930718649235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1570205392672306</v>
+        <v>0.1636879086048966</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.063870769058681</v>
+        <v>-4.160100396605216</v>
       </c>
     </row>
     <row r="6">
@@ -9918,10 +9982,10 @@
         <v>3019.361322344704</v>
       </c>
       <c r="C6" t="n">
-        <v>2816.047744817952</v>
+        <v>2900.814352273956</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.733661719189922</v>
+        <v>-3.926226688851194</v>
       </c>
     </row>
     <row r="7">
@@ -9934,10 +9998,10 @@
         <v>302312.1911261023</v>
       </c>
       <c r="C7" t="n">
-        <v>287364.865669729</v>
+        <v>295345.0974291347</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.944334332232873</v>
+        <v>-2.304602295731264</v>
       </c>
     </row>
     <row r="8">
@@ -9950,10 +10014,10 @@
         <v>339911.8913027431</v>
       </c>
       <c r="C8" t="n">
-        <v>316692.6918352791</v>
+        <v>330343.4387261492</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.830946507482976</v>
+        <v>-2.814980240885955</v>
       </c>
     </row>
     <row r="9">
@@ -9966,10 +10030,10 @@
         <v>467265.7590406692</v>
       </c>
       <c r="C9" t="n">
-        <v>433758.3998619226</v>
+        <v>452768.2763677218</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.170942559013878</v>
+        <v>-3.102620380896673</v>
       </c>
     </row>
     <row r="10">
@@ -9982,10 +10046,10 @@
         <v>303862.505135322</v>
       </c>
       <c r="C10" t="n">
-        <v>287070.6074680202</v>
+        <v>297792.0331938674</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.526149947267671</v>
+        <v>-1.997769332794517</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +10062,10 @@
         <v>44667.50305592605</v>
       </c>
       <c r="C11" t="n">
-        <v>43686.32875244392</v>
+        <v>44343.22757250846</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.1966177564339</v>
+        <v>-0.7259762942459014</v>
       </c>
     </row>
     <row r="12">
@@ -10014,10 +10078,10 @@
         <v>6203.60467028512</v>
       </c>
       <c r="C12" t="n">
-        <v>5913.981811873079</v>
+        <v>6105.614877764699</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.668622096429134</v>
+        <v>-1.579562169552574</v>
       </c>
     </row>
     <row r="13">
@@ -10030,10 +10094,10 @@
         <v>839824.0628519823</v>
       </c>
       <c r="C13" t="n">
-        <v>845384.4169437997</v>
+        <v>848722.1670276894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6620855888476014</v>
+        <v>1.059520031551581</v>
       </c>
     </row>
     <row r="14">
@@ -10046,10 +10110,10 @@
         <v>10181.8199161731</v>
       </c>
       <c r="C14" t="n">
-        <v>9890.972011015814</v>
+        <v>10036.9646472328</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.856541439073141</v>
+        <v>-1.422685434754252</v>
       </c>
     </row>
     <row r="15">
@@ -10062,10 +10126,10 @@
         <v>62709.11526794974</v>
       </c>
       <c r="C15" t="n">
-        <v>56966.71800076102</v>
+        <v>59738.62944129525</v>
       </c>
       <c r="D15" t="n">
-        <v>-9.157197071991895</v>
+        <v>-4.736928298161923</v>
       </c>
     </row>
     <row r="16">
@@ -10078,10 +10142,10 @@
         <v>8969.809554331197</v>
       </c>
       <c r="C16" t="n">
-        <v>8519.162647235278</v>
+        <v>8772.652830414636</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.02404097173187</v>
+        <v>-2.198003455060667</v>
       </c>
     </row>
     <row r="17">
@@ -10094,10 +10158,10 @@
         <v>40285.14188351417</v>
       </c>
       <c r="C17" t="n">
-        <v>38871.88619812706</v>
+        <v>40064.68557651302</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.508131334062525</v>
+        <v>-0.5472397432249506</v>
       </c>
     </row>
   </sheetData>
@@ -10151,10 +10215,10 @@
         <v>78355.35792597735</v>
       </c>
       <c r="C2" t="n">
-        <v>77337.43560691572</v>
+        <v>78912.54365317761</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.299110036640083</v>
+        <v>0.7111009916215664</v>
       </c>
     </row>
     <row r="3">
@@ -10167,10 +10231,10 @@
         <v>317789.3840405327</v>
       </c>
       <c r="C3" t="n">
-        <v>308691.4232855189</v>
+        <v>313668.2098185635</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.86289008126632</v>
+        <v>-1.296825642685273</v>
       </c>
     </row>
     <row r="4">
@@ -10183,10 +10247,10 @@
         <v>5812388.874918879</v>
       </c>
       <c r="C4" t="n">
-        <v>5576217.517231409</v>
+        <v>5722522.21639161</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.063240825240994</v>
+        <v>-1.546122609157379</v>
       </c>
     </row>
     <row r="5">
@@ -10199,10 +10263,10 @@
         <v>0.0003561830006493868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003477666880225023</v>
+        <v>0.0003560258233642396</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.362918109943482</v>
+        <v>-0.04412823881562124</v>
       </c>
     </row>
     <row r="6">
@@ -10215,10 +10279,10 @@
         <v>3747.700656387613</v>
       </c>
       <c r="C6" t="n">
-        <v>3708.269287927508</v>
+        <v>3753.597161598998</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.05214829239091</v>
+        <v>0.157336611218798</v>
       </c>
     </row>
     <row r="7">
@@ -10231,10 +10295,10 @@
         <v>18452.78067859498</v>
       </c>
       <c r="C7" t="n">
-        <v>17577.38358061593</v>
+        <v>18176.61113357244</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.743984731767289</v>
+        <v>-1.496628339288155</v>
       </c>
     </row>
     <row r="8">
@@ -10247,10 +10311,10 @@
         <v>268135.8427319374</v>
       </c>
       <c r="C8" t="n">
-        <v>257710.7349929145</v>
+        <v>264590.3501883665</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.887994843511165</v>
+        <v>-1.322274749786232</v>
       </c>
     </row>
     <row r="9">
@@ -10263,10 +10327,10 @@
         <v>640564.0214195349</v>
       </c>
       <c r="C9" t="n">
-        <v>613749.8715162347</v>
+        <v>631287.9239080923</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.186021850536997</v>
+        <v>-1.448114037202109</v>
       </c>
     </row>
     <row r="10">
@@ -10279,10 +10343,10 @@
         <v>71737.1030274103</v>
       </c>
       <c r="C10" t="n">
-        <v>68836.46699967358</v>
+        <v>70659.10267436231</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.043425097091537</v>
+        <v>-1.50270962661552</v>
       </c>
     </row>
     <row r="11">
@@ -10295,10 +10359,10 @@
         <v>120414.6020779007</v>
       </c>
       <c r="C11" t="n">
-        <v>113496.5068700945</v>
+        <v>117799.7430250491</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.745229472527481</v>
+        <v>-2.171546480019045</v>
       </c>
     </row>
     <row r="12">
@@ -10311,10 +10375,10 @@
         <v>126100.7636223691</v>
       </c>
       <c r="C12" t="n">
-        <v>120606.7438343155</v>
+        <v>124023.5349297426</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.356848943838625</v>
+        <v>-1.64727685460106</v>
       </c>
     </row>
     <row r="13">
@@ -10327,10 +10391,10 @@
         <v>116158.5188728069</v>
       </c>
       <c r="C13" t="n">
-        <v>107391.6014118635</v>
+        <v>112278.8978533647</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.547373663177577</v>
+        <v>-3.339936715007876</v>
       </c>
     </row>
     <row r="14">
@@ -10343,10 +10407,10 @@
         <v>28460.98512839308</v>
       </c>
       <c r="C14" t="n">
-        <v>27044.04482757359</v>
+        <v>27991.38801813746</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.978535684648293</v>
+        <v>-1.649967870532873</v>
       </c>
     </row>
     <row r="15">
@@ -10359,10 +10423,10 @@
         <v>11764.370195582</v>
       </c>
       <c r="C15" t="n">
-        <v>11491.05471182535</v>
+        <v>11738.38700921987</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.32324790203637</v>
+        <v>-0.2208633860560346</v>
       </c>
     </row>
     <row r="16">
@@ -10375,10 +10439,10 @@
         <v>6241.96478553941</v>
       </c>
       <c r="C16" t="n">
-        <v>5981.006426236311</v>
+        <v>6157.854053545538</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.180708611295814</v>
+        <v>-1.347504109422869</v>
       </c>
     </row>
     <row r="17">
@@ -10391,10 +10455,10 @@
         <v>41897.22041143459</v>
       </c>
       <c r="C17" t="n">
-        <v>39925.95662448057</v>
+        <v>41091.1883497735</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.704998965554341</v>
+        <v>-1.923831828808152</v>
       </c>
     </row>
   </sheetData>

--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -488,10 +488,10 @@
         <v>1716192.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1669422.509735978</v>
+        <v>1694763.458196417</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.725218000658333</v>
+        <v>-1.248638391380362</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         <v>154636.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>146792.8396347389</v>
+        <v>148216.8003433883</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.072314447427473</v>
+        <v>-4.151470523934772</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3242974.18102503</v>
       </c>
       <c r="C4" t="n">
-        <v>3172163.576208652</v>
+        <v>3209532.823112681</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.183508127529897</v>
+        <v>-1.031194084369166</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>519331.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>508301.9141338954</v>
+        <v>513977.3169017031</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.123748340672881</v>
+        <v>-1.030919189091791</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         <v>1321086.417788376</v>
       </c>
       <c r="C6" t="n">
-        <v>1295883.926274985</v>
+        <v>1309486.702697922</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.907709531643102</v>
+        <v>-0.8780436263868829</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>2762815.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>2709561.2980815</v>
+        <v>2737274.310637208</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.927533744130039</v>
+        <v>-0.9244623278669767</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>666749.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>651969.1558666178</v>
+        <v>658617.6947542091</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.216720190566948</v>
+        <v>-1.219562683161424</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>352280.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>342991.6602484134</v>
+        <v>348699.1496978721</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.636706883999622</v>
+        <v>-1.016550965859628</v>
       </c>
     </row>
     <row r="10">
@@ -616,10 +616,10 @@
         <v>472989.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>464372.0465700736</v>
+        <v>468929.9916952841</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.821983133358637</v>
+        <v>-0.8583376756154731</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1344792.707611407</v>
       </c>
       <c r="C11" t="n">
-        <v>1325433.342593411</v>
+        <v>1334786.131151913</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.439579863009641</v>
+        <v>-0.7440980608281005</v>
       </c>
     </row>
     <row r="12">
@@ -648,10 +648,10 @@
         <v>1086830.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1069296.936865976</v>
+        <v>1078463.13489622</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.613288076168605</v>
+        <v>-0.7699001883461503</v>
       </c>
     </row>
     <row r="13">
@@ -664,10 +664,10 @@
         <v>1143812.989778033</v>
       </c>
       <c r="C13" t="n">
-        <v>1141161.136737559</v>
+        <v>1142483.593703471</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.231843235229247</v>
+        <v>-0.1162249499211944</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>712160.1110237867</v>
       </c>
       <c r="C14" t="n">
-        <v>701225.0576305613</v>
+        <v>706427.1593569837</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.535476815389928</v>
+        <v>-0.8050088144590701</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v>722157.2634633619</v>
       </c>
       <c r="C15" t="n">
-        <v>702894.6036649796</v>
+        <v>712855.6548039404</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.667377422197678</v>
+        <v>-1.288030894380577</v>
       </c>
     </row>
     <row r="16">
@@ -712,10 +712,10 @@
         <v>298161.0429722404</v>
       </c>
       <c r="C16" t="n">
-        <v>292847.9997820971</v>
+        <v>295442.1130411268</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.781937417839667</v>
+        <v>-0.9118997921424471</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         <v>363863.9942526534</v>
       </c>
       <c r="C17" t="n">
-        <v>359530.6241076284</v>
+        <v>361029.3944154659</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.190931285719915</v>
+        <v>-0.7790272964516533</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +785,10 @@
         <v>3450957.802370132</v>
       </c>
       <c r="C2" t="n">
-        <v>3362352.175115664</v>
+        <v>3410138.132907089</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.567566233166144</v>
+        <v>-1.182850437493266</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         <v>482919.8310003763</v>
       </c>
       <c r="C3" t="n">
-        <v>471894.5840023756</v>
+        <v>477243.2162233172</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.283038775848516</v>
+        <v>-1.175477669927101</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>13829988.52652916</v>
       </c>
       <c r="C4" t="n">
-        <v>13575753.83498682</v>
+        <v>13707336.35804784</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.838285628759999</v>
+        <v>-0.8868566177480519</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>897254.4002150299</v>
       </c>
       <c r="C5" t="n">
-        <v>878198.9782460125</v>
+        <v>888004.4340675366</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.123747954253641</v>
+        <v>-1.030919006390668</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         <v>3009042.214440523</v>
       </c>
       <c r="C6" t="n">
-        <v>2951776.050654474</v>
+        <v>2982680.554642044</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.903135938446666</v>
+        <v>-0.8760814212565192</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4383731.161583323</v>
       </c>
       <c r="C7" t="n">
-        <v>4300451.453722675</v>
+        <v>4343750.933753974</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.899744870088443</v>
+        <v>-0.9120136786606482</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         <v>1665526.087146317</v>
       </c>
       <c r="C8" t="n">
-        <v>1633030.841466342</v>
+        <v>1648493.30635657</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.95104993735954</v>
+        <v>-1.022666707006093</v>
       </c>
     </row>
     <row r="9">
@@ -897,10 +897,10 @@
         <v>1247668.798003208</v>
       </c>
       <c r="C9" t="n">
-        <v>1224552.09985488</v>
+        <v>1237154.79361224</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.852791236370122</v>
+        <v>-0.8426919393828567</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>819039.8384011268</v>
       </c>
       <c r="C10" t="n">
-        <v>804879.8181778799</v>
+        <v>812203.0166179597</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.728856101906973</v>
+        <v>-0.8347361706499467</v>
       </c>
     </row>
     <row r="11">
@@ -929,10 +929,10 @@
         <v>2819310.646765826</v>
       </c>
       <c r="C11" t="n">
-        <v>2777522.16692964</v>
+        <v>2797907.69141686</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.482223318814589</v>
+        <v>-0.7591556245679463</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +945,10 @@
         <v>1650491.778729892</v>
       </c>
       <c r="C12" t="n">
-        <v>1623819.635762476</v>
+        <v>1637638.987911723</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.61601186453295</v>
+        <v>-0.7787249220992865</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>1285246.074292473</v>
       </c>
       <c r="C13" t="n">
-        <v>1267737.485137305</v>
+        <v>1276574.209922863</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.362275248715037</v>
+        <v>-0.6747240503639518</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
         <v>1283357.657219289</v>
       </c>
       <c r="C14" t="n">
-        <v>1263607.916001734</v>
+        <v>1273037.856893205</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.538911706059221</v>
+        <v>-0.8041250440227924</v>
       </c>
     </row>
     <row r="15">
@@ -993,10 +993,10 @@
         <v>806616.9594252668</v>
       </c>
       <c r="C15" t="n">
-        <v>786678.0605384414</v>
+        <v>796960.76427489</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.471916645669383</v>
+        <v>-1.197122752943</v>
       </c>
     </row>
     <row r="16">
@@ -1009,10 +1009,10 @@
         <v>457402.8571253931</v>
       </c>
       <c r="C16" t="n">
-        <v>449316.5932355722</v>
+        <v>453271.9641963413</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.767864752887653</v>
+        <v>-0.9031191792313883</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>594553.9771915111</v>
       </c>
       <c r="C17" t="n">
-        <v>586905.9526952298</v>
+        <v>589920.0060599907</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.286346537013878</v>
+        <v>-0.7794029321626593</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1082,10 @@
         <v>3372602.435199078</v>
       </c>
       <c r="C2" t="n">
-        <v>3283461.372376816</v>
+        <v>3331657.651733979</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.643094302842145</v>
+        <v>-1.2140412115513</v>
       </c>
     </row>
     <row r="3">
@@ -1098,10 +1098,10 @@
         <v>165130.445609969</v>
       </c>
       <c r="C3" t="n">
-        <v>158249.3828091623</v>
+        <v>159868.1178213766</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.167046709883826</v>
+        <v>-3.1867701738187</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>8017599.612171117</v>
       </c>
       <c r="C4" t="n">
-        <v>7853253.34368951</v>
+        <v>7939412.652419786</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.049818853913854</v>
+        <v>-0.97519162259786</v>
       </c>
     </row>
     <row r="5">
@@ -1130,10 +1130,10 @@
         <v>897254.3977899103</v>
       </c>
       <c r="C5" t="n">
-        <v>878198.9758650278</v>
+        <v>888004.4316639728</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.123747955074871</v>
+        <v>-1.030919006774641</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>3005294.609814465</v>
       </c>
       <c r="C6" t="n">
-        <v>2948022.949485627</v>
+        <v>2978932.998786802</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.905692045691779</v>
+        <v>-0.8771722726142502</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +1162,10 @@
         <v>4365278.370174446</v>
       </c>
       <c r="C7" t="n">
-        <v>4282274.908645947</v>
+        <v>4325433.216181684</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.901447158458823</v>
+        <v>-0.9127746414753741</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1178,10 @@
         <v>1397390.239860752</v>
       </c>
       <c r="C8" t="n">
-        <v>1368443.698160344</v>
+        <v>1381853.824004326</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.07147158143112</v>
+        <v>-1.111816542956125</v>
       </c>
     </row>
     <row r="9">
@@ -1194,10 +1194,10 @@
         <v>607104.7726796871</v>
       </c>
       <c r="C9" t="n">
-        <v>593269.6521558042</v>
+        <v>601416.822560491</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.278868680741277</v>
+        <v>-0.9368976122671814</v>
       </c>
     </row>
     <row r="10">
@@ -1210,10 +1210,10 @@
         <v>747302.7328467588</v>
       </c>
       <c r="C10" t="n">
-        <v>734220.8151957201</v>
+        <v>741023.6942334229</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.750551292808038</v>
+        <v>-0.8402269036828883</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         <v>2698896.038135583</v>
       </c>
       <c r="C11" t="n">
-        <v>2659723.93950472</v>
+        <v>2678701.237223711</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.451411913514224</v>
+        <v>-0.7482615345873949</v>
       </c>
     </row>
     <row r="12">
@@ -1242,10 +1242,10 @@
         <v>1524391.011590432</v>
       </c>
       <c r="C12" t="n">
-        <v>1499796.100764323</v>
+        <v>1512647.938207228</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.613425337666381</v>
+        <v>-0.7703452259897473</v>
       </c>
     </row>
     <row r="13">
@@ -1258,10 +1258,10 @@
         <v>1169087.550664374</v>
       </c>
       <c r="C13" t="n">
-        <v>1155471.369869203</v>
+        <v>1162350.495600602</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.164684440222927</v>
+        <v>-0.5762660854564274</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         <v>1254896.669123307</v>
       </c>
       <c r="C14" t="n">
-        <v>1235616.534181688</v>
+        <v>1244797.592824525</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.536392231807288</v>
+        <v>-0.8047735361221039</v>
       </c>
     </row>
     <row r="15">
@@ -1290,10 +1290,10 @@
         <v>794852.5872857772</v>
       </c>
       <c r="C15" t="n">
-        <v>774941.2047039077</v>
+        <v>785216.0261208579</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.505040922098761</v>
+        <v>-1.212370862102334</v>
       </c>
     </row>
     <row r="16">
@@ -1306,10 +1306,10 @@
         <v>451160.8912917899</v>
       </c>
       <c r="C16" t="n">
-        <v>443158.766550737</v>
+        <v>447070.0326853469</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.773674291257984</v>
+        <v>-0.9067405188268428</v>
       </c>
     </row>
     <row r="17">
@@ -1322,10 +1322,10 @@
         <v>552656.7553519364</v>
       </c>
       <c r="C17" t="n">
-        <v>545815.2283394231</v>
+        <v>548350.3893222234</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.237934205320014</v>
+        <v>-0.7792116875456883</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9841485150012714</v>
+        <v>0.9920696053579098</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.585148499872857</v>
+        <v>-0.7930394642090222</v>
       </c>
     </row>
     <row r="3">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9853971121641342</v>
+        <v>0.9927512074710695</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.460288783586583</v>
+        <v>-0.7248792528930514</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.022815959143095</v>
+        <v>1.009261521021555</v>
       </c>
       <c r="D2" t="n">
-        <v>2.281595914309476</v>
+        <v>0.9261521021554531</v>
       </c>
     </row>
     <row r="3">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.013847132947711</v>
+        <v>1.015092111913557</v>
       </c>
       <c r="D3" t="n">
-        <v>1.384713294771056</v>
+        <v>1.509211191355653</v>
       </c>
     </row>
     <row r="4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9958474108339325</v>
+        <v>0.9978333312146054</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4152589166067533</v>
+        <v>-0.2166668785394621</v>
       </c>
     </row>
     <row r="5">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.016098559933817</v>
+        <v>1.007315109616852</v>
       </c>
       <c r="D5" t="n">
-        <v>1.609855993381681</v>
+        <v>0.7315109616852444</v>
       </c>
     </row>
     <row r="6">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.021775773888559</v>
+        <v>1.009113578908534</v>
       </c>
       <c r="D6" t="n">
-        <v>2.177577388855934</v>
+        <v>0.9113578908534148</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.002098657498871</v>
+        <v>1.000912975094697</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2098657498870837</v>
+        <v>0.09129750946967885</v>
       </c>
     </row>
     <row r="8">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.006877137466816</v>
+        <v>1.005064599125609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6877137466815952</v>
+        <v>0.506459912560886</v>
       </c>
     </row>
     <row r="9">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.004506608072272</v>
+        <v>1.000661605901385</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4506608072271767</v>
+        <v>0.06616059013848652</v>
       </c>
     </row>
     <row r="10">
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.003193282746631</v>
+        <v>1.001188769452314</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3193282746630555</v>
+        <v>0.1188769452314276</v>
       </c>
     </row>
     <row r="11">
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9957536646550169</v>
+        <v>0.9987708027258858</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4246335344983088</v>
+        <v>-0.1229197274114191</v>
       </c>
     </row>
     <row r="12">
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999990376954068</v>
+        <v>0.9993909767330441</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0009623045931994589</v>
+        <v>-0.06090232669558882</v>
       </c>
     </row>
     <row r="13">
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9902343769277506</v>
+        <v>0.9952010020350854</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9765623072249374</v>
+        <v>-0.4798997964914564</v>
       </c>
     </row>
     <row r="14">
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9993069772388494</v>
+        <v>1.000210003090457</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06930227611505746</v>
+        <v>0.02100030904568229</v>
       </c>
     </row>
     <row r="15">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.012526110532708</v>
+        <v>1.005688477134662</v>
       </c>
       <c r="D15" t="n">
-        <v>1.252611053270813</v>
+        <v>0.5688477134662362</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.003339387323462</v>
+        <v>1.002073496766064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3339387323461507</v>
+        <v>0.2073496766064498</v>
       </c>
     </row>
     <row r="17">
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9949880762356281</v>
+        <v>0.9998276807271872</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5011923764371873</v>
+        <v>-0.01723192728128042</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.01665135252307</v>
+        <v>1.006776101036774</v>
       </c>
       <c r="D2" t="n">
-        <v>1.665135252307026</v>
+        <v>0.677610103677373</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.010059910498482</v>
+        <v>1.010630728925916</v>
       </c>
       <c r="D3" t="n">
-        <v>1.005991049848176</v>
+        <v>1.063072892591643</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001883467766101</v>
+        <v>1.000777923752441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1883467766100821</v>
+        <v>0.07779237524412341</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.010567877579306</v>
+        <v>1.004886227526587</v>
       </c>
       <c r="D5" t="n">
-        <v>1.056787757930633</v>
+        <v>0.4886227526587072</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.010450431606429</v>
+        <v>1.004413568882838</v>
       </c>
       <c r="D6" t="n">
-        <v>1.045043160642867</v>
+        <v>0.4413568882837726</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.001927958860813</v>
+        <v>1.000853182325653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1927958860813428</v>
+        <v>0.08531823256527904</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.003073221415337</v>
+        <v>1.002252808885392</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3073221415337057</v>
+        <v>0.2252808885391921</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.002401276360707</v>
+        <v>1.000523423248054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2401276360706861</v>
+        <v>0.05234232480544332</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000896446142652</v>
+        <v>1.000224742515845</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0896446142651941</v>
+        <v>0.02247425158454774</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9963994076352172</v>
+        <v>0.9987359607342007</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3600592364782829</v>
+        <v>-0.1264039265799322</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9998286494295089</v>
+        <v>0.9994495766685998</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01713505704911134</v>
+        <v>-0.05504233314002072</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9935903357991545</v>
+        <v>0.9968182926183968</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6409664200845544</v>
+        <v>-0.3181707381603172</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994277402293051</v>
+        <v>1.000146208290056</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05722597706948607</v>
+        <v>0.01462082900556272</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.010803930969</v>
+        <v>1.00490629315716</v>
       </c>
       <c r="D15" t="n">
-        <v>1.080393096900001</v>
+        <v>0.4906293157159736</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002124826113155</v>
+        <v>1.00131289587692</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2124826113155232</v>
+        <v>0.131289587691974</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9967585792897573</v>
+        <v>0.9999872530648322</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3241420710242693</v>
+        <v>-0.001274693516783998</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.016686121718191</v>
+        <v>1.006793512631031</v>
       </c>
       <c r="D2" t="n">
-        <v>1.668612171819106</v>
+        <v>0.6793512631030785</v>
       </c>
     </row>
     <row r="3">
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.00503360265802</v>
+        <v>1.005314896590661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5033602658020442</v>
+        <v>0.5314896590661311</v>
       </c>
     </row>
     <row r="4">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00148706341009</v>
+        <v>1.000614831452827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1487063410090084</v>
+        <v>0.06148314528267029</v>
       </c>
     </row>
     <row r="5">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.010567877235488</v>
+        <v>1.0048862261331</v>
       </c>
       <c r="D5" t="n">
-        <v>1.056787723548758</v>
+        <v>0.4886226133100413</v>
       </c>
     </row>
     <row r="6">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.010447690019242</v>
+        <v>1.004412488901327</v>
       </c>
       <c r="D6" t="n">
-        <v>1.044769001924206</v>
+        <v>0.4412488901327283</v>
       </c>
     </row>
     <row r="7">
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.002052506250181</v>
+        <v>1.000908368828781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2052506250181052</v>
+        <v>0.09083688287812031</v>
       </c>
     </row>
     <row r="8">
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.003201308149122</v>
+        <v>1.002347550575018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3201308149121784</v>
+        <v>0.234755057501812</v>
       </c>
     </row>
     <row r="9">
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.002059458994091</v>
+        <v>1.000450322458779</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2059458994090768</v>
+        <v>0.04503224587792953</v>
       </c>
     </row>
     <row r="10">
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.001149960730246</v>
+        <v>1.000288399737857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1149960730245869</v>
+        <v>0.02883997378571035</v>
       </c>
     </row>
     <row r="11">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9964953855726563</v>
+        <v>0.9987698263679771</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3504614427343733</v>
+        <v>-0.1230173632022935</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9998410925691388</v>
+        <v>0.999489536404264</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01589074308612215</v>
+        <v>-0.05104635957360326</v>
       </c>
     </row>
     <row r="13">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9899243634436086</v>
+        <v>0.9950128803946162</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.007563655639143</v>
+        <v>-0.4987119605383783</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994358789102938</v>
+        <v>1.000144122856213</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05641210897061599</v>
+        <v>0.01441228562129027</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.011474701939726</v>
+        <v>1.005213758009145</v>
       </c>
       <c r="D15" t="n">
-        <v>1.147470193972611</v>
+        <v>0.5213758009145364</v>
       </c>
     </row>
     <row r="16">
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002137342545894</v>
+        <v>1.001320664845693</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2137342545893706</v>
+        <v>0.1320664845693154</v>
       </c>
     </row>
     <row r="17">
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9967658055053205</v>
+        <v>0.999987285200909</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3234194494679543</v>
+        <v>-0.001271479909104034</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.017080413130756</v>
+        <v>1.006952445762558</v>
       </c>
       <c r="D2" t="n">
-        <v>1.708041313075626</v>
+        <v>0.6952445762558046</v>
       </c>
     </row>
     <row r="3">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.014864646959328</v>
+        <v>1.015703915220782</v>
       </c>
       <c r="D3" t="n">
-        <v>1.48646469593281</v>
+        <v>1.570391522078229</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.002567888850078</v>
+        <v>1.00106103367073</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2567888850077971</v>
+        <v>0.1061033670729516</v>
       </c>
     </row>
     <row r="5">
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.010567879569948</v>
+        <v>1.00488622845217</v>
       </c>
       <c r="D5" t="n">
-        <v>1.056787956994776</v>
+        <v>0.4886228452169572</v>
       </c>
     </row>
     <row r="6">
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.010460822632364</v>
+        <v>1.004417983634429</v>
       </c>
       <c r="D6" t="n">
-        <v>1.046082263236414</v>
+        <v>0.4417983634429357</v>
       </c>
     </row>
     <row r="7">
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.002061202893047</v>
+        <v>1.000912214622771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.206120289304712</v>
+        <v>0.09122146227709127</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.003817934245456</v>
+        <v>1.00279927052829</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3817934245455623</v>
+        <v>0.2799270528289988</v>
       </c>
     </row>
     <row r="9">
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.004241643943219</v>
+        <v>1.000925909826911</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4241643943218909</v>
+        <v>0.09259098269105426</v>
       </c>
     </row>
     <row r="10">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.001260493399418</v>
+        <v>1.000316096718301</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1260493399418028</v>
+        <v>0.03160967183006846</v>
       </c>
     </row>
     <row r="11">
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.996339597612363</v>
+        <v>0.9987150135940793</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3660402387636985</v>
+        <v>-0.1284986405920674</v>
       </c>
     </row>
     <row r="12">
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9998279519876342</v>
+        <v>0.9994473354475195</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01720480123658108</v>
+        <v>-0.05526645524804863</v>
       </c>
     </row>
     <row r="13">
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9889343474292515</v>
+        <v>0.9945200882132906</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.106565257074854</v>
+        <v>-0.5479911786709368</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994230944205514</v>
+        <v>1.000147394401343</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.05769055794485611</v>
+        <v>0.01473944013430373</v>
       </c>
     </row>
     <row r="15">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.011646515939184</v>
+        <v>1.00529133602419</v>
       </c>
       <c r="D15" t="n">
-        <v>1.164651593918409</v>
+        <v>0.5291336024190407</v>
       </c>
     </row>
     <row r="16">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002166979816426</v>
+        <v>1.001338963485692</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2166979816426329</v>
+        <v>0.1338963485691513</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9965214748572608</v>
+        <v>0.9999863238820995</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3478525142739164</v>
+        <v>-0.001367611790048517</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3279,10 @@
         <v>1135500.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1147953.902905276</v>
+        <v>1140753.979834323</v>
       </c>
       <c r="D2" t="n">
-        <v>1.096732794403035</v>
+        <v>0.4626579443570672</v>
       </c>
     </row>
     <row r="3">
@@ -3295,10 +3295,10 @@
         <v>131043.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>128150.4614769214</v>
+        <v>128518.0742395541</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.207684746937718</v>
+        <v>-1.927157445201038</v>
       </c>
     </row>
     <row r="4">
@@ -3311,10 +3311,10 @@
         <v>2283937.65102503</v>
       </c>
       <c r="C4" t="n">
-        <v>2260624.781323675</v>
+        <v>2273518.210309235</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.020731441197266</v>
+        <v>-0.4562051293790213</v>
       </c>
     </row>
     <row r="5">
@@ -3327,10 +3327,10 @@
         <v>426893.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>431391.6773692792</v>
+        <v>428984.8746589589</v>
       </c>
       <c r="D5" t="n">
-        <v>1.05377069296666</v>
+        <v>0.4899756501992535</v>
       </c>
     </row>
     <row r="6">
@@ -3343,10 +3343,10 @@
         <v>744992.4177883761</v>
       </c>
       <c r="C6" t="n">
-        <v>758720.2722330079</v>
+        <v>751137.8106151421</v>
       </c>
       <c r="D6" t="n">
-        <v>1.842683779975248</v>
+        <v>0.82489333851337</v>
       </c>
     </row>
     <row r="7">
@@ -3359,10 +3359,10 @@
         <v>1787008.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>1784528.768413466</v>
+        <v>1786270.520614851</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.138764348505249</v>
+        <v>-0.04129686571218144</v>
       </c>
     </row>
     <row r="8">
@@ -3375,10 +3375,10 @@
         <v>425529.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>425705.9514630162</v>
+        <v>425845.4978984157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04155609228495873</v>
+        <v>0.07434972013186703</v>
       </c>
     </row>
     <row r="9">
@@ -3391,10 +3391,10 @@
         <v>224861.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>223461.1591923729</v>
+        <v>224503.0840450842</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6226501103102964</v>
+        <v>-0.1592866738147616</v>
       </c>
     </row>
     <row r="10">
@@ -3407,10 +3407,10 @@
         <v>316229.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>316476.2180589201</v>
+        <v>316397.3755626972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07791053149405656</v>
+        <v>0.05297850869794394</v>
       </c>
     </row>
     <row r="11">
@@ -3423,10 +3423,10 @@
         <v>917723.7076114072</v>
       </c>
       <c r="C11" t="n">
-        <v>915178.4161254785</v>
+        <v>917047.8248749316</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2773483418613452</v>
+        <v>-0.0736477363361028</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3439,10 @@
         <v>1029993.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1029689.233068895</v>
+        <v>1029606.447936791</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02955484431500728</v>
+        <v>-0.03759228536321178</v>
       </c>
     </row>
     <row r="13">
@@ -3455,10 +3455,10 @@
         <v>418612.9897780325</v>
       </c>
       <c r="C13" t="n">
-        <v>420225.1171386415</v>
+        <v>419446.2432641129</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3851116424895881</v>
+        <v>0.1990510343508965</v>
       </c>
     </row>
     <row r="14">
@@ -3471,10 +3471,10 @@
         <v>99793.11102378671</v>
       </c>
       <c r="C14" t="n">
-        <v>99774.28453674217</v>
+        <v>99802.02528756979</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0188655177210122</v>
+        <v>0.008932744647028954</v>
       </c>
     </row>
     <row r="15">
@@ -3487,10 +3487,10 @@
         <v>162559.2634633618</v>
       </c>
       <c r="C15" t="n">
-        <v>162785.5076257314</v>
+        <v>162668.2776082793</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1391764194481414</v>
+        <v>0.06706117055090205</v>
       </c>
     </row>
     <row r="16">
@@ -3503,10 +3503,10 @@
         <v>213874.0429722403</v>
       </c>
       <c r="C16" t="n">
-        <v>214159.1636672346</v>
+        <v>214060.7352876899</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1333124352221286</v>
+        <v>0.08729077771901075</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>265197.5242526537</v>
       </c>
       <c r="C17" t="n">
-        <v>264925.3435630862</v>
+        <v>265189.2761241099</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.102633194006804</v>
+        <v>-0.003110183085994619</v>
       </c>
     </row>
     <row r="18">
@@ -3535,10 +3535,10 @@
         <v>580692</v>
       </c>
       <c r="C18" t="n">
-        <v>586316.7747748595</v>
+        <v>582978.0821729491</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9686330748244411</v>
+        <v>0.3936823949613736</v>
       </c>
     </row>
     <row r="19">
@@ -3551,10 +3551,10 @@
         <v>23593</v>
       </c>
       <c r="C19" t="n">
-        <v>23042.90621658638</v>
+        <v>23122.43945582496</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.331597437433223</v>
+        <v>-1.994492197579966</v>
       </c>
     </row>
     <row r="20">
@@ -3567,10 +3567,10 @@
         <v>959036.53</v>
       </c>
       <c r="C20" t="n">
-        <v>948044.5508335513</v>
+        <v>954005.9057356917</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.146148120807108</v>
+        <v>-0.5245498067011449</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3583,10 @@
         <v>92438</v>
       </c>
       <c r="C21" t="n">
-        <v>93293.72205513158</v>
+        <v>92827.14673572894</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9257254106877951</v>
+        <v>0.4209813450409319</v>
       </c>
     </row>
     <row r="22">
@@ -3599,10 +3599,10 @@
         <v>576094</v>
       </c>
       <c r="C22" t="n">
-        <v>585966.1706860319</v>
+        <v>580447.3642637803</v>
       </c>
       <c r="D22" t="n">
-        <v>1.713638865537903</v>
+        <v>0.755669085909643</v>
       </c>
     </row>
     <row r="23">
@@ -3615,10 +3615,10 @@
         <v>975807</v>
       </c>
       <c r="C23" t="n">
-        <v>973218.1979923134</v>
+        <v>974734.3303931757</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2652985690496768</v>
+        <v>-0.1099264103274817</v>
       </c>
     </row>
     <row r="24">
@@ -3631,10 +3631,10 @@
         <v>241220</v>
       </c>
       <c r="C24" t="n">
-        <v>241014.4646096213</v>
+        <v>241233.6066774584</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08520661237820396</v>
+        <v>0.005640775001428961</v>
       </c>
     </row>
     <row r="25">
@@ -3647,10 +3647,10 @@
         <v>127419</v>
       </c>
       <c r="C25" t="n">
-        <v>126465.1780639854</v>
+        <v>127128.694654907</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7485711989692185</v>
+        <v>-0.2278352091077713</v>
       </c>
     </row>
     <row r="26">
@@ -3663,10 +3663,10 @@
         <v>156760</v>
       </c>
       <c r="C26" t="n">
-        <v>156683.347122273</v>
+        <v>156735.3639692818</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04889823789678462</v>
+        <v>-0.01571576340789649</v>
       </c>
     </row>
     <row r="27">
@@ -3679,10 +3679,10 @@
         <v>427069</v>
       </c>
       <c r="C27" t="n">
-        <v>425344.8927120646</v>
+        <v>426461.4726971362</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.4037069625600052</v>
+        <v>-0.142255069523621</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3695,10 @@
         <v>56837</v>
       </c>
       <c r="C28" t="n">
-        <v>56748.20500749708</v>
+        <v>56776.62525285341</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1562274442756027</v>
+        <v>-0.1062243734655073</v>
       </c>
     </row>
     <row r="29">
@@ -3711,10 +3711,10 @@
         <v>725200</v>
       </c>
       <c r="C29" t="n">
-        <v>727070.3895607868</v>
+        <v>726144.6199343571</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2579136184206804</v>
+        <v>0.1302564719190734</v>
       </c>
     </row>
     <row r="30">
@@ -3727,10 +3727,10 @@
         <v>612367</v>
       </c>
       <c r="C30" t="n">
-        <v>611475.6896531486</v>
+        <v>612001.2253124126</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1455516621325705</v>
+        <v>-0.05973128656302511</v>
       </c>
     </row>
     <row r="31">
@@ -3743,10 +3743,10 @@
         <v>559598</v>
       </c>
       <c r="C31" t="n">
-        <v>559666.7747062353</v>
+        <v>559588.807089615</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01229002002067053</v>
+        <v>-0.00164277041464924</v>
       </c>
     </row>
     <row r="32">
@@ -3759,10 +3759,10 @@
         <v>84287</v>
       </c>
       <c r="C32" t="n">
-        <v>84292.42257553118</v>
+        <v>84302.65458028493</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006433466051915662</v>
+        <v>0.01857294753037677</v>
       </c>
     </row>
     <row r="33">
@@ -3775,10 +3775,10 @@
         <v>98666.46999999974</v>
       </c>
       <c r="C33" t="n">
-        <v>98440.3134303823</v>
+        <v>98595.66107454279</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2292131963547872</v>
+        <v>-0.07176594587497627</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3820,10 @@
         <v>2685479.873327278</v>
       </c>
       <c r="B2" t="n">
-        <v>2644161.835027991</v>
+        <v>2664865.765829696</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.538571884662616</v>
+        <v>-0.767613553999255</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3865,10 @@
         <v>129988.6072602831</v>
       </c>
       <c r="B2" t="n">
-        <v>127841.3614776147</v>
+        <v>128932.120679971</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.651872289368315</v>
+        <v>-0.8127532116692378</v>
       </c>
     </row>
   </sheetData>
@@ -3910,10 +3910,10 @@
         <v>945269.9536134986</v>
       </c>
       <c r="B2" t="n">
-        <v>930726.2958730382</v>
+        <v>938013.9333276789</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.538571884662586</v>
+        <v>-0.767613553999252</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3967,10 @@
         <v>46424</v>
       </c>
       <c r="C2" t="n">
-        <v>45910.80063959675</v>
+        <v>46154.97793954793</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.105461313982524</v>
+        <v>-0.5794891876013974</v>
       </c>
     </row>
     <row r="3">
@@ -3983,10 +3983,10 @@
         <v>8686</v>
       </c>
       <c r="C3" t="n">
-        <v>8328.366941915941</v>
+        <v>8413.908375656429</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.117350426940578</v>
+        <v>-3.132530789127001</v>
       </c>
     </row>
     <row r="4">
@@ -3999,10 +3999,10 @@
         <v>245357</v>
       </c>
       <c r="C4" t="n">
-        <v>240451.6414927795</v>
+        <v>243015.793938312</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.999273918095045</v>
+        <v>-0.9542038994966476</v>
       </c>
     </row>
     <row r="5">
@@ -4015,10 +4015,10 @@
         <v>37699</v>
       </c>
       <c r="C5" t="n">
-        <v>37288.30555014462</v>
+        <v>37492.66065254593</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.089404095215731</v>
+        <v>-0.5473337421525019</v>
       </c>
     </row>
     <row r="6">
@@ -4031,10 +4031,10 @@
         <v>52755</v>
       </c>
       <c r="C6" t="n">
-        <v>52289.38291449715</v>
+        <v>52522.58149361905</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8826027589855876</v>
+        <v>-0.4405620441303177</v>
       </c>
     </row>
     <row r="7">
@@ -4047,10 +4047,10 @@
         <v>474489</v>
       </c>
       <c r="C7" t="n">
-        <v>466240.2266971676</v>
+        <v>470503.6111132147</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.738454063810214</v>
+        <v>-0.8399328302205761</v>
       </c>
     </row>
     <row r="8">
@@ -4063,10 +4063,10 @@
         <v>31090</v>
       </c>
       <c r="C8" t="n">
-        <v>30494.25014902276</v>
+        <v>30780.0236104433</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.916210520994676</v>
+        <v>-0.9970292362711638</v>
       </c>
     </row>
     <row r="9">
@@ -4079,10 +4079,10 @@
         <v>51009</v>
       </c>
       <c r="C9" t="n">
-        <v>49783.29927601792</v>
+        <v>50516.89540232863</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.4029107098396</v>
+        <v>-0.9647407274625501</v>
       </c>
     </row>
     <row r="10">
@@ -4095,10 +4095,10 @@
         <v>42935</v>
       </c>
       <c r="C10" t="n">
-        <v>42190.51919528526</v>
+        <v>42576.03921514403</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.73397182884532</v>
+        <v>-0.8360563289995763</v>
       </c>
     </row>
     <row r="11">
@@ -4111,10 +4111,10 @@
         <v>153354</v>
       </c>
       <c r="C11" t="n">
-        <v>150602.1303149985</v>
+        <v>152020.4927826698</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.794455759224714</v>
+        <v>-0.8695614182415775</v>
       </c>
     </row>
     <row r="12">
@@ -4127,10 +4127,10 @@
         <v>102842</v>
       </c>
       <c r="C12" t="n">
-        <v>101165.5245355316</v>
+        <v>101994.0484266523</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.630146695385514</v>
+        <v>-0.8245187504596532</v>
       </c>
     </row>
     <row r="13">
@@ -4143,10 +4143,10 @@
         <v>15452</v>
       </c>
       <c r="C13" t="n">
-        <v>15317.3630745422</v>
+        <v>15384.93431881271</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8713236180287126</v>
+        <v>-0.434025894300376</v>
       </c>
     </row>
     <row r="14">
@@ -4159,10 +4159,10 @@
         <v>55546</v>
       </c>
       <c r="C14" t="n">
-        <v>54661.80538494234</v>
+        <v>55106.90571253443</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.591824100849138</v>
+        <v>-0.7905056844157525</v>
       </c>
     </row>
     <row r="15">
@@ -4175,10 +4175,10 @@
         <v>9450</v>
       </c>
       <c r="C15" t="n">
-        <v>9297.306664994056</v>
+        <v>9374.048362114261</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.61580248683539</v>
+        <v>-0.803721035827924</v>
       </c>
     </row>
     <row r="16">
@@ -4191,10 +4191,10 @@
         <v>10107</v>
       </c>
       <c r="C16" t="n">
-        <v>9947.992520640204</v>
+        <v>10027.98272265293</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.573241113681567</v>
+        <v>-0.7818074339277226</v>
       </c>
     </row>
     <row r="17">
@@ -4207,10 +4207,10 @@
         <v>47161</v>
       </c>
       <c r="C17" t="n">
-        <v>46448.29681471088</v>
+        <v>46793.00646169753</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.511213047410197</v>
+        <v>-0.7802920597580019</v>
       </c>
     </row>
   </sheetData>
@@ -4264,13 +4264,9 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4282,13 +4278,9 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4300,13 +4292,9 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4318,13 +4306,9 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4336,13 +4320,9 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4354,13 +4334,9 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4372,13 +4348,9 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510129769478951e-40</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4390,13 +4362,9 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4408,13 +4376,9 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4426,13 +4390,9 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4444,13 +4404,9 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4462,13 +4418,9 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4480,13 +4432,9 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4498,13 +4446,9 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4516,13 +4460,9 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4534,13 +4474,9 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.510129769478846e-40</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4593,10 +4529,10 @@
         <v>996184.050494849</v>
       </c>
       <c r="C2" t="n">
-        <v>969035.8634310759</v>
+        <v>983745.3139915622</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.725218000658345</v>
+        <v>-1.248638391380376</v>
       </c>
     </row>
     <row r="3">
@@ -4609,10 +4545,10 @@
         <v>976.8286270496617</v>
       </c>
       <c r="C3" t="n">
-        <v>927.2808074732143</v>
+        <v>936.2758745283382</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.072314447427472</v>
+        <v>-4.151470523934774</v>
       </c>
     </row>
     <row r="4">
@@ -4625,10 +4561,10 @@
         <v>1335493.450539227</v>
       </c>
       <c r="C4" t="n">
-        <v>1306332.842504074</v>
+        <v>1321721.921080129</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.183508127529896</v>
+        <v>-1.031194084369163</v>
       </c>
     </row>
     <row r="5">
@@ -4641,10 +4577,10 @@
         <v>2112.539597468874</v>
       </c>
       <c r="C5" t="n">
-        <v>2067.674572821571</v>
+        <v>2090.761021381405</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.123748340672893</v>
+        <v>-1.030919189091786</v>
       </c>
     </row>
     <row r="6">
@@ -4657,10 +4593,10 @@
         <v>3120.123852353638</v>
       </c>
       <c r="C6" t="n">
-        <v>3060.600952223218</v>
+        <v>3092.72780373267</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.907709531643096</v>
+        <v>-0.8780436263868986</v>
       </c>
     </row>
     <row r="7">
@@ -4673,10 +4609,10 @@
         <v>13906.41378521889</v>
       </c>
       <c r="C7" t="n">
-        <v>13638.36296691044</v>
+        <v>13777.85422861724</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.927533744130066</v>
+        <v>-0.9244623278670188</v>
       </c>
     </row>
     <row r="8">
@@ -4689,10 +4625,10 @@
         <v>790.3713158162036</v>
       </c>
       <c r="C8" t="n">
-        <v>772.8509952780563</v>
+        <v>780.7322421900973</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.21672019056693</v>
+        <v>-1.219562683161421</v>
       </c>
     </row>
     <row r="9">
@@ -4705,10 +4641,10 @@
         <v>8004.610860240749</v>
       </c>
       <c r="C9" t="n">
-        <v>7793.552734651401</v>
+        <v>7923.239911227669</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.636706883999613</v>
+        <v>-1.016550965859609</v>
       </c>
     </row>
     <row r="10">
@@ -4721,10 +4657,10 @@
         <v>567.3164122969201</v>
       </c>
       <c r="C10" t="n">
-        <v>556.9800029520949</v>
+        <v>562.4469217902257</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.821983133358642</v>
+        <v>-0.8583376756154651</v>
       </c>
     </row>
     <row r="11">
@@ -4737,10 +4673,10 @@
         <v>831.6523942152977</v>
       </c>
       <c r="C11" t="n">
-        <v>819.6800938179365</v>
+        <v>825.464084877111</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.439579863009668</v>
+        <v>-0.7440980608281295</v>
       </c>
     </row>
     <row r="12">
@@ -4753,10 +4689,10 @@
         <v>994.4142883118851</v>
       </c>
       <c r="C12" t="n">
-        <v>978.3715211708326</v>
+        <v>986.7582908332308</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.613288076168605</v>
+        <v>-0.7699001883461555</v>
       </c>
     </row>
     <row r="13">
@@ -4769,10 +4705,10 @@
         <v>2668.348360238089</v>
       </c>
       <c r="C13" t="n">
-        <v>2662.161975072528</v>
+        <v>2665.247073692681</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2318432352291967</v>
+        <v>-0.1162249499211344</v>
       </c>
     </row>
     <row r="14">
@@ -4785,10 +4721,10 @@
         <v>2408.744516456872</v>
       </c>
       <c r="C14" t="n">
-        <v>2371.758802864701</v>
+        <v>2389.353910781595</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.535476815389931</v>
+        <v>-0.8050088144590619</v>
       </c>
     </row>
     <row r="15">
@@ -4801,10 +4737,10 @@
         <v>887.2225417552854</v>
       </c>
       <c r="C15" t="n">
-        <v>863.5569679918565</v>
+        <v>875.7948413155686</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.667377422197688</v>
+        <v>-1.288030894380586</v>
       </c>
     </row>
     <row r="16">
@@ -4817,10 +4753,10 @@
         <v>769.1315417398619</v>
       </c>
       <c r="C16" t="n">
-        <v>755.4260990051923</v>
+        <v>762.117832809434</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.781937417839643</v>
+        <v>-0.9118997921424487</v>
       </c>
     </row>
     <row r="17">
@@ -4833,10 +4769,10 @@
         <v>841.3175629623918</v>
       </c>
       <c r="C17" t="n">
-        <v>831.2980488928162</v>
+        <v>834.7634694970728</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.190931285719933</v>
+        <v>-0.7790272964516635</v>
       </c>
     </row>
     <row r="18">
@@ -4849,10 +4785,10 @@
         <v>43.99404506602389</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79511143066686</v>
+        <v>43.44471852940833</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.72521800065835</v>
+        <v>-1.248638391380363</v>
       </c>
     </row>
     <row r="19">
@@ -4865,10 +4801,10 @@
         <v>24092.79883337583</v>
       </c>
       <c r="C19" t="n">
-        <v>22870.73631736086</v>
+        <v>23092.59339141732</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.072314447427509</v>
+        <v>-4.15147052393481</v>
       </c>
     </row>
     <row r="20">
@@ -4881,10 +4817,10 @@
         <v>386766.2071966509</v>
       </c>
       <c r="C20" t="n">
-        <v>378321.1356279728</v>
+        <v>382777.8969476999</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.183508127529918</v>
+        <v>-1.031194084369193</v>
       </c>
     </row>
     <row r="21">
@@ -4897,10 +4833,10 @@
         <v>25400.93814486871</v>
       </c>
       <c r="C21" t="n">
-        <v>24861.48614250172</v>
+        <v>25139.07499932393</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.123748340672866</v>
+        <v>-1.030919189091772</v>
       </c>
     </row>
     <row r="22">
@@ -4913,10 +4849,10 @@
         <v>30205.13465254084</v>
       </c>
       <c r="C22" t="n">
-        <v>29628.90841972869</v>
+        <v>29939.92039288263</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.907709531643087</v>
+        <v>-0.8780436263868773</v>
       </c>
     </row>
     <row r="23">
@@ -4929,10 +4865,10 @@
         <v>554.7138472670425</v>
       </c>
       <c r="C23" t="n">
-        <v>544.0215506776083</v>
+        <v>549.5857267215971</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.927533744130046</v>
+        <v>-0.9244623278669875</v>
       </c>
     </row>
     <row r="24">
@@ -4945,10 +4881,10 @@
         <v>60.33259108559908</v>
       </c>
       <c r="C24" t="n">
-        <v>58.99518635751243</v>
+        <v>59.59679731893475</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.21672019056691</v>
+        <v>-1.219562683161403</v>
       </c>
     </row>
     <row r="25">
@@ -4961,10 +4897,10 @@
         <v>121.3883533638887</v>
       </c>
       <c r="C25" t="n">
-        <v>118.1876982943692</v>
+        <v>120.154378885327</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.636706883999659</v>
+        <v>-1.016550965859649</v>
       </c>
     </row>
     <row r="26">
@@ -4977,10 +4913,10 @@
         <v>44.76267229817115</v>
       </c>
       <c r="C26" t="n">
-        <v>43.94710395885787</v>
+        <v>44.37845741722366</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.821983133358628</v>
+        <v>-0.8583376756154477</v>
       </c>
     </row>
     <row r="27">
@@ -4993,10 +4929,10 @@
         <v>87.47359940953065</v>
       </c>
       <c r="C27" t="n">
-        <v>86.21434708698129</v>
+        <v>86.82271005258777</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.43957986300968</v>
+        <v>-0.7440980608281293</v>
       </c>
     </row>
     <row r="28">
@@ -5009,10 +4945,10 @@
         <v>619.7676712045622</v>
       </c>
       <c r="C28" t="n">
-        <v>609.7690332650711</v>
+        <v>614.9960787366498</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.613288076168616</v>
+        <v>-0.7699001883461473</v>
       </c>
     </row>
     <row r="29">
@@ -5025,10 +4961,10 @@
         <v>110.111208618299</v>
       </c>
       <c r="C29" t="n">
-        <v>109.8559232298883</v>
+        <v>109.9832319212248</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2318432352292286</v>
+        <v>-0.116224949921161</v>
       </c>
     </row>
     <row r="30">
@@ -5041,10 +4977,10 @@
         <v>75.57409461921016</v>
       </c>
       <c r="C30" t="n">
-        <v>74.41367191789134</v>
+        <v>74.96571649607786</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.535476815389932</v>
+        <v>-0.8050088144590936</v>
       </c>
     </row>
     <row r="31">
@@ -5057,10 +4993,10 @@
         <v>40.98978434403799</v>
       </c>
       <c r="C31" t="n">
-        <v>39.8964320910376</v>
+        <v>40.4618232581468</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.6673774221977</v>
+        <v>-1.288030894380601</v>
       </c>
     </row>
     <row r="32">
@@ -5073,10 +5009,10 @@
         <v>17.20957189616361</v>
       </c>
       <c r="C32" t="n">
-        <v>16.90290809509586</v>
+        <v>17.05263784581389</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.781937417839633</v>
+        <v>-0.9118997921424137</v>
       </c>
     </row>
     <row r="33">
@@ -5089,10 +5025,10 @@
         <v>28.85883731522917</v>
       </c>
       <c r="C33" t="n">
-        <v>28.51514839294709</v>
+        <v>28.63401909510496</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.190931285719925</v>
+        <v>-0.7790272964516615</v>
       </c>
     </row>
     <row r="34">
@@ -5105,10 +5041,10 @@
         <v>562317.1813914984</v>
       </c>
       <c r="C34" t="n">
-        <v>546992.8123434226</v>
+        <v>555295.8731833161</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.725218000658365</v>
+        <v>-1.248638391380387</v>
       </c>
     </row>
     <row r="35">
@@ -5121,10 +5057,10 @@
         <v>32889.50558041631</v>
       </c>
       <c r="C35" t="n">
-        <v>31221.24643717338</v>
+        <v>31524.10745077744</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.072314447427506</v>
+        <v>-4.151470523934787</v>
       </c>
     </row>
     <row r="36">
@@ -5137,10 +5073,10 @@
         <v>3536384.555394445</v>
       </c>
       <c r="C36" t="n">
-        <v>3459167.311206695</v>
+        <v>3499917.567058673</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.183508127529903</v>
+        <v>-1.031194084369168</v>
       </c>
     </row>
     <row r="37">
@@ -5153,10 +5089,10 @@
         <v>169840.3628270353</v>
       </c>
       <c r="C37" t="n">
-        <v>166233.3809397033</v>
+        <v>168089.4459358283</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.123748340672897</v>
+        <v>-1.030919189091801</v>
       </c>
     </row>
     <row r="38">
@@ -5169,10 +5105,10 @@
         <v>1185357.660552872</v>
       </c>
       <c r="C38" t="n">
-        <v>1162744.479478443</v>
+        <v>1174949.703164498</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.907709531643142</v>
+        <v>-0.8780436263869364</v>
       </c>
     </row>
     <row r="39">
@@ -5185,10 +5121,10 @@
         <v>159824.3694267376</v>
       </c>
       <c r="C39" t="n">
-        <v>156743.7007746942</v>
+        <v>158346.8533406364</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.927533744130054</v>
+        <v>-0.9244623278670066</v>
       </c>
     </row>
     <row r="40">
@@ -5201,10 +5137,10 @@
         <v>421376.2451161093</v>
       </c>
       <c r="C40" t="n">
-        <v>412035.5128123677</v>
+        <v>416237.2976749664</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.216720190566937</v>
+        <v>-1.219562683161434</v>
       </c>
     </row>
     <row r="41">
@@ -5217,10 +5153,10 @@
         <v>232131.569601793</v>
       </c>
       <c r="C41" t="n">
-        <v>226010.9405261661</v>
+        <v>229771.8338889409</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.636706883999619</v>
+        <v>-1.016550965859621</v>
       </c>
     </row>
     <row r="42">
@@ -5233,10 +5169,10 @@
         <v>128836.3952206124</v>
       </c>
       <c r="C42" t="n">
-        <v>126489.0178300656</v>
+        <v>127730.543900529</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.821983133358633</v>
+        <v>-0.8583376756154623</v>
       </c>
     </row>
     <row r="43">
@@ -5249,10 +5185,10 @@
         <v>94652.76397187269</v>
       </c>
       <c r="C43" t="n">
-        <v>93290.16184195154</v>
+        <v>93948.45459063778</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.439579863009661</v>
+        <v>-0.7440980608281079</v>
       </c>
     </row>
     <row r="44">
@@ -5265,10 +5201,10 @@
         <v>43047.18661193399</v>
       </c>
       <c r="C44" t="n">
-        <v>42352.71148319761</v>
+        <v>42715.76624113099</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.613288076168598</v>
+        <v>-0.769900188346145</v>
       </c>
     </row>
     <row r="45">
@@ -5281,10 +5217,10 @@
         <v>127914.3668898133</v>
       </c>
       <c r="C45" t="n">
-        <v>127617.806083293</v>
+        <v>127765.6984809537</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2318432352292161</v>
+        <v>-0.1162249499211469</v>
       </c>
     </row>
     <row r="46">
@@ -5297,10 +5233,10 @@
         <v>25993.78164756393</v>
       </c>
       <c r="C46" t="n">
-        <v>25594.6531569225</v>
+        <v>25784.52941408979</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.535476815389954</v>
+        <v>-0.8050088144590828</v>
       </c>
     </row>
     <row r="47">
@@ -5313,10 +5249,10 @@
         <v>38145.22126086871</v>
       </c>
       <c r="C47" t="n">
-        <v>37127.74424130895</v>
+        <v>37653.89902629889</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.667377422197675</v>
+        <v>-1.288030894380592</v>
       </c>
     </row>
     <row r="48">
@@ -5329,10 +5265,10 @@
         <v>32035.35572329106</v>
       </c>
       <c r="C48" t="n">
-        <v>31464.5057327197</v>
+        <v>31743.22538103828</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.781937417839646</v>
+        <v>-0.9118997921424263</v>
       </c>
     </row>
     <row r="49">
@@ -5345,10 +5281,10 @@
         <v>53452.78309609117</v>
       </c>
       <c r="C49" t="n">
-        <v>52816.19717911181</v>
+        <v>53036.37132505952</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.190931285719913</v>
+        <v>-0.7790272964516611</v>
       </c>
     </row>
     <row r="50">
@@ -5361,10 +5297,10 @@
         <v>23680.12450086494</v>
       </c>
       <c r="C50" t="n">
-        <v>23034.78948538906</v>
+        <v>23384.44537522047</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.72521800065834</v>
+        <v>-1.248638391380361</v>
       </c>
     </row>
     <row r="51">
@@ -5377,10 +5313,10 @@
         <v>4258.121092261274</v>
       </c>
       <c r="C51" t="n">
-        <v>4042.135800909548</v>
+        <v>4081.346450242597</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.072314447427487</v>
+        <v>-4.151470523934788</v>
       </c>
     </row>
     <row r="52">
@@ -5393,10 +5329,10 @@
         <v>251159.6278232176</v>
       </c>
       <c r="C52" t="n">
-        <v>245675.5369366238</v>
+        <v>248569.684598781</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.183508127529897</v>
+        <v>-1.031194084369166</v>
       </c>
     </row>
     <row r="53">
@@ -5409,10 +5345,10 @@
         <v>38201.89914724839</v>
       </c>
       <c r="C53" t="n">
-        <v>37390.58694800317</v>
+        <v>37808.06843834191</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.123748340672898</v>
+        <v>-1.03091918909179</v>
       </c>
     </row>
     <row r="54">
@@ -5425,10 +5361,10 @@
         <v>41069.58495758228</v>
       </c>
       <c r="C54" t="n">
-        <v>40286.09657074022</v>
+        <v>40708.97608447868</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.907709531643101</v>
+        <v>-0.8780436263868892</v>
       </c>
     </row>
     <row r="55">
@@ -5441,10 +5377,10 @@
         <v>68364.54647427362</v>
       </c>
       <c r="C55" t="n">
-        <v>67046.79677196054</v>
+        <v>67732.54199650184</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.927533744130037</v>
+        <v>-0.9244623278669969</v>
       </c>
     </row>
     <row r="56">
@@ -5457,10 +5393,10 @@
         <v>29101.75632494179</v>
       </c>
       <c r="C56" t="n">
-        <v>28456.65181667721</v>
+        <v>28746.84216465823</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.21672019056694</v>
+        <v>-1.219562683161422</v>
       </c>
     </row>
     <row r="57">
@@ -5473,10 +5409,10 @@
         <v>14559.03440803147</v>
       </c>
       <c r="C57" t="n">
-        <v>14175.15534555103</v>
+        <v>14411.03440313679</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.636706883999618</v>
+        <v>-1.016550965859609</v>
       </c>
     </row>
     <row r="58">
@@ -5489,10 +5425,10 @@
         <v>23427.48332184359</v>
       </c>
       <c r="C58" t="n">
-        <v>23000.6385271492</v>
+        <v>23226.39640604368</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.821983133358614</v>
+        <v>-0.858337675615458</v>
       </c>
     </row>
     <row r="59">
@@ -5505,10 +5441,10 @@
         <v>46150.93133109502</v>
       </c>
       <c r="C59" t="n">
-        <v>45486.55181706115</v>
+        <v>45807.52314600622</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.439579863009681</v>
+        <v>-0.7440980608281216</v>
       </c>
     </row>
     <row r="60">
@@ -5521,10 +5457,10 @@
         <v>21759.37696278335</v>
       </c>
       <c r="C60" t="n">
-        <v>21408.33552879419</v>
+        <v>21591.85147856393</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.613288076168601</v>
+        <v>-0.7699001883461389</v>
       </c>
     </row>
     <row r="61">
@@ -5537,10 +5473,10 @@
         <v>46542.62425884105</v>
       </c>
       <c r="C61" t="n">
-        <v>46434.71833299878</v>
+        <v>46488.53011710423</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2318432352292079</v>
+        <v>-0.1162249499211415</v>
       </c>
     </row>
     <row r="62">
@@ -5553,10 +5489,10 @@
         <v>7503.299767465179</v>
       </c>
       <c r="C62" t="n">
-        <v>7388.088339146543</v>
+        <v>7442.897542961797</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.535476815389947</v>
+        <v>-0.8050088144590762</v>
       </c>
     </row>
     <row r="63">
@@ -5569,10 +5505,10 @@
         <v>7286.174502210705</v>
       </c>
       <c r="C63" t="n">
-        <v>7091.824728596812</v>
+        <v>7192.326323603751</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.667377422197691</v>
+        <v>-1.288030894380578</v>
       </c>
     </row>
     <row r="64">
@@ -5585,10 +5521,10 @@
         <v>7097.341416109978</v>
       </c>
       <c r="C64" t="n">
-        <v>6970.871233744483</v>
+        <v>7032.620774488832</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.781937417839662</v>
+        <v>-0.9118997921424324</v>
       </c>
     </row>
     <row r="65">
@@ -5601,10 +5537,10 @@
         <v>7416.897539297385</v>
       </c>
       <c r="C65" t="n">
-        <v>7328.567386072101</v>
+        <v>7359.117882916407</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.190931285719933</v>
+        <v>-0.7790272964516576</v>
       </c>
     </row>
     <row r="66">
@@ -5617,10 +5553,10 @@
         <v>224.7272828615001</v>
       </c>
       <c r="C66" t="n">
-        <v>218.602974496568</v>
+        <v>221.9212517317854</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.725218000658374</v>
+        <v>-1.248638391380398</v>
       </c>
     </row>
     <row r="67">
@@ -5633,10 +5569,10 @@
         <v>173.8153879829501</v>
       </c>
       <c r="C67" t="n">
-        <v>164.9989249464388</v>
+        <v>166.599493384775</v>
       </c>
       <c r="D67" t="n">
-        <v>-5.072314447427489</v>
+        <v>-4.151470523934799</v>
       </c>
     </row>
     <row r="68">
@@ -5649,10 +5585,10 @@
         <v>4996.512834695077</v>
       </c>
       <c r="C68" t="n">
-        <v>4887.413570856435</v>
+        <v>4944.989089918955</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.183508127529898</v>
+        <v>-1.031194084369169</v>
       </c>
     </row>
     <row r="69">
@@ -5665,10 +5601,10 @@
         <v>276.6235712497684</v>
       </c>
       <c r="C69" t="n">
-        <v>270.7487827454413</v>
+        <v>273.7718057722035</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.123748340672914</v>
+        <v>-1.030919189091813</v>
       </c>
     </row>
     <row r="70">
@@ -5681,10 +5617,10 @@
         <v>1232.245435416442</v>
       </c>
       <c r="C70" t="n">
-        <v>1208.737771791765</v>
+        <v>1221.425782909324</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.90770953164314</v>
+        <v>-0.8780436263869168</v>
       </c>
     </row>
     <row r="71">
@@ -5697,10 +5633,10 @@
         <v>5856.068227410703</v>
       </c>
       <c r="C71" t="n">
-        <v>5743.190536248085</v>
+        <v>5801.931082754103</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.927533744130024</v>
+        <v>-0.9244623278669865</v>
       </c>
     </row>
     <row r="72">
@@ -5713,10 +5649,10 @@
         <v>2040.773234874782</v>
       </c>
       <c r="C72" t="n">
-        <v>1995.535002533627</v>
+        <v>2015.884726054303</v>
       </c>
       <c r="D72" t="n">
-        <v>-2.216720190566923</v>
+        <v>-1.219562683161411</v>
       </c>
     </row>
     <row r="73">
@@ -5729,10 +5665,10 @@
         <v>1134.678551830647</v>
       </c>
       <c r="C73" t="n">
-        <v>1104.760404343262</v>
+        <v>1123.143966052611</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.636706883999574</v>
+        <v>-1.016550965859585</v>
       </c>
     </row>
     <row r="74">
@@ -5745,10 +5681,10 @@
         <v>4263.535655062377</v>
       </c>
       <c r="C74" t="n">
-        <v>4185.854754542409</v>
+        <v>4226.940122221678</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.821983133358642</v>
+        <v>-0.8583376756154645</v>
       </c>
     </row>
     <row r="75">
@@ -5761,10 +5697,10 @@
         <v>2782.808024353337</v>
       </c>
       <c r="C75" t="n">
-        <v>2742.747280408529</v>
+        <v>2762.101203807554</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.439579863009679</v>
+        <v>-0.7440980608281418</v>
       </c>
     </row>
     <row r="76">
@@ -5777,10 +5713,10 @@
         <v>316.9983391350282</v>
       </c>
       <c r="C76" t="n">
-        <v>311.8842427281102</v>
+        <v>314.5577683249734</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.613288076168613</v>
+        <v>-0.7699001883461462</v>
       </c>
     </row>
     <row r="77">
@@ -5793,10 +5729,10 @@
         <v>14455.75492983291</v>
       </c>
       <c r="C77" t="n">
-        <v>14422.24023992678</v>
+        <v>14438.95373590499</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.2318432352292001</v>
+        <v>-0.1162249499211356</v>
       </c>
     </row>
     <row r="78">
@@ -5809,10 +5745,10 @@
         <v>206.9246343398124</v>
       </c>
       <c r="C78" t="n">
-        <v>203.7473545541942</v>
+        <v>205.2588727940897</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.535476815389938</v>
+        <v>-0.8050088144590831</v>
       </c>
     </row>
     <row r="79">
@@ -5825,10 +5761,10 @@
         <v>130.9767888995716</v>
       </c>
       <c r="C79" t="n">
-        <v>127.4831436041449</v>
+        <v>129.2897673940774</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.667377422197711</v>
+        <v>-1.288030894380612</v>
       </c>
     </row>
     <row r="80">
@@ -5841,10 +5777,10 @@
         <v>912.0891916591041</v>
       </c>
       <c r="C80" t="n">
-        <v>895.8363330688593</v>
+        <v>903.7718522162112</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.781937417839657</v>
+        <v>-0.9118997921424304</v>
       </c>
     </row>
     <row r="81">
@@ -5857,10 +5793,10 @@
         <v>338.63275475275</v>
       </c>
       <c r="C81" t="n">
-        <v>334.5998713327043</v>
+        <v>335.9947131584998</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.190931285719924</v>
+        <v>-0.7790272964516592</v>
       </c>
     </row>
     <row r="82">
@@ -5873,10 +5809,10 @@
         <v>36797.3558384009</v>
       </c>
       <c r="C82" t="n">
-        <v>35794.54767332649</v>
+        <v>36337.88992638978</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.725218000658346</v>
+        <v>-1.248638391380383</v>
       </c>
     </row>
     <row r="83">
@@ -5889,10 +5825,10 @@
         <v>5431.789807406018</v>
       </c>
       <c r="C83" t="n">
-        <v>5156.272348251069</v>
+        <v>5206.290654629463</v>
       </c>
       <c r="D83" t="n">
-        <v>-5.072314447427476</v>
+        <v>-4.151470523934773</v>
       </c>
     </row>
     <row r="84">
@@ -5905,10 +5841,10 @@
         <v>1083840.331624043</v>
       </c>
       <c r="C84" t="n">
-        <v>1060174.589893585</v>
+        <v>1072663.834240329</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.183508127529888</v>
+        <v>-1.031194084369179</v>
       </c>
     </row>
     <row r="85">
@@ -5921,10 +5857,10 @@
         <v>36567.36673926556</v>
       </c>
       <c r="C85" t="n">
-        <v>35790.76789491264</v>
+        <v>36190.3867386049</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.123748340672884</v>
+        <v>-1.030919189091797</v>
       </c>
     </row>
     <row r="86">
@@ -5937,10 +5873,10 @@
         <v>176115.7238993268</v>
       </c>
       <c r="C86" t="n">
-        <v>172755.9474477771</v>
+        <v>174569.3510105636</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.90770953164313</v>
+        <v>-0.8780436263869239</v>
       </c>
     </row>
     <row r="87">
@@ -5953,10 +5889,10 @@
         <v>629355.3653459012</v>
       </c>
       <c r="C87" t="n">
-        <v>617224.3283083661</v>
+        <v>623537.2120848687</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.927533744130034</v>
+        <v>-0.9244623278669931</v>
       </c>
     </row>
     <row r="88">
@@ -5969,10 +5905,10 @@
         <v>50782.20817613851</v>
       </c>
       <c r="C88" t="n">
-        <v>49656.50871428232</v>
+        <v>50162.88731553697</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.216720190566934</v>
+        <v>-1.219562683161433</v>
       </c>
     </row>
     <row r="89">
@@ -5985,10 +5921,10 @@
         <v>180339.3673151789</v>
       </c>
       <c r="C89" t="n">
-        <v>175584.3468026182</v>
+        <v>178506.1257349113</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.636706883999663</v>
+        <v>-1.016550965859654</v>
       </c>
     </row>
     <row r="90">
@@ -6001,10 +5937,10 @@
         <v>40468.48989345161</v>
       </c>
       <c r="C90" t="n">
-        <v>39731.16083326798</v>
+        <v>40121.13359794348</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.82198313335864</v>
+        <v>-0.8583376756154574</v>
       </c>
     </row>
     <row r="91">
@@ -6017,10 +5953,10 @@
         <v>79355.15029333404</v>
       </c>
       <c r="C91" t="n">
-        <v>78212.76952945015</v>
+        <v>78764.67015883411</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.439579863009665</v>
+        <v>-0.7440980608281073</v>
       </c>
     </row>
     <row r="92">
@@ -6033,10 +5969,10 @@
         <v>45911.62510533771</v>
       </c>
       <c r="C92" t="n">
-        <v>45170.93833193807</v>
+        <v>45558.15141717894</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.613288076168595</v>
+        <v>-0.7699001883461518</v>
       </c>
     </row>
     <row r="93">
@@ -6049,10 +5985,10 @@
         <v>104995.5931434584</v>
       </c>
       <c r="C93" t="n">
-        <v>104752.1679634666</v>
+        <v>104873.5620679081</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.2318432352291619</v>
+        <v>-0.1162249499210987</v>
       </c>
     </row>
     <row r="94">
@@ -6065,10 +6001,10 @@
         <v>43593.4829173751</v>
       </c>
       <c r="C94" t="n">
-        <v>42924.11509415783</v>
+        <v>43242.55153736052</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.535476815389938</v>
+        <v>-0.80500881445908</v>
       </c>
     </row>
     <row r="95">
@@ -6081,10 +6017,10 @@
         <v>24589.96981740024</v>
       </c>
       <c r="C95" t="n">
-        <v>23934.06251436568</v>
+        <v>24273.24340923327</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.667377422197676</v>
+        <v>-1.288030894380578</v>
       </c>
     </row>
     <row r="96">
@@ -6097,10 +6033,10 @@
         <v>22665.76219802206</v>
       </c>
       <c r="C96" t="n">
-        <v>22261.87250037695</v>
+        <v>22459.07315965079</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.781937417839669</v>
+        <v>-0.9118997921424584</v>
       </c>
     </row>
     <row r="97">
@@ -6113,10 +6049,10 @@
         <v>40428.24116361269</v>
       </c>
       <c r="C97" t="n">
-        <v>39946.76859132892</v>
+        <v>40113.29412947284</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.190931285719934</v>
+        <v>-0.7790272964516579</v>
       </c>
     </row>
     <row r="98">
@@ -6129,10 +6065,10 @@
         <v>17531.40922853843</v>
       </c>
       <c r="C98" t="n">
-        <v>17053.64010847322</v>
+        <v>17312.5053223609</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.725218000658348</v>
+        <v>-1.248638391380375</v>
       </c>
     </row>
     <row r="99">
@@ -6145,10 +6081,10 @@
         <v>3349.304543958308</v>
       </c>
       <c r="C99" t="n">
-        <v>3179.417285686766</v>
+        <v>3210.259153059071</v>
       </c>
       <c r="D99" t="n">
-        <v>-5.072314447427474</v>
+        <v>-4.151470523934775</v>
       </c>
     </row>
     <row r="100">
@@ -6161,10 +6097,10 @@
         <v>195974.6734952563</v>
       </c>
       <c r="C100" t="n">
-        <v>191695.5505715871</v>
+        <v>193953.7942553114</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.183508127529934</v>
+        <v>-1.031194084369189</v>
       </c>
     </row>
     <row r="101">
@@ -6177,10 +6113,10 @@
         <v>2724.247464785552</v>
       </c>
       <c r="C101" t="n">
-        <v>2666.391304456345</v>
+        <v>2696.16267491273</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.123748340672923</v>
+        <v>-1.030919189091817</v>
       </c>
     </row>
     <row r="102">
@@ -6193,10 +6129,10 @@
         <v>18679.52557679249</v>
       </c>
       <c r="C102" t="n">
-        <v>18323.17448689832</v>
+        <v>18515.51119302616</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.907709531643067</v>
+        <v>-0.8780436263868656</v>
       </c>
     </row>
     <row r="103">
@@ -6209,10 +6145,10 @@
         <v>118620.5156491477</v>
       </c>
       <c r="C103" t="n">
-        <v>116334.0651825494</v>
+        <v>117523.9136688498</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.927533744129997</v>
+        <v>-0.9244623278669571</v>
       </c>
     </row>
     <row r="104">
@@ -6225,10 +6161,10 @@
         <v>273817.9512093465</v>
       </c>
       <c r="C104" t="n">
-        <v>267748.1733994922</v>
+        <v>270478.5696566001</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.216720190566936</v>
+        <v>-1.219562683161424</v>
       </c>
     </row>
     <row r="105">
@@ -6241,10 +6177,10 @@
         <v>9177.580968609169</v>
       </c>
       <c r="C105" t="n">
-        <v>8935.595059425212</v>
+        <v>9084.286180630224</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.636706883999622</v>
+        <v>-1.016550965859612</v>
       </c>
     </row>
     <row r="106">
@@ -6257,10 +6193,10 @@
         <v>33246.43879831057</v>
       </c>
       <c r="C106" t="n">
-        <v>32640.69429096295</v>
+        <v>32961.07208830424</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.821983133358633</v>
+        <v>-0.8583376756154502</v>
       </c>
     </row>
     <row r="107">
@@ -6273,10 +6209,10 @@
         <v>5642.141361711995</v>
       </c>
       <c r="C107" t="n">
-        <v>5560.91823082625</v>
+        <v>5600.158297250315</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.439579863009668</v>
+        <v>-0.7440980608281236</v>
       </c>
     </row>
     <row r="108">
@@ -6289,10 +6225,10 @@
         <v>14363.30388731421</v>
       </c>
       <c r="C108" t="n">
-        <v>14131.58241835631</v>
+        <v>14252.72078363305</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.613288076168601</v>
+        <v>-0.7699001883461589</v>
       </c>
     </row>
     <row r="109">
@@ -6305,10 +6241,10 @@
         <v>25390.47786541112</v>
       </c>
       <c r="C109" t="n">
-        <v>25331.6117600878</v>
+        <v>25360.96779522731</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.2318432352292129</v>
+        <v>-0.1162249499211566</v>
       </c>
     </row>
     <row r="110">
@@ -6321,10 +6257,10 @@
         <v>22661.60505308602</v>
       </c>
       <c r="C110" t="n">
-        <v>22313.64136150065</v>
+        <v>22479.17713491077</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.535476815389951</v>
+        <v>-0.8050088144590942</v>
       </c>
     </row>
     <row r="111">
@@ -6337,10 +6273,10 @@
         <v>4451.960926071457</v>
       </c>
       <c r="C111" t="n">
-        <v>4333.210325484364</v>
+        <v>4394.618293937905</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.66737742219768</v>
+        <v>-1.288030894380574</v>
       </c>
     </row>
     <row r="112">
@@ -6353,10 +6289,10 @@
         <v>1068.949165803444</v>
       </c>
       <c r="C112" t="n">
-        <v>1049.901160640308</v>
+        <v>1059.201420582375</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.78193741783961</v>
+        <v>-0.9118997921423891</v>
       </c>
     </row>
     <row r="113">
@@ -6369,10 +6305,10 @@
         <v>887.9321545985744</v>
       </c>
       <c r="C113" t="n">
-        <v>877.3574927734927</v>
+        <v>881.01492074028</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.190931285719949</v>
+        <v>-0.7790272964516733</v>
       </c>
     </row>
     <row r="114">
@@ -6385,10 +6321,10 @@
         <v>190.5485593842953</v>
       </c>
       <c r="C114" t="n">
-        <v>185.3556957439593</v>
+        <v>188.1692969176008</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.725218000658338</v>
+        <v>-1.248638391380359</v>
       </c>
     </row>
     <row r="115">
@@ -6401,10 +6337,10 @@
         <v>31.68824515194521</v>
       </c>
       <c r="C115" t="n">
-        <v>30.08091771496685</v>
+        <v>30.37271699491001</v>
       </c>
       <c r="D115" t="n">
-        <v>-5.072314447427504</v>
+        <v>-4.151470523934798</v>
       </c>
     </row>
     <row r="116">
@@ -6417,10 +6353,10 @@
         <v>4123.192252520734</v>
       </c>
       <c r="C116" t="n">
-        <v>4033.162014573261</v>
+        <v>4080.674137925573</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.183508127529888</v>
+        <v>-1.031194084369153</v>
       </c>
     </row>
     <row r="117">
@@ -6433,10 +6369,10 @@
         <v>170.525831571405</v>
       </c>
       <c r="C117" t="n">
-        <v>166.9042920529886</v>
+        <v>168.767848051377</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.123748340672929</v>
+        <v>-1.030919189091833</v>
       </c>
     </row>
     <row r="118">
@@ -6449,10 +6385,10 @@
         <v>657.5077035740391</v>
       </c>
       <c r="C118" t="n">
-        <v>644.9643664416694</v>
+        <v>651.7344990898044</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.907709531643104</v>
+        <v>-0.8780436263868833</v>
       </c>
     </row>
     <row r="119">
@@ -6465,10 +6401,10 @@
         <v>2161.22177472801</v>
       </c>
       <c r="C119" t="n">
-        <v>2119.563495734641</v>
+        <v>2141.242093598991</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.927533744130046</v>
+        <v>-0.9244623278669929</v>
       </c>
     </row>
     <row r="120">
@@ -6481,10 +6417,10 @@
         <v>1554.140067831092</v>
       </c>
       <c r="C120" t="n">
-        <v>1519.68913115779</v>
+        <v>1535.186355519765</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.216720190566894</v>
+        <v>-1.219562683161403</v>
       </c>
     </row>
     <row r="121">
@@ -6497,10 +6433,10 @@
         <v>129651.1464599214</v>
       </c>
       <c r="C121" t="n">
-        <v>126232.6257560282</v>
+        <v>128333.176478335</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.636706883999614</v>
+        <v>-1.016550965859597</v>
       </c>
     </row>
     <row r="122">
@@ -6513,10 +6449,10 @@
         <v>863.7331225685518</v>
       </c>
       <c r="C122" t="n">
-        <v>847.9960507581209</v>
+        <v>856.319375760776</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.821983133358644</v>
+        <v>-0.8583376756154729</v>
       </c>
     </row>
     <row r="123">
@@ -6529,10 +6465,10 @@
         <v>3906.237028514126</v>
       </c>
       <c r="C123" t="n">
-        <v>3850.003626850209</v>
+        <v>3877.170794533602</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.439579863009679</v>
+        <v>-0.7440980608281299</v>
       </c>
     </row>
     <row r="124">
@@ -6545,10 +6481,10 @@
         <v>233.7506847980509</v>
       </c>
       <c r="C124" t="n">
-        <v>229.9796128722415</v>
+        <v>231.9510378355303</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.61328807616862</v>
+        <v>-0.769900188346157</v>
       </c>
     </row>
     <row r="125">
@@ -6561,10 +6497,10 @@
         <v>2384.908631432158</v>
       </c>
       <c r="C125" t="n">
-        <v>2379.379382103785</v>
+        <v>2382.136772569611</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.2318432352292008</v>
+        <v>-0.1162249499211266</v>
       </c>
     </row>
     <row r="126">
@@ -6577,10 +6513,10 @@
         <v>14131.62372138642</v>
       </c>
       <c r="C126" t="n">
-        <v>13914.63591550639</v>
+        <v>14017.86290480307</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.535476815389951</v>
+        <v>-0.8050088144590725</v>
       </c>
     </row>
     <row r="127">
@@ -6593,10 +6529,10 @@
         <v>141.2260852838927</v>
       </c>
       <c r="C127" t="n">
-        <v>137.4590525707765</v>
+        <v>139.4070496745119</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.66737742219769</v>
+        <v>-1.288030894380591</v>
       </c>
     </row>
     <row r="128">
@@ -6609,10 +6545,10 @@
         <v>454.224649948026</v>
       </c>
       <c r="C128" t="n">
-        <v>446.130650949551</v>
+        <v>450.0825763092903</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.781937417839653</v>
+        <v>-0.9118997921424288</v>
       </c>
     </row>
     <row r="129">
@@ -6625,10 +6561,10 @@
         <v>2015.03857679833</v>
       </c>
       <c r="C129" t="n">
-        <v>1991.040851967913</v>
+        <v>1999.34087625104</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.190931285719941</v>
+        <v>-0.7790272964516679</v>
       </c>
     </row>
     <row r="130">
@@ -6641,10 +6577,10 @@
         <v>10089.9896440092</v>
       </c>
       <c r="C130" t="n">
-        <v>9815.015429966101</v>
+        <v>9964.002159627802</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.725218000658319</v>
+        <v>-1.248638391380324</v>
       </c>
     </row>
     <row r="131">
@@ -6657,10 +6593,10 @@
         <v>1033.763083661777</v>
       </c>
       <c r="C131" t="n">
-        <v>981.3273694170288</v>
+        <v>990.846713956239</v>
       </c>
       <c r="D131" t="n">
-        <v>-5.072314447427494</v>
+        <v>-4.151470523934793</v>
       </c>
     </row>
     <row r="132">
@@ -6673,10 +6609,10 @@
         <v>87400.57085120806</v>
       </c>
       <c r="C132" t="n">
-        <v>85492.1722831644</v>
+        <v>86499.30133488552</v>
       </c>
       <c r="D132" t="n">
-        <v>-2.183508127529904</v>
+        <v>-1.031194084369171</v>
       </c>
     </row>
     <row r="133">
@@ -6689,10 +6625,10 @@
         <v>6409.948712335483</v>
       </c>
       <c r="C133" t="n">
-        <v>6273.817532919275</v>
+        <v>6343.867321049074</v>
       </c>
       <c r="D133" t="n">
-        <v>-2.123748340672881</v>
+        <v>-1.030919189091791</v>
       </c>
     </row>
     <row r="134">
@@ -6705,10 +6641,10 @@
         <v>16821.84852122067</v>
       </c>
       <c r="C134" t="n">
-        <v>16500.93651358278</v>
+        <v>16674.14535243963</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.907709531643115</v>
+        <v>-0.8780436263869036</v>
       </c>
     </row>
     <row r="135">
@@ -6721,10 +6657,10 @@
         <v>33324.55059423266</v>
       </c>
       <c r="C135" t="n">
-        <v>32682.20863644914</v>
+        <v>33016.477678058</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.927533744130042</v>
+        <v>-0.9244623278670135</v>
       </c>
     </row>
     <row r="136">
@@ -6737,10 +6673,10 @@
         <v>16030.92241827518</v>
       </c>
       <c r="C136" t="n">
-        <v>15675.56172429515</v>
+        <v>15835.41527069533</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.216720190566954</v>
+        <v>-1.219562683161447</v>
       </c>
     </row>
     <row r="137">
@@ -6753,10 +6689,10 @@
         <v>8767.879875138795</v>
       </c>
       <c r="C137" t="n">
-        <v>8536.696582890194</v>
+        <v>8678.74990758266</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.63670688399961</v>
+        <v>-1.016550965859623</v>
       </c>
     </row>
     <row r="138">
@@ -6769,10 +6705,10 @@
         <v>52028.20605016277</v>
       </c>
       <c r="C138" t="n">
-        <v>51080.26091133973</v>
+        <v>51581.62835568738</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.821983133358639</v>
+        <v>-0.8583376756154733</v>
       </c>
     </row>
     <row r="139">
@@ -6785,10 +6721,10 @@
         <v>35141.4421327932</v>
       </c>
       <c r="C139" t="n">
-        <v>34635.55300827832</v>
+        <v>34879.95534333606</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.439579863009663</v>
+        <v>-0.744098060828101</v>
       </c>
     </row>
     <row r="140">
@@ -6801,10 +6737,10 @@
         <v>22237.90806269026</v>
       </c>
       <c r="C140" t="n">
-        <v>21879.14654352554</v>
+        <v>22066.69836663136</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.613288076168611</v>
+        <v>-0.7699001883461543</v>
       </c>
     </row>
     <row r="141">
@@ -6817,10 +6753,10 @@
         <v>23949.54476326111</v>
       </c>
       <c r="C141" t="n">
-        <v>23894.0193638593</v>
+        <v>23921.70941685367</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.2318432352292127</v>
+        <v>-0.1162249499211455</v>
       </c>
     </row>
     <row r="142">
@@ -6833,10 +6769,10 @@
         <v>37082.79537782534</v>
       </c>
       <c r="C142" t="n">
-        <v>36513.39765230034</v>
+        <v>36784.27560638602</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.535476815389937</v>
+        <v>-0.805008814459089</v>
       </c>
     </row>
     <row r="143">
@@ -6849,10 +6785,10 @@
         <v>4070.394710307927</v>
       </c>
       <c r="C143" t="n">
-        <v>3961.821920810844</v>
+        <v>4017.966768915928</v>
       </c>
       <c r="D143" t="n">
-        <v>-2.667377422197692</v>
+        <v>-1.28803089438059</v>
       </c>
     </row>
     <row r="144">
@@ -6865,10 +6801,10 @@
         <v>4276.69932878695</v>
       </c>
       <c r="C144" t="n">
-        <v>4200.491223198797</v>
+        <v>4237.700116497184</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.781937417839669</v>
+        <v>-0.9118997921424473</v>
       </c>
     </row>
     <row r="145">
@@ -6881,10 +6817,10 @@
         <v>4302.918261308165</v>
       </c>
       <c r="C145" t="n">
-        <v>4251.67346153529</v>
+        <v>4269.397353508572</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.190931285719931</v>
+        <v>-0.7790272964516481</v>
       </c>
     </row>
     <row r="146">
@@ -6897,10 +6833,10 @@
         <v>29965.6972786291</v>
       </c>
       <c r="C146" t="n">
-        <v>29149.06670236912</v>
+        <v>29591.53407816332</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.725218000658332</v>
+        <v>-1.248638391380364</v>
       </c>
     </row>
     <row r="147">
@@ -6913,10 +6849,10 @@
         <v>3375.075360705922</v>
       </c>
       <c r="C147" t="n">
-        <v>3203.88092557327</v>
+        <v>3234.96010194563</v>
       </c>
       <c r="D147" t="n">
-        <v>-5.072314447427477</v>
+        <v>-4.151470523934783</v>
       </c>
     </row>
     <row r="148">
@@ -6929,10 +6865,10 @@
         <v>280657.780433469</v>
       </c>
       <c r="C148" t="n">
-        <v>274529.5949871592</v>
+        <v>277763.6540043172</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.183508127529894</v>
+        <v>-1.031194084369169</v>
       </c>
     </row>
     <row r="149">
@@ -6945,10 +6881,10 @@
         <v>31702.75958278121</v>
       </c>
       <c r="C149" t="n">
-        <v>31029.47275219438</v>
+        <v>31375.92975077068</v>
       </c>
       <c r="D149" t="n">
-        <v>-2.123748340672893</v>
+        <v>-1.030919189091801</v>
       </c>
     </row>
     <row r="150">
@@ -6961,10 +6897,10 @@
         <v>87687.13267621709</v>
       </c>
       <c r="C150" t="n">
-        <v>86014.31688812838</v>
+        <v>86917.20139659215</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.907709531643089</v>
+        <v>-0.8780436263868936</v>
       </c>
     </row>
     <row r="151">
@@ -6977,10 +6913,10 @@
         <v>108470.3227140286</v>
       </c>
       <c r="C151" t="n">
-        <v>106379.520641349</v>
+        <v>107467.5554436217</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.92753374413004</v>
+        <v>-0.924462327866986</v>
       </c>
     </row>
     <row r="152">
@@ -6993,10 +6929,10 @@
         <v>54041.78996625963</v>
       </c>
       <c r="C152" t="n">
-        <v>52843.83469673379</v>
+        <v>53382.71646251866</v>
       </c>
       <c r="D152" t="n">
-        <v>-2.216720190566922</v>
+        <v>-1.219562683161421</v>
       </c>
     </row>
     <row r="153">
@@ -7009,10 +6945,10 @@
         <v>10616.88118288948</v>
       </c>
       <c r="C153" t="n">
-        <v>10336.94514587417</v>
+        <v>10508.95517468065</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.636706883999628</v>
+        <v>-1.01655096585962</v>
       </c>
     </row>
     <row r="154">
@@ -7025,10 +6961,10 @@
         <v>39079.32421015717</v>
       </c>
       <c r="C154" t="n">
-        <v>38367.30551441757</v>
+        <v>38743.89164708547</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.821983133358632</v>
+        <v>-0.8583376756154584</v>
       </c>
     </row>
     <row r="155">
@@ -7041,10 +6977,10 @@
         <v>544109.0187771801</v>
       </c>
       <c r="C155" t="n">
-        <v>536276.1349100444</v>
+        <v>540060.3141196681</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.43957986300966</v>
+        <v>-0.7440980608281402</v>
       </c>
     </row>
     <row r="156">
@@ -7057,10 +6993,10 @@
         <v>63852.75474085637</v>
       </c>
       <c r="C156" t="n">
-        <v>62822.62586231695</v>
+        <v>63361.15226184232</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.613288076168607</v>
+        <v>-0.7699001883461383</v>
       </c>
     </row>
     <row r="157">
@@ -7073,10 +7009,10 @@
         <v>74920.82107145021</v>
       </c>
       <c r="C157" t="n">
-        <v>74747.12221601786</v>
+        <v>74833.7443846794</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.2318432352292223</v>
+        <v>-0.1162249499211411</v>
       </c>
     </row>
     <row r="158">
@@ -7089,10 +7025,10 @@
         <v>117868.7463496854</v>
       </c>
       <c r="C158" t="n">
-        <v>116058.8990768952</v>
+        <v>116919.892552078</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.535476815389954</v>
+        <v>-0.8050088144590827</v>
       </c>
     </row>
     <row r="159">
@@ -7105,10 +7041,10 @@
         <v>14279.81208682949</v>
       </c>
       <c r="C159" t="n">
-        <v>13898.91560329314</v>
+        <v>14095.88369549163</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.66737742219771</v>
+        <v>-1.28803089438061</v>
       </c>
     </row>
     <row r="160">
@@ -7121,10 +7057,10 @@
         <v>15635.81331660888</v>
       </c>
       <c r="C160" t="n">
-        <v>15357.19290853667</v>
+        <v>15493.23036747494</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.781937417839678</v>
+        <v>-0.9118997921424579</v>
       </c>
     </row>
     <row r="161">
@@ -7137,10 +7073,10 @@
         <v>10995.11004725444</v>
       </c>
       <c r="C161" t="n">
-        <v>10864.16584180235</v>
+        <v>10909.45513871143</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.19093128571994</v>
+        <v>-0.779027296451672</v>
       </c>
     </row>
     <row r="162">
@@ -7153,10 +7089,10 @@
         <v>9387.562623335931</v>
       </c>
       <c r="C162" t="n">
-        <v>9131.731076901706</v>
+        <v>9270.345912406085</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.725218000658339</v>
+        <v>-1.248638391380365</v>
       </c>
     </row>
     <row r="163">
@@ -7169,10 +7105,10 @@
         <v>4251.761191120128</v>
       </c>
       <c r="C163" t="n">
-        <v>4036.098493952827</v>
+        <v>4075.250578522678</v>
       </c>
       <c r="D163" t="n">
-        <v>-5.072314447427487</v>
+        <v>-4.151470523934787</v>
       </c>
     </row>
     <row r="164">
@@ -7185,10 +7121,10 @@
         <v>131850.0203817157</v>
       </c>
       <c r="C164" t="n">
-        <v>128971.0644705311</v>
+        <v>130490.3907712999</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.183508127529897</v>
+        <v>-1.031194084369169</v>
       </c>
     </row>
     <row r="165">
@@ -7201,10 +7137,10 @@
         <v>7026.402470984634</v>
       </c>
       <c r="C165" t="n">
-        <v>6877.179365098099</v>
+        <v>6953.965939608433</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.123748340672895</v>
+        <v>-1.030919189091799</v>
       </c>
     </row>
     <row r="166">
@@ -7217,10 +7153,10 @@
         <v>2414.365692738618</v>
       </c>
       <c r="C166" t="n">
-        <v>2368.306608289523</v>
+        <v>2393.166508655856</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.907709531643069</v>
+        <v>-0.8780436263868544</v>
       </c>
     </row>
     <row r="167">
@@ -7233,10 +7169,10 @@
         <v>212606.6136742881</v>
       </c>
       <c r="C167" t="n">
-        <v>208508.549453464</v>
+        <v>210641.1456243156</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.927533744130044</v>
+        <v>-0.9244623278669857</v>
       </c>
     </row>
     <row r="168">
@@ -7249,10 +7185,10 @@
         <v>36242.20451189306</v>
       </c>
       <c r="C168" t="n">
-        <v>35438.81624697137</v>
+        <v>35800.20811011097</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.216720190566924</v>
+        <v>-1.219562683161432</v>
       </c>
     </row>
     <row r="169">
@@ -7265,10 +7201,10 @@
         <v>23664.4564037997</v>
       </c>
       <c r="C169" t="n">
-        <v>23040.49405273962</v>
+        <v>23423.89514366145</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.636706883999636</v>
+        <v>-1.016550965859612</v>
       </c>
     </row>
     <row r="170">
@@ -7281,10 +7217,10 @@
         <v>82034.16324574809</v>
       </c>
       <c r="C170" t="n">
-        <v>80539.51462781869</v>
+        <v>81330.03311573394</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.821983133358613</v>
+        <v>-0.858337675615464</v>
       </c>
     </row>
     <row r="171">
@@ -7297,10 +7233,10 @@
         <v>148991.1948680506</v>
       </c>
       <c r="C171" t="n">
-        <v>146846.3476290727</v>
+        <v>147882.5542762328</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.439579863009657</v>
+        <v>-0.7440980608281077</v>
       </c>
     </row>
     <row r="172">
@@ -7313,10 +7249,10 @@
         <v>63319.5053283951</v>
       </c>
       <c r="C172" t="n">
-        <v>62297.97929904315</v>
+        <v>62832.00833761194</v>
       </c>
       <c r="D172" t="n">
-        <v>-1.61328807616861</v>
+        <v>-0.7699001883461462</v>
       </c>
     </row>
     <row r="173">
@@ -7329,10 +7265,10 @@
         <v>109936.0050247709</v>
       </c>
       <c r="C173" t="n">
-        <v>109681.1258340397</v>
+        <v>109808.2319579856</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.2318432352291896</v>
+        <v>-0.1162249499211178</v>
       </c>
     </row>
     <row r="174">
@@ -7345,10 +7281,10 @@
         <v>9056.529986120127</v>
       </c>
       <c r="C174" t="n">
-        <v>8917.469067904414</v>
+        <v>8983.624121447732</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.53547681538995</v>
+        <v>-0.805008814459063</v>
       </c>
     </row>
     <row r="175">
@@ -7361,10 +7297,10 @@
         <v>20009.95200306803</v>
       </c>
       <c r="C175" t="n">
-        <v>19476.2110611456</v>
+        <v>19752.21763931779</v>
       </c>
       <c r="D175" t="n">
-        <v>-2.667377422197673</v>
+        <v>-1.288030894380561</v>
       </c>
     </row>
     <row r="176">
@@ -7377,10 +7313,10 @@
         <v>16409.31651151967</v>
       </c>
       <c r="C176" t="n">
-        <v>16116.91276058916</v>
+        <v>16259.67998835912</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.781937417839683</v>
+        <v>-0.9118997921424636</v>
       </c>
     </row>
     <row r="177">
@@ -7393,10 +7329,10 @@
         <v>16860.76859074634</v>
       </c>
       <c r="C177" t="n">
-        <v>16659.9684225863</v>
+        <v>16729.41860103288</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.190931285719923</v>
+        <v>-0.779027296451653</v>
       </c>
     </row>
     <row r="178">
@@ -7409,10 +7345,10 @@
         <v>7671.725655247233</v>
       </c>
       <c r="C178" t="n">
-        <v>7462.65440672931</v>
+        <v>7575.933543434438</v>
       </c>
       <c r="D178" t="n">
-        <v>-2.725218000658357</v>
+        <v>-1.248638391380382</v>
       </c>
     </row>
     <row r="179">
@@ -7425,10 +7361,10 @@
         <v>1198.499581918997</v>
       </c>
       <c r="C179" t="n">
-        <v>1137.707914472962</v>
+        <v>1148.744225046148</v>
       </c>
       <c r="D179" t="n">
-        <v>-5.072314447427464</v>
+        <v>-4.151470523934766</v>
       </c>
     </row>
     <row r="180">
@@ -7441,10 +7377,10 @@
         <v>93942.00139192962</v>
       </c>
       <c r="C180" t="n">
-        <v>91890.7701563726</v>
+        <v>92973.27703083804</v>
       </c>
       <c r="D180" t="n">
-        <v>-2.183508127529882</v>
+        <v>-1.031194084369164</v>
       </c>
     </row>
     <row r="181">
@@ -7457,10 +7393,10 @@
         <v>13290.59523430951</v>
       </c>
       <c r="C181" t="n">
-        <v>13008.33643855531</v>
+        <v>13153.5799376945</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.123748340672875</v>
+        <v>-1.030919189091781</v>
       </c>
     </row>
     <row r="182">
@@ -7473,10 +7409,10 @@
         <v>54723.08811872249</v>
       </c>
       <c r="C182" t="n">
-        <v>53679.13055067216</v>
+        <v>54242.59553133396</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.907709531643107</v>
+        <v>-0.8780436263868996</v>
       </c>
     </row>
     <row r="183">
@@ -7489,10 +7425,10 @@
         <v>41335.30632651814</v>
       </c>
       <c r="C183" t="n">
-        <v>40538.55434883499</v>
+        <v>40953.17699142106</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.927533744130034</v>
+        <v>-0.9244623278669902</v>
       </c>
     </row>
     <row r="184">
@@ -7505,10 +7441,10 @@
         <v>131563.2974169935</v>
       </c>
       <c r="C184" t="n">
-        <v>128646.9072397754</v>
+        <v>129958.8005369592</v>
       </c>
       <c r="D184" t="n">
-        <v>-2.216720190566917</v>
+        <v>-1.219562683161416</v>
       </c>
     </row>
     <row r="185">
@@ -7521,10 +7457,10 @@
         <v>41427.66918069134</v>
       </c>
       <c r="C185" t="n">
-        <v>40335.34297552346</v>
+        <v>41006.5358095019</v>
       </c>
       <c r="D185" t="n">
-        <v>-2.636706883999616</v>
+        <v>-1.016550965859607</v>
       </c>
     </row>
     <row r="186">
@@ -7537,10 +7473,10 @@
         <v>122915.7609529236</v>
       </c>
       <c r="C186" t="n">
-        <v>120676.2565201219</v>
+        <v>121860.7286673952</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.821983133358654</v>
+        <v>-0.858337675615479</v>
       </c>
     </row>
     <row r="187">
@@ -7553,10 +7489,10 @@
         <v>265714.1567284354</v>
       </c>
       <c r="C187" t="n">
-        <v>261888.9892350069</v>
+        <v>263736.9828408733</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.439579863009692</v>
+        <v>-0.7440980608281365</v>
       </c>
     </row>
     <row r="188">
@@ -7569,10 +7505,10 @@
         <v>54806.72631406299</v>
       </c>
       <c r="C188" t="n">
-        <v>53922.53593349986</v>
+        <v>54384.76922494466</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.613288076168588</v>
+        <v>-0.7699001883461407</v>
       </c>
     </row>
     <row r="189">
@@ -7585,10 +7521,10 @@
         <v>280494.5109468997</v>
       </c>
       <c r="C189" t="n">
-        <v>279844.2033980801</v>
+        <v>280168.5063420201</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.2318432352292067</v>
+        <v>-0.116224949921144</v>
       </c>
     </row>
     <row r="190">
@@ -7601,10 +7537,10 @@
         <v>10593.21682983673</v>
       </c>
       <c r="C190" t="n">
-        <v>10430.5604414106</v>
+        <v>10507.94050062178</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.535476815389944</v>
+        <v>-0.8050088144590801</v>
       </c>
     </row>
     <row r="191">
@@ -7617,10 +7553,10 @@
         <v>5684.394091299144</v>
       </c>
       <c r="C191" t="n">
-        <v>5532.769846719091</v>
+        <v>5611.177339244867</v>
       </c>
       <c r="D191" t="n">
-        <v>-2.667377422197685</v>
+        <v>-1.288030894380578</v>
       </c>
     </row>
     <row r="192">
@@ -7633,10 +7569,10 @@
         <v>28859.09469763844</v>
       </c>
       <c r="C192" t="n">
-        <v>28344.84369077143</v>
+        <v>28595.92867307648</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.781937417839676</v>
+        <v>-0.9118997921424595</v>
       </c>
     </row>
     <row r="193">
@@ -7649,10 +7585,10 @@
         <v>10795.41906703843</v>
       </c>
       <c r="C193" t="n">
-        <v>10666.85304394449</v>
+        <v>10711.31980573985</v>
       </c>
       <c r="D193" t="n">
-        <v>-1.190931285719934</v>
+        <v>-0.7790272964516683</v>
       </c>
     </row>
     <row r="194">
@@ -7665,10 +7601,10 @@
         <v>130.3430781668181</v>
       </c>
       <c r="C194" t="n">
-        <v>126.7909451380038</v>
+        <v>128.7155644523203</v>
       </c>
       <c r="D194" t="n">
-        <v>-2.725218000658307</v>
+        <v>-1.248638391380343</v>
       </c>
     </row>
     <row r="195">
@@ -7681,10 +7617,10 @@
         <v>59.17207945961287</v>
       </c>
       <c r="C195" t="n">
-        <v>56.17068552433966</v>
+        <v>56.71556802244778</v>
       </c>
       <c r="D195" t="n">
-        <v>-5.072314447427471</v>
+        <v>-4.151470523934774</v>
       </c>
     </row>
     <row r="196">
@@ -7697,10 +7633,10 @@
         <v>1833.370805769428</v>
       </c>
       <c r="C196" t="n">
-        <v>1793.339005217692</v>
+        <v>1814.465194475782</v>
       </c>
       <c r="D196" t="n">
-        <v>-2.183508127529898</v>
+        <v>-1.03119408436917</v>
       </c>
     </row>
     <row r="197">
@@ -7713,10 +7649,10 @@
         <v>285.6756973789712</v>
       </c>
       <c r="C197" t="n">
-        <v>279.6086644961796</v>
+        <v>282.7306117961196</v>
       </c>
       <c r="D197" t="n">
-        <v>-2.12374834067288</v>
+        <v>-1.030919189091794</v>
       </c>
     </row>
     <row r="198">
@@ -7729,10 +7665,10 @@
         <v>32.8274165087924</v>
       </c>
       <c r="C198" t="n">
-        <v>32.201164755062</v>
+        <v>32.53917747042947</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.907709531643083</v>
+        <v>-0.878043626386896</v>
       </c>
     </row>
     <row r="199">
@@ -7745,10 +7681,10 @@
         <v>2959.766329414751</v>
       </c>
       <c r="C199" t="n">
-        <v>2902.715834667883</v>
+        <v>2932.404404706421</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.927533744130012</v>
+        <v>-0.9244623278669643</v>
       </c>
     </row>
     <row r="200">
@@ -7761,10 +7697,10 @@
         <v>504.2821752044293</v>
       </c>
       <c r="C200" t="n">
-        <v>493.1036504092427</v>
+        <v>498.1321379778014</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.216720190566914</v>
+        <v>-1.219562683161404</v>
       </c>
     </row>
     <row r="201">
@@ -7777,10 +7713,10 @@
         <v>329.3262663006252</v>
       </c>
       <c r="C201" t="n">
-        <v>320.6428979662577</v>
+        <v>325.9784969597167</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.636706883999623</v>
+        <v>-1.016550965859637</v>
       </c>
     </row>
     <row r="202">
@@ -7793,10 +7729,10 @@
         <v>1142.065415761599</v>
       </c>
       <c r="C202" t="n">
-        <v>1121.257176514501</v>
+        <v>1132.262638017943</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.821983133358617</v>
+        <v>-0.8583376756154427</v>
       </c>
     </row>
     <row r="203">
@@ -7809,10 +7745,10 @@
         <v>2074.232428719989</v>
       </c>
       <c r="C203" t="n">
-        <v>2044.372196364119</v>
+        <v>2058.798105440815</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.439579863009691</v>
+        <v>-0.7440980608281412</v>
       </c>
     </row>
     <row r="204">
@@ -7825,10 +7761,10 @@
         <v>881.4898055408516</v>
       </c>
       <c r="C204" t="n">
-        <v>867.2688356154193</v>
+        <v>874.7032138677405</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.613288076168597</v>
+        <v>-0.7699001883461537</v>
       </c>
     </row>
     <row r="205">
@@ -7841,10 +7777,10 @@
         <v>1530.181350854171</v>
       </c>
       <c r="C205" t="n">
-        <v>1526.633728905477</v>
+        <v>1528.402898345438</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.2318432352291787</v>
+        <v>-0.116224949921113</v>
       </c>
     </row>
     <row r="206">
@@ -7857,10 +7793,10 @@
         <v>200553.4450487138</v>
       </c>
       <c r="C206" t="n">
-        <v>197473.993397525</v>
+        <v>198938.9721383703</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.535476815389941</v>
+        <v>-0.8050088144590807</v>
       </c>
     </row>
     <row r="207">
@@ -7873,10 +7809,10 @@
         <v>278.5757751426285</v>
       </c>
       <c r="C207" t="n">
-        <v>271.1451078127619</v>
+        <v>274.9876330945313</v>
       </c>
       <c r="D207" t="n">
-        <v>-2.66737742219766</v>
+        <v>-1.288030894380573</v>
       </c>
     </row>
     <row r="208">
@@ -7889,10 +7825,10 @@
         <v>228.4063210516134</v>
       </c>
       <c r="C208" t="n">
-        <v>224.3362633520837</v>
+        <v>226.3234842847035</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.78193741783966</v>
+        <v>-0.911899792142437</v>
       </c>
     </row>
     <row r="209">
@@ -7905,10 +7841,10 @@
         <v>224.8375270473168</v>
       </c>
       <c r="C209" t="n">
-        <v>222.1598665956712</v>
+        <v>223.0859813389513</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.19093128571995</v>
+        <v>-0.7790272964516861</v>
       </c>
     </row>
     <row r="210">
@@ -7921,10 +7857,10 @@
         <v>2778.315250756939</v>
       </c>
       <c r="C210" t="n">
-        <v>2702.600103428274</v>
+        <v>2743.624139902412</v>
       </c>
       <c r="D210" t="n">
-        <v>-2.725218000658356</v>
+        <v>-1.248638391380384</v>
       </c>
     </row>
     <row r="211">
@@ -7937,10 +7873,10 @@
         <v>542.7758068847991</v>
       </c>
       <c r="C211" t="n">
-        <v>515.2445112150403</v>
+        <v>520.2426292509275</v>
       </c>
       <c r="D211" t="n">
-        <v>-5.072314447427476</v>
+        <v>-4.151470523934773</v>
       </c>
     </row>
     <row r="212">
@@ -7953,10 +7889,10 @@
         <v>37061.93836946738</v>
       </c>
       <c r="C212" t="n">
-        <v>36252.68793294994</v>
+        <v>36679.75785344889</v>
       </c>
       <c r="D212" t="n">
-        <v>-2.18350812752989</v>
+        <v>-1.031194084369172</v>
       </c>
     </row>
     <row r="213">
@@ -7969,10 +7905,10 @@
         <v>5019.468010577606</v>
       </c>
       <c r="C213" t="n">
-        <v>4912.867141992358</v>
+        <v>4967.721351666238</v>
       </c>
       <c r="D213" t="n">
-        <v>-2.123748340672873</v>
+        <v>-1.030919189091787</v>
       </c>
     </row>
     <row r="214">
@@ -7985,10 +7921,10 @@
         <v>11282.78686576815</v>
       </c>
       <c r="C214" t="n">
-        <v>11067.54406529492</v>
+        <v>11183.71907481446</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.907709531643075</v>
+        <v>-0.8780436263868657</v>
       </c>
     </row>
     <row r="215">
@@ -8001,10 +7937,10 @@
         <v>15112.70997075617</v>
       </c>
       <c r="C215" t="n">
-        <v>14821.40738641734</v>
+        <v>14972.99866035674</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.927533744130011</v>
+        <v>-0.9244623278669576</v>
       </c>
     </row>
     <row r="216">
@@ -8017,10 +7953,10 @@
         <v>18494.36720134626</v>
       </c>
       <c r="C216" t="n">
-        <v>18084.39882947643</v>
+        <v>18268.8168004718</v>
       </c>
       <c r="D216" t="n">
-        <v>-2.21672019056692</v>
+        <v>-1.219562683161423</v>
       </c>
     </row>
     <row r="217">
@@ -8033,10 +7969,10 @@
         <v>2317.133481337426</v>
       </c>
       <c r="C217" t="n">
-        <v>2256.037463323541</v>
+        <v>2293.578638552633</v>
       </c>
       <c r="D217" t="n">
-        <v>-2.636706883999644</v>
+        <v>-1.016550965859652</v>
       </c>
     </row>
     <row r="218">
@@ -8049,10 +7985,10 @@
         <v>3727.739661860719</v>
       </c>
       <c r="C218" t="n">
-        <v>3659.820873966097</v>
+        <v>3695.743067894108</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.821983133358628</v>
+        <v>-0.8583376756154577</v>
       </c>
     </row>
     <row r="219">
@@ -8065,10 +8001,10 @@
         <v>9138.766773565736</v>
       </c>
       <c r="C219" t="n">
-        <v>9007.206927366065</v>
+        <v>9070.765387220028</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.439579863009667</v>
+        <v>-0.7440980608281282</v>
       </c>
     </row>
     <row r="220">
@@ -8081,10 +8017,10 @@
         <v>6348.413799460275</v>
       </c>
       <c r="C220" t="n">
-        <v>6245.99559660774</v>
+        <v>6299.537349661237</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.613288076168602</v>
+        <v>-0.7699001883461526</v>
       </c>
     </row>
     <row r="221">
@@ -8097,10 +8033,10 @@
         <v>26823.73566237933</v>
       </c>
       <c r="C221" t="n">
-        <v>26761.54664581034</v>
+        <v>26792.55978903875</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.2318432352292215</v>
+        <v>-0.1162249499211576</v>
       </c>
     </row>
     <row r="222">
@@ -8113,10 +8049,10 @@
         <v>3771.408181945571</v>
       </c>
       <c r="C222" t="n">
-        <v>3713.499083698078</v>
+        <v>3741.048013651679</v>
       </c>
       <c r="D222" t="n">
-        <v>-1.535476815389931</v>
+        <v>-0.8050088144590714</v>
       </c>
     </row>
     <row r="223">
@@ -8129,10 +8065,10 @@
         <v>1655.903869521936</v>
       </c>
       <c r="C223" t="n">
-        <v>1611.73466357301</v>
+        <v>1634.57531610125</v>
       </c>
       <c r="D223" t="n">
-        <v>-2.667377422197661</v>
+        <v>-1.28803089438056</v>
       </c>
     </row>
     <row r="224">
@@ -8145,10 +8081,10 @@
         <v>7689.051612621561</v>
       </c>
       <c r="C224" t="n">
-        <v>7552.037524859253</v>
+        <v>7618.93516694834</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.781937417839668</v>
+        <v>-0.9118997921424326</v>
       </c>
     </row>
     <row r="225">
@@ -8161,10 +8097,10 @@
         <v>2710.279428830022</v>
       </c>
       <c r="C225" t="n">
-        <v>2678.001863181654</v>
+        <v>2689.165612269322</v>
       </c>
       <c r="D225" t="n">
-        <v>-1.190931285719931</v>
+        <v>-0.7790272964516722</v>
       </c>
     </row>
     <row r="226">
@@ -8177,10 +8113,10 @@
         <v>325.8283497189743</v>
       </c>
       <c r="C226" t="n">
-        <v>316.9488168811848</v>
+        <v>321.7599318543821</v>
       </c>
       <c r="D226" t="n">
-        <v>-2.725218000658358</v>
+        <v>-1.248638391380374</v>
       </c>
     </row>
     <row r="227">
@@ -8193,10 +8129,10 @@
         <v>51.47494382944985</v>
       </c>
       <c r="C227" t="n">
-        <v>48.86397281678349</v>
+        <v>49.33797670915826</v>
       </c>
       <c r="D227" t="n">
-        <v>-5.072314447427474</v>
+        <v>-4.151470523934777</v>
       </c>
     </row>
     <row r="228">
@@ -8209,10 +8145,10 @@
         <v>6916.856511036302</v>
       </c>
       <c r="C228" t="n">
-        <v>6765.826386948243</v>
+        <v>6845.530295870191</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.183508127529917</v>
+        <v>-1.031194084369184</v>
       </c>
     </row>
     <row r="229">
@@ -8225,10 +8161,10 @@
         <v>369.233986241517</v>
       </c>
       <c r="C229" t="n">
-        <v>361.3923855855124</v>
+        <v>365.4274822247046</v>
       </c>
       <c r="D229" t="n">
-        <v>-2.123748340672887</v>
+        <v>-1.030919189091798</v>
       </c>
     </row>
     <row r="230">
@@ -8241,10 +8177,10 @@
         <v>1775.27247268218</v>
       </c>
       <c r="C230" t="n">
-        <v>1741.405430508186</v>
+        <v>1759.684805884794</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.907709531643077</v>
+        <v>-0.8780436263868672</v>
       </c>
     </row>
     <row r="231">
@@ -8257,10 +8193,10 @@
         <v>5928.014601319257</v>
       </c>
       <c r="C231" t="n">
-        <v>5813.750119521873</v>
+        <v>5873.212339539606</v>
       </c>
       <c r="D231" t="n">
-        <v>-1.927533744130034</v>
+        <v>-0.9244623278669959</v>
       </c>
     </row>
     <row r="232">
@@ -8273,10 +8209,10 @@
         <v>1031.395597177054</v>
       </c>
       <c r="C232" t="n">
-        <v>1008.532442729811</v>
+        <v>1018.817081358112</v>
       </c>
       <c r="D232" t="n">
-        <v>-2.216720190566972</v>
+        <v>-1.219562683161465</v>
       </c>
     </row>
     <row r="233">
@@ -8289,10 +8225,10 @@
         <v>1608.551307985471</v>
       </c>
       <c r="C233" t="n">
-        <v>1566.138524915152</v>
+        <v>1592.199564127797</v>
       </c>
       <c r="D233" t="n">
-        <v>-2.636706883999626</v>
+        <v>-1.016550965859623</v>
       </c>
     </row>
     <row r="234">
@@ -8305,10 +8241,10 @@
         <v>677.4327596080684</v>
       </c>
       <c r="C234" t="n">
-        <v>665.0900489881634</v>
+        <v>671.6180990053907</v>
       </c>
       <c r="D234" t="n">
-        <v>-1.821983133358643</v>
+        <v>-0.8583376756154791</v>
       </c>
     </row>
     <row r="235">
@@ -8321,10 +8257,10 @@
         <v>1698.715141718269</v>
       </c>
       <c r="C235" t="n">
-        <v>1674.260780608196</v>
+        <v>1686.07503528975</v>
       </c>
       <c r="D235" t="n">
-        <v>-1.439579863009681</v>
+        <v>-0.7440980608281266</v>
       </c>
     </row>
     <row r="236">
@@ -8337,10 +8273,10 @@
         <v>645.5155124368843</v>
       </c>
       <c r="C236" t="n">
-        <v>635.1014876449213</v>
+        <v>640.5456872908291</v>
       </c>
       <c r="D236" t="n">
-        <v>-1.613288076168602</v>
+        <v>-0.769900188346152</v>
       </c>
     </row>
     <row r="237">
@@ -8353,10 +8289,10 @@
         <v>1645.530889760532</v>
       </c>
       <c r="C237" t="n">
-        <v>1641.715837709015</v>
+        <v>1643.618372307971</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.2318432352292001</v>
+        <v>-0.1162249499211301</v>
       </c>
     </row>
     <row r="238">
@@ -8369,10 +8305,10 @@
         <v>761.9280649988186</v>
       </c>
       <c r="C238" t="n">
-        <v>750.2288362108127</v>
+        <v>755.7944769157407</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.535476815389925</v>
+        <v>-0.8050088144590722</v>
       </c>
     </row>
     <row r="239">
@@ -8385,10 +8321,10 @@
         <v>537.7236817026917</v>
       </c>
       <c r="C239" t="n">
-        <v>523.380561623144</v>
+        <v>530.7976345559604</v>
       </c>
       <c r="D239" t="n">
-        <v>-2.667377422197677</v>
+        <v>-1.288030894380572</v>
       </c>
     </row>
     <row r="240">
@@ -8401,10 +8337,10 @@
         <v>11949.50026854712</v>
       </c>
       <c r="C240" t="n">
-        <v>11736.56765201703</v>
+        <v>11840.53280043618</v>
       </c>
       <c r="D240" t="n">
-        <v>-1.781937417839675</v>
+        <v>-0.9118997921424654</v>
       </c>
     </row>
     <row r="241">
@@ -8417,10 +8353,10 @@
         <v>386.8847934372729</v>
       </c>
       <c r="C241" t="n">
-        <v>382.2772613925356</v>
+        <v>383.8708552905759</v>
       </c>
       <c r="D241" t="n">
-        <v>-1.190931285719901</v>
+        <v>-0.7790272964516516</v>
       </c>
     </row>
     <row r="242">
@@ -8433,10 +8369,10 @@
         <v>1046.295292655768</v>
       </c>
       <c r="C242" t="n">
-        <v>1017.781465000272</v>
+        <v>1033.230847944463</v>
       </c>
       <c r="D242" t="n">
-        <v>-2.725218000658345</v>
+        <v>-1.248638391380363</v>
       </c>
     </row>
     <row r="243">
@@ -8449,10 +8385,10 @@
         <v>130.1836001021431</v>
       </c>
       <c r="C243" t="n">
-        <v>123.5802785459808</v>
+        <v>124.7790663169055</v>
       </c>
       <c r="D243" t="n">
-        <v>-5.072314447427509</v>
+        <v>-4.151470523934806</v>
       </c>
     </row>
     <row r="244">
@@ -8465,10 +8401,10 @@
         <v>11809.09997807655</v>
       </c>
       <c r="C244" t="n">
-        <v>11551.24732026712</v>
+        <v>11687.32523768539</v>
       </c>
       <c r="D244" t="n">
-        <v>-2.183508127529871</v>
+        <v>-1.031194084369146</v>
       </c>
     </row>
     <row r="245">
@@ -8481,10 +8417,10 @@
         <v>825.7796476708539</v>
       </c>
       <c r="C245" t="n">
-        <v>808.2421661058297</v>
+        <v>817.2665268234006</v>
       </c>
       <c r="D245" t="n">
-        <v>-2.123748340672893</v>
+        <v>-1.030919189091785</v>
       </c>
     </row>
     <row r="246">
@@ -8497,10 +8433,10 @@
         <v>3297.724954117424</v>
       </c>
       <c r="C246" t="n">
-        <v>3234.813940840353</v>
+        <v>3268.769490342026</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.907709531643099</v>
+        <v>-0.8780436263868928</v>
       </c>
     </row>
     <row r="247">
@@ -8513,10 +8449,10 @@
         <v>11905.56344431094</v>
       </c>
       <c r="C247" t="n">
-        <v>11676.07969149304</v>
+        <v>11795.50099534798</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.927533744130034</v>
+        <v>-0.9244623278669655</v>
       </c>
     </row>
     <row r="248">
@@ -8529,10 +8465,10 @@
         <v>2030.975650240378</v>
       </c>
       <c r="C248" t="n">
-        <v>1985.954602936001</v>
+        <v>2006.206629105951</v>
       </c>
       <c r="D248" t="n">
-        <v>-2.216720190566952</v>
+        <v>-1.219562683161449</v>
       </c>
     </row>
     <row r="249">
@@ -8545,10 +8481,10 @@
         <v>7229.999439492259</v>
       </c>
       <c r="C249" t="n">
-        <v>7039.365546558032</v>
+        <v>7156.502810358455</v>
       </c>
       <c r="D249" t="n">
-        <v>-2.636706883999621</v>
+        <v>-1.016550965859614</v>
       </c>
     </row>
     <row r="250">
@@ -8561,10 +8497,10 @@
         <v>1917.548880912487</v>
       </c>
       <c r="C250" t="n">
-        <v>1882.611463728354</v>
+        <v>1901.089836419273</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.821983133358622</v>
+        <v>-0.8583376756154415</v>
       </c>
     </row>
     <row r="251">
@@ -8577,10 +8513,10 @@
         <v>5140.148725132723</v>
       </c>
       <c r="C251" t="n">
-        <v>5066.152179156964</v>
+        <v>5101.900978145328</v>
       </c>
       <c r="D251" t="n">
-        <v>-1.439579863009664</v>
+        <v>-0.7440980608281361</v>
       </c>
     </row>
     <row r="252">
@@ -8593,10 +8529,10 @@
         <v>1583.233059004502</v>
       </c>
       <c r="C252" t="n">
-        <v>1557.690948845623</v>
+        <v>1571.043744701268</v>
       </c>
       <c r="D252" t="n">
-        <v>-1.613288076168588</v>
+        <v>-0.769900188346148</v>
       </c>
     </row>
     <row r="253">
@@ -8609,10 +8545,10 @@
         <v>5884.108741303054</v>
       </c>
       <c r="C253" t="n">
-        <v>5870.466833232812</v>
+        <v>5877.269938865169</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.2318432352292092</v>
+        <v>-0.1162249499211354</v>
       </c>
     </row>
     <row r="254">
@@ -8625,10 +8561,10 @@
         <v>1109.271824274989</v>
       </c>
       <c r="C254" t="n">
-        <v>1092.239212593594</v>
+        <v>1100.342088313265</v>
       </c>
       <c r="D254" t="n">
-        <v>-1.535476815389926</v>
+        <v>-0.8050088144590547</v>
       </c>
     </row>
     <row r="255">
@@ -8641,10 +8577,10 @@
         <v>3763.941165659353</v>
       </c>
       <c r="C255" t="n">
-        <v>3663.542648821751</v>
+        <v>3715.460440599351</v>
       </c>
       <c r="D255" t="n">
-        <v>-2.667377422197688</v>
+        <v>-1.288030894380594</v>
       </c>
     </row>
     <row r="256">
@@ -8657,10 +8593,10 @@
         <v>1794.712358636747</v>
       </c>
       <c r="C256" t="n">
-        <v>1762.731707575606</v>
+        <v>1778.346380368784</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.781937417839657</v>
+        <v>-0.9118997921424357</v>
       </c>
     </row>
     <row r="257">
@@ -8673,10 +8609,10 @@
         <v>30230.98358170662</v>
       </c>
       <c r="C257" t="n">
-        <v>29870.95334025122</v>
+        <v>29995.47596761931</v>
       </c>
       <c r="D257" t="n">
-        <v>-1.190931285719928</v>
+        <v>-0.7790272964516571</v>
       </c>
     </row>
   </sheetData>
@@ -8730,10 +8666,10 @@
         <v>3414557.645092672</v>
       </c>
       <c r="C2" t="n">
-        <v>3321503.50550575</v>
+        <v>3371922.167440231</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.725218000658362</v>
+        <v>-1.248638391380389</v>
       </c>
     </row>
     <row r="3">
@@ -8746,10 +8682,10 @@
         <v>236483.0463515812</v>
       </c>
       <c r="C3" t="n">
-        <v>224487.8826257733</v>
+        <v>226665.5223881923</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.072314447427471</v>
+        <v>-4.151470523934773</v>
       </c>
     </row>
     <row r="4">
@@ -8762,10 +8698,10 @@
         <v>10693184.37090776</v>
       </c>
       <c r="C4" t="n">
-        <v>10459697.82107723</v>
+        <v>10582916.88624427</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.183508127529918</v>
+        <v>-1.031194084369177</v>
       </c>
     </row>
     <row r="5">
@@ -8778,10 +8714,10 @@
         <v>859555.5685829821</v>
       </c>
       <c r="C5" t="n">
-        <v>841300.7714580395</v>
+        <v>850694.245285553</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.123748340672893</v>
+        <v>-1.030919189091791</v>
       </c>
     </row>
     <row r="6">
@@ -8794,10 +8730,10 @@
         <v>2955558.97113681</v>
       </c>
       <c r="C6" t="n">
-        <v>2899175.4909311</v>
+        <v>2929607.873966637</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.907709531643097</v>
+        <v>-0.8780436263868908</v>
       </c>
     </row>
     <row r="7">
@@ -8810,10 +8746,10 @@
         <v>4193101.561300549</v>
       </c>
       <c r="C7" t="n">
-        <v>4112278.113780838</v>
+        <v>4154337.916997124</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.92753374413003</v>
+        <v>-0.9244623278669786</v>
       </c>
     </row>
     <row r="8">
@@ -8826,10 +8762,10 @@
         <v>1706212.131163495</v>
       </c>
       <c r="C8" t="n">
-        <v>1668390.182358092</v>
+        <v>1685403.804716252</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.216720190566912</v>
+        <v>-1.219562683161416</v>
       </c>
     </row>
     <row r="9">
@@ -8842,10 +8778,10 @@
         <v>1023361.531720356</v>
       </c>
       <c r="C9" t="n">
-        <v>996378.4877652817</v>
+        <v>1012958.540185417</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.63670688399959</v>
+        <v>-1.016550965859581</v>
       </c>
     </row>
     <row r="10">
@@ -8858,10 +8794,10 @@
         <v>1008230.237982081</v>
       </c>
       <c r="C10" t="n">
-        <v>989860.4531006257</v>
+        <v>999576.2179925331</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.821983133358656</v>
+        <v>-0.8583376756154885</v>
       </c>
     </row>
     <row r="11">
@@ -8874,10 +8810,10 @@
         <v>2590209.541191509</v>
       </c>
       <c r="C11" t="n">
-        <v>2552921.406226761</v>
+        <v>2570935.842224118</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.439579863009676</v>
+        <v>-0.7440980608281276</v>
       </c>
     </row>
     <row r="12">
@@ -8890,10 +8826,10 @@
         <v>1427752.616260717</v>
       </c>
       <c r="C12" t="n">
-        <v>1404718.853545398</v>
+        <v>1416760.346179009</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.613288076168602</v>
+        <v>-0.7699001883461405</v>
       </c>
     </row>
     <row r="13">
@@ -8906,10 +8842,10 @@
         <v>1993459.613516357</v>
       </c>
       <c r="C13" t="n">
-        <v>1988837.912255393</v>
+        <v>1991142.716078849</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2318432352292163</v>
+        <v>-0.1162249499211508</v>
       </c>
     </row>
     <row r="14">
@@ -8922,10 +8858,10 @@
         <v>1209532.48903948</v>
       </c>
       <c r="C14" t="n">
-        <v>1190960.39809567</v>
+        <v>1199795.645888966</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.535476815389939</v>
+        <v>-0.8050088144590848</v>
       </c>
     </row>
     <row r="15">
@@ -8938,10 +8874,10 @@
         <v>848111.702553727</v>
       </c>
       <c r="C15" t="n">
-        <v>825489.3624847925</v>
+        <v>837187.7618059778</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.667377422197683</v>
+        <v>-1.288030894380585</v>
       </c>
     </row>
     <row r="16">
@@ -8954,10 +8890,10 @@
         <v>450023.7008461211</v>
       </c>
       <c r="C16" t="n">
-        <v>442004.5601315972</v>
+        <v>445919.9356535136</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.781937417839673</v>
+        <v>-0.9118997921424488</v>
       </c>
     </row>
     <row r="17">
@@ -8970,10 +8906,10 @@
         <v>545780.8972354506</v>
       </c>
       <c r="C17" t="n">
-        <v>539281.0217787906</v>
+        <v>541529.1150671676</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.190931285719933</v>
+        <v>-0.7790272964516723</v>
       </c>
     </row>
   </sheetData>
@@ -9027,10 +8963,10 @@
         <v>681704.0979888855</v>
       </c>
       <c r="C2" t="n">
-        <v>660199.4224788739</v>
+        <v>671906.6386976886</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.154546902894257</v>
+        <v>-1.437201172781659</v>
       </c>
     </row>
     <row r="3">
@@ -9043,10 +8979,10 @@
         <v>1249.88667263317</v>
       </c>
       <c r="C3" t="n">
-        <v>1224.492658198855</v>
+        <v>1233.735198126109</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.031705352999451</v>
+        <v>-1.292235117047432</v>
       </c>
     </row>
     <row r="4">
@@ -9059,10 +8995,10 @@
         <v>5072181.859160316</v>
       </c>
       <c r="C4" t="n">
-        <v>4986727.115706448</v>
+        <v>5030154.40658417</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.684772861594803</v>
+        <v>-0.8285872577743886</v>
       </c>
     </row>
     <row r="5">
@@ -9075,10 +9011,10 @@
         <v>228099.3515061853</v>
       </c>
       <c r="C5" t="n">
-        <v>222241.2606555456</v>
+        <v>225247.818191767</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.568218985261279</v>
+        <v>-1.250127760376801</v>
       </c>
     </row>
     <row r="6">
@@ -9091,10 +9027,10 @@
         <v>41509.39267939057</v>
       </c>
       <c r="C6" t="n">
-        <v>40448.15108969468</v>
+        <v>41009.80564275655</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.556630008761363</v>
+        <v>-1.203551785237422</v>
       </c>
     </row>
     <row r="7">
@@ -9107,10 +9043,10 @@
         <v>1668853.361421085</v>
       </c>
       <c r="C7" t="n">
-        <v>1639811.130212137</v>
+        <v>1654540.084184004</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.740250634376738</v>
+        <v>-0.8576713549531515</v>
       </c>
     </row>
     <row r="8">
@@ -9123,10 +9059,10 @@
         <v>844195.7394430137</v>
       </c>
       <c r="C8" t="n">
-        <v>828554.7221603787</v>
+        <v>835753.6046695499</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.85277140736989</v>
+        <v>-1.000021011600201</v>
       </c>
     </row>
     <row r="9">
@@ -9139,10 +9075,10 @@
         <v>827929.9838858522</v>
       </c>
       <c r="C9" t="n">
-        <v>813516.2825042502</v>
+        <v>821204.8741138483</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.740932405171741</v>
+        <v>-0.8122800119449518</v>
       </c>
     </row>
     <row r="10">
@@ -9155,10 +9091,10 @@
         <v>279204.3897815574</v>
       </c>
       <c r="C10" t="n">
-        <v>274592.8585355129</v>
+        <v>276981.2977085828</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.651668603653562</v>
+        <v>-0.796223897021781</v>
       </c>
     </row>
     <row r="11">
@@ -9171,10 +9107,10 @@
         <v>847117.1702098944</v>
       </c>
       <c r="C11" t="n">
-        <v>837017.0857535609</v>
+        <v>841649.9595807781</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.192288955001466</v>
+        <v>-0.6453901327205587</v>
       </c>
     </row>
     <row r="12">
@@ -9187,10 +9123,10 @@
         <v>709106.1542588873</v>
       </c>
       <c r="C12" t="n">
-        <v>698307.0125103585</v>
+        <v>704022.3370802179</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.522923145380876</v>
+        <v>-0.7169331627057544</v>
       </c>
     </row>
     <row r="13">
@@ -9203,10 +9139,10 @@
         <v>34388.56298679487</v>
       </c>
       <c r="C13" t="n">
-        <v>34204.09828823188</v>
+        <v>34295.62811563713</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5364129307578859</v>
+        <v>-0.2702493593391129</v>
       </c>
     </row>
     <row r="14">
@@ -9219,10 +9155,10 @@
         <v>547184.0434827509</v>
       </c>
       <c r="C14" t="n">
-        <v>539069.3240068514</v>
+        <v>542905.5395026493</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.482996365217524</v>
+        <v>-0.7819131480643084</v>
       </c>
     </row>
     <row r="15">
@@ -9235,10 +9171,10 @@
         <v>624199.4650670212</v>
       </c>
       <c r="C15" t="n">
-        <v>607623.4100711198</v>
+        <v>616195.3320216504</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.655570202086223</v>
+        <v>-1.282303733552766</v>
       </c>
     </row>
     <row r="16">
@@ -9251,10 +9187,10 @@
         <v>366170.2447981961</v>
       </c>
       <c r="C16" t="n">
-        <v>359767.5059646027</v>
+        <v>362880.2292065029</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.748568848657285</v>
+        <v>-0.8984934298816016</v>
       </c>
     </row>
     <row r="17">
@@ -9267,10 +9203,10 @@
         <v>476990.7278785029</v>
       </c>
       <c r="C17" t="n">
-        <v>471175.7566852147</v>
+        <v>473335.3007632399</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.219095226263892</v>
+        <v>-0.7663518180995135</v>
       </c>
     </row>
   </sheetData>
@@ -9324,10 +9260,10 @@
         <v>4199.478882578032</v>
       </c>
       <c r="C2" t="n">
-        <v>4062.324414971852</v>
+        <v>4137.241083527942</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.265987791370499</v>
+        <v>-1.482036242836935</v>
       </c>
     </row>
     <row r="3">
@@ -9340,10 +9276,10 @@
         <v>182.8844489195033</v>
       </c>
       <c r="C3" t="n">
-        <v>178.9626047433159</v>
+        <v>180.4390348759819</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.144438304819248</v>
+        <v>-1.337136130474277</v>
       </c>
     </row>
     <row r="4">
@@ -9356,10 +9292,10 @@
         <v>373785.7590061041</v>
       </c>
       <c r="C4" t="n">
-        <v>367065.4460375665</v>
+        <v>370519.9958976408</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.797905031589985</v>
+        <v>-0.8736991792161847</v>
       </c>
     </row>
     <row r="5">
@@ -9372,10 +9308,10 @@
         <v>30208.34326232866</v>
       </c>
       <c r="C5" t="n">
-        <v>29398.65859597077</v>
+        <v>29817.13073884183</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.680334566270666</v>
+        <v>-1.295047927950072</v>
       </c>
     </row>
     <row r="6">
@@ -9388,10 +9324,10 @@
         <v>544.2639596754708</v>
       </c>
       <c r="C6" t="n">
-        <v>529.7388666744141</v>
+        <v>537.4688614771733</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.668758925304845</v>
+        <v>-1.248493139679733</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +9340,10 @@
         <v>109078.9813295354</v>
       </c>
       <c r="C7" t="n">
-        <v>107057.3998810436</v>
+        <v>108094.2489591985</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.853318965625868</v>
+        <v>-0.9027700463776399</v>
       </c>
     </row>
     <row r="8">
@@ -9420,10 +9356,10 @@
         <v>72652.30470162898</v>
       </c>
       <c r="C8" t="n">
-        <v>71224.17089397801</v>
+        <v>71893.04819518438</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.965710260006315</v>
+        <v>-1.045054949822633</v>
       </c>
     </row>
     <row r="9">
@@ -9436,10 +9372,10 @@
         <v>256449.3035849219</v>
       </c>
       <c r="C9" t="n">
-        <v>251694.733619806</v>
+        <v>254250.5089194097</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.853999951901387</v>
+        <v>-0.8573993513630778</v>
       </c>
     </row>
     <row r="10">
@@ -9452,10 +9388,10 @@
         <v>155149.7673252957</v>
       </c>
       <c r="C10" t="n">
-        <v>152411.6239294778</v>
+        <v>153844.4139198168</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.764838867000615</v>
+        <v>-0.8413505401797073</v>
       </c>
     </row>
     <row r="11">
@@ -9468,10 +9404,10 @@
         <v>481768.4252947781</v>
       </c>
       <c r="C11" t="n">
-        <v>475476.5882895915</v>
+        <v>478441.4029437561</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.305987830426365</v>
+        <v>-0.6905853884023724</v>
       </c>
     </row>
     <row r="12">
@@ -9484,10 +9420,10 @@
         <v>40310.04944841391</v>
       </c>
       <c r="C12" t="n">
-        <v>39650.47966760129</v>
+        <v>40002.8482246409</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.636241557224319</v>
+        <v>-0.7620958742959225</v>
       </c>
     </row>
     <row r="13">
@@ -9500,10 +9436,10 @@
         <v>54737.47033988653</v>
       </c>
       <c r="C13" t="n">
-        <v>54381.20246699776</v>
+        <v>54564.71052935565</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6508665283151776</v>
+        <v>-0.3156152621926901</v>
       </c>
     </row>
     <row r="14">
@@ -9516,10 +9452,10 @@
         <v>522067.6321158273</v>
       </c>
       <c r="C14" t="n">
-        <v>513733.5494989068</v>
+        <v>517749.8910756148</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.596360721147237</v>
+        <v>-0.8270463010153647</v>
       </c>
     </row>
     <row r="15">
@@ -9532,10 +9468,10 @@
         <v>22378.20519142771</v>
       </c>
       <c r="C15" t="n">
-        <v>21758.8692814623</v>
+        <v>22081.19957886462</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.767585267305785</v>
+        <v>-1.327209264650335</v>
       </c>
     </row>
     <row r="16">
@@ -9548,10 +9484,10 @@
         <v>52685.52568929273</v>
       </c>
       <c r="C16" t="n">
-        <v>51704.71739760597</v>
+        <v>52188.39900325158</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.861627608066339</v>
+        <v>-0.9435735518193373</v>
       </c>
     </row>
     <row r="17">
@@ -9564,10 +9500,10 @@
         <v>23438.95177260142</v>
       </c>
       <c r="C17" t="n">
-        <v>23126.56603590559</v>
+        <v>23248.74654242941</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.332763255483922</v>
+        <v>-0.8114920497184697</v>
       </c>
     </row>
   </sheetData>
@@ -9621,10 +9557,10 @@
         <v>394497.6888084688</v>
       </c>
       <c r="C2" t="n">
-        <v>384622.1657455429</v>
+        <v>390123.4805469065</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.503315822395246</v>
+        <v>-1.108804534387522</v>
       </c>
     </row>
     <row r="3">
@@ -9637,10 +9573,10 @@
         <v>13216.80477489961</v>
       </c>
       <c r="C3" t="n">
-        <v>13035.3481170714</v>
+        <v>13089.47996271318</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.372923796020801</v>
+        <v>-0.9633554732399361</v>
       </c>
     </row>
     <row r="4">
@@ -9653,10 +9589,10 @@
         <v>1539821.604049792</v>
       </c>
       <c r="C4" t="n">
-        <v>1524059.091175565</v>
+        <v>1532150.785508655</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.023658379176587</v>
+        <v>-0.4981628080137948</v>
       </c>
     </row>
     <row r="5">
@@ -9669,10 +9605,10 @@
         <v>1367.881618448352</v>
       </c>
       <c r="C5" t="n">
-        <v>1341.713425078137</v>
+        <v>1355.281953877471</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.913045180027971</v>
+        <v>-0.9211078210973351</v>
       </c>
     </row>
     <row r="6">
@@ -9685,10 +9621,10 @@
         <v>2927645.3929571</v>
       </c>
       <c r="C6" t="n">
-        <v>2871979.779509977</v>
+        <v>2902046.744903411</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.901378274193825</v>
+        <v>-0.8743766617115037</v>
       </c>
     </row>
     <row r="7">
@@ -9701,10 +9637,10 @@
         <v>4560.995555048999</v>
       </c>
       <c r="C7" t="n">
-        <v>4511.759188023492</v>
+        <v>4536.943427356395</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.079509208707796</v>
+        <v>-0.527343809094028</v>
       </c>
     </row>
     <row r="8">
@@ -9717,10 +9653,10 @@
         <v>1090.025652932387</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.023972784501</v>
+        <v>1082.720652499372</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.192786620471602</v>
+        <v>-0.6701677537003738</v>
       </c>
     </row>
     <row r="9">
@@ -9733,10 +9669,10 @@
         <v>618.7971370217454</v>
       </c>
       <c r="C9" t="n">
-        <v>612.1129177973102</v>
+        <v>615.8157648114362</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.080195564027036</v>
+        <v>-0.4818012288580389</v>
       </c>
     </row>
     <row r="10">
@@ -9749,10 +9685,10 @@
         <v>21716.29890705622</v>
       </c>
       <c r="C10" t="n">
-        <v>21501.23555535699</v>
+        <v>21615.16792344967</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9903315137615255</v>
+        <v>-0.4656916173394913</v>
       </c>
     </row>
     <row r="11">
@@ -9765,10 +9701,10 @@
         <v>3166.211466152315</v>
       </c>
       <c r="C11" t="n">
-        <v>3149.498213782231</v>
+        <v>3156.258312685073</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5278627959235572</v>
+        <v>-0.3143552972896444</v>
       </c>
     </row>
     <row r="12">
@@ -9781,10 +9717,10 @@
         <v>7014.752514295814</v>
       </c>
       <c r="C12" t="n">
-        <v>6954.375114368433</v>
+        <v>6987.665980560881</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8607203148554966</v>
+        <v>-0.3861366980478908</v>
       </c>
     </row>
     <row r="13">
@@ -9797,10 +9733,10 @@
         <v>31104.57843132653</v>
       </c>
       <c r="C13" t="n">
-        <v>31145.76824158492</v>
+        <v>31123.87427772481</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1324236248670825</v>
+        <v>0.06203538955168619</v>
       </c>
     </row>
     <row r="14">
@@ -9813,10 +9749,10 @@
         <v>1057.98409967499</v>
       </c>
       <c r="C14" t="n">
-        <v>1049.303075116349</v>
+        <v>1053.209066319049</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8205250496021821</v>
+        <v>-0.4513331870873821</v>
       </c>
     </row>
     <row r="15">
@@ -9829,10 +9765,10 @@
         <v>5564.495219738023</v>
       </c>
       <c r="C15" t="n">
-        <v>5453.150572699205</v>
+        <v>5511.443823126104</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.000983784546395</v>
+        <v>-0.9533909998473583</v>
       </c>
     </row>
     <row r="16">
@@ -9845,10 +9781,10 @@
         <v>2237.227755704404</v>
       </c>
       <c r="C16" t="n">
-        <v>2212.889327263042</v>
+        <v>2224.513547925702</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.087883358290394</v>
+        <v>-0.5683018971261815</v>
       </c>
     </row>
     <row r="17">
@@ -9861,10 +9797,10 @@
         <v>4424.727197110003</v>
       </c>
       <c r="C17" t="n">
-        <v>4400.17662815695</v>
+        <v>4405.447775365104</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5548493242495925</v>
+        <v>-0.4357200090774269</v>
       </c>
     </row>
   </sheetData>
@@ -9918,10 +9854,10 @@
         <v>88379.20989359371</v>
       </c>
       <c r="C2" t="n">
-        <v>83177.58280624798</v>
+        <v>86104.80981742112</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.885577720833157</v>
+        <v>-2.573455995941704</v>
       </c>
     </row>
     <row r="3">
@@ -9934,10 +9870,10 @@
         <v>80038.6007416122</v>
       </c>
       <c r="C3" t="n">
-        <v>74472.87355874649</v>
+        <v>75110.37729905958</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.953803703832219</v>
+        <v>-6.157308344835211</v>
       </c>
     </row>
     <row r="4">
@@ -9950,10 +9886,10 @@
         <v>2920941.758736638</v>
       </c>
       <c r="C4" t="n">
-        <v>2846430.340871571</v>
+        <v>2886328.746028701</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.550938156921498</v>
+        <v>-1.184994962820051</v>
       </c>
     </row>
     <row r="5">
@@ -9966,10 +9902,10 @@
         <v>0.1707930718649235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1636879086048966</v>
+        <v>0.1673925010876151</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.160100396605216</v>
+        <v>-1.991047259807979</v>
       </c>
     </row>
     <row r="6">
@@ -9982,10 +9918,10 @@
         <v>3019.361322344704</v>
       </c>
       <c r="C6" t="n">
-        <v>2900.814352273956</v>
+        <v>2966.605588211306</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.926226688851194</v>
+        <v>-1.747248126382927</v>
       </c>
     </row>
     <row r="7">
@@ -9998,10 +9934,10 @@
         <v>302312.1911261023</v>
       </c>
       <c r="C7" t="n">
-        <v>295345.0974291347</v>
+        <v>299006.9961846121</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.304602295731264</v>
+        <v>-1.093305211800574</v>
       </c>
     </row>
     <row r="8">
@@ -10014,10 +9950,10 @@
         <v>339911.8913027431</v>
       </c>
       <c r="C8" t="n">
-        <v>330343.4387261492</v>
+        <v>334258.7143051696</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.814980240885955</v>
+        <v>-1.663130105836295</v>
       </c>
     </row>
     <row r="9">
@@ -10030,10 +9966,10 @@
         <v>467265.7590406692</v>
       </c>
       <c r="C9" t="n">
-        <v>452768.2763677218</v>
+        <v>462031.9613304276</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.102620380896673</v>
+        <v>-1.120090143345193</v>
       </c>
     </row>
     <row r="10">
@@ -10046,10 +9982,10 @@
         <v>303862.505135322</v>
       </c>
       <c r="C10" t="n">
-        <v>297792.0331938674</v>
+        <v>301118.9750903366</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.997769332794517</v>
+        <v>-0.9028853506501404</v>
       </c>
     </row>
     <row r="11">
@@ -10062,10 +9998,10 @@
         <v>44667.50305592605</v>
       </c>
       <c r="C11" t="n">
-        <v>44343.22757250846</v>
+        <v>44447.42860401404</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7259762942459014</v>
+        <v>-0.4926947710429837</v>
       </c>
     </row>
     <row r="12">
@@ -10078,10 +10014,10 @@
         <v>6203.60467028512</v>
       </c>
       <c r="C12" t="n">
-        <v>6105.614877764699</v>
+        <v>6162.625344724175</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.579562169552574</v>
+        <v>-0.66057280789076</v>
       </c>
     </row>
     <row r="13">
@@ -10094,10 +10030,10 @@
         <v>839824.0628519823</v>
       </c>
       <c r="C13" t="n">
-        <v>848722.1670276894</v>
+        <v>844211.4995006191</v>
       </c>
       <c r="D13" t="n">
-        <v>1.059520031551581</v>
+        <v>0.5224233077744168</v>
       </c>
     </row>
     <row r="14">
@@ -10110,10 +10046,10 @@
         <v>10181.8199161731</v>
       </c>
       <c r="C14" t="n">
-        <v>10036.9646472328</v>
+        <v>10096.90265079256</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.422685434754252</v>
+        <v>-0.8340087143523358</v>
       </c>
     </row>
     <row r="15">
@@ -10126,10 +10062,10 @@
         <v>62709.11526794974</v>
       </c>
       <c r="C15" t="n">
-        <v>59738.62944129525</v>
+        <v>61298.43078845627</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.736928298161923</v>
+        <v>-2.2495684614043</v>
       </c>
     </row>
     <row r="16">
@@ -10142,10 +10078,10 @@
         <v>8969.809554331197</v>
       </c>
       <c r="C16" t="n">
-        <v>8772.652830414636</v>
+        <v>8864.721686463645</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.198003455060667</v>
+        <v>-1.171573010898648</v>
       </c>
     </row>
     <row r="17">
@@ -10158,10 +10094,10 @@
         <v>40285.14188351417</v>
       </c>
       <c r="C17" t="n">
-        <v>40064.68557651302</v>
+        <v>39972.3286746966</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5472397432249506</v>
+        <v>-0.7764977214727943</v>
       </c>
     </row>
   </sheetData>
@@ -10215,10 +10151,10 @@
         <v>78355.35792597735</v>
       </c>
       <c r="C2" t="n">
-        <v>78912.54365317761</v>
+        <v>78484.12852948102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7111009916215664</v>
+        <v>0.1643417973092769</v>
       </c>
     </row>
     <row r="3">
@@ -10231,10 +10167,10 @@
         <v>317789.3840405327</v>
       </c>
       <c r="C3" t="n">
-        <v>313668.2098185635</v>
+        <v>317401.0413759893</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.296825642685273</v>
+        <v>-0.1222012704155943</v>
       </c>
     </row>
     <row r="4">
@@ -10247,10 +10183,10 @@
         <v>5812388.874918879</v>
       </c>
       <c r="C4" t="n">
-        <v>5722522.21639161</v>
+        <v>5767927.423005423</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.546122609157379</v>
+        <v>-0.7649428293642339</v>
       </c>
     </row>
     <row r="5">
@@ -10263,10 +10199,10 @@
         <v>0.0003561830006493868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003560258233642396</v>
+        <v>0.0003559643576485998</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04412823881562124</v>
+        <v>-0.06138501848441328</v>
       </c>
     </row>
     <row r="6">
@@ -10279,10 +10215,10 @@
         <v>3747.700656387613</v>
       </c>
       <c r="C6" t="n">
-        <v>3753.597161598998</v>
+        <v>3747.723462104186</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157336611218798</v>
+        <v>0.0006085255644384914</v>
       </c>
     </row>
     <row r="7">
@@ -10295,10 +10231,10 @@
         <v>18452.78067859498</v>
       </c>
       <c r="C7" t="n">
-        <v>18176.61113357244</v>
+        <v>18317.7220908821</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.496628339288155</v>
+        <v>-0.7319145556720877</v>
       </c>
     </row>
     <row r="8">
@@ -10311,10 +10247,10 @@
         <v>268135.8427319374</v>
       </c>
       <c r="C8" t="n">
-        <v>264590.3501883665</v>
+        <v>266641.2210775553</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.322274749786232</v>
+        <v>-0.5574121084126613</v>
       </c>
     </row>
     <row r="9">
@@ -10327,10 +10263,10 @@
         <v>640564.0214195349</v>
       </c>
       <c r="C9" t="n">
-        <v>631287.9239080923</v>
+        <v>635738.2318942209</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.448114037202109</v>
+        <v>-0.7533656846070924</v>
       </c>
     </row>
     <row r="10">
@@ -10343,10 +10279,10 @@
         <v>71737.1030274103</v>
       </c>
       <c r="C10" t="n">
-        <v>70659.10267436231</v>
+        <v>71179.32636368579</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.50270962661552</v>
+        <v>-0.7775288381960235</v>
       </c>
     </row>
     <row r="11">
@@ -10359,10 +10295,10 @@
         <v>120414.6020779007</v>
       </c>
       <c r="C11" t="n">
-        <v>117799.7430250491</v>
+        <v>119206.6366016889</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.171546480019045</v>
+        <v>-1.003171920487121</v>
       </c>
     </row>
     <row r="12">
@@ -10375,10 +10311,10 @@
         <v>126100.7636223691</v>
       </c>
       <c r="C12" t="n">
-        <v>124023.5349297426</v>
+        <v>124991.0815140366</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.64727685460106</v>
+        <v>-0.8799963429687413</v>
       </c>
     </row>
     <row r="13">
@@ -10391,10 +10327,10 @@
         <v>116158.5188728069</v>
       </c>
       <c r="C13" t="n">
-        <v>112278.8978533647</v>
+        <v>114226.8642333573</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.339936715007876</v>
+        <v>-1.662947029795323</v>
       </c>
     </row>
     <row r="14">
@@ -10407,10 +10343,10 @@
         <v>28460.98512839308</v>
       </c>
       <c r="C14" t="n">
-        <v>27991.38801813746</v>
+        <v>28240.2617246948</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.649967870532873</v>
+        <v>-0.7755297390534823</v>
       </c>
     </row>
     <row r="15">
@@ -10423,10 +10359,10 @@
         <v>11764.370195582</v>
       </c>
       <c r="C15" t="n">
-        <v>11738.38700921987</v>
+        <v>11745.05687595976</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2208633860560346</v>
+        <v>-0.16416790105337</v>
       </c>
     </row>
     <row r="16">
@@ -10439,10 +10375,10 @@
         <v>6241.96478553941</v>
       </c>
       <c r="C16" t="n">
-        <v>6157.854053545538</v>
+        <v>6201.941410334201</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.347504109422869</v>
+        <v>-0.6411983498838397</v>
       </c>
     </row>
     <row r="17">
@@ -10455,10 +10391,10 @@
         <v>41897.22041143459</v>
       </c>
       <c r="C17" t="n">
-        <v>41091.1883497735</v>
+        <v>41569.61532798581</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.923831828808152</v>
+        <v>-0.7819255793860874</v>
       </c>
     </row>
   </sheetData>

--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -488,10 +488,10 @@
         <v>1716192.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1694763.458196417</v>
+        <v>1679494.023651754</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.248638391380362</v>
+        <v>-2.138365771910459</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         <v>154636.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>148216.8003433883</v>
+        <v>148580.2455578162</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.151470523934772</v>
+        <v>-3.916438535203887</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3242974.18102503</v>
       </c>
       <c r="C4" t="n">
-        <v>3209532.823112681</v>
+        <v>3187252.896978998</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.031194084369166</v>
+        <v>-1.718215469369533</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>519331.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>513977.3169017031</v>
+        <v>510614.4882128712</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.030919189091791</v>
+        <v>-1.678449835511153</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         <v>1321086.417788376</v>
       </c>
       <c r="C6" t="n">
-        <v>1309486.702697922</v>
+        <v>1301235.669632899</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8780436263868829</v>
+        <v>-1.502607845193715</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>2762815.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>2737274.310637208</v>
+        <v>2720726.537788706</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9244623278669767</v>
+        <v>-1.523408325303361</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>666749.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>658617.6947542091</v>
+        <v>655123.4235711477</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.219562683161424</v>
+        <v>-1.743638544341021</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>352280.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>348699.1496978721</v>
+        <v>344922.7954895602</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.016550965859628</v>
+        <v>-2.088525373130709</v>
       </c>
     </row>
     <row r="10">
@@ -616,10 +616,10 @@
         <v>472989.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>468929.9916952841</v>
+        <v>466209.4006201848</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8583376756154731</v>
+        <v>-1.433527845719797</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1344792.707611407</v>
       </c>
       <c r="C11" t="n">
-        <v>1334786.131151913</v>
+        <v>1329491.352598511</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7440980608281005</v>
+        <v>-1.137822574906246</v>
       </c>
     </row>
     <row r="12">
@@ -648,10 +648,10 @@
         <v>1086830.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1078463.13489622</v>
+        <v>1072977.541985418</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7699001883461503</v>
+        <v>-1.274633187047437</v>
       </c>
     </row>
     <row r="13">
@@ -664,10 +664,10 @@
         <v>1143812.989778033</v>
       </c>
       <c r="C13" t="n">
-        <v>1142483.593703471</v>
+        <v>1141599.102873786</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1162249499211944</v>
+        <v>-0.1935532227760848</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>712160.1110237867</v>
       </c>
       <c r="C14" t="n">
-        <v>706427.1593569837</v>
+        <v>703530.9473042596</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8050088144590701</v>
+        <v>-1.211688718021846</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v>722157.2634633619</v>
       </c>
       <c r="C15" t="n">
-        <v>712855.6548039404</v>
+        <v>707000.4513882449</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.288030894380577</v>
+        <v>-2.098824292430037</v>
       </c>
     </row>
     <row r="16">
@@ -712,10 +712,10 @@
         <v>298161.0429722404</v>
       </c>
       <c r="C16" t="n">
-        <v>295442.1130411268</v>
+        <v>293978.2988880436</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9118997921424471</v>
+        <v>-1.402847280952874</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         <v>363863.9942526534</v>
       </c>
       <c r="C17" t="n">
-        <v>361029.3944154659</v>
+        <v>360437.796192697</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7790272964516533</v>
+        <v>-0.941615030361412</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +785,10 @@
         <v>3450957.802370132</v>
       </c>
       <c r="C2" t="n">
-        <v>3410138.132907089</v>
+        <v>3381416.343678859</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.182850437493266</v>
+        <v>-2.01513500522991</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         <v>482919.8310003763</v>
       </c>
       <c r="C3" t="n">
-        <v>477243.2162233172</v>
+        <v>474261.7494139427</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.175477669927101</v>
+        <v>-1.792861056978811</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>13829988.52652916</v>
       </c>
       <c r="C4" t="n">
-        <v>13707336.35804784</v>
+        <v>13629849.14850874</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8868566177480519</v>
+        <v>-1.44714059333094</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>897254.4002150299</v>
       </c>
       <c r="C5" t="n">
-        <v>888004.4340675366</v>
+        <v>882194.4380102039</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.030919006390668</v>
+        <v>-1.678449523481512</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         <v>3009042.214440523</v>
       </c>
       <c r="C6" t="n">
-        <v>2982680.554642044</v>
+        <v>2963936.707893983</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8760814212565192</v>
+        <v>-1.498998795366742</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4383731.161583323</v>
       </c>
       <c r="C7" t="n">
-        <v>4343750.933753974</v>
+        <v>4317954.808963309</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9120136786606482</v>
+        <v>-1.500465019306904</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         <v>1665526.087146317</v>
       </c>
       <c r="C8" t="n">
-        <v>1648493.30635657</v>
+        <v>1639949.989569467</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.022666707006093</v>
+        <v>-1.535616750420959</v>
       </c>
     </row>
     <row r="9">
@@ -897,10 +897,10 @@
         <v>1247668.798003208</v>
       </c>
       <c r="C9" t="n">
-        <v>1237154.79361224</v>
+        <v>1229423.544453075</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8426919393828567</v>
+        <v>-1.462347505951302</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>819039.8384011268</v>
       </c>
       <c r="C10" t="n">
-        <v>812203.0166179597</v>
+        <v>807889.6168978931</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8347361706499467</v>
+        <v>-1.361377185876617</v>
       </c>
     </row>
     <row r="11">
@@ -929,10 +929,10 @@
         <v>2819310.646765826</v>
       </c>
       <c r="C11" t="n">
-        <v>2797907.69141686</v>
+        <v>2786301.681904768</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7591556245679463</v>
+        <v>-1.170816876775336</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +945,10 @@
         <v>1650491.778729892</v>
       </c>
       <c r="C12" t="n">
-        <v>1637638.987911723</v>
+        <v>1629429.153579812</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7787249220992865</v>
+        <v>-1.276142385046516</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>1285246.074292473</v>
       </c>
       <c r="C13" t="n">
-        <v>1276574.209922863</v>
+        <v>1271406.488890673</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6747240503639518</v>
+        <v>-1.076804331763405</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
         <v>1283357.657219289</v>
       </c>
       <c r="C14" t="n">
-        <v>1273037.856893205</v>
+        <v>1267774.481832668</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8041250440227924</v>
+        <v>-1.214250392239503</v>
       </c>
     </row>
     <row r="15">
@@ -993,10 +993,10 @@
         <v>806616.9594252668</v>
       </c>
       <c r="C15" t="n">
-        <v>796960.76427489</v>
+        <v>790929.4409794027</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.197122752943</v>
+        <v>-1.944853534575049</v>
       </c>
     </row>
     <row r="16">
@@ -1009,10 +1009,10 @@
         <v>457402.8571253931</v>
       </c>
       <c r="C16" t="n">
-        <v>453271.9641963413</v>
+        <v>451036.6750320556</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9031191792313883</v>
+        <v>-1.391810740612032</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>594553.9771915111</v>
       </c>
       <c r="C17" t="n">
-        <v>589920.0060599907</v>
+        <v>588513.6712053715</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7794029321626593</v>
+        <v>-1.015939043023833</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1082,10 @@
         <v>3372602.435199078</v>
       </c>
       <c r="C2" t="n">
-        <v>3331657.651733979</v>
+        <v>3302656.680646027</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2140412115513</v>
+        <v>-2.073940106994049</v>
       </c>
     </row>
     <row r="3">
@@ -1098,10 +1098,10 @@
         <v>165130.445609969</v>
       </c>
       <c r="C3" t="n">
-        <v>159868.1178213766</v>
+        <v>159807.3566909749</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.1867701738187</v>
+        <v>-3.223566011301739</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>8017599.612171117</v>
       </c>
       <c r="C4" t="n">
-        <v>7939412.652419786</v>
+        <v>7888262.462696049</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.97519162259786</v>
+        <v>-1.613165482580692</v>
       </c>
     </row>
     <row r="5">
@@ -1130,10 +1130,10 @@
         <v>897254.3977899103</v>
       </c>
       <c r="C5" t="n">
-        <v>888004.4316639728</v>
+        <v>882194.4356198636</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.030919006774641</v>
+        <v>-1.67844952414187</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>3005294.609814465</v>
       </c>
       <c r="C6" t="n">
-        <v>2978932.998786802</v>
+        <v>2960184.781048028</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8771722726142502</v>
+        <v>-1.5010118681583</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +1162,10 @@
         <v>4365278.370174446</v>
       </c>
       <c r="C7" t="n">
-        <v>4325433.216181684</v>
+        <v>4299717.584609725</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9127746414753741</v>
+        <v>-1.501869525954232</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1178,10 @@
         <v>1397390.239860752</v>
       </c>
       <c r="C8" t="n">
-        <v>1381853.824004326</v>
+        <v>1374615.268515778</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.111816542956125</v>
+        <v>-1.6298218418388</v>
       </c>
     </row>
     <row r="9">
@@ -1194,10 +1194,10 @@
         <v>607104.7726796871</v>
       </c>
       <c r="C9" t="n">
-        <v>601416.822560491</v>
+        <v>596162.2227950456</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9368976122671814</v>
+        <v>-1.802415394684257</v>
       </c>
     </row>
     <row r="10">
@@ -1210,10 +1210,10 @@
         <v>747302.7328467588</v>
       </c>
       <c r="C10" t="n">
-        <v>741023.6942334229</v>
+        <v>737003.5664488518</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8402269036828883</v>
+        <v>-1.378178607573605</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         <v>2698896.038135583</v>
       </c>
       <c r="C11" t="n">
-        <v>2678701.237223711</v>
+        <v>2667940.614033544</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7482615345873949</v>
+        <v>-1.146966154480827</v>
       </c>
     </row>
     <row r="12">
@@ -1242,10 +1242,10 @@
         <v>1524391.011590432</v>
       </c>
       <c r="C12" t="n">
-        <v>1512647.938207228</v>
+        <v>1504959.458669968</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7703452259897473</v>
+        <v>-1.274709229634601</v>
       </c>
     </row>
     <row r="13">
@@ -1258,10 +1258,10 @@
         <v>1169087.550664374</v>
       </c>
       <c r="C13" t="n">
-        <v>1162350.495600602</v>
+        <v>1158310.339297818</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5762660854564274</v>
+        <v>-0.9218480994371723</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         <v>1254896.669123307</v>
       </c>
       <c r="C14" t="n">
-        <v>1244797.592824525</v>
+        <v>1239682.66245385</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8047735361221039</v>
+        <v>-1.212371268790307</v>
       </c>
     </row>
     <row r="15">
@@ -1290,10 +1290,10 @@
         <v>794852.5872857772</v>
       </c>
       <c r="C15" t="n">
-        <v>785216.0261208579</v>
+        <v>779187.3233640892</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.212370862102334</v>
+        <v>-1.970838891671841</v>
       </c>
     </row>
     <row r="16">
@@ -1306,10 +1306,10 @@
         <v>451160.8912917899</v>
       </c>
       <c r="C16" t="n">
-        <v>447070.0326853469</v>
+        <v>444861.0413905585</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9067405188268428</v>
+        <v>-1.396364361989192</v>
       </c>
     </row>
     <row r="17">
@@ -1322,10 +1322,10 @@
         <v>552656.7553519364</v>
       </c>
       <c r="C17" t="n">
-        <v>548350.3893222234</v>
+        <v>547250.6713119186</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7792116875456883</v>
+        <v>-0.9781992145513826</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9920696053579098</v>
+        <v>0.9875210612957764</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7930394642090222</v>
+        <v>-1.247893870422356</v>
       </c>
     </row>
     <row r="3">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9927512074710695</v>
+        <v>0.9884855980487723</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7248792528930514</v>
+        <v>-1.151440195122766</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.009261521021555</v>
+        <v>1.01764874470222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9261521021554531</v>
+        <v>1.764874470221978</v>
       </c>
     </row>
     <row r="3">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.015092111913557</v>
+        <v>1.010379788365968</v>
       </c>
       <c r="D3" t="n">
-        <v>1.509211191355653</v>
+        <v>1.037978836596798</v>
       </c>
     </row>
     <row r="4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9978333312146054</v>
+        <v>0.9967734961111857</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2166668785394621</v>
+        <v>-0.3226503888814292</v>
       </c>
     </row>
     <row r="5">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.007315109616852</v>
+        <v>1.01289760133247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7315109616852444</v>
+        <v>1.289760133246975</v>
       </c>
     </row>
     <row r="6">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.009113578908534</v>
+        <v>1.017067750236167</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9113578908534148</v>
+        <v>1.706775023616669</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000912975094697</v>
+        <v>1.001730927044019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09129750946967885</v>
+        <v>0.1730927044019337</v>
       </c>
     </row>
     <row r="8">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.005064599125609</v>
+        <v>1.005337622668616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.506459912560886</v>
+        <v>0.5337622668615705</v>
       </c>
     </row>
     <row r="9">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000661605901385</v>
+        <v>1.003549515083931</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06616059013848652</v>
+        <v>0.3549515083931309</v>
       </c>
     </row>
     <row r="10">
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.001188769452314</v>
+        <v>1.002453240304717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1188769452314276</v>
+        <v>0.2453240304716831</v>
       </c>
     </row>
     <row r="11">
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987708027258858</v>
+        <v>0.9967210744442813</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1229197274114191</v>
+        <v>-0.3278925555718737</v>
       </c>
     </row>
     <row r="12">
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9993909767330441</v>
+        <v>1.000033278518146</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06090232669558882</v>
+        <v>0.003327851814582949</v>
       </c>
     </row>
     <row r="13">
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9952010020350854</v>
+        <v>0.9923315167996848</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4798997964914564</v>
+        <v>-0.7668483200315213</v>
       </c>
     </row>
     <row r="14">
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000210003090457</v>
+        <v>0.9994769117980057</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02100030904568229</v>
+        <v>-0.0523088201994315</v>
       </c>
     </row>
     <row r="15">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.005688477134662</v>
+        <v>1.009764835562215</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5688477134662362</v>
+        <v>0.9764835562215302</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002073496766064</v>
+        <v>1.002593891673157</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2073496766064498</v>
+        <v>0.2593891673156934</v>
       </c>
     </row>
     <row r="17">
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9998276807271872</v>
+        <v>0.9960859160228244</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01723192728128042</v>
+        <v>-0.3914083977175631</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.006776101036774</v>
+        <v>1.012888503425395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.677610103677373</v>
+        <v>1.288850342539494</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.010630728925916</v>
+        <v>1.007565215858179</v>
       </c>
       <c r="D3" t="n">
-        <v>1.063072892591643</v>
+        <v>0.7565215858178709</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.000777923752441</v>
+        <v>1.001471659943139</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07779237524412341</v>
+        <v>0.1471659943138581</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.004886227526587</v>
+        <v>1.008459585337691</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4886227526587072</v>
+        <v>0.8459585337690534</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004413568882838</v>
+        <v>1.0081964600106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4413568882837726</v>
+        <v>0.8196460010599926</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000853182325653</v>
+        <v>1.001584211242072</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08531823256527904</v>
+        <v>0.1584211242072309</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.002252808885392</v>
+        <v>1.002393137992771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2252808885391921</v>
+        <v>0.2393137992770633</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000523423248054</v>
+        <v>1.001906954629225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05234232480544332</v>
+        <v>0.1906954629224744</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000224742515845</v>
+        <v>1.000691565410611</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02247425158454774</v>
+        <v>0.06915654106107727</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987359607342007</v>
+        <v>0.9972214219701835</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1264039265799322</v>
+        <v>-0.2778578029816514</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9994495766685998</v>
+        <v>0.999905383228369</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05504233314002072</v>
+        <v>-0.009461677163102866</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9968182926183968</v>
+        <v>0.9949810899267504</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3181707381603172</v>
+        <v>-0.5018910073249616</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000146208290056</v>
+        <v>0.9995745861811991</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01462082900556272</v>
+        <v>-0.04254138188009016</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.00490629315716</v>
+        <v>1.008427909209537</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4906293157159736</v>
+        <v>0.8427909209536733</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.00131289587692</v>
+        <v>1.001659094276783</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131289587691974</v>
+        <v>0.1659094276782902</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999872530648322</v>
+        <v>0.9974797139173799</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001274693516783998</v>
+        <v>-0.2520286082620116</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.006793512631031</v>
+        <v>1.012917769932079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6793512631030785</v>
+        <v>1.291776993207905</v>
       </c>
     </row>
     <row r="3">
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.005314896590661</v>
+        <v>1.003798874193214</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5314896590661311</v>
+        <v>0.3798874193213786</v>
       </c>
     </row>
     <row r="4">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.000614831452827</v>
+        <v>1.001162373313975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06148314528267029</v>
+        <v>0.1162373313974507</v>
       </c>
     </row>
     <row r="5">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0048862261331</v>
+        <v>1.008459584605764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4886226133100413</v>
+        <v>0.845958460576357</v>
       </c>
     </row>
     <row r="6">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004412488901327</v>
+        <v>1.008194357746622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4412488901327283</v>
+        <v>0.8194357746621916</v>
       </c>
     </row>
     <row r="7">
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000908368828781</v>
+        <v>1.001686594436929</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09083688287812031</v>
+        <v>0.1686594436928646</v>
       </c>
     </row>
     <row r="8">
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.002347550575018</v>
+        <v>1.00249362696532</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234755057501812</v>
+        <v>0.2493626965320184</v>
       </c>
     </row>
     <row r="9">
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000450322458779</v>
+        <v>1.001636849992205</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04503224587792953</v>
+        <v>0.1636849992204814</v>
       </c>
     </row>
     <row r="10">
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000288399737857</v>
+        <v>1.000887235184117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02883997378571035</v>
+        <v>0.08872351841169301</v>
       </c>
     </row>
     <row r="11">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987698263679771</v>
+        <v>0.9972956212949359</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1230173632022935</v>
+        <v>-0.2704378705064125</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999489536404264</v>
+        <v>0.9999122537008962</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05104635957360326</v>
+        <v>-0.008774629910379694</v>
       </c>
     </row>
     <row r="13">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9950128803946162</v>
+        <v>0.9921203466088752</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4987119605383783</v>
+        <v>-0.7879653391124841</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000144122856213</v>
+        <v>0.9995806377021613</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01441228562129027</v>
+        <v>-0.04193622978386768</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.005213758009145</v>
+        <v>1.008953129550731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5213758009145364</v>
+        <v>0.8953129550731465</v>
       </c>
     </row>
     <row r="16">
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001320664845693</v>
+        <v>1.001668892972801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1320664845693154</v>
+        <v>0.1668892972801039</v>
       </c>
     </row>
     <row r="17">
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999987285200909</v>
+        <v>0.9974856023964931</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001271479909104034</v>
+        <v>-0.2514397603506913</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.006952445762558</v>
+        <v>1.013221858162932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6952445762558046</v>
+        <v>1.322185816293175</v>
       </c>
     </row>
     <row r="3">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.015703915220782</v>
+        <v>1.011191539706394</v>
       </c>
       <c r="D3" t="n">
-        <v>1.570391522078229</v>
+        <v>1.119153970639353</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00106103367073</v>
+        <v>1.002006736141547</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1061033670729516</v>
+        <v>0.2006736141547449</v>
       </c>
     </row>
     <row r="5">
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.00488622845217</v>
+        <v>1.00845958693451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4886228452169572</v>
+        <v>0.8459586934509655</v>
       </c>
     </row>
     <row r="6">
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004417983634429</v>
+        <v>1.008204628002891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4417983634429357</v>
+        <v>0.8204628002890901</v>
       </c>
     </row>
     <row r="7">
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000912214622771</v>
+        <v>1.001693738498816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09122146227709127</v>
+        <v>0.16937384988156</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.00279927052829</v>
+        <v>1.002973538385264</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2799270528289988</v>
+        <v>0.2973538385264041</v>
       </c>
     </row>
     <row r="9">
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000925909826911</v>
+        <v>1.003369737579507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09259098269105426</v>
+        <v>0.3369737579506982</v>
       </c>
     </row>
     <row r="10">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000316096718301</v>
+        <v>1.00097249127277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03160967183006846</v>
+        <v>0.0972491272769771</v>
       </c>
     </row>
     <row r="11">
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9987150135940793</v>
+        <v>0.9971753053232363</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1284986405920674</v>
+        <v>-0.2824694676763717</v>
       </c>
     </row>
     <row r="12">
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9994473354475195</v>
+        <v>0.9999049981429085</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05526645524804863</v>
+        <v>-0.009500185709154785</v>
       </c>
     </row>
     <row r="13">
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9945200882132906</v>
+        <v>0.9913442185831084</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5479911786709368</v>
+        <v>-0.8655781416891606</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1.000147394401343</v>
+        <v>0.9995711330318778</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01473944013430373</v>
+        <v>-0.04288669681221657</v>
       </c>
     </row>
     <row r="15">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.00529133602419</v>
+        <v>1.00908684867385</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5291336024190407</v>
+        <v>0.908684867384979</v>
       </c>
     </row>
     <row r="16">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001338963485692</v>
+        <v>1.001692024071506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1338963485691513</v>
+        <v>0.1692024071506371</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999863238820995</v>
+        <v>0.9972955025984073</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.001367611790048517</v>
+        <v>-0.2704497401592731</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3279,10 @@
         <v>1135500.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1140753.979834323</v>
+        <v>1145120.862153789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4626579443570672</v>
+        <v>0.8472356995076447</v>
       </c>
     </row>
     <row r="3">
@@ -3295,10 +3295,10 @@
         <v>131043.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>128518.0742395541</v>
+        <v>128825.7922031036</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.927157445201038</v>
+        <v>-1.692336190921931</v>
       </c>
     </row>
     <row r="4">
@@ -3311,10 +3311,10 @@
         <v>2283937.65102503</v>
       </c>
       <c r="C4" t="n">
-        <v>2273518.210309235</v>
+        <v>2265726.021013728</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4562051293790213</v>
+        <v>-0.7973785975781162</v>
       </c>
     </row>
     <row r="5">
@@ -3327,10 +3327,10 @@
         <v>426893.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>428984.8746589589</v>
+        <v>430513.8542588447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4899756501992535</v>
+        <v>0.8481400793864735</v>
       </c>
     </row>
     <row r="6">
@@ -3343,10 +3343,10 @@
         <v>744992.4177883761</v>
       </c>
       <c r="C6" t="n">
-        <v>751137.8106151421</v>
+        <v>755753.3862049803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.82489333851337</v>
+        <v>1.444439991557202</v>
       </c>
     </row>
     <row r="7">
@@ -3359,10 +3359,10 @@
         <v>1787008.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>1786270.520614851</v>
+        <v>1785107.367846388</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04129686571218144</v>
+        <v>-0.1063862465986968</v>
       </c>
     </row>
     <row r="8">
@@ -3375,10 +3375,10 @@
         <v>425529.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>425845.4978984157</v>
+        <v>425652.8344616852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07434972013186703</v>
+        <v>0.02907351493350901</v>
       </c>
     </row>
     <row r="9">
@@ -3391,10 +3391,10 @@
         <v>224861.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>224503.0840450842</v>
+        <v>223738.4711974694</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1592866738147616</v>
+        <v>-0.4993242837608999</v>
       </c>
     </row>
     <row r="10">
@@ -3407,10 +3407,10 @@
         <v>316229.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>316397.3755626972</v>
+        <v>316409.7230699391</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05297850869794394</v>
+        <v>0.05688310769947092</v>
       </c>
     </row>
     <row r="11">
@@ -3423,10 +3423,10 @@
         <v>917723.7076114072</v>
       </c>
       <c r="C11" t="n">
-        <v>917047.8248749316</v>
+        <v>915734.1211016022</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0736477363361028</v>
+        <v>-0.216795806112856</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3439,10 @@
         <v>1029993.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1029606.447936791</v>
+        <v>1029749.019910669</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03759228536321178</v>
+        <v>-0.02375026076241435</v>
       </c>
     </row>
     <row r="13">
@@ -3455,10 +3455,10 @@
         <v>418612.9897780325</v>
       </c>
       <c r="C13" t="n">
-        <v>419446.2432641129</v>
+        <v>419837.9697597931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1990510343508965</v>
+        <v>0.2926282775912167</v>
       </c>
     </row>
     <row r="14">
@@ -3471,10 +3471,10 @@
         <v>99793.11102378671</v>
       </c>
       <c r="C14" t="n">
-        <v>99802.02528756979</v>
+        <v>99777.47809916209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008932744647028954</v>
+        <v>-0.01566533447473202</v>
       </c>
     </row>
     <row r="15">
@@ -3487,10 +3487,10 @@
         <v>162559.2634633618</v>
       </c>
       <c r="C15" t="n">
-        <v>162668.2776082793</v>
+        <v>162732.2038346384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06706117055090205</v>
+        <v>0.1063860450595693</v>
       </c>
     </row>
     <row r="16">
@@ -3503,10 +3503,10 @@
         <v>213874.0429722403</v>
       </c>
       <c r="C16" t="n">
-        <v>214060.7352876899</v>
+        <v>214092.3456117045</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08729077771901075</v>
+        <v>0.1020706563687778</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>265197.5242526537</v>
       </c>
       <c r="C17" t="n">
-        <v>265189.2761241099</v>
+        <v>264978.807434249</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003110183085994619</v>
+        <v>-0.08247317504981813</v>
       </c>
     </row>
     <row r="18">
@@ -3535,10 +3535,10 @@
         <v>580692</v>
       </c>
       <c r="C18" t="n">
-        <v>582978.0821729491</v>
+        <v>585040.4061926545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3936823949613736</v>
+        <v>0.7488317718609023</v>
       </c>
     </row>
     <row r="19">
@@ -3551,10 +3551,10 @@
         <v>23593</v>
       </c>
       <c r="C19" t="n">
-        <v>23122.43945582496</v>
+        <v>23171.09532865629</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.994492197579966</v>
+        <v>-1.788262074953219</v>
       </c>
     </row>
     <row r="20">
@@ -3567,10 +3567,10 @@
         <v>959036.53</v>
       </c>
       <c r="C20" t="n">
-        <v>954005.9057356917</v>
+        <v>950461.0386735961</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5245498067011449</v>
+        <v>-0.8941777563367602</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3583,10 @@
         <v>92438</v>
       </c>
       <c r="C21" t="n">
-        <v>92827.14673572894</v>
+        <v>93131.04028820874</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4209813450409319</v>
+        <v>0.7497352692710102</v>
       </c>
     </row>
     <row r="22">
@@ -3599,10 +3599,10 @@
         <v>576094</v>
       </c>
       <c r="C22" t="n">
-        <v>580447.3642637803</v>
+        <v>583845.0758987084</v>
       </c>
       <c r="D22" t="n">
-        <v>0.755669085909643</v>
+        <v>1.345453328572842</v>
       </c>
     </row>
     <row r="23">
@@ -3615,10 +3615,10 @@
         <v>975807</v>
       </c>
       <c r="C23" t="n">
-        <v>974734.3303931757</v>
+        <v>973817.7232019479</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1099264103274817</v>
+        <v>-0.2038596564742958</v>
       </c>
     </row>
     <row r="24">
@@ -3631,10 +3631,10 @@
         <v>241220</v>
       </c>
       <c r="C24" t="n">
-        <v>241233.6066774584</v>
+        <v>241054.6869339684</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005640775001428961</v>
+        <v>-0.06853207280969695</v>
       </c>
     </row>
     <row r="25">
@@ -3647,10 +3647,10 @@
         <v>127419</v>
       </c>
       <c r="C25" t="n">
-        <v>127128.694654907</v>
+        <v>126659.0548941364</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2278352091077713</v>
+        <v>-0.5964142756289469</v>
       </c>
     </row>
     <row r="26">
@@ -3663,10 +3663,10 @@
         <v>156760</v>
       </c>
       <c r="C26" t="n">
-        <v>156735.3639692818</v>
+        <v>156696.1209021608</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01571576340789649</v>
+        <v>-0.04074961587087084</v>
       </c>
     </row>
     <row r="27">
@@ -3679,10 +3679,10 @@
         <v>427069</v>
       </c>
       <c r="C27" t="n">
-        <v>426461.4726971362</v>
+        <v>425727.3137029519</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.142255069523621</v>
+        <v>-0.3141614814112141</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3695,10 @@
         <v>56837</v>
       </c>
       <c r="C28" t="n">
-        <v>56776.62525285341</v>
+        <v>56768.0542724317</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1062243734655073</v>
+        <v>-0.1213043045345491</v>
       </c>
     </row>
     <row r="29">
@@ -3711,10 +3711,10 @@
         <v>725200</v>
       </c>
       <c r="C29" t="n">
-        <v>726144.6199343571</v>
+        <v>726612.4395542383</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1302564719190734</v>
+        <v>0.194765520441029</v>
       </c>
     </row>
     <row r="30">
@@ -3727,10 +3727,10 @@
         <v>612367</v>
       </c>
       <c r="C30" t="n">
-        <v>612001.2253124126</v>
+        <v>611673.6335800954</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.05973128656302511</v>
+        <v>-0.1132272672930828</v>
       </c>
     </row>
     <row r="31">
@@ -3743,10 +3743,10 @@
         <v>559598</v>
       </c>
       <c r="C31" t="n">
-        <v>559588.807089615</v>
+        <v>559646.7131060667</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.00164277041464924</v>
+        <v>0.008705017899757868</v>
       </c>
     </row>
     <row r="32">
@@ -3759,10 +3759,10 @@
         <v>84287</v>
       </c>
       <c r="C32" t="n">
-        <v>84302.65458028493</v>
+        <v>84290.70343595892</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01857294753037677</v>
+        <v>0.004393840045221789</v>
       </c>
     </row>
     <row r="33">
@@ -3775,10 +3775,10 @@
         <v>98666.46999999974</v>
       </c>
       <c r="C33" t="n">
-        <v>98595.66107454279</v>
+        <v>98488.90003422021</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.07176594587497627</v>
+        <v>-0.1799699186355146</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3820,10 @@
         <v>2685479.873327278</v>
       </c>
       <c r="B2" t="n">
-        <v>2664865.765829696</v>
+        <v>2652934.1773802</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.767613553999255</v>
+        <v>-1.211913605100094</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3865,10 @@
         <v>129988.6072602831</v>
       </c>
       <c r="B2" t="n">
-        <v>128932.120679971</v>
+        <v>128298.028316509</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8127532116692378</v>
+        <v>-1.300559317778461</v>
       </c>
     </row>
   </sheetData>
@@ -3910,10 +3910,10 @@
         <v>945269.9536134986</v>
       </c>
       <c r="B2" t="n">
-        <v>938013.9333276789</v>
+        <v>933814.0984407334</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.767613553999252</v>
+        <v>-1.21191360510008</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3967,10 @@
         <v>46424</v>
       </c>
       <c r="C2" t="n">
-        <v>46154.97793954793</v>
+        <v>46016.82634734525</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5794891876013974</v>
+        <v>-0.8770757639469812</v>
       </c>
     </row>
     <row r="3">
@@ -3983,10 +3983,10 @@
         <v>8686</v>
       </c>
       <c r="C3" t="n">
-        <v>8413.908375656429</v>
+        <v>8408.956064641212</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.132530789127001</v>
+        <v>-3.189545652300116</v>
       </c>
     </row>
     <row r="4">
@@ -3999,10 +3999,10 @@
         <v>245357</v>
       </c>
       <c r="C4" t="n">
-        <v>243015.793938312</v>
+        <v>241496.1159715267</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9542038994966476</v>
+        <v>-1.57357810393563</v>
       </c>
     </row>
     <row r="5">
@@ -4015,10 +4015,10 @@
         <v>37699</v>
       </c>
       <c r="C5" t="n">
-        <v>37492.66065254593</v>
+        <v>37379.80622705995</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5473337421525019</v>
+        <v>-0.8466902913606527</v>
       </c>
     </row>
     <row r="6">
@@ -4031,10 +4031,10 @@
         <v>52755</v>
       </c>
       <c r="C6" t="n">
-        <v>52522.58149361905</v>
+        <v>52388.20613897595</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4405620441303177</v>
+        <v>-0.6952779092484984</v>
       </c>
     </row>
     <row r="7">
@@ -4047,10 +4047,10 @@
         <v>474489</v>
       </c>
       <c r="C7" t="n">
-        <v>470503.6111132147</v>
+        <v>468000.8345590408</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8399328302205761</v>
+        <v>-1.367400601691339</v>
       </c>
     </row>
     <row r="8">
@@ -4063,10 +4063,10 @@
         <v>31090</v>
       </c>
       <c r="C8" t="n">
-        <v>30780.0236104433</v>
+        <v>30621.00812329844</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9970292362711638</v>
+        <v>-1.508497512710052</v>
       </c>
     </row>
     <row r="9">
@@ -4079,10 +4079,10 @@
         <v>51009</v>
       </c>
       <c r="C9" t="n">
-        <v>50516.89540232863</v>
+        <v>50038.90439386123</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9647407274625501</v>
+        <v>-1.901812633336803</v>
       </c>
     </row>
     <row r="10">
@@ -4095,10 +4095,10 @@
         <v>42935</v>
       </c>
       <c r="C10" t="n">
-        <v>42576.03921514403</v>
+        <v>42348.78153208317</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8360563289995763</v>
+        <v>-1.365362682931955</v>
       </c>
     </row>
     <row r="11">
@@ -4111,10 +4111,10 @@
         <v>153354</v>
       </c>
       <c r="C11" t="n">
-        <v>152020.4927826698</v>
+        <v>151187.8458441827</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8695614182415775</v>
+        <v>-1.412518849079444</v>
       </c>
     </row>
     <row r="12">
@@ -4127,10 +4127,10 @@
         <v>102842</v>
       </c>
       <c r="C12" t="n">
-        <v>101994.0484266523</v>
+        <v>101521.5351889254</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8245187504596532</v>
+        <v>-1.283974262533378</v>
       </c>
     </row>
     <row r="13">
@@ -4143,10 +4143,10 @@
         <v>15452</v>
       </c>
       <c r="C13" t="n">
-        <v>15384.93431881271</v>
+        <v>15344.69006234423</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.434025894300376</v>
+        <v>-0.6944728038814996</v>
       </c>
     </row>
     <row r="14">
@@ -4159,10 +4159,10 @@
         <v>55546</v>
       </c>
       <c r="C14" t="n">
-        <v>55106.90571253443</v>
+        <v>54849.61167118849</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7905056844157525</v>
+        <v>-1.253714630777212</v>
       </c>
     </row>
     <row r="15">
@@ -4175,10 +4175,10 @@
         <v>9450</v>
       </c>
       <c r="C15" t="n">
-        <v>9374.048362114261</v>
+        <v>9329.633264190354</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.803721035827924</v>
+        <v>-1.27372207205975</v>
       </c>
     </row>
     <row r="16">
@@ -4191,10 +4191,10 @@
         <v>10107</v>
       </c>
       <c r="C16" t="n">
-        <v>10027.98272265293</v>
+        <v>9981.74745520223</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7818074339277226</v>
+        <v>-1.239265309169581</v>
       </c>
     </row>
     <row r="17">
@@ -4207,10 +4207,10 @@
         <v>47161</v>
       </c>
       <c r="C17" t="n">
-        <v>46793.00646169753</v>
+        <v>46599.18491979342</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7802920597580019</v>
+        <v>-1.19127049936723</v>
       </c>
     </row>
   </sheetData>
@@ -4529,10 +4529,10 @@
         <v>996184.050494849</v>
       </c>
       <c r="C2" t="n">
-        <v>983745.3139915622</v>
+        <v>974881.9917338358</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.248638391380376</v>
+        <v>-2.138365771910474</v>
       </c>
     </row>
     <row r="3">
@@ -4545,10 +4545,10 @@
         <v>976.8286270496617</v>
       </c>
       <c r="C3" t="n">
-        <v>936.2758745283382</v>
+        <v>938.5717342769857</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.151470523934774</v>
+        <v>-3.916438535203886</v>
       </c>
     </row>
     <row r="4">
@@ -4561,10 +4561,10 @@
         <v>1335493.450539227</v>
       </c>
       <c r="C4" t="n">
-        <v>1321721.921080129</v>
+        <v>1312546.795479645</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.031194084369163</v>
+        <v>-1.718215469369543</v>
       </c>
     </row>
     <row r="5">
@@ -4577,10 +4577,10 @@
         <v>2112.539597468874</v>
       </c>
       <c r="C5" t="n">
-        <v>2090.761021381405</v>
+        <v>2077.08168007005</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.030919189091786</v>
+        <v>-1.678449835511164</v>
       </c>
     </row>
     <row r="6">
@@ -4593,10 +4593,10 @@
         <v>3120.123852353638</v>
       </c>
       <c r="C6" t="n">
-        <v>3092.72780373267</v>
+        <v>3073.240626568411</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8780436263868986</v>
+        <v>-1.502607845193738</v>
       </c>
     </row>
     <row r="7">
@@ -4609,10 +4609,10 @@
         <v>13906.41378521889</v>
       </c>
       <c r="C7" t="n">
-        <v>13777.85422861724</v>
+        <v>13694.56231986373</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9244623278670188</v>
+        <v>-1.52340832530339</v>
       </c>
     </row>
     <row r="8">
@@ -4625,10 +4625,10 @@
         <v>790.3713158162036</v>
       </c>
       <c r="C8" t="n">
-        <v>780.7322421900973</v>
+        <v>776.5900969102171</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.219562683161421</v>
+        <v>-1.743638544341008</v>
       </c>
     </row>
     <row r="9">
@@ -4641,10 +4641,10 @@
         <v>8004.610860240749</v>
       </c>
       <c r="C9" t="n">
-        <v>7923.239911227669</v>
+        <v>7837.432531404245</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.016550965859609</v>
+        <v>-2.088525373130705</v>
       </c>
     </row>
     <row r="10">
@@ -4657,10 +4657,10 @@
         <v>567.3164122969201</v>
       </c>
       <c r="C10" t="n">
-        <v>562.4469217902257</v>
+        <v>559.1837735533053</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8583376756154651</v>
+        <v>-1.433527845719791</v>
       </c>
     </row>
     <row r="11">
@@ -4673,10 +4673,10 @@
         <v>831.6523942152977</v>
       </c>
       <c r="C11" t="n">
-        <v>825.464084877111</v>
+        <v>822.1896655291675</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7440980608281295</v>
+        <v>-1.137822574906272</v>
       </c>
     </row>
     <row r="12">
@@ -4689,10 +4689,10 @@
         <v>994.4142883118851</v>
       </c>
       <c r="C12" t="n">
-        <v>986.7582908332308</v>
+        <v>981.7391537763202</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7699001883461555</v>
+        <v>-1.274633187047439</v>
       </c>
     </row>
     <row r="13">
@@ -4705,10 +4705,10 @@
         <v>2668.348360238089</v>
       </c>
       <c r="C13" t="n">
-        <v>2665.247073692681</v>
+        <v>2663.183685991957</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1162249499211344</v>
+        <v>-0.1935532227760276</v>
       </c>
     </row>
     <row r="14">
@@ -4721,10 +4721,10 @@
         <v>2408.744516456872</v>
       </c>
       <c r="C14" t="n">
-        <v>2389.353910781595</v>
+        <v>2379.558030904994</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8050088144590619</v>
+        <v>-1.211688718021852</v>
       </c>
     </row>
     <row r="15">
@@ -4737,10 +4737,10 @@
         <v>887.2225417552854</v>
       </c>
       <c r="C15" t="n">
-        <v>875.7948413155686</v>
+        <v>868.6012995210102</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.288030894380586</v>
+        <v>-2.098824292430042</v>
       </c>
     </row>
     <row r="16">
@@ -4753,10 +4753,10 @@
         <v>769.1315417398619</v>
       </c>
       <c r="C16" t="n">
-        <v>762.117832809434</v>
+        <v>758.3418008196135</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9118997921424487</v>
+        <v>-1.402847280952851</v>
       </c>
     </row>
     <row r="17">
@@ -4769,10 +4769,10 @@
         <v>841.3175629623918</v>
       </c>
       <c r="C17" t="n">
-        <v>834.7634694970728</v>
+        <v>833.3955903364673</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7790272964516635</v>
+        <v>-0.9416150303614419</v>
       </c>
     </row>
     <row r="18">
@@ -4785,10 +4785,10 @@
         <v>43.99404506602389</v>
       </c>
       <c r="C18" t="n">
-        <v>43.44471852940833</v>
+        <v>43.05329146465316</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.248638391380363</v>
+        <v>-2.138365771910473</v>
       </c>
     </row>
     <row r="19">
@@ -4801,10 +4801,10 @@
         <v>24092.79883337583</v>
       </c>
       <c r="C19" t="n">
-        <v>23092.59339141732</v>
+        <v>23149.21917565634</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.15147052393481</v>
+        <v>-3.916438535203894</v>
       </c>
     </row>
     <row r="20">
@@ -4817,10 +4817,10 @@
         <v>386766.2071966509</v>
       </c>
       <c r="C20" t="n">
-        <v>382777.8969476999</v>
+        <v>380120.7303943041</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.031194084369193</v>
+        <v>-1.718215469369555</v>
       </c>
     </row>
     <row r="21">
@@ -4833,10 +4833,10 @@
         <v>25400.93814486871</v>
       </c>
       <c r="C21" t="n">
-        <v>25139.07499932393</v>
+        <v>24974.59614035787</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.030919189091772</v>
+        <v>-1.678449835511143</v>
       </c>
     </row>
     <row r="22">
@@ -4849,10 +4849,10 @@
         <v>30205.13465254084</v>
       </c>
       <c r="C22" t="n">
-        <v>29939.92039288263</v>
+        <v>29751.26992960044</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.8780436263868773</v>
+        <v>-1.502607845193718</v>
       </c>
     </row>
     <row r="23">
@@ -4865,10 +4865,10 @@
         <v>554.7138472670425</v>
       </c>
       <c r="C23" t="n">
-        <v>549.5857267215971</v>
+        <v>546.2632903361658</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.9244623278669875</v>
+        <v>-1.523408325303362</v>
       </c>
     </row>
     <row r="24">
@@ -4881,10 +4881,10 @@
         <v>60.33259108559908</v>
       </c>
       <c r="C24" t="n">
-        <v>59.59679731893475</v>
+        <v>59.28060877263094</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.219562683161403</v>
+        <v>-1.74363854434098</v>
       </c>
     </row>
     <row r="25">
@@ -4897,10 +4897,10 @@
         <v>121.3883533638887</v>
       </c>
       <c r="C25" t="n">
-        <v>120.154378885327</v>
+        <v>118.8531268038583</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.016550965859649</v>
+        <v>-2.088525373130745</v>
       </c>
     </row>
     <row r="26">
@@ -4913,10 +4913,10 @@
         <v>44.76267229817115</v>
       </c>
       <c r="C26" t="n">
-        <v>44.37845741722366</v>
+        <v>44.12098692628857</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.8583376756154477</v>
+        <v>-1.433527845719771</v>
       </c>
     </row>
     <row r="27">
@@ -4929,10 +4929,10 @@
         <v>87.47359940953065</v>
       </c>
       <c r="C27" t="n">
-        <v>86.82271005258777</v>
+        <v>86.47830504836594</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7440980608281293</v>
+        <v>-1.137822574906262</v>
       </c>
     </row>
     <row r="28">
@@ -4945,10 +4945,10 @@
         <v>619.7676712045622</v>
       </c>
       <c r="C28" t="n">
-        <v>614.9960787366498</v>
+        <v>611.8679067847977</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7699001883461473</v>
+        <v>-1.274633187047463</v>
       </c>
     </row>
     <row r="29">
@@ -4961,10 +4961,10 @@
         <v>110.111208618299</v>
       </c>
       <c r="C29" t="n">
-        <v>109.9832319212248</v>
+        <v>109.8980848253806</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.116224949921161</v>
+        <v>-0.1935532227760534</v>
       </c>
     </row>
     <row r="30">
@@ -4977,10 +4977,10 @@
         <v>75.57409461921016</v>
       </c>
       <c r="C30" t="n">
-        <v>74.96571649607786</v>
+        <v>74.65837184096202</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8050088144590936</v>
+        <v>-1.211688718021865</v>
       </c>
     </row>
     <row r="31">
@@ -4993,10 +4993,10 @@
         <v>40.98978434403799</v>
       </c>
       <c r="C31" t="n">
-        <v>40.4618232581468</v>
+        <v>40.12948079281063</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.288030894380601</v>
+        <v>-2.098824292430054</v>
       </c>
     </row>
     <row r="32">
@@ -5009,10 +5009,10 @@
         <v>17.20957189616361</v>
       </c>
       <c r="C32" t="n">
-        <v>17.05263784581389</v>
+        <v>16.96814788475466</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9118997921424137</v>
+        <v>-1.402847280952823</v>
       </c>
     </row>
     <row r="33">
@@ -5025,10 +5025,10 @@
         <v>28.85883731522917</v>
       </c>
       <c r="C33" t="n">
-        <v>28.63401909510496</v>
+        <v>28.58709816548142</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.7790272964516615</v>
+        <v>-0.9416150303614222</v>
       </c>
     </row>
     <row r="34">
@@ -5041,10 +5041,10 @@
         <v>562317.1813914984</v>
       </c>
       <c r="C34" t="n">
-        <v>555295.8731833161</v>
+        <v>550292.7832550509</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.248638391380387</v>
+        <v>-2.138365771910474</v>
       </c>
     </row>
     <row r="35">
@@ -5057,10 +5057,10 @@
         <v>32889.50558041631</v>
       </c>
       <c r="C35" t="n">
-        <v>31524.10745077744</v>
+        <v>31601.40830982685</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.151470523934787</v>
+        <v>-3.916438535203895</v>
       </c>
     </row>
     <row r="36">
@@ -5073,10 +5073,10 @@
         <v>3536384.555394445</v>
       </c>
       <c r="C36" t="n">
-        <v>3499917.567058673</v>
+        <v>3475621.848907263</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.031194084369168</v>
+        <v>-1.718215469369538</v>
       </c>
     </row>
     <row r="37">
@@ -5089,10 +5089,10 @@
         <v>169840.3628270353</v>
       </c>
       <c r="C37" t="n">
-        <v>168089.4459358283</v>
+        <v>166989.6775365334</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.030919189091801</v>
+        <v>-1.67844983551117</v>
       </c>
     </row>
     <row r="38">
@@ -5105,10 +5105,10 @@
         <v>1185357.660552872</v>
       </c>
       <c r="C38" t="n">
-        <v>1174949.703164498</v>
+        <v>1167546.383351799</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.8780436263869364</v>
+        <v>-1.502607845193769</v>
       </c>
     </row>
     <row r="39">
@@ -5121,10 +5121,10 @@
         <v>159824.3694267376</v>
       </c>
       <c r="C39" t="n">
-        <v>158346.8533406364</v>
+        <v>157389.5916770271</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.9244623278670066</v>
+        <v>-1.523408325303356</v>
       </c>
     </row>
     <row r="40">
@@ -5137,10 +5137,10 @@
         <v>421376.2451161093</v>
       </c>
       <c r="C40" t="n">
-        <v>416237.2976749664</v>
+        <v>414028.9664895679</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.219562683161434</v>
+        <v>-1.743638544341019</v>
       </c>
     </row>
     <row r="41">
@@ -5153,10 +5153,10 @@
         <v>232131.569601793</v>
       </c>
       <c r="C41" t="n">
-        <v>229771.8338889409</v>
+        <v>227283.442871613</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.016550965859621</v>
+        <v>-2.088525373130699</v>
       </c>
     </row>
     <row r="42">
@@ -5169,10 +5169,10 @@
         <v>128836.3952206124</v>
       </c>
       <c r="C42" t="n">
-        <v>127730.543900529</v>
+        <v>126989.4896197033</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.8583376756154623</v>
+        <v>-1.433527845719772</v>
       </c>
     </row>
     <row r="43">
@@ -5185,10 +5185,10 @@
         <v>94652.76397187269</v>
       </c>
       <c r="C43" t="n">
-        <v>93948.45459063778</v>
+        <v>93575.78345562798</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.7440980608281079</v>
+        <v>-1.137822574906254</v>
       </c>
     </row>
     <row r="44">
@@ -5201,10 +5201,10 @@
         <v>43047.18661193399</v>
       </c>
       <c r="C44" t="n">
-        <v>42715.76624113099</v>
+        <v>42498.49288528803</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.769900188346145</v>
+        <v>-1.274633187047449</v>
       </c>
     </row>
     <row r="45">
@@ -5217,10 +5217,10 @@
         <v>127914.3668898133</v>
       </c>
       <c r="C45" t="n">
-        <v>127765.6984809537</v>
+        <v>127666.7845103045</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1162249499211469</v>
+        <v>-0.1935532227760559</v>
       </c>
     </row>
     <row r="46">
@@ -5233,10 +5233,10 @@
         <v>25993.78164756393</v>
       </c>
       <c r="C46" t="n">
-        <v>25784.52941408979</v>
+        <v>25678.81792795316</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.8050088144590828</v>
+        <v>-1.211688718021859</v>
       </c>
     </row>
     <row r="47">
@@ -5249,10 +5249,10 @@
         <v>38145.22126086871</v>
       </c>
       <c r="C47" t="n">
-        <v>37653.89902629889</v>
+        <v>37344.62009064441</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.288030894380592</v>
+        <v>-2.098824292430031</v>
       </c>
     </row>
     <row r="48">
@@ -5265,10 +5265,10 @@
         <v>32035.35572329106</v>
       </c>
       <c r="C48" t="n">
-        <v>31743.22538103828</v>
+        <v>31585.9486065833</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.9118997921424263</v>
+        <v>-1.402847280952844</v>
       </c>
     </row>
     <row r="49">
@@ -5281,10 +5281,10 @@
         <v>53452.78309609117</v>
       </c>
       <c r="C49" t="n">
-        <v>53036.37132505952</v>
+        <v>52949.46365631188</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.7790272964516611</v>
+        <v>-0.9416150303614206</v>
       </c>
     </row>
     <row r="50">
@@ -5297,10 +5297,10 @@
         <v>23680.12450086494</v>
       </c>
       <c r="C50" t="n">
-        <v>23384.44537522047</v>
+        <v>23173.75682379266</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.248638391380361</v>
+        <v>-2.138365771910457</v>
       </c>
     </row>
     <row r="51">
@@ -5313,10 +5313,10 @@
         <v>4258.121092261274</v>
       </c>
       <c r="C51" t="n">
-        <v>4081.346450242597</v>
+        <v>4091.354396928308</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.151470523934788</v>
+        <v>-3.916438535203891</v>
       </c>
     </row>
     <row r="52">
@@ -5329,10 +5329,10 @@
         <v>251159.6278232176</v>
       </c>
       <c r="C52" t="n">
-        <v>248569.684598781</v>
+        <v>246844.1642451481</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.031194084369166</v>
+        <v>-1.718215469369531</v>
       </c>
     </row>
     <row r="53">
@@ -5345,10 +5345,10 @@
         <v>38201.89914724839</v>
       </c>
       <c r="C53" t="n">
-        <v>37808.06843834191</v>
+        <v>37560.69943384926</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.03091918909179</v>
+        <v>-1.678449835511165</v>
       </c>
     </row>
     <row r="54">
@@ -5361,10 +5361,10 @@
         <v>41069.58495758228</v>
       </c>
       <c r="C54" t="n">
-        <v>40708.97608447868</v>
+        <v>40452.47015202115</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.8780436263868892</v>
+        <v>-1.502607845193726</v>
       </c>
     </row>
     <row r="55">
@@ -5377,10 +5377,10 @@
         <v>68364.54647427362</v>
       </c>
       <c r="C55" t="n">
-        <v>67732.54199650184</v>
+        <v>67323.07528172866</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.9244623278669969</v>
+        <v>-1.523408325303356</v>
       </c>
     </row>
     <row r="56">
@@ -5393,10 +5393,10 @@
         <v>29101.75632494179</v>
       </c>
       <c r="C56" t="n">
-        <v>28746.84216465823</v>
+        <v>28594.32688457991</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.219562683161422</v>
+        <v>-1.743638544341015</v>
       </c>
     </row>
     <row r="57">
@@ -5409,10 +5409,10 @@
         <v>14559.03440803147</v>
       </c>
       <c r="C57" t="n">
-        <v>14411.03440313679</v>
+        <v>14254.9652803369</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.016550965859609</v>
+        <v>-2.088525373130707</v>
       </c>
     </row>
     <row r="58">
@@ -5425,10 +5425,10 @@
         <v>23427.48332184359</v>
       </c>
       <c r="C58" t="n">
-        <v>23226.39640604368</v>
+        <v>23091.6438248736</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.858337675615458</v>
+        <v>-1.433527845719775</v>
       </c>
     </row>
     <row r="59">
@@ -5441,10 +5441,10 @@
         <v>46150.93133109502</v>
       </c>
       <c r="C59" t="n">
-        <v>45807.52314600622</v>
+        <v>45625.81561588033</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.7440980608281216</v>
+        <v>-1.137822574906258</v>
       </c>
     </row>
     <row r="60">
@@ -5457,10 +5457,10 @@
         <v>21759.37696278335</v>
       </c>
       <c r="C60" t="n">
-        <v>21591.85147856393</v>
+        <v>21482.02472272095</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.7699001883461389</v>
+        <v>-1.274633187047455</v>
       </c>
     </row>
     <row r="61">
@@ -5473,10 +5473,10 @@
         <v>46542.62425884105</v>
       </c>
       <c r="C61" t="n">
-        <v>46488.53011710423</v>
+        <v>46452.53950962352</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1162249499211415</v>
+        <v>-0.1935532227760419</v>
       </c>
     </row>
     <row r="62">
@@ -5489,10 +5489,10 @@
         <v>7503.299767465179</v>
       </c>
       <c r="C62" t="n">
-        <v>7442.897542961797</v>
+        <v>7412.383130703442</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.8050088144590762</v>
+        <v>-1.211688718021864</v>
       </c>
     </row>
     <row r="63">
@@ -5505,10 +5505,10 @@
         <v>7286.174502210705</v>
       </c>
       <c r="C63" t="n">
-        <v>7192.326323603751</v>
+        <v>7133.250501769464</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.288030894380578</v>
+        <v>-2.098824292430033</v>
       </c>
     </row>
     <row r="64">
@@ -5521,10 +5521,10 @@
         <v>7097.341416109978</v>
       </c>
       <c r="C64" t="n">
-        <v>7032.620774488832</v>
+        <v>6997.776555034139</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.9118997921424324</v>
+        <v>-1.402847280952845</v>
       </c>
     </row>
     <row r="65">
@@ -5537,10 +5537,10 @@
         <v>7416.897539297385</v>
       </c>
       <c r="C65" t="n">
-        <v>7359.117882916407</v>
+        <v>7347.058917280855</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.7790272964516576</v>
+        <v>-0.9416150303614172</v>
       </c>
     </row>
     <row r="66">
@@ -5553,10 +5553,10 @@
         <v>224.7272828615001</v>
       </c>
       <c r="C66" t="n">
-        <v>221.9212517317854</v>
+        <v>219.9217915646453</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.248638391380398</v>
+        <v>-2.138365771910494</v>
       </c>
     </row>
     <row r="67">
@@ -5569,10 +5569,10 @@
         <v>173.8153879829501</v>
       </c>
       <c r="C67" t="n">
-        <v>166.599493384775</v>
+        <v>167.0080151478717</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.151470523934799</v>
+        <v>-3.916438535203891</v>
       </c>
     </row>
     <row r="68">
@@ -5585,10 +5585,10 @@
         <v>4996.512834695077</v>
       </c>
       <c r="C68" t="n">
-        <v>4944.989089918955</v>
+        <v>4910.661978240312</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.031194084369169</v>
+        <v>-1.718215469369527</v>
       </c>
     </row>
     <row r="69">
@@ -5601,10 +5601,10 @@
         <v>276.6235712497684</v>
       </c>
       <c r="C69" t="n">
-        <v>273.7718057722035</v>
+        <v>271.9805833731415</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.030919189091813</v>
+        <v>-1.678449835511175</v>
       </c>
     </row>
     <row r="70">
@@ -5617,10 +5617,10 @@
         <v>1232.245435416442</v>
       </c>
       <c r="C70" t="n">
-        <v>1221.425782909324</v>
+        <v>1213.729618831832</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.8780436263869168</v>
+        <v>-1.502607845193774</v>
       </c>
     </row>
     <row r="71">
@@ -5633,10 +5633,10 @@
         <v>5856.068227410703</v>
       </c>
       <c r="C71" t="n">
-        <v>5801.931082754103</v>
+        <v>5766.856396498884</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9244623278669865</v>
+        <v>-1.523408325303345</v>
       </c>
     </row>
     <row r="72">
@@ -5649,10 +5649,10 @@
         <v>2040.773234874782</v>
       </c>
       <c r="C72" t="n">
-        <v>2015.884726054303</v>
+        <v>2005.189526148911</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.219562683161411</v>
+        <v>-1.743638544341004</v>
       </c>
     </row>
     <row r="73">
@@ -5665,10 +5665,10 @@
         <v>1134.678551830647</v>
       </c>
       <c r="C73" t="n">
-        <v>1123.143966052611</v>
+        <v>1110.980502372192</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.016550965859585</v>
+        <v>-2.088525373130675</v>
       </c>
     </row>
     <row r="74">
@@ -5681,10 +5681,10 @@
         <v>4263.535655062377</v>
       </c>
       <c r="C74" t="n">
-        <v>4226.940122221678</v>
+        <v>4202.416684234867</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.8583376756154645</v>
+        <v>-1.433527845719784</v>
       </c>
     </row>
     <row r="75">
@@ -5697,10 +5697,10 @@
         <v>2782.808024353337</v>
       </c>
       <c r="C75" t="n">
-        <v>2762.101203807554</v>
+        <v>2751.144606435942</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.7440980608281418</v>
+        <v>-1.137822574906263</v>
       </c>
     </row>
     <row r="76">
@@ -5713,10 +5713,10 @@
         <v>316.9983391350282</v>
       </c>
       <c r="C76" t="n">
-        <v>314.5577683249734</v>
+        <v>312.9577731020239</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.7699001883461462</v>
+        <v>-1.274633187047442</v>
       </c>
     </row>
     <row r="77">
@@ -5729,10 +5729,10 @@
         <v>14455.75492983291</v>
       </c>
       <c r="C77" t="n">
-        <v>14438.95373590499</v>
+        <v>14427.77535028961</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1162249499211356</v>
+        <v>-0.193553222776043</v>
       </c>
     </row>
     <row r="78">
@@ -5745,10 +5745,10 @@
         <v>206.9246343398124</v>
       </c>
       <c r="C78" t="n">
-        <v>205.2588727940897</v>
+        <v>204.4173518907089</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.8050088144590831</v>
+        <v>-1.211688718021856</v>
       </c>
     </row>
     <row r="79">
@@ -5761,10 +5761,10 @@
         <v>130.9767888995716</v>
       </c>
       <c r="C79" t="n">
-        <v>129.2897673940774</v>
+        <v>128.2278162367026</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.288030894380612</v>
+        <v>-2.098824292430063</v>
       </c>
     </row>
     <row r="80">
@@ -5777,10 +5777,10 @@
         <v>912.0891916591041</v>
       </c>
       <c r="C80" t="n">
-        <v>903.7718522162112</v>
+        <v>899.2939732340498</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.9118997921424304</v>
+        <v>-1.402847280952828</v>
       </c>
     </row>
     <row r="81">
@@ -5793,10 +5793,10 @@
         <v>338.63275475275</v>
       </c>
       <c r="C81" t="n">
-        <v>335.9947131584998</v>
+        <v>335.4441378362711</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.7790272964516592</v>
+        <v>-0.9416150303614289</v>
       </c>
     </row>
     <row r="82">
@@ -5809,10 +5809,10 @@
         <v>36797.3558384009</v>
       </c>
       <c r="C82" t="n">
-        <v>36337.88992638978</v>
+        <v>36010.49377618443</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.248638391380383</v>
+        <v>-2.138365771910479</v>
       </c>
     </row>
     <row r="83">
@@ -5825,10 +5825,10 @@
         <v>5431.789807406018</v>
       </c>
       <c r="C83" t="n">
-        <v>5206.290654629463</v>
+        <v>5219.057098237492</v>
       </c>
       <c r="D83" t="n">
-        <v>-4.151470523934773</v>
+        <v>-3.916438535203875</v>
       </c>
     </row>
     <row r="84">
@@ -5841,10 +5841,10 @@
         <v>1083840.331624043</v>
       </c>
       <c r="C84" t="n">
-        <v>1072663.834240329</v>
+        <v>1065217.619382813</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.031194084369179</v>
+        <v>-1.718215469369528</v>
       </c>
     </row>
     <row r="85">
@@ -5857,10 +5857,10 @@
         <v>36567.36673926556</v>
       </c>
       <c r="C85" t="n">
-        <v>36190.3867386049</v>
+        <v>35953.6018323796</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.030919189091797</v>
+        <v>-1.678449835511148</v>
       </c>
     </row>
     <row r="86">
@@ -5873,10 +5873,10 @@
         <v>176115.7238993268</v>
       </c>
       <c r="C86" t="n">
-        <v>174569.3510105636</v>
+        <v>173469.3952153957</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.8780436263869239</v>
+        <v>-1.502607845193773</v>
       </c>
     </row>
     <row r="87">
@@ -5889,10 +5889,10 @@
         <v>629355.3653459012</v>
       </c>
       <c r="C87" t="n">
-        <v>623537.2120848687</v>
+        <v>619767.7133144784</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.9244623278669931</v>
+        <v>-1.523408325303358</v>
       </c>
     </row>
     <row r="88">
@@ -5905,10 +5905,10 @@
         <v>50782.20817613851</v>
       </c>
       <c r="C88" t="n">
-        <v>50162.88731553697</v>
+        <v>49896.75002071186</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.219562683161433</v>
+        <v>-1.74363854434102</v>
       </c>
     </row>
     <row r="89">
@@ -5921,10 +5921,10 @@
         <v>180339.3673151789</v>
       </c>
       <c r="C89" t="n">
-        <v>178506.1257349113</v>
+        <v>176572.9338710579</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.016550965859654</v>
+        <v>-2.088525373130753</v>
       </c>
     </row>
     <row r="90">
@@ -5937,10 +5937,10 @@
         <v>40468.48989345161</v>
       </c>
       <c r="C90" t="n">
-        <v>40121.13359794348</v>
+        <v>39888.36282208668</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.8583376756154574</v>
+        <v>-1.433527845719791</v>
       </c>
     </row>
     <row r="91">
@@ -5953,10 +5953,10 @@
         <v>79355.15029333404</v>
       </c>
       <c r="C91" t="n">
-        <v>78764.67015883411</v>
+        <v>78452.22947894569</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.7440980608281073</v>
+        <v>-1.137822574906258</v>
       </c>
     </row>
     <row r="92">
@@ -5969,10 +5969,10 @@
         <v>45911.62510533771</v>
       </c>
       <c r="C92" t="n">
-        <v>45558.15141717894</v>
+        <v>45326.42029503227</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.7699001883461518</v>
+        <v>-1.274633187047444</v>
       </c>
     </row>
     <row r="93">
@@ -5985,10 +5985,10 @@
         <v>104995.5931434584</v>
       </c>
       <c r="C93" t="n">
-        <v>104873.5620679081</v>
+        <v>104792.3707891565</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1162249499210987</v>
+        <v>-0.193553222775995</v>
       </c>
     </row>
     <row r="94">
@@ -6001,10 +6001,10 @@
         <v>43593.4829173751</v>
       </c>
       <c r="C94" t="n">
-        <v>43242.55153736052</v>
+        <v>43065.26560307248</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.80500881445908</v>
+        <v>-1.211688718021865</v>
       </c>
     </row>
     <row r="95">
@@ -6017,10 +6017,10 @@
         <v>24589.96981740024</v>
       </c>
       <c r="C95" t="n">
-        <v>24273.24340923327</v>
+        <v>24073.86955737144</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.288030894380578</v>
+        <v>-2.098824292430014</v>
       </c>
     </row>
     <row r="96">
@@ -6033,10 +6033,10 @@
         <v>22665.76219802206</v>
       </c>
       <c r="C96" t="n">
-        <v>22459.07315965079</v>
+        <v>22347.79616931987</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.9118997921424584</v>
+        <v>-1.402847280952847</v>
       </c>
     </row>
     <row r="97">
@@ -6049,10 +6049,10 @@
         <v>40428.24116361269</v>
       </c>
       <c r="C97" t="n">
-        <v>40113.29412947284</v>
+        <v>40047.56276830535</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.7790272964516579</v>
+        <v>-0.9416150303614184</v>
       </c>
     </row>
     <row r="98">
@@ -6065,10 +6065,10 @@
         <v>17531.40922853843</v>
       </c>
       <c r="C98" t="n">
-        <v>17312.5053223609</v>
+        <v>17156.52357426181</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.248638391380375</v>
+        <v>-2.138365771910489</v>
       </c>
     </row>
     <row r="99">
@@ -6081,10 +6081,10 @@
         <v>3349.304543958308</v>
       </c>
       <c r="C99" t="n">
-        <v>3210.259153059071</v>
+        <v>3218.13109013739</v>
       </c>
       <c r="D99" t="n">
-        <v>-4.151470523934775</v>
+        <v>-3.916438535203887</v>
       </c>
     </row>
     <row r="100">
@@ -6097,10 +6097,10 @@
         <v>195974.6734952563</v>
       </c>
       <c r="C100" t="n">
-        <v>193953.7942553114</v>
+        <v>192607.4063392143</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.031194084369189</v>
+        <v>-1.718215469369561</v>
       </c>
     </row>
     <row r="101">
@@ -6113,10 +6113,10 @@
         <v>2724.247464785552</v>
       </c>
       <c r="C101" t="n">
-        <v>2696.16267491273</v>
+        <v>2678.522337693942</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.030919189091817</v>
+        <v>-1.678449835511172</v>
       </c>
     </row>
     <row r="102">
@@ -6129,10 +6129,10 @@
         <v>18679.52557679249</v>
       </c>
       <c r="C102" t="n">
-        <v>18515.51119302616</v>
+        <v>18398.84556003064</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.8780436263868656</v>
+        <v>-1.502607845193709</v>
       </c>
     </row>
     <row r="103">
@@ -6145,10 +6145,10 @@
         <v>118620.5156491477</v>
       </c>
       <c r="C103" t="n">
-        <v>117523.9136688498</v>
+        <v>116813.4408382308</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.9244623278669571</v>
+        <v>-1.523408325303325</v>
       </c>
     </row>
     <row r="104">
@@ -6161,10 +6161,10 @@
         <v>273817.9512093465</v>
       </c>
       <c r="C104" t="n">
-        <v>270478.5696566001</v>
+        <v>269043.5558707354</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.219562683161424</v>
+        <v>-1.743638544341014</v>
       </c>
     </row>
     <row r="105">
@@ -6177,10 +6177,10 @@
         <v>9177.580968609169</v>
       </c>
       <c r="C105" t="n">
-        <v>9084.286180630224</v>
+        <v>8985.904861440151</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.016550965859612</v>
+        <v>-2.088525373130714</v>
       </c>
     </row>
     <row r="106">
@@ -6193,10 +6193,10 @@
         <v>33246.43879831057</v>
       </c>
       <c r="C106" t="n">
-        <v>32961.07208830424</v>
+        <v>32769.8418404266</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.8583376756154502</v>
+        <v>-1.433527845719797</v>
       </c>
     </row>
     <row r="107">
@@ -6209,10 +6209,10 @@
         <v>5642.141361711995</v>
       </c>
       <c r="C107" t="n">
-        <v>5600.158297250315</v>
+        <v>5577.943803590312</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.7440980608281236</v>
+        <v>-1.137822574906267</v>
       </c>
     </row>
     <row r="108">
@@ -6225,10 +6225,10 @@
         <v>14363.30388731421</v>
       </c>
       <c r="C108" t="n">
-        <v>14252.72078363305</v>
+        <v>14180.22444921003</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.7699001883461589</v>
+        <v>-1.274633187047449</v>
       </c>
     </row>
     <row r="109">
@@ -6241,10 +6241,10 @@
         <v>25390.47786541112</v>
       </c>
       <c r="C109" t="n">
-        <v>25360.96779522731</v>
+        <v>25341.33377722438</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1162249499211566</v>
+        <v>-0.193553222776061</v>
       </c>
     </row>
     <row r="110">
@@ -6257,10 +6257,10 @@
         <v>22661.60505308602</v>
       </c>
       <c r="C110" t="n">
-        <v>22479.17713491077</v>
+        <v>22387.0169413351</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.8050088144590942</v>
+        <v>-1.211688718021881</v>
       </c>
     </row>
     <row r="111">
@@ -6273,10 +6273,10 @@
         <v>4451.960926071457</v>
       </c>
       <c r="C111" t="n">
-        <v>4394.618293937905</v>
+        <v>4358.522088665576</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.288030894380574</v>
+        <v>-2.098824292430033</v>
       </c>
     </row>
     <row r="112">
@@ -6289,10 +6289,10 @@
         <v>1068.949165803444</v>
       </c>
       <c r="C112" t="n">
-        <v>1059.201420582375</v>
+        <v>1053.953441496203</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9118997921423891</v>
+        <v>-1.402847280952782</v>
       </c>
     </row>
     <row r="113">
@@ -6305,10 +6305,10 @@
         <v>887.9321545985744</v>
       </c>
       <c r="C113" t="n">
-        <v>881.01492074028</v>
+        <v>879.5712519714621</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.7790272964516733</v>
+        <v>-0.9416150303614333</v>
       </c>
     </row>
     <row r="114">
@@ -6321,10 +6321,10 @@
         <v>190.5485593842953</v>
       </c>
       <c r="C114" t="n">
-        <v>188.1692969176008</v>
+        <v>186.473934211553</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.248638391380359</v>
+        <v>-2.138365771910466</v>
       </c>
     </row>
     <row r="115">
@@ -6337,10 +6337,10 @@
         <v>31.68824515194521</v>
       </c>
       <c r="C115" t="n">
-        <v>30.37271699491001</v>
+        <v>30.44719450768455</v>
       </c>
       <c r="D115" t="n">
-        <v>-4.151470523934798</v>
+        <v>-3.9164385352039</v>
       </c>
     </row>
     <row r="116">
@@ -6353,10 +6353,10 @@
         <v>4123.192252520734</v>
       </c>
       <c r="C116" t="n">
-        <v>4080.674137925573</v>
+        <v>4052.346925406076</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.031194084369153</v>
+        <v>-1.718215469369531</v>
       </c>
     </row>
     <row r="117">
@@ -6369,10 +6369,10 @@
         <v>170.525831571405</v>
       </c>
       <c r="C117" t="n">
-        <v>168.767848051377</v>
+        <v>167.6636410318907</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.030919189091833</v>
+        <v>-1.67844983551117</v>
       </c>
     </row>
     <row r="118">
@@ -6385,10 +6385,10 @@
         <v>657.5077035740391</v>
       </c>
       <c r="C118" t="n">
-        <v>651.7344990898044</v>
+        <v>647.6279412373824</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.8780436263868833</v>
+        <v>-1.502607845193731</v>
       </c>
     </row>
     <row r="119">
@@ -6401,10 +6401,10 @@
         <v>2161.22177472801</v>
       </c>
       <c r="C119" t="n">
-        <v>2141.242093598991</v>
+        <v>2128.297542283535</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.9244623278669929</v>
+        <v>-1.523408325303352</v>
       </c>
     </row>
     <row r="120">
@@ -6417,10 +6417,10 @@
         <v>1554.140067831092</v>
       </c>
       <c r="C120" t="n">
-        <v>1535.186355519765</v>
+        <v>1527.041482575342</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.219562683161403</v>
+        <v>-1.743638544340988</v>
       </c>
     </row>
     <row r="121">
@@ -6433,10 +6433,10 @@
         <v>129651.1464599214</v>
       </c>
       <c r="C121" t="n">
-        <v>128333.176478335</v>
+        <v>126943.3493695511</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.016550965859597</v>
+        <v>-2.088525373130705</v>
       </c>
     </row>
     <row r="122">
@@ -6449,10 +6449,10 @@
         <v>863.7331225685518</v>
       </c>
       <c r="C122" t="n">
-        <v>856.319375760776</v>
+        <v>851.3512677438266</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.8583376756154729</v>
+        <v>-1.433527845719789</v>
       </c>
     </row>
     <row r="123">
@@ -6465,10 +6465,10 @@
         <v>3906.237028514126</v>
       </c>
       <c r="C123" t="n">
-        <v>3877.170794533602</v>
+        <v>3861.790981774344</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.7440980608281299</v>
+        <v>-1.137822574906271</v>
       </c>
     </row>
     <row r="124">
@@ -6481,10 +6481,10 @@
         <v>233.7506847980509</v>
       </c>
       <c r="C124" t="n">
-        <v>231.9510378355303</v>
+        <v>230.7712209946643</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.769900188346157</v>
+        <v>-1.27463318704745</v>
       </c>
     </row>
     <row r="125">
@@ -6497,10 +6497,10 @@
         <v>2384.908631432158</v>
       </c>
       <c r="C125" t="n">
-        <v>2382.136772569611</v>
+        <v>2380.292563915757</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1162249499211266</v>
+        <v>-0.1935532227760453</v>
       </c>
     </row>
     <row r="126">
@@ -6513,10 +6513,10 @@
         <v>14131.62372138642</v>
       </c>
       <c r="C126" t="n">
-        <v>14017.86290480307</v>
+        <v>13960.39243108108</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.8050088144590725</v>
+        <v>-1.211688718021864</v>
       </c>
     </row>
     <row r="127">
@@ -6529,10 +6529,10 @@
         <v>141.2260852838927</v>
       </c>
       <c r="C127" t="n">
-        <v>139.4070496745119</v>
+        <v>138.2619978987064</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.288030894380591</v>
+        <v>-2.098824292430038</v>
       </c>
     </row>
     <row r="128">
@@ -6545,10 +6545,10 @@
         <v>454.224649948026</v>
       </c>
       <c r="C128" t="n">
-        <v>450.0825763092903</v>
+        <v>447.8525717968126</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.9118997921424288</v>
+        <v>-1.402847280952838</v>
       </c>
     </row>
     <row r="129">
@@ -6561,10 +6561,10 @@
         <v>2015.03857679833</v>
       </c>
       <c r="C129" t="n">
-        <v>1999.34087625104</v>
+        <v>1996.064670691616</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.7790272964516679</v>
+        <v>-0.9416150303614308</v>
       </c>
     </row>
     <row r="130">
@@ -6577,10 +6577,10 @@
         <v>10089.9896440092</v>
       </c>
       <c r="C130" t="n">
-        <v>9964.002159627802</v>
+        <v>9874.228759072399</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.248638391380324</v>
+        <v>-2.138365771910439</v>
       </c>
     </row>
     <row r="131">
@@ -6593,10 +6593,10 @@
         <v>1033.763083661777</v>
       </c>
       <c r="C131" t="n">
-        <v>990.846713956239</v>
+        <v>993.2763878905351</v>
       </c>
       <c r="D131" t="n">
-        <v>-4.151470523934793</v>
+        <v>-3.916438535203893</v>
       </c>
     </row>
     <row r="132">
@@ -6609,10 +6609,10 @@
         <v>87400.57085120806</v>
       </c>
       <c r="C132" t="n">
-        <v>86499.30133488552</v>
+        <v>85898.84072252532</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.031194084369171</v>
+        <v>-1.71821546936954</v>
       </c>
     </row>
     <row r="133">
@@ -6625,10 +6625,10 @@
         <v>6409.948712335483</v>
       </c>
       <c r="C133" t="n">
-        <v>6343.867321049074</v>
+        <v>6302.360938716939</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.030919189091791</v>
+        <v>-1.678449835511149</v>
       </c>
     </row>
     <row r="134">
@@ -6641,10 +6641,10 @@
         <v>16821.84852122067</v>
       </c>
       <c r="C134" t="n">
-        <v>16674.14535243963</v>
+        <v>16569.0821056342</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.8780436263869036</v>
+        <v>-1.502607845193744</v>
       </c>
     </row>
     <row r="135">
@@ -6657,10 +6657,10 @@
         <v>33324.55059423266</v>
       </c>
       <c r="C135" t="n">
-        <v>33016.477678058</v>
+        <v>32816.88161611019</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.9244623278670135</v>
+        <v>-1.523408325303359</v>
       </c>
     </row>
     <row r="136">
@@ -6673,10 +6673,10 @@
         <v>16030.92241827518</v>
       </c>
       <c r="C136" t="n">
-        <v>15835.41527069533</v>
+        <v>15751.40107597673</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.219562683161447</v>
+        <v>-1.743638544341037</v>
       </c>
     </row>
     <row r="137">
@@ -6689,10 +6689,10 @@
         <v>8767.879875138795</v>
       </c>
       <c r="C137" t="n">
-        <v>8678.74990758266</v>
+        <v>8584.7604792609</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.016550965859623</v>
+        <v>-2.08852537313071</v>
       </c>
     </row>
     <row r="138">
@@ -6705,10 +6705,10 @@
         <v>52028.20605016277</v>
       </c>
       <c r="C138" t="n">
-        <v>51581.62835568738</v>
+        <v>51282.36722880523</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.8583376756154733</v>
+        <v>-1.433527845719778</v>
       </c>
     </row>
     <row r="139">
@@ -6721,10 +6721,10 @@
         <v>35141.4421327932</v>
       </c>
       <c r="C139" t="n">
-        <v>34879.95534333606</v>
+        <v>34741.59487105866</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.744098060828101</v>
+        <v>-1.137822574906256</v>
       </c>
     </row>
     <row r="140">
@@ -6737,10 +6737,10 @@
         <v>22237.90806269026</v>
       </c>
       <c r="C140" t="n">
-        <v>22066.69836663136</v>
+        <v>21954.45630641811</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.7699001883461543</v>
+        <v>-1.274633187047456</v>
       </c>
     </row>
     <row r="141">
@@ -6753,10 +6753,10 @@
         <v>23949.54476326111</v>
       </c>
       <c r="C141" t="n">
-        <v>23921.70941685367</v>
+        <v>23903.18964753162</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1162249499211455</v>
+        <v>-0.1935532227760558</v>
       </c>
     </row>
     <row r="142">
@@ -6769,10 +6769,10 @@
         <v>37082.79537782534</v>
       </c>
       <c r="C142" t="n">
-        <v>36784.27560638602</v>
+        <v>36633.4673299051</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.805008814459089</v>
+        <v>-1.211688718021867</v>
       </c>
     </row>
     <row r="143">
@@ -6785,10 +6785,10 @@
         <v>4070.394710307927</v>
       </c>
       <c r="C143" t="n">
-        <v>4017.966768915928</v>
+        <v>3984.964277330197</v>
       </c>
       <c r="D143" t="n">
-        <v>-1.28803089438059</v>
+        <v>-2.098824292430039</v>
       </c>
     </row>
     <row r="144">
@@ -6801,10 +6801,10 @@
         <v>4276.69932878695</v>
       </c>
       <c r="C144" t="n">
-        <v>4237.700116497184</v>
+        <v>4216.703768538533</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.9118997921424473</v>
+        <v>-1.40284728095286</v>
       </c>
     </row>
     <row r="145">
@@ -6817,10 +6817,10 @@
         <v>4302.918261308165</v>
       </c>
       <c r="C145" t="n">
-        <v>4269.397353508572</v>
+        <v>4262.40133621552</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.7790272964516481</v>
+        <v>-0.9416150303614365</v>
       </c>
     </row>
     <row r="146">
@@ -6833,10 +6833,10 @@
         <v>29965.6972786291</v>
       </c>
       <c r="C146" t="n">
-        <v>29591.53407816332</v>
+        <v>29324.92106470859</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.248638391380364</v>
+        <v>-2.138365771910469</v>
       </c>
     </row>
     <row r="147">
@@ -6849,10 +6849,10 @@
         <v>3375.075360705922</v>
       </c>
       <c r="C147" t="n">
-        <v>3234.96010194563</v>
+        <v>3242.892608687064</v>
       </c>
       <c r="D147" t="n">
-        <v>-4.151470523934783</v>
+        <v>-3.91643853520388</v>
       </c>
     </row>
     <row r="148">
@@ -6865,10 +6865,10 @@
         <v>280657.780433469</v>
       </c>
       <c r="C148" t="n">
-        <v>277763.6540043172</v>
+        <v>275835.4750340719</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.031194084369169</v>
+        <v>-1.718215469369532</v>
       </c>
     </row>
     <row r="149">
@@ -6881,10 +6881,10 @@
         <v>31702.75958278121</v>
       </c>
       <c r="C149" t="n">
-        <v>31375.92975077068</v>
+        <v>31170.64466671152</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.030919189091801</v>
+        <v>-1.678449835511165</v>
       </c>
     </row>
     <row r="150">
@@ -6897,10 +6897,10 @@
         <v>87687.13267621709</v>
       </c>
       <c r="C150" t="n">
-        <v>86917.20139659215</v>
+        <v>86369.53894139882</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.8780436263868936</v>
+        <v>-1.502607845193736</v>
       </c>
     </row>
     <row r="151">
@@ -6913,10 +6913,10 @@
         <v>108470.3227140286</v>
       </c>
       <c r="C151" t="n">
-        <v>107467.5554436217</v>
+        <v>106817.8767873197</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.924462327866986</v>
+        <v>-1.523408325303367</v>
       </c>
     </row>
     <row r="152">
@@ -6929,10 +6929,10 @@
         <v>54041.78996625963</v>
       </c>
       <c r="C152" t="n">
-        <v>53382.71646251866</v>
+        <v>53099.49648635612</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.219562683161421</v>
+        <v>-1.743638544341007</v>
       </c>
     </row>
     <row r="153">
@@ -6945,10 +6945,10 @@
         <v>10616.88118288948</v>
       </c>
       <c r="C153" t="n">
-        <v>10508.95517468065</v>
+        <v>10395.14492554969</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.01655096585962</v>
+        <v>-2.088525373130703</v>
       </c>
     </row>
     <row r="154">
@@ -6961,10 +6961,10 @@
         <v>39079.32421015717</v>
       </c>
       <c r="C154" t="n">
-        <v>38743.89164708547</v>
+        <v>38519.11121568545</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.8583376756154584</v>
+        <v>-1.433527845719784</v>
       </c>
     </row>
     <row r="155">
@@ -6977,10 +6977,10 @@
         <v>544109.0187771801</v>
       </c>
       <c r="C155" t="n">
-        <v>540060.3141196681</v>
+        <v>537918.0235294325</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.7440980608281402</v>
+        <v>-1.137822574906248</v>
       </c>
     </row>
     <row r="156">
@@ -6993,10 +6993,10 @@
         <v>63852.75474085637</v>
       </c>
       <c r="C156" t="n">
-        <v>63361.15226184232</v>
+        <v>63038.86633808541</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.7699001883461383</v>
+        <v>-1.274633187047443</v>
       </c>
     </row>
     <row r="157">
@@ -7009,10 +7009,10 @@
         <v>74920.82107145021</v>
       </c>
       <c r="C157" t="n">
-        <v>74833.7443846794</v>
+        <v>74775.80940773615</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1162249499211411</v>
+        <v>-0.1935532227760368</v>
       </c>
     </row>
     <row r="158">
@@ -7025,10 +7025,10 @@
         <v>117868.7463496854</v>
       </c>
       <c r="C158" t="n">
-        <v>116919.892552078</v>
+        <v>116440.5440480925</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.8050088144590827</v>
+        <v>-1.211688718021863</v>
       </c>
     </row>
     <row r="159">
@@ -7041,10 +7041,10 @@
         <v>14279.81208682949</v>
       </c>
       <c r="C159" t="n">
-        <v>14095.88369549163</v>
+        <v>13980.10392183775</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.28803089438061</v>
+        <v>-2.098824292430064</v>
       </c>
     </row>
     <row r="160">
@@ -7057,10 +7057,10 @@
         <v>15635.81331660888</v>
       </c>
       <c r="C160" t="n">
-        <v>15493.23036747494</v>
+        <v>15416.46673464197</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.9118997921424579</v>
+        <v>-1.402847280952859</v>
       </c>
     </row>
     <row r="161">
@@ -7073,10 +7073,10 @@
         <v>10995.11004725444</v>
       </c>
       <c r="C161" t="n">
-        <v>10909.45513871143</v>
+        <v>10891.57843844471</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.779027296451672</v>
+        <v>-0.94161503036145</v>
       </c>
     </row>
     <row r="162">
@@ -7089,10 +7089,10 @@
         <v>9387.562623335931</v>
       </c>
       <c r="C162" t="n">
-        <v>9270.345912406085</v>
+        <v>9186.822197381856</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.248638391380365</v>
+        <v>-2.138365771910452</v>
       </c>
     </row>
     <row r="163">
@@ -7105,10 +7105,10 @@
         <v>4251.761191120128</v>
       </c>
       <c r="C163" t="n">
-        <v>4075.250578522678</v>
+        <v>4085.243577406256</v>
       </c>
       <c r="D163" t="n">
-        <v>-4.151470523934787</v>
+        <v>-3.916438535203895</v>
       </c>
     </row>
     <row r="164">
@@ -7121,10 +7121,10 @@
         <v>131850.0203817157</v>
       </c>
       <c r="C164" t="n">
-        <v>130490.3907712999</v>
+        <v>129584.5529351502</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.031194084369169</v>
+        <v>-1.718215469369526</v>
       </c>
     </row>
     <row r="165">
@@ -7137,10 +7137,10 @@
         <v>7026.402470984634</v>
       </c>
       <c r="C165" t="n">
-        <v>6953.965939608433</v>
+        <v>6908.46783026804</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.030919189091799</v>
+        <v>-1.678449835511165</v>
       </c>
     </row>
     <row r="166">
@@ -7153,10 +7153,10 @@
         <v>2414.365692738618</v>
       </c>
       <c r="C166" t="n">
-        <v>2393.166508655856</v>
+        <v>2378.087244427862</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.8780436263868544</v>
+        <v>-1.502607845193701</v>
       </c>
     </row>
     <row r="167">
@@ -7169,10 +7169,10 @@
         <v>212606.6136742881</v>
       </c>
       <c r="C167" t="n">
-        <v>210641.1456243156</v>
+        <v>209367.7468214284</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.9244623278669857</v>
+        <v>-1.523408325303369</v>
       </c>
     </row>
     <row r="168">
@@ -7185,10 +7185,10 @@
         <v>36242.20451189306</v>
       </c>
       <c r="C168" t="n">
-        <v>35800.20811011097</v>
+        <v>35610.2714647048</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.219562683161432</v>
+        <v>-1.74363854434101</v>
       </c>
     </row>
     <row r="169">
@@ -7201,10 +7201,10 @@
         <v>23664.4564037997</v>
       </c>
       <c r="C169" t="n">
-        <v>23423.89514366145</v>
+        <v>23170.21822739289</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.016550965859612</v>
+        <v>-2.088525373130711</v>
       </c>
     </row>
     <row r="170">
@@ -7217,10 +7217,10 @@
         <v>82034.16324574809</v>
       </c>
       <c r="C170" t="n">
-        <v>81330.03311573394</v>
+        <v>80858.18067261708</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.858337675615464</v>
+        <v>-1.43352784571977</v>
       </c>
     </row>
     <row r="171">
@@ -7233,10 +7233,10 @@
         <v>148991.1948680506</v>
       </c>
       <c r="C171" t="n">
-        <v>147882.5542762328</v>
+        <v>147295.9394182194</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.7440980608281077</v>
+        <v>-1.137822574906257</v>
       </c>
     </row>
     <row r="172">
@@ -7249,10 +7249,10 @@
         <v>63319.5053283951</v>
       </c>
       <c r="C172" t="n">
-        <v>62832.00833761194</v>
+        <v>62512.4138996051</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.7699001883461462</v>
+        <v>-1.274633187047449</v>
       </c>
     </row>
     <row r="173">
@@ -7265,10 +7265,10 @@
         <v>109936.0050247709</v>
       </c>
       <c r="C173" t="n">
-        <v>109808.2319579856</v>
+        <v>109723.2203440543</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1162249499211178</v>
+        <v>-0.1935532227760185</v>
       </c>
     </row>
     <row r="174">
@@ -7281,10 +7281,10 @@
         <v>9056.529986120127</v>
       </c>
       <c r="C174" t="n">
-        <v>8983.624121447732</v>
+        <v>8946.793034034044</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.805008814459063</v>
+        <v>-1.211688718021845</v>
       </c>
     </row>
     <row r="175">
@@ -7297,10 +7297,10 @@
         <v>20009.95200306803</v>
       </c>
       <c r="C175" t="n">
-        <v>19752.21763931779</v>
+        <v>19589.97826952405</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.288030894380561</v>
+        <v>-2.098824292430017</v>
       </c>
     </row>
     <row r="176">
@@ -7313,10 +7313,10 @@
         <v>16409.31651151967</v>
       </c>
       <c r="C176" t="n">
-        <v>16259.67998835912</v>
+        <v>16179.11886101487</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.9118997921424636</v>
+        <v>-1.402847280952871</v>
       </c>
     </row>
     <row r="177">
@@ -7329,10 +7329,10 @@
         <v>16860.76859074634</v>
       </c>
       <c r="C177" t="n">
-        <v>16729.41860103288</v>
+        <v>16702.00505946141</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.779027296451653</v>
+        <v>-0.9416150303614109</v>
       </c>
     </row>
     <row r="178">
@@ -7345,10 +7345,10 @@
         <v>7671.725655247233</v>
       </c>
       <c r="C178" t="n">
-        <v>7575.933543434438</v>
+        <v>7507.676099720551</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.248638391380382</v>
+        <v>-2.138365771910477</v>
       </c>
     </row>
     <row r="179">
@@ -7361,10 +7361,10 @@
         <v>1198.499581918997</v>
       </c>
       <c r="C179" t="n">
-        <v>1148.744225046148</v>
+        <v>1151.561082448464</v>
       </c>
       <c r="D179" t="n">
-        <v>-4.151470523934766</v>
+        <v>-3.91643853520385</v>
       </c>
     </row>
     <row r="180">
@@ -7377,10 +7377,10 @@
         <v>93942.00139192962</v>
       </c>
       <c r="C180" t="n">
-        <v>92973.27703083804</v>
+        <v>92327.87539177814</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.031194084369164</v>
+        <v>-1.718215469369531</v>
       </c>
     </row>
     <row r="181">
@@ -7393,10 +7393,10 @@
         <v>13290.59523430951</v>
       </c>
       <c r="C181" t="n">
-        <v>13153.5799376945</v>
+        <v>13067.51926046079</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.030919189091781</v>
+        <v>-1.678449835511141</v>
       </c>
     </row>
     <row r="182">
@@ -7409,10 +7409,10 @@
         <v>54723.08811872249</v>
       </c>
       <c r="C182" t="n">
-        <v>54242.59553133396</v>
+        <v>53900.81470351828</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.8780436263868996</v>
+        <v>-1.502607845193732</v>
       </c>
     </row>
     <row r="183">
@@ -7425,10 +7425,10 @@
         <v>41335.30632651814</v>
       </c>
       <c r="C183" t="n">
-        <v>40953.17699142106</v>
+        <v>40705.60082865032</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.9244623278669902</v>
+        <v>-1.523408325303352</v>
       </c>
     </row>
     <row r="184">
@@ -7441,10 +7441,10 @@
         <v>131563.2974169935</v>
       </c>
       <c r="C184" t="n">
-        <v>129958.8005369592</v>
+        <v>129269.3090530248</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.219562683161416</v>
+        <v>-1.743638544340991</v>
       </c>
     </row>
     <row r="185">
@@ -7457,10 +7457,10 @@
         <v>41427.66918069134</v>
       </c>
       <c r="C185" t="n">
-        <v>41006.5358095019</v>
+        <v>40562.44179835595</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.016550965859607</v>
+        <v>-2.088525373130692</v>
       </c>
     </row>
     <row r="186">
@@ -7473,10 +7473,10 @@
         <v>122915.7609529236</v>
       </c>
       <c r="C186" t="n">
-        <v>121860.7286673952</v>
+        <v>121153.7292928851</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.858337675615479</v>
+        <v>-1.433527845719797</v>
       </c>
     </row>
     <row r="187">
@@ -7489,10 +7489,10 @@
         <v>265714.1567284354</v>
       </c>
       <c r="C187" t="n">
-        <v>263736.9828408733</v>
+        <v>262690.8010684574</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.7440980608281365</v>
+        <v>-1.137822574906282</v>
       </c>
     </row>
     <row r="188">
@@ -7505,10 +7505,10 @@
         <v>54806.72631406299</v>
       </c>
       <c r="C188" t="n">
-        <v>54384.76922494466</v>
+        <v>54108.14159172968</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.7699001883461407</v>
+        <v>-1.274633187047444</v>
       </c>
     </row>
     <row r="189">
@@ -7521,10 +7521,10 @@
         <v>280494.5109468997</v>
       </c>
       <c r="C189" t="n">
-        <v>280168.5063420201</v>
+        <v>279951.6047812521</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.116224949921144</v>
+        <v>-0.1935532227760381</v>
       </c>
     </row>
     <row r="190">
@@ -7537,10 +7537,10 @@
         <v>10593.21682983673</v>
       </c>
       <c r="C190" t="n">
-        <v>10507.94050062178</v>
+        <v>10464.86001663401</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.8050088144590801</v>
+        <v>-1.211688718021863</v>
       </c>
     </row>
     <row r="191">
@@ -7553,10 +7553,10 @@
         <v>5684.394091299144</v>
       </c>
       <c r="C191" t="n">
-        <v>5611.177339244867</v>
+        <v>5565.0886472335</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.288030894380578</v>
+        <v>-2.098824292430039</v>
       </c>
     </row>
     <row r="192">
@@ -7569,10 +7569,10 @@
         <v>28859.09469763844</v>
       </c>
       <c r="C192" t="n">
-        <v>28595.92867307648</v>
+        <v>28454.24567236501</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.9118997921424595</v>
+        <v>-1.402847280952866</v>
       </c>
     </row>
     <row r="193">
@@ -7585,10 +7585,10 @@
         <v>10795.41906703843</v>
       </c>
       <c r="C193" t="n">
-        <v>10711.31980573985</v>
+        <v>10693.76777851269</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.7790272964516683</v>
+        <v>-0.9416150303614342</v>
       </c>
     </row>
     <row r="194">
@@ -7601,10 +7601,10 @@
         <v>130.3430781668181</v>
       </c>
       <c r="C194" t="n">
-        <v>128.7155644523203</v>
+        <v>127.5558663972444</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.248638391380343</v>
+        <v>-2.138365771910424</v>
       </c>
     </row>
     <row r="195">
@@ -7617,10 +7617,10 @@
         <v>59.17207945961287</v>
       </c>
       <c r="C195" t="n">
-        <v>56.71556802244778</v>
+        <v>56.85464133757513</v>
       </c>
       <c r="D195" t="n">
-        <v>-4.151470523934774</v>
+        <v>-3.916438535203876</v>
       </c>
     </row>
     <row r="196">
@@ -7633,10 +7633,10 @@
         <v>1833.370805769428</v>
       </c>
       <c r="C196" t="n">
-        <v>1814.465194475782</v>
+        <v>1801.869544973793</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.03119408436917</v>
+        <v>-1.71821546936954</v>
       </c>
     </row>
     <row r="197">
@@ -7649,10 +7649,10 @@
         <v>285.6756973789712</v>
       </c>
       <c r="C197" t="n">
-        <v>282.7306117961196</v>
+        <v>280.8807741062186</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.030919189091794</v>
+        <v>-1.678449835511149</v>
       </c>
     </row>
     <row r="198">
@@ -7665,10 +7665,10 @@
         <v>32.8274165087924</v>
       </c>
       <c r="C198" t="n">
-        <v>32.53917747042947</v>
+        <v>32.33414917295687</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.878043626386896</v>
+        <v>-1.50260784519372</v>
       </c>
     </row>
     <row r="199">
@@ -7681,10 +7681,10 @@
         <v>2959.766329414751</v>
       </c>
       <c r="C199" t="n">
-        <v>2932.404404706421</v>
+        <v>2914.677002742922</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.9244623278669643</v>
+        <v>-1.523408325303326</v>
       </c>
     </row>
     <row r="200">
@@ -7697,10 +7697,10 @@
         <v>504.2821752044293</v>
       </c>
       <c r="C200" t="n">
-        <v>498.1321379778014</v>
+        <v>495.4893168253237</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.219562683161404</v>
+        <v>-1.743638544340994</v>
       </c>
     </row>
     <row r="201">
@@ -7713,10 +7713,10 @@
         <v>329.3262663006252</v>
       </c>
       <c r="C201" t="n">
-        <v>325.9784969597167</v>
+        <v>322.4482036685526</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.016550965859637</v>
+        <v>-2.088525373130723</v>
       </c>
     </row>
     <row r="202">
@@ -7729,10 +7729,10 @@
         <v>1142.065415761599</v>
       </c>
       <c r="C202" t="n">
-        <v>1132.262638017943</v>
+        <v>1125.693590010321</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.8583376756154427</v>
+        <v>-1.433527845719752</v>
       </c>
     </row>
     <row r="203">
@@ -7745,10 +7745,10 @@
         <v>2074.232428719989</v>
       </c>
       <c r="C203" t="n">
-        <v>2058.798105440815</v>
+        <v>2050.631343889986</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.7440980608281412</v>
+        <v>-1.137822574906285</v>
       </c>
     </row>
     <row r="204">
@@ -7761,10 +7761,10 @@
         <v>881.4898055408516</v>
       </c>
       <c r="C204" t="n">
-        <v>874.7032138677405</v>
+        <v>870.254043938988</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.7699001883461537</v>
+        <v>-1.274633187047436</v>
       </c>
     </row>
     <row r="205">
@@ -7777,10 +7777,10 @@
         <v>1530.181350854171</v>
       </c>
       <c r="C205" t="n">
-        <v>1528.402898345438</v>
+        <v>1527.219635535275</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.116224949921113</v>
+        <v>-0.1935532227760152</v>
       </c>
     </row>
     <row r="206">
@@ -7793,10 +7793,10 @@
         <v>200553.4450487138</v>
       </c>
       <c r="C206" t="n">
-        <v>198938.9721383703</v>
+        <v>198123.3615814543</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.8050088144590807</v>
+        <v>-1.211688718021867</v>
       </c>
     </row>
     <row r="207">
@@ -7809,10 +7809,10 @@
         <v>278.5757751426285</v>
       </c>
       <c r="C207" t="n">
-        <v>274.9876330945313</v>
+        <v>272.7289591011098</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.288030894380573</v>
+        <v>-2.098824292430017</v>
       </c>
     </row>
     <row r="208">
@@ -7825,10 +7825,10 @@
         <v>228.4063210516134</v>
       </c>
       <c r="C208" t="n">
-        <v>226.3234842847035</v>
+        <v>225.2021291872164</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.911899792142437</v>
+        <v>-1.402847280952847</v>
       </c>
     </row>
     <row r="209">
@@ -7841,10 +7841,10 @@
         <v>224.8375270473168</v>
       </c>
       <c r="C209" t="n">
-        <v>223.0859813389513</v>
+        <v>222.7204230987463</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.7790272964516861</v>
+        <v>-0.9416150303614523</v>
       </c>
     </row>
     <row r="210">
@@ -7857,10 +7857,10 @@
         <v>2778.315250756939</v>
       </c>
       <c r="C210" t="n">
-        <v>2743.624139902412</v>
+        <v>2718.904708398984</v>
       </c>
       <c r="D210" t="n">
-        <v>-1.248638391380384</v>
+        <v>-2.138365771910469</v>
       </c>
     </row>
     <row r="211">
@@ -7873,10 +7873,10 @@
         <v>542.7758068847991</v>
       </c>
       <c r="C211" t="n">
-        <v>520.2426292509275</v>
+        <v>521.518326024199</v>
       </c>
       <c r="D211" t="n">
-        <v>-4.151470523934773</v>
+        <v>-3.916438535203873</v>
       </c>
     </row>
     <row r="212">
@@ -7889,10 +7889,10 @@
         <v>37061.93836946738</v>
       </c>
       <c r="C212" t="n">
-        <v>36679.75785344889</v>
+        <v>36425.13441115498</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.031194084369172</v>
+        <v>-1.71821546936955</v>
       </c>
     </row>
     <row r="213">
@@ -7905,10 +7905,10 @@
         <v>5019.468010577606</v>
       </c>
       <c r="C213" t="n">
-        <v>4967.721351666238</v>
+        <v>4935.218758010532</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.030919189091787</v>
+        <v>-1.67844983551114</v>
       </c>
     </row>
     <row r="214">
@@ -7921,10 +7921,10 @@
         <v>11282.78686576815</v>
       </c>
       <c r="C214" t="n">
-        <v>11183.71907481446</v>
+        <v>11113.25082516663</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.8780436263868657</v>
+        <v>-1.502607845193704</v>
       </c>
     </row>
     <row r="215">
@@ -7937,10 +7937,10 @@
         <v>15112.70997075617</v>
       </c>
       <c r="C215" t="n">
-        <v>14972.99866035674</v>
+        <v>14882.48168888272</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.9244623278669576</v>
+        <v>-1.523408325303328</v>
       </c>
     </row>
     <row r="216">
@@ -7953,10 +7953,10 @@
         <v>18494.36720134626</v>
       </c>
       <c r="C216" t="n">
-        <v>18268.8168004718</v>
+        <v>18171.89228629163</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.219562683161423</v>
+        <v>-1.743638544341004</v>
       </c>
     </row>
     <row r="217">
@@ -7969,10 +7969,10 @@
         <v>2317.133481337426</v>
       </c>
       <c r="C217" t="n">
-        <v>2293.578638552633</v>
+        <v>2268.739560650386</v>
       </c>
       <c r="D217" t="n">
-        <v>-1.016550965859652</v>
+        <v>-2.08852537313073</v>
       </c>
     </row>
     <row r="218">
@@ -7985,10 +7985,10 @@
         <v>3727.739661860719</v>
       </c>
       <c r="C218" t="n">
-        <v>3695.743067894108</v>
+        <v>3674.301475792005</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.8583376756154577</v>
+        <v>-1.433527845719774</v>
       </c>
     </row>
     <row r="219">
@@ -8001,10 +8001,10 @@
         <v>9138.766773565736</v>
       </c>
       <c r="C219" t="n">
-        <v>9070.765387220028</v>
+        <v>9034.783822148072</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.7440980608281282</v>
+        <v>-1.137822574906262</v>
       </c>
     </row>
     <row r="220">
@@ -8017,10 +8017,10 @@
         <v>6348.413799460275</v>
       </c>
       <c r="C220" t="n">
-        <v>6299.537349661237</v>
+        <v>6267.494810321254</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.7699001883461526</v>
+        <v>-1.274633187047464</v>
       </c>
     </row>
     <row r="221">
@@ -8033,10 +8033,10 @@
         <v>26823.73566237933</v>
       </c>
       <c r="C221" t="n">
-        <v>26792.55978903875</v>
+        <v>26771.81745753586</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1162249499211576</v>
+        <v>-0.1935532227760611</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +8049,10 @@
         <v>3771.408181945571</v>
       </c>
       <c r="C222" t="n">
-        <v>3741.048013651679</v>
+        <v>3725.710454494384</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.8050088144590714</v>
+        <v>-1.211688718021847</v>
       </c>
     </row>
     <row r="223">
@@ -8065,10 +8065,10 @@
         <v>1655.903869521936</v>
       </c>
       <c r="C223" t="n">
-        <v>1634.57531610125</v>
+        <v>1621.149356849121</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.28803089438056</v>
+        <v>-2.098824292430004</v>
       </c>
     </row>
     <row r="224">
@@ -8081,10 +8081,10 @@
         <v>7689.051612621561</v>
       </c>
       <c r="C224" t="n">
-        <v>7618.93516694834</v>
+        <v>7581.185961142838</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.9118997921424326</v>
+        <v>-1.402847280952847</v>
       </c>
     </row>
     <row r="225">
@@ -8097,10 +8097,10 @@
         <v>2710.279428830022</v>
       </c>
       <c r="C225" t="n">
-        <v>2689.165612269322</v>
+        <v>2684.759030363364</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.7790272964516722</v>
+        <v>-0.9416150303614429</v>
       </c>
     </row>
     <row r="226">
@@ -8113,10 +8113,10 @@
         <v>325.8283497189743</v>
       </c>
       <c r="C226" t="n">
-        <v>321.7599318543821</v>
+        <v>318.860947813403</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.248638391380374</v>
+        <v>-2.138365771910475</v>
       </c>
     </row>
     <row r="227">
@@ -8129,10 +8129,10 @@
         <v>51.47494382944985</v>
       </c>
       <c r="C227" t="n">
-        <v>49.33797670915826</v>
+        <v>49.45895929333872</v>
       </c>
       <c r="D227" t="n">
-        <v>-4.151470523934777</v>
+        <v>-3.916438535203882</v>
       </c>
     </row>
     <row r="228">
@@ -8145,10 +8145,10 @@
         <v>6916.856511036302</v>
       </c>
       <c r="C228" t="n">
-        <v>6845.530295870191</v>
+        <v>6798.010012469582</v>
       </c>
       <c r="D228" t="n">
-        <v>-1.031194084369184</v>
+        <v>-1.718215469369549</v>
       </c>
     </row>
     <row r="229">
@@ -8161,10 +8161,10 @@
         <v>369.233986241517</v>
       </c>
       <c r="C229" t="n">
-        <v>365.4274822247046</v>
+        <v>363.036579006795</v>
       </c>
       <c r="D229" t="n">
-        <v>-1.030919189091798</v>
+        <v>-1.678449835511147</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>1775.27247268218</v>
       </c>
       <c r="C230" t="n">
-        <v>1759.684805884794</v>
+        <v>1748.597089234093</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.8780436263868672</v>
+        <v>-1.502607845193716</v>
       </c>
     </row>
     <row r="231">
@@ -8193,10 +8193,10 @@
         <v>5928.014601319257</v>
       </c>
       <c r="C231" t="n">
-        <v>5873.212339539606</v>
+        <v>5837.706733357561</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.9244623278669959</v>
+        <v>-1.523408325303347</v>
       </c>
     </row>
     <row r="232">
@@ -8209,10 +8209,10 @@
         <v>1031.395597177054</v>
       </c>
       <c r="C232" t="n">
-        <v>1018.817081358112</v>
+        <v>1013.411786000038</v>
       </c>
       <c r="D232" t="n">
-        <v>-1.219562683161465</v>
+        <v>-1.743638544341053</v>
       </c>
     </row>
     <row r="233">
@@ -8225,10 +8225,10 @@
         <v>1608.551307985471</v>
       </c>
       <c r="C233" t="n">
-        <v>1592.199564127797</v>
+        <v>1574.956305778368</v>
       </c>
       <c r="D233" t="n">
-        <v>-1.016550965859623</v>
+        <v>-2.088525373130721</v>
       </c>
     </row>
     <row r="234">
@@ -8241,10 +8241,10 @@
         <v>677.4327596080684</v>
       </c>
       <c r="C234" t="n">
-        <v>671.6180990053907</v>
+        <v>667.7215723630587</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.8583376756154791</v>
+        <v>-1.433527845719792</v>
       </c>
     </row>
     <row r="235">
@@ -8257,10 +8257,10 @@
         <v>1698.715141718269</v>
       </c>
       <c r="C235" t="n">
-        <v>1686.07503528975</v>
+        <v>1679.386777352448</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.7440980608281266</v>
+        <v>-1.137822574906268</v>
       </c>
     </row>
     <row r="236">
@@ -8273,10 +8273,10 @@
         <v>645.5155124368843</v>
       </c>
       <c r="C236" t="n">
-        <v>640.5456872908291</v>
+        <v>637.2875574878244</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.769900188346152</v>
+        <v>-1.274633187047434</v>
       </c>
     </row>
     <row r="237">
@@ -8289,10 +8289,10 @@
         <v>1645.530889760532</v>
       </c>
       <c r="C237" t="n">
-        <v>1643.618372307971</v>
+        <v>1642.345911691626</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1162249499211301</v>
+        <v>-0.1935532227760246</v>
       </c>
     </row>
     <row r="238">
@@ -8305,10 +8305,10 @@
         <v>761.9280649988186</v>
       </c>
       <c r="C238" t="n">
-        <v>755.7944769157407</v>
+        <v>752.6958685957858</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.8050088144590722</v>
+        <v>-1.211688718021846</v>
       </c>
     </row>
     <row r="239">
@@ -8321,10 +8321,10 @@
         <v>537.7236817026917</v>
       </c>
       <c r="C239" t="n">
-        <v>530.7976345559604</v>
+        <v>526.4378064449666</v>
       </c>
       <c r="D239" t="n">
-        <v>-1.288030894380572</v>
+        <v>-2.098824292430014</v>
       </c>
     </row>
     <row r="240">
@@ -8337,10 +8337,10 @@
         <v>11949.50026854712</v>
       </c>
       <c r="C240" t="n">
-        <v>11840.53280043618</v>
+        <v>11781.86702894235</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.9118997921424654</v>
+        <v>-1.40284728095287</v>
       </c>
     </row>
     <row r="241">
@@ -8353,10 +8353,10 @@
         <v>386.8847934372729</v>
       </c>
       <c r="C241" t="n">
-        <v>383.8708552905759</v>
+        <v>383.2418280720848</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.7790272964516516</v>
+        <v>-0.9416150303614078</v>
       </c>
     </row>
     <row r="242">
@@ -8369,10 +8369,10 @@
         <v>1046.295292655768</v>
       </c>
       <c r="C242" t="n">
-        <v>1033.230847944463</v>
+        <v>1023.921672244507</v>
       </c>
       <c r="D242" t="n">
-        <v>-1.248638391380363</v>
+        <v>-2.138365771910469</v>
       </c>
     </row>
     <row r="243">
@@ -8385,10 +8385,10 @@
         <v>130.1836001021431</v>
       </c>
       <c r="C243" t="n">
-        <v>124.7790663169055</v>
+        <v>125.085039421227</v>
       </c>
       <c r="D243" t="n">
-        <v>-4.151470523934806</v>
+        <v>-3.916438535203903</v>
       </c>
     </row>
     <row r="244">
@@ -8401,10 +8401,10 @@
         <v>11809.09997807655</v>
       </c>
       <c r="C244" t="n">
-        <v>11687.32523768539</v>
+        <v>11606.19419545993</v>
       </c>
       <c r="D244" t="n">
-        <v>-1.031194084369146</v>
+        <v>-1.718215469369525</v>
       </c>
     </row>
     <row r="245">
@@ -8417,10 +8417,10 @@
         <v>825.7796476708539</v>
       </c>
       <c r="C245" t="n">
-        <v>817.2665268234006</v>
+        <v>811.9193505328379</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.030919189091785</v>
+        <v>-1.678449835511149</v>
       </c>
     </row>
     <row r="246">
@@ -8433,10 +8433,10 @@
         <v>3297.724954117424</v>
       </c>
       <c r="C246" t="n">
-        <v>3268.769490342026</v>
+        <v>3248.173080243945</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.8780436263868928</v>
+        <v>-1.502607845193723</v>
       </c>
     </row>
     <row r="247">
@@ -8449,10 +8449,10 @@
         <v>11905.56344431094</v>
       </c>
       <c r="C247" t="n">
-        <v>11795.50099534798</v>
+        <v>11724.19309962603</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.9244623278669655</v>
+        <v>-1.523408325303348</v>
       </c>
     </row>
     <row r="248">
@@ -8465,10 +8465,10 @@
         <v>2030.975650240378</v>
       </c>
       <c r="C248" t="n">
-        <v>2006.206629105951</v>
+        <v>1995.562775976606</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.219562683161449</v>
+        <v>-1.743638544341024</v>
       </c>
     </row>
     <row r="249">
@@ -8481,10 +8481,10 @@
         <v>7229.999439492259</v>
       </c>
       <c r="C249" t="n">
-        <v>7156.502810358455</v>
+        <v>7078.999066721254</v>
       </c>
       <c r="D249" t="n">
-        <v>-1.016550965859614</v>
+        <v>-2.088525373130719</v>
       </c>
     </row>
     <row r="250">
@@ -8497,10 +8497,10 @@
         <v>1917.548880912487</v>
       </c>
       <c r="C250" t="n">
-        <v>1901.089836419273</v>
+        <v>1890.060283749319</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.8583376756154415</v>
+        <v>-1.433527845719772</v>
       </c>
     </row>
     <row r="251">
@@ -8513,10 +8513,10 @@
         <v>5140.148725132723</v>
       </c>
       <c r="C251" t="n">
-        <v>5101.900978145328</v>
+        <v>5081.662952554406</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.7440980608281361</v>
+        <v>-1.137822574906266</v>
       </c>
     </row>
     <row r="252">
@@ -8529,10 +8529,10 @@
         <v>1583.233059004502</v>
       </c>
       <c r="C252" t="n">
-        <v>1571.043744701268</v>
+        <v>1563.052645006124</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.769900188346148</v>
+        <v>-1.274633187047431</v>
       </c>
     </row>
     <row r="253">
@@ -8545,10 +8545,10 @@
         <v>5884.108741303054</v>
       </c>
       <c r="C253" t="n">
-        <v>5877.269938865169</v>
+        <v>5872.719859202614</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.1162249499211354</v>
+        <v>-0.19355322277605</v>
       </c>
     </row>
     <row r="254">
@@ -8561,10 +8561,10 @@
         <v>1109.271824274989</v>
       </c>
       <c r="C254" t="n">
-        <v>1100.342088313265</v>
+        <v>1095.830902728054</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.8050088144590547</v>
+        <v>-1.21168871802181</v>
       </c>
     </row>
     <row r="255">
@@ -8577,10 +8577,10 @@
         <v>3763.941165659353</v>
       </c>
       <c r="C255" t="n">
-        <v>3715.460440599351</v>
+        <v>3684.94265412172</v>
       </c>
       <c r="D255" t="n">
-        <v>-1.288030894380594</v>
+        <v>-2.098824292430043</v>
       </c>
     </row>
     <row r="256">
@@ -8593,10 +8593,10 @@
         <v>1794.712358636747</v>
       </c>
       <c r="C256" t="n">
-        <v>1778.346380368784</v>
+        <v>1769.535285112687</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.9118997921424357</v>
+        <v>-1.40284728095283</v>
       </c>
     </row>
     <row r="257">
@@ -8609,10 +8609,10 @@
         <v>30230.98358170662</v>
       </c>
       <c r="C257" t="n">
-        <v>29995.47596761931</v>
+        <v>29946.32409647518</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.7790272964516571</v>
+        <v>-0.9416150303614147</v>
       </c>
     </row>
   </sheetData>
@@ -8666,10 +8666,10 @@
         <v>3414557.645092672</v>
       </c>
       <c r="C2" t="n">
-        <v>3371922.167440231</v>
+        <v>3341541.913147858</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.248638391380389</v>
+        <v>-2.138365771910483</v>
       </c>
     </row>
     <row r="3">
@@ -8682,10 +8682,10 @@
         <v>236483.0463515812</v>
       </c>
       <c r="C3" t="n">
-        <v>226665.5223881923</v>
+        <v>227221.3331950438</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.151470523934773</v>
+        <v>-3.91643853520387</v>
       </c>
     </row>
     <row r="4">
@@ -8698,10 +8698,10 @@
         <v>10693184.37090776</v>
       </c>
       <c r="C4" t="n">
-        <v>10582916.88624427</v>
+        <v>10509452.42287862</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.031194084369177</v>
+        <v>-1.718215469369546</v>
       </c>
     </row>
     <row r="5">
@@ -8714,10 +8714,10 @@
         <v>859555.5685829821</v>
       </c>
       <c r="C5" t="n">
-        <v>850694.245285553</v>
+        <v>845128.359555974</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.030919189091791</v>
+        <v>-1.678449835511155</v>
       </c>
     </row>
     <row r="6">
@@ -8730,10 +8730,10 @@
         <v>2955558.97113681</v>
       </c>
       <c r="C6" t="n">
-        <v>2929607.873966637</v>
+        <v>2911148.510167181</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8780436263868908</v>
+        <v>-1.502607845193729</v>
       </c>
     </row>
     <row r="7">
@@ -8746,10 +8746,10 @@
         <v>4193101.561300549</v>
       </c>
       <c r="C7" t="n">
-        <v>4154337.916997124</v>
+        <v>4129223.503027272</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9244623278669786</v>
+        <v>-1.523408325303348</v>
       </c>
     </row>
     <row r="8">
@@ -8762,10 +8762,10 @@
         <v>1706212.131163495</v>
       </c>
       <c r="C8" t="n">
-        <v>1685403.804716252</v>
+        <v>1676461.958796306</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.219562683161416</v>
+        <v>-1.743638544340994</v>
       </c>
     </row>
     <row r="9">
@@ -8778,10 +8778,10 @@
         <v>1023361.531720356</v>
       </c>
       <c r="C9" t="n">
-        <v>1012958.540185417</v>
+        <v>1001988.366471518</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.016550965859581</v>
+        <v>-2.088525373130676</v>
       </c>
     </row>
     <row r="10">
@@ -8794,10 +8794,10 @@
         <v>1008230.237982081</v>
       </c>
       <c r="C10" t="n">
-        <v>999576.2179925331</v>
+        <v>993776.9767716408</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8583376756154885</v>
+        <v>-1.433527845719805</v>
       </c>
     </row>
     <row r="11">
@@ -8810,10 +8810,10 @@
         <v>2590209.541191509</v>
       </c>
       <c r="C11" t="n">
-        <v>2570935.842224118</v>
+        <v>2560737.552294456</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7440980608281276</v>
+        <v>-1.137822574906268</v>
       </c>
     </row>
     <row r="12">
@@ -8826,10 +8826,10 @@
         <v>1427752.616260717</v>
       </c>
       <c r="C12" t="n">
-        <v>1416760.346179009</v>
+        <v>1409554.00758492</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7699001883461405</v>
+        <v>-1.274633187047444</v>
       </c>
     </row>
     <row r="13">
@@ -8842,10 +8842,10 @@
         <v>1993459.613516357</v>
       </c>
       <c r="C13" t="n">
-        <v>1991142.716078849</v>
+        <v>1989601.208189657</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1162249499211508</v>
+        <v>-0.1935532227760586</v>
       </c>
     </row>
     <row r="14">
@@ -8858,10 +8858,10 @@
         <v>1209532.48903948</v>
       </c>
       <c r="C14" t="n">
-        <v>1199795.645888966</v>
+        <v>1194876.72032898</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8050088144590848</v>
+        <v>-1.211688718021857</v>
       </c>
     </row>
     <row r="15">
@@ -8874,10 +8874,10 @@
         <v>848111.702553727</v>
       </c>
       <c r="C15" t="n">
-        <v>837187.7618059778</v>
+        <v>830311.3281135873</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.288030894380585</v>
+        <v>-2.09882429243004</v>
       </c>
     </row>
     <row r="16">
@@ -8890,10 +8890,10 @@
         <v>450023.7008461211</v>
       </c>
       <c r="C16" t="n">
-        <v>445919.9356535136</v>
+        <v>443710.5555951579</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9118997921424488</v>
+        <v>-1.402847280952855</v>
       </c>
     </row>
     <row r="17">
@@ -8906,10 +8906,10 @@
         <v>545780.8972354506</v>
       </c>
       <c r="C17" t="n">
-        <v>541529.1150671676</v>
+        <v>540641.7422742401</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7790272964516723</v>
+        <v>-0.9416150303614245</v>
       </c>
     </row>
   </sheetData>
@@ -8963,10 +8963,10 @@
         <v>681704.0979888855</v>
       </c>
       <c r="C2" t="n">
-        <v>671906.6386976886</v>
+        <v>664854.0022394819</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.437201172781659</v>
+        <v>-2.471760958913629</v>
       </c>
     </row>
     <row r="3">
@@ -8979,10 +8979,10 @@
         <v>1249.88667263317</v>
       </c>
       <c r="C3" t="n">
-        <v>1233.735198126109</v>
+        <v>1230.066259031817</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.292235117047432</v>
+        <v>-1.585776857640768</v>
       </c>
     </row>
     <row r="4">
@@ -8995,10 +8995,10 @@
         <v>5072181.859160316</v>
       </c>
       <c r="C4" t="n">
-        <v>5030154.40658417</v>
+        <v>5004893.842092412</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8285872577743886</v>
+        <v>-1.326608921688859</v>
       </c>
     </row>
     <row r="5">
@@ -9011,10 +9011,10 @@
         <v>228099.3515061853</v>
       </c>
       <c r="C5" t="n">
-        <v>225247.818191767</v>
+        <v>223444.7347934393</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.250127760376801</v>
+        <v>-2.040609358163747</v>
       </c>
     </row>
     <row r="6">
@@ -9027,10 +9027,10 @@
         <v>41509.39267939057</v>
       </c>
       <c r="C6" t="n">
-        <v>41009.80564275655</v>
+        <v>40673.04521894605</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.203551785237422</v>
+        <v>-2.014839067640151</v>
       </c>
     </row>
     <row r="7">
@@ -9043,10 +9043,10 @@
         <v>1668853.361421085</v>
       </c>
       <c r="C7" t="n">
-        <v>1654540.084184004</v>
+        <v>1645852.41495778</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8576713549531515</v>
+        <v>-1.378248502535834</v>
       </c>
     </row>
     <row r="8">
@@ -9059,10 +9059,10 @@
         <v>844195.7394430137</v>
       </c>
       <c r="C8" t="n">
-        <v>835753.6046695499</v>
+        <v>831890.3921090747</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.000021011600201</v>
+        <v>-1.457641487513049</v>
       </c>
     </row>
     <row r="9">
@@ -9075,10 +9075,10 @@
         <v>827929.9838858522</v>
       </c>
       <c r="C9" t="n">
-        <v>821204.8741138483</v>
+        <v>816559.602191954</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8122800119449518</v>
+        <v>-1.373350635343794</v>
       </c>
     </row>
     <row r="10">
@@ -9091,10 +9091,10 @@
         <v>279204.3897815574</v>
       </c>
       <c r="C10" t="n">
-        <v>276981.2977085828</v>
+        <v>275576.1729192398</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.796223897021781</v>
+        <v>-1.299484175430125</v>
       </c>
     </row>
     <row r="11">
@@ -9107,10 +9107,10 @@
         <v>847117.1702098944</v>
       </c>
       <c r="C11" t="n">
-        <v>841649.9595807781</v>
+        <v>839120.1406122441</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6453901327205587</v>
+        <v>-0.9440287458308534</v>
       </c>
     </row>
     <row r="12">
@@ -9123,10 +9123,10 @@
         <v>709106.1542588873</v>
       </c>
       <c r="C12" t="n">
-        <v>704022.3370802179</v>
+        <v>700573.8730654323</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7169331627057544</v>
+        <v>-1.20324455544634</v>
       </c>
     </row>
     <row r="13">
@@ -9139,10 +9139,10 @@
         <v>34388.56298679487</v>
       </c>
       <c r="C13" t="n">
-        <v>34295.62811563713</v>
+        <v>34241.6153740593</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2702493593391129</v>
+        <v>-0.4273153629362008</v>
       </c>
     </row>
     <row r="14">
@@ -9155,10 +9155,10 @@
         <v>547184.0434827509</v>
       </c>
       <c r="C14" t="n">
-        <v>542905.5395026493</v>
+        <v>540779.4281184464</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7819131480643084</v>
+        <v>-1.170468225560822</v>
       </c>
     </row>
     <row r="15">
@@ -9171,10 +9171,10 @@
         <v>624199.4650670212</v>
       </c>
       <c r="C15" t="n">
-        <v>616195.3320216504</v>
+        <v>611162.8863290097</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.282303733552766</v>
+        <v>-2.088527701094999</v>
       </c>
     </row>
     <row r="16">
@@ -9187,10 +9187,10 @@
         <v>366170.2447981961</v>
       </c>
       <c r="C16" t="n">
-        <v>362880.2292065029</v>
+        <v>361129.8906468896</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.8984934298816016</v>
+        <v>-1.376505661754216</v>
       </c>
     </row>
     <row r="17">
@@ -9203,10 +9203,10 @@
         <v>476990.7278785029</v>
       </c>
       <c r="C17" t="n">
-        <v>473335.3007632399</v>
+        <v>472397.8082692917</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7663518180995135</v>
+        <v>-0.9628949454927682</v>
       </c>
     </row>
   </sheetData>
@@ -9260,10 +9260,10 @@
         <v>4199.478882578032</v>
       </c>
       <c r="C2" t="n">
-        <v>4137.241083527942</v>
+        <v>4092.002620262509</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.482036242836935</v>
+        <v>-2.559276170226731</v>
       </c>
     </row>
     <row r="3">
@@ -9276,10 +9276,10 @@
         <v>182.8844489195033</v>
       </c>
       <c r="C3" t="n">
-        <v>180.4390348759819</v>
+        <v>179.8228039689639</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.337136130474277</v>
+        <v>-1.674087090853206</v>
       </c>
     </row>
     <row r="4">
@@ -9292,10 +9292,10 @@
         <v>373785.7590061041</v>
       </c>
       <c r="C4" t="n">
-        <v>370519.9958976408</v>
+        <v>368496.1234286449</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8736991792161847</v>
+        <v>-1.415151714587606</v>
       </c>
     </row>
     <row r="5">
@@ -9308,10 +9308,10 @@
         <v>30208.34326232866</v>
       </c>
       <c r="C5" t="n">
-        <v>29817.13073884183</v>
+        <v>29565.35521543949</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.295047927950072</v>
+        <v>-2.128511455611715</v>
       </c>
     </row>
     <row r="6">
@@ -9324,10 +9324,10 @@
         <v>544.2639596754708</v>
       </c>
       <c r="C6" t="n">
-        <v>537.4688614771733</v>
+        <v>532.8193714902799</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.248493139679733</v>
+        <v>-2.102764289594889</v>
       </c>
     </row>
     <row r="7">
@@ -9340,10 +9340,10 @@
         <v>109078.9813295354</v>
       </c>
       <c r="C7" t="n">
-        <v>108094.2489591985</v>
+        <v>107479.0708710989</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9027700463776399</v>
+        <v>-1.466744957585443</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9356,10 @@
         <v>72652.30470162898</v>
       </c>
       <c r="C8" t="n">
-        <v>71893.04819518438</v>
+        <v>71529.05161134929</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.045054949822633</v>
+        <v>-1.546066700695458</v>
       </c>
     </row>
     <row r="9">
@@ -9372,10 +9372,10 @@
         <v>256449.3035849219</v>
       </c>
       <c r="C9" t="n">
-        <v>254250.5089194097</v>
+        <v>252700.3956311513</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8573993513630778</v>
+        <v>-1.461851485406431</v>
       </c>
     </row>
     <row r="10">
@@ -9388,10 +9388,10 @@
         <v>155149.7673252957</v>
       </c>
       <c r="C10" t="n">
-        <v>153844.4139198168</v>
+        <v>152996.2089502178</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8413505401797073</v>
+        <v>-1.388051308232113</v>
       </c>
     </row>
     <row r="11">
@@ -9404,10 +9404,10 @@
         <v>481768.4252947781</v>
       </c>
       <c r="C11" t="n">
-        <v>478441.4029437561</v>
+        <v>476792.1677346554</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6905853884023724</v>
+        <v>-1.032914840169921</v>
       </c>
     </row>
     <row r="12">
@@ -9420,10 +9420,10 @@
         <v>40310.04944841391</v>
       </c>
       <c r="C12" t="n">
-        <v>40002.8482246409</v>
+        <v>39789.28470678846</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7620958742959225</v>
+        <v>-1.291898047140546</v>
       </c>
     </row>
     <row r="13">
@@ -9436,10 +9436,10 @@
         <v>54737.47033988653</v>
       </c>
       <c r="C13" t="n">
-        <v>54564.71052935565</v>
+        <v>54454.66092266676</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3156152621926901</v>
+        <v>-0.5166651207366579</v>
       </c>
     </row>
     <row r="14">
@@ -9452,10 +9452,10 @@
         <v>522067.6321158273</v>
       </c>
       <c r="C14" t="n">
-        <v>517749.8910756148</v>
+        <v>515494.0116344808</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8270463010153647</v>
+        <v>-1.25915112850514</v>
       </c>
     </row>
     <row r="15">
@@ -9468,10 +9468,10 @@
         <v>22378.20519142771</v>
       </c>
       <c r="C15" t="n">
-        <v>22081.19957886462</v>
+        <v>21891.16888759147</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.327209264650335</v>
+        <v>-2.176386799879749</v>
       </c>
     </row>
     <row r="16">
@@ -9484,10 +9484,10 @@
         <v>52685.52568929273</v>
       </c>
       <c r="C16" t="n">
-        <v>52188.39900325158</v>
+        <v>51913.68079874282</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9435735518193373</v>
+        <v>-1.465003680710681</v>
       </c>
     </row>
     <row r="17">
@@ -9500,10 +9500,10 @@
         <v>23438.95177260142</v>
       </c>
       <c r="C17" t="n">
-        <v>23248.74654242941</v>
+        <v>23192.42928995943</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.8114920497184697</v>
+        <v>-1.051764110586872</v>
       </c>
     </row>
   </sheetData>
@@ -9557,10 +9557,10 @@
         <v>394497.6888084688</v>
       </c>
       <c r="C2" t="n">
-        <v>390123.4805469065</v>
+        <v>386777.8796161063</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.108804534387522</v>
+        <v>-1.956870575257157</v>
       </c>
     </row>
     <row r="3">
@@ -9573,10 +9573,10 @@
         <v>13216.80477489961</v>
       </c>
       <c r="C3" t="n">
-        <v>13089.47996271318</v>
+        <v>13075.88601137698</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9633554732399361</v>
+        <v>-1.066209011350842</v>
       </c>
     </row>
     <row r="4">
@@ -9589,10 +9589,10 @@
         <v>1539821.604049792</v>
       </c>
       <c r="C4" t="n">
-        <v>1532150.785508655</v>
+        <v>1527415.679836588</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4981628080137948</v>
+        <v>-0.8056728247334319</v>
       </c>
     </row>
     <row r="5">
@@ -9605,10 +9605,10 @@
         <v>1367.881618448352</v>
       </c>
       <c r="C5" t="n">
-        <v>1355.281953877471</v>
+        <v>1347.042725053765</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9211078210973351</v>
+        <v>-1.523442753637232</v>
       </c>
     </row>
     <row r="6">
@@ -9621,10 +9621,10 @@
         <v>2927645.3929571</v>
       </c>
       <c r="C6" t="n">
-        <v>2902046.744903411</v>
+        <v>2883802.837198108</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8743766617115037</v>
+        <v>-1.497536411495113</v>
       </c>
     </row>
     <row r="7">
@@ -9637,10 +9637,10 @@
         <v>4560.995555048999</v>
       </c>
       <c r="C7" t="n">
-        <v>4536.943427356395</v>
+        <v>4521.881139882575</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.527343809094028</v>
+        <v>-0.8575850314768525</v>
       </c>
     </row>
     <row r="8">
@@ -9653,10 +9653,10 @@
         <v>1090.025652932387</v>
       </c>
       <c r="C8" t="n">
-        <v>1082.720652499372</v>
+        <v>1079.807783379124</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6701677537003738</v>
+        <v>-0.9373971636148776</v>
       </c>
     </row>
     <row r="9">
@@ -9669,10 +9669,10 @@
         <v>618.7971370217454</v>
       </c>
       <c r="C9" t="n">
-        <v>615.8157648114362</v>
+        <v>613.5208932686629</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4818012288580389</v>
+        <v>-0.8526613064948659</v>
       </c>
     </row>
     <row r="10">
@@ -9685,10 +9685,10 @@
         <v>21716.29890705622</v>
       </c>
       <c r="C10" t="n">
-        <v>21615.16792344967</v>
+        <v>21547.2581774454</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4656916173394913</v>
+        <v>-0.7784048761453464</v>
       </c>
     </row>
     <row r="11">
@@ -9701,10 +9701,10 @@
         <v>3166.211466152315</v>
       </c>
       <c r="C11" t="n">
-        <v>3156.258312685073</v>
+        <v>3152.87940910841</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3143552972896444</v>
+        <v>-0.4210728558856046</v>
       </c>
     </row>
     <row r="12">
@@ -9717,10 +9717,10 @@
         <v>7014.752514295814</v>
       </c>
       <c r="C12" t="n">
-        <v>6987.665980560881</v>
+        <v>6966.935950900771</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3861366980478908</v>
+        <v>-0.6816571689107283</v>
       </c>
     </row>
     <row r="13">
@@ -9733,10 +9733,10 @@
         <v>31104.57843132653</v>
       </c>
       <c r="C13" t="n">
-        <v>31123.87427772481</v>
+        <v>31135.17552691983</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06203538955168619</v>
+        <v>0.09836846257491462</v>
       </c>
     </row>
     <row r="14">
@@ -9749,10 +9749,10 @@
         <v>1057.98409967499</v>
       </c>
       <c r="C14" t="n">
-        <v>1053.209066319049</v>
+        <v>1051.120874300422</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4513331870873821</v>
+        <v>-0.6487077997369064</v>
       </c>
     </row>
     <row r="15">
@@ -9765,10 +9765,10 @@
         <v>5564.495219738023</v>
       </c>
       <c r="C15" t="n">
-        <v>5511.443823126104</v>
+        <v>5477.042829574604</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9533909998473583</v>
+        <v>-1.571614076569117</v>
       </c>
     </row>
     <row r="16">
@@ -9781,10 +9781,10 @@
         <v>2237.227755704404</v>
       </c>
       <c r="C16" t="n">
-        <v>2224.513547925702</v>
+        <v>2218.080822519824</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5683018971261815</v>
+        <v>-0.8558329895452061</v>
       </c>
     </row>
     <row r="17">
@@ -9797,10 +9797,10 @@
         <v>4424.727197110003</v>
       </c>
       <c r="C17" t="n">
-        <v>4405.447775365104</v>
+        <v>4405.256686943935</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4357200090774269</v>
+        <v>-0.4400386577230021</v>
       </c>
     </row>
   </sheetData>
@@ -9854,10 +9854,10 @@
         <v>88379.20989359371</v>
       </c>
       <c r="C2" t="n">
-        <v>86104.80981742112</v>
+        <v>84302.27505053059</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.573455995941704</v>
+        <v>-4.613002139271947</v>
       </c>
     </row>
     <row r="3">
@@ -9870,10 +9870,10 @@
         <v>80038.6007416122</v>
       </c>
       <c r="C3" t="n">
-        <v>75110.37729905958</v>
+        <v>75753.42062413304</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.157308344835211</v>
+        <v>-5.353891844402634</v>
       </c>
     </row>
     <row r="4">
@@ -9886,10 +9886,10 @@
         <v>2920941.758736638</v>
       </c>
       <c r="C4" t="n">
-        <v>2886328.746028701</v>
+        <v>2862322.75493128</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.184994962820051</v>
+        <v>-2.00685287989829</v>
       </c>
     </row>
     <row r="5">
@@ -9902,10 +9902,10 @@
         <v>0.1707930718649235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1673925010876151</v>
+        <v>0.1651208708290727</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.991047259807979</v>
+        <v>-3.321095506928291</v>
       </c>
     </row>
     <row r="6">
@@ -9918,10 +9918,10 @@
         <v>3019.361322344704</v>
       </c>
       <c r="C6" t="n">
-        <v>2966.605588211306</v>
+        <v>2925.832658314265</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.747248126382927</v>
+        <v>-3.097630725355158</v>
       </c>
     </row>
     <row r="7">
@@ -9934,10 +9934,10 @@
         <v>302312.1911261023</v>
       </c>
       <c r="C7" t="n">
-        <v>299006.9961846121</v>
+        <v>296765.7180640233</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.093305211800574</v>
+        <v>-1.83468388800947</v>
       </c>
     </row>
     <row r="8">
@@ -9950,10 +9950,10 @@
         <v>339911.8913027431</v>
       </c>
       <c r="C8" t="n">
-        <v>334258.7143051696</v>
+        <v>332392.2319449569</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.663130105836295</v>
+        <v>-2.212237803439727</v>
       </c>
     </row>
     <row r="9">
@@ -9966,10 +9966,10 @@
         <v>467265.7590406692</v>
       </c>
       <c r="C9" t="n">
-        <v>462031.9613304276</v>
+        <v>455766.8841785723</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.120090143345193</v>
+        <v>-2.460885403994709</v>
       </c>
     </row>
     <row r="10">
@@ -9982,10 +9982,10 @@
         <v>303862.505135322</v>
       </c>
       <c r="C10" t="n">
-        <v>301118.9750903366</v>
+        <v>299092.7241014982</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9028853506501404</v>
+        <v>-1.569716879579999</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +9998,10 @@
         <v>44667.50305592605</v>
       </c>
       <c r="C11" t="n">
-        <v>44447.42860401404</v>
+        <v>44405.69265254834</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4926947710429837</v>
+        <v>-0.5861317187349941</v>
       </c>
     </row>
     <row r="12">
@@ -10014,10 +10014,10 @@
         <v>6203.60467028512</v>
       </c>
       <c r="C12" t="n">
-        <v>6162.625344724175</v>
+        <v>6125.690597661926</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.66057280789076</v>
+        <v>-1.255948384274019</v>
       </c>
     </row>
     <row r="13">
@@ -10030,10 +10030,10 @@
         <v>839824.0628519823</v>
       </c>
       <c r="C13" t="n">
-        <v>844211.4995006191</v>
+        <v>846676.0105185417</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5224233077744168</v>
+        <v>0.8158789405593649</v>
       </c>
     </row>
     <row r="14">
@@ -10046,10 +10046,10 @@
         <v>10181.8199161731</v>
       </c>
       <c r="C14" t="n">
-        <v>10096.90265079256</v>
+        <v>10067.01142260922</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8340087143523358</v>
+        <v>-1.127583226860207</v>
       </c>
     </row>
     <row r="15">
@@ -10062,10 +10062,10 @@
         <v>62709.11526794974</v>
       </c>
       <c r="C15" t="n">
-        <v>61298.43078845627</v>
+        <v>60371.06920668876</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.2495684614043</v>
+        <v>-3.728399055337872</v>
       </c>
     </row>
     <row r="16">
@@ -10078,10 +10078,10 @@
         <v>8969.809554331197</v>
       </c>
       <c r="C16" t="n">
-        <v>8864.721686463645</v>
+        <v>8814.703712630318</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.171573010898648</v>
+        <v>-1.729198828151083</v>
       </c>
     </row>
     <row r="17">
@@ -10094,10 +10094,10 @@
         <v>40285.14188351417</v>
       </c>
       <c r="C17" t="n">
-        <v>39972.3286746966</v>
+        <v>40107.72204196148</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7764977214727943</v>
+        <v>-0.4404101196061492</v>
       </c>
     </row>
   </sheetData>
@@ -10151,10 +10151,10 @@
         <v>78355.35792597735</v>
       </c>
       <c r="C2" t="n">
-        <v>78484.12852948102</v>
+        <v>78772.76321268758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1643417973092769</v>
+        <v>0.532708033960554</v>
       </c>
     </row>
     <row r="3">
@@ -10167,10 +10167,10 @@
         <v>317789.3840405327</v>
       </c>
       <c r="C3" t="n">
-        <v>317401.0413759893</v>
+        <v>314467.5630658641</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1222012704155943</v>
+        <v>-1.045290101397761</v>
       </c>
     </row>
     <row r="4">
@@ -10183,10 +10183,10 @@
         <v>5812388.874918879</v>
       </c>
       <c r="C4" t="n">
-        <v>5767927.423005423</v>
+        <v>5741599.997358517</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7649428293642339</v>
+        <v>-1.21789644643056</v>
       </c>
     </row>
     <row r="5">
@@ -10199,10 +10199,10 @@
         <v>0.0003561830006493868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003559643576485998</v>
+        <v>0.0003561548843716854</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06138501848441328</v>
+        <v>-0.00789377304646228</v>
       </c>
     </row>
     <row r="6">
@@ -10215,10 +10215,10 @@
         <v>3747.700656387613</v>
       </c>
       <c r="C6" t="n">
-        <v>3747.723462104186</v>
+        <v>3752.269620463506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006085255644384914</v>
+        <v>0.1219137944783678</v>
       </c>
     </row>
     <row r="7">
@@ -10231,10 +10231,10 @@
         <v>18452.78067859498</v>
       </c>
       <c r="C7" t="n">
-        <v>18317.7220908821</v>
+        <v>18237.26570620205</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7319145556720877</v>
+        <v>-1.167926808141857</v>
       </c>
     </row>
     <row r="8">
@@ -10247,10 +10247,10 @@
         <v>268135.8427319374</v>
       </c>
       <c r="C8" t="n">
-        <v>266641.2210775553</v>
+        <v>265336.6733035553</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5574121084126613</v>
+        <v>-1.043937058120377</v>
       </c>
     </row>
     <row r="9">
@@ -10263,10 +10263,10 @@
         <v>640564.0214195349</v>
       </c>
       <c r="C9" t="n">
-        <v>635738.2318942209</v>
+        <v>633264.7933315489</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7533656846070924</v>
+        <v>-1.139500166089629</v>
       </c>
     </row>
     <row r="10">
@@ -10279,10 +10279,10 @@
         <v>71737.1030274103</v>
       </c>
       <c r="C10" t="n">
-        <v>71179.32636368579</v>
+        <v>70886.10900566434</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7775288381960235</v>
+        <v>-1.18626761582607</v>
       </c>
     </row>
     <row r="11">
@@ -10295,10 +10295,10 @@
         <v>120414.6020779007</v>
       </c>
       <c r="C11" t="n">
-        <v>119206.6366016889</v>
+        <v>118361.9705871773</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.003171920487121</v>
+        <v>-1.704636692978074</v>
       </c>
     </row>
     <row r="12">
@@ -10311,10 +10311,10 @@
         <v>126100.7636223691</v>
       </c>
       <c r="C12" t="n">
-        <v>124991.0815140366</v>
+        <v>124469.6924753858</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8799963429687413</v>
+        <v>-1.293466510534241</v>
       </c>
     </row>
     <row r="13">
@@ -10327,10 +10327,10 @@
         <v>116158.5188728069</v>
       </c>
       <c r="C13" t="n">
-        <v>114226.8642333573</v>
+        <v>113103.9882510568</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.662947029795323</v>
+        <v>-2.629622563537336</v>
       </c>
     </row>
     <row r="14">
@@ -10343,10 +10343,10 @@
         <v>28460.98512839308</v>
       </c>
       <c r="C14" t="n">
-        <v>28240.2617246948</v>
+        <v>28091.82150385574</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7755297390534823</v>
+        <v>-1.297086600734217</v>
       </c>
     </row>
     <row r="15">
@@ -10359,10 +10359,10 @@
         <v>11764.370195582</v>
       </c>
       <c r="C15" t="n">
-        <v>11745.05687595976</v>
+        <v>11743.05406989813</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.16416790105337</v>
+        <v>-0.181192238339046</v>
       </c>
     </row>
     <row r="16">
@@ -10375,10 +10375,10 @@
         <v>6241.96478553941</v>
       </c>
       <c r="C16" t="n">
-        <v>6201.941410334201</v>
+        <v>6175.649988425263</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6411983498838397</v>
+        <v>-1.062402615083248</v>
       </c>
     </row>
     <row r="17">
@@ -10391,10 +10391,10 @@
         <v>41897.22041143459</v>
       </c>
       <c r="C17" t="n">
-        <v>41569.61532798581</v>
+        <v>41263.28054752584</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7819255793860874</v>
+        <v>-1.513083344630972</v>
       </c>
     </row>
   </sheetData>

--- a/shocked_variables.xlsx
+++ b/shocked_variables.xlsx
@@ -488,10 +488,10 @@
         <v>1716192.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1679494.023651754</v>
+        <v>1709036.900545997</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.138365771910459</v>
+        <v>-0.4169460038402711</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         <v>154636.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>148580.2455578162</v>
+        <v>152645.1574556588</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.916438535203887</v>
+        <v>-1.287749837597991</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>3242974.18102503</v>
       </c>
       <c r="C4" t="n">
-        <v>3187252.896978998</v>
+        <v>3232150.143298061</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.718215469369533</v>
+        <v>-0.3337688529961642</v>
       </c>
     </row>
     <row r="5">
@@ -536,10 +536,10 @@
         <v>519331.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>510614.4882128712</v>
+        <v>517533.958002577</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.678449835511153</v>
+        <v>-0.3460689263415824</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         <v>1321086.417788376</v>
       </c>
       <c r="C6" t="n">
-        <v>1301235.669632899</v>
+        <v>1316464.196632894</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.502607845193715</v>
+        <v>-0.3498803025482553</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>2762815.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>2720726.537788706</v>
+        <v>2755636.254338639</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.523408325303361</v>
+        <v>-0.2598524866628507</v>
       </c>
     </row>
     <row r="8">
@@ -584,10 +584,10 @@
         <v>666749.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>655123.4235711477</v>
+        <v>664381.9203863296</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.743638544341021</v>
+        <v>-0.3550357606858793</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>352280.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>344922.7954895602</v>
+        <v>351378.625441562</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.088525373130709</v>
+        <v>-0.2559418535530788</v>
       </c>
     </row>
     <row r="10">
@@ -616,10 +616,10 @@
         <v>472989.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>466209.4006201848</v>
+        <v>471651.9533704693</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.433527845719797</v>
+        <v>-0.2828577318278647</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1344792.707611407</v>
       </c>
       <c r="C11" t="n">
-        <v>1329491.352598511</v>
+        <v>1341486.249370957</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.137822574906246</v>
+        <v>-0.2458712202806898</v>
       </c>
     </row>
     <row r="12">
@@ -648,10 +648,10 @@
         <v>1086830.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1072977.541985418</v>
+        <v>1084296.540886365</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.274633187047437</v>
+        <v>-0.2331646802754639</v>
       </c>
     </row>
     <row r="13">
@@ -664,10 +664,10 @@
         <v>1143812.989778033</v>
       </c>
       <c r="C13" t="n">
-        <v>1141599.102873786</v>
+        <v>1143109.165785903</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1935532227760848</v>
+        <v>-0.06153313508591381</v>
       </c>
     </row>
     <row r="14">
@@ -680,10 +680,10 @@
         <v>712160.1110237867</v>
       </c>
       <c r="C14" t="n">
-        <v>703530.9473042596</v>
+        <v>710149.851779693</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.211688718021846</v>
+        <v>-0.2822763045804074</v>
       </c>
     </row>
     <row r="15">
@@ -696,10 +696,10 @@
         <v>722157.2634633619</v>
       </c>
       <c r="C15" t="n">
-        <v>707000.4513882449</v>
+        <v>718887.5052439256</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.098824292430037</v>
+        <v>-0.4527764774884336</v>
       </c>
     </row>
     <row r="16">
@@ -712,10 +712,10 @@
         <v>298161.0429722404</v>
       </c>
       <c r="C16" t="n">
-        <v>293978.2988880436</v>
+        <v>297253.8220613503</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.402847280952874</v>
+        <v>-0.3042721147761108</v>
       </c>
     </row>
     <row r="17">
@@ -728,10 +728,10 @@
         <v>363863.9942526534</v>
       </c>
       <c r="C17" t="n">
-        <v>360437.796192697</v>
+        <v>363158.6371720039</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.941615030361412</v>
+        <v>-0.193851848985023</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +785,10 @@
         <v>3450957.802370132</v>
       </c>
       <c r="C2" t="n">
-        <v>3381416.343678859</v>
+        <v>3437419.69705328</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.01513500522991</v>
+        <v>-0.3922999379347301</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +801,10 @@
         <v>482919.8310003763</v>
       </c>
       <c r="C3" t="n">
-        <v>474261.7494139427</v>
+        <v>481076.5754801991</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.792861056978811</v>
+        <v>-0.3816897550798145</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>13829988.52652916</v>
       </c>
       <c r="C4" t="n">
-        <v>13629849.14850874</v>
+        <v>13790747.84763403</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.44714059333094</v>
+        <v>-0.2837361637708825</v>
       </c>
     </row>
     <row r="5">
@@ -833,10 +833,10 @@
         <v>897254.4002150299</v>
       </c>
       <c r="C5" t="n">
-        <v>882194.4380102039</v>
+        <v>894149.2822857755</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.678449523481512</v>
+        <v>-0.3460688438541259</v>
       </c>
     </row>
     <row r="6">
@@ -849,10 +849,10 @@
         <v>3009042.214440523</v>
       </c>
       <c r="C6" t="n">
-        <v>2963936.707893983</v>
+        <v>2998543.547731861</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.498998795366742</v>
+        <v>-0.3489039355539166</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4383731.161583323</v>
       </c>
       <c r="C7" t="n">
-        <v>4317954.808963309</v>
+        <v>4372217.754376423</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.500465019306904</v>
+        <v>-0.2626394453153917</v>
       </c>
     </row>
     <row r="8">
@@ -881,10 +881,10 @@
         <v>1665526.087146317</v>
       </c>
       <c r="C8" t="n">
-        <v>1639949.989569467</v>
+        <v>1660448.136765859</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.535616750420959</v>
+        <v>-0.304885670638683</v>
       </c>
     </row>
     <row r="9">
@@ -897,10 +897,10 @@
         <v>1247668.798003208</v>
       </c>
       <c r="C9" t="n">
-        <v>1229423.544453075</v>
+        <v>1244644.33879178</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.462347505951302</v>
+        <v>-0.2424088200545357</v>
       </c>
     </row>
     <row r="10">
@@ -913,10 +913,10 @@
         <v>819039.8384011268</v>
       </c>
       <c r="C10" t="n">
-        <v>807889.6168978931</v>
+        <v>816849.1395739133</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.361377185876617</v>
+        <v>-0.2674715837376144</v>
       </c>
     </row>
     <row r="11">
@@ -929,10 +929,10 @@
         <v>2819310.646765826</v>
       </c>
       <c r="C11" t="n">
-        <v>2786301.681904768</v>
+        <v>2812299.653537004</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.170816876775336</v>
+        <v>-0.2486775707694438</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +945,10 @@
         <v>1650491.778729892</v>
       </c>
       <c r="C12" t="n">
-        <v>1629429.153579812</v>
+        <v>1646581.021336774</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.276142385046516</v>
+        <v>-0.236944978673414</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>1285246.074292473</v>
       </c>
       <c r="C13" t="n">
-        <v>1271406.488890673</v>
+        <v>1282413.236572456</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.076804331763405</v>
+        <v>-0.220412088912734</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
         <v>1283357.657219289</v>
       </c>
       <c r="C14" t="n">
-        <v>1267774.481832668</v>
+        <v>1279765.254816564</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.214250392239503</v>
+        <v>-0.2799221543984184</v>
       </c>
     </row>
     <row r="15">
@@ -993,10 +993,10 @@
         <v>806616.9594252668</v>
       </c>
       <c r="C15" t="n">
-        <v>790929.4409794027</v>
+        <v>803274.4864596088</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.944853534575049</v>
+        <v>-0.4143816871938385</v>
       </c>
     </row>
     <row r="16">
@@ -1009,10 +1009,10 @@
         <v>457402.8571253931</v>
       </c>
       <c r="C16" t="n">
-        <v>451036.6750320556</v>
+        <v>456031.5922229264</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.391810740612032</v>
+        <v>-0.299793689764997</v>
       </c>
     </row>
     <row r="17">
@@ -1025,10 +1025,10 @@
         <v>594553.9771915111</v>
       </c>
       <c r="C17" t="n">
-        <v>588513.6712053715</v>
+        <v>593338.1065780014</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.015939043023833</v>
+        <v>-0.2045013001600072</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1082,10 @@
         <v>3372602.435199078</v>
       </c>
       <c r="C2" t="n">
-        <v>3302656.680646027</v>
+        <v>3358979.43338961</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.073940106994049</v>
+        <v>-0.4039314467453348</v>
       </c>
     </row>
     <row r="3">
@@ -1098,10 +1098,10 @@
         <v>165130.445609969</v>
       </c>
       <c r="C3" t="n">
-        <v>159807.3566909749</v>
+        <v>163496.7754741454</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.223566011301739</v>
+        <v>-0.9893209757831459</v>
       </c>
     </row>
     <row r="4">
@@ -1114,10 +1114,10 @@
         <v>8017599.612171117</v>
       </c>
       <c r="C4" t="n">
-        <v>7888262.462696049</v>
+        <v>7992397.155473204</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.613165482580692</v>
+        <v>-0.3143391777715402</v>
       </c>
     </row>
     <row r="5">
@@ -1130,10 +1130,10 @@
         <v>897254.3977899103</v>
       </c>
       <c r="C5" t="n">
-        <v>882194.4356198636</v>
+        <v>894149.2798675013</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.67844952414187</v>
+        <v>-0.3460688440265552</v>
       </c>
     </row>
     <row r="6">
@@ -1146,10 +1146,10 @@
         <v>3005294.609814465</v>
       </c>
       <c r="C6" t="n">
-        <v>2960184.781048028</v>
+        <v>2994792.738373428</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.5010118681583</v>
+        <v>-0.3494456552359528</v>
       </c>
     </row>
     <row r="7">
@@ -1162,10 +1162,10 @@
         <v>4365278.370174446</v>
       </c>
       <c r="C7" t="n">
-        <v>4299717.584609725</v>
+        <v>4353820.848726531</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.501869525954232</v>
+        <v>-0.2624694343938663</v>
       </c>
     </row>
     <row r="8">
@@ -1178,10 +1178,10 @@
         <v>1397390.239860752</v>
       </c>
       <c r="C8" t="n">
-        <v>1374615.268515778</v>
+        <v>1392813.214073075</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.6298218418388</v>
+        <v>-0.3275409872716356</v>
       </c>
     </row>
     <row r="9">
@@ -1194,10 +1194,10 @@
         <v>607104.7726796871</v>
       </c>
       <c r="C9" t="n">
-        <v>596162.2227950456</v>
+        <v>605588.6143793815</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.802415394684257</v>
+        <v>-0.2497358559072861</v>
       </c>
     </row>
     <row r="10">
@@ -1210,10 +1210,10 @@
         <v>747302.7328467588</v>
       </c>
       <c r="C10" t="n">
-        <v>737003.5664488518</v>
+        <v>745277.1651381725</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.378178607573605</v>
+        <v>-0.2710504885844842</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         <v>2698896.038135583</v>
       </c>
       <c r="C11" t="n">
-        <v>2667940.614033544</v>
+        <v>2692239.318921755</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.146966154480827</v>
+        <v>-0.24664600339428</v>
       </c>
     </row>
     <row r="12">
@@ -1242,10 +1242,10 @@
         <v>1524391.011590432</v>
       </c>
       <c r="C12" t="n">
-        <v>1504959.458669968</v>
+        <v>1520833.765797649</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.274709229634601</v>
+        <v>-0.2333552064880985</v>
       </c>
     </row>
     <row r="13">
@@ -1258,10 +1258,10 @@
         <v>1169087.550664374</v>
       </c>
       <c r="C13" t="n">
-        <v>1158310.339297818</v>
+        <v>1166840.140476436</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.9218480994371723</v>
+        <v>-0.192236260377624</v>
       </c>
     </row>
     <row r="14">
@@ -1274,10 +1274,10 @@
         <v>1254896.669123307</v>
       </c>
       <c r="C14" t="n">
-        <v>1239682.66245385</v>
+        <v>1251362.255107823</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.212371268790307</v>
+        <v>-0.2816498045176298</v>
       </c>
     </row>
     <row r="15">
@@ -1290,10 +1290,10 @@
         <v>794852.5872857772</v>
       </c>
       <c r="C15" t="n">
-        <v>779187.3233640892</v>
+        <v>791507.9325469902</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.970838891671841</v>
+        <v>-0.4207893126709368</v>
       </c>
     </row>
     <row r="16">
@@ -1306,10 +1306,10 @@
         <v>451160.8912917899</v>
       </c>
       <c r="C16" t="n">
-        <v>444861.0413905585</v>
+        <v>449800.0128642702</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.396364361989192</v>
+        <v>-0.3016392718843808</v>
       </c>
     </row>
     <row r="17">
@@ -1322,10 +1322,10 @@
         <v>552656.7553519364</v>
       </c>
       <c r="C17" t="n">
-        <v>547250.6713119186</v>
+        <v>551556.5185221934</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9781992145513826</v>
+        <v>-0.1990814043415396</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9875210612957764</v>
+        <v>0.9975959979365479</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.247893870422356</v>
+        <v>-0.2404002063452149</v>
       </c>
     </row>
     <row r="3">
@@ -1395,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9884855980487723</v>
+        <v>0.9978287296686278</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.151440195122766</v>
+        <v>-0.217127033137221</v>
       </c>
     </row>
   </sheetData>
@@ -1452,10 +1452,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.01764874470222</v>
+        <v>1.003433063549422</v>
       </c>
       <c r="D2" t="n">
-        <v>1.764874470221978</v>
+        <v>0.343306354942241</v>
       </c>
     </row>
     <row r="3">
@@ -1468,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.010379788365968</v>
+        <v>1.004439561422842</v>
       </c>
       <c r="D3" t="n">
-        <v>1.037978836596798</v>
+        <v>0.4439561422842297</v>
       </c>
     </row>
     <row r="4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9967734961111857</v>
+        <v>0.999326616465651</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3226503888814292</v>
+        <v>-0.06733835343489813</v>
       </c>
     </row>
     <row r="5">
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.01289760133247</v>
+        <v>1.003329126252292</v>
       </c>
       <c r="D5" t="n">
-        <v>1.289760133246975</v>
+        <v>0.332912625229187</v>
       </c>
     </row>
     <row r="6">
@@ -1516,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.017067750236167</v>
+        <v>1.004647539668862</v>
       </c>
       <c r="D6" t="n">
-        <v>1.706775023616669</v>
+        <v>0.4647539668862111</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.001730927044019</v>
+        <v>0.9996818442433286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1730927044019337</v>
+        <v>-0.03181557566713789</v>
       </c>
     </row>
     <row r="8">
@@ -1548,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.005337622668616</v>
+        <v>1.001232219854814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5337622668615705</v>
+        <v>0.1232219854814476</v>
       </c>
     </row>
     <row r="9">
@@ -1564,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.003549515083931</v>
+        <v>1.000071767791767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3549515083931309</v>
+        <v>0.007176779176720771</v>
       </c>
     </row>
     <row r="10">
@@ -1580,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.002453240304717</v>
+        <v>1.000485338453492</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2453240304716831</v>
+        <v>0.04853384534915239</v>
       </c>
     </row>
     <row r="11">
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9967210744442813</v>
+        <v>0.9998391992798725</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3278925555718737</v>
+        <v>-0.01608007201274742</v>
       </c>
     </row>
     <row r="12">
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.000033278518146</v>
+        <v>0.9997177685669295</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003327851814582949</v>
+        <v>-0.028223143307049</v>
       </c>
     </row>
     <row r="13">
@@ -1628,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9923315167996848</v>
+        <v>0.9986060872637877</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7668483200315213</v>
+        <v>-0.1393912736212255</v>
       </c>
     </row>
     <row r="14">
@@ -1644,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994769117980057</v>
+        <v>1.000543614651323</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0523088201994315</v>
+        <v>0.05436146513229101</v>
       </c>
     </row>
     <row r="15">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.009764835562215</v>
+        <v>1.002384985035941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9764835562215302</v>
+        <v>0.2384985035940979</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.002593891673157</v>
+        <v>1.001006842945687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2593891673156934</v>
+        <v>0.1006842945686648</v>
       </c>
     </row>
     <row r="17">
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9960859160228244</v>
+        <v>0.9994681231367621</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3914083977175631</v>
+        <v>-0.05318768632378568</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.012888503425395</v>
+        <v>1.002506203953406</v>
       </c>
       <c r="D2" t="n">
-        <v>1.288850342539494</v>
+        <v>0.2506203953405839</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.007565215858179</v>
+        <v>1.003140636089376</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7565215858178709</v>
+        <v>0.3140636089376203</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001471659943139</v>
+        <v>1.000267708788633</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1471659943138581</v>
+        <v>0.02677087886326923</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.008459585337691</v>
+        <v>1.002179165174618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8459585337690534</v>
+        <v>0.2179165174618358</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0081964600106</v>
+        <v>1.002180180997203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8196460010599926</v>
+        <v>0.218018099720263</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.001584211242072</v>
+        <v>0.9998106418573033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1584211242072309</v>
+        <v>-0.01893581426967161</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.002393137992771</v>
+        <v>1.000567857211097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2393137992770633</v>
+        <v>0.05678572110974223</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.001906954629225</v>
+        <v>1.000040423706557</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1906954629224744</v>
+        <v>0.004042370655743532</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000691565410611</v>
+        <v>1.000145648997455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06915654106107727</v>
+        <v>0.01456489974547281</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9972214219701835</v>
+        <v>0.9997654641907971</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2778578029816514</v>
+        <v>-0.02345358092028516</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999905383228369</v>
+        <v>0.9997654762317845</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.009461677163102866</v>
+        <v>-0.02345237682155332</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9949810899267504</v>
+        <v>0.9990916556711152</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5018910073249616</v>
+        <v>-0.09083443288847581</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9995745861811991</v>
+        <v>1.000387470345418</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04254138188009016</v>
+        <v>0.03874703454176398</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.008427909209537</v>
+        <v>1.002044942970592</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8427909209536733</v>
+        <v>0.2044942970592212</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001659094276783</v>
+        <v>1.00066503864171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1659094276782902</v>
+        <v>0.06650386417099696</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9974797139173799</v>
+        <v>0.9996408545690698</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2520286082620116</v>
+        <v>-0.03591454309301856</v>
       </c>
     </row>
   </sheetData>
@@ -2046,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.012917769932079</v>
+        <v>1.002513169678769</v>
       </c>
       <c r="D2" t="n">
-        <v>1.291776993207905</v>
+        <v>0.2513169678768579</v>
       </c>
     </row>
     <row r="3">
@@ -2062,10 +2062,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.003798874193214</v>
+        <v>1.001587163583333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3798874193213786</v>
+        <v>0.1587163583333329</v>
       </c>
     </row>
     <row r="4">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.001162373313975</v>
+        <v>1.000211682707739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1162373313974507</v>
+        <v>0.02116827077385253</v>
       </c>
     </row>
     <row r="5">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.008459584605764</v>
+        <v>1.002179163276779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.845958460576357</v>
+        <v>0.2179163276778695</v>
       </c>
     </row>
     <row r="6">
@@ -2110,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.008194357746622</v>
+        <v>1.002179674582513</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8194357746621916</v>
+        <v>0.217967458251267</v>
       </c>
     </row>
     <row r="7">
@@ -2126,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.001686594436929</v>
+        <v>0.9997983751000455</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1686594436928646</v>
+        <v>-0.02016248999544556</v>
       </c>
     </row>
     <row r="8">
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.00249362696532</v>
+        <v>1.00059217731641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2493626965320184</v>
+        <v>0.05921773164103694</v>
       </c>
     </row>
     <row r="9">
@@ -2158,10 +2158,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.001636849992205</v>
+        <v>1.000034803458418</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636849992204814</v>
+        <v>0.003480345841810895</v>
       </c>
     </row>
     <row r="10">
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000887235184117</v>
+        <v>1.000186910108214</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08872351841169301</v>
+        <v>0.01869101082141444</v>
       </c>
     </row>
     <row r="11">
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9972956212949359</v>
+        <v>0.9997717599870428</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2704378705064125</v>
+        <v>-0.02282400129571815</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999122537008962</v>
+        <v>0.9997825065597885</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008774629910379694</v>
+        <v>-0.02174934402114914</v>
       </c>
     </row>
     <row r="13">
@@ -2222,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9921203466088752</v>
+        <v>0.9985790740767083</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7879653391124841</v>
+        <v>-0.1420925923291683</v>
       </c>
     </row>
     <row r="14">
@@ -2238,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9995806377021613</v>
+        <v>1.000381944692007</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04193622978386768</v>
+        <v>0.03819446920065861</v>
       </c>
     </row>
     <row r="15">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.008953129550731</v>
+        <v>1.002173676515266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8953129550731465</v>
+        <v>0.2173676515266454</v>
       </c>
     </row>
     <row r="16">
@@ -2270,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001668892972801</v>
+        <v>1.000668987455772</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1668892972801039</v>
+        <v>0.06689874557717079</v>
       </c>
     </row>
     <row r="17">
@@ -2286,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9974856023964931</v>
+        <v>0.9996418068498637</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2514397603506913</v>
+        <v>-0.03581931501362989</v>
       </c>
     </row>
   </sheetData>
@@ -2937,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.013221858162932</v>
+        <v>1.002571710821535</v>
       </c>
       <c r="D2" t="n">
-        <v>1.322185816293175</v>
+        <v>0.2571710821535067</v>
       </c>
     </row>
     <row r="3">
@@ -2953,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.011191539706394</v>
+        <v>1.004655849230264</v>
       </c>
       <c r="D3" t="n">
-        <v>1.119153970639353</v>
+        <v>0.4655849230264186</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.002006736141547</v>
+        <v>1.00036520384485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2006736141547449</v>
+        <v>0.03652038448498374</v>
       </c>
     </row>
     <row r="5">
@@ -2985,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.00845958693451</v>
+        <v>1.002179165588523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8459586934509655</v>
+        <v>0.2179165588523269</v>
       </c>
     </row>
     <row r="6">
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.008204628002891</v>
+        <v>1.002182366616491</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8204628002890901</v>
+        <v>0.218236661649085</v>
       </c>
     </row>
     <row r="7">
@@ -3017,10 +3017,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.001693738498816</v>
+        <v>0.9997975254271683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16937384988156</v>
+        <v>-0.02024745728317345</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.002973538385264</v>
+        <v>1.000705889721192</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2973538385264041</v>
+        <v>0.07058897211920101</v>
       </c>
     </row>
     <row r="9">
@@ -3049,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1.003369737579507</v>
+        <v>1.000071534090959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3369737579506982</v>
+        <v>0.007153409095872476</v>
       </c>
     </row>
     <row r="10">
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1.00097249127277</v>
+        <v>1.000204859546121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0972491272769771</v>
+        <v>0.0204859546121483</v>
       </c>
     </row>
     <row r="11">
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9971753053232363</v>
+        <v>0.999761581630183</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2824694676763717</v>
+        <v>-0.02384183698169728</v>
       </c>
     </row>
     <row r="12">
@@ -3097,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999049981429085</v>
+        <v>0.9997645215978131</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.009500185709154785</v>
+        <v>-0.02354784021868506</v>
       </c>
     </row>
     <row r="13">
@@ -3113,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9913442185831084</v>
+        <v>0.9984381179011519</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.8655781416891606</v>
+        <v>-0.1561882098848111</v>
       </c>
     </row>
     <row r="14">
@@ -3129,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9995711330318778</v>
+        <v>1.00039061292532</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04288669681221657</v>
+        <v>0.03906129253203883</v>
       </c>
     </row>
     <row r="15">
@@ -3145,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.00908684867385</v>
+        <v>1.002205921856739</v>
       </c>
       <c r="D15" t="n">
-        <v>0.908684867384979</v>
+        <v>0.2205921856738957</v>
       </c>
     </row>
     <row r="16">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.001692024071506</v>
+        <v>1.000678251727647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1692024071506371</v>
+        <v>0.06782517276471278</v>
       </c>
     </row>
     <row r="17">
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9972955025984073</v>
+        <v>0.9996146650719153</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2704497401592731</v>
+        <v>-0.03853349280846796</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3279,10 @@
         <v>1135500.496578688</v>
       </c>
       <c r="C2" t="n">
-        <v>1145120.862153789</v>
+        <v>1137382.333899129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8472356995076447</v>
+        <v>0.1657275647268704</v>
       </c>
     </row>
     <row r="3">
@@ -3295,10 +3295,10 @@
         <v>131043.4885862961</v>
       </c>
       <c r="C3" t="n">
-        <v>128825.7922031036</v>
+        <v>130243.3653960904</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.692336190921931</v>
+        <v>-0.6105783651194646</v>
       </c>
     </row>
     <row r="4">
@@ -3311,10 +3311,10 @@
         <v>2283937.65102503</v>
       </c>
       <c r="C4" t="n">
-        <v>2265726.021013728</v>
+        <v>2280263.503936558</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7973785975781162</v>
+        <v>-0.1608689749837659</v>
       </c>
     </row>
     <row r="5">
@@ -3327,10 +3327,10 @@
         <v>426893.2019172087</v>
       </c>
       <c r="C5" t="n">
-        <v>430513.8542588447</v>
+        <v>427860.6982966186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8481400793864735</v>
+        <v>0.2266366330184738</v>
       </c>
     </row>
     <row r="6">
@@ -3343,10 +3343,10 @@
         <v>744992.4177883761</v>
       </c>
       <c r="C6" t="n">
-        <v>755753.3862049803</v>
+        <v>747633.4159604355</v>
       </c>
       <c r="D6" t="n">
-        <v>1.444439991557202</v>
+        <v>0.3545000068456575</v>
       </c>
     </row>
     <row r="7">
@@ -3359,10 +3359,10 @@
         <v>1787008.499114996</v>
       </c>
       <c r="C7" t="n">
-        <v>1785107.367846388</v>
+        <v>1786091.611354791</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1063862465986968</v>
+        <v>-0.05130852822801401</v>
       </c>
     </row>
     <row r="8">
@@ -3375,10 +3375,10 @@
         <v>425529.1181899618</v>
       </c>
       <c r="C8" t="n">
-        <v>425652.8344616852</v>
+        <v>425563.877903322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02907351493350901</v>
+        <v>0.008168586325673641</v>
       </c>
     </row>
     <row r="9">
@@ -3391,10 +3391,10 @@
         <v>224861.258063752</v>
       </c>
       <c r="C9" t="n">
-        <v>223738.4711974694</v>
+        <v>224842.3619866795</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4993242837608999</v>
+        <v>-0.008403438295796397</v>
       </c>
     </row>
     <row r="10">
@@ -3407,10 +3407,10 @@
         <v>316229.8417085022</v>
       </c>
       <c r="C10" t="n">
-        <v>316409.7230699391</v>
+        <v>316248.6679777774</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05688310769947092</v>
+        <v>0.005953349998041443</v>
       </c>
     </row>
     <row r="11">
@@ -3423,10 +3423,10 @@
         <v>917723.7076114072</v>
       </c>
       <c r="C11" t="n">
-        <v>915734.1211016022</v>
+        <v>917525.8152865715</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.216795806112856</v>
+        <v>-0.0215633881084652</v>
       </c>
     </row>
     <row r="12">
@@ -3439,10 +3439,10 @@
         <v>1029993.646087451</v>
       </c>
       <c r="C12" t="n">
-        <v>1029749.019910669</v>
+        <v>1029777.633470422</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02375026076241435</v>
+        <v>-0.02097222811511666</v>
       </c>
     </row>
     <row r="13">
@@ -3455,10 +3455,10 @@
         <v>418612.9897780325</v>
       </c>
       <c r="C13" t="n">
-        <v>419837.9697597931</v>
+        <v>418778.9987326165</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2926282775912167</v>
+        <v>0.03965690473962208</v>
       </c>
     </row>
     <row r="14">
@@ -3471,10 +3471,10 @@
         <v>99793.11102378671</v>
       </c>
       <c r="C14" t="n">
-        <v>99777.47809916209</v>
+        <v>99805.44708368478</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01566533447473202</v>
+        <v>0.01236163475765863</v>
       </c>
     </row>
     <row r="15">
@@ -3487,10 +3487,10 @@
         <v>162559.2634633618</v>
       </c>
       <c r="C15" t="n">
-        <v>162732.2038346384</v>
+        <v>162600.0702508445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1063860450595693</v>
+        <v>0.02510271430447502</v>
       </c>
     </row>
     <row r="16">
@@ -3503,10 +3503,10 @@
         <v>213874.0429722403</v>
       </c>
       <c r="C16" t="n">
-        <v>214092.3456117045</v>
+        <v>213952.3080480089</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1020706563687778</v>
+        <v>0.03659400396652787</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>265197.5242526537</v>
       </c>
       <c r="C17" t="n">
-        <v>264978.807434249</v>
+        <v>265180.1485781964</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08247317504981813</v>
+        <v>-0.006551974610719017</v>
       </c>
     </row>
     <row r="18">
@@ -3535,10 +3535,10 @@
         <v>580692</v>
       </c>
       <c r="C18" t="n">
-        <v>585040.4061926545</v>
+        <v>581518.702718728</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7488317718609023</v>
+        <v>0.142365095218806</v>
       </c>
     </row>
     <row r="19">
@@ -3551,10 +3551,10 @@
         <v>23593</v>
       </c>
       <c r="C19" t="n">
-        <v>23171.09532865629</v>
+        <v>23443.47705735428</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.788262074953219</v>
+        <v>-0.6337597704646252</v>
       </c>
     </row>
     <row r="20">
@@ -3567,10 +3567,10 @@
         <v>959036.53</v>
       </c>
       <c r="C20" t="n">
-        <v>950461.0386735961</v>
+        <v>957270.4136914896</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.8941777563367602</v>
+        <v>-0.1841552697174549</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3583,10 @@
         <v>92438</v>
       </c>
       <c r="C21" t="n">
-        <v>93131.04028820874</v>
+        <v>92625.88943922882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7497352692710102</v>
+        <v>0.2032599571916531</v>
       </c>
     </row>
     <row r="22">
@@ -3599,10 +3599,10 @@
         <v>576094</v>
       </c>
       <c r="C22" t="n">
-        <v>583845.0758987084</v>
+        <v>578001.4098362901</v>
       </c>
       <c r="D22" t="n">
-        <v>1.345453328572842</v>
+        <v>0.3310935084014163</v>
       </c>
     </row>
     <row r="23">
@@ -3615,10 +3615,10 @@
         <v>975807</v>
       </c>
       <c r="C23" t="n">
-        <v>973817.7232019479</v>
+        <v>975078.8491413385</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2038596564742958</v>
+        <v>-0.07462037663815786</v>
       </c>
     </row>
     <row r="24">
@@ -3631,10 +3631,10 @@
         <v>241220</v>
       </c>
       <c r="C24" t="n">
-        <v>241054.6869339684</v>
+        <v>241183.4379603594</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06853207280969695</v>
+        <v>-0.01515713441694614</v>
       </c>
     </row>
     <row r="25">
@@ -3647,10 +3647,10 @@
         <v>127419</v>
       </c>
       <c r="C25" t="n">
-        <v>126659.0548941364</v>
+        <v>127378.5759478803</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5964142756289469</v>
+        <v>-0.03172529380998896</v>
       </c>
     </row>
     <row r="26">
@@ -3663,10 +3663,10 @@
         <v>156760</v>
       </c>
       <c r="C26" t="n">
-        <v>156696.1209021608</v>
+        <v>156732.7678815647</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04074961587087084</v>
+        <v>-0.01737185406694919</v>
       </c>
     </row>
     <row r="27">
@@ -3679,10 +3679,10 @@
         <v>427069</v>
       </c>
       <c r="C27" t="n">
-        <v>425727.3137029519</v>
+        <v>426877.3221473793</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3141614814112141</v>
+        <v>-0.04488217422024585</v>
       </c>
     </row>
     <row r="28">
@@ -3695,10 +3695,10 @@
         <v>56837</v>
       </c>
       <c r="C28" t="n">
-        <v>56768.0542724317</v>
+        <v>56811.8262378764</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1213043045345491</v>
+        <v>-0.04429115210796224</v>
       </c>
     </row>
     <row r="29">
@@ -3711,10 +3711,10 @@
         <v>725200</v>
       </c>
       <c r="C29" t="n">
-        <v>726612.4395542383</v>
+        <v>725318.3804856472</v>
       </c>
       <c r="D29" t="n">
-        <v>0.194765520441029</v>
+        <v>0.01632383971969685</v>
       </c>
     </row>
     <row r="30">
@@ -3727,10 +3727,10 @@
         <v>612367</v>
       </c>
       <c r="C30" t="n">
-        <v>611673.6335800954</v>
+        <v>612299.8535667564</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1132272672930828</v>
+        <v>-0.01096506396387206</v>
       </c>
     </row>
     <row r="31">
@@ -3743,10 +3743,10 @@
         <v>559598</v>
       </c>
       <c r="C31" t="n">
-        <v>559646.7131060667</v>
+        <v>559607.9219180749</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008705017899757868</v>
+        <v>0.001773043877024157</v>
       </c>
     </row>
     <row r="32">
@@ -3759,10 +3759,10 @@
         <v>84287</v>
       </c>
       <c r="C32" t="n">
-        <v>84290.70343595892</v>
+        <v>84298.17784974385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004393840045221789</v>
+        <v>0.01326165333188979</v>
       </c>
     </row>
     <row r="33">
@@ -3775,10 +3775,10 @@
         <v>98666.46999999974</v>
       </c>
       <c r="C33" t="n">
-        <v>98488.90003422021</v>
+        <v>98636.99412028832</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1799699186355146</v>
+        <v>-0.02987426195689294</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3820,10 @@
         <v>2685479.873327278</v>
       </c>
       <c r="B2" t="n">
-        <v>2652934.1773802</v>
+        <v>2679257.117548272</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.211913605100094</v>
+        <v>-0.2317185781510474</v>
       </c>
     </row>
   </sheetData>
@@ -3865,10 +3865,10 @@
         <v>129988.6072602831</v>
       </c>
       <c r="B2" t="n">
-        <v>128298.028316509</v>
+        <v>129660.7558598523</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.300559317778461</v>
+        <v>-0.2522154882191596</v>
       </c>
     </row>
   </sheetData>
@@ -3910,10 +3910,10 @@
         <v>945269.9536134986</v>
       </c>
       <c r="B2" t="n">
-        <v>933814.0984407334</v>
+        <v>943079.5875172965</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.21191360510008</v>
+        <v>-0.2317185781510249</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3967,10 @@
         <v>46424</v>
       </c>
       <c r="C2" t="n">
-        <v>46016.82634734525</v>
+        <v>46346.29989112214</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8770757639469812</v>
+        <v>-0.1673705602228662</v>
       </c>
     </row>
     <row r="3">
@@ -3983,10 +3983,10 @@
         <v>8686</v>
       </c>
       <c r="C3" t="n">
-        <v>8408.956064641212</v>
+        <v>8601.074321623644</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.189545652300116</v>
+        <v>-0.9777305822744162</v>
       </c>
     </row>
     <row r="4">
@@ -3999,10 +3999,10 @@
         <v>245357</v>
       </c>
       <c r="C4" t="n">
-        <v>241496.1159715267</v>
+        <v>244603.5397471215</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.57357810393563</v>
+        <v>-0.307087326988209</v>
       </c>
     </row>
     <row r="5">
@@ -4015,10 +4015,10 @@
         <v>37699</v>
       </c>
       <c r="C5" t="n">
-        <v>37379.80622705995</v>
+        <v>37650.40351962802</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.8466902913606527</v>
+        <v>-0.1289065502320386</v>
       </c>
     </row>
     <row r="6">
@@ -4031,10 +4031,10 @@
         <v>52755</v>
       </c>
       <c r="C6" t="n">
-        <v>52388.20613897595</v>
+        <v>52685.03367849888</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6952779092484984</v>
+        <v>-0.132625005214907</v>
       </c>
     </row>
     <row r="7">
@@ -4047,10 +4047,10 @@
         <v>474489</v>
       </c>
       <c r="C7" t="n">
-        <v>468000.8345590408</v>
+        <v>473166.4136519749</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.367400601691339</v>
+        <v>-0.2787390957482829</v>
       </c>
     </row>
     <row r="8">
@@ -4063,10 +4063,10 @@
         <v>31090</v>
       </c>
       <c r="C8" t="n">
-        <v>30621.00812329844</v>
+        <v>30997.21138226588</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.508497512710052</v>
+        <v>-0.2984516491930428</v>
       </c>
     </row>
     <row r="9">
@@ -4079,10 +4079,10 @@
         <v>51009</v>
       </c>
       <c r="C9" t="n">
-        <v>50038.90439386123</v>
+        <v>50880.50331531736</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.901812633336803</v>
+        <v>-0.2519098290157336</v>
       </c>
     </row>
     <row r="10">
@@ -4095,10 +4095,10 @@
         <v>42935</v>
       </c>
       <c r="C10" t="n">
-        <v>42348.78153208317</v>
+        <v>42819.79078420772</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.365362682931955</v>
+        <v>-0.2683340300274406</v>
       </c>
     </row>
     <row r="11">
@@ -4111,10 +4111,10 @@
         <v>153354</v>
       </c>
       <c r="C11" t="n">
-        <v>151187.8458441827</v>
+        <v>152941.0680768791</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.412518849079444</v>
+        <v>-0.2692671355953695</v>
       </c>
     </row>
     <row r="12">
@@ -4127,10 +4127,10 @@
         <v>102842</v>
       </c>
       <c r="C12" t="n">
-        <v>101521.5351889254</v>
+        <v>102578.1461228809</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.283974262533378</v>
+        <v>-0.2565623744376066</v>
       </c>
     </row>
     <row r="13">
@@ -4143,10 +4143,10 @@
         <v>15452</v>
       </c>
       <c r="C13" t="n">
-        <v>15344.69006234423</v>
+        <v>15428.46480002535</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6944728038814996</v>
+        <v>-0.1523116747000677</v>
       </c>
     </row>
     <row r="14">
@@ -4159,10 +4159,10 @@
         <v>55546</v>
       </c>
       <c r="C14" t="n">
-        <v>54849.61167118849</v>
+        <v>55410.66847895047</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.253714630777212</v>
+        <v>-0.2436386437358852</v>
       </c>
     </row>
     <row r="15">
@@ -4175,10 +4175,10 @@
         <v>9450</v>
       </c>
       <c r="C15" t="n">
-        <v>9329.633264190354</v>
+        <v>9426.449836203363</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.27372207205975</v>
+        <v>-0.2492080825040974</v>
       </c>
     </row>
     <row r="16">
@@ -4191,10 +4191,10 @@
         <v>10107</v>
       </c>
       <c r="C16" t="n">
-        <v>9981.74745520223</v>
+        <v>10082.94831112255</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.239265309169581</v>
+        <v>-0.2379706033190142</v>
       </c>
     </row>
     <row r="17">
@@ -4207,10 +4207,10 @@
         <v>47161</v>
       </c>
       <c r="C17" t="n">
-        <v>46599.18491979342</v>
+        <v>47052.67270579463</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.19127049936723</v>
+        <v>-0.2296967710722129</v>
       </c>
     </row>
   </sheetData>
@@ -4264,9 +4264,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4278,9 +4282,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4292,9 +4300,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4306,9 +4318,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4320,9 +4336,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4334,9 +4354,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4348,9 +4372,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4362,9 +4390,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4376,9 +4408,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4390,9 +4426,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4404,9 +4444,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4418,9 +4462,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4432,9 +4480,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4446,9 +4498,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4460,9 +4516,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4474,9 +4534,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>9.4039548065783e-38</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4529,10 +4593,10 @@
         <v>996184.050494849</v>
       </c>
       <c r="C2" t="n">
-        <v>974881.9917338358</v>
+        <v>992030.5009054164</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.138365771910474</v>
+        <v>-0.4169460038402834</v>
       </c>
     </row>
     <row r="3">
@@ -4545,10 +4609,10 @@
         <v>976.8286270496617</v>
       </c>
       <c r="C3" t="n">
-        <v>938.5717342769857</v>
+        <v>964.249517991219</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.916438535203886</v>
+        <v>-1.287749837597987</v>
       </c>
     </row>
     <row r="4">
@@ -4561,10 +4625,10 @@
         <v>1335493.450539227</v>
       </c>
       <c r="C4" t="n">
-        <v>1312546.795479645</v>
+        <v>1331035.989367523</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.718215469369543</v>
+        <v>-0.3337688529961621</v>
       </c>
     </row>
     <row r="5">
@@ -4577,10 +4641,10 @@
         <v>2112.539597468874</v>
       </c>
       <c r="C5" t="n">
-        <v>2077.08168007005</v>
+        <v>2105.228754365373</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.678449835511164</v>
+        <v>-0.3460689263415747</v>
       </c>
     </row>
     <row r="6">
@@ -4593,10 +4657,10 @@
         <v>3120.123852353638</v>
       </c>
       <c r="C6" t="n">
-        <v>3073.240626568411</v>
+        <v>3109.207153579142</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.502607845193738</v>
+        <v>-0.3498803025482708</v>
       </c>
     </row>
     <row r="7">
@@ -4609,10 +4673,10 @@
         <v>13906.41378521889</v>
       </c>
       <c r="C7" t="n">
-        <v>13694.56231986373</v>
+        <v>13870.27762319237</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.52340832530339</v>
+        <v>-0.2598524866628853</v>
       </c>
     </row>
     <row r="8">
@@ -4625,10 +4689,10 @@
         <v>790.3713158162036</v>
       </c>
       <c r="C8" t="n">
-        <v>776.5900969102171</v>
+        <v>787.5652150028527</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.743638544341008</v>
+        <v>-0.3550357606858595</v>
       </c>
     </row>
     <row r="9">
@@ -4641,10 +4705,10 @@
         <v>8004.610860240749</v>
       </c>
       <c r="C9" t="n">
-        <v>7837.432531404245</v>
+        <v>7984.123710835338</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.088525373130705</v>
+        <v>-0.2559418535530811</v>
       </c>
     </row>
     <row r="10">
@@ -4657,10 +4721,10 @@
         <v>567.3164122969201</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1837735533053</v>
+        <v>565.7117139608098</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.433527845719791</v>
+        <v>-0.2828577318278753</v>
       </c>
     </row>
     <row r="11">
@@ -4673,10 +4737,10 @@
         <v>831.6523942152977</v>
       </c>
       <c r="C11" t="n">
-        <v>822.1896655291675</v>
+        <v>829.6076003251469</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.137822574906272</v>
+        <v>-0.2458712202806987</v>
       </c>
     </row>
     <row r="12">
@@ -4689,10 +4753,10 @@
         <v>994.4142883118851</v>
       </c>
       <c r="C12" t="n">
-        <v>981.7391537763202</v>
+        <v>992.0956654159291</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.274633187047439</v>
+        <v>-0.2331646802754671</v>
       </c>
     </row>
     <row r="13">
@@ -4705,10 +4769,10 @@
         <v>2668.348360238089</v>
       </c>
       <c r="C13" t="n">
-        <v>2663.183685991957</v>
+        <v>2666.706441837022</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1935532227760276</v>
+        <v>-0.06153313508587222</v>
       </c>
     </row>
     <row r="14">
@@ -4721,10 +4785,10 @@
         <v>2408.744516456872</v>
       </c>
       <c r="C14" t="n">
-        <v>2379.558030904994</v>
+        <v>2401.945201449034</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.211688718021852</v>
+        <v>-0.2822763045804121</v>
       </c>
     </row>
     <row r="15">
@@ -4737,10 +4801,10 @@
         <v>887.2225417552854</v>
       </c>
       <c r="C15" t="n">
-        <v>868.6012995210102</v>
+        <v>883.2054067832423</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.098824292430042</v>
+        <v>-0.4527764774884525</v>
       </c>
     </row>
     <row r="16">
@@ -4753,10 +4817,10 @@
         <v>769.1315417398619</v>
       </c>
       <c r="C16" t="n">
-        <v>758.3418008196135</v>
+        <v>766.7912889323999</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.402847280952851</v>
+        <v>-0.3042721147761103</v>
       </c>
     </row>
     <row r="17">
@@ -4769,10 +4833,10 @@
         <v>841.3175629623918</v>
       </c>
       <c r="C17" t="n">
-        <v>833.3955903364673</v>
+        <v>839.6866533107533</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9416150303614419</v>
+        <v>-0.1938518489850418</v>
       </c>
     </row>
     <row r="18">
@@ -4785,10 +4849,10 @@
         <v>43.99404506602389</v>
       </c>
       <c r="C18" t="n">
-        <v>43.05329146465316</v>
+        <v>43.81061365319341</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.138365771910473</v>
+        <v>-0.4169460038402666</v>
       </c>
     </row>
     <row r="19">
@@ -4801,10 +4865,10 @@
         <v>24092.79883337583</v>
       </c>
       <c r="C19" t="n">
-        <v>23149.21917565634</v>
+        <v>23782.54385552622</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.916438535203894</v>
+        <v>-1.287749837598001</v>
       </c>
     </row>
     <row r="20">
@@ -4817,10 +4881,10 @@
         <v>386766.2071966509</v>
       </c>
       <c r="C20" t="n">
-        <v>380120.7303943041</v>
+        <v>385475.3020631138</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.718215469369555</v>
+        <v>-0.333768852996191</v>
       </c>
     </row>
     <row r="21">
@@ -4833,10 +4897,10 @@
         <v>25400.93814486871</v>
       </c>
       <c r="C21" t="n">
-        <v>24974.59614035787</v>
+        <v>25313.03339095007</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.678449835511143</v>
+        <v>-0.3460689263415794</v>
       </c>
     </row>
     <row r="22">
@@ -4849,10 +4913,10 @@
         <v>30205.13465254084</v>
       </c>
       <c r="C22" t="n">
-        <v>29751.26992960044</v>
+        <v>30099.45283603342</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.502607845193718</v>
+        <v>-0.3498803025482569</v>
       </c>
     </row>
     <row r="23">
@@ -4865,10 +4929,10 @@
         <v>554.7138472670425</v>
       </c>
       <c r="C23" t="n">
-        <v>546.2632903361658</v>
+        <v>553.2724095410559</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.523408325303362</v>
+        <v>-0.2598524866628527</v>
       </c>
     </row>
     <row r="24">
@@ -4881,10 +4945,10 @@
         <v>60.33259108559908</v>
       </c>
       <c r="C24" t="n">
-        <v>59.28060877263094</v>
+        <v>60.11838881189684</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.74363854434098</v>
+        <v>-0.3550357606858525</v>
       </c>
     </row>
     <row r="25">
@@ -4897,10 +4961,10 @@
         <v>121.3883533638887</v>
       </c>
       <c r="C25" t="n">
-        <v>118.8531268038583</v>
+        <v>121.0776697622915</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.088525373130745</v>
+        <v>-0.2559418535531203</v>
       </c>
     </row>
     <row r="26">
@@ -4913,10 +4977,10 @@
         <v>44.76267229817115</v>
       </c>
       <c r="C26" t="n">
-        <v>44.12098692628857</v>
+        <v>44.636057618603</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.433527845719771</v>
+        <v>-0.2828577318278544</v>
       </c>
     </row>
     <row r="27">
@@ -4929,10 +4993,10 @@
         <v>87.47359940953065</v>
       </c>
       <c r="C27" t="n">
-        <v>86.47830504836594</v>
+        <v>87.25852700323898</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.137822574906262</v>
+        <v>-0.2458712202807044</v>
       </c>
     </row>
     <row r="28">
@@ -4945,10 +5009,10 @@
         <v>619.7676712045622</v>
       </c>
       <c r="C28" t="n">
-        <v>611.8679067847977</v>
+        <v>618.3225918955474</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.274633187047463</v>
+        <v>-0.2331646802754769</v>
       </c>
     </row>
     <row r="29">
@@ -4961,10 +5025,10 @@
         <v>110.111208618299</v>
       </c>
       <c r="C29" t="n">
-        <v>109.8980848253806</v>
+        <v>110.0434537395552</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1935532227760534</v>
+        <v>-0.06153313508589783</v>
       </c>
     </row>
     <row r="30">
@@ -4977,10 +5041,10 @@
         <v>75.57409461921016</v>
       </c>
       <c r="C30" t="n">
-        <v>74.65837184096202</v>
+        <v>75.36076685769893</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.211688718021865</v>
+        <v>-0.2822763045804292</v>
       </c>
     </row>
     <row r="31">
@@ -4993,10 +5057,10 @@
         <v>40.98978434403799</v>
       </c>
       <c r="C31" t="n">
-        <v>40.12948079281063</v>
+        <v>40.80419224235494</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.098824292430054</v>
+        <v>-0.452776477488472</v>
       </c>
     </row>
     <row r="32">
@@ -5009,10 +5073,10 @@
         <v>17.20957189616361</v>
       </c>
       <c r="C32" t="n">
-        <v>16.96814788475466</v>
+        <v>17.15720796781125</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.402847280952823</v>
+        <v>-0.3042721147760605</v>
       </c>
     </row>
     <row r="33">
@@ -5025,10 +5089,10 @@
         <v>28.85883731522917</v>
       </c>
       <c r="C33" t="n">
-        <v>28.58709816548142</v>
+        <v>28.80289392549802</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.9416150303614222</v>
+        <v>-0.193851848985035</v>
       </c>
     </row>
     <row r="34">
@@ -5041,10 +5105,10 @@
         <v>562317.1813914984</v>
       </c>
       <c r="C34" t="n">
-        <v>550292.7832550509</v>
+        <v>559972.6223747792</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.138365771910474</v>
+        <v>-0.4169460038402936</v>
       </c>
     </row>
     <row r="35">
@@ -5057,10 +5121,10 @@
         <v>32889.50558041631</v>
       </c>
       <c r="C35" t="n">
-        <v>31601.40830982685</v>
+        <v>32465.97102571771</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.916438535203895</v>
+        <v>-1.287749837598009</v>
       </c>
     </row>
     <row r="36">
@@ -5073,10 +5137,10 @@
         <v>3536384.555394445</v>
       </c>
       <c r="C36" t="n">
-        <v>3475621.848907263</v>
+        <v>3524581.205226371</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.718215469369538</v>
+        <v>-0.3337688529961776</v>
       </c>
     </row>
     <row r="37">
@@ -5089,10 +5153,10 @@
         <v>169840.3628270353</v>
       </c>
       <c r="C37" t="n">
-        <v>166989.6775365334</v>
+        <v>169252.5981069051</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.67844983551117</v>
+        <v>-0.3460689263416106</v>
       </c>
     </row>
     <row r="38">
@@ -5105,10 +5169,10 @@
         <v>1185357.660552872</v>
       </c>
       <c r="C38" t="n">
-        <v>1167546.383351799</v>
+        <v>1181210.32758385</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.502607845193769</v>
+        <v>-0.3498803025482924</v>
       </c>
     </row>
     <row r="39">
@@ -5121,10 +5185,10 @@
         <v>159824.3694267376</v>
       </c>
       <c r="C39" t="n">
-        <v>157389.5916770271</v>
+        <v>159409.061828489</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.523408325303356</v>
+        <v>-0.2598524866628634</v>
       </c>
     </row>
     <row r="40">
@@ -5137,10 +5201,10 @@
         <v>421376.2451161093</v>
       </c>
       <c r="C40" t="n">
-        <v>414028.9664895679</v>
+        <v>419880.2087589118</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.743638544341019</v>
+        <v>-0.3550357606858763</v>
       </c>
     </row>
     <row r="41">
@@ -5153,10 +5217,10 @@
         <v>232131.569601793</v>
       </c>
       <c r="C41" t="n">
-        <v>227283.442871613</v>
+        <v>231537.4477598723</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.088525373130699</v>
+        <v>-0.2559418535530918</v>
       </c>
     </row>
     <row r="42">
@@ -5169,10 +5233,10 @@
         <v>128836.3952206124</v>
       </c>
       <c r="C42" t="n">
-        <v>126989.4896197033</v>
+        <v>128471.9715153226</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.433527845719772</v>
+        <v>-0.2828577318278437</v>
       </c>
     </row>
     <row r="43">
@@ -5185,10 +5249,10 @@
         <v>94652.76397187269</v>
       </c>
       <c r="C43" t="n">
-        <v>93575.78345562798</v>
+        <v>94420.04006606566</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.137822574906254</v>
+        <v>-0.2458712202806706</v>
       </c>
     </row>
     <row r="44">
@@ -5201,10 +5265,10 @@
         <v>43047.18661193399</v>
       </c>
       <c r="C44" t="n">
-        <v>42498.49288528803</v>
+        <v>42946.81577690269</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.274633187047449</v>
+        <v>-0.2331646802754575</v>
       </c>
     </row>
     <row r="45">
@@ -5217,10 +5281,10 @@
         <v>127914.3668898133</v>
       </c>
       <c r="C45" t="n">
-        <v>127666.7845103045</v>
+        <v>127835.6571696407</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1935532227760559</v>
+        <v>-0.06153313508589025</v>
       </c>
     </row>
     <row r="46">
@@ -5233,10 +5297,10 @@
         <v>25993.78164756393</v>
       </c>
       <c r="C46" t="n">
-        <v>25678.81792795316</v>
+        <v>25920.40736130848</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.211688718021859</v>
+        <v>-0.282276304580432</v>
       </c>
     </row>
     <row r="47">
@@ -5249,10 +5313,10 @@
         <v>38145.22126086871</v>
       </c>
       <c r="C47" t="n">
-        <v>37344.62009064441</v>
+        <v>37972.50867171358</v>
       </c>
       <c r="D47" t="n">
-        <v>-2.098824292430031</v>
+        <v>-0.4527764774884409</v>
       </c>
     </row>
     <row r="48">
@@ -5265,10 +5329,10 @@
         <v>32035.35572329106</v>
       </c>
       <c r="C48" t="n">
-        <v>31585.9486065833</v>
+        <v>31937.88106895576</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.402847280952844</v>
+        <v>-0.3042721147760968</v>
       </c>
     </row>
     <row r="49">
@@ -5281,10 +5345,10 @@
         <v>53452.78309609117</v>
       </c>
       <c r="C49" t="n">
-        <v>52949.46365631188</v>
+        <v>53349.16388772544</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.9416150303614206</v>
+        <v>-0.1938518489850289</v>
       </c>
     </row>
     <row r="50">
@@ -5297,10 +5361,10 @@
         <v>23680.12450086494</v>
       </c>
       <c r="C50" t="n">
-        <v>23173.75682379266</v>
+        <v>23581.39116805419</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.138365771910457</v>
+        <v>-0.4169460038402507</v>
       </c>
     </row>
     <row r="51">
@@ -5313,10 +5377,10 @@
         <v>4258.121092261274</v>
       </c>
       <c r="C51" t="n">
-        <v>4091.354396928308</v>
+        <v>4203.287144810953</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.916438535203891</v>
+        <v>-1.287749837598004</v>
       </c>
     </row>
     <row r="52">
@@ -5329,10 +5393,10 @@
         <v>251159.6278232176</v>
       </c>
       <c r="C52" t="n">
-        <v>246844.1642451481</v>
+        <v>250321.3352142426</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.718215469369531</v>
+        <v>-0.3337688529961558</v>
       </c>
     </row>
     <row r="53">
@@ -5345,10 +5409,10 @@
         <v>38201.89914724839</v>
       </c>
       <c r="C53" t="n">
-        <v>37560.69943384926</v>
+        <v>38069.69424502741</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.678449835511165</v>
+        <v>-0.3460689263415802</v>
       </c>
     </row>
     <row r="54">
@@ -5361,10 +5425,10 @@
         <v>41069.58495758228</v>
       </c>
       <c r="C54" t="n">
-        <v>40452.47015202115</v>
+        <v>40925.89056947737</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.502607845193726</v>
+        <v>-0.3498803025482715</v>
       </c>
     </row>
     <row r="55">
@@ -5377,10 +5441,10 @@
         <v>68364.54647427362</v>
       </c>
       <c r="C55" t="n">
-        <v>67323.07528172866</v>
+        <v>68186.89950026444</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.523408325303356</v>
+        <v>-0.259852486662858</v>
       </c>
     </row>
     <row r="56">
@@ -5393,10 +5457,10 @@
         <v>29101.75632494179</v>
       </c>
       <c r="C56" t="n">
-        <v>28594.32688457991</v>
+        <v>28998.43468300058</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.743638544341015</v>
+        <v>-0.3550357606858833</v>
       </c>
     </row>
     <row r="57">
@@ -5409,10 +5473,10 @@
         <v>14559.03440803147</v>
       </c>
       <c r="C57" t="n">
-        <v>14254.9652803369</v>
+        <v>14521.77174550812</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.088525373130707</v>
+        <v>-0.2559418535530901</v>
       </c>
     </row>
     <row r="58">
@@ -5425,10 +5489,10 @@
         <v>23427.48332184359</v>
       </c>
       <c r="C58" t="n">
-        <v>23091.6438248736</v>
+        <v>23361.21687389508</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.433527845719775</v>
+        <v>-0.282857731827831</v>
       </c>
     </row>
     <row r="59">
@@ -5441,10 +5505,10 @@
         <v>46150.93133109502</v>
       </c>
       <c r="C59" t="n">
-        <v>45625.81561588033</v>
+        <v>46037.45947306034</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.137822574906258</v>
+        <v>-0.2458712202807068</v>
       </c>
     </row>
     <row r="60">
@@ -5457,10 +5521,10 @@
         <v>21759.37696278335</v>
       </c>
       <c r="C60" t="n">
-        <v>21482.02472272095</v>
+        <v>21708.64178105814</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.274633187047455</v>
+        <v>-0.2331646802754755</v>
       </c>
     </row>
     <row r="61">
@@ -5473,10 +5537,10 @@
         <v>46542.62425884105</v>
       </c>
       <c r="C61" t="n">
-        <v>46452.53950962352</v>
+        <v>46513.98512298335</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1935532227760419</v>
+        <v>-0.06153313508587106</v>
       </c>
     </row>
     <row r="62">
@@ -5489,10 +5553,10 @@
         <v>7503.299767465179</v>
       </c>
       <c r="C62" t="n">
-        <v>7412.383130703442</v>
+        <v>7482.119730159987</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.211688718021864</v>
+        <v>-0.2822763045804199</v>
       </c>
     </row>
     <row r="63">
@@ -5505,10 +5569,10 @@
         <v>7286.174502210705</v>
       </c>
       <c r="C63" t="n">
-        <v>7133.250501769464</v>
+        <v>7253.184417955934</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.098824292430033</v>
+        <v>-0.4527764774884511</v>
       </c>
     </row>
     <row r="64">
@@ -5521,10 +5585,10 @@
         <v>7097.341416109978</v>
       </c>
       <c r="C64" t="n">
-        <v>6997.776555034139</v>
+        <v>7075.7461852903</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.402847280952845</v>
+        <v>-0.3042721147761074</v>
       </c>
     </row>
     <row r="65">
@@ -5537,10 +5601,10 @@
         <v>7416.897539297385</v>
       </c>
       <c r="C65" t="n">
-        <v>7347.058917280855</v>
+        <v>7402.519746280132</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.9416150303614172</v>
+        <v>-0.1938518489850368</v>
       </c>
     </row>
     <row r="66">
@@ -5553,10 +5617,10 @@
         <v>224.7272828615001</v>
       </c>
       <c r="C66" t="n">
-        <v>219.9217915646453</v>
+        <v>223.7902914360702</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.138365771910494</v>
+        <v>-0.4169460038402986</v>
       </c>
     </row>
     <row r="67">
@@ -5569,10 +5633,10 @@
         <v>173.8153879829501</v>
       </c>
       <c r="C67" t="n">
-        <v>167.0080151478717</v>
+        <v>171.5770806064793</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.916438535203891</v>
+        <v>-1.287749837598015</v>
       </c>
     </row>
     <row r="68">
@@ -5585,10 +5649,10 @@
         <v>4996.512834695077</v>
       </c>
       <c r="C68" t="n">
-        <v>4910.661978240312</v>
+        <v>4979.836031116908</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.718215469369527</v>
+        <v>-0.3337688529961825</v>
       </c>
     </row>
     <row r="69">
@@ -5601,10 +5665,10 @@
         <v>276.6235712497684</v>
       </c>
       <c r="C69" t="n">
-        <v>271.9805833731415</v>
+        <v>275.6662630267365</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.678449835511175</v>
+        <v>-0.3460689263416237</v>
       </c>
     </row>
     <row r="70">
@@ -5617,10 +5681,10 @@
         <v>1232.245435416442</v>
       </c>
       <c r="C70" t="n">
-        <v>1213.729618831832</v>
+        <v>1227.934051358869</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.502607845193774</v>
+        <v>-0.3498803025483025</v>
       </c>
     </row>
     <row r="71">
@@ -5633,10 +5697,10 @@
         <v>5856.068227410703</v>
       </c>
       <c r="C71" t="n">
-        <v>5766.856396498884</v>
+        <v>5840.851088501104</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.523408325303345</v>
+        <v>-0.2598524866628411</v>
       </c>
     </row>
     <row r="72">
@@ -5649,10 +5713,10 @@
         <v>2040.773234874782</v>
       </c>
       <c r="C72" t="n">
-        <v>2005.189526148911</v>
+        <v>2033.527760096471</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.743638544341004</v>
+        <v>-0.3550357606858575</v>
       </c>
     </row>
     <row r="73">
@@ -5665,10 +5729,10 @@
         <v>1134.678551830647</v>
       </c>
       <c r="C73" t="n">
-        <v>1110.980502372192</v>
+        <v>1131.774434513223</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.088525373130675</v>
+        <v>-0.2559418535530402</v>
       </c>
     </row>
     <row r="74">
@@ -5681,10 +5745,10 @@
         <v>4263.535655062377</v>
       </c>
       <c r="C74" t="n">
-        <v>4202.416684234867</v>
+        <v>4251.475914812796</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.433527845719784</v>
+        <v>-0.2828577318278571</v>
       </c>
     </row>
     <row r="75">
@@ -5697,10 +5761,10 @@
         <v>2782.808024353337</v>
       </c>
       <c r="C75" t="n">
-        <v>2751.144606435942</v>
+        <v>2775.96590030579</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.137822574906263</v>
+        <v>-0.2458712202807005</v>
       </c>
     </row>
     <row r="76">
@@ -5713,10 +5777,10 @@
         <v>316.9983391350282</v>
       </c>
       <c r="C76" t="n">
-        <v>312.9577731020239</v>
+        <v>316.2592109711054</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.274633187047442</v>
+        <v>-0.2331646802754803</v>
       </c>
     </row>
     <row r="77">
@@ -5729,10 +5793,10 @@
         <v>14455.75492983291</v>
       </c>
       <c r="C77" t="n">
-        <v>14427.77535028961</v>
+        <v>14446.85985062425</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.193553222776043</v>
+        <v>-0.06153313508588102</v>
       </c>
     </row>
     <row r="78">
@@ -5745,10 +5809,10 @@
         <v>206.9246343398124</v>
       </c>
       <c r="C78" t="n">
-        <v>204.4173518907089</v>
+        <v>206.3405351287314</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.211688718021856</v>
+        <v>-0.2822763045804194</v>
       </c>
     </row>
     <row r="79">
@@ -5761,10 +5825,10 @@
         <v>130.9767888995716</v>
       </c>
       <c r="C79" t="n">
-        <v>128.2278162367026</v>
+        <v>130.3837568084646</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.098824292430063</v>
+        <v>-0.4527764774884604</v>
       </c>
     </row>
     <row r="80">
@@ -5777,10 +5841,10 @@
         <v>912.0891916591041</v>
       </c>
       <c r="C80" t="n">
-        <v>899.2939732340498</v>
+        <v>909.3139585869988</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.402847280952828</v>
+        <v>-0.3042721147760986</v>
       </c>
     </row>
     <row r="81">
@@ -5793,10 +5857,10 @@
         <v>338.63275475275</v>
       </c>
       <c r="C81" t="n">
-        <v>335.4441378362711</v>
+        <v>337.9763088963928</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.9416150303614289</v>
+        <v>-0.1938518489850312</v>
       </c>
     </row>
     <row r="82">
@@ -5809,10 +5873,10 @@
         <v>36797.3558384009</v>
       </c>
       <c r="C82" t="n">
-        <v>36010.49377618443</v>
+        <v>36643.9307337138</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.138365771910479</v>
+        <v>-0.4169460038402773</v>
       </c>
     </row>
     <row r="83">
@@ -5825,10 +5889,10 @@
         <v>5431.789807406018</v>
       </c>
       <c r="C83" t="n">
-        <v>5219.057098237492</v>
+        <v>5361.841942982483</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.916438535203875</v>
+        <v>-1.287749837597988</v>
       </c>
     </row>
     <row r="84">
@@ -5841,10 +5905,10 @@
         <v>1083840.331624043</v>
       </c>
       <c r="C84" t="n">
-        <v>1065217.619382813</v>
+        <v>1080222.810180872</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.718215469369528</v>
+        <v>-0.3337688529961675</v>
       </c>
     </row>
     <row r="85">
@@ -5857,10 +5921,10 @@
         <v>36567.36673926556</v>
       </c>
       <c r="C85" t="n">
-        <v>35953.6018323796</v>
+        <v>36440.8184457996</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.678449835511148</v>
+        <v>-0.3460689263415864</v>
       </c>
     </row>
     <row r="86">
@@ -5873,10 +5937,10 @@
         <v>176115.7238993268</v>
       </c>
       <c r="C86" t="n">
-        <v>173469.3952153957</v>
+        <v>175499.5296717127</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.502607845193773</v>
+        <v>-0.3498803025482985</v>
       </c>
     </row>
     <row r="87">
@@ -5889,10 +5953,10 @@
         <v>629355.3653459012</v>
       </c>
       <c r="C87" t="n">
-        <v>619767.7133144784</v>
+        <v>627719.9697791038</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.523408325303358</v>
+        <v>-0.2598524866628623</v>
       </c>
     </row>
     <row r="88">
@@ -5905,10 +5969,10 @@
         <v>50782.20817613851</v>
       </c>
       <c r="C88" t="n">
-        <v>49896.75002071186</v>
+        <v>50601.91317704727</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.74363854434102</v>
+        <v>-0.3550357606858759</v>
       </c>
     </row>
     <row r="89">
@@ -5921,10 +5985,10 @@
         <v>180339.3673151789</v>
       </c>
       <c r="C89" t="n">
-        <v>176572.9338710579</v>
+        <v>179877.8033957865</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.088525373130753</v>
+        <v>-0.2559418535531228</v>
       </c>
     </row>
     <row r="90">
@@ -5937,10 +6001,10 @@
         <v>40468.48989345161</v>
       </c>
       <c r="C90" t="n">
-        <v>39888.36282208668</v>
+        <v>40354.02164083401</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.433527845719791</v>
+        <v>-0.2828577318278597</v>
       </c>
     </row>
     <row r="91">
@@ -5953,10 +6017,10 @@
         <v>79355.15029333404</v>
       </c>
       <c r="C91" t="n">
-        <v>78452.22947894569</v>
+        <v>79160.03881695223</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.137822574906258</v>
+        <v>-0.2458712202807003</v>
       </c>
     </row>
     <row r="92">
@@ -5969,10 +6033,10 @@
         <v>45911.62510533771</v>
       </c>
       <c r="C92" t="n">
-        <v>45326.42029503227</v>
+        <v>45804.57541145159</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.274633187047444</v>
+        <v>-0.2331646802754527</v>
       </c>
     </row>
     <row r="93">
@@ -5985,10 +6049,10 @@
         <v>104995.5931434584</v>
       </c>
       <c r="C93" t="n">
-        <v>104792.3707891565</v>
+        <v>104930.9860632953</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.193553222775995</v>
+        <v>-0.06153313508583989</v>
       </c>
     </row>
     <row r="94">
@@ -6001,10 +6065,10 @@
         <v>43593.4829173751</v>
       </c>
       <c r="C94" t="n">
-        <v>43065.26560307248</v>
+        <v>43470.42884475803</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.211688718021865</v>
+        <v>-0.282276304580426</v>
       </c>
     </row>
     <row r="95">
@@ -6017,10 +6081,10 @@
         <v>24589.96981740024</v>
       </c>
       <c r="C95" t="n">
-        <v>24073.86955737144</v>
+        <v>24478.63221824555</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.098824292430014</v>
+        <v>-0.4527764774884291</v>
       </c>
     </row>
     <row r="96">
@@ -6033,10 +6097,10 @@
         <v>22665.76219802206</v>
       </c>
       <c r="C96" t="n">
-        <v>22347.79616931987</v>
+        <v>22596.79660405202</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.402847280952847</v>
+        <v>-0.3042721147761108</v>
       </c>
     </row>
     <row r="97">
@@ -6049,10 +6113,10 @@
         <v>40428.24116361269</v>
       </c>
       <c r="C97" t="n">
-        <v>40047.56276830535</v>
+        <v>40349.8702706049</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.9416150303614184</v>
+        <v>-0.1938518489850342</v>
       </c>
     </row>
     <row r="98">
@@ -6065,10 +6129,10 @@
         <v>17531.40922853843</v>
       </c>
       <c r="C98" t="n">
-        <v>17156.52357426181</v>
+        <v>17458.31271834315</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.138365771910489</v>
+        <v>-0.4169460038402694</v>
       </c>
     </row>
     <row r="99">
@@ -6081,10 +6145,10 @@
         <v>3349.304543958308</v>
       </c>
       <c r="C99" t="n">
-        <v>3218.13109013739</v>
+        <v>3306.173880132823</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.916438535203887</v>
+        <v>-1.287749837597985</v>
       </c>
     </row>
     <row r="100">
@@ -6097,10 +6161,10 @@
         <v>195974.6734952563</v>
       </c>
       <c r="C100" t="n">
-        <v>192607.4063392143</v>
+        <v>195320.5710753682</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.718215469369561</v>
+        <v>-0.3337688529961848</v>
       </c>
     </row>
     <row r="101">
@@ -6113,10 +6177,10 @@
         <v>2724.247464785552</v>
       </c>
       <c r="C101" t="n">
-        <v>2678.522337693942</v>
+        <v>2714.81969083328</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.678449835511172</v>
+        <v>-0.3460689263416054</v>
       </c>
     </row>
     <row r="102">
@@ -6129,10 +6193,10 @@
         <v>18679.52557679249</v>
       </c>
       <c r="C102" t="n">
-        <v>18398.84556003064</v>
+        <v>18614.16959618983</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.502607845193709</v>
+        <v>-0.3498803025482567</v>
       </c>
     </row>
     <row r="103">
@@ -6145,10 +6209,10 @@
         <v>118620.5156491477</v>
       </c>
       <c r="C103" t="n">
-        <v>116813.4408382308</v>
+        <v>118312.2772895411</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.523408325303325</v>
+        <v>-0.2598524866628141</v>
       </c>
     </row>
     <row r="104">
@@ -6161,10 +6225,10 @@
         <v>273817.9512093465</v>
       </c>
       <c r="C104" t="n">
-        <v>269043.5558707354</v>
+        <v>272845.7995633759</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.743638544341014</v>
+        <v>-0.3550357606858778</v>
       </c>
     </row>
     <row r="105">
@@ -6177,10 +6241,10 @@
         <v>9177.580968609169</v>
       </c>
       <c r="C105" t="n">
-        <v>8985.904861440151</v>
+        <v>9154.091697766775</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.088525373130714</v>
+        <v>-0.2559418535530911</v>
       </c>
     </row>
     <row r="106">
@@ -6193,10 +6257,10 @@
         <v>33246.43879831057</v>
       </c>
       <c r="C106" t="n">
-        <v>32769.8418404266</v>
+        <v>33152.39867561213</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.433527845719797</v>
+        <v>-0.2828577318278618</v>
       </c>
     </row>
     <row r="107">
@@ -6209,10 +6273,10 @@
         <v>5642.141361711995</v>
       </c>
       <c r="C107" t="n">
-        <v>5577.943803590312</v>
+        <v>5628.268959895991</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.137822574906267</v>
+        <v>-0.2458712202807061</v>
       </c>
     </row>
     <row r="108">
@@ -6225,10 +6289,10 @@
         <v>14363.30388731421</v>
       </c>
       <c r="C108" t="n">
-        <v>14180.22444921003</v>
+        <v>14329.81373572836</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.274633187047449</v>
+        <v>-0.2331646802754745</v>
       </c>
     </row>
     <row r="109">
@@ -6241,10 +6305,10 @@
         <v>25390.47786541112</v>
       </c>
       <c r="C109" t="n">
-        <v>25341.33377722438</v>
+        <v>25374.85430836724</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.193553222776061</v>
+        <v>-0.06153313508589087</v>
       </c>
     </row>
     <row r="110">
@@ -6257,10 +6321,10 @@
         <v>22661.60505308602</v>
       </c>
       <c r="C110" t="n">
-        <v>22387.0169413351</v>
+        <v>22597.63671178355</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.211688718021881</v>
+        <v>-0.2822763045804378</v>
       </c>
     </row>
     <row r="111">
@@ -6273,10 +6337,10 @@
         <v>4451.960926071457</v>
       </c>
       <c r="C111" t="n">
-        <v>4358.522088665576</v>
+        <v>4431.803494211229</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.098824292430033</v>
+        <v>-0.4527764774884364</v>
       </c>
     </row>
     <row r="112">
@@ -6289,10 +6353,10 @@
         <v>1068.949165803444</v>
       </c>
       <c r="C112" t="n">
-        <v>1053.953441496203</v>
+        <v>1065.696651570773</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.402847280952782</v>
+        <v>-0.3042721147760677</v>
       </c>
     </row>
     <row r="113">
@@ -6305,10 +6369,10 @@
         <v>887.9321545985744</v>
       </c>
       <c r="C113" t="n">
-        <v>879.5712519714621</v>
+        <v>886.2108816991522</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.9416150303614333</v>
+        <v>-0.1938518489850536</v>
       </c>
     </row>
     <row r="114">
@@ -6321,10 +6385,10 @@
         <v>190.5485593842953</v>
       </c>
       <c r="C114" t="n">
-        <v>186.473934211553</v>
+        <v>189.7540747805673</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.138365771910466</v>
+        <v>-0.4169460038402699</v>
       </c>
     </row>
     <row r="115">
@@ -6337,10 +6401,10 @@
         <v>31.68824515194521</v>
       </c>
       <c r="C115" t="n">
-        <v>30.44719450768455</v>
+        <v>31.28017982646337</v>
       </c>
       <c r="D115" t="n">
-        <v>-3.9164385352039</v>
+        <v>-1.287749837598017</v>
       </c>
     </row>
     <row r="116">
@@ -6353,10 +6417,10 @@
         <v>4123.192252520734</v>
       </c>
       <c r="C116" t="n">
-        <v>4052.346925406076</v>
+        <v>4109.430321032668</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.718215469369531</v>
+        <v>-0.3337688529961794</v>
       </c>
     </row>
     <row r="117">
@@ -6369,10 +6433,10 @@
         <v>170.525831571405</v>
       </c>
       <c r="C117" t="n">
-        <v>167.6636410318907</v>
+        <v>169.9356946569507</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.67844983551117</v>
+        <v>-0.3460689263416096</v>
       </c>
     </row>
     <row r="118">
@@ -6385,10 +6449,10 @@
         <v>657.5077035740391</v>
       </c>
       <c r="C118" t="n">
-        <v>647.6279412373824</v>
+        <v>655.207213631496</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.502607845193731</v>
+        <v>-0.3498803025482798</v>
       </c>
     </row>
     <row r="119">
@@ -6401,10 +6465,10 @@
         <v>2161.22177472801</v>
       </c>
       <c r="C119" t="n">
-        <v>2128.297542283535</v>
+        <v>2155.60578620408</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.523408325303352</v>
+        <v>-0.2598524866628587</v>
       </c>
     </row>
     <row r="120">
@@ -6417,10 +6481,10 @@
         <v>1554.140067831092</v>
       </c>
       <c r="C120" t="n">
-        <v>1527.041482575342</v>
+        <v>1548.622314819145</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.743638544340988</v>
+        <v>-0.3550357606858327</v>
       </c>
     </row>
     <row r="121">
@@ -6433,10 +6497,10 @@
         <v>129651.1464599214</v>
       </c>
       <c r="C121" t="n">
-        <v>126943.3493695511</v>
+        <v>129319.3149125191</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.088525373130705</v>
+        <v>-0.2559418535530792</v>
       </c>
     </row>
     <row r="122">
@@ -6449,10 +6513,10 @@
         <v>863.7331225685518</v>
       </c>
       <c r="C122" t="n">
-        <v>851.3512677438266</v>
+        <v>861.2899866490085</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.433527845719789</v>
+        <v>-0.2828577318278595</v>
       </c>
     </row>
     <row r="123">
@@ -6465,10 +6529,10 @@
         <v>3906.237028514126</v>
       </c>
       <c r="C123" t="n">
-        <v>3861.790981774344</v>
+        <v>3896.632715865062</v>
       </c>
       <c r="D123" t="n">
-        <v>-1.137822574906271</v>
+        <v>-0.2458712202807059</v>
       </c>
     </row>
     <row r="124">
@@ -6481,10 +6545,10 @@
         <v>233.7506847980509</v>
       </c>
       <c r="C124" t="n">
-        <v>230.7712209946643</v>
+        <v>233.2056607611998</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.27463318704745</v>
+        <v>-0.2331646802754787</v>
       </c>
     </row>
     <row r="125">
@@ -6497,10 +6561,10 @@
         <v>2384.908631432158</v>
       </c>
       <c r="C125" t="n">
-        <v>2380.292563915757</v>
+        <v>2383.441122382304</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1935532227760453</v>
+        <v>-0.06153313508586319</v>
       </c>
     </row>
     <row r="126">
@@ -6513,10 +6577,10 @@
         <v>14131.62372138642</v>
       </c>
       <c r="C126" t="n">
-        <v>13960.39243108108</v>
+        <v>14091.73349616848</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.211688718021864</v>
+        <v>-0.2822763045804198</v>
       </c>
     </row>
     <row r="127">
@@ -6529,10 +6593,10 @@
         <v>141.2260852838927</v>
       </c>
       <c r="C127" t="n">
-        <v>138.2619978987064</v>
+        <v>140.5866467896494</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.098824292430038</v>
+        <v>-0.4527764774884552</v>
       </c>
     </row>
     <row r="128">
@@ -6545,10 +6609,10 @@
         <v>454.224649948026</v>
       </c>
       <c r="C128" t="n">
-        <v>447.8525717968126</v>
+        <v>452.8425709997949</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.402847280952838</v>
+        <v>-0.3042721147760876</v>
       </c>
     </row>
     <row r="129">
@@ -6561,10 +6625,10 @@
         <v>2015.03857679833</v>
       </c>
       <c r="C129" t="n">
-        <v>1996.064670691616</v>
+        <v>2011.132387259444</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.9416150303614308</v>
+        <v>-0.1938518489850528</v>
       </c>
     </row>
     <row r="130">
@@ -6577,10 +6641,10 @@
         <v>10089.9896440092</v>
       </c>
       <c r="C130" t="n">
-        <v>9874.228759072399</v>
+        <v>10047.91983540061</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.138365771910439</v>
+        <v>-0.4169460038402398</v>
       </c>
     </row>
     <row r="131">
@@ -6593,10 +6657,10 @@
         <v>1033.763083661777</v>
       </c>
       <c r="C131" t="n">
-        <v>993.2763878905351</v>
+        <v>1020.450801230774</v>
       </c>
       <c r="D131" t="n">
-        <v>-3.916438535203893</v>
+        <v>-1.287749837597998</v>
       </c>
     </row>
     <row r="132">
@@ -6609,10 +6673,10 @@
         <v>87400.57085120806</v>
       </c>
       <c r="C132" t="n">
-        <v>85898.84072252532</v>
+        <v>87108.85496836588</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.71821546936954</v>
+        <v>-0.3337688529961695</v>
       </c>
     </row>
     <row r="133">
@@ -6625,10 +6689,10 @@
         <v>6409.948712335483</v>
       </c>
       <c r="C133" t="n">
-        <v>6302.360938716939</v>
+        <v>6387.765871647657</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.678449835511149</v>
+        <v>-0.3460689263415868</v>
       </c>
     </row>
     <row r="134">
@@ -6641,10 +6705,10 @@
         <v>16821.84852122067</v>
       </c>
       <c r="C134" t="n">
-        <v>16569.0821056342</v>
+        <v>16762.99218672041</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.502607845193744</v>
+        <v>-0.3498803025482914</v>
       </c>
     </row>
     <row r="135">
@@ -6657,10 +6721,10 @@
         <v>33324.55059423266</v>
       </c>
       <c r="C135" t="n">
-        <v>32816.88161611019</v>
+        <v>33237.95592084432</v>
       </c>
       <c r="D135" t="n">
-        <v>-1.523408325303359</v>
+        <v>-0.2598524866628685</v>
       </c>
     </row>
     <row r="136">
@@ -6673,10 +6737,10 @@
         <v>16030.92241827518</v>
       </c>
       <c r="C136" t="n">
-        <v>15751.40107597673</v>
+        <v>15974.00691092249</v>
       </c>
       <c r="D136" t="n">
-        <v>-1.743638544341037</v>
+        <v>-0.3550357606858954</v>
       </c>
     </row>
     <row r="137">
@@ -6689,10 +6753,10 @@
         <v>8767.879875138795</v>
       </c>
       <c r="C137" t="n">
-        <v>8584.7604792609</v>
+        <v>8745.439200869057</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.08852537313071</v>
+        <v>-0.2559418535530768</v>
       </c>
     </row>
     <row r="138">
@@ -6705,10 +6769,10 @@
         <v>52028.20605016277</v>
       </c>
       <c r="C138" t="n">
-        <v>51282.36722880523</v>
+        <v>51881.04024661856</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.433527845719778</v>
+        <v>-0.2828577318278464</v>
       </c>
     </row>
     <row r="139">
@@ -6721,10 +6785,10 @@
         <v>35141.4421327932</v>
       </c>
       <c r="C139" t="n">
-        <v>34741.59487105866</v>
+        <v>35055.03944019706</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.137822574906256</v>
+        <v>-0.2458712202807067</v>
       </c>
     </row>
     <row r="140">
@@ -6737,10 +6801,10 @@
         <v>22237.90806269026</v>
       </c>
       <c r="C140" t="n">
-        <v>21954.45630641811</v>
+        <v>22186.05711545594</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.274633187047456</v>
+        <v>-0.2331646802754706</v>
       </c>
     </row>
     <row r="141">
@@ -6753,10 +6817,10 @@
         <v>23949.54476326111</v>
       </c>
       <c r="C141" t="n">
-        <v>23903.18964753162</v>
+        <v>23934.80785752947</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1935532227760558</v>
+        <v>-0.06153313508589975</v>
       </c>
     </row>
     <row r="142">
@@ -6769,10 +6833,10 @@
         <v>37082.79537782534</v>
       </c>
       <c r="C142" t="n">
-        <v>36633.4673299051</v>
+        <v>36978.1194333977</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.211688718021867</v>
+        <v>-0.282276304580427</v>
       </c>
     </row>
     <row r="143">
@@ -6785,10 +6849,10 @@
         <v>4070.394710307927</v>
       </c>
       <c r="C143" t="n">
-        <v>3984.964277330197</v>
+        <v>4051.964920518719</v>
       </c>
       <c r="D143" t="n">
-        <v>-2.098824292430039</v>
+        <v>-0.4527764774884485</v>
       </c>
     </row>
     <row r="144">
@@ -6801,10 +6865,10 @@
         <v>4276.69932878695</v>
       </c>
       <c r="C144" t="n">
-        <v>4216.703768538533</v>
+        <v>4263.686525296634</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.40284728095286</v>
+        <v>-0.3042721147761251</v>
       </c>
     </row>
     <row r="145">
@@ -6817,10 +6881,10 @@
         <v>4302.918261308165</v>
       </c>
       <c r="C145" t="n">
-        <v>4262.40133621552</v>
+        <v>4294.576974698304</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.9416150303614365</v>
+        <v>-0.1938518489850355</v>
       </c>
     </row>
     <row r="146">
@@ -6833,10 +6897,10 @@
         <v>29965.6972786291</v>
       </c>
       <c r="C146" t="n">
-        <v>29324.92106470859</v>
+        <v>29840.75650130299</v>
       </c>
       <c r="D146" t="n">
-        <v>-2.138365771910469</v>
+        <v>-0.4169460038402664</v>
       </c>
     </row>
     <row r="147">
@@ -6849,10 +6913,10 @@
         <v>3375.075360705922</v>
       </c>
       <c r="C147" t="n">
-        <v>3242.892608687064</v>
+        <v>3331.612833229622</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.91643853520388</v>
+        <v>-1.287749837597989</v>
       </c>
     </row>
     <row r="148">
@@ -6865,10 +6929,10 @@
         <v>280657.780433469</v>
       </c>
       <c r="C148" t="n">
-        <v>275835.4750340719</v>
+        <v>279721.0321788717</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.718215469369532</v>
+        <v>-0.3337688529961717</v>
       </c>
     </row>
     <row r="149">
@@ -6881,10 +6945,10 @@
         <v>31702.75958278121</v>
       </c>
       <c r="C149" t="n">
-        <v>31170.64466671152</v>
+        <v>31593.04618307242</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.678449835511165</v>
+        <v>-0.3460689263415936</v>
       </c>
     </row>
     <row r="150">
@@ -6897,10 +6961,10 @@
         <v>87687.13267621709</v>
       </c>
       <c r="C150" t="n">
-        <v>86369.53894139882</v>
+        <v>87380.33267111365</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.502607845193736</v>
+        <v>-0.349880302548265</v>
       </c>
     </row>
     <row r="151">
@@ -6913,10 +6977,10 @@
         <v>108470.3227140286</v>
       </c>
       <c r="C151" t="n">
-        <v>106817.8767873197</v>
+        <v>108188.459883165</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.523408325303367</v>
+        <v>-0.2598524866628534</v>
       </c>
     </row>
     <row r="152">
@@ -6929,10 +6993,10 @@
         <v>54041.78996625963</v>
       </c>
       <c r="C152" t="n">
-        <v>53099.49648635612</v>
+        <v>53849.92228616466</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.743638544341007</v>
+        <v>-0.3550357606858812</v>
       </c>
     </row>
     <row r="153">
@@ -6945,10 +7009,10 @@
         <v>10616.88118288948</v>
       </c>
       <c r="C153" t="n">
-        <v>10395.14492554969</v>
+        <v>10589.70814040046</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.088525373130703</v>
+        <v>-0.2559418535530985</v>
       </c>
     </row>
     <row r="154">
@@ -6961,10 +7025,10 @@
         <v>39079.32421015717</v>
       </c>
       <c r="C154" t="n">
-        <v>38519.11121568545</v>
+        <v>38968.78532008266</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.433527845719784</v>
+        <v>-0.2828577318278488</v>
       </c>
     </row>
     <row r="155">
@@ -6977,10 +7041,10 @@
         <v>544109.0187771801</v>
       </c>
       <c r="C155" t="n">
-        <v>537918.0235294325</v>
+        <v>542771.2112930553</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.137822574906248</v>
+        <v>-0.2458712202806984</v>
       </c>
     </row>
     <row r="156">
@@ -6993,10 +7057,10 @@
         <v>63852.75474085637</v>
       </c>
       <c r="C156" t="n">
-        <v>63038.86633808541</v>
+        <v>63703.87266941777</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.274633187047443</v>
+        <v>-0.2331646802754652</v>
       </c>
     </row>
     <row r="157">
@@ -7009,10 +7073,10 @@
         <v>74920.82107145021</v>
       </c>
       <c r="C157" t="n">
-        <v>74775.80940773615</v>
+        <v>74874.71994141284</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1935532227760368</v>
+        <v>-0.0615331350859052</v>
       </c>
     </row>
     <row r="158">
@@ -7025,10 +7089,10 @@
         <v>117868.7463496854</v>
       </c>
       <c r="C158" t="n">
-        <v>116440.5440480925</v>
+        <v>117536.0308082342</v>
       </c>
       <c r="D158" t="n">
-        <v>-1.211688718021863</v>
+        <v>-0.282276304580424</v>
       </c>
     </row>
     <row r="159">
@@ -7041,10 +7105,10 @@
         <v>14279.81208682949</v>
       </c>
       <c r="C159" t="n">
-        <v>13980.10392183775</v>
+        <v>14215.15645667077</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.098824292430064</v>
+        <v>-0.4527764774884666</v>
       </c>
     </row>
     <row r="160">
@@ -7057,10 +7121,10 @@
         <v>15635.81331660888</v>
       </c>
       <c r="C160" t="n">
-        <v>15416.46673464197</v>
+        <v>15588.23789676799</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.402847280952859</v>
+        <v>-0.3042721147761095</v>
       </c>
     </row>
     <row r="161">
@@ -7073,10 +7137,10 @@
         <v>10995.11004725444</v>
       </c>
       <c r="C161" t="n">
-        <v>10891.57843844471</v>
+        <v>10973.7958231299</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.94161503036145</v>
+        <v>-0.1938518489850535</v>
       </c>
     </row>
     <row r="162">
@@ -7089,10 +7153,10 @@
         <v>9387.562623335931</v>
       </c>
       <c r="C162" t="n">
-        <v>9186.822197381856</v>
+        <v>9348.421556119929</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.138365771910452</v>
+        <v>-0.4169460038402684</v>
       </c>
     </row>
     <row r="163">
@@ -7105,10 +7169,10 @@
         <v>4251.761191120128</v>
       </c>
       <c r="C163" t="n">
-        <v>4085.243577406256</v>
+        <v>4197.009143286425</v>
       </c>
       <c r="D163" t="n">
-        <v>-3.916438535203895</v>
+        <v>-1.287749837597988</v>
       </c>
     </row>
     <row r="164">
@@ -7121,10 +7185,10 @@
         <v>131850.0203817157</v>
       </c>
       <c r="C164" t="n">
-        <v>129584.5529351502</v>
+        <v>131409.9460810124</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.718215469369526</v>
+        <v>-0.3337688529961727</v>
       </c>
     </row>
     <row r="165">
@@ -7137,10 +7201,10 @@
         <v>7026.402470984634</v>
       </c>
       <c r="C165" t="n">
-        <v>6908.46783026804</v>
+        <v>7002.086275392859</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.678449835511165</v>
+        <v>-0.3460689263415946</v>
       </c>
     </row>
     <row r="166">
@@ -7153,10 +7217,10 @@
         <v>2414.365692738618</v>
       </c>
       <c r="C166" t="n">
-        <v>2378.087244427862</v>
+        <v>2405.918302748243</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.502607845193701</v>
+        <v>-0.3498803025482524</v>
       </c>
     </row>
     <row r="167">
@@ -7169,10 +7233,10 @@
         <v>212606.6136742881</v>
       </c>
       <c r="C167" t="n">
-        <v>209367.7468214284</v>
+        <v>212054.1501018457</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.523408325303369</v>
+        <v>-0.259852486662869</v>
       </c>
     </row>
     <row r="168">
@@ -7185,10 +7249,10 @@
         <v>36242.20451189306</v>
       </c>
       <c r="C168" t="n">
-        <v>35610.2714647048</v>
+        <v>36113.53172541493</v>
       </c>
       <c r="D168" t="n">
-        <v>-1.74363854434101</v>
+        <v>-0.3550357606858688</v>
       </c>
     </row>
     <row r="169">
@@ -7201,10 +7265,10 @@
         <v>23664.4564037997</v>
       </c>
       <c r="C169" t="n">
-        <v>23170.21822739289</v>
+        <v>23603.88915544655</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.088525373130711</v>
+        <v>-0.2559418535530944</v>
       </c>
     </row>
     <row r="170">
@@ -7217,10 +7281,10 @@
         <v>82034.16324574809</v>
       </c>
       <c r="C170" t="n">
-        <v>80858.18067261708</v>
+        <v>81802.12327226721</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.43352784571977</v>
+        <v>-0.2828577318278445</v>
       </c>
     </row>
     <row r="171">
@@ -7233,10 +7297,10 @@
         <v>148991.1948680506</v>
       </c>
       <c r="C171" t="n">
-        <v>147295.9394182194</v>
+        <v>148624.8683991178</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.137822574906257</v>
+        <v>-0.2458712202806658</v>
       </c>
     </row>
     <row r="172">
@@ -7249,10 +7313,10 @@
         <v>63319.5053283951</v>
       </c>
       <c r="C172" t="n">
-        <v>62512.4138996051</v>
+        <v>63171.86660624413</v>
       </c>
       <c r="D172" t="n">
-        <v>-1.274633187047449</v>
+        <v>-0.2331646802754752</v>
       </c>
     </row>
     <row r="173">
@@ -7265,10 +7329,10 @@
         <v>109936.0050247709</v>
       </c>
       <c r="C173" t="n">
-        <v>109723.2203440543</v>
+        <v>109868.357954291</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1935532227760185</v>
+        <v>-0.06153313508585522</v>
       </c>
     </row>
     <row r="174">
@@ -7281,10 +7345,10 @@
         <v>9056.529986120127</v>
       </c>
       <c r="C174" t="n">
-        <v>8946.793034034044</v>
+        <v>9030.96554795209</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.211688718021845</v>
+        <v>-0.2822763045804216</v>
       </c>
     </row>
     <row r="175">
@@ -7297,10 +7361,10 @@
         <v>20009.95200306803</v>
       </c>
       <c r="C175" t="n">
-        <v>19589.97826952405</v>
+        <v>19919.35164724141</v>
       </c>
       <c r="D175" t="n">
-        <v>-2.098824292430017</v>
+        <v>-0.4527764774884281</v>
       </c>
     </row>
     <row r="176">
@@ -7313,10 +7377,10 @@
         <v>16409.31651151967</v>
       </c>
       <c r="C176" t="n">
-        <v>16179.11886101487</v>
+        <v>16359.38753714976</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.402847280952871</v>
+        <v>-0.3042721147761329</v>
       </c>
     </row>
     <row r="177">
@@ -7329,10 +7393,10 @@
         <v>16860.76859074634</v>
       </c>
       <c r="C177" t="n">
-        <v>16702.00505946141</v>
+        <v>16828.08367908009</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.9416150303614109</v>
+        <v>-0.1938518489850507</v>
       </c>
     </row>
     <row r="178">
@@ -7345,10 +7409,10 @@
         <v>7671.725655247233</v>
       </c>
       <c r="C178" t="n">
-        <v>7507.676099720551</v>
+        <v>7639.738701702089</v>
       </c>
       <c r="D178" t="n">
-        <v>-2.138365771910477</v>
+        <v>-0.4169460038402879</v>
       </c>
     </row>
     <row r="179">
@@ -7361,10 +7425,10 @@
         <v>1198.499581918997</v>
       </c>
       <c r="C179" t="n">
-        <v>1151.561082448464</v>
+        <v>1183.065905499223</v>
       </c>
       <c r="D179" t="n">
-        <v>-3.91643853520385</v>
+        <v>-1.287749837597967</v>
       </c>
     </row>
     <row r="180">
@@ -7377,10 +7441,10 @@
         <v>93942.00139192962</v>
       </c>
       <c r="C180" t="n">
-        <v>92327.87539177814</v>
+        <v>93628.45225140214</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.718215469369531</v>
+        <v>-0.3337688529961605</v>
       </c>
     </row>
     <row r="181">
@@ -7393,10 +7457,10 @@
         <v>13290.59523430951</v>
       </c>
       <c r="C181" t="n">
-        <v>13067.51926046079</v>
+        <v>13244.60061407773</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.678449835511141</v>
+        <v>-0.3460689263415834</v>
       </c>
     </row>
     <row r="182">
@@ -7409,10 +7473,10 @@
         <v>54723.08811872249</v>
       </c>
       <c r="C182" t="n">
-        <v>53900.81470351828</v>
+        <v>54531.62281244894</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.502607845193732</v>
+        <v>-0.3498803025482746</v>
       </c>
     </row>
     <row r="183">
@@ -7425,10 +7489,10 @@
         <v>41335.30632651814</v>
       </c>
       <c r="C183" t="n">
-        <v>40705.60082865032</v>
+        <v>41227.89550515897</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.523408325303352</v>
+        <v>-0.2598524866628604</v>
       </c>
     </row>
     <row r="184">
@@ -7441,10 +7505,10 @@
         <v>131563.2974169935</v>
       </c>
       <c r="C184" t="n">
-        <v>129269.3090530248</v>
+        <v>131096.2006632257</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.743638544340991</v>
+        <v>-0.3550357606858484</v>
       </c>
     </row>
     <row r="185">
@@ -7457,10 +7521,10 @@
         <v>41427.66918069134</v>
       </c>
       <c r="C185" t="n">
-        <v>40562.44179835595</v>
+        <v>41321.63843630644</v>
       </c>
       <c r="D185" t="n">
-        <v>-2.088525373130692</v>
+        <v>-0.2559418535530673</v>
       </c>
     </row>
     <row r="186">
@@ -7473,10 +7537,10 @@
         <v>122915.7609529236</v>
       </c>
       <c r="C186" t="n">
-        <v>121153.7292928851</v>
+        <v>122568.0842194332</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.433527845719797</v>
+        <v>-0.2828577318278646</v>
       </c>
     </row>
     <row r="187">
@@ -7489,10 +7553,10 @@
         <v>265714.1567284354</v>
       </c>
       <c r="C187" t="n">
-        <v>262690.8010684574</v>
+        <v>265060.8420888286</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.137822574906282</v>
+        <v>-0.2458712202807106</v>
       </c>
     </row>
     <row r="188">
@@ -7505,10 +7569,10 @@
         <v>54806.72631406299</v>
       </c>
       <c r="C188" t="n">
-        <v>54108.14159172968</v>
+        <v>54678.93638588335</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.274633187047444</v>
+        <v>-0.2331646802754656</v>
       </c>
     </row>
     <row r="189">
@@ -7521,10 +7585,10 @@
         <v>280494.5109468997</v>
       </c>
       <c r="C189" t="n">
-        <v>279951.6047812521</v>
+        <v>280321.9138805703</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1935532227760381</v>
+        <v>-0.06153313508588308</v>
       </c>
     </row>
     <row r="190">
@@ -7537,10 +7601,10 @@
         <v>10593.21682983673</v>
       </c>
       <c r="C190" t="n">
-        <v>10464.86001663401</v>
+        <v>10563.31468883327</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.211688718021863</v>
+        <v>-0.2822763045804419</v>
       </c>
     </row>
     <row r="191">
@@ -7553,10 +7617,10 @@
         <v>5684.394091299144</v>
       </c>
       <c r="C191" t="n">
-        <v>5565.0886472335</v>
+        <v>5658.656491966</v>
       </c>
       <c r="D191" t="n">
-        <v>-2.098824292430039</v>
+        <v>-0.452776477488423</v>
       </c>
     </row>
     <row r="192">
@@ -7569,10 +7633,10 @@
         <v>28859.09469763844</v>
       </c>
       <c r="C192" t="n">
-        <v>28454.24567236501</v>
+        <v>28771.28451989669</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.402847280952866</v>
+        <v>-0.3042721147761301</v>
       </c>
     </row>
     <row r="193">
@@ -7585,10 +7649,10 @@
         <v>10795.41906703843</v>
       </c>
       <c r="C193" t="n">
-        <v>10693.76777851269</v>
+        <v>10774.49194757129</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.9416150303614342</v>
+        <v>-0.1938518489850465</v>
       </c>
     </row>
     <row r="194">
@@ -7601,10 +7665,10 @@
         <v>130.3430781668181</v>
       </c>
       <c r="C194" t="n">
-        <v>127.5558663972444</v>
+        <v>129.7996179111192</v>
       </c>
       <c r="D194" t="n">
-        <v>-2.138365771910424</v>
+        <v>-0.4169460038402362</v>
       </c>
     </row>
     <row r="195">
@@ -7617,10 +7681,10 @@
         <v>59.17207945961287</v>
       </c>
       <c r="C195" t="n">
-        <v>56.85464133757513</v>
+        <v>58.41009110246835</v>
       </c>
       <c r="D195" t="n">
-        <v>-3.916438535203876</v>
+        <v>-1.287749837597988</v>
       </c>
     </row>
     <row r="196">
@@ -7633,10 +7697,10 @@
         <v>1833.370805769428</v>
       </c>
       <c r="C196" t="n">
-        <v>1801.869544973793</v>
+        <v>1827.251585059845</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.71821546936954</v>
+        <v>-0.33376885299617</v>
       </c>
     </row>
     <row r="197">
@@ -7649,10 +7713,10 @@
         <v>285.6756973789712</v>
       </c>
       <c r="C197" t="n">
-        <v>280.8807741062186</v>
+        <v>284.687062560233</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.678449835511149</v>
+        <v>-0.3460689263415924</v>
       </c>
     </row>
     <row r="198">
@@ -7665,10 +7729,10 @@
         <v>32.8274165087924</v>
       </c>
       <c r="C198" t="n">
-        <v>32.33414917295687</v>
+        <v>32.71255984459266</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.50260784519372</v>
+        <v>-0.349880302548265</v>
       </c>
     </row>
     <row r="199">
@@ -7681,10 +7745,10 @@
         <v>2959.766329414751</v>
       </c>
       <c r="C199" t="n">
-        <v>2914.677002742922</v>
+        <v>2952.075303008358</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.523408325303326</v>
+        <v>-0.2598524866628206</v>
       </c>
     </row>
     <row r="200">
@@ -7697,10 +7761,10 @@
         <v>504.2821752044293</v>
       </c>
       <c r="C200" t="n">
-        <v>495.4893168253237</v>
+        <v>502.4917931476891</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.743638544340994</v>
+        <v>-0.3550357606858534</v>
       </c>
     </row>
     <row r="201">
@@ -7713,10 +7777,10 @@
         <v>329.3262663006252</v>
       </c>
       <c r="C201" t="n">
-        <v>322.4482036685526</v>
+        <v>328.4833825504182</v>
       </c>
       <c r="D201" t="n">
-        <v>-2.088525373130723</v>
+        <v>-0.2559418535530952</v>
       </c>
     </row>
     <row r="202">
@@ -7729,10 +7793,10 @@
         <v>1142.065415761599</v>
       </c>
       <c r="C202" t="n">
-        <v>1125.693590010321</v>
+        <v>1138.834995430586</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.433527845719752</v>
+        <v>-0.2828577318278374</v>
       </c>
     </row>
     <row r="203">
@@ -7745,10 +7809,10 @@
         <v>2074.232428719989</v>
       </c>
       <c r="C203" t="n">
-        <v>2050.631343889986</v>
+        <v>2069.132488136037</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.137822574906285</v>
+        <v>-0.2458712202807101</v>
       </c>
     </row>
     <row r="204">
@@ -7761,10 +7825,10 @@
         <v>881.4898055408516</v>
       </c>
       <c r="C204" t="n">
-        <v>870.254043938988</v>
+        <v>879.4344826541015</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.274633187047436</v>
+        <v>-0.2331646802754604</v>
       </c>
     </row>
     <row r="205">
@@ -7777,10 +7841,10 @@
         <v>1530.181350854171</v>
       </c>
       <c r="C205" t="n">
-        <v>1527.219635535275</v>
+        <v>1529.239782296492</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1935532227760152</v>
+        <v>-0.06153313508583651</v>
       </c>
     </row>
     <row r="206">
@@ -7793,10 +7857,10 @@
         <v>200553.4450487138</v>
       </c>
       <c r="C206" t="n">
-        <v>198123.3615814543</v>
+        <v>199987.3301953215</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.211688718021867</v>
+        <v>-0.2822763045804376</v>
       </c>
     </row>
     <row r="207">
@@ -7809,10 +7873,10 @@
         <v>278.5757751426285</v>
       </c>
       <c r="C207" t="n">
-        <v>272.7289591011098</v>
+        <v>277.3144495608016</v>
       </c>
       <c r="D207" t="n">
-        <v>-2.098824292430017</v>
+        <v>-0.4527764774884345</v>
       </c>
     </row>
     <row r="208">
@@ -7825,10 +7889,10 @@
         <v>228.4063210516134</v>
       </c>
       <c r="C208" t="n">
-        <v>225.2021291872164</v>
+        <v>227.7113443082673</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.402847280952847</v>
+        <v>-0.3042721147761061</v>
       </c>
     </row>
     <row r="209">
@@ -7841,10 +7905,10 @@
         <v>224.8375270473168</v>
       </c>
       <c r="C209" t="n">
-        <v>222.7204230987463</v>
+        <v>224.4016753439233</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.9416150303614523</v>
+        <v>-0.1938518489850672</v>
       </c>
     </row>
     <row r="210">
@@ -7857,10 +7921,10 @@
         <v>2778.315250756939</v>
       </c>
       <c r="C210" t="n">
-        <v>2718.904708398984</v>
+        <v>2766.731176344823</v>
       </c>
       <c r="D210" t="n">
-        <v>-2.138365771910469</v>
+        <v>-0.4169460038402769</v>
       </c>
     </row>
     <row r="211">
@@ -7873,10 +7937,10 @@
         <v>542.7758068847991</v>
       </c>
       <c r="C211" t="n">
-        <v>521.518326024199</v>
+        <v>535.7862123131189</v>
       </c>
       <c r="D211" t="n">
-        <v>-3.916438535203873</v>
+        <v>-1.287749837597991</v>
       </c>
     </row>
     <row r="212">
@@ -7889,10 +7953,10 @@
         <v>37061.93836946738</v>
       </c>
       <c r="C212" t="n">
-        <v>36425.13441115498</v>
+        <v>36938.23716287346</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.71821546936955</v>
+        <v>-0.3337688529961729</v>
       </c>
     </row>
     <row r="213">
@@ -7905,10 +7969,10 @@
         <v>5019.468010577606</v>
       </c>
       <c r="C213" t="n">
-        <v>4935.218758010532</v>
+        <v>5002.097191525341</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.67844983551114</v>
+        <v>-0.3460689263415759</v>
       </c>
     </row>
     <row r="214">
@@ -7921,10 +7985,10 @@
         <v>11282.78686576815</v>
       </c>
       <c r="C214" t="n">
-        <v>11113.25082516663</v>
+        <v>11243.31061694633</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.502607845193704</v>
+        <v>-0.3498803025482508</v>
       </c>
     </row>
     <row r="215">
@@ -7937,10 +8001,10 @@
         <v>15112.70997075617</v>
       </c>
       <c r="C215" t="n">
-        <v>14882.48168888272</v>
+        <v>15073.43921809502</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.523408325303328</v>
+        <v>-0.2598524866628468</v>
       </c>
     </row>
     <row r="216">
@@ -7953,10 +8017,10 @@
         <v>18494.36720134626</v>
       </c>
       <c r="C216" t="n">
-        <v>18171.89228629163</v>
+        <v>18428.70558406892</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.743638544341004</v>
+        <v>-0.3550357606858782</v>
       </c>
     </row>
     <row r="217">
@@ -7969,10 +8033,10 @@
         <v>2317.133481337426</v>
       </c>
       <c r="C217" t="n">
-        <v>2268.739560650386</v>
+        <v>2311.202966955991</v>
       </c>
       <c r="D217" t="n">
-        <v>-2.08852537313073</v>
+        <v>-0.2559418535531194</v>
       </c>
     </row>
     <row r="218">
@@ -7985,10 +8049,10 @@
         <v>3727.739661860719</v>
       </c>
       <c r="C218" t="n">
-        <v>3674.301475792005</v>
+        <v>3717.195462004733</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.433527845719774</v>
+        <v>-0.2828577318278484</v>
       </c>
     </row>
     <row r="219">
@@ -8001,10 +8065,10 @@
         <v>9138.766773565736</v>
       </c>
       <c r="C219" t="n">
-        <v>9034.783822148072</v>
+        <v>9116.297176180962</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.137822574906262</v>
+        <v>-0.2458712202807063</v>
       </c>
     </row>
     <row r="220">
@@ -8017,10 +8081,10 @@
         <v>6348.413799460275</v>
       </c>
       <c r="C220" t="n">
-        <v>6267.494810321254</v>
+        <v>6333.6115407222</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.274633187047464</v>
+        <v>-0.2331646802754733</v>
       </c>
     </row>
     <row r="221">
@@ -8033,10 +8097,10 @@
         <v>26823.73566237933</v>
       </c>
       <c r="C221" t="n">
-        <v>26771.81745753586</v>
+        <v>26807.23017687911</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1935532227760611</v>
+        <v>-0.06153313508589889</v>
       </c>
     </row>
     <row r="222">
@@ -8049,10 +8113,10 @@
         <v>3771.408181945571</v>
       </c>
       <c r="C222" t="n">
-        <v>3725.710454494384</v>
+        <v>3760.762390298932</v>
       </c>
       <c r="D222" t="n">
-        <v>-1.211688718021847</v>
+        <v>-0.2822763045804005</v>
       </c>
     </row>
     <row r="223">
@@ -8065,10 +8129,10 @@
         <v>1655.903869521936</v>
       </c>
       <c r="C223" t="n">
-        <v>1621.149356849121</v>
+        <v>1648.40632631092</v>
       </c>
       <c r="D223" t="n">
-        <v>-2.098824292430004</v>
+        <v>-0.452776477488409</v>
       </c>
     </row>
     <row r="224">
@@ -8081,10 +8145,10 @@
         <v>7689.051612621561</v>
       </c>
       <c r="C224" t="n">
-        <v>7581.185961142838</v>
+        <v>7665.65597267361</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.402847280952847</v>
+        <v>-0.3042721147761106</v>
       </c>
     </row>
     <row r="225">
@@ -8097,10 +8161,10 @@
         <v>2710.279428830022</v>
       </c>
       <c r="C225" t="n">
-        <v>2684.759030363364</v>
+        <v>2705.025502044574</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.9416150303614429</v>
+        <v>-0.1938518489850382</v>
       </c>
     </row>
     <row r="226">
@@ -8113,10 +8177,10 @@
         <v>325.8283497189743</v>
       </c>
       <c r="C226" t="n">
-        <v>318.860947813403</v>
+        <v>324.4698214354423</v>
       </c>
       <c r="D226" t="n">
-        <v>-2.138365771910475</v>
+        <v>-0.4169460038402801</v>
       </c>
     </row>
     <row r="227">
@@ -8129,10 +8193,10 @@
         <v>51.47494382944985</v>
       </c>
       <c r="C227" t="n">
-        <v>49.45895929333872</v>
+        <v>50.81207532388245</v>
       </c>
       <c r="D227" t="n">
-        <v>-3.916438535203882</v>
+        <v>-1.287749837598001</v>
       </c>
     </row>
     <row r="228">
@@ -8145,10 +8209,10 @@
         <v>6916.856511036302</v>
       </c>
       <c r="C228" t="n">
-        <v>6798.010012469582</v>
+        <v>6893.770198396024</v>
       </c>
       <c r="D228" t="n">
-        <v>-1.718215469369549</v>
+        <v>-0.3337688529961916</v>
       </c>
     </row>
     <row r="229">
@@ -8161,10 +8225,10 @@
         <v>369.233986241517</v>
       </c>
       <c r="C229" t="n">
-        <v>363.036579006795</v>
+        <v>367.9561821496428</v>
       </c>
       <c r="D229" t="n">
-        <v>-1.678449835511147</v>
+        <v>-0.3460689263415865</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8241,10 @@
         <v>1775.27247268218</v>
       </c>
       <c r="C230" t="n">
-        <v>1748.597089234093</v>
+        <v>1769.061143983704</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.502607845193716</v>
+        <v>-0.3498803025482443</v>
       </c>
     </row>
     <row r="231">
@@ -8193,10 +8257,10 @@
         <v>5928.014601319257</v>
       </c>
       <c r="C231" t="n">
-        <v>5837.706733357561</v>
+        <v>5912.610507967991</v>
       </c>
       <c r="D231" t="n">
-        <v>-1.523408325303347</v>
+        <v>-0.2598524866628691</v>
       </c>
     </row>
     <row r="232">
@@ -8209,10 +8273,10 @@
         <v>1031.395597177054</v>
       </c>
       <c r="C232" t="n">
-        <v>1013.411786000038</v>
+        <v>1027.733773972936</v>
       </c>
       <c r="D232" t="n">
-        <v>-1.743638544341053</v>
+        <v>-0.3550357606859055</v>
       </c>
     </row>
     <row r="233">
@@ -8225,10 +8289,10 @@
         <v>1608.551307985471</v>
       </c>
       <c r="C233" t="n">
-        <v>1574.956305778368</v>
+        <v>1604.43435195246</v>
       </c>
       <c r="D233" t="n">
-        <v>-2.088525373130721</v>
+        <v>-0.2559418535530993</v>
       </c>
     </row>
     <row r="234">
@@ -8241,10 +8305,10 @@
         <v>677.4327596080684</v>
       </c>
       <c r="C234" t="n">
-        <v>667.7215723630587</v>
+        <v>675.5165886695821</v>
       </c>
       <c r="D234" t="n">
-        <v>-1.433527845719792</v>
+        <v>-0.282857731827864</v>
       </c>
     </row>
     <row r="235">
@@ -8257,10 +8321,10 @@
         <v>1698.715141718269</v>
       </c>
       <c r="C235" t="n">
-        <v>1679.386777352448</v>
+        <v>1694.538490070233</v>
       </c>
       <c r="D235" t="n">
-        <v>-1.137822574906268</v>
+        <v>-0.2458712202806958</v>
       </c>
     </row>
     <row r="236">
@@ -8273,10 +8337,10 @@
         <v>645.5155124368843</v>
       </c>
       <c r="C236" t="n">
-        <v>637.2875574878244</v>
+        <v>644.0103982561823</v>
       </c>
       <c r="D236" t="n">
-        <v>-1.274633187047434</v>
+        <v>-0.2331646802754634</v>
       </c>
     </row>
     <row r="237">
@@ -8289,10 +8353,10 @@
         <v>1645.530889760532</v>
       </c>
       <c r="C237" t="n">
-        <v>1642.345911691626</v>
+        <v>1644.518343015256</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1935532227760246</v>
+        <v>-0.0615331350858684</v>
       </c>
     </row>
     <row r="238">
@@ -8305,10 +8369,10 @@
         <v>761.9280649988186</v>
       </c>
       <c r="C238" t="n">
-        <v>752.6958685957858</v>
+        <v>759.7773226133789</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.211688718021846</v>
+        <v>-0.2822763045804094</v>
       </c>
     </row>
     <row r="239">
@@ -8321,10 +8385,10 @@
         <v>537.7236817026917</v>
       </c>
       <c r="C239" t="n">
-        <v>526.4378064449666</v>
+        <v>535.2889953580572</v>
       </c>
       <c r="D239" t="n">
-        <v>-2.098824292430014</v>
+        <v>-0.4527764774884295</v>
       </c>
     </row>
     <row r="240">
@@ -8337,10 +8401,10 @@
         <v>11949.50026854712</v>
       </c>
       <c r="C240" t="n">
-        <v>11781.86702894235</v>
+        <v>11913.14127137483</v>
       </c>
       <c r="D240" t="n">
-        <v>-1.40284728095287</v>
+        <v>-0.3042721147761225</v>
       </c>
     </row>
     <row r="241">
@@ -8353,10 +8417,10 @@
         <v>386.8847934372729</v>
       </c>
       <c r="C241" t="n">
-        <v>383.2418280720848</v>
+        <v>386.1348101117528</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.9416150303614078</v>
+        <v>-0.1938518489850324</v>
       </c>
     </row>
     <row r="242">
@@ -8369,10 +8433,10 @@
         <v>1046.295292655768</v>
       </c>
       <c r="C242" t="n">
-        <v>1023.921672244507</v>
+        <v>1041.932806244671</v>
       </c>
       <c r="D242" t="n">
-        <v>-2.138365771910469</v>
+        <v>-0.4169460038402888</v>
       </c>
     </row>
     <row r="243">
@@ -8385,10 +8449,10 @@
         <v>130.1836001021431</v>
       </c>
       <c r="C243" t="n">
-        <v>125.085039421227</v>
+        <v>128.5071610032485</v>
       </c>
       <c r="D243" t="n">
-        <v>-3.916438535203903</v>
+        <v>-1.287749837598021</v>
       </c>
     </row>
     <row r="244">
@@ -8401,10 +8465,10 @@
         <v>11809.09997807655</v>
       </c>
       <c r="C244" t="n">
-        <v>11606.19419545993</v>
+        <v>11769.68488053055</v>
       </c>
       <c r="D244" t="n">
-        <v>-1.718215469369525</v>
+        <v>-0.3337688529961619</v>
       </c>
     </row>
     <row r="245">
@@ -8417,10 +8481,10 @@
         <v>825.7796476708539</v>
       </c>
       <c r="C245" t="n">
-        <v>811.9193505328379</v>
+        <v>822.9218809102121</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.678449835511149</v>
+        <v>-0.3460689263415889</v>
       </c>
     </row>
     <row r="246">
@@ -8433,10 +8497,10 @@
         <v>3297.724954117424</v>
       </c>
       <c r="C246" t="n">
-        <v>3248.173080243945</v>
+        <v>3286.186864070748</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.502607845193723</v>
+        <v>-0.3498803025482805</v>
       </c>
     </row>
     <row r="247">
@@ -8449,10 +8513,10 @@
         <v>11905.56344431094</v>
       </c>
       <c r="C247" t="n">
-        <v>11724.19309962603</v>
+        <v>11874.62654164968</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.523408325303348</v>
+        <v>-0.2598524866628393</v>
       </c>
     </row>
     <row r="248">
@@ -8465,10 +8529,10 @@
         <v>2030.975650240378</v>
       </c>
       <c r="C248" t="n">
-        <v>1995.562775976606</v>
+        <v>2023.764960391202</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.743638544341024</v>
+        <v>-0.355035760685889</v>
       </c>
     </row>
     <row r="249">
@@ -8481,10 +8545,10 @@
         <v>7229.999439492259</v>
       </c>
       <c r="C249" t="n">
-        <v>7078.999066721254</v>
+        <v>7211.494844914944</v>
       </c>
       <c r="D249" t="n">
-        <v>-2.088525373130719</v>
+        <v>-0.2559418535530898</v>
       </c>
     </row>
     <row r="250">
@@ -8497,10 +8561,10 @@
         <v>1917.548880912487</v>
       </c>
       <c r="C250" t="n">
-        <v>1890.060283749319</v>
+        <v>1912.124945641248</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.433527845719772</v>
+        <v>-0.2828577318278347</v>
       </c>
     </row>
     <row r="251">
@@ -8513,10 +8577,10 @@
         <v>5140.148725132723</v>
       </c>
       <c r="C251" t="n">
-        <v>5081.662952554406</v>
+        <v>5127.510578737996</v>
       </c>
       <c r="D251" t="n">
-        <v>-1.137822574906266</v>
+        <v>-0.2458712202806946</v>
       </c>
     </row>
     <row r="252">
@@ -8529,10 +8593,10 @@
         <v>1583.233059004502</v>
       </c>
       <c r="C252" t="n">
-        <v>1563.052645006124</v>
+        <v>1579.541518704459</v>
       </c>
       <c r="D252" t="n">
-        <v>-1.274633187047431</v>
+        <v>-0.2331646802754607</v>
       </c>
     </row>
     <row r="253">
@@ -8545,10 +8609,10 @@
         <v>5884.108741303054</v>
       </c>
       <c r="C253" t="n">
-        <v>5872.719859202614</v>
+        <v>5880.488064722667</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.19355322277605</v>
+        <v>-0.061533135085884</v>
       </c>
     </row>
     <row r="254">
@@ -8561,10 +8625,10 @@
         <v>1109.271824274989</v>
       </c>
       <c r="C254" t="n">
-        <v>1095.830902728054</v>
+        <v>1106.140612761674</v>
       </c>
       <c r="D254" t="n">
-        <v>-1.21168871802181</v>
+        <v>-0.2822763045803829</v>
       </c>
     </row>
     <row r="255">
@@ -8577,10 +8641,10 @@
         <v>3763.941165659353</v>
       </c>
       <c r="C255" t="n">
-        <v>3684.94265412172</v>
+        <v>3746.898925434743</v>
       </c>
       <c r="D255" t="n">
-        <v>-2.098824292430043</v>
+        <v>-0.4527764774884452</v>
       </c>
     </row>
     <row r="256">
@@ -8593,10 +8657,10 @@
         <v>1794.712358636747</v>
       </c>
       <c r="C256" t="n">
-        <v>1769.535285112687</v>
+        <v>1789.251549388975</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.40284728095283</v>
+        <v>-0.3042721147760957</v>
       </c>
     </row>
     <row r="257">
@@ -8609,10 +8673,10 @@
         <v>30230.98358170662</v>
       </c>
       <c r="C257" t="n">
-        <v>29946.32409647518</v>
+        <v>30172.38026106712</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.9416150303614147</v>
+        <v>-0.1938518489850344</v>
       </c>
     </row>
   </sheetData>
@@ -8666,10 +8730,10 @@
         <v>3414557.645092672</v>
       </c>
       <c r="C2" t="n">
-        <v>3341541.913147858</v>
+        <v>3400320.783442635</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.138365771910483</v>
+        <v>-0.4169460038402931</v>
       </c>
     </row>
     <row r="3">
@@ -8682,10 +8746,10 @@
         <v>236483.0463515812</v>
       </c>
       <c r="C3" t="n">
-        <v>227221.3331950438</v>
+        <v>233437.7363062419</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.91643853520387</v>
+        <v>-1.287749837597985</v>
       </c>
     </row>
     <row r="4">
@@ -8698,10 +8762,10 @@
         <v>10693184.37090776</v>
       </c>
       <c r="C4" t="n">
-        <v>10509452.42287862</v>
+        <v>10657493.85208421</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.718215469369546</v>
+        <v>-0.3337688529961783</v>
       </c>
     </row>
     <row r="5">
@@ -8714,10 +8778,10 @@
         <v>859555.5685829821</v>
       </c>
       <c r="C5" t="n">
-        <v>845128.359555974</v>
+        <v>856580.9138554776</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.678449835511155</v>
+        <v>-0.3460689263415896</v>
       </c>
     </row>
     <row r="6">
@@ -8730,10 +8794,10 @@
         <v>2955558.97113681</v>
       </c>
       <c r="C6" t="n">
-        <v>2911148.510167181</v>
+        <v>2945218.052466604</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.502607845193729</v>
+        <v>-0.3498803025482652</v>
       </c>
     </row>
     <row r="7">
@@ -8746,10 +8810,10 @@
         <v>4193101.561300549</v>
       </c>
       <c r="C7" t="n">
-        <v>4129223.503027272</v>
+        <v>4182205.682625211</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.523408325303348</v>
+        <v>-0.2598524866628519</v>
       </c>
     </row>
     <row r="8">
@@ -8762,10 +8826,10 @@
         <v>1706212.131163495</v>
       </c>
       <c r="C8" t="n">
-        <v>1676461.958796306</v>
+        <v>1700154.467944704</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.743638544340994</v>
+        <v>-0.3550357606858558</v>
       </c>
     </row>
     <row r="9">
@@ -8778,10 +8842,10 @@
         <v>1023361.531720356</v>
       </c>
       <c r="C9" t="n">
-        <v>1001988.366471518</v>
+        <v>1020742.321247522</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.088525373130676</v>
+        <v>-0.2559418535530599</v>
       </c>
     </row>
     <row r="10">
@@ -8794,10 +8858,10 @@
         <v>1008230.237982081</v>
       </c>
       <c r="C10" t="n">
-        <v>993776.9767716408</v>
+        <v>1005378.380799322</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.433527845719805</v>
+        <v>-0.2828577318278825</v>
       </c>
     </row>
     <row r="11">
@@ -8810,10 +8874,10 @@
         <v>2590209.541191509</v>
       </c>
       <c r="C11" t="n">
-        <v>2560737.552294456</v>
+        <v>2583840.961384755</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.137822574906268</v>
+        <v>-0.2458712202806877</v>
       </c>
     </row>
     <row r="12">
@@ -8826,10 +8890,10 @@
         <v>1427752.616260717</v>
       </c>
       <c r="C12" t="n">
-        <v>1409554.00758492</v>
+        <v>1424423.601437888</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.274633187047444</v>
+        <v>-0.2331646802754763</v>
       </c>
     </row>
     <row r="13">
@@ -8842,10 +8906,10 @@
         <v>1993459.613516357</v>
       </c>
       <c r="C13" t="n">
-        <v>1989601.208189657</v>
+        <v>1992232.975319489</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1935532227760586</v>
+        <v>-0.06153313508588885</v>
       </c>
     </row>
     <row r="14">
@@ -8858,10 +8922,10 @@
         <v>1209532.48903948</v>
       </c>
       <c r="C14" t="n">
-        <v>1194876.72032898</v>
+        <v>1206118.26542672</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.211688718021857</v>
+        <v>-0.282276304580418</v>
       </c>
     </row>
     <row r="15">
@@ -8874,10 +8938,10 @@
         <v>848111.702553727</v>
       </c>
       <c r="C15" t="n">
-        <v>830311.3281135873</v>
+        <v>844271.6522617369</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.09882429243004</v>
+        <v>-0.4527764774884454</v>
       </c>
     </row>
     <row r="16">
@@ -8890,10 +8954,10 @@
         <v>450023.7008461211</v>
       </c>
       <c r="C16" t="n">
-        <v>443710.5555951579</v>
+        <v>448654.4042145629</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.402847280952855</v>
+        <v>-0.3042721147761119</v>
       </c>
     </row>
     <row r="17">
@@ -8906,10 +8970,10 @@
         <v>545780.8972354506</v>
       </c>
       <c r="C17" t="n">
-        <v>540641.7422742401</v>
+        <v>544722.8908747524</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9416150303614245</v>
+        <v>-0.1938518489850547</v>
       </c>
     </row>
   </sheetData>
@@ -8963,10 +9027,10 @@
         <v>681704.0979888855</v>
       </c>
       <c r="C2" t="n">
-        <v>664854.0022394819</v>
+        <v>678419.4796800108</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.471760958913629</v>
+        <v>-0.481824638954747</v>
       </c>
     </row>
     <row r="3">
@@ -8979,10 +9043,10 @@
         <v>1249.88667263317</v>
       </c>
       <c r="C3" t="n">
-        <v>1230.066259031817</v>
+        <v>1245.014411472232</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.585776857640768</v>
+        <v>-0.3898162343529695</v>
       </c>
     </row>
     <row r="4">
@@ -8995,10 +9059,10 @@
         <v>5072181.859160316</v>
       </c>
       <c r="C4" t="n">
-        <v>5004893.842092412</v>
+        <v>5059357.692939177</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.326608921688859</v>
+        <v>-0.2528333284812864</v>
       </c>
     </row>
     <row r="5">
@@ -9011,10 +9075,10 @@
         <v>228099.3515061853</v>
       </c>
       <c r="C5" t="n">
-        <v>223444.7347934393</v>
+        <v>227075.9673230741</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.040609358163747</v>
+        <v>-0.4486572085162199</v>
       </c>
     </row>
     <row r="6">
@@ -9027,10 +9091,10 @@
         <v>41509.39267939057</v>
       </c>
       <c r="C6" t="n">
-        <v>40673.04521894605</v>
+        <v>41323.13671410933</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.014839067640151</v>
+        <v>-0.4487079989819212</v>
       </c>
     </row>
     <row r="7">
@@ -9043,10 +9107,10 @@
         <v>1668853.361421085</v>
       </c>
       <c r="C7" t="n">
-        <v>1645852.41495778</v>
+        <v>1665322.088540069</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.378248502535834</v>
+        <v>-0.2115987517326949</v>
       </c>
     </row>
     <row r="8">
@@ -9059,10 +9123,10 @@
         <v>844195.7394430137</v>
       </c>
       <c r="C8" t="n">
-        <v>831890.3921090747</v>
+        <v>841741.1210805713</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.457641487513049</v>
+        <v>-0.290764125872262</v>
       </c>
     </row>
     <row r="9">
@@ -9075,10 +9139,10 @@
         <v>827929.9838858522</v>
       </c>
       <c r="C9" t="n">
-        <v>816559.602191954</v>
+        <v>825982.7692421426</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.373350635343794</v>
+        <v>-0.2351907385417339</v>
       </c>
     </row>
     <row r="10">
@@ -9091,10 +9155,10 @@
         <v>279204.3897815574</v>
       </c>
       <c r="C10" t="n">
-        <v>275576.1729192398</v>
+        <v>278505.3658713471</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.299484175430125</v>
+        <v>-0.2503627936355636</v>
       </c>
     </row>
     <row r="11">
@@ -9107,10 +9171,10 @@
         <v>847117.1702098944</v>
       </c>
       <c r="C11" t="n">
-        <v>839120.1406122441</v>
+        <v>845347.1844001318</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9440287458308534</v>
+        <v>-0.208942265840752</v>
       </c>
     </row>
     <row r="12">
@@ -9123,10 +9187,10 @@
         <v>709106.1542588873</v>
       </c>
       <c r="C12" t="n">
-        <v>700573.8730654323</v>
+        <v>707616.9256001579</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.20324455544634</v>
+        <v>-0.2100149109953497</v>
       </c>
     </row>
     <row r="13">
@@ -9139,10 +9203,10 @@
         <v>34388.56298679487</v>
       </c>
       <c r="C13" t="n">
-        <v>34241.6153740593</v>
+        <v>34357.69804140698</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4273153629362008</v>
+        <v>-0.08975351892354973</v>
       </c>
     </row>
     <row r="14">
@@ -9155,10 +9219,10 @@
         <v>547184.0434827509</v>
       </c>
       <c r="C14" t="n">
-        <v>540779.4281184464</v>
+        <v>545707.6862431758</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.170468225560822</v>
+        <v>-0.2698099948562672</v>
       </c>
     </row>
     <row r="15">
@@ -9171,10 +9235,10 @@
         <v>624199.4650670212</v>
       </c>
       <c r="C15" t="n">
-        <v>611162.8863290097</v>
+        <v>621402.3512443106</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.088527701094999</v>
+        <v>-0.4481121787584765</v>
       </c>
     </row>
     <row r="16">
@@ -9187,10 +9251,10 @@
         <v>366170.2447981961</v>
       </c>
       <c r="C16" t="n">
-        <v>361129.8906468896</v>
+        <v>365077.5280267036</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.376505661754216</v>
+        <v>-0.298417686039635</v>
       </c>
     </row>
     <row r="17">
@@ -9203,10 +9267,10 @@
         <v>476990.7278785029</v>
       </c>
       <c r="C17" t="n">
-        <v>472397.8082692917</v>
+        <v>476055.9717341074</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.9628949454927682</v>
+        <v>-0.1959694580548872</v>
       </c>
     </row>
   </sheetData>
@@ -9260,10 +9324,10 @@
         <v>4199.478882578032</v>
       </c>
       <c r="C2" t="n">
-        <v>4092.002620262509</v>
+        <v>4178.386153025709</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.559276170226731</v>
+        <v>-0.5022701659443677</v>
       </c>
     </row>
     <row r="3">
@@ -9276,10 +9340,10 @@
         <v>182.8844489195033</v>
       </c>
       <c r="C3" t="n">
-        <v>179.8228039689639</v>
+        <v>182.1341093880806</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.674087090853206</v>
+        <v>-0.4102806640235527</v>
       </c>
     </row>
     <row r="4">
@@ -9292,10 +9356,10 @@
         <v>373785.7590061041</v>
       </c>
       <c r="C4" t="n">
-        <v>368496.1234286449</v>
+        <v>372764.1057138882</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.415151714587606</v>
+        <v>-0.27332590062618</v>
       </c>
     </row>
     <row r="5">
@@ -9308,10 +9372,10 @@
         <v>30208.34326232866</v>
       </c>
       <c r="C5" t="n">
-        <v>29565.35521543949</v>
+        <v>30066.63303931104</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.128511455611715</v>
+        <v>-0.4691095495936849</v>
       </c>
     </row>
     <row r="6">
@@ -9324,10 +9388,10 @@
         <v>544.2639596754708</v>
       </c>
       <c r="C6" t="n">
-        <v>532.8193714902799</v>
+        <v>541.7104890882285</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.102764289594889</v>
+        <v>-0.4691603296247691</v>
       </c>
     </row>
     <row r="7">
@@ -9340,10 +9404,10 @@
         <v>109078.9813295354</v>
       </c>
       <c r="C7" t="n">
-        <v>107479.0708710989</v>
+        <v>108825.8092371306</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.466744957585443</v>
+        <v>-0.2320997953216556</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9420,10 @@
         <v>72652.30470162898</v>
       </c>
       <c r="C8" t="n">
-        <v>71529.05161134929</v>
+        <v>72426.1751985564</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.546066700695458</v>
+        <v>-0.3112489053186278</v>
       </c>
     </row>
     <row r="9">
@@ -9372,10 +9436,10 @@
         <v>256449.3035849219</v>
       </c>
       <c r="C9" t="n">
-        <v>252700.3956311513</v>
+        <v>255793.596220061</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.461851485406431</v>
+        <v>-0.2556869352712942</v>
       </c>
     </row>
     <row r="10">
@@ -9388,10 +9452,10 @@
         <v>155149.7673252957</v>
       </c>
       <c r="C10" t="n">
-        <v>152996.2089502178</v>
+        <v>154729.5350680219</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.388051308232113</v>
+        <v>-0.270855873339915</v>
       </c>
     </row>
     <row r="11">
@@ -9404,10 +9468,10 @@
         <v>481768.4252947781</v>
       </c>
       <c r="C11" t="n">
-        <v>476792.1677346554</v>
+        <v>480663.0372466847</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.032914840169921</v>
+        <v>-0.22944385519184</v>
       </c>
     </row>
     <row r="12">
@@ -9420,10 +9484,10 @@
         <v>40310.04944841391</v>
       </c>
       <c r="C12" t="n">
-        <v>39789.28470678846</v>
+        <v>40217.12822196865</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.291898047140546</v>
+        <v>-0.230516279976715</v>
       </c>
     </row>
     <row r="13">
@@ -9436,10 +9500,10 @@
         <v>54737.47033988653</v>
       </c>
       <c r="C13" t="n">
-        <v>54454.66092266676</v>
+        <v>54677.10607926861</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5166651207366579</v>
+        <v>-0.1102795950252991</v>
       </c>
     </row>
     <row r="14">
@@ -9452,10 +9516,10 @@
         <v>522067.6321158273</v>
       </c>
       <c r="C14" t="n">
-        <v>515494.0116344808</v>
+        <v>520552.0745868511</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.25915112850514</v>
+        <v>-0.2902990792273422</v>
       </c>
     </row>
     <row r="15">
@@ -9468,10 +9532,10 @@
         <v>22378.20519142771</v>
       </c>
       <c r="C15" t="n">
-        <v>21891.16888759147</v>
+        <v>22273.34883666689</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.176386799879749</v>
+        <v>-0.4685646318096651</v>
       </c>
     </row>
     <row r="16">
@@ -9484,10 +9548,10 @@
         <v>52685.52568929273</v>
       </c>
       <c r="C16" t="n">
-        <v>51913.68079874282</v>
+        <v>52517.51107733559</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.465003680710681</v>
+        <v>-0.3189008930991495</v>
       </c>
     </row>
     <row r="17">
@@ -9500,10 +9564,10 @@
         <v>23438.95177260142</v>
       </c>
       <c r="C17" t="n">
-        <v>23192.42928995943</v>
+        <v>23388.21260350322</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.051764110586872</v>
+        <v>-0.2164737126064974</v>
       </c>
     </row>
   </sheetData>
@@ -9557,10 +9621,10 @@
         <v>394497.6888084688</v>
       </c>
       <c r="C2" t="n">
-        <v>386777.8796161063</v>
+        <v>392988.939000323</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.956870575257157</v>
+        <v>-0.3824483263014277</v>
       </c>
     </row>
     <row r="3">
@@ -9573,10 +9637,10 @@
         <v>13216.80477489961</v>
       </c>
       <c r="C3" t="n">
-        <v>13075.88601137698</v>
+        <v>13178.43004069657</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.066209011350842</v>
+        <v>-0.2903480444525957</v>
       </c>
     </row>
     <row r="4">
@@ -9589,10 +9653,10 @@
         <v>1539821.604049792</v>
       </c>
       <c r="C4" t="n">
-        <v>1527415.679836588</v>
+        <v>1537462.160798434</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8056728247334319</v>
+        <v>-0.1532283509435411</v>
       </c>
     </row>
     <row r="5">
@@ -9605,10 +9669,10 @@
         <v>1367.881618448352</v>
       </c>
       <c r="C5" t="n">
-        <v>1347.042725053765</v>
+        <v>1363.104322321542</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.523442753637232</v>
+        <v>-0.3492477757124529</v>
       </c>
     </row>
     <row r="6">
@@ -9621,10 +9685,10 @@
         <v>2927645.3929571</v>
       </c>
       <c r="C6" t="n">
-        <v>2883802.837198108</v>
+        <v>2917419.168091874</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.497536411495113</v>
+        <v>-0.3492986168962548</v>
       </c>
     </row>
     <row r="7">
@@ -9637,10 +9701,10 @@
         <v>4560.995555048999</v>
       </c>
       <c r="C7" t="n">
-        <v>4521.881139882575</v>
+        <v>4555.889402012308</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8575850314768525</v>
+        <v>-0.1119525983979305</v>
       </c>
     </row>
     <row r="8">
@@ -9653,10 +9717,10 @@
         <v>1090.025652932387</v>
       </c>
       <c r="C8" t="n">
-        <v>1079.807783379124</v>
+        <v>1087.94155631157</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9373971636148776</v>
+        <v>-0.1911970250617654</v>
       </c>
     </row>
     <row r="9">
@@ -9669,10 +9733,10 @@
         <v>618.7971370217454</v>
       </c>
       <c r="C9" t="n">
-        <v>613.5208932686629</v>
+        <v>617.958245230661</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8526613064948659</v>
+        <v>-0.135568143563488</v>
       </c>
     </row>
     <row r="10">
@@ -9685,10 +9749,10 @@
         <v>21716.29890705622</v>
       </c>
       <c r="C10" t="n">
-        <v>21547.2581774454</v>
+        <v>21683.5604248306</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7784048761453464</v>
+        <v>-0.1507553490847354</v>
       </c>
     </row>
     <row r="11">
@@ -9701,10 +9765,10 @@
         <v>3166.211466152315</v>
       </c>
       <c r="C11" t="n">
-        <v>3152.87940910841</v>
+        <v>3162.751004096155</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4210728558856046</v>
+        <v>-0.1092934598068779</v>
       </c>
     </row>
     <row r="12">
@@ -9717,10 +9781,10 @@
         <v>7014.752514295814</v>
       </c>
       <c r="C12" t="n">
-        <v>6966.935950900771</v>
+        <v>7007.010530036952</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6816571689107283</v>
+        <v>-0.1103671760776112</v>
       </c>
     </row>
     <row r="13">
@@ -9733,10 +9797,10 @@
         <v>31104.57843132653</v>
       </c>
       <c r="C13" t="n">
-        <v>31135.17552691983</v>
+        <v>31107.6933389764</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09836846257491462</v>
+        <v>0.01001430595417564</v>
       </c>
     </row>
     <row r="14">
@@ -9749,10 +9813,10 @@
         <v>1057.98409967499</v>
       </c>
       <c r="C14" t="n">
-        <v>1051.120874300422</v>
+        <v>1056.183178300514</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6487077997369064</v>
+        <v>-0.1702219697847551</v>
       </c>
     </row>
     <row r="15">
@@ -9765,10 +9829,10 @@
         <v>5564.495219738023</v>
       </c>
       <c r="C15" t="n">
-        <v>5477.042829574604</v>
+        <v>5545.091702393199</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.571614076569117</v>
+        <v>-0.348702201701905</v>
       </c>
     </row>
     <row r="16">
@@ -9781,10 +9845,10 @@
         <v>2237.227755704404</v>
       </c>
       <c r="C16" t="n">
-        <v>2218.080822519824</v>
+        <v>2232.77884423579</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.8558329895452061</v>
+        <v>-0.198858227879155</v>
       </c>
     </row>
     <row r="17">
@@ -9797,10 +9861,10 @@
         <v>4424.727197110003</v>
       </c>
       <c r="C17" t="n">
-        <v>4405.256686943935</v>
+        <v>4420.465844216698</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4400386577230021</v>
+        <v>-0.09630769770591981</v>
       </c>
     </row>
   </sheetData>
@@ -9854,10 +9918,10 @@
         <v>88379.20989359371</v>
       </c>
       <c r="C2" t="n">
-        <v>84302.27505053059</v>
+        <v>87571.22357629673</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.613002139271947</v>
+        <v>-0.9142266809917997</v>
       </c>
     </row>
     <row r="3">
@@ -9870,10 +9934,10 @@
         <v>80038.6007416122</v>
       </c>
       <c r="C3" t="n">
-        <v>75753.42062413304</v>
+        <v>78513.96179674414</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.353891844402634</v>
+        <v>-1.90487955903931</v>
       </c>
     </row>
     <row r="4">
@@ -9886,10 +9950,10 @@
         <v>2920941.758736638</v>
       </c>
       <c r="C4" t="n">
-        <v>2862322.75493128</v>
+        <v>2909634.486956403</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.00685287989829</v>
+        <v>-0.3871104840216112</v>
       </c>
     </row>
     <row r="5">
@@ -9902,10 +9966,10 @@
         <v>0.1707930718649235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1651208708290727</v>
+        <v>0.1694626312485125</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.321095506928291</v>
+        <v>-0.7789780943007253</v>
       </c>
     </row>
     <row r="6">
@@ -9918,10 +9982,10 @@
         <v>3019.361322344704</v>
       </c>
       <c r="C6" t="n">
-        <v>2925.832658314265</v>
+        <v>2995.720506745281</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.097630725355158</v>
+        <v>-0.7829740489973945</v>
       </c>
     </row>
     <row r="7">
@@ -9934,10 +9998,10 @@
         <v>302312.1911261023</v>
       </c>
       <c r="C7" t="n">
-        <v>296765.7180640233</v>
+        <v>301640.8508667515</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.83468388800947</v>
+        <v>-0.2220685367831377</v>
       </c>
     </row>
     <row r="8">
@@ -9950,10 +10014,10 @@
         <v>339911.8913027431</v>
       </c>
       <c r="C8" t="n">
-        <v>332392.2319449569</v>
+        <v>338320.7376971453</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.212237803439727</v>
+        <v>-0.4681076615176809</v>
       </c>
     </row>
     <row r="9">
@@ -9966,10 +10030,10 @@
         <v>467265.7590406692</v>
       </c>
       <c r="C9" t="n">
-        <v>455766.8841785723</v>
+        <v>466032.1521405</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.460885403994709</v>
+        <v>-0.2640054136861751</v>
       </c>
     </row>
     <row r="10">
@@ -9982,10 +10046,10 @@
         <v>303862.505135322</v>
       </c>
       <c r="C10" t="n">
-        <v>299092.7241014982</v>
+        <v>302914.7616567994</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.569716879579999</v>
+        <v>-0.3118987905732266</v>
       </c>
     </row>
     <row r="11">
@@ -9998,10 +10062,10 @@
         <v>44667.50305592605</v>
       </c>
       <c r="C11" t="n">
-        <v>44405.69265254834</v>
+        <v>44578.58661872854</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5861317187349941</v>
+        <v>-0.1990629229625343</v>
       </c>
     </row>
     <row r="12">
@@ -10014,10 +10078,10 @@
         <v>6203.60467028512</v>
       </c>
       <c r="C12" t="n">
-        <v>6125.690597661926</v>
+        <v>6192.04407773914</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.255948384274019</v>
+        <v>-0.1863528248560713</v>
       </c>
     </row>
     <row r="13">
@@ -10030,10 +10094,10 @@
         <v>839824.0628519823</v>
       </c>
       <c r="C13" t="n">
-        <v>846676.0105185417</v>
+        <v>840834.1328457613</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8158789405593649</v>
+        <v>0.1202716185993554</v>
       </c>
     </row>
     <row r="14">
@@ -10046,10 +10110,10 @@
         <v>10181.8199161731</v>
       </c>
       <c r="C14" t="n">
-        <v>10067.01142260922</v>
+        <v>10145.21558766412</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.127583226860207</v>
+        <v>-0.3595067366182939</v>
       </c>
     </row>
     <row r="15">
@@ -10062,10 +10126,10 @@
         <v>62709.11526794974</v>
       </c>
       <c r="C15" t="n">
-        <v>60371.06920668876</v>
+        <v>62170.65228332636</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.728399055337872</v>
+        <v>-0.858667806622023</v>
       </c>
     </row>
     <row r="16">
@@ -10078,10 +10142,10 @@
         <v>8969.809554331197</v>
       </c>
       <c r="C16" t="n">
-        <v>8814.703712630318</v>
+        <v>8930.634541170242</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.729198828151083</v>
+        <v>-0.4367429756860214</v>
       </c>
     </row>
     <row r="17">
@@ -10094,10 +10158,10 @@
         <v>40285.14188351417</v>
       </c>
       <c r="C17" t="n">
-        <v>40107.72204196148</v>
+        <v>40235.94431237355</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4404101196061492</v>
+        <v>-0.1221233656887093</v>
       </c>
     </row>
   </sheetData>
@@ -10151,10 +10215,10 @@
         <v>78355.35792597735</v>
       </c>
       <c r="C2" t="n">
-        <v>78772.76321268758</v>
+        <v>78440.75886134277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.532708033960554</v>
+        <v>0.1089918259911334</v>
       </c>
     </row>
     <row r="3">
@@ -10167,10 +10231,10 @@
         <v>317789.3840405327</v>
       </c>
       <c r="C3" t="n">
-        <v>314467.5630658641</v>
+        <v>317582.1308912087</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.045290101397761</v>
+        <v>-0.06521714057557884</v>
       </c>
     </row>
     <row r="4">
@@ -10183,10 +10247,10 @@
         <v>5812388.874918879</v>
       </c>
       <c r="C4" t="n">
-        <v>5741599.997358517</v>
+        <v>5798351.100836208</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.21789644643056</v>
+        <v>-0.2415147090939754</v>
       </c>
     </row>
     <row r="5">
@@ -10199,10 +10263,10 @@
         <v>0.0003561830006493868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003561548843716854</v>
+        <v>0.0003564990390615739</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00789377304646228</v>
+        <v>0.08872922391324295</v>
       </c>
     </row>
     <row r="6">
@@ -10215,10 +10279,10 @@
         <v>3747.700656387613</v>
       </c>
       <c r="C6" t="n">
-        <v>3752.269620463506</v>
+        <v>3750.922818445909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1219137944783678</v>
+        <v>0.08597703908939544</v>
       </c>
     </row>
     <row r="7">
@@ -10231,10 +10295,10 @@
         <v>18452.78067859498</v>
       </c>
       <c r="C7" t="n">
-        <v>18237.26570620205</v>
+        <v>18396.89569911594</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.167926808141857</v>
+        <v>-0.3028539733519203</v>
       </c>
     </row>
     <row r="8">
@@ -10247,10 +10311,10 @@
         <v>268135.8427319374</v>
       </c>
       <c r="C8" t="n">
-        <v>265336.6733035553</v>
+        <v>267635.0298830973</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.043937058120377</v>
+        <v>-0.1867757938429587</v>
       </c>
     </row>
     <row r="9">
@@ -10263,10 +10327,10 @@
         <v>640564.0214195349</v>
       </c>
       <c r="C9" t="n">
-        <v>633264.7933315489</v>
+        <v>639055.722108864</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.139500166089629</v>
+        <v>-0.2354642565357379</v>
       </c>
     </row>
     <row r="10">
@@ -10279,10 +10343,10 @@
         <v>71737.1030274103</v>
       </c>
       <c r="C10" t="n">
-        <v>70886.10900566434</v>
+        <v>71571.9746550283</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.18626761582607</v>
+        <v>-0.2301854485521945</v>
       </c>
     </row>
     <row r="11">
@@ -10295,10 +10359,10 @@
         <v>120414.6020779007</v>
       </c>
       <c r="C11" t="n">
-        <v>118361.9705871773</v>
+        <v>120060.3346154609</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.704636692978074</v>
+        <v>-0.2942063971698042</v>
       </c>
     </row>
     <row r="12">
@@ -10311,10 +10375,10 @@
         <v>126100.7636223691</v>
       </c>
       <c r="C12" t="n">
-        <v>124469.6924753858</v>
+        <v>125747.2584733702</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.293466510534241</v>
+        <v>-0.2803354546349506</v>
       </c>
     </row>
     <row r="13">
@@ -10327,10 +10391,10 @@
         <v>116158.5188728069</v>
       </c>
       <c r="C13" t="n">
-        <v>113103.9882510568</v>
+        <v>115573.3486114288</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.629622563537336</v>
+        <v>-0.5037687007862535</v>
       </c>
     </row>
     <row r="14">
@@ -10343,10 +10407,10 @@
         <v>28460.98512839308</v>
       </c>
       <c r="C14" t="n">
-        <v>28091.82150385574</v>
+        <v>28403.00098372908</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.297086600734217</v>
+        <v>-0.2037320366896095</v>
       </c>
     </row>
     <row r="15">
@@ -10359,10 +10423,10 @@
         <v>11764.370195582</v>
       </c>
       <c r="C15" t="n">
-        <v>11743.05406989813</v>
+        <v>11766.60815096113</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.181192238339046</v>
+        <v>0.01902316351769444</v>
       </c>
     </row>
     <row r="16">
@@ -10375,10 +10439,10 @@
         <v>6241.96478553941</v>
       </c>
       <c r="C16" t="n">
-        <v>6175.649988425263</v>
+        <v>6231.58113746777</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.062402615083248</v>
+        <v>-0.1663522372906604</v>
       </c>
     </row>
     <row r="17">
@@ -10391,10 +10455,10 @@
         <v>41897.22041143459</v>
       </c>
       <c r="C17" t="n">
-        <v>41263.28054752584</v>
+        <v>41781.59240171641</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.513083344630972</v>
+        <v>-0.2759801451807438</v>
       </c>
     </row>
   </sheetData>
